--- a/tools/game_levels.xlsx
+++ b/tools/game_levels.xlsx
@@ -1,14 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hubertnafalski/Documents/Projects/pydew-valley-uzh/tools/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBDC80F8-4223-DF47-95B4-0E350AF2B6C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="34560" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="v1 (family version)" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="v2 (friend version)" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="v3 (no group version)" sheetId="3" r:id="rId6"/>
+    <sheet name="v1 (family version)" sheetId="1" r:id="rId1"/>
+    <sheet name="v2 (friend version)" sheetId="2" r:id="rId2"/>
+    <sheet name="v3 (no group version)" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -474,39 +496,45 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="hh:mm"/>
   </numFmts>
   <fonts count="6">
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
-    <font/>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
+      <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -514,7 +542,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -530,20 +558,35 @@
     </fill>
   </fills>
   <borders count="11">
-    <border/>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
+      <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -556,6 +599,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -570,35 +614,45 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -608,124 +662,115 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="28">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -915,997 +960,1000 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2.0" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B4" sqref="B4" pane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="22.33"/>
-    <col customWidth="1" min="2" max="2" width="43.56"/>
-    <col customWidth="1" min="3" max="6" width="11.22"/>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="2" max="2" width="43.5" customWidth="1"/>
+    <col min="3" max="6" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="16">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5" t="s">
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+    </row>
+    <row r="2" spans="1:8" ht="17">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:8" ht="17">
+      <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:8" ht="17">
+      <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="12" t="s">
+      <c r="C4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="17">
+      <c r="A5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="15"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="12" t="s">
+      <c r="C5" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="24"/>
+    </row>
+    <row r="6" spans="1:8" ht="17">
+      <c r="A6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="15"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="12" t="s">
+      <c r="C6" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="24"/>
+    </row>
+    <row r="7" spans="1:8" ht="17">
+      <c r="A7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="15"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="12" t="s">
+      <c r="C7" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="24"/>
+    </row>
+    <row r="8" spans="1:8" ht="17">
+      <c r="A8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="15"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="12" t="s">
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="24"/>
+    </row>
+    <row r="9" spans="1:8" ht="34">
+      <c r="A9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="15"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="12" t="s">
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="24"/>
+    </row>
+    <row r="10" spans="1:8" ht="34">
+      <c r="A10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16">
-        <v>0.010416666666666666</v>
-      </c>
-      <c r="E10" s="16">
-        <v>0.010416666666666666</v>
-      </c>
-      <c r="F10" s="16">
-        <v>0.010416666666666666</v>
-      </c>
-      <c r="G10" s="16">
-        <v>0.010416666666666666</v>
-      </c>
-      <c r="H10" s="16">
-        <v>0.010416666666666666</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="12" t="s">
+      <c r="C10" s="9"/>
+      <c r="D10" s="9">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="E10" s="9">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="F10" s="9">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="G10" s="9">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="H10" s="9">
+        <v>1.0416666666666666E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="85">
+      <c r="A11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="17" t="s">
+      <c r="C11" s="4"/>
+      <c r="D11" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="17" t="s">
+      <c r="H11" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="12" t="s">
+    <row r="12" spans="1:8" ht="17">
+      <c r="A12" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="15"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="19" t="s">
+      <c r="C12" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="24"/>
+    </row>
+    <row r="13" spans="1:8" ht="119">
+      <c r="A13" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="20" t="s">
+    <row r="14" spans="1:8" ht="34">
+      <c r="A14" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="15"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="12" t="s">
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="24"/>
+    </row>
+    <row r="15" spans="1:8" ht="17">
+      <c r="A15" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="15"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="12" t="s">
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="24"/>
+    </row>
+    <row r="16" spans="1:8" ht="17">
+      <c r="A16" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="15"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="12" t="s">
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="24"/>
+    </row>
+    <row r="17" spans="1:8" ht="17">
+      <c r="A17" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="15"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="12" t="s">
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="24"/>
+    </row>
+    <row r="18" spans="1:8" ht="17">
+      <c r="A18" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="15"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="12" t="s">
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="24"/>
+    </row>
+    <row r="19" spans="1:8" ht="17">
+      <c r="A19" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="15"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="12" t="s">
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="24"/>
+    </row>
+    <row r="20" spans="1:8" ht="17">
+      <c r="A20" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="15"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="12" t="s">
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="24"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A21" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="15"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="12" t="s">
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="24"/>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A22" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="15"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="12" t="s">
+      <c r="C22" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="24"/>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A23" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="15"/>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="12" t="s">
+      <c r="C23" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="24"/>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A24" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C24" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="15"/>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="12" t="s">
+      <c r="C24" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="24"/>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A25" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C25" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="15"/>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="12" t="s">
+      <c r="C25" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="24"/>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A26" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C26" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="15"/>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="12" t="s">
+      <c r="C26" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="24"/>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A27" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C27" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="15"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="12" t="s">
+      <c r="C27" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="24"/>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A28" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C28" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="15"/>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="12" t="s">
+      <c r="C28" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="24"/>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A29" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="15"/>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="12" t="s">
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="24"/>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A30" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C30" s="16">
+      <c r="C30" s="9">
         <v>0.5</v>
       </c>
-      <c r="D30" s="16">
+      <c r="D30" s="9">
         <v>0.25</v>
       </c>
-      <c r="E30" s="16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="F30" s="16">
-        <v>0.4166666666666667</v>
-      </c>
-      <c r="G30" s="16">
-        <v>0.08333333333333333</v>
-      </c>
-      <c r="H30" s="16">
-        <v>0.4166666666666667</v>
-      </c>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="12" t="s">
+      <c r="E30" s="9">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F30" s="9">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="G30" s="9">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H30" s="9">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A31" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="15"/>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="12" t="s">
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="24"/>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A32" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E32" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F32" s="11" t="s">
+      <c r="F32" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G32" s="11" t="s">
+      <c r="G32" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="H32" s="11" t="s">
+      <c r="H32" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="23" t="s">
+    <row r="33" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A33" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C33" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="12" t="s">
+      <c r="C33" s="9">
+        <v>0</v>
+      </c>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A34" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="12" t="s">
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A35" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="E35" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F35" s="11" t="s">
+      <c r="F35" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="G35" s="11" t="s">
+      <c r="G35" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H35" s="11" t="s">
+      <c r="H35" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="12" t="s">
+    <row r="36" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A36" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="C36" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="15"/>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="12" t="s">
+      <c r="C36" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="24"/>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A37" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="15"/>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="12" t="s">
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="24"/>
+    </row>
+    <row r="38" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A38" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C38" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="15"/>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="12" t="s">
+      <c r="C38" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="24"/>
+    </row>
+    <row r="39" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A39" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C39" s="16">
-        <v>0.020833333333333332</v>
-      </c>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="12" t="s">
+      <c r="C39" s="9">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+    </row>
+    <row r="40" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A40" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="C40" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="12" t="s">
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+    </row>
+    <row r="41" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A41" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C41" s="11"/>
-      <c r="D41" s="25">
-        <v>0.2916666666666667</v>
-      </c>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="12" t="s">
+      <c r="C41" s="4"/>
+      <c r="D41" s="9">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+    </row>
+    <row r="42" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A42" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="12" t="s">
+      <c r="C42" s="4"/>
+      <c r="D42" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A43" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="C43" s="11"/>
-      <c r="D43" s="16">
-        <v>0.08333333333333333</v>
-      </c>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="12" t="s">
+      <c r="C43" s="4"/>
+      <c r="D43" s="9">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+    </row>
+    <row r="44" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A44" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="12" t="s">
+      <c r="C44" s="4"/>
+      <c r="D44" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+    </row>
+    <row r="45" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A45" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="12" t="s">
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="9">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+    </row>
+    <row r="46" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A46" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="12" t="s">
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+    </row>
+    <row r="47" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A47" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-    </row>
-    <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="12" t="s">
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+    </row>
+    <row r="48" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A48" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C48" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="15"/>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="12" t="s">
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="24"/>
+    </row>
+    <row r="49" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A49" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="B49" s="26" t="s">
+      <c r="B49" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="C49" s="27">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="D49" s="27">
+      <c r="C49" s="16">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D49" s="16">
         <v>0.375</v>
       </c>
-      <c r="E49" s="28">
-        <v>0.2916666666666667</v>
-      </c>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
-    </row>
-    <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="12" t="s">
+      <c r="E49" s="16">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+    </row>
+    <row r="50" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A50" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="B50" s="26" t="s">
+      <c r="B50" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="C50" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E50" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="11"/>
-    </row>
-    <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="12" t="s">
+      <c r="C50" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+    </row>
+    <row r="51" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A51" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="B51" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="25">
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="9">
         <v>0.16666666666666666</v>
       </c>
-      <c r="G51" s="16">
+      <c r="G51" s="9">
         <v>0.25</v>
       </c>
-      <c r="H51" s="16">
-        <v>0.2916666666666667</v>
-      </c>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="12" t="s">
+      <c r="H51" s="9">
+        <v>0.29166666666666669</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A52" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="B52" s="12" t="s">
+      <c r="B52" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G52" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H52" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="7" t="s">
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A53" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C53" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="15"/>
-    </row>
-    <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="7" t="s">
+      <c r="C53" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="23"/>
+      <c r="H53" s="24"/>
+    </row>
+    <row r="54" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A54" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C54" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="15"/>
-    </row>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
+      <c r="C54" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="24"/>
+    </row>
+    <row r="55" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="56" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="57" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="58" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="59" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="60" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="61" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="62" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="63" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="64" spans="1:8" ht="15.75" customHeight="1"/>
     <row r="65" ht="15.75" customHeight="1"/>
     <row r="66" ht="15.75" customHeight="1"/>
     <row r="67" ht="15.75" customHeight="1"/>
@@ -2844,26 +2892,6 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="C24:H24"/>
     <mergeCell ref="C25:H25"/>
     <mergeCell ref="C38:H38"/>
     <mergeCell ref="C48:H48"/>
@@ -2876,989 +2904,1011 @@
     <mergeCell ref="C31:H31"/>
     <mergeCell ref="C36:H36"/>
     <mergeCell ref="C37:H37"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2.0" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B4" sqref="B4" pane="bottomLeft"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="22.33"/>
-    <col customWidth="1" min="2" max="2" width="43.56"/>
-    <col customWidth="1" min="3" max="6" width="11.22"/>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="2" max="2" width="43.5" customWidth="1"/>
+    <col min="3" max="6" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="16">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="30" t="s">
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+    </row>
+    <row r="2" spans="1:8" ht="17">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:8" ht="17">
+      <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:8" ht="16">
+      <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="15"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="12" t="s">
+      <c r="C4" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="24"/>
+    </row>
+    <row r="5" spans="1:8" ht="17">
+      <c r="A5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="15"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="12" t="s">
+      <c r="C5" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="24"/>
+    </row>
+    <row r="6" spans="1:8" ht="17">
+      <c r="A6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="15"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="12" t="s">
+      <c r="C6" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="24"/>
+    </row>
+    <row r="7" spans="1:8" ht="17">
+      <c r="A7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="15"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="12" t="s">
+      <c r="C7" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="24"/>
+    </row>
+    <row r="8" spans="1:8" ht="17">
+      <c r="A8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="15"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="12" t="s">
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="24"/>
+    </row>
+    <row r="9" spans="1:8" ht="34">
+      <c r="A9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="15"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="12" t="s">
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="24"/>
+    </row>
+    <row r="10" spans="1:8" ht="34">
+      <c r="A10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16">
-        <v>0.010416666666666666</v>
-      </c>
-      <c r="E10" s="16">
-        <v>0.010416666666666666</v>
-      </c>
-      <c r="F10" s="16">
-        <v>0.010416666666666666</v>
-      </c>
-      <c r="G10" s="16">
-        <v>0.010416666666666666</v>
-      </c>
-      <c r="H10" s="16">
-        <v>0.010416666666666666</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="12" t="s">
+      <c r="C10" s="9"/>
+      <c r="D10" s="9">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="E10" s="9">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="F10" s="9">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="G10" s="9">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="H10" s="9">
+        <v>1.0416666666666666E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="85">
+      <c r="A11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="17" t="s">
+      <c r="C11" s="4"/>
+      <c r="D11" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="17" t="s">
+      <c r="H11" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="12" t="s">
+    <row r="12" spans="1:8" ht="17">
+      <c r="A12" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="15"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="19" t="s">
+      <c r="C12" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="24"/>
+    </row>
+    <row r="13" spans="1:8" ht="119">
+      <c r="A13" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="20" t="s">
+    <row r="14" spans="1:8" ht="34">
+      <c r="A14" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="15"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="12" t="s">
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="24"/>
+    </row>
+    <row r="15" spans="1:8" ht="17">
+      <c r="A15" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="15"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="12" t="s">
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="24"/>
+    </row>
+    <row r="16" spans="1:8" ht="17">
+      <c r="A16" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="15"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="12" t="s">
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="24"/>
+    </row>
+    <row r="17" spans="1:8" ht="17">
+      <c r="A17" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="15"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="12" t="s">
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="24"/>
+    </row>
+    <row r="18" spans="1:8" ht="17">
+      <c r="A18" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="15"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="12" t="s">
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="24"/>
+    </row>
+    <row r="19" spans="1:8" ht="17">
+      <c r="A19" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="15"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="12" t="s">
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="24"/>
+    </row>
+    <row r="20" spans="1:8" ht="17">
+      <c r="A20" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="15"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="12" t="s">
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="24"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A21" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="15"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="12" t="s">
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="24"/>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A22" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="15"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="12" t="s">
+      <c r="C22" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="24"/>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A23" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="15"/>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="12" t="s">
+      <c r="C23" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="24"/>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A24" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C24" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="15"/>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="12" t="s">
+      <c r="C24" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="24"/>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A25" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C25" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="15"/>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="12" t="s">
+      <c r="C25" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="24"/>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A26" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C26" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="15"/>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="12" t="s">
+      <c r="C26" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="24"/>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A27" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C27" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="15"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="12" t="s">
+      <c r="C27" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="24"/>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A28" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C28" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="15"/>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="12" t="s">
+      <c r="C28" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="24"/>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A29" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="15"/>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="12" t="s">
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="24"/>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A30" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C30" s="16">
+      <c r="C30" s="9">
         <v>0.5</v>
       </c>
-      <c r="D30" s="16">
+      <c r="D30" s="9">
         <v>0.25</v>
       </c>
-      <c r="E30" s="16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="F30" s="16">
-        <v>0.4166666666666667</v>
-      </c>
-      <c r="G30" s="16">
-        <v>0.08333333333333333</v>
-      </c>
-      <c r="H30" s="16">
-        <v>0.4166666666666667</v>
-      </c>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="12" t="s">
+      <c r="E30" s="9">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F30" s="9">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="G30" s="9">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H30" s="9">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A31" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="15"/>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="12" t="s">
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="24"/>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A32" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E32" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F32" s="11" t="s">
+      <c r="F32" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G32" s="11" t="s">
+      <c r="G32" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="H32" s="11" t="s">
+      <c r="H32" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="23" t="s">
+    <row r="33" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A33" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C33" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="12" t="s">
+      <c r="C33" s="9">
+        <v>0</v>
+      </c>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A34" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="12" t="s">
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A35" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="E35" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F35" s="11" t="s">
+      <c r="F35" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="G35" s="11" t="s">
+      <c r="G35" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H35" s="11" t="s">
+      <c r="H35" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="12" t="s">
+    <row r="36" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A36" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="C36" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="15"/>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="12" t="s">
+      <c r="C36" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="24"/>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A37" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="15"/>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="12" t="s">
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="24"/>
+    </row>
+    <row r="38" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A38" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C38" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="15"/>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="12" t="s">
+      <c r="C38" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="24"/>
+    </row>
+    <row r="39" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A39" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C39" s="16">
-        <v>0.020833333333333332</v>
-      </c>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="12" t="s">
+      <c r="C39" s="9">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+    </row>
+    <row r="40" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A40" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="C40" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="12" t="s">
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+    </row>
+    <row r="41" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A41" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C41" s="11"/>
-      <c r="D41" s="25">
-        <v>0.2916666666666667</v>
-      </c>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="12" t="s">
+      <c r="C41" s="4"/>
+      <c r="D41" s="9">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+    </row>
+    <row r="42" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A42" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="12" t="s">
+      <c r="C42" s="4"/>
+      <c r="D42" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A43" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="C43" s="11"/>
-      <c r="D43" s="16">
-        <v>0.08333333333333333</v>
-      </c>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="12" t="s">
+      <c r="C43" s="4"/>
+      <c r="D43" s="9">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+    </row>
+    <row r="44" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A44" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="12" t="s">
+      <c r="C44" s="4"/>
+      <c r="D44" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+    </row>
+    <row r="45" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A45" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="12" t="s">
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="9">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+    </row>
+    <row r="46" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A46" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="12" t="s">
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+    </row>
+    <row r="47" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A47" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-    </row>
-    <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="12" t="s">
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+    </row>
+    <row r="48" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A48" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C48" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="15"/>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="12" t="s">
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="24"/>
+    </row>
+    <row r="49" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A49" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="B49" s="26" t="s">
+      <c r="B49" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="C49" s="27">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="D49" s="27">
+      <c r="C49" s="16">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D49" s="16">
         <v>0.375</v>
       </c>
-      <c r="E49" s="28">
-        <v>0.2916666666666667</v>
-      </c>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
-    </row>
-    <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="12" t="s">
+      <c r="E49" s="16">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+    </row>
+    <row r="50" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A50" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="B50" s="26" t="s">
+      <c r="B50" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="C50" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E50" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="11"/>
-    </row>
-    <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="12" t="s">
+      <c r="C50" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+    </row>
+    <row r="51" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A51" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="B51" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="25">
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="9">
         <v>0.16666666666666666</v>
       </c>
-      <c r="G51" s="16">
+      <c r="G51" s="9">
         <v>0.25</v>
       </c>
-      <c r="H51" s="16">
-        <v>0.2916666666666667</v>
-      </c>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="12" t="s">
+      <c r="H51" s="9">
+        <v>0.29166666666666669</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A52" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="B52" s="12" t="s">
+      <c r="B52" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G52" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H52" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="7" t="s">
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A53" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C53" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="15"/>
-    </row>
-    <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="7" t="s">
+      <c r="C53" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="23"/>
+      <c r="H53" s="24"/>
+    </row>
+    <row r="54" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A54" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C54" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="15"/>
-    </row>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
+      <c r="C54" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="24"/>
+    </row>
+    <row r="55" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="56" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="57" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="58" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="59" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="60" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="61" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="62" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="63" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="64" spans="1:8" ht="15.75" customHeight="1"/>
     <row r="65" ht="15.75" customHeight="1"/>
     <row r="66" ht="15.75" customHeight="1"/>
     <row r="67" ht="15.75" customHeight="1"/>
@@ -4797,31 +4847,6 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="C37:H37"/>
-    <mergeCell ref="C38:H38"/>
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="C53:H53"/>
     <mergeCell ref="C54:H54"/>
     <mergeCell ref="C25:H25"/>
     <mergeCell ref="C26:H26"/>
@@ -4830,963 +4855,989 @@
     <mergeCell ref="C29:H29"/>
     <mergeCell ref="C31:H31"/>
     <mergeCell ref="C36:H36"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="C37:H37"/>
+    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="C53:H53"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="C5:H5"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2.0" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B4" sqref="B4" pane="bottomLeft"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="22.33"/>
-    <col customWidth="1" min="2" max="2" width="43.56"/>
-    <col customWidth="1" min="3" max="6" width="11.22"/>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="2" max="2" width="43.5" customWidth="1"/>
+    <col min="3" max="6" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="16">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="30" t="s">
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+    </row>
+    <row r="2" spans="1:8" ht="17">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:8" ht="17">
+      <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:8" ht="16">
+      <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="15"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="12" t="s">
+      <c r="C4" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="24"/>
+    </row>
+    <row r="5" spans="1:8" ht="17">
+      <c r="A5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="15"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="12" t="s">
+      <c r="C5" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="24"/>
+    </row>
+    <row r="6" spans="1:8" ht="17">
+      <c r="A6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="15"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="12" t="s">
+      <c r="C6" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="24"/>
+    </row>
+    <row r="7" spans="1:8" ht="17">
+      <c r="A7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="15"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="12" t="s">
+      <c r="C7" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="24"/>
+    </row>
+    <row r="8" spans="1:8" ht="17">
+      <c r="A8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="15"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="12" t="s">
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="24"/>
+    </row>
+    <row r="9" spans="1:8" ht="34">
+      <c r="A9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="15"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="12" t="s">
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="24"/>
+    </row>
+    <row r="10" spans="1:8" ht="34">
+      <c r="A10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16">
-        <v>0.010416666666666666</v>
-      </c>
-      <c r="E10" s="16">
-        <v>0.010416666666666666</v>
-      </c>
-      <c r="F10" s="16">
-        <v>0.010416666666666666</v>
-      </c>
-      <c r="G10" s="16">
-        <v>0.010416666666666666</v>
-      </c>
-      <c r="H10" s="16">
-        <v>0.010416666666666666</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="12" t="s">
+      <c r="C10" s="9"/>
+      <c r="D10" s="9">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="E10" s="9">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="F10" s="9">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="G10" s="9">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="H10" s="9">
+        <v>1.0416666666666666E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="85">
+      <c r="A11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="17" t="s">
+      <c r="C11" s="4"/>
+      <c r="D11" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="17" t="s">
+      <c r="H11" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="12" t="s">
+    <row r="12" spans="1:8" ht="17">
+      <c r="A12" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="15"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="19" t="s">
+      <c r="C12" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="24"/>
+    </row>
+    <row r="13" spans="1:8" ht="119">
+      <c r="A13" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="20" t="s">
+    <row r="14" spans="1:8" ht="34">
+      <c r="A14" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="15"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="12" t="s">
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="24"/>
+    </row>
+    <row r="15" spans="1:8" ht="17">
+      <c r="A15" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="15"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="12" t="s">
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="24"/>
+    </row>
+    <row r="16" spans="1:8" ht="17">
+      <c r="A16" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="15"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="12" t="s">
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="24"/>
+    </row>
+    <row r="17" spans="1:8" ht="17">
+      <c r="A17" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="15"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="12" t="s">
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="24"/>
+    </row>
+    <row r="18" spans="1:8" ht="17">
+      <c r="A18" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="15"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="12" t="s">
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="24"/>
+    </row>
+    <row r="19" spans="1:8" ht="17">
+      <c r="A19" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="15"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="12" t="s">
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="24"/>
+    </row>
+    <row r="20" spans="1:8" ht="17">
+      <c r="A20" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="15"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="12" t="s">
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="24"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A21" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="15"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="12" t="s">
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="24"/>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A22" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="15"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="12" t="s">
+      <c r="C22" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="24"/>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A23" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="15"/>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="12" t="s">
+      <c r="C23" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="24"/>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A24" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C24" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="15"/>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="12" t="s">
+      <c r="C24" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="24"/>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A25" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C25" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="15"/>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="12" t="s">
+      <c r="C25" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="24"/>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A26" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C26" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="15"/>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="12" t="s">
+      <c r="C26" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="24"/>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A27" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C27" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="15"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="12" t="s">
+      <c r="C27" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="24"/>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A28" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C28" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="15"/>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="12" t="s">
+      <c r="C28" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="24"/>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A29" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="15"/>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="12" t="s">
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="24"/>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A30" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C30" s="16">
+      <c r="C30" s="9">
         <v>0.5</v>
       </c>
-      <c r="D30" s="16">
+      <c r="D30" s="9">
         <v>0.25</v>
       </c>
-      <c r="E30" s="16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="F30" s="16">
-        <v>0.4166666666666667</v>
-      </c>
-      <c r="G30" s="16">
-        <v>0.08333333333333333</v>
-      </c>
-      <c r="H30" s="16">
-        <v>0.4166666666666667</v>
-      </c>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="12" t="s">
+      <c r="E30" s="9">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F30" s="9">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="G30" s="9">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H30" s="9">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A31" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="15"/>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="12" t="s">
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="24"/>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A32" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E32" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F32" s="11" t="s">
+      <c r="F32" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G32" s="11" t="s">
+      <c r="G32" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="H32" s="11" t="s">
+      <c r="H32" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="23" t="s">
+    <row r="33" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A33" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C33" s="16"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="12" t="s">
+      <c r="C33" s="9"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A34" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="12" t="s">
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A35" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="E35" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F35" s="11" t="s">
+      <c r="F35" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="G35" s="11" t="s">
+      <c r="G35" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H35" s="11" t="s">
+      <c r="H35" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="12" t="s">
+    <row r="36" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A36" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="C36" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="15"/>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="12" t="s">
+      <c r="C36" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="24"/>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A37" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="15"/>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="12" t="s">
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="24"/>
+    </row>
+    <row r="38" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A38" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="15"/>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="12" t="s">
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="24"/>
+    </row>
+    <row r="39" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A39" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C39" s="16">
-        <v>0.020833333333333332</v>
-      </c>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="12" t="s">
+      <c r="C39" s="9">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+    </row>
+    <row r="40" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A40" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="C40" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="12" t="s">
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+    </row>
+    <row r="41" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A41" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C41" s="11"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="12" t="s">
+      <c r="C41" s="4"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+    </row>
+    <row r="42" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A42" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11" t="s">
+      <c r="C42" s="4"/>
+      <c r="D42" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="12" t="s">
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A43" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="C43" s="11"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="12" t="s">
+      <c r="C43" s="4"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+    </row>
+    <row r="44" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A44" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11" t="s">
+      <c r="C44" s="4"/>
+      <c r="D44" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="12" t="s">
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+    </row>
+    <row r="45" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A45" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="12" t="s">
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+    </row>
+    <row r="46" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A46" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11" t="s">
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="12" t="s">
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+    </row>
+    <row r="47" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A47" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="25">
-        <v>0.2916666666666667</v>
-      </c>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-    </row>
-    <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="12" t="s">
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="9">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+    </row>
+    <row r="48" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A48" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="12" t="s">
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+    </row>
+    <row r="49" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A49" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="B49" s="26" t="s">
+      <c r="B49" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
-    </row>
-    <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="12" t="s">
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+    </row>
+    <row r="50" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A50" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="B50" s="26" t="s">
+      <c r="B50" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C50" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="11"/>
-    </row>
-    <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="12" t="s">
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+    </row>
+    <row r="51" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A51" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="B51" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="16"/>
-      <c r="H51" s="16"/>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="12" t="s">
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+    </row>
+    <row r="52" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A52" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="B52" s="12" t="s">
+      <c r="B52" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="C52" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
-      <c r="H52" s="11"/>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="7" t="s">
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+    </row>
+    <row r="53" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A53" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C53" s="13" t="s">
+      <c r="C53" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="15"/>
-    </row>
-    <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="7" t="s">
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="23"/>
+      <c r="H53" s="24"/>
+    </row>
+    <row r="54" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A54" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C54" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="15"/>
-    </row>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
+      <c r="C54" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="24"/>
+    </row>
+    <row r="55" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="56" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="57" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="58" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="59" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="60" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="61" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="62" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="63" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="64" spans="1:8" ht="15.75" customHeight="1"/>
     <row r="65" ht="15.75" customHeight="1"/>
     <row r="66" ht="15.75" customHeight="1"/>
     <row r="67" ht="15.75" customHeight="1"/>
@@ -6725,26 +6776,6 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="C23:H23"/>
     <mergeCell ref="C24:H24"/>
     <mergeCell ref="C37:H37"/>
     <mergeCell ref="C38:H38"/>
@@ -6757,7 +6788,27 @@
     <mergeCell ref="C29:H29"/>
     <mergeCell ref="C31:H31"/>
     <mergeCell ref="C36:H36"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="C5:H5"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/tools/game_levels.xlsx
+++ b/tools/game_levels.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hubertnafalski/Documents/Projects/pydew-valley-uzh/tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBDC80F8-4223-DF47-95B4-0E350AF2B6C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE51E5C-77DA-4042-934A-36ED0A5E6604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34560" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34560" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="v1 (family version)" sheetId="1" r:id="rId1"/>
@@ -154,24 +154,6 @@
     <t>crop_types_list</t>
   </si>
   <si>
-    <t>Tomatos, corn</t>
-  </si>
-  <si>
-    <t>Tomatos, corn, beetroot</t>
-  </si>
-  <si>
-    <t>Tomatos, corn, beetroot, carrot</t>
-  </si>
-  <si>
-    <t>Tomatos, corn, beetroot, carrot, eggplant</t>
-  </si>
-  <si>
-    <t>Tomatos, corn, beetroot, carrot, eggplant, pumpkin</t>
-  </si>
-  <si>
-    <t>Tomatos, corn, beetroot, carrot, eggplant, pumpkin, parsnip</t>
-  </si>
-  <si>
     <t>Switching to the outgroup</t>
   </si>
   <si>
@@ -491,6 +473,24 @@
   </si>
   <si>
     <t>Du bist zufällig bei den Blaukappen gelandet</t>
+  </si>
+  <si>
+    <t>tomato, corn</t>
+  </si>
+  <si>
+    <t>tomato, corn, beetroot</t>
+  </si>
+  <si>
+    <t>tomato, corn, beetroot, carrot</t>
+  </si>
+  <si>
+    <t>tomato, corn, beetroot, carrot, eggplant</t>
+  </si>
+  <si>
+    <t>tomato, corn, beetroot, carrot, eggplant, pumpkin</t>
+  </si>
+  <si>
+    <t>tomato, corn, beetroot, carrot, eggplant, pumpkin, parsnip</t>
   </si>
 </sst>
 </file>
@@ -730,6 +730,17 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -738,17 +749,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -972,9 +972,9 @@
   </sheetPr>
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
@@ -985,24 +985,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:8" ht="17">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1081,14 +1081,14 @@
       <c r="B5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="24"/>
+      <c r="C5" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="20"/>
     </row>
     <row r="6" spans="1:8" ht="17">
       <c r="A6" s="7" t="s">
@@ -1097,14 +1097,14 @@
       <c r="B6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="24"/>
+      <c r="C6" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="20"/>
     </row>
     <row r="7" spans="1:8" ht="17">
       <c r="A7" s="7" t="s">
@@ -1113,14 +1113,14 @@
       <c r="B7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="24"/>
+      <c r="C7" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="20"/>
     </row>
     <row r="8" spans="1:8" ht="17">
       <c r="A8" s="7" t="s">
@@ -1129,14 +1129,14 @@
       <c r="B8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="24"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="20"/>
     </row>
     <row r="9" spans="1:8" ht="34">
       <c r="A9" s="7" t="s">
@@ -1145,14 +1145,14 @@
       <c r="B9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="24"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="20"/>
     </row>
     <row r="10" spans="1:8" ht="34">
       <c r="A10" s="7" t="s">
@@ -1209,14 +1209,14 @@
       <c r="B12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="24"/>
+      <c r="C12" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="20"/>
     </row>
     <row r="13" spans="1:8" ht="119">
       <c r="A13" s="11" t="s">
@@ -1226,286 +1226,286 @@
         <v>38</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>39</v>
+        <v>146</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>40</v>
+        <v>147</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>41</v>
+        <v>148</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>42</v>
+        <v>149</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>43</v>
+        <v>150</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>44</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="34">
       <c r="A14" s="12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="24"/>
+        <v>40</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="20"/>
     </row>
     <row r="15" spans="1:8" ht="17">
       <c r="A15" s="7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="24"/>
+        <v>43</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="20"/>
     </row>
     <row r="16" spans="1:8" ht="17">
       <c r="A16" s="7" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="24"/>
+        <v>46</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="20"/>
     </row>
     <row r="17" spans="1:8" ht="17">
       <c r="A17" s="7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="24"/>
+        <v>49</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="20"/>
     </row>
     <row r="18" spans="1:8" ht="17">
       <c r="A18" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="24"/>
+        <v>52</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="20"/>
     </row>
     <row r="19" spans="1:8" ht="17">
       <c r="A19" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="24"/>
+        <v>55</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="20"/>
     </row>
     <row r="20" spans="1:8" ht="17">
       <c r="A20" s="7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="24"/>
+        <v>58</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="20"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1">
       <c r="A21" s="7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="24"/>
+        <v>61</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="20"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1">
       <c r="A22" s="7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="24"/>
+        <v>64</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="20"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1">
       <c r="A23" s="7" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="24"/>
+        <v>66</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="20"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1">
       <c r="A24" s="7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="24"/>
+        <v>68</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="20"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1">
       <c r="A25" s="7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="24"/>
+        <v>69</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="20"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1">
       <c r="A26" s="7" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="24"/>
+        <v>71</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="20"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1">
       <c r="A27" s="7" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="24"/>
+        <v>73</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="20"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1">
       <c r="A28" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="24"/>
+        <v>75</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="20"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1">
       <c r="A29" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="24"/>
+        <v>77</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="20"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1">
       <c r="A30" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C30" s="9">
         <v>0.5</v>
@@ -1528,52 +1528,52 @@
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1">
       <c r="A31" s="7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C31" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="24"/>
+        <v>82</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="20"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1">
       <c r="A32" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G32" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="H32" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1">
       <c r="A33" s="13" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C33" s="9">
         <v>0</v>
@@ -1586,13 +1586,13 @@
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1">
       <c r="A34" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -1602,84 +1602,84 @@
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1">
       <c r="A35" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1">
       <c r="A36" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C36" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="24"/>
+        <v>102</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="20"/>
     </row>
     <row r="37" spans="1:8" ht="15.75" customHeight="1">
       <c r="A37" s="7" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C37" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="24"/>
+        <v>104</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="20"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1">
       <c r="A38" s="7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C38" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="24"/>
+        <v>107</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="20"/>
     </row>
     <row r="39" spans="1:8" ht="15.75" customHeight="1">
       <c r="A39" s="7" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C39" s="9">
         <v>2.0833333333333332E-2</v>
@@ -1692,13 +1692,13 @@
     </row>
     <row r="40" spans="1:8" ht="15.75" customHeight="1">
       <c r="A40" s="7" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -1708,10 +1708,10 @@
     </row>
     <row r="41" spans="1:8" ht="15.75" customHeight="1">
       <c r="A41" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="9">
@@ -1724,10 +1724,10 @@
     </row>
     <row r="42" spans="1:8" ht="15.75" customHeight="1">
       <c r="A42" s="7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4" t="s">
@@ -1740,10 +1740,10 @@
     </row>
     <row r="43" spans="1:8" ht="15.75" customHeight="1">
       <c r="A43" s="7" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="9">
@@ -1756,10 +1756,10 @@
     </row>
     <row r="44" spans="1:8" ht="15.75" customHeight="1">
       <c r="A44" s="7" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4" t="s">
@@ -1772,10 +1772,10 @@
     </row>
     <row r="45" spans="1:8" ht="15.75" customHeight="1">
       <c r="A45" s="7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
@@ -1788,10 +1788,10 @@
     </row>
     <row r="46" spans="1:8" ht="15.75" customHeight="1">
       <c r="A46" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -1804,10 +1804,10 @@
     </row>
     <row r="47" spans="1:8" ht="15.75" customHeight="1">
       <c r="A47" s="7" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
@@ -1818,26 +1818,26 @@
     </row>
     <row r="48" spans="1:8" ht="15.75" customHeight="1">
       <c r="A48" s="7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C48" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="C48" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="24"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="20"/>
     </row>
     <row r="49" spans="1:8" ht="15.75" customHeight="1">
       <c r="A49" s="7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C49" s="16">
         <v>0.33333333333333331</v>
@@ -1854,10 +1854,10 @@
     </row>
     <row r="50" spans="1:8" ht="15.75" customHeight="1">
       <c r="A50" s="7" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>14</v>
@@ -1874,10 +1874,10 @@
     </row>
     <row r="51" spans="1:8" ht="15.75" customHeight="1">
       <c r="A51" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
@@ -1894,10 +1894,10 @@
     </row>
     <row r="52" spans="1:8" ht="15.75" customHeight="1">
       <c r="A52" s="7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
@@ -1914,35 +1914,35 @@
     </row>
     <row r="53" spans="1:8" ht="15.75" customHeight="1">
       <c r="A53" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C53" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D53" s="23"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="23"/>
-      <c r="G53" s="23"/>
-      <c r="H53" s="24"/>
+        <v>138</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="20"/>
     </row>
     <row r="54" spans="1:8" ht="15.75" customHeight="1">
       <c r="A54" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C54" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D54" s="23"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="23"/>
-      <c r="G54" s="23"/>
-      <c r="H54" s="24"/>
+        <v>140</v>
+      </c>
+      <c r="C54" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="20"/>
     </row>
     <row r="55" spans="1:8" ht="15.75" customHeight="1"/>
     <row r="56" spans="1:8" ht="15.75" customHeight="1"/>
@@ -2892,6 +2892,26 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="C24:H24"/>
     <mergeCell ref="C25:H25"/>
     <mergeCell ref="C38:H38"/>
     <mergeCell ref="C48:H48"/>
@@ -2904,26 +2924,6 @@
     <mergeCell ref="C31:H31"/>
     <mergeCell ref="C36:H36"/>
     <mergeCell ref="C37:H37"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2950,24 +2950,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:8" ht="17">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="17" t="s">
         <v>3</v>
       </c>
@@ -3020,14 +3020,14 @@
       <c r="B4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="24"/>
+      <c r="C4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="20"/>
     </row>
     <row r="5" spans="1:8" ht="17">
       <c r="A5" s="7" t="s">
@@ -3036,14 +3036,14 @@
       <c r="B5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="24"/>
+      <c r="C5" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="20"/>
     </row>
     <row r="6" spans="1:8" ht="17">
       <c r="A6" s="7" t="s">
@@ -3052,14 +3052,14 @@
       <c r="B6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="24"/>
+      <c r="C6" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="20"/>
     </row>
     <row r="7" spans="1:8" ht="17">
       <c r="A7" s="7" t="s">
@@ -3068,14 +3068,14 @@
       <c r="B7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="24"/>
+      <c r="C7" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="20"/>
     </row>
     <row r="8" spans="1:8" ht="17">
       <c r="A8" s="7" t="s">
@@ -3084,14 +3084,14 @@
       <c r="B8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="24"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="20"/>
     </row>
     <row r="9" spans="1:8" ht="34">
       <c r="A9" s="7" t="s">
@@ -3100,14 +3100,14 @@
       <c r="B9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="24"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="20"/>
     </row>
     <row r="10" spans="1:8" ht="34">
       <c r="A10" s="7" t="s">
@@ -3164,14 +3164,14 @@
       <c r="B12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="24"/>
+      <c r="C12" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="20"/>
     </row>
     <row r="13" spans="1:8" ht="119">
       <c r="A13" s="11" t="s">
@@ -3181,286 +3181,286 @@
         <v>38</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>39</v>
+        <v>146</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>40</v>
+        <v>147</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>41</v>
+        <v>148</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>42</v>
+        <v>149</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>43</v>
+        <v>150</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>44</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="34">
       <c r="A14" s="12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="24"/>
+        <v>40</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="20"/>
     </row>
     <row r="15" spans="1:8" ht="17">
       <c r="A15" s="7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="24"/>
+        <v>43</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="20"/>
     </row>
     <row r="16" spans="1:8" ht="17">
       <c r="A16" s="7" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="24"/>
+        <v>46</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="20"/>
     </row>
     <row r="17" spans="1:8" ht="17">
       <c r="A17" s="7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="24"/>
+        <v>49</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="20"/>
     </row>
     <row r="18" spans="1:8" ht="17">
       <c r="A18" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="24"/>
+        <v>52</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="20"/>
     </row>
     <row r="19" spans="1:8" ht="17">
       <c r="A19" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="24"/>
+        <v>55</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="20"/>
     </row>
     <row r="20" spans="1:8" ht="17">
       <c r="A20" s="7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="24"/>
+        <v>58</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="20"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1">
       <c r="A21" s="7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="24"/>
+        <v>61</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="20"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1">
       <c r="A22" s="7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="24"/>
+        <v>64</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="20"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1">
       <c r="A23" s="7" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="24"/>
+        <v>66</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="20"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1">
       <c r="A24" s="7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="24"/>
+        <v>68</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="20"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1">
       <c r="A25" s="7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="24"/>
+        <v>69</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="20"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1">
       <c r="A26" s="7" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="24"/>
+        <v>71</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="20"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1">
       <c r="A27" s="7" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="24"/>
+        <v>73</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="20"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1">
       <c r="A28" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="24"/>
+        <v>75</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="20"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1">
       <c r="A29" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="24"/>
+        <v>77</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="20"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1">
       <c r="A30" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C30" s="9">
         <v>0.5</v>
@@ -3483,52 +3483,52 @@
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1">
       <c r="A31" s="7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C31" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="24"/>
+        <v>82</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="20"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1">
       <c r="A32" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G32" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="H32" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1">
       <c r="A33" s="13" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C33" s="9">
         <v>0</v>
@@ -3541,13 +3541,13 @@
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1">
       <c r="A34" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -3557,84 +3557,84 @@
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1">
       <c r="A35" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1">
       <c r="A36" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C36" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="24"/>
+        <v>102</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="20"/>
     </row>
     <row r="37" spans="1:8" ht="15.75" customHeight="1">
       <c r="A37" s="7" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C37" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="24"/>
+        <v>104</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="20"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1">
       <c r="A38" s="7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C38" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="24"/>
+        <v>107</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="20"/>
     </row>
     <row r="39" spans="1:8" ht="15.75" customHeight="1">
       <c r="A39" s="7" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C39" s="9">
         <v>2.0833333333333332E-2</v>
@@ -3647,13 +3647,13 @@
     </row>
     <row r="40" spans="1:8" ht="15.75" customHeight="1">
       <c r="A40" s="7" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -3663,10 +3663,10 @@
     </row>
     <row r="41" spans="1:8" ht="15.75" customHeight="1">
       <c r="A41" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="9">
@@ -3679,10 +3679,10 @@
     </row>
     <row r="42" spans="1:8" ht="15.75" customHeight="1">
       <c r="A42" s="7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4" t="s">
@@ -3695,10 +3695,10 @@
     </row>
     <row r="43" spans="1:8" ht="15.75" customHeight="1">
       <c r="A43" s="7" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="9">
@@ -3711,10 +3711,10 @@
     </row>
     <row r="44" spans="1:8" ht="15.75" customHeight="1">
       <c r="A44" s="7" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4" t="s">
@@ -3727,10 +3727,10 @@
     </row>
     <row r="45" spans="1:8" ht="15.75" customHeight="1">
       <c r="A45" s="7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
@@ -3743,10 +3743,10 @@
     </row>
     <row r="46" spans="1:8" ht="15.75" customHeight="1">
       <c r="A46" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -3759,10 +3759,10 @@
     </row>
     <row r="47" spans="1:8" ht="15.75" customHeight="1">
       <c r="A47" s="7" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
@@ -3773,26 +3773,26 @@
     </row>
     <row r="48" spans="1:8" ht="15.75" customHeight="1">
       <c r="A48" s="7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C48" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="C48" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="24"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="20"/>
     </row>
     <row r="49" spans="1:8" ht="15.75" customHeight="1">
       <c r="A49" s="7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C49" s="16">
         <v>0.33333333333333331</v>
@@ -3809,10 +3809,10 @@
     </row>
     <row r="50" spans="1:8" ht="15.75" customHeight="1">
       <c r="A50" s="7" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>14</v>
@@ -3829,10 +3829,10 @@
     </row>
     <row r="51" spans="1:8" ht="15.75" customHeight="1">
       <c r="A51" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
@@ -3849,10 +3849,10 @@
     </row>
     <row r="52" spans="1:8" ht="15.75" customHeight="1">
       <c r="A52" s="7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
@@ -3869,35 +3869,35 @@
     </row>
     <row r="53" spans="1:8" ht="15.75" customHeight="1">
       <c r="A53" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C53" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D53" s="23"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="23"/>
-      <c r="G53" s="23"/>
-      <c r="H53" s="24"/>
+        <v>138</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="20"/>
     </row>
     <row r="54" spans="1:8" ht="15.75" customHeight="1">
       <c r="A54" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C54" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D54" s="23"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="23"/>
-      <c r="G54" s="23"/>
-      <c r="H54" s="24"/>
+        <v>140</v>
+      </c>
+      <c r="C54" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="20"/>
     </row>
     <row r="55" spans="1:8" ht="15.75" customHeight="1"/>
     <row r="56" spans="1:8" ht="15.75" customHeight="1"/>
@@ -4847,6 +4847,31 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="C37:H37"/>
+    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="C53:H53"/>
     <mergeCell ref="C54:H54"/>
     <mergeCell ref="C25:H25"/>
     <mergeCell ref="C26:H26"/>
@@ -4855,31 +4880,6 @@
     <mergeCell ref="C29:H29"/>
     <mergeCell ref="C31:H31"/>
     <mergeCell ref="C36:H36"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="C37:H37"/>
-    <mergeCell ref="C38:H38"/>
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="C53:H53"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="C5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4892,7 +4892,7 @@
   </sheetPr>
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
@@ -4905,24 +4905,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:8" ht="17">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="17" t="s">
         <v>3</v>
       </c>
@@ -4975,14 +4975,14 @@
       <c r="B4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="24"/>
+      <c r="C4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="20"/>
     </row>
     <row r="5" spans="1:8" ht="17">
       <c r="A5" s="7" t="s">
@@ -4991,14 +4991,14 @@
       <c r="B5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="24"/>
+      <c r="C5" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="20"/>
     </row>
     <row r="6" spans="1:8" ht="17">
       <c r="A6" s="7" t="s">
@@ -5007,14 +5007,14 @@
       <c r="B6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="24"/>
+      <c r="C6" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="20"/>
     </row>
     <row r="7" spans="1:8" ht="17">
       <c r="A7" s="7" t="s">
@@ -5023,14 +5023,14 @@
       <c r="B7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="24"/>
+      <c r="C7" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="20"/>
     </row>
     <row r="8" spans="1:8" ht="17">
       <c r="A8" s="7" t="s">
@@ -5039,14 +5039,14 @@
       <c r="B8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="24"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="20"/>
     </row>
     <row r="9" spans="1:8" ht="34">
       <c r="A9" s="7" t="s">
@@ -5055,14 +5055,14 @@
       <c r="B9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="24"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="20"/>
     </row>
     <row r="10" spans="1:8" ht="34">
       <c r="A10" s="7" t="s">
@@ -5119,14 +5119,14 @@
       <c r="B12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="24"/>
+      <c r="C12" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="20"/>
     </row>
     <row r="13" spans="1:8" ht="119">
       <c r="A13" s="11" t="s">
@@ -5136,286 +5136,286 @@
         <v>38</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>39</v>
+        <v>146</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>40</v>
+        <v>147</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>41</v>
+        <v>148</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>42</v>
+        <v>149</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>43</v>
+        <v>150</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>44</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="34">
       <c r="A14" s="12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="24"/>
+        <v>40</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="20"/>
     </row>
     <row r="15" spans="1:8" ht="17">
       <c r="A15" s="7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="24"/>
+        <v>43</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="20"/>
     </row>
     <row r="16" spans="1:8" ht="17">
       <c r="A16" s="7" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="24"/>
+        <v>46</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="20"/>
     </row>
     <row r="17" spans="1:8" ht="17">
       <c r="A17" s="7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="24"/>
+        <v>49</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="20"/>
     </row>
     <row r="18" spans="1:8" ht="17">
       <c r="A18" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="24"/>
+        <v>52</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="20"/>
     </row>
     <row r="19" spans="1:8" ht="17">
       <c r="A19" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="24"/>
+        <v>55</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="20"/>
     </row>
     <row r="20" spans="1:8" ht="17">
       <c r="A20" s="7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="24"/>
+        <v>58</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="20"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1">
       <c r="A21" s="7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="24"/>
+        <v>61</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="20"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1">
       <c r="A22" s="7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="24"/>
+        <v>64</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="20"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1">
       <c r="A23" s="7" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="24"/>
+        <v>66</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="20"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1">
       <c r="A24" s="7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="24"/>
+        <v>68</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="20"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1">
       <c r="A25" s="7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="24"/>
+        <v>69</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="20"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1">
       <c r="A26" s="7" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="24"/>
+        <v>71</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="20"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1">
       <c r="A27" s="7" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="24"/>
+        <v>73</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="20"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1">
       <c r="A28" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="24"/>
+        <v>75</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="20"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1">
       <c r="A29" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="24"/>
+        <v>77</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="20"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1">
       <c r="A30" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C30" s="9">
         <v>0.5</v>
@@ -5438,52 +5438,52 @@
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1">
       <c r="A31" s="7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C31" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="24"/>
+        <v>82</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="20"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1">
       <c r="A32" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G32" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="H32" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1">
       <c r="A33" s="13" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="14"/>
@@ -5494,10 +5494,10 @@
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1">
       <c r="A34" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>23</v>
@@ -5510,84 +5510,84 @@
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1">
       <c r="A35" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1">
       <c r="A36" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C36" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="24"/>
+        <v>102</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="20"/>
     </row>
     <row r="37" spans="1:8" ht="15.75" customHeight="1">
       <c r="A37" s="7" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C37" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="24"/>
+        <v>104</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="20"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1">
       <c r="A38" s="7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C38" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="24"/>
+        <v>107</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="20"/>
     </row>
     <row r="39" spans="1:8" ht="15.75" customHeight="1">
       <c r="A39" s="7" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C39" s="9">
         <v>2.0833333333333332E-2</v>
@@ -5600,13 +5600,13 @@
     </row>
     <row r="40" spans="1:8" ht="15.75" customHeight="1">
       <c r="A40" s="7" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -5616,10 +5616,10 @@
     </row>
     <row r="41" spans="1:8" ht="15.75" customHeight="1">
       <c r="A41" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="9"/>
@@ -5630,10 +5630,10 @@
     </row>
     <row r="42" spans="1:8" ht="15.75" customHeight="1">
       <c r="A42" s="7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4" t="s">
@@ -5646,10 +5646,10 @@
     </row>
     <row r="43" spans="1:8" ht="15.75" customHeight="1">
       <c r="A43" s="7" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="9"/>
@@ -5660,10 +5660,10 @@
     </row>
     <row r="44" spans="1:8" ht="15.75" customHeight="1">
       <c r="A44" s="7" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4" t="s">
@@ -5676,10 +5676,10 @@
     </row>
     <row r="45" spans="1:8" ht="15.75" customHeight="1">
       <c r="A45" s="7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
@@ -5690,10 +5690,10 @@
     </row>
     <row r="46" spans="1:8" ht="15.75" customHeight="1">
       <c r="A46" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -5706,10 +5706,10 @@
     </row>
     <row r="47" spans="1:8" ht="15.75" customHeight="1">
       <c r="A47" s="7" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
@@ -5722,10 +5722,10 @@
     </row>
     <row r="48" spans="1:8" ht="15.75" customHeight="1">
       <c r="A48" s="7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
@@ -5738,10 +5738,10 @@
     </row>
     <row r="49" spans="1:8" ht="15.75" customHeight="1">
       <c r="A49" s="7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C49" s="16"/>
       <c r="D49" s="16"/>
@@ -5752,10 +5752,10 @@
     </row>
     <row r="50" spans="1:8" ht="15.75" customHeight="1">
       <c r="A50" s="7" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>23</v>
@@ -5768,10 +5768,10 @@
     </row>
     <row r="51" spans="1:8" ht="15.75" customHeight="1">
       <c r="A51" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
@@ -5782,10 +5782,10 @@
     </row>
     <row r="52" spans="1:8" ht="15.75" customHeight="1">
       <c r="A52" s="7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>23</v>
@@ -5798,35 +5798,35 @@
     </row>
     <row r="53" spans="1:8" ht="15.75" customHeight="1">
       <c r="A53" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C53" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="C53" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D53" s="23"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="23"/>
-      <c r="G53" s="23"/>
-      <c r="H53" s="24"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="20"/>
     </row>
     <row r="54" spans="1:8" ht="15.75" customHeight="1">
       <c r="A54" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C54" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D54" s="23"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="23"/>
-      <c r="G54" s="23"/>
-      <c r="H54" s="24"/>
+        <v>140</v>
+      </c>
+      <c r="C54" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="20"/>
     </row>
     <row r="55" spans="1:8" ht="15.75" customHeight="1"/>
     <row r="56" spans="1:8" ht="15.75" customHeight="1"/>
@@ -6776,6 +6776,26 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="C23:H23"/>
     <mergeCell ref="C24:H24"/>
     <mergeCell ref="C37:H37"/>
     <mergeCell ref="C38:H38"/>
@@ -6788,26 +6808,6 @@
     <mergeCell ref="C29:H29"/>
     <mergeCell ref="C31:H31"/>
     <mergeCell ref="C36:H36"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="C5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tools/game_levels.xlsx
+++ b/tools/game_levels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hubertnafalski/Documents/Projects/pydew-valley-uzh/tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74075223-CF95-E845-9D81-648BBDFF87C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B984313-FA59-5B4D-B71B-95C66E69D783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="v1 (family version)" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="164">
   <si>
     <t>Feature</t>
   </si>
@@ -484,9 +484,6 @@
   </si>
   <si>
     <t>Verteile die Ressource zwischen deiner Freundesfarm und der anderen Gruppe</t>
-  </si>
-  <si>
-    <t>Das bist du</t>
   </si>
   <si>
     <t>Das ist deine Freundesfarm: Ihr seid die Blaukappen</t>
@@ -831,6 +828,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -839,17 +847,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1075,7 +1072,7 @@
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
+      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
@@ -1086,24 +1083,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
     </row>
     <row r="2" spans="1:8" ht="17">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1182,14 +1179,14 @@
       <c r="B5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="42"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="38"/>
     </row>
     <row r="6" spans="1:8" ht="17">
       <c r="A6" s="9" t="s">
@@ -1198,14 +1195,14 @@
       <c r="B6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="42"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="38"/>
     </row>
     <row r="7" spans="1:8" ht="17">
       <c r="A7" s="9" t="s">
@@ -1214,14 +1211,14 @@
       <c r="B7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="42"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="38"/>
     </row>
     <row r="8" spans="1:8" ht="17">
       <c r="A8" s="9" t="s">
@@ -1230,14 +1227,14 @@
       <c r="B8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="42"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="38"/>
     </row>
     <row r="9" spans="1:8" ht="34">
       <c r="A9" s="9" t="s">
@@ -1246,14 +1243,14 @@
       <c r="B9" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="42"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="38"/>
     </row>
     <row r="10" spans="1:8" ht="34">
       <c r="A10" s="9" t="s">
@@ -1310,14 +1307,14 @@
       <c r="B12" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="42"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="38"/>
     </row>
     <row r="13" spans="1:8" ht="119">
       <c r="A13" s="14" t="s">
@@ -1352,14 +1349,14 @@
       <c r="B14" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="42"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="38"/>
     </row>
     <row r="15" spans="1:8" ht="17">
       <c r="A15" s="9" t="s">
@@ -1368,14 +1365,14 @@
       <c r="B15" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="42"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="38"/>
     </row>
     <row r="16" spans="1:8" ht="17">
       <c r="A16" s="9" t="s">
@@ -1384,14 +1381,14 @@
       <c r="B16" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="40" t="s">
+      <c r="C16" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="42"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="38"/>
     </row>
     <row r="17" spans="1:8" ht="17">
       <c r="A17" s="9" t="s">
@@ -1400,14 +1397,14 @@
       <c r="B17" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="40" t="s">
+      <c r="C17" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="42"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="38"/>
     </row>
     <row r="18" spans="1:8" ht="17">
       <c r="A18" s="9" t="s">
@@ -1416,14 +1413,14 @@
       <c r="B18" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="40" t="s">
+      <c r="C18" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="42"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="38"/>
     </row>
     <row r="19" spans="1:8" ht="17">
       <c r="A19" s="9" t="s">
@@ -1432,14 +1429,14 @@
       <c r="B19" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="42"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="38"/>
     </row>
     <row r="20" spans="1:8" ht="17">
       <c r="A20" s="9" t="s">
@@ -1448,14 +1445,14 @@
       <c r="B20" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="40" t="s">
+      <c r="C20" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="42"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="38"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1">
       <c r="A21" s="9" t="s">
@@ -1464,14 +1461,14 @@
       <c r="B21" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="C21" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="42"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="38"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1">
       <c r="A22" s="9" t="s">
@@ -1480,14 +1477,14 @@
       <c r="B22" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="40" t="s">
+      <c r="C22" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="42"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="38"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1">
       <c r="A23" s="9" t="s">
@@ -1496,14 +1493,14 @@
       <c r="B23" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="40" t="s">
+      <c r="C23" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="42"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="38"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1">
       <c r="A24" s="9" t="s">
@@ -1512,14 +1509,14 @@
       <c r="B24" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C24" s="40" t="s">
+      <c r="C24" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="42"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="38"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1">
       <c r="A25" s="9" t="s">
@@ -1528,14 +1525,14 @@
       <c r="B25" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C25" s="40" t="s">
+      <c r="C25" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="42"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="38"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1">
       <c r="A26" s="9" t="s">
@@ -1544,14 +1541,14 @@
       <c r="B26" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C26" s="40" t="s">
+      <c r="C26" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="42"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="38"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1">
       <c r="A27" s="9" t="s">
@@ -1560,14 +1557,14 @@
       <c r="B27" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C27" s="40" t="s">
+      <c r="C27" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="42"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="38"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1">
       <c r="A28" s="9" t="s">
@@ -1576,14 +1573,14 @@
       <c r="B28" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C28" s="40" t="s">
+      <c r="C28" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="42"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="38"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1">
       <c r="A29" s="9" t="s">
@@ -1592,14 +1589,14 @@
       <c r="B29" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C29" s="40" t="s">
+      <c r="C29" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="42"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="38"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1">
       <c r="A30" s="9" t="s">
@@ -1634,14 +1631,14 @@
       <c r="B31" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="C31" s="44" t="s">
+      <c r="C31" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="42"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="38"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1">
       <c r="A32" s="9" t="s">
@@ -1734,14 +1731,14 @@
       <c r="B36" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="C36" s="40" t="s">
+      <c r="C36" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="41"/>
-      <c r="H36" s="42"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="38"/>
     </row>
     <row r="37" spans="1:8" ht="15.75" customHeight="1">
       <c r="A37" s="9" t="s">
@@ -1750,14 +1747,14 @@
       <c r="B37" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="C37" s="40" t="s">
+      <c r="C37" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="D37" s="41"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="41"/>
-      <c r="H37" s="42"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="38"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1">
       <c r="A38" s="9" t="s">
@@ -1766,14 +1763,14 @@
       <c r="B38" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="C38" s="40" t="s">
+      <c r="C38" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D38" s="41"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="41"/>
-      <c r="G38" s="41"/>
-      <c r="H38" s="42"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="38"/>
     </row>
     <row r="39" spans="1:8" ht="15.75" customHeight="1">
       <c r="A39" s="9" t="s">
@@ -2018,14 +2015,14 @@
       <c r="B53" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C53" s="40" t="s">
+      <c r="C53" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D53" s="41"/>
-      <c r="E53" s="41"/>
-      <c r="F53" s="41"/>
-      <c r="G53" s="41"/>
-      <c r="H53" s="42"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="37"/>
+      <c r="F53" s="37"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="38"/>
     </row>
     <row r="54" spans="1:8" ht="15.75" customHeight="1">
       <c r="A54" s="3" t="s">
@@ -2034,14 +2031,14 @@
       <c r="B54" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C54" s="40" t="s">
+      <c r="C54" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D54" s="41"/>
-      <c r="E54" s="41"/>
-      <c r="F54" s="41"/>
-      <c r="G54" s="41"/>
-      <c r="H54" s="42"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="37"/>
+      <c r="F54" s="37"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="38"/>
     </row>
     <row r="55" spans="1:8" ht="16">
       <c r="A55" s="31"/>
@@ -4883,6 +4880,26 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="C24:H24"/>
     <mergeCell ref="C25:H25"/>
     <mergeCell ref="C38:H38"/>
     <mergeCell ref="C53:H53"/>
@@ -4894,26 +4911,6 @@
     <mergeCell ref="C31:H31"/>
     <mergeCell ref="C36:H36"/>
     <mergeCell ref="C37:H37"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -4927,9 +4924,9 @@
   </sheetPr>
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
@@ -4940,24 +4937,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="41" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
     </row>
     <row r="2" spans="1:8" ht="17">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
       <c r="C2" s="32" t="s">
         <v>3</v>
       </c>
@@ -5010,14 +5007,14 @@
       <c r="B4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="42"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="38"/>
     </row>
     <row r="5" spans="1:8" ht="17">
       <c r="A5" s="10" t="s">
@@ -5026,14 +5023,14 @@
       <c r="B5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="42"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="38"/>
     </row>
     <row r="6" spans="1:8" ht="17">
       <c r="A6" s="10" t="s">
@@ -5042,14 +5039,14 @@
       <c r="B6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="42"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="38"/>
     </row>
     <row r="7" spans="1:8" ht="17">
       <c r="A7" s="10" t="s">
@@ -5058,14 +5055,14 @@
       <c r="B7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="42"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="38"/>
     </row>
     <row r="8" spans="1:8" ht="17">
       <c r="A8" s="10" t="s">
@@ -5074,14 +5071,14 @@
       <c r="B8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="42"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="38"/>
     </row>
     <row r="9" spans="1:8" ht="34">
       <c r="A9" s="10" t="s">
@@ -5090,14 +5087,14 @@
       <c r="B9" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="42"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="38"/>
     </row>
     <row r="10" spans="1:8" ht="34">
       <c r="A10" s="10" t="s">
@@ -5154,14 +5151,14 @@
       <c r="B12" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="42"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="38"/>
     </row>
     <row r="13" spans="1:8" ht="119">
       <c r="A13" s="15" t="s">
@@ -5196,14 +5193,14 @@
       <c r="B14" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="42"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="38"/>
     </row>
     <row r="15" spans="1:8" ht="17">
       <c r="A15" s="10" t="s">
@@ -5212,14 +5209,14 @@
       <c r="B15" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="42"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="38"/>
     </row>
     <row r="16" spans="1:8" ht="17">
       <c r="A16" s="10" t="s">
@@ -5228,14 +5225,14 @@
       <c r="B16" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="40" t="s">
+      <c r="C16" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="42"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="38"/>
     </row>
     <row r="17" spans="1:8" ht="17">
       <c r="A17" s="10" t="s">
@@ -5244,14 +5241,14 @@
       <c r="B17" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="40" t="s">
+      <c r="C17" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="42"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="38"/>
     </row>
     <row r="18" spans="1:8" ht="17">
       <c r="A18" s="10" t="s">
@@ -5260,14 +5257,14 @@
       <c r="B18" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="40" t="s">
+      <c r="C18" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="42"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="38"/>
     </row>
     <row r="19" spans="1:8" ht="17">
       <c r="A19" s="10" t="s">
@@ -5276,14 +5273,14 @@
       <c r="B19" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="42"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="38"/>
     </row>
     <row r="20" spans="1:8" ht="17">
       <c r="A20" s="10" t="s">
@@ -5292,14 +5289,14 @@
       <c r="B20" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="40" t="s">
+      <c r="C20" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="42"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="38"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1">
       <c r="A21" s="10" t="s">
@@ -5308,14 +5305,14 @@
       <c r="B21" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="C21" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="42"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="38"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1">
       <c r="A22" s="10" t="s">
@@ -5324,14 +5321,14 @@
       <c r="B22" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="40" t="s">
+      <c r="C22" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="42"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="38"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1">
       <c r="A23" s="10" t="s">
@@ -5340,14 +5337,14 @@
       <c r="B23" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="40" t="s">
+      <c r="C23" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="42"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="38"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1">
       <c r="A24" s="10" t="s">
@@ -5356,14 +5353,14 @@
       <c r="B24" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C24" s="40" t="s">
+      <c r="C24" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="42"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="38"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1">
       <c r="A25" s="10" t="s">
@@ -5372,14 +5369,14 @@
       <c r="B25" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C25" s="40" t="s">
+      <c r="C25" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="42"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="38"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1">
       <c r="A26" s="10" t="s">
@@ -5388,14 +5385,14 @@
       <c r="B26" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C26" s="40" t="s">
+      <c r="C26" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="42"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="38"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1">
       <c r="A27" s="10" t="s">
@@ -5404,14 +5401,14 @@
       <c r="B27" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C27" s="40" t="s">
+      <c r="C27" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="42"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="38"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1">
       <c r="A28" s="10" t="s">
@@ -5420,14 +5417,14 @@
       <c r="B28" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C28" s="40" t="s">
+      <c r="C28" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="42"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="38"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1">
       <c r="A29" s="10" t="s">
@@ -5436,14 +5433,14 @@
       <c r="B29" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C29" s="40" t="s">
+      <c r="C29" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="42"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="38"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1">
       <c r="A30" s="10" t="s">
@@ -5478,14 +5475,14 @@
       <c r="B31" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="C31" s="44" t="s">
+      <c r="C31" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="42"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="38"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1">
       <c r="A32" s="10" t="s">
@@ -5536,8 +5533,8 @@
       <c r="B34" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="C34" s="13" t="s">
-        <v>154</v>
+      <c r="C34" s="21" t="s">
+        <v>102</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
@@ -5578,14 +5575,14 @@
       <c r="B36" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="C36" s="40" t="s">
+      <c r="C36" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="41"/>
-      <c r="H36" s="42"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="38"/>
     </row>
     <row r="37" spans="1:8" ht="15.75" customHeight="1">
       <c r="A37" s="10" t="s">
@@ -5594,14 +5591,14 @@
       <c r="B37" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="C37" s="40" t="s">
+      <c r="C37" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="D37" s="41"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="41"/>
-      <c r="H37" s="42"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="38"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1">
       <c r="A38" s="10" t="s">
@@ -5610,14 +5607,14 @@
       <c r="B38" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="C38" s="40" t="s">
+      <c r="C38" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D38" s="41"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="41"/>
-      <c r="G38" s="41"/>
-      <c r="H38" s="42"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="38"/>
     </row>
     <row r="39" spans="1:8" ht="15.75" customHeight="1">
       <c r="A39" s="10" t="s">
@@ -5627,7 +5624,7 @@
         <v>115</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
@@ -5676,7 +5673,7 @@
       </c>
       <c r="C42" s="27"/>
       <c r="D42" s="27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
@@ -5708,7 +5705,7 @@
       </c>
       <c r="C44" s="27"/>
       <c r="D44" s="27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
@@ -5742,7 +5739,7 @@
       <c r="D46" s="27"/>
       <c r="E46" s="27"/>
       <c r="F46" s="27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
@@ -5803,13 +5800,13 @@
         <v>142</v>
       </c>
       <c r="C50" s="27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D50" s="27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E50" s="27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
@@ -5862,14 +5859,14 @@
       <c r="B53" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C53" s="40" t="s">
+      <c r="C53" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D53" s="41"/>
-      <c r="E53" s="41"/>
-      <c r="F53" s="41"/>
-      <c r="G53" s="41"/>
-      <c r="H53" s="42"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="37"/>
+      <c r="F53" s="37"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="38"/>
     </row>
     <row r="54" spans="1:8" ht="15.75" customHeight="1">
       <c r="A54" s="4" t="s">
@@ -5878,14 +5875,14 @@
       <c r="B54" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C54" s="40" t="s">
+      <c r="C54" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D54" s="41"/>
-      <c r="E54" s="41"/>
-      <c r="F54" s="41"/>
-      <c r="G54" s="41"/>
-      <c r="H54" s="42"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="37"/>
+      <c r="F54" s="37"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="38"/>
     </row>
     <row r="55" spans="1:8" ht="15.75" customHeight="1"/>
     <row r="56" spans="1:8" ht="15.75" customHeight="1"/>
@@ -6835,6 +6832,26 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="C23:H23"/>
     <mergeCell ref="C24:H24"/>
     <mergeCell ref="C37:H37"/>
     <mergeCell ref="C38:H38"/>
@@ -6847,26 +6864,6 @@
     <mergeCell ref="C29:H29"/>
     <mergeCell ref="C31:H31"/>
     <mergeCell ref="C36:H36"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="C5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6879,7 +6876,7 @@
   </sheetPr>
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
     </sheetView>
@@ -6892,24 +6889,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="41" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
     </row>
     <row r="2" spans="1:8" ht="17">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
       <c r="C2" s="32" t="s">
         <v>3</v>
       </c>
@@ -6962,14 +6959,14 @@
       <c r="B4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="42"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="38"/>
     </row>
     <row r="5" spans="1:8" ht="17">
       <c r="A5" s="10" t="s">
@@ -6978,14 +6975,14 @@
       <c r="B5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="42"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="38"/>
     </row>
     <row r="6" spans="1:8" ht="17">
       <c r="A6" s="10" t="s">
@@ -6994,14 +6991,14 @@
       <c r="B6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="42"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="38"/>
     </row>
     <row r="7" spans="1:8" ht="17">
       <c r="A7" s="10" t="s">
@@ -7010,14 +7007,14 @@
       <c r="B7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="42"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="38"/>
     </row>
     <row r="8" spans="1:8" ht="17">
       <c r="A8" s="10" t="s">
@@ -7026,14 +7023,14 @@
       <c r="B8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="42"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="38"/>
     </row>
     <row r="9" spans="1:8" ht="34">
       <c r="A9" s="10" t="s">
@@ -7042,14 +7039,14 @@
       <c r="B9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="42"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="38"/>
     </row>
     <row r="10" spans="1:8" ht="34">
       <c r="A10" s="10" t="s">
@@ -7106,14 +7103,14 @@
       <c r="B12" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="42"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="38"/>
     </row>
     <row r="13" spans="1:8" ht="119">
       <c r="A13" s="15" t="s">
@@ -7148,14 +7145,14 @@
       <c r="B14" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="42"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="38"/>
     </row>
     <row r="15" spans="1:8" ht="17">
       <c r="A15" s="10" t="s">
@@ -7164,14 +7161,14 @@
       <c r="B15" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="42"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="38"/>
     </row>
     <row r="16" spans="1:8" ht="17">
       <c r="A16" s="10" t="s">
@@ -7180,14 +7177,14 @@
       <c r="B16" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="40" t="s">
+      <c r="C16" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="42"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="38"/>
     </row>
     <row r="17" spans="1:8" ht="17">
       <c r="A17" s="10" t="s">
@@ -7196,14 +7193,14 @@
       <c r="B17" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="40" t="s">
+      <c r="C17" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="42"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="38"/>
     </row>
     <row r="18" spans="1:8" ht="17">
       <c r="A18" s="10" t="s">
@@ -7212,14 +7209,14 @@
       <c r="B18" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="40" t="s">
+      <c r="C18" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="42"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="38"/>
     </row>
     <row r="19" spans="1:8" ht="17">
       <c r="A19" s="10" t="s">
@@ -7228,14 +7225,14 @@
       <c r="B19" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="42"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="38"/>
     </row>
     <row r="20" spans="1:8" ht="17">
       <c r="A20" s="10" t="s">
@@ -7244,14 +7241,14 @@
       <c r="B20" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="40" t="s">
+      <c r="C20" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="42"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="38"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1">
       <c r="A21" s="10" t="s">
@@ -7260,14 +7257,14 @@
       <c r="B21" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="C21" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="42"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="38"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1">
       <c r="A22" s="10" t="s">
@@ -7276,14 +7273,14 @@
       <c r="B22" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="40" t="s">
+      <c r="C22" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="42"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="38"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1">
       <c r="A23" s="10" t="s">
@@ -7292,14 +7289,14 @@
       <c r="B23" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="40" t="s">
+      <c r="C23" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="42"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="38"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1">
       <c r="A24" s="10" t="s">
@@ -7308,14 +7305,14 @@
       <c r="B24" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C24" s="40" t="s">
+      <c r="C24" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="42"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="38"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1">
       <c r="A25" s="10" t="s">
@@ -7324,14 +7321,14 @@
       <c r="B25" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C25" s="40" t="s">
+      <c r="C25" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="42"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="38"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1">
       <c r="A26" s="10" t="s">
@@ -7340,14 +7337,14 @@
       <c r="B26" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C26" s="40" t="s">
+      <c r="C26" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="42"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="38"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1">
       <c r="A27" s="10" t="s">
@@ -7356,14 +7353,14 @@
       <c r="B27" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C27" s="40" t="s">
+      <c r="C27" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="42"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="38"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1">
       <c r="A28" s="10" t="s">
@@ -7372,14 +7369,14 @@
       <c r="B28" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C28" s="40" t="s">
+      <c r="C28" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="42"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="38"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1">
       <c r="A29" s="10" t="s">
@@ -7388,14 +7385,14 @@
       <c r="B29" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C29" s="40" t="s">
+      <c r="C29" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="42"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="38"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1">
       <c r="A30" s="10" t="s">
@@ -7430,14 +7427,14 @@
       <c r="B31" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C31" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="42"/>
+      <c r="C31" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="38"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1">
       <c r="A32" s="10" t="s">
@@ -7528,14 +7525,14 @@
       <c r="B36" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C36" s="40" t="s">
+      <c r="C36" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="41"/>
-      <c r="H36" s="42"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="38"/>
     </row>
     <row r="37" spans="1:8" ht="15.75" customHeight="1">
       <c r="A37" s="10" t="s">
@@ -7544,14 +7541,14 @@
       <c r="B37" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C37" s="40" t="s">
+      <c r="C37" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="D37" s="41"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="41"/>
-      <c r="H37" s="42"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="38"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1">
       <c r="A38" s="10" t="s">
@@ -7560,14 +7557,14 @@
       <c r="B38" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="C38" s="40" t="s">
-        <v>161</v>
-      </c>
-      <c r="D38" s="41"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="41"/>
-      <c r="G38" s="41"/>
-      <c r="H38" s="42"/>
+      <c r="C38" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="38"/>
     </row>
     <row r="39" spans="1:8" ht="15.75" customHeight="1">
       <c r="A39" s="10" t="s">
@@ -7577,7 +7574,7 @@
         <v>115</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
@@ -7593,7 +7590,7 @@
         <v>118</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D40" s="12"/>
       <c r="E40" s="5"/>
@@ -7711,7 +7708,7 @@
       <c r="C48" s="27"/>
       <c r="D48" s="27"/>
       <c r="E48" s="27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
@@ -7780,14 +7777,14 @@
       <c r="B53" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C53" s="40" t="s">
+      <c r="C53" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D53" s="41"/>
-      <c r="E53" s="41"/>
-      <c r="F53" s="41"/>
-      <c r="G53" s="41"/>
-      <c r="H53" s="42"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="37"/>
+      <c r="F53" s="37"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="38"/>
     </row>
     <row r="54" spans="1:8" ht="15.75" customHeight="1">
       <c r="A54" s="4" t="s">
@@ -7796,14 +7793,14 @@
       <c r="B54" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C54" s="40" t="s">
+      <c r="C54" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D54" s="41"/>
-      <c r="E54" s="41"/>
-      <c r="F54" s="41"/>
-      <c r="G54" s="41"/>
-      <c r="H54" s="42"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="37"/>
+      <c r="F54" s="37"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="38"/>
     </row>
     <row r="55" spans="1:8" ht="15.75" customHeight="1">
       <c r="B55" s="31"/>
@@ -10645,6 +10642,26 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="C23:H23"/>
     <mergeCell ref="C24:H24"/>
     <mergeCell ref="C37:H37"/>
     <mergeCell ref="C38:H38"/>
@@ -10657,26 +10674,6 @@
     <mergeCell ref="C29:H29"/>
     <mergeCell ref="C31:H31"/>
     <mergeCell ref="C36:H36"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="C5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tools/game_levels.xlsx
+++ b/tools/game_levels.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="187">
   <si>
     <t>Feature</t>
   </si>
@@ -300,7 +300,22 @@
     <t>resource_allocation_text</t>
   </si>
   <si>
-    <t>Verteile frei zwischen deinem Familienclan, den Rothüten und der anderen Gruppe, den Hornlingen. Die Gegenstände helfen beim Ackern!</t>
+    <t>Verteile sie frei! Die Handschuhe helfen beim Ernten.</t>
+  </si>
+  <si>
+    <t>Verteile sie frei! Die Stiefel helfen bei Regen.</t>
+  </si>
+  <si>
+    <t>Verteile sie frei! Die Jeans helfen beim Bäume fällen.</t>
+  </si>
+  <si>
+    <t>Verteile sie frei! Die Hemden helfen bei Kälte.</t>
+  </si>
+  <si>
+    <t>Verteile sie frei! Die Mäntel helfen bei Regen.</t>
+  </si>
+  <si>
+    <t>Verteile sie frei! Die Schützen helfen beim Kochen.</t>
   </si>
   <si>
     <t xml:space="preserve">Resources in the resource allocation task </t>
@@ -522,9 +537,6 @@
     <t>outgroup_npcs_identical_appearance</t>
   </si>
   <si>
-    <t>Verteile frei zwischen deiner Freundesfarm, den Rothüten und der anderen Gruppe, den Hornlingen. Die Gegenstände helfen beim Ackern!</t>
-  </si>
-  <si>
     <t>Das ist deine Freundesfarm: Ihr seid die Rothüte</t>
   </si>
   <si>
@@ -544,9 +556,6 @@
   </si>
   <si>
     <t>Deine Freundesfarm versammelt sich zur täglichen Abstimmung darüber, was auf dem Markt gekauft werden soll. Du darfst noch nicht mitentscheiden, da Du noch kein vollwertiges Mitglied bist. Drücke die Leertaste, um fortzufahren.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verteilefrei zwischen den Rothüten (bei denen Du zufällig gelandet bist) und den Hornlingen. Die Gegenstände helfen beim Ackern!					</t>
   </si>
   <si>
     <t xml:space="preserve">No </t>
@@ -724,7 +733,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -807,8 +816,11 @@
     <xf borderId="5" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf borderId="5" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
@@ -1688,63 +1700,73 @@
       <c r="C33" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="17"/>
+      <c r="D33" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="E33" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="F33" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="G33" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="H33" s="31" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="13" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="B35" s="32" t="s">
-        <v>105</v>
+      <c r="A35" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="B35" s="33" t="s">
+        <v>110</v>
       </c>
       <c r="C35" s="18">
         <v>0.0</v>
       </c>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="13" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D36" s="12"/>
       <c r="E36" s="12"/>
@@ -1754,36 +1776,36 @@
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="13" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="13" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C38" s="15" t="s">
         <v>15</v>
@@ -1796,13 +1818,13 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="13" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D39" s="16"/>
       <c r="E39" s="16"/>
@@ -1812,10 +1834,10 @@
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="13" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C40" s="15" t="s">
         <v>15</v>
@@ -1828,13 +1850,13 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="13" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
@@ -1843,14 +1865,14 @@
       <c r="H41" s="12"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="B42" s="35" t="s">
-        <v>125</v>
-      </c>
-      <c r="C42" s="36" t="s">
-        <v>126</v>
+      <c r="A42" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="B42" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="C42" s="37" t="s">
+        <v>131</v>
       </c>
       <c r="D42" s="29"/>
       <c r="E42" s="12"/>
@@ -1859,14 +1881,14 @@
       <c r="H42" s="6"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="B43" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="C43" s="36" t="s">
-        <v>129</v>
+      <c r="A43" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="B43" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="C43" s="37" t="s">
+        <v>134</v>
       </c>
       <c r="D43" s="29"/>
       <c r="E43" s="12"/>
@@ -1875,14 +1897,14 @@
       <c r="H43" s="6"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="B44" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="C44" s="36" t="s">
-        <v>132</v>
+      <c r="A44" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="B44" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="C44" s="37" t="s">
+        <v>137</v>
       </c>
       <c r="D44" s="18"/>
       <c r="E44" s="12"/>
@@ -1891,14 +1913,14 @@
       <c r="H44" s="6"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="37" t="s">
-        <v>133</v>
-      </c>
-      <c r="B45" s="38" t="s">
-        <v>134</v>
+      <c r="A45" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="B45" s="39" t="s">
+        <v>139</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D45" s="29"/>
       <c r="E45" s="12"/>
@@ -1908,10 +1930,10 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="13" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C46" s="12"/>
       <c r="D46" s="29">
@@ -1923,15 +1945,15 @@
       <c r="H46" s="6"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="37" t="s">
-        <v>138</v>
-      </c>
-      <c r="B47" s="38" t="s">
-        <v>139</v>
+      <c r="A47" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="B47" s="39" t="s">
+        <v>144</v>
       </c>
       <c r="C47" s="12"/>
       <c r="D47" s="9" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E47" s="12"/>
       <c r="F47" s="12"/>
@@ -1940,10 +1962,10 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="13" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C48" s="29">
         <v>0.875</v>
@@ -1955,14 +1977,14 @@
       <c r="H48" s="12"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="B49" s="38" t="s">
-        <v>144</v>
+      <c r="A49" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="B49" s="39" t="s">
+        <v>149</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="12"/>
@@ -1972,10 +1994,10 @@
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="13" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C50" s="12"/>
       <c r="D50" s="12"/>
@@ -1987,27 +2009,27 @@
       <c r="H50" s="12"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="37" t="s">
-        <v>148</v>
-      </c>
-      <c r="B51" s="38" t="s">
-        <v>149</v>
+      <c r="A51" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="B51" s="39" t="s">
+        <v>154</v>
       </c>
       <c r="C51" s="12"/>
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
       <c r="F51" s="9" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="G51" s="12"/>
       <c r="H51" s="12"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="13" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C52" s="12"/>
       <c r="D52" s="12"/>
@@ -2017,11 +2039,11 @@
       <c r="H52" s="12"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="37" t="s">
-        <v>153</v>
-      </c>
-      <c r="B53" s="38" t="s">
-        <v>154</v>
+      <c r="A53" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="B53" s="39" t="s">
+        <v>159</v>
       </c>
       <c r="C53" s="12"/>
       <c r="D53" s="12"/>
@@ -2032,18 +2054,18 @@
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="B54" s="39" t="s">
-        <v>156</v>
-      </c>
-      <c r="C54" s="40">
+        <v>160</v>
+      </c>
+      <c r="B54" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="C54" s="41">
         <v>0.7083333333333334</v>
       </c>
-      <c r="D54" s="40">
+      <c r="D54" s="41">
         <v>0.08333333333333333</v>
       </c>
-      <c r="E54" s="40">
+      <c r="E54" s="41">
         <v>0.08333333333333333</v>
       </c>
       <c r="F54" s="12"/>
@@ -2051,20 +2073,20 @@
       <c r="H54" s="12"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="37" t="s">
-        <v>157</v>
-      </c>
-      <c r="B55" s="41" t="s">
-        <v>158</v>
+      <c r="A55" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="B55" s="42" t="s">
+        <v>163</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="F55" s="12"/>
       <c r="G55" s="12"/>
@@ -2072,10 +2094,10 @@
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="13" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C56" s="15"/>
       <c r="D56" s="15"/>
@@ -2091,31 +2113,31 @@
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="37" t="s">
-        <v>162</v>
-      </c>
-      <c r="B57" s="38" t="s">
-        <v>163</v>
+      <c r="A57" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="B57" s="39" t="s">
+        <v>168</v>
       </c>
       <c r="C57" s="12"/>
       <c r="D57" s="12"/>
       <c r="E57" s="12"/>
       <c r="F57" s="9" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="H57" s="9" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C58" s="15" t="s">
         <v>15</v>
@@ -2128,10 +2150,10 @@
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C59" s="15" t="s">
         <v>15</v>
@@ -2143,2845 +2165,2845 @@
       <c r="H59" s="17"/>
     </row>
     <row r="60">
-      <c r="A60" s="42"/>
+      <c r="A60" s="43"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="42"/>
+      <c r="A61" s="43"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="42"/>
+      <c r="A62" s="43"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="42"/>
+      <c r="A63" s="43"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="42"/>
+      <c r="A64" s="43"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="42"/>
+      <c r="A65" s="43"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="42"/>
+      <c r="A66" s="43"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="42"/>
+      <c r="A67" s="43"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="42"/>
+      <c r="A68" s="43"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="42"/>
+      <c r="A69" s="43"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="42"/>
+      <c r="A70" s="43"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="42"/>
+      <c r="A71" s="43"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="42"/>
+      <c r="A72" s="43"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="42"/>
+      <c r="A73" s="43"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="42"/>
+      <c r="A74" s="43"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="42"/>
+      <c r="A75" s="43"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="42"/>
+      <c r="A76" s="43"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="42"/>
+      <c r="A77" s="43"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="42"/>
+      <c r="A78" s="43"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="42"/>
+      <c r="A79" s="43"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="42"/>
+      <c r="A80" s="43"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="42"/>
+      <c r="A81" s="43"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="42"/>
+      <c r="A82" s="43"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="42"/>
+      <c r="A83" s="43"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="42"/>
+      <c r="A84" s="43"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="42"/>
+      <c r="A85" s="43"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="42"/>
+      <c r="A86" s="43"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="42"/>
+      <c r="A87" s="43"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="42"/>
+      <c r="A88" s="43"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="42"/>
+      <c r="A89" s="43"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="42"/>
+      <c r="A90" s="43"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="42"/>
+      <c r="A91" s="43"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="42"/>
+      <c r="A92" s="43"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="42"/>
+      <c r="A93" s="43"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="42"/>
+      <c r="A94" s="43"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="42"/>
+      <c r="A95" s="43"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="42"/>
+      <c r="A96" s="43"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="42"/>
+      <c r="A97" s="43"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="42"/>
+      <c r="A98" s="43"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="42"/>
+      <c r="A99" s="43"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="42"/>
+      <c r="A100" s="43"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="42"/>
+      <c r="A101" s="43"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="42"/>
+      <c r="A102" s="43"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="42"/>
+      <c r="A103" s="43"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="42"/>
+      <c r="A104" s="43"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="42"/>
+      <c r="A105" s="43"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="42"/>
+      <c r="A106" s="43"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="42"/>
+      <c r="A107" s="43"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="42"/>
+      <c r="A108" s="43"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="42"/>
+      <c r="A109" s="43"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="42"/>
+      <c r="A110" s="43"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="42"/>
+      <c r="A111" s="43"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="42"/>
+      <c r="A112" s="43"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="42"/>
+      <c r="A113" s="43"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="42"/>
+      <c r="A114" s="43"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="42"/>
+      <c r="A115" s="43"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="42"/>
+      <c r="A116" s="43"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="42"/>
+      <c r="A117" s="43"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="42"/>
+      <c r="A118" s="43"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="42"/>
+      <c r="A119" s="43"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="42"/>
+      <c r="A120" s="43"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="42"/>
+      <c r="A121" s="43"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="42"/>
+      <c r="A122" s="43"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="42"/>
+      <c r="A123" s="43"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="42"/>
+      <c r="A124" s="43"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="42"/>
+      <c r="A125" s="43"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="42"/>
+      <c r="A126" s="43"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="42"/>
+      <c r="A127" s="43"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="42"/>
+      <c r="A128" s="43"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="42"/>
+      <c r="A129" s="43"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="42"/>
+      <c r="A130" s="43"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="42"/>
+      <c r="A131" s="43"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="42"/>
+      <c r="A132" s="43"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="42"/>
+      <c r="A133" s="43"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="42"/>
+      <c r="A134" s="43"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="42"/>
+      <c r="A135" s="43"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="42"/>
+      <c r="A136" s="43"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="42"/>
+      <c r="A137" s="43"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="42"/>
+      <c r="A138" s="43"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="42"/>
+      <c r="A139" s="43"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="42"/>
+      <c r="A140" s="43"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="42"/>
+      <c r="A141" s="43"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="42"/>
+      <c r="A142" s="43"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="42"/>
+      <c r="A143" s="43"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="42"/>
+      <c r="A144" s="43"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="42"/>
+      <c r="A145" s="43"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="42"/>
+      <c r="A146" s="43"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="42"/>
+      <c r="A147" s="43"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="42"/>
+      <c r="A148" s="43"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="42"/>
+      <c r="A149" s="43"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="42"/>
+      <c r="A150" s="43"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="42"/>
+      <c r="A151" s="43"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="42"/>
+      <c r="A152" s="43"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="42"/>
+      <c r="A153" s="43"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="42"/>
+      <c r="A154" s="43"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="42"/>
+      <c r="A155" s="43"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="42"/>
+      <c r="A156" s="43"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="42"/>
+      <c r="A157" s="43"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="42"/>
+      <c r="A158" s="43"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="42"/>
+      <c r="A159" s="43"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="42"/>
+      <c r="A160" s="43"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="42"/>
+      <c r="A161" s="43"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="42"/>
+      <c r="A162" s="43"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="42"/>
+      <c r="A163" s="43"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="42"/>
+      <c r="A164" s="43"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="42"/>
+      <c r="A165" s="43"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="42"/>
+      <c r="A166" s="43"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="42"/>
+      <c r="A167" s="43"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="42"/>
+      <c r="A168" s="43"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="42"/>
+      <c r="A169" s="43"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="42"/>
+      <c r="A170" s="43"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="A171" s="42"/>
+      <c r="A171" s="43"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="42"/>
+      <c r="A172" s="43"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="42"/>
+      <c r="A173" s="43"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="42"/>
+      <c r="A174" s="43"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="42"/>
+      <c r="A175" s="43"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="42"/>
+      <c r="A176" s="43"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="42"/>
+      <c r="A177" s="43"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="42"/>
+      <c r="A178" s="43"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="42"/>
+      <c r="A179" s="43"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="42"/>
+      <c r="A180" s="43"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="A181" s="42"/>
+      <c r="A181" s="43"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="42"/>
+      <c r="A182" s="43"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="42"/>
+      <c r="A183" s="43"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="42"/>
+      <c r="A184" s="43"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="42"/>
+      <c r="A185" s="43"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="42"/>
+      <c r="A186" s="43"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="42"/>
+      <c r="A187" s="43"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="42"/>
+      <c r="A188" s="43"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="42"/>
+      <c r="A189" s="43"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="42"/>
+      <c r="A190" s="43"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="42"/>
+      <c r="A191" s="43"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="42"/>
+      <c r="A192" s="43"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="42"/>
+      <c r="A193" s="43"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="42"/>
+      <c r="A194" s="43"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="42"/>
+      <c r="A195" s="43"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="42"/>
+      <c r="A196" s="43"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="42"/>
+      <c r="A197" s="43"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="42"/>
+      <c r="A198" s="43"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="42"/>
+      <c r="A199" s="43"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="42"/>
+      <c r="A200" s="43"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="42"/>
+      <c r="A201" s="43"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="42"/>
+      <c r="A202" s="43"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="42"/>
+      <c r="A203" s="43"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="42"/>
+      <c r="A204" s="43"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="42"/>
+      <c r="A205" s="43"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="42"/>
+      <c r="A206" s="43"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="42"/>
+      <c r="A207" s="43"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="42"/>
+      <c r="A208" s="43"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="42"/>
+      <c r="A209" s="43"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="42"/>
+      <c r="A210" s="43"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="42"/>
+      <c r="A211" s="43"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="42"/>
+      <c r="A212" s="43"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="42"/>
+      <c r="A213" s="43"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="42"/>
+      <c r="A214" s="43"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="42"/>
+      <c r="A215" s="43"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="42"/>
+      <c r="A216" s="43"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="42"/>
+      <c r="A217" s="43"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="A218" s="42"/>
+      <c r="A218" s="43"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="42"/>
+      <c r="A219" s="43"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="42"/>
+      <c r="A220" s="43"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="A221" s="42"/>
+      <c r="A221" s="43"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
-      <c r="A222" s="42"/>
+      <c r="A222" s="43"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
-      <c r="A223" s="42"/>
+      <c r="A223" s="43"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
-      <c r="A224" s="42"/>
+      <c r="A224" s="43"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
-      <c r="A225" s="42"/>
+      <c r="A225" s="43"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
-      <c r="A226" s="42"/>
+      <c r="A226" s="43"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
-      <c r="A227" s="42"/>
+      <c r="A227" s="43"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
-      <c r="A228" s="42"/>
+      <c r="A228" s="43"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
-      <c r="A229" s="42"/>
+      <c r="A229" s="43"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
-      <c r="A230" s="42"/>
+      <c r="A230" s="43"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
-      <c r="A231" s="42"/>
+      <c r="A231" s="43"/>
     </row>
     <row r="232" ht="15.75" customHeight="1">
-      <c r="A232" s="42"/>
+      <c r="A232" s="43"/>
     </row>
     <row r="233" ht="15.75" customHeight="1">
-      <c r="A233" s="42"/>
+      <c r="A233" s="43"/>
     </row>
     <row r="234" ht="15.75" customHeight="1">
-      <c r="A234" s="42"/>
+      <c r="A234" s="43"/>
     </row>
     <row r="235" ht="15.75" customHeight="1">
-      <c r="A235" s="42"/>
+      <c r="A235" s="43"/>
     </row>
     <row r="236" ht="15.75" customHeight="1">
-      <c r="A236" s="42"/>
+      <c r="A236" s="43"/>
     </row>
     <row r="237" ht="15.75" customHeight="1">
-      <c r="A237" s="42"/>
+      <c r="A237" s="43"/>
     </row>
     <row r="238" ht="15.75" customHeight="1">
-      <c r="A238" s="42"/>
+      <c r="A238" s="43"/>
     </row>
     <row r="239" ht="15.75" customHeight="1">
-      <c r="A239" s="42"/>
+      <c r="A239" s="43"/>
     </row>
     <row r="240" ht="15.75" customHeight="1">
-      <c r="A240" s="42"/>
+      <c r="A240" s="43"/>
     </row>
     <row r="241" ht="15.75" customHeight="1">
-      <c r="A241" s="42"/>
+      <c r="A241" s="43"/>
     </row>
     <row r="242" ht="15.75" customHeight="1">
-      <c r="A242" s="42"/>
+      <c r="A242" s="43"/>
     </row>
     <row r="243" ht="15.75" customHeight="1">
-      <c r="A243" s="42"/>
+      <c r="A243" s="43"/>
     </row>
     <row r="244" ht="15.75" customHeight="1">
-      <c r="A244" s="42"/>
+      <c r="A244" s="43"/>
     </row>
     <row r="245" ht="15.75" customHeight="1">
-      <c r="A245" s="42"/>
+      <c r="A245" s="43"/>
     </row>
     <row r="246" ht="15.75" customHeight="1">
-      <c r="A246" s="42"/>
+      <c r="A246" s="43"/>
     </row>
     <row r="247" ht="15.75" customHeight="1">
-      <c r="A247" s="42"/>
+      <c r="A247" s="43"/>
     </row>
     <row r="248" ht="15.75" customHeight="1">
-      <c r="A248" s="42"/>
+      <c r="A248" s="43"/>
     </row>
     <row r="249" ht="15.75" customHeight="1">
-      <c r="A249" s="42"/>
+      <c r="A249" s="43"/>
     </row>
     <row r="250" ht="15.75" customHeight="1">
-      <c r="A250" s="42"/>
+      <c r="A250" s="43"/>
     </row>
     <row r="251" ht="15.75" customHeight="1">
-      <c r="A251" s="42"/>
+      <c r="A251" s="43"/>
     </row>
     <row r="252" ht="15.75" customHeight="1">
-      <c r="A252" s="42"/>
+      <c r="A252" s="43"/>
     </row>
     <row r="253" ht="15.75" customHeight="1">
-      <c r="A253" s="42"/>
+      <c r="A253" s="43"/>
     </row>
     <row r="254" ht="15.75" customHeight="1">
-      <c r="A254" s="42"/>
+      <c r="A254" s="43"/>
     </row>
     <row r="255" ht="15.75" customHeight="1">
-      <c r="A255" s="42"/>
+      <c r="A255" s="43"/>
     </row>
     <row r="256" ht="15.75" customHeight="1">
-      <c r="A256" s="42"/>
+      <c r="A256" s="43"/>
     </row>
     <row r="257" ht="15.75" customHeight="1">
-      <c r="A257" s="42"/>
+      <c r="A257" s="43"/>
     </row>
     <row r="258" ht="15.75" customHeight="1">
-      <c r="A258" s="42"/>
+      <c r="A258" s="43"/>
     </row>
     <row r="259" ht="15.75" customHeight="1">
-      <c r="A259" s="42"/>
+      <c r="A259" s="43"/>
     </row>
     <row r="260" ht="15.75" customHeight="1">
-      <c r="A260" s="42"/>
+      <c r="A260" s="43"/>
     </row>
     <row r="261" ht="15.75" customHeight="1">
-      <c r="A261" s="42"/>
+      <c r="A261" s="43"/>
     </row>
     <row r="262" ht="15.75" customHeight="1">
-      <c r="A262" s="42"/>
+      <c r="A262" s="43"/>
     </row>
     <row r="263" ht="15.75" customHeight="1">
-      <c r="A263" s="42"/>
+      <c r="A263" s="43"/>
     </row>
     <row r="264" ht="15.75" customHeight="1">
-      <c r="A264" s="42"/>
+      <c r="A264" s="43"/>
     </row>
     <row r="265" ht="15.75" customHeight="1">
-      <c r="A265" s="42"/>
+      <c r="A265" s="43"/>
     </row>
     <row r="266" ht="15.75" customHeight="1">
-      <c r="A266" s="42"/>
+      <c r="A266" s="43"/>
     </row>
     <row r="267" ht="15.75" customHeight="1">
-      <c r="A267" s="42"/>
+      <c r="A267" s="43"/>
     </row>
     <row r="268" ht="15.75" customHeight="1">
-      <c r="A268" s="42"/>
+      <c r="A268" s="43"/>
     </row>
     <row r="269" ht="15.75" customHeight="1">
-      <c r="A269" s="42"/>
+      <c r="A269" s="43"/>
     </row>
     <row r="270" ht="15.75" customHeight="1">
-      <c r="A270" s="42"/>
+      <c r="A270" s="43"/>
     </row>
     <row r="271" ht="15.75" customHeight="1">
-      <c r="A271" s="42"/>
+      <c r="A271" s="43"/>
     </row>
     <row r="272" ht="15.75" customHeight="1">
-      <c r="A272" s="42"/>
+      <c r="A272" s="43"/>
     </row>
     <row r="273" ht="15.75" customHeight="1">
-      <c r="A273" s="42"/>
+      <c r="A273" s="43"/>
     </row>
     <row r="274" ht="15.75" customHeight="1">
-      <c r="A274" s="42"/>
+      <c r="A274" s="43"/>
     </row>
     <row r="275" ht="15.75" customHeight="1">
-      <c r="A275" s="42"/>
+      <c r="A275" s="43"/>
     </row>
     <row r="276" ht="15.75" customHeight="1">
-      <c r="A276" s="42"/>
+      <c r="A276" s="43"/>
     </row>
     <row r="277" ht="15.75" customHeight="1">
-      <c r="A277" s="42"/>
+      <c r="A277" s="43"/>
     </row>
     <row r="278" ht="15.75" customHeight="1">
-      <c r="A278" s="42"/>
+      <c r="A278" s="43"/>
     </row>
     <row r="279" ht="15.75" customHeight="1">
-      <c r="A279" s="42"/>
+      <c r="A279" s="43"/>
     </row>
     <row r="280" ht="15.75" customHeight="1">
-      <c r="A280" s="42"/>
+      <c r="A280" s="43"/>
     </row>
     <row r="281" ht="15.75" customHeight="1">
-      <c r="A281" s="42"/>
+      <c r="A281" s="43"/>
     </row>
     <row r="282" ht="15.75" customHeight="1">
-      <c r="A282" s="42"/>
+      <c r="A282" s="43"/>
     </row>
     <row r="283" ht="15.75" customHeight="1">
-      <c r="A283" s="42"/>
+      <c r="A283" s="43"/>
     </row>
     <row r="284" ht="15.75" customHeight="1">
-      <c r="A284" s="42"/>
+      <c r="A284" s="43"/>
     </row>
     <row r="285" ht="15.75" customHeight="1">
-      <c r="A285" s="42"/>
+      <c r="A285" s="43"/>
     </row>
     <row r="286" ht="15.75" customHeight="1">
-      <c r="A286" s="42"/>
+      <c r="A286" s="43"/>
     </row>
     <row r="287" ht="15.75" customHeight="1">
-      <c r="A287" s="42"/>
+      <c r="A287" s="43"/>
     </row>
     <row r="288" ht="15.75" customHeight="1">
-      <c r="A288" s="42"/>
+      <c r="A288" s="43"/>
     </row>
     <row r="289" ht="15.75" customHeight="1">
-      <c r="A289" s="42"/>
+      <c r="A289" s="43"/>
     </row>
     <row r="290" ht="15.75" customHeight="1">
-      <c r="A290" s="42"/>
+      <c r="A290" s="43"/>
     </row>
     <row r="291" ht="15.75" customHeight="1">
-      <c r="A291" s="42"/>
+      <c r="A291" s="43"/>
     </row>
     <row r="292" ht="15.75" customHeight="1">
-      <c r="A292" s="42"/>
+      <c r="A292" s="43"/>
     </row>
     <row r="293" ht="15.75" customHeight="1">
-      <c r="A293" s="42"/>
+      <c r="A293" s="43"/>
     </row>
     <row r="294" ht="15.75" customHeight="1">
-      <c r="A294" s="42"/>
+      <c r="A294" s="43"/>
     </row>
     <row r="295" ht="15.75" customHeight="1">
-      <c r="A295" s="42"/>
+      <c r="A295" s="43"/>
     </row>
     <row r="296" ht="15.75" customHeight="1">
-      <c r="A296" s="42"/>
+      <c r="A296" s="43"/>
     </row>
     <row r="297" ht="15.75" customHeight="1">
-      <c r="A297" s="42"/>
+      <c r="A297" s="43"/>
     </row>
     <row r="298" ht="15.75" customHeight="1">
-      <c r="A298" s="42"/>
+      <c r="A298" s="43"/>
     </row>
     <row r="299" ht="15.75" customHeight="1">
-      <c r="A299" s="42"/>
+      <c r="A299" s="43"/>
     </row>
     <row r="300" ht="15.75" customHeight="1">
-      <c r="A300" s="42"/>
+      <c r="A300" s="43"/>
     </row>
     <row r="301" ht="15.75" customHeight="1">
-      <c r="A301" s="42"/>
+      <c r="A301" s="43"/>
     </row>
     <row r="302" ht="15.75" customHeight="1">
-      <c r="A302" s="42"/>
+      <c r="A302" s="43"/>
     </row>
     <row r="303" ht="15.75" customHeight="1">
-      <c r="A303" s="42"/>
+      <c r="A303" s="43"/>
     </row>
     <row r="304" ht="15.75" customHeight="1">
-      <c r="A304" s="42"/>
+      <c r="A304" s="43"/>
     </row>
     <row r="305" ht="15.75" customHeight="1">
-      <c r="A305" s="42"/>
+      <c r="A305" s="43"/>
     </row>
     <row r="306" ht="15.75" customHeight="1">
-      <c r="A306" s="42"/>
+      <c r="A306" s="43"/>
     </row>
     <row r="307" ht="15.75" customHeight="1">
-      <c r="A307" s="42"/>
+      <c r="A307" s="43"/>
     </row>
     <row r="308" ht="15.75" customHeight="1">
-      <c r="A308" s="42"/>
+      <c r="A308" s="43"/>
     </row>
     <row r="309" ht="15.75" customHeight="1">
-      <c r="A309" s="42"/>
+      <c r="A309" s="43"/>
     </row>
     <row r="310" ht="15.75" customHeight="1">
-      <c r="A310" s="42"/>
+      <c r="A310" s="43"/>
     </row>
     <row r="311" ht="15.75" customHeight="1">
-      <c r="A311" s="42"/>
+      <c r="A311" s="43"/>
     </row>
     <row r="312" ht="15.75" customHeight="1">
-      <c r="A312" s="42"/>
+      <c r="A312" s="43"/>
     </row>
     <row r="313" ht="15.75" customHeight="1">
-      <c r="A313" s="42"/>
+      <c r="A313" s="43"/>
     </row>
     <row r="314" ht="15.75" customHeight="1">
-      <c r="A314" s="42"/>
+      <c r="A314" s="43"/>
     </row>
     <row r="315" ht="15.75" customHeight="1">
-      <c r="A315" s="42"/>
+      <c r="A315" s="43"/>
     </row>
     <row r="316" ht="15.75" customHeight="1">
-      <c r="A316" s="42"/>
+      <c r="A316" s="43"/>
     </row>
     <row r="317" ht="15.75" customHeight="1">
-      <c r="A317" s="42"/>
+      <c r="A317" s="43"/>
     </row>
     <row r="318" ht="15.75" customHeight="1">
-      <c r="A318" s="42"/>
+      <c r="A318" s="43"/>
     </row>
     <row r="319" ht="15.75" customHeight="1">
-      <c r="A319" s="42"/>
+      <c r="A319" s="43"/>
     </row>
     <row r="320" ht="15.75" customHeight="1">
-      <c r="A320" s="42"/>
+      <c r="A320" s="43"/>
     </row>
     <row r="321" ht="15.75" customHeight="1">
-      <c r="A321" s="42"/>
+      <c r="A321" s="43"/>
     </row>
     <row r="322" ht="15.75" customHeight="1">
-      <c r="A322" s="42"/>
+      <c r="A322" s="43"/>
     </row>
     <row r="323" ht="15.75" customHeight="1">
-      <c r="A323" s="42"/>
+      <c r="A323" s="43"/>
     </row>
     <row r="324" ht="15.75" customHeight="1">
-      <c r="A324" s="42"/>
+      <c r="A324" s="43"/>
     </row>
     <row r="325" ht="15.75" customHeight="1">
-      <c r="A325" s="42"/>
+      <c r="A325" s="43"/>
     </row>
     <row r="326" ht="15.75" customHeight="1">
-      <c r="A326" s="42"/>
+      <c r="A326" s="43"/>
     </row>
     <row r="327" ht="15.75" customHeight="1">
-      <c r="A327" s="42"/>
+      <c r="A327" s="43"/>
     </row>
     <row r="328" ht="15.75" customHeight="1">
-      <c r="A328" s="42"/>
+      <c r="A328" s="43"/>
     </row>
     <row r="329" ht="15.75" customHeight="1">
-      <c r="A329" s="42"/>
+      <c r="A329" s="43"/>
     </row>
     <row r="330" ht="15.75" customHeight="1">
-      <c r="A330" s="42"/>
+      <c r="A330" s="43"/>
     </row>
     <row r="331" ht="15.75" customHeight="1">
-      <c r="A331" s="42"/>
+      <c r="A331" s="43"/>
     </row>
     <row r="332" ht="15.75" customHeight="1">
-      <c r="A332" s="42"/>
+      <c r="A332" s="43"/>
     </row>
     <row r="333" ht="15.75" customHeight="1">
-      <c r="A333" s="42"/>
+      <c r="A333" s="43"/>
     </row>
     <row r="334" ht="15.75" customHeight="1">
-      <c r="A334" s="42"/>
+      <c r="A334" s="43"/>
     </row>
     <row r="335" ht="15.75" customHeight="1">
-      <c r="A335" s="42"/>
+      <c r="A335" s="43"/>
     </row>
     <row r="336" ht="15.75" customHeight="1">
-      <c r="A336" s="42"/>
+      <c r="A336" s="43"/>
     </row>
     <row r="337" ht="15.75" customHeight="1">
-      <c r="A337" s="42"/>
+      <c r="A337" s="43"/>
     </row>
     <row r="338" ht="15.75" customHeight="1">
-      <c r="A338" s="42"/>
+      <c r="A338" s="43"/>
     </row>
     <row r="339" ht="15.75" customHeight="1">
-      <c r="A339" s="42"/>
+      <c r="A339" s="43"/>
     </row>
     <row r="340" ht="15.75" customHeight="1">
-      <c r="A340" s="42"/>
+      <c r="A340" s="43"/>
     </row>
     <row r="341" ht="15.75" customHeight="1">
-      <c r="A341" s="42"/>
+      <c r="A341" s="43"/>
     </row>
     <row r="342" ht="15.75" customHeight="1">
-      <c r="A342" s="42"/>
+      <c r="A342" s="43"/>
     </row>
     <row r="343" ht="15.75" customHeight="1">
-      <c r="A343" s="42"/>
+      <c r="A343" s="43"/>
     </row>
     <row r="344" ht="15.75" customHeight="1">
-      <c r="A344" s="42"/>
+      <c r="A344" s="43"/>
     </row>
     <row r="345" ht="15.75" customHeight="1">
-      <c r="A345" s="42"/>
+      <c r="A345" s="43"/>
     </row>
     <row r="346" ht="15.75" customHeight="1">
-      <c r="A346" s="42"/>
+      <c r="A346" s="43"/>
     </row>
     <row r="347" ht="15.75" customHeight="1">
-      <c r="A347" s="42"/>
+      <c r="A347" s="43"/>
     </row>
     <row r="348" ht="15.75" customHeight="1">
-      <c r="A348" s="42"/>
+      <c r="A348" s="43"/>
     </row>
     <row r="349" ht="15.75" customHeight="1">
-      <c r="A349" s="42"/>
+      <c r="A349" s="43"/>
     </row>
     <row r="350" ht="15.75" customHeight="1">
-      <c r="A350" s="42"/>
+      <c r="A350" s="43"/>
     </row>
     <row r="351" ht="15.75" customHeight="1">
-      <c r="A351" s="42"/>
+      <c r="A351" s="43"/>
     </row>
     <row r="352" ht="15.75" customHeight="1">
-      <c r="A352" s="42"/>
+      <c r="A352" s="43"/>
     </row>
     <row r="353" ht="15.75" customHeight="1">
-      <c r="A353" s="42"/>
+      <c r="A353" s="43"/>
     </row>
     <row r="354" ht="15.75" customHeight="1">
-      <c r="A354" s="42"/>
+      <c r="A354" s="43"/>
     </row>
     <row r="355" ht="15.75" customHeight="1">
-      <c r="A355" s="42"/>
+      <c r="A355" s="43"/>
     </row>
     <row r="356" ht="15.75" customHeight="1">
-      <c r="A356" s="42"/>
+      <c r="A356" s="43"/>
     </row>
     <row r="357" ht="15.75" customHeight="1">
-      <c r="A357" s="42"/>
+      <c r="A357" s="43"/>
     </row>
     <row r="358" ht="15.75" customHeight="1">
-      <c r="A358" s="42"/>
+      <c r="A358" s="43"/>
     </row>
     <row r="359" ht="15.75" customHeight="1">
-      <c r="A359" s="42"/>
+      <c r="A359" s="43"/>
     </row>
     <row r="360" ht="15.75" customHeight="1">
-      <c r="A360" s="42"/>
+      <c r="A360" s="43"/>
     </row>
     <row r="361" ht="15.75" customHeight="1">
-      <c r="A361" s="42"/>
+      <c r="A361" s="43"/>
     </row>
     <row r="362" ht="15.75" customHeight="1">
-      <c r="A362" s="42"/>
+      <c r="A362" s="43"/>
     </row>
     <row r="363" ht="15.75" customHeight="1">
-      <c r="A363" s="42"/>
+      <c r="A363" s="43"/>
     </row>
     <row r="364" ht="15.75" customHeight="1">
-      <c r="A364" s="42"/>
+      <c r="A364" s="43"/>
     </row>
     <row r="365" ht="15.75" customHeight="1">
-      <c r="A365" s="42"/>
+      <c r="A365" s="43"/>
     </row>
     <row r="366" ht="15.75" customHeight="1">
-      <c r="A366" s="42"/>
+      <c r="A366" s="43"/>
     </row>
     <row r="367" ht="15.75" customHeight="1">
-      <c r="A367" s="42"/>
+      <c r="A367" s="43"/>
     </row>
     <row r="368" ht="15.75" customHeight="1">
-      <c r="A368" s="42"/>
+      <c r="A368" s="43"/>
     </row>
     <row r="369" ht="15.75" customHeight="1">
-      <c r="A369" s="42"/>
+      <c r="A369" s="43"/>
     </row>
     <row r="370" ht="15.75" customHeight="1">
-      <c r="A370" s="42"/>
+      <c r="A370" s="43"/>
     </row>
     <row r="371" ht="15.75" customHeight="1">
-      <c r="A371" s="42"/>
+      <c r="A371" s="43"/>
     </row>
     <row r="372" ht="15.75" customHeight="1">
-      <c r="A372" s="42"/>
+      <c r="A372" s="43"/>
     </row>
     <row r="373" ht="15.75" customHeight="1">
-      <c r="A373" s="42"/>
+      <c r="A373" s="43"/>
     </row>
     <row r="374" ht="15.75" customHeight="1">
-      <c r="A374" s="42"/>
+      <c r="A374" s="43"/>
     </row>
     <row r="375" ht="15.75" customHeight="1">
-      <c r="A375" s="42"/>
+      <c r="A375" s="43"/>
     </row>
     <row r="376" ht="15.75" customHeight="1">
-      <c r="A376" s="42"/>
+      <c r="A376" s="43"/>
     </row>
     <row r="377" ht="15.75" customHeight="1">
-      <c r="A377" s="42"/>
+      <c r="A377" s="43"/>
     </row>
     <row r="378" ht="15.75" customHeight="1">
-      <c r="A378" s="42"/>
+      <c r="A378" s="43"/>
     </row>
     <row r="379" ht="15.75" customHeight="1">
-      <c r="A379" s="42"/>
+      <c r="A379" s="43"/>
     </row>
     <row r="380" ht="15.75" customHeight="1">
-      <c r="A380" s="42"/>
+      <c r="A380" s="43"/>
     </row>
     <row r="381" ht="15.75" customHeight="1">
-      <c r="A381" s="42"/>
+      <c r="A381" s="43"/>
     </row>
     <row r="382" ht="15.75" customHeight="1">
-      <c r="A382" s="42"/>
+      <c r="A382" s="43"/>
     </row>
     <row r="383" ht="15.75" customHeight="1">
-      <c r="A383" s="42"/>
+      <c r="A383" s="43"/>
     </row>
     <row r="384" ht="15.75" customHeight="1">
-      <c r="A384" s="42"/>
+      <c r="A384" s="43"/>
     </row>
     <row r="385" ht="15.75" customHeight="1">
-      <c r="A385" s="42"/>
+      <c r="A385" s="43"/>
     </row>
     <row r="386" ht="15.75" customHeight="1">
-      <c r="A386" s="42"/>
+      <c r="A386" s="43"/>
     </row>
     <row r="387" ht="15.75" customHeight="1">
-      <c r="A387" s="42"/>
+      <c r="A387" s="43"/>
     </row>
     <row r="388" ht="15.75" customHeight="1">
-      <c r="A388" s="42"/>
+      <c r="A388" s="43"/>
     </row>
     <row r="389" ht="15.75" customHeight="1">
-      <c r="A389" s="42"/>
+      <c r="A389" s="43"/>
     </row>
     <row r="390" ht="15.75" customHeight="1">
-      <c r="A390" s="42"/>
+      <c r="A390" s="43"/>
     </row>
     <row r="391" ht="15.75" customHeight="1">
-      <c r="A391" s="42"/>
+      <c r="A391" s="43"/>
     </row>
     <row r="392" ht="15.75" customHeight="1">
-      <c r="A392" s="42"/>
+      <c r="A392" s="43"/>
     </row>
     <row r="393" ht="15.75" customHeight="1">
-      <c r="A393" s="42"/>
+      <c r="A393" s="43"/>
     </row>
     <row r="394" ht="15.75" customHeight="1">
-      <c r="A394" s="42"/>
+      <c r="A394" s="43"/>
     </row>
     <row r="395" ht="15.75" customHeight="1">
-      <c r="A395" s="42"/>
+      <c r="A395" s="43"/>
     </row>
     <row r="396" ht="15.75" customHeight="1">
-      <c r="A396" s="42"/>
+      <c r="A396" s="43"/>
     </row>
     <row r="397" ht="15.75" customHeight="1">
-      <c r="A397" s="42"/>
+      <c r="A397" s="43"/>
     </row>
     <row r="398" ht="15.75" customHeight="1">
-      <c r="A398" s="42"/>
+      <c r="A398" s="43"/>
     </row>
     <row r="399" ht="15.75" customHeight="1">
-      <c r="A399" s="42"/>
+      <c r="A399" s="43"/>
     </row>
     <row r="400" ht="15.75" customHeight="1">
-      <c r="A400" s="42"/>
+      <c r="A400" s="43"/>
     </row>
     <row r="401" ht="15.75" customHeight="1">
-      <c r="A401" s="42"/>
+      <c r="A401" s="43"/>
     </row>
     <row r="402" ht="15.75" customHeight="1">
-      <c r="A402" s="42"/>
+      <c r="A402" s="43"/>
     </row>
     <row r="403" ht="15.75" customHeight="1">
-      <c r="A403" s="42"/>
+      <c r="A403" s="43"/>
     </row>
     <row r="404" ht="15.75" customHeight="1">
-      <c r="A404" s="42"/>
+      <c r="A404" s="43"/>
     </row>
     <row r="405" ht="15.75" customHeight="1">
-      <c r="A405" s="42"/>
+      <c r="A405" s="43"/>
     </row>
     <row r="406" ht="15.75" customHeight="1">
-      <c r="A406" s="42"/>
+      <c r="A406" s="43"/>
     </row>
     <row r="407" ht="15.75" customHeight="1">
-      <c r="A407" s="42"/>
+      <c r="A407" s="43"/>
     </row>
     <row r="408" ht="15.75" customHeight="1">
-      <c r="A408" s="42"/>
+      <c r="A408" s="43"/>
     </row>
     <row r="409" ht="15.75" customHeight="1">
-      <c r="A409" s="42"/>
+      <c r="A409" s="43"/>
     </row>
     <row r="410" ht="15.75" customHeight="1">
-      <c r="A410" s="42"/>
+      <c r="A410" s="43"/>
     </row>
     <row r="411" ht="15.75" customHeight="1">
-      <c r="A411" s="42"/>
+      <c r="A411" s="43"/>
     </row>
     <row r="412" ht="15.75" customHeight="1">
-      <c r="A412" s="42"/>
+      <c r="A412" s="43"/>
     </row>
     <row r="413" ht="15.75" customHeight="1">
-      <c r="A413" s="42"/>
+      <c r="A413" s="43"/>
     </row>
     <row r="414" ht="15.75" customHeight="1">
-      <c r="A414" s="42"/>
+      <c r="A414" s="43"/>
     </row>
     <row r="415" ht="15.75" customHeight="1">
-      <c r="A415" s="42"/>
+      <c r="A415" s="43"/>
     </row>
     <row r="416" ht="15.75" customHeight="1">
-      <c r="A416" s="42"/>
+      <c r="A416" s="43"/>
     </row>
     <row r="417" ht="15.75" customHeight="1">
-      <c r="A417" s="42"/>
+      <c r="A417" s="43"/>
     </row>
     <row r="418" ht="15.75" customHeight="1">
-      <c r="A418" s="42"/>
+      <c r="A418" s="43"/>
     </row>
     <row r="419" ht="15.75" customHeight="1">
-      <c r="A419" s="42"/>
+      <c r="A419" s="43"/>
     </row>
     <row r="420" ht="15.75" customHeight="1">
-      <c r="A420" s="42"/>
+      <c r="A420" s="43"/>
     </row>
     <row r="421" ht="15.75" customHeight="1">
-      <c r="A421" s="42"/>
+      <c r="A421" s="43"/>
     </row>
     <row r="422" ht="15.75" customHeight="1">
-      <c r="A422" s="42"/>
+      <c r="A422" s="43"/>
     </row>
     <row r="423" ht="15.75" customHeight="1">
-      <c r="A423" s="42"/>
+      <c r="A423" s="43"/>
     </row>
     <row r="424" ht="15.75" customHeight="1">
-      <c r="A424" s="42"/>
+      <c r="A424" s="43"/>
     </row>
     <row r="425" ht="15.75" customHeight="1">
-      <c r="A425" s="42"/>
+      <c r="A425" s="43"/>
     </row>
     <row r="426" ht="15.75" customHeight="1">
-      <c r="A426" s="42"/>
+      <c r="A426" s="43"/>
     </row>
     <row r="427" ht="15.75" customHeight="1">
-      <c r="A427" s="42"/>
+      <c r="A427" s="43"/>
     </row>
     <row r="428" ht="15.75" customHeight="1">
-      <c r="A428" s="42"/>
+      <c r="A428" s="43"/>
     </row>
     <row r="429" ht="15.75" customHeight="1">
-      <c r="A429" s="42"/>
+      <c r="A429" s="43"/>
     </row>
     <row r="430" ht="15.75" customHeight="1">
-      <c r="A430" s="42"/>
+      <c r="A430" s="43"/>
     </row>
     <row r="431" ht="15.75" customHeight="1">
-      <c r="A431" s="42"/>
+      <c r="A431" s="43"/>
     </row>
     <row r="432" ht="15.75" customHeight="1">
-      <c r="A432" s="42"/>
+      <c r="A432" s="43"/>
     </row>
     <row r="433" ht="15.75" customHeight="1">
-      <c r="A433" s="42"/>
+      <c r="A433" s="43"/>
     </row>
     <row r="434" ht="15.75" customHeight="1">
-      <c r="A434" s="42"/>
+      <c r="A434" s="43"/>
     </row>
     <row r="435" ht="15.75" customHeight="1">
-      <c r="A435" s="42"/>
+      <c r="A435" s="43"/>
     </row>
     <row r="436" ht="15.75" customHeight="1">
-      <c r="A436" s="42"/>
+      <c r="A436" s="43"/>
     </row>
     <row r="437" ht="15.75" customHeight="1">
-      <c r="A437" s="42"/>
+      <c r="A437" s="43"/>
     </row>
     <row r="438" ht="15.75" customHeight="1">
-      <c r="A438" s="42"/>
+      <c r="A438" s="43"/>
     </row>
     <row r="439" ht="15.75" customHeight="1">
-      <c r="A439" s="42"/>
+      <c r="A439" s="43"/>
     </row>
     <row r="440" ht="15.75" customHeight="1">
-      <c r="A440" s="42"/>
+      <c r="A440" s="43"/>
     </row>
     <row r="441" ht="15.75" customHeight="1">
-      <c r="A441" s="42"/>
+      <c r="A441" s="43"/>
     </row>
     <row r="442" ht="15.75" customHeight="1">
-      <c r="A442" s="42"/>
+      <c r="A442" s="43"/>
     </row>
     <row r="443" ht="15.75" customHeight="1">
-      <c r="A443" s="42"/>
+      <c r="A443" s="43"/>
     </row>
     <row r="444" ht="15.75" customHeight="1">
-      <c r="A444" s="42"/>
+      <c r="A444" s="43"/>
     </row>
     <row r="445" ht="15.75" customHeight="1">
-      <c r="A445" s="42"/>
+      <c r="A445" s="43"/>
     </row>
     <row r="446" ht="15.75" customHeight="1">
-      <c r="A446" s="42"/>
+      <c r="A446" s="43"/>
     </row>
     <row r="447" ht="15.75" customHeight="1">
-      <c r="A447" s="42"/>
+      <c r="A447" s="43"/>
     </row>
     <row r="448" ht="15.75" customHeight="1">
-      <c r="A448" s="42"/>
+      <c r="A448" s="43"/>
     </row>
     <row r="449" ht="15.75" customHeight="1">
-      <c r="A449" s="42"/>
+      <c r="A449" s="43"/>
     </row>
     <row r="450" ht="15.75" customHeight="1">
-      <c r="A450" s="42"/>
+      <c r="A450" s="43"/>
     </row>
     <row r="451" ht="15.75" customHeight="1">
-      <c r="A451" s="42"/>
+      <c r="A451" s="43"/>
     </row>
     <row r="452" ht="15.75" customHeight="1">
-      <c r="A452" s="42"/>
+      <c r="A452" s="43"/>
     </row>
     <row r="453" ht="15.75" customHeight="1">
-      <c r="A453" s="42"/>
+      <c r="A453" s="43"/>
     </row>
     <row r="454" ht="15.75" customHeight="1">
-      <c r="A454" s="42"/>
+      <c r="A454" s="43"/>
     </row>
     <row r="455" ht="15.75" customHeight="1">
-      <c r="A455" s="42"/>
+      <c r="A455" s="43"/>
     </row>
     <row r="456" ht="15.75" customHeight="1">
-      <c r="A456" s="42"/>
+      <c r="A456" s="43"/>
     </row>
     <row r="457" ht="15.75" customHeight="1">
-      <c r="A457" s="42"/>
+      <c r="A457" s="43"/>
     </row>
     <row r="458" ht="15.75" customHeight="1">
-      <c r="A458" s="42"/>
+      <c r="A458" s="43"/>
     </row>
     <row r="459" ht="15.75" customHeight="1">
-      <c r="A459" s="42"/>
+      <c r="A459" s="43"/>
     </row>
     <row r="460" ht="15.75" customHeight="1">
-      <c r="A460" s="42"/>
+      <c r="A460" s="43"/>
     </row>
     <row r="461" ht="15.75" customHeight="1">
-      <c r="A461" s="42"/>
+      <c r="A461" s="43"/>
     </row>
     <row r="462" ht="15.75" customHeight="1">
-      <c r="A462" s="42"/>
+      <c r="A462" s="43"/>
     </row>
     <row r="463" ht="15.75" customHeight="1">
-      <c r="A463" s="42"/>
+      <c r="A463" s="43"/>
     </row>
     <row r="464" ht="15.75" customHeight="1">
-      <c r="A464" s="42"/>
+      <c r="A464" s="43"/>
     </row>
     <row r="465" ht="15.75" customHeight="1">
-      <c r="A465" s="42"/>
+      <c r="A465" s="43"/>
     </row>
     <row r="466" ht="15.75" customHeight="1">
-      <c r="A466" s="42"/>
+      <c r="A466" s="43"/>
     </row>
     <row r="467" ht="15.75" customHeight="1">
-      <c r="A467" s="42"/>
+      <c r="A467" s="43"/>
     </row>
     <row r="468" ht="15.75" customHeight="1">
-      <c r="A468" s="42"/>
+      <c r="A468" s="43"/>
     </row>
     <row r="469" ht="15.75" customHeight="1">
-      <c r="A469" s="42"/>
+      <c r="A469" s="43"/>
     </row>
     <row r="470" ht="15.75" customHeight="1">
-      <c r="A470" s="42"/>
+      <c r="A470" s="43"/>
     </row>
     <row r="471" ht="15.75" customHeight="1">
-      <c r="A471" s="42"/>
+      <c r="A471" s="43"/>
     </row>
     <row r="472" ht="15.75" customHeight="1">
-      <c r="A472" s="42"/>
+      <c r="A472" s="43"/>
     </row>
     <row r="473" ht="15.75" customHeight="1">
-      <c r="A473" s="42"/>
+      <c r="A473" s="43"/>
     </row>
     <row r="474" ht="15.75" customHeight="1">
-      <c r="A474" s="42"/>
+      <c r="A474" s="43"/>
     </row>
     <row r="475" ht="15.75" customHeight="1">
-      <c r="A475" s="42"/>
+      <c r="A475" s="43"/>
     </row>
     <row r="476" ht="15.75" customHeight="1">
-      <c r="A476" s="42"/>
+      <c r="A476" s="43"/>
     </row>
     <row r="477" ht="15.75" customHeight="1">
-      <c r="A477" s="42"/>
+      <c r="A477" s="43"/>
     </row>
     <row r="478" ht="15.75" customHeight="1">
-      <c r="A478" s="42"/>
+      <c r="A478" s="43"/>
     </row>
     <row r="479" ht="15.75" customHeight="1">
-      <c r="A479" s="42"/>
+      <c r="A479" s="43"/>
     </row>
     <row r="480" ht="15.75" customHeight="1">
-      <c r="A480" s="42"/>
+      <c r="A480" s="43"/>
     </row>
     <row r="481" ht="15.75" customHeight="1">
-      <c r="A481" s="42"/>
+      <c r="A481" s="43"/>
     </row>
     <row r="482" ht="15.75" customHeight="1">
-      <c r="A482" s="42"/>
+      <c r="A482" s="43"/>
     </row>
     <row r="483" ht="15.75" customHeight="1">
-      <c r="A483" s="42"/>
+      <c r="A483" s="43"/>
     </row>
     <row r="484" ht="15.75" customHeight="1">
-      <c r="A484" s="42"/>
+      <c r="A484" s="43"/>
     </row>
     <row r="485" ht="15.75" customHeight="1">
-      <c r="A485" s="42"/>
+      <c r="A485" s="43"/>
     </row>
     <row r="486" ht="15.75" customHeight="1">
-      <c r="A486" s="42"/>
+      <c r="A486" s="43"/>
     </row>
     <row r="487" ht="15.75" customHeight="1">
-      <c r="A487" s="42"/>
+      <c r="A487" s="43"/>
     </row>
     <row r="488" ht="15.75" customHeight="1">
-      <c r="A488" s="42"/>
+      <c r="A488" s="43"/>
     </row>
     <row r="489" ht="15.75" customHeight="1">
-      <c r="A489" s="42"/>
+      <c r="A489" s="43"/>
     </row>
     <row r="490" ht="15.75" customHeight="1">
-      <c r="A490" s="42"/>
+      <c r="A490" s="43"/>
     </row>
     <row r="491" ht="15.75" customHeight="1">
-      <c r="A491" s="42"/>
+      <c r="A491" s="43"/>
     </row>
     <row r="492" ht="15.75" customHeight="1">
-      <c r="A492" s="42"/>
+      <c r="A492" s="43"/>
     </row>
     <row r="493" ht="15.75" customHeight="1">
-      <c r="A493" s="42"/>
+      <c r="A493" s="43"/>
     </row>
     <row r="494" ht="15.75" customHeight="1">
-      <c r="A494" s="42"/>
+      <c r="A494" s="43"/>
     </row>
     <row r="495" ht="15.75" customHeight="1">
-      <c r="A495" s="42"/>
+      <c r="A495" s="43"/>
     </row>
     <row r="496" ht="15.75" customHeight="1">
-      <c r="A496" s="42"/>
+      <c r="A496" s="43"/>
     </row>
     <row r="497" ht="15.75" customHeight="1">
-      <c r="A497" s="42"/>
+      <c r="A497" s="43"/>
     </row>
     <row r="498" ht="15.75" customHeight="1">
-      <c r="A498" s="42"/>
+      <c r="A498" s="43"/>
     </row>
     <row r="499" ht="15.75" customHeight="1">
-      <c r="A499" s="42"/>
+      <c r="A499" s="43"/>
     </row>
     <row r="500" ht="15.75" customHeight="1">
-      <c r="A500" s="42"/>
+      <c r="A500" s="43"/>
     </row>
     <row r="501" ht="15.75" customHeight="1">
-      <c r="A501" s="42"/>
+      <c r="A501" s="43"/>
     </row>
     <row r="502" ht="15.75" customHeight="1">
-      <c r="A502" s="42"/>
+      <c r="A502" s="43"/>
     </row>
     <row r="503" ht="15.75" customHeight="1">
-      <c r="A503" s="42"/>
+      <c r="A503" s="43"/>
     </row>
     <row r="504" ht="15.75" customHeight="1">
-      <c r="A504" s="42"/>
+      <c r="A504" s="43"/>
     </row>
     <row r="505" ht="15.75" customHeight="1">
-      <c r="A505" s="42"/>
+      <c r="A505" s="43"/>
     </row>
     <row r="506" ht="15.75" customHeight="1">
-      <c r="A506" s="42"/>
+      <c r="A506" s="43"/>
     </row>
     <row r="507" ht="15.75" customHeight="1">
-      <c r="A507" s="42"/>
+      <c r="A507" s="43"/>
     </row>
     <row r="508" ht="15.75" customHeight="1">
-      <c r="A508" s="42"/>
+      <c r="A508" s="43"/>
     </row>
     <row r="509" ht="15.75" customHeight="1">
-      <c r="A509" s="42"/>
+      <c r="A509" s="43"/>
     </row>
     <row r="510" ht="15.75" customHeight="1">
-      <c r="A510" s="42"/>
+      <c r="A510" s="43"/>
     </row>
     <row r="511" ht="15.75" customHeight="1">
-      <c r="A511" s="42"/>
+      <c r="A511" s="43"/>
     </row>
     <row r="512" ht="15.75" customHeight="1">
-      <c r="A512" s="42"/>
+      <c r="A512" s="43"/>
     </row>
     <row r="513" ht="15.75" customHeight="1">
-      <c r="A513" s="42"/>
+      <c r="A513" s="43"/>
     </row>
     <row r="514" ht="15.75" customHeight="1">
-      <c r="A514" s="42"/>
+      <c r="A514" s="43"/>
     </row>
     <row r="515" ht="15.75" customHeight="1">
-      <c r="A515" s="42"/>
+      <c r="A515" s="43"/>
     </row>
     <row r="516" ht="15.75" customHeight="1">
-      <c r="A516" s="42"/>
+      <c r="A516" s="43"/>
     </row>
     <row r="517" ht="15.75" customHeight="1">
-      <c r="A517" s="42"/>
+      <c r="A517" s="43"/>
     </row>
     <row r="518" ht="15.75" customHeight="1">
-      <c r="A518" s="42"/>
+      <c r="A518" s="43"/>
     </row>
     <row r="519" ht="15.75" customHeight="1">
-      <c r="A519" s="42"/>
+      <c r="A519" s="43"/>
     </row>
     <row r="520" ht="15.75" customHeight="1">
-      <c r="A520" s="42"/>
+      <c r="A520" s="43"/>
     </row>
     <row r="521" ht="15.75" customHeight="1">
-      <c r="A521" s="42"/>
+      <c r="A521" s="43"/>
     </row>
     <row r="522" ht="15.75" customHeight="1">
-      <c r="A522" s="42"/>
+      <c r="A522" s="43"/>
     </row>
     <row r="523" ht="15.75" customHeight="1">
-      <c r="A523" s="42"/>
+      <c r="A523" s="43"/>
     </row>
     <row r="524" ht="15.75" customHeight="1">
-      <c r="A524" s="42"/>
+      <c r="A524" s="43"/>
     </row>
     <row r="525" ht="15.75" customHeight="1">
-      <c r="A525" s="42"/>
+      <c r="A525" s="43"/>
     </row>
     <row r="526" ht="15.75" customHeight="1">
-      <c r="A526" s="42"/>
+      <c r="A526" s="43"/>
     </row>
     <row r="527" ht="15.75" customHeight="1">
-      <c r="A527" s="42"/>
+      <c r="A527" s="43"/>
     </row>
     <row r="528" ht="15.75" customHeight="1">
-      <c r="A528" s="42"/>
+      <c r="A528" s="43"/>
     </row>
     <row r="529" ht="15.75" customHeight="1">
-      <c r="A529" s="42"/>
+      <c r="A529" s="43"/>
     </row>
     <row r="530" ht="15.75" customHeight="1">
-      <c r="A530" s="42"/>
+      <c r="A530" s="43"/>
     </row>
     <row r="531" ht="15.75" customHeight="1">
-      <c r="A531" s="42"/>
+      <c r="A531" s="43"/>
     </row>
     <row r="532" ht="15.75" customHeight="1">
-      <c r="A532" s="42"/>
+      <c r="A532" s="43"/>
     </row>
     <row r="533" ht="15.75" customHeight="1">
-      <c r="A533" s="42"/>
+      <c r="A533" s="43"/>
     </row>
     <row r="534" ht="15.75" customHeight="1">
-      <c r="A534" s="42"/>
+      <c r="A534" s="43"/>
     </row>
     <row r="535" ht="15.75" customHeight="1">
-      <c r="A535" s="42"/>
+      <c r="A535" s="43"/>
     </row>
     <row r="536" ht="15.75" customHeight="1">
-      <c r="A536" s="42"/>
+      <c r="A536" s="43"/>
     </row>
     <row r="537" ht="15.75" customHeight="1">
-      <c r="A537" s="42"/>
+      <c r="A537" s="43"/>
     </row>
     <row r="538" ht="15.75" customHeight="1">
-      <c r="A538" s="42"/>
+      <c r="A538" s="43"/>
     </row>
     <row r="539" ht="15.75" customHeight="1">
-      <c r="A539" s="42"/>
+      <c r="A539" s="43"/>
     </row>
     <row r="540" ht="15.75" customHeight="1">
-      <c r="A540" s="42"/>
+      <c r="A540" s="43"/>
     </row>
     <row r="541" ht="15.75" customHeight="1">
-      <c r="A541" s="42"/>
+      <c r="A541" s="43"/>
     </row>
     <row r="542" ht="15.75" customHeight="1">
-      <c r="A542" s="42"/>
+      <c r="A542" s="43"/>
     </row>
     <row r="543" ht="15.75" customHeight="1">
-      <c r="A543" s="42"/>
+      <c r="A543" s="43"/>
     </row>
     <row r="544" ht="15.75" customHeight="1">
-      <c r="A544" s="42"/>
+      <c r="A544" s="43"/>
     </row>
     <row r="545" ht="15.75" customHeight="1">
-      <c r="A545" s="42"/>
+      <c r="A545" s="43"/>
     </row>
     <row r="546" ht="15.75" customHeight="1">
-      <c r="A546" s="42"/>
+      <c r="A546" s="43"/>
     </row>
     <row r="547" ht="15.75" customHeight="1">
-      <c r="A547" s="42"/>
+      <c r="A547" s="43"/>
     </row>
     <row r="548" ht="15.75" customHeight="1">
-      <c r="A548" s="42"/>
+      <c r="A548" s="43"/>
     </row>
     <row r="549" ht="15.75" customHeight="1">
-      <c r="A549" s="42"/>
+      <c r="A549" s="43"/>
     </row>
     <row r="550" ht="15.75" customHeight="1">
-      <c r="A550" s="42"/>
+      <c r="A550" s="43"/>
     </row>
     <row r="551" ht="15.75" customHeight="1">
-      <c r="A551" s="42"/>
+      <c r="A551" s="43"/>
     </row>
     <row r="552" ht="15.75" customHeight="1">
-      <c r="A552" s="42"/>
+      <c r="A552" s="43"/>
     </row>
     <row r="553" ht="15.75" customHeight="1">
-      <c r="A553" s="42"/>
+      <c r="A553" s="43"/>
     </row>
     <row r="554" ht="15.75" customHeight="1">
-      <c r="A554" s="42"/>
+      <c r="A554" s="43"/>
     </row>
     <row r="555" ht="15.75" customHeight="1">
-      <c r="A555" s="42"/>
+      <c r="A555" s="43"/>
     </row>
     <row r="556" ht="15.75" customHeight="1">
-      <c r="A556" s="42"/>
+      <c r="A556" s="43"/>
     </row>
     <row r="557" ht="15.75" customHeight="1">
-      <c r="A557" s="42"/>
+      <c r="A557" s="43"/>
     </row>
     <row r="558" ht="15.75" customHeight="1">
-      <c r="A558" s="42"/>
+      <c r="A558" s="43"/>
     </row>
     <row r="559" ht="15.75" customHeight="1">
-      <c r="A559" s="42"/>
+      <c r="A559" s="43"/>
     </row>
     <row r="560" ht="15.75" customHeight="1">
-      <c r="A560" s="42"/>
+      <c r="A560" s="43"/>
     </row>
     <row r="561" ht="15.75" customHeight="1">
-      <c r="A561" s="42"/>
+      <c r="A561" s="43"/>
     </row>
     <row r="562" ht="15.75" customHeight="1">
-      <c r="A562" s="42"/>
+      <c r="A562" s="43"/>
     </row>
     <row r="563" ht="15.75" customHeight="1">
-      <c r="A563" s="42"/>
+      <c r="A563" s="43"/>
     </row>
     <row r="564" ht="15.75" customHeight="1">
-      <c r="A564" s="42"/>
+      <c r="A564" s="43"/>
     </row>
     <row r="565" ht="15.75" customHeight="1">
-      <c r="A565" s="42"/>
+      <c r="A565" s="43"/>
     </row>
     <row r="566" ht="15.75" customHeight="1">
-      <c r="A566" s="42"/>
+      <c r="A566" s="43"/>
     </row>
     <row r="567" ht="15.75" customHeight="1">
-      <c r="A567" s="42"/>
+      <c r="A567" s="43"/>
     </row>
     <row r="568" ht="15.75" customHeight="1">
-      <c r="A568" s="42"/>
+      <c r="A568" s="43"/>
     </row>
     <row r="569" ht="15.75" customHeight="1">
-      <c r="A569" s="42"/>
+      <c r="A569" s="43"/>
     </row>
     <row r="570" ht="15.75" customHeight="1">
-      <c r="A570" s="42"/>
+      <c r="A570" s="43"/>
     </row>
     <row r="571" ht="15.75" customHeight="1">
-      <c r="A571" s="42"/>
+      <c r="A571" s="43"/>
     </row>
     <row r="572" ht="15.75" customHeight="1">
-      <c r="A572" s="42"/>
+      <c r="A572" s="43"/>
     </row>
     <row r="573" ht="15.75" customHeight="1">
-      <c r="A573" s="42"/>
+      <c r="A573" s="43"/>
     </row>
     <row r="574" ht="15.75" customHeight="1">
-      <c r="A574" s="42"/>
+      <c r="A574" s="43"/>
     </row>
     <row r="575" ht="15.75" customHeight="1">
-      <c r="A575" s="42"/>
+      <c r="A575" s="43"/>
     </row>
     <row r="576" ht="15.75" customHeight="1">
-      <c r="A576" s="42"/>
+      <c r="A576" s="43"/>
     </row>
     <row r="577" ht="15.75" customHeight="1">
-      <c r="A577" s="42"/>
+      <c r="A577" s="43"/>
     </row>
     <row r="578" ht="15.75" customHeight="1">
-      <c r="A578" s="42"/>
+      <c r="A578" s="43"/>
     </row>
     <row r="579" ht="15.75" customHeight="1">
-      <c r="A579" s="42"/>
+      <c r="A579" s="43"/>
     </row>
     <row r="580" ht="15.75" customHeight="1">
-      <c r="A580" s="42"/>
+      <c r="A580" s="43"/>
     </row>
     <row r="581" ht="15.75" customHeight="1">
-      <c r="A581" s="42"/>
+      <c r="A581" s="43"/>
     </row>
     <row r="582" ht="15.75" customHeight="1">
-      <c r="A582" s="42"/>
+      <c r="A582" s="43"/>
     </row>
     <row r="583" ht="15.75" customHeight="1">
-      <c r="A583" s="42"/>
+      <c r="A583" s="43"/>
     </row>
     <row r="584" ht="15.75" customHeight="1">
-      <c r="A584" s="42"/>
+      <c r="A584" s="43"/>
     </row>
     <row r="585" ht="15.75" customHeight="1">
-      <c r="A585" s="42"/>
+      <c r="A585" s="43"/>
     </row>
     <row r="586" ht="15.75" customHeight="1">
-      <c r="A586" s="42"/>
+      <c r="A586" s="43"/>
     </row>
     <row r="587" ht="15.75" customHeight="1">
-      <c r="A587" s="42"/>
+      <c r="A587" s="43"/>
     </row>
     <row r="588" ht="15.75" customHeight="1">
-      <c r="A588" s="42"/>
+      <c r="A588" s="43"/>
     </row>
     <row r="589" ht="15.75" customHeight="1">
-      <c r="A589" s="42"/>
+      <c r="A589" s="43"/>
     </row>
     <row r="590" ht="15.75" customHeight="1">
-      <c r="A590" s="42"/>
+      <c r="A590" s="43"/>
     </row>
     <row r="591" ht="15.75" customHeight="1">
-      <c r="A591" s="42"/>
+      <c r="A591" s="43"/>
     </row>
     <row r="592" ht="15.75" customHeight="1">
-      <c r="A592" s="42"/>
+      <c r="A592" s="43"/>
     </row>
     <row r="593" ht="15.75" customHeight="1">
-      <c r="A593" s="42"/>
+      <c r="A593" s="43"/>
     </row>
     <row r="594" ht="15.75" customHeight="1">
-      <c r="A594" s="42"/>
+      <c r="A594" s="43"/>
     </row>
     <row r="595" ht="15.75" customHeight="1">
-      <c r="A595" s="42"/>
+      <c r="A595" s="43"/>
     </row>
     <row r="596" ht="15.75" customHeight="1">
-      <c r="A596" s="42"/>
+      <c r="A596" s="43"/>
     </row>
     <row r="597" ht="15.75" customHeight="1">
-      <c r="A597" s="42"/>
+      <c r="A597" s="43"/>
     </row>
     <row r="598" ht="15.75" customHeight="1">
-      <c r="A598" s="42"/>
+      <c r="A598" s="43"/>
     </row>
     <row r="599" ht="15.75" customHeight="1">
-      <c r="A599" s="42"/>
+      <c r="A599" s="43"/>
     </row>
     <row r="600" ht="15.75" customHeight="1">
-      <c r="A600" s="42"/>
+      <c r="A600" s="43"/>
     </row>
     <row r="601" ht="15.75" customHeight="1">
-      <c r="A601" s="42"/>
+      <c r="A601" s="43"/>
     </row>
     <row r="602" ht="15.75" customHeight="1">
-      <c r="A602" s="42"/>
+      <c r="A602" s="43"/>
     </row>
     <row r="603" ht="15.75" customHeight="1">
-      <c r="A603" s="42"/>
+      <c r="A603" s="43"/>
     </row>
     <row r="604" ht="15.75" customHeight="1">
-      <c r="A604" s="42"/>
+      <c r="A604" s="43"/>
     </row>
     <row r="605" ht="15.75" customHeight="1">
-      <c r="A605" s="42"/>
+      <c r="A605" s="43"/>
     </row>
     <row r="606" ht="15.75" customHeight="1">
-      <c r="A606" s="42"/>
+      <c r="A606" s="43"/>
     </row>
     <row r="607" ht="15.75" customHeight="1">
-      <c r="A607" s="42"/>
+      <c r="A607" s="43"/>
     </row>
     <row r="608" ht="15.75" customHeight="1">
-      <c r="A608" s="42"/>
+      <c r="A608" s="43"/>
     </row>
     <row r="609" ht="15.75" customHeight="1">
-      <c r="A609" s="42"/>
+      <c r="A609" s="43"/>
     </row>
     <row r="610" ht="15.75" customHeight="1">
-      <c r="A610" s="42"/>
+      <c r="A610" s="43"/>
     </row>
     <row r="611" ht="15.75" customHeight="1">
-      <c r="A611" s="42"/>
+      <c r="A611" s="43"/>
     </row>
     <row r="612" ht="15.75" customHeight="1">
-      <c r="A612" s="42"/>
+      <c r="A612" s="43"/>
     </row>
     <row r="613" ht="15.75" customHeight="1">
-      <c r="A613" s="42"/>
+      <c r="A613" s="43"/>
     </row>
     <row r="614" ht="15.75" customHeight="1">
-      <c r="A614" s="42"/>
+      <c r="A614" s="43"/>
     </row>
     <row r="615" ht="15.75" customHeight="1">
-      <c r="A615" s="42"/>
+      <c r="A615" s="43"/>
     </row>
     <row r="616" ht="15.75" customHeight="1">
-      <c r="A616" s="42"/>
+      <c r="A616" s="43"/>
     </row>
     <row r="617" ht="15.75" customHeight="1">
-      <c r="A617" s="42"/>
+      <c r="A617" s="43"/>
     </row>
     <row r="618" ht="15.75" customHeight="1">
-      <c r="A618" s="42"/>
+      <c r="A618" s="43"/>
     </row>
     <row r="619" ht="15.75" customHeight="1">
-      <c r="A619" s="42"/>
+      <c r="A619" s="43"/>
     </row>
     <row r="620" ht="15.75" customHeight="1">
-      <c r="A620" s="42"/>
+      <c r="A620" s="43"/>
     </row>
     <row r="621" ht="15.75" customHeight="1">
-      <c r="A621" s="42"/>
+      <c r="A621" s="43"/>
     </row>
     <row r="622" ht="15.75" customHeight="1">
-      <c r="A622" s="42"/>
+      <c r="A622" s="43"/>
     </row>
     <row r="623" ht="15.75" customHeight="1">
-      <c r="A623" s="42"/>
+      <c r="A623" s="43"/>
     </row>
     <row r="624" ht="15.75" customHeight="1">
-      <c r="A624" s="42"/>
+      <c r="A624" s="43"/>
     </row>
     <row r="625" ht="15.75" customHeight="1">
-      <c r="A625" s="42"/>
+      <c r="A625" s="43"/>
     </row>
     <row r="626" ht="15.75" customHeight="1">
-      <c r="A626" s="42"/>
+      <c r="A626" s="43"/>
     </row>
     <row r="627" ht="15.75" customHeight="1">
-      <c r="A627" s="42"/>
+      <c r="A627" s="43"/>
     </row>
     <row r="628" ht="15.75" customHeight="1">
-      <c r="A628" s="42"/>
+      <c r="A628" s="43"/>
     </row>
     <row r="629" ht="15.75" customHeight="1">
-      <c r="A629" s="42"/>
+      <c r="A629" s="43"/>
     </row>
     <row r="630" ht="15.75" customHeight="1">
-      <c r="A630" s="42"/>
+      <c r="A630" s="43"/>
     </row>
     <row r="631" ht="15.75" customHeight="1">
-      <c r="A631" s="42"/>
+      <c r="A631" s="43"/>
     </row>
     <row r="632" ht="15.75" customHeight="1">
-      <c r="A632" s="42"/>
+      <c r="A632" s="43"/>
     </row>
     <row r="633" ht="15.75" customHeight="1">
-      <c r="A633" s="42"/>
+      <c r="A633" s="43"/>
     </row>
     <row r="634" ht="15.75" customHeight="1">
-      <c r="A634" s="42"/>
+      <c r="A634" s="43"/>
     </row>
     <row r="635" ht="15.75" customHeight="1">
-      <c r="A635" s="42"/>
+      <c r="A635" s="43"/>
     </row>
     <row r="636" ht="15.75" customHeight="1">
-      <c r="A636" s="42"/>
+      <c r="A636" s="43"/>
     </row>
     <row r="637" ht="15.75" customHeight="1">
-      <c r="A637" s="42"/>
+      <c r="A637" s="43"/>
     </row>
     <row r="638" ht="15.75" customHeight="1">
-      <c r="A638" s="42"/>
+      <c r="A638" s="43"/>
     </row>
     <row r="639" ht="15.75" customHeight="1">
-      <c r="A639" s="42"/>
+      <c r="A639" s="43"/>
     </row>
     <row r="640" ht="15.75" customHeight="1">
-      <c r="A640" s="42"/>
+      <c r="A640" s="43"/>
     </row>
     <row r="641" ht="15.75" customHeight="1">
-      <c r="A641" s="42"/>
+      <c r="A641" s="43"/>
     </row>
     <row r="642" ht="15.75" customHeight="1">
-      <c r="A642" s="42"/>
+      <c r="A642" s="43"/>
     </row>
     <row r="643" ht="15.75" customHeight="1">
-      <c r="A643" s="42"/>
+      <c r="A643" s="43"/>
     </row>
     <row r="644" ht="15.75" customHeight="1">
-      <c r="A644" s="42"/>
+      <c r="A644" s="43"/>
     </row>
     <row r="645" ht="15.75" customHeight="1">
-      <c r="A645" s="42"/>
+      <c r="A645" s="43"/>
     </row>
     <row r="646" ht="15.75" customHeight="1">
-      <c r="A646" s="42"/>
+      <c r="A646" s="43"/>
     </row>
     <row r="647" ht="15.75" customHeight="1">
-      <c r="A647" s="42"/>
+      <c r="A647" s="43"/>
     </row>
     <row r="648" ht="15.75" customHeight="1">
-      <c r="A648" s="42"/>
+      <c r="A648" s="43"/>
     </row>
     <row r="649" ht="15.75" customHeight="1">
-      <c r="A649" s="42"/>
+      <c r="A649" s="43"/>
     </row>
     <row r="650" ht="15.75" customHeight="1">
-      <c r="A650" s="42"/>
+      <c r="A650" s="43"/>
     </row>
     <row r="651" ht="15.75" customHeight="1">
-      <c r="A651" s="42"/>
+      <c r="A651" s="43"/>
     </row>
     <row r="652" ht="15.75" customHeight="1">
-      <c r="A652" s="42"/>
+      <c r="A652" s="43"/>
     </row>
     <row r="653" ht="15.75" customHeight="1">
-      <c r="A653" s="42"/>
+      <c r="A653" s="43"/>
     </row>
     <row r="654" ht="15.75" customHeight="1">
-      <c r="A654" s="42"/>
+      <c r="A654" s="43"/>
     </row>
     <row r="655" ht="15.75" customHeight="1">
-      <c r="A655" s="42"/>
+      <c r="A655" s="43"/>
     </row>
     <row r="656" ht="15.75" customHeight="1">
-      <c r="A656" s="42"/>
+      <c r="A656" s="43"/>
     </row>
     <row r="657" ht="15.75" customHeight="1">
-      <c r="A657" s="42"/>
+      <c r="A657" s="43"/>
     </row>
     <row r="658" ht="15.75" customHeight="1">
-      <c r="A658" s="42"/>
+      <c r="A658" s="43"/>
     </row>
     <row r="659" ht="15.75" customHeight="1">
-      <c r="A659" s="42"/>
+      <c r="A659" s="43"/>
     </row>
     <row r="660" ht="15.75" customHeight="1">
-      <c r="A660" s="42"/>
+      <c r="A660" s="43"/>
     </row>
     <row r="661" ht="15.75" customHeight="1">
-      <c r="A661" s="42"/>
+      <c r="A661" s="43"/>
     </row>
     <row r="662" ht="15.75" customHeight="1">
-      <c r="A662" s="42"/>
+      <c r="A662" s="43"/>
     </row>
     <row r="663" ht="15.75" customHeight="1">
-      <c r="A663" s="42"/>
+      <c r="A663" s="43"/>
     </row>
     <row r="664" ht="15.75" customHeight="1">
-      <c r="A664" s="42"/>
+      <c r="A664" s="43"/>
     </row>
     <row r="665" ht="15.75" customHeight="1">
-      <c r="A665" s="42"/>
+      <c r="A665" s="43"/>
     </row>
     <row r="666" ht="15.75" customHeight="1">
-      <c r="A666" s="42"/>
+      <c r="A666" s="43"/>
     </row>
     <row r="667" ht="15.75" customHeight="1">
-      <c r="A667" s="42"/>
+      <c r="A667" s="43"/>
     </row>
     <row r="668" ht="15.75" customHeight="1">
-      <c r="A668" s="42"/>
+      <c r="A668" s="43"/>
     </row>
     <row r="669" ht="15.75" customHeight="1">
-      <c r="A669" s="42"/>
+      <c r="A669" s="43"/>
     </row>
     <row r="670" ht="15.75" customHeight="1">
-      <c r="A670" s="42"/>
+      <c r="A670" s="43"/>
     </row>
     <row r="671" ht="15.75" customHeight="1">
-      <c r="A671" s="42"/>
+      <c r="A671" s="43"/>
     </row>
     <row r="672" ht="15.75" customHeight="1">
-      <c r="A672" s="42"/>
+      <c r="A672" s="43"/>
     </row>
     <row r="673" ht="15.75" customHeight="1">
-      <c r="A673" s="42"/>
+      <c r="A673" s="43"/>
     </row>
     <row r="674" ht="15.75" customHeight="1">
-      <c r="A674" s="42"/>
+      <c r="A674" s="43"/>
     </row>
     <row r="675" ht="15.75" customHeight="1">
-      <c r="A675" s="42"/>
+      <c r="A675" s="43"/>
     </row>
     <row r="676" ht="15.75" customHeight="1">
-      <c r="A676" s="42"/>
+      <c r="A676" s="43"/>
     </row>
     <row r="677" ht="15.75" customHeight="1">
-      <c r="A677" s="42"/>
+      <c r="A677" s="43"/>
     </row>
     <row r="678" ht="15.75" customHeight="1">
-      <c r="A678" s="42"/>
+      <c r="A678" s="43"/>
     </row>
     <row r="679" ht="15.75" customHeight="1">
-      <c r="A679" s="42"/>
+      <c r="A679" s="43"/>
     </row>
     <row r="680" ht="15.75" customHeight="1">
-      <c r="A680" s="42"/>
+      <c r="A680" s="43"/>
     </row>
     <row r="681" ht="15.75" customHeight="1">
-      <c r="A681" s="42"/>
+      <c r="A681" s="43"/>
     </row>
     <row r="682" ht="15.75" customHeight="1">
-      <c r="A682" s="42"/>
+      <c r="A682" s="43"/>
     </row>
     <row r="683" ht="15.75" customHeight="1">
-      <c r="A683" s="42"/>
+      <c r="A683" s="43"/>
     </row>
     <row r="684" ht="15.75" customHeight="1">
-      <c r="A684" s="42"/>
+      <c r="A684" s="43"/>
     </row>
     <row r="685" ht="15.75" customHeight="1">
-      <c r="A685" s="42"/>
+      <c r="A685" s="43"/>
     </row>
     <row r="686" ht="15.75" customHeight="1">
-      <c r="A686" s="42"/>
+      <c r="A686" s="43"/>
     </row>
     <row r="687" ht="15.75" customHeight="1">
-      <c r="A687" s="42"/>
+      <c r="A687" s="43"/>
     </row>
     <row r="688" ht="15.75" customHeight="1">
-      <c r="A688" s="42"/>
+      <c r="A688" s="43"/>
     </row>
     <row r="689" ht="15.75" customHeight="1">
-      <c r="A689" s="42"/>
+      <c r="A689" s="43"/>
     </row>
     <row r="690" ht="15.75" customHeight="1">
-      <c r="A690" s="42"/>
+      <c r="A690" s="43"/>
     </row>
     <row r="691" ht="15.75" customHeight="1">
-      <c r="A691" s="42"/>
+      <c r="A691" s="43"/>
     </row>
     <row r="692" ht="15.75" customHeight="1">
-      <c r="A692" s="42"/>
+      <c r="A692" s="43"/>
     </row>
     <row r="693" ht="15.75" customHeight="1">
-      <c r="A693" s="42"/>
+      <c r="A693" s="43"/>
     </row>
     <row r="694" ht="15.75" customHeight="1">
-      <c r="A694" s="42"/>
+      <c r="A694" s="43"/>
     </row>
     <row r="695" ht="15.75" customHeight="1">
-      <c r="A695" s="42"/>
+      <c r="A695" s="43"/>
     </row>
     <row r="696" ht="15.75" customHeight="1">
-      <c r="A696" s="42"/>
+      <c r="A696" s="43"/>
     </row>
     <row r="697" ht="15.75" customHeight="1">
-      <c r="A697" s="42"/>
+      <c r="A697" s="43"/>
     </row>
     <row r="698" ht="15.75" customHeight="1">
-      <c r="A698" s="42"/>
+      <c r="A698" s="43"/>
     </row>
     <row r="699" ht="15.75" customHeight="1">
-      <c r="A699" s="42"/>
+      <c r="A699" s="43"/>
     </row>
     <row r="700" ht="15.75" customHeight="1">
-      <c r="A700" s="42"/>
+      <c r="A700" s="43"/>
     </row>
     <row r="701" ht="15.75" customHeight="1">
-      <c r="A701" s="42"/>
+      <c r="A701" s="43"/>
     </row>
     <row r="702" ht="15.75" customHeight="1">
-      <c r="A702" s="42"/>
+      <c r="A702" s="43"/>
     </row>
     <row r="703" ht="15.75" customHeight="1">
-      <c r="A703" s="42"/>
+      <c r="A703" s="43"/>
     </row>
     <row r="704" ht="15.75" customHeight="1">
-      <c r="A704" s="42"/>
+      <c r="A704" s="43"/>
     </row>
     <row r="705" ht="15.75" customHeight="1">
-      <c r="A705" s="42"/>
+      <c r="A705" s="43"/>
     </row>
     <row r="706" ht="15.75" customHeight="1">
-      <c r="A706" s="42"/>
+      <c r="A706" s="43"/>
     </row>
     <row r="707" ht="15.75" customHeight="1">
-      <c r="A707" s="42"/>
+      <c r="A707" s="43"/>
     </row>
     <row r="708" ht="15.75" customHeight="1">
-      <c r="A708" s="42"/>
+      <c r="A708" s="43"/>
     </row>
     <row r="709" ht="15.75" customHeight="1">
-      <c r="A709" s="42"/>
+      <c r="A709" s="43"/>
     </row>
     <row r="710" ht="15.75" customHeight="1">
-      <c r="A710" s="42"/>
+      <c r="A710" s="43"/>
     </row>
     <row r="711" ht="15.75" customHeight="1">
-      <c r="A711" s="42"/>
+      <c r="A711" s="43"/>
     </row>
     <row r="712" ht="15.75" customHeight="1">
-      <c r="A712" s="42"/>
+      <c r="A712" s="43"/>
     </row>
     <row r="713" ht="15.75" customHeight="1">
-      <c r="A713" s="42"/>
+      <c r="A713" s="43"/>
     </row>
     <row r="714" ht="15.75" customHeight="1">
-      <c r="A714" s="42"/>
+      <c r="A714" s="43"/>
     </row>
     <row r="715" ht="15.75" customHeight="1">
-      <c r="A715" s="42"/>
+      <c r="A715" s="43"/>
     </row>
     <row r="716" ht="15.75" customHeight="1">
-      <c r="A716" s="42"/>
+      <c r="A716" s="43"/>
     </row>
     <row r="717" ht="15.75" customHeight="1">
-      <c r="A717" s="42"/>
+      <c r="A717" s="43"/>
     </row>
     <row r="718" ht="15.75" customHeight="1">
-      <c r="A718" s="42"/>
+      <c r="A718" s="43"/>
     </row>
     <row r="719" ht="15.75" customHeight="1">
-      <c r="A719" s="42"/>
+      <c r="A719" s="43"/>
     </row>
     <row r="720" ht="15.75" customHeight="1">
-      <c r="A720" s="42"/>
+      <c r="A720" s="43"/>
     </row>
     <row r="721" ht="15.75" customHeight="1">
-      <c r="A721" s="42"/>
+      <c r="A721" s="43"/>
     </row>
     <row r="722" ht="15.75" customHeight="1">
-      <c r="A722" s="42"/>
+      <c r="A722" s="43"/>
     </row>
     <row r="723" ht="15.75" customHeight="1">
-      <c r="A723" s="42"/>
+      <c r="A723" s="43"/>
     </row>
     <row r="724" ht="15.75" customHeight="1">
-      <c r="A724" s="42"/>
+      <c r="A724" s="43"/>
     </row>
     <row r="725" ht="15.75" customHeight="1">
-      <c r="A725" s="42"/>
+      <c r="A725" s="43"/>
     </row>
     <row r="726" ht="15.75" customHeight="1">
-      <c r="A726" s="42"/>
+      <c r="A726" s="43"/>
     </row>
     <row r="727" ht="15.75" customHeight="1">
-      <c r="A727" s="42"/>
+      <c r="A727" s="43"/>
     </row>
     <row r="728" ht="15.75" customHeight="1">
-      <c r="A728" s="42"/>
+      <c r="A728" s="43"/>
     </row>
     <row r="729" ht="15.75" customHeight="1">
-      <c r="A729" s="42"/>
+      <c r="A729" s="43"/>
     </row>
     <row r="730" ht="15.75" customHeight="1">
-      <c r="A730" s="42"/>
+      <c r="A730" s="43"/>
     </row>
     <row r="731" ht="15.75" customHeight="1">
-      <c r="A731" s="42"/>
+      <c r="A731" s="43"/>
     </row>
     <row r="732" ht="15.75" customHeight="1">
-      <c r="A732" s="42"/>
+      <c r="A732" s="43"/>
     </row>
     <row r="733" ht="15.75" customHeight="1">
-      <c r="A733" s="42"/>
+      <c r="A733" s="43"/>
     </row>
     <row r="734" ht="15.75" customHeight="1">
-      <c r="A734" s="42"/>
+      <c r="A734" s="43"/>
     </row>
     <row r="735" ht="15.75" customHeight="1">
-      <c r="A735" s="42"/>
+      <c r="A735" s="43"/>
     </row>
     <row r="736" ht="15.75" customHeight="1">
-      <c r="A736" s="42"/>
+      <c r="A736" s="43"/>
     </row>
     <row r="737" ht="15.75" customHeight="1">
-      <c r="A737" s="42"/>
+      <c r="A737" s="43"/>
     </row>
     <row r="738" ht="15.75" customHeight="1">
-      <c r="A738" s="42"/>
+      <c r="A738" s="43"/>
     </row>
     <row r="739" ht="15.75" customHeight="1">
-      <c r="A739" s="42"/>
+      <c r="A739" s="43"/>
     </row>
     <row r="740" ht="15.75" customHeight="1">
-      <c r="A740" s="42"/>
+      <c r="A740" s="43"/>
     </row>
     <row r="741" ht="15.75" customHeight="1">
-      <c r="A741" s="42"/>
+      <c r="A741" s="43"/>
     </row>
     <row r="742" ht="15.75" customHeight="1">
-      <c r="A742" s="42"/>
+      <c r="A742" s="43"/>
     </row>
     <row r="743" ht="15.75" customHeight="1">
-      <c r="A743" s="42"/>
+      <c r="A743" s="43"/>
     </row>
     <row r="744" ht="15.75" customHeight="1">
-      <c r="A744" s="42"/>
+      <c r="A744" s="43"/>
     </row>
     <row r="745" ht="15.75" customHeight="1">
-      <c r="A745" s="42"/>
+      <c r="A745" s="43"/>
     </row>
     <row r="746" ht="15.75" customHeight="1">
-      <c r="A746" s="42"/>
+      <c r="A746" s="43"/>
     </row>
     <row r="747" ht="15.75" customHeight="1">
-      <c r="A747" s="42"/>
+      <c r="A747" s="43"/>
     </row>
     <row r="748" ht="15.75" customHeight="1">
-      <c r="A748" s="42"/>
+      <c r="A748" s="43"/>
     </row>
     <row r="749" ht="15.75" customHeight="1">
-      <c r="A749" s="42"/>
+      <c r="A749" s="43"/>
     </row>
     <row r="750" ht="15.75" customHeight="1">
-      <c r="A750" s="42"/>
+      <c r="A750" s="43"/>
     </row>
     <row r="751" ht="15.75" customHeight="1">
-      <c r="A751" s="42"/>
+      <c r="A751" s="43"/>
     </row>
     <row r="752" ht="15.75" customHeight="1">
-      <c r="A752" s="42"/>
+      <c r="A752" s="43"/>
     </row>
     <row r="753" ht="15.75" customHeight="1">
-      <c r="A753" s="42"/>
+      <c r="A753" s="43"/>
     </row>
     <row r="754" ht="15.75" customHeight="1">
-      <c r="A754" s="42"/>
+      <c r="A754" s="43"/>
     </row>
     <row r="755" ht="15.75" customHeight="1">
-      <c r="A755" s="42"/>
+      <c r="A755" s="43"/>
     </row>
     <row r="756" ht="15.75" customHeight="1">
-      <c r="A756" s="42"/>
+      <c r="A756" s="43"/>
     </row>
     <row r="757" ht="15.75" customHeight="1">
-      <c r="A757" s="42"/>
+      <c r="A757" s="43"/>
     </row>
     <row r="758" ht="15.75" customHeight="1">
-      <c r="A758" s="42"/>
+      <c r="A758" s="43"/>
     </row>
     <row r="759" ht="15.75" customHeight="1">
-      <c r="A759" s="42"/>
+      <c r="A759" s="43"/>
     </row>
     <row r="760" ht="15.75" customHeight="1">
-      <c r="A760" s="42"/>
+      <c r="A760" s="43"/>
     </row>
     <row r="761" ht="15.75" customHeight="1">
-      <c r="A761" s="42"/>
+      <c r="A761" s="43"/>
     </row>
     <row r="762" ht="15.75" customHeight="1">
-      <c r="A762" s="42"/>
+      <c r="A762" s="43"/>
     </row>
     <row r="763" ht="15.75" customHeight="1">
-      <c r="A763" s="42"/>
+      <c r="A763" s="43"/>
     </row>
     <row r="764" ht="15.75" customHeight="1">
-      <c r="A764" s="42"/>
+      <c r="A764" s="43"/>
     </row>
     <row r="765" ht="15.75" customHeight="1">
-      <c r="A765" s="42"/>
+      <c r="A765" s="43"/>
     </row>
     <row r="766" ht="15.75" customHeight="1">
-      <c r="A766" s="42"/>
+      <c r="A766" s="43"/>
     </row>
     <row r="767" ht="15.75" customHeight="1">
-      <c r="A767" s="42"/>
+      <c r="A767" s="43"/>
     </row>
     <row r="768" ht="15.75" customHeight="1">
-      <c r="A768" s="42"/>
+      <c r="A768" s="43"/>
     </row>
     <row r="769" ht="15.75" customHeight="1">
-      <c r="A769" s="42"/>
+      <c r="A769" s="43"/>
     </row>
     <row r="770" ht="15.75" customHeight="1">
-      <c r="A770" s="42"/>
+      <c r="A770" s="43"/>
     </row>
     <row r="771" ht="15.75" customHeight="1">
-      <c r="A771" s="42"/>
+      <c r="A771" s="43"/>
     </row>
     <row r="772" ht="15.75" customHeight="1">
-      <c r="A772" s="42"/>
+      <c r="A772" s="43"/>
     </row>
     <row r="773" ht="15.75" customHeight="1">
-      <c r="A773" s="42"/>
+      <c r="A773" s="43"/>
     </row>
     <row r="774" ht="15.75" customHeight="1">
-      <c r="A774" s="42"/>
+      <c r="A774" s="43"/>
     </row>
     <row r="775" ht="15.75" customHeight="1">
-      <c r="A775" s="42"/>
+      <c r="A775" s="43"/>
     </row>
     <row r="776" ht="15.75" customHeight="1">
-      <c r="A776" s="42"/>
+      <c r="A776" s="43"/>
     </row>
     <row r="777" ht="15.75" customHeight="1">
-      <c r="A777" s="42"/>
+      <c r="A777" s="43"/>
     </row>
     <row r="778" ht="15.75" customHeight="1">
-      <c r="A778" s="42"/>
+      <c r="A778" s="43"/>
     </row>
     <row r="779" ht="15.75" customHeight="1">
-      <c r="A779" s="42"/>
+      <c r="A779" s="43"/>
     </row>
     <row r="780" ht="15.75" customHeight="1">
-      <c r="A780" s="42"/>
+      <c r="A780" s="43"/>
     </row>
     <row r="781" ht="15.75" customHeight="1">
-      <c r="A781" s="42"/>
+      <c r="A781" s="43"/>
     </row>
     <row r="782" ht="15.75" customHeight="1">
-      <c r="A782" s="42"/>
+      <c r="A782" s="43"/>
     </row>
     <row r="783" ht="15.75" customHeight="1">
-      <c r="A783" s="42"/>
+      <c r="A783" s="43"/>
     </row>
     <row r="784" ht="15.75" customHeight="1">
-      <c r="A784" s="42"/>
+      <c r="A784" s="43"/>
     </row>
     <row r="785" ht="15.75" customHeight="1">
-      <c r="A785" s="42"/>
+      <c r="A785" s="43"/>
     </row>
     <row r="786" ht="15.75" customHeight="1">
-      <c r="A786" s="42"/>
+      <c r="A786" s="43"/>
     </row>
     <row r="787" ht="15.75" customHeight="1">
-      <c r="A787" s="42"/>
+      <c r="A787" s="43"/>
     </row>
     <row r="788" ht="15.75" customHeight="1">
-      <c r="A788" s="42"/>
+      <c r="A788" s="43"/>
     </row>
     <row r="789" ht="15.75" customHeight="1">
-      <c r="A789" s="42"/>
+      <c r="A789" s="43"/>
     </row>
     <row r="790" ht="15.75" customHeight="1">
-      <c r="A790" s="42"/>
+      <c r="A790" s="43"/>
     </row>
     <row r="791" ht="15.75" customHeight="1">
-      <c r="A791" s="42"/>
+      <c r="A791" s="43"/>
     </row>
     <row r="792" ht="15.75" customHeight="1">
-      <c r="A792" s="42"/>
+      <c r="A792" s="43"/>
     </row>
     <row r="793" ht="15.75" customHeight="1">
-      <c r="A793" s="42"/>
+      <c r="A793" s="43"/>
     </row>
     <row r="794" ht="15.75" customHeight="1">
-      <c r="A794" s="42"/>
+      <c r="A794" s="43"/>
     </row>
     <row r="795" ht="15.75" customHeight="1">
-      <c r="A795" s="42"/>
+      <c r="A795" s="43"/>
     </row>
     <row r="796" ht="15.75" customHeight="1">
-      <c r="A796" s="42"/>
+      <c r="A796" s="43"/>
     </row>
     <row r="797" ht="15.75" customHeight="1">
-      <c r="A797" s="42"/>
+      <c r="A797" s="43"/>
     </row>
     <row r="798" ht="15.75" customHeight="1">
-      <c r="A798" s="42"/>
+      <c r="A798" s="43"/>
     </row>
     <row r="799" ht="15.75" customHeight="1">
-      <c r="A799" s="42"/>
+      <c r="A799" s="43"/>
     </row>
     <row r="800" ht="15.75" customHeight="1">
-      <c r="A800" s="42"/>
+      <c r="A800" s="43"/>
     </row>
     <row r="801" ht="15.75" customHeight="1">
-      <c r="A801" s="42"/>
+      <c r="A801" s="43"/>
     </row>
     <row r="802" ht="15.75" customHeight="1">
-      <c r="A802" s="42"/>
+      <c r="A802" s="43"/>
     </row>
     <row r="803" ht="15.75" customHeight="1">
-      <c r="A803" s="42"/>
+      <c r="A803" s="43"/>
     </row>
     <row r="804" ht="15.75" customHeight="1">
-      <c r="A804" s="42"/>
+      <c r="A804" s="43"/>
     </row>
     <row r="805" ht="15.75" customHeight="1">
-      <c r="A805" s="42"/>
+      <c r="A805" s="43"/>
     </row>
     <row r="806" ht="15.75" customHeight="1">
-      <c r="A806" s="42"/>
+      <c r="A806" s="43"/>
     </row>
     <row r="807" ht="15.75" customHeight="1">
-      <c r="A807" s="42"/>
+      <c r="A807" s="43"/>
     </row>
     <row r="808" ht="15.75" customHeight="1">
-      <c r="A808" s="42"/>
+      <c r="A808" s="43"/>
     </row>
     <row r="809" ht="15.75" customHeight="1">
-      <c r="A809" s="42"/>
+      <c r="A809" s="43"/>
     </row>
     <row r="810" ht="15.75" customHeight="1">
-      <c r="A810" s="42"/>
+      <c r="A810" s="43"/>
     </row>
     <row r="811" ht="15.75" customHeight="1">
-      <c r="A811" s="42"/>
+      <c r="A811" s="43"/>
     </row>
     <row r="812" ht="15.75" customHeight="1">
-      <c r="A812" s="42"/>
+      <c r="A812" s="43"/>
     </row>
     <row r="813" ht="15.75" customHeight="1">
-      <c r="A813" s="42"/>
+      <c r="A813" s="43"/>
     </row>
     <row r="814" ht="15.75" customHeight="1">
-      <c r="A814" s="42"/>
+      <c r="A814" s="43"/>
     </row>
     <row r="815" ht="15.75" customHeight="1">
-      <c r="A815" s="42"/>
+      <c r="A815" s="43"/>
     </row>
     <row r="816" ht="15.75" customHeight="1">
-      <c r="A816" s="42"/>
+      <c r="A816" s="43"/>
     </row>
     <row r="817" ht="15.75" customHeight="1">
-      <c r="A817" s="42"/>
+      <c r="A817" s="43"/>
     </row>
     <row r="818" ht="15.75" customHeight="1">
-      <c r="A818" s="42"/>
+      <c r="A818" s="43"/>
     </row>
     <row r="819" ht="15.75" customHeight="1">
-      <c r="A819" s="42"/>
+      <c r="A819" s="43"/>
     </row>
     <row r="820" ht="15.75" customHeight="1">
-      <c r="A820" s="42"/>
+      <c r="A820" s="43"/>
     </row>
     <row r="821" ht="15.75" customHeight="1">
-      <c r="A821" s="42"/>
+      <c r="A821" s="43"/>
     </row>
     <row r="822" ht="15.75" customHeight="1">
-      <c r="A822" s="42"/>
+      <c r="A822" s="43"/>
     </row>
     <row r="823" ht="15.75" customHeight="1">
-      <c r="A823" s="42"/>
+      <c r="A823" s="43"/>
     </row>
     <row r="824" ht="15.75" customHeight="1">
-      <c r="A824" s="42"/>
+      <c r="A824" s="43"/>
     </row>
     <row r="825" ht="15.75" customHeight="1">
-      <c r="A825" s="42"/>
+      <c r="A825" s="43"/>
     </row>
     <row r="826" ht="15.75" customHeight="1">
-      <c r="A826" s="42"/>
+      <c r="A826" s="43"/>
     </row>
     <row r="827" ht="15.75" customHeight="1">
-      <c r="A827" s="42"/>
+      <c r="A827" s="43"/>
     </row>
     <row r="828" ht="15.75" customHeight="1">
-      <c r="A828" s="42"/>
+      <c r="A828" s="43"/>
     </row>
     <row r="829" ht="15.75" customHeight="1">
-      <c r="A829" s="42"/>
+      <c r="A829" s="43"/>
     </row>
     <row r="830" ht="15.75" customHeight="1">
-      <c r="A830" s="42"/>
+      <c r="A830" s="43"/>
     </row>
     <row r="831" ht="15.75" customHeight="1">
-      <c r="A831" s="42"/>
+      <c r="A831" s="43"/>
     </row>
     <row r="832" ht="15.75" customHeight="1">
-      <c r="A832" s="42"/>
+      <c r="A832" s="43"/>
     </row>
     <row r="833" ht="15.75" customHeight="1">
-      <c r="A833" s="42"/>
+      <c r="A833" s="43"/>
     </row>
     <row r="834" ht="15.75" customHeight="1">
-      <c r="A834" s="42"/>
+      <c r="A834" s="43"/>
     </row>
     <row r="835" ht="15.75" customHeight="1">
-      <c r="A835" s="42"/>
+      <c r="A835" s="43"/>
     </row>
     <row r="836" ht="15.75" customHeight="1">
-      <c r="A836" s="42"/>
+      <c r="A836" s="43"/>
     </row>
     <row r="837" ht="15.75" customHeight="1">
-      <c r="A837" s="42"/>
+      <c r="A837" s="43"/>
     </row>
     <row r="838" ht="15.75" customHeight="1">
-      <c r="A838" s="42"/>
+      <c r="A838" s="43"/>
     </row>
     <row r="839" ht="15.75" customHeight="1">
-      <c r="A839" s="42"/>
+      <c r="A839" s="43"/>
     </row>
     <row r="840" ht="15.75" customHeight="1">
-      <c r="A840" s="42"/>
+      <c r="A840" s="43"/>
     </row>
     <row r="841" ht="15.75" customHeight="1">
-      <c r="A841" s="42"/>
+      <c r="A841" s="43"/>
     </row>
     <row r="842" ht="15.75" customHeight="1">
-      <c r="A842" s="42"/>
+      <c r="A842" s="43"/>
     </row>
     <row r="843" ht="15.75" customHeight="1">
-      <c r="A843" s="42"/>
+      <c r="A843" s="43"/>
     </row>
     <row r="844" ht="15.75" customHeight="1">
-      <c r="A844" s="42"/>
+      <c r="A844" s="43"/>
     </row>
     <row r="845" ht="15.75" customHeight="1">
-      <c r="A845" s="42"/>
+      <c r="A845" s="43"/>
     </row>
     <row r="846" ht="15.75" customHeight="1">
-      <c r="A846" s="42"/>
+      <c r="A846" s="43"/>
     </row>
     <row r="847" ht="15.75" customHeight="1">
-      <c r="A847" s="42"/>
+      <c r="A847" s="43"/>
     </row>
     <row r="848" ht="15.75" customHeight="1">
-      <c r="A848" s="42"/>
+      <c r="A848" s="43"/>
     </row>
     <row r="849" ht="15.75" customHeight="1">
-      <c r="A849" s="42"/>
+      <c r="A849" s="43"/>
     </row>
     <row r="850" ht="15.75" customHeight="1">
-      <c r="A850" s="42"/>
+      <c r="A850" s="43"/>
     </row>
     <row r="851" ht="15.75" customHeight="1">
-      <c r="A851" s="42"/>
+      <c r="A851" s="43"/>
     </row>
     <row r="852" ht="15.75" customHeight="1">
-      <c r="A852" s="42"/>
+      <c r="A852" s="43"/>
     </row>
     <row r="853" ht="15.75" customHeight="1">
-      <c r="A853" s="42"/>
+      <c r="A853" s="43"/>
     </row>
     <row r="854" ht="15.75" customHeight="1">
-      <c r="A854" s="42"/>
+      <c r="A854" s="43"/>
     </row>
     <row r="855" ht="15.75" customHeight="1">
-      <c r="A855" s="42"/>
+      <c r="A855" s="43"/>
     </row>
     <row r="856" ht="15.75" customHeight="1">
-      <c r="A856" s="42"/>
+      <c r="A856" s="43"/>
     </row>
     <row r="857" ht="15.75" customHeight="1">
-      <c r="A857" s="42"/>
+      <c r="A857" s="43"/>
     </row>
     <row r="858" ht="15.75" customHeight="1">
-      <c r="A858" s="42"/>
+      <c r="A858" s="43"/>
     </row>
     <row r="859" ht="15.75" customHeight="1">
-      <c r="A859" s="42"/>
+      <c r="A859" s="43"/>
     </row>
     <row r="860" ht="15.75" customHeight="1">
-      <c r="A860" s="42"/>
+      <c r="A860" s="43"/>
     </row>
     <row r="861" ht="15.75" customHeight="1">
-      <c r="A861" s="42"/>
+      <c r="A861" s="43"/>
     </row>
     <row r="862" ht="15.75" customHeight="1">
-      <c r="A862" s="42"/>
+      <c r="A862" s="43"/>
     </row>
     <row r="863" ht="15.75" customHeight="1">
-      <c r="A863" s="42"/>
+      <c r="A863" s="43"/>
     </row>
     <row r="864" ht="15.75" customHeight="1">
-      <c r="A864" s="42"/>
+      <c r="A864" s="43"/>
     </row>
     <row r="865" ht="15.75" customHeight="1">
-      <c r="A865" s="42"/>
+      <c r="A865" s="43"/>
     </row>
     <row r="866" ht="15.75" customHeight="1">
-      <c r="A866" s="42"/>
+      <c r="A866" s="43"/>
     </row>
     <row r="867" ht="15.75" customHeight="1">
-      <c r="A867" s="42"/>
+      <c r="A867" s="43"/>
     </row>
     <row r="868" ht="15.75" customHeight="1">
-      <c r="A868" s="42"/>
+      <c r="A868" s="43"/>
     </row>
     <row r="869" ht="15.75" customHeight="1">
-      <c r="A869" s="42"/>
+      <c r="A869" s="43"/>
     </row>
     <row r="870" ht="15.75" customHeight="1">
-      <c r="A870" s="42"/>
+      <c r="A870" s="43"/>
     </row>
     <row r="871" ht="15.75" customHeight="1">
-      <c r="A871" s="42"/>
+      <c r="A871" s="43"/>
     </row>
     <row r="872" ht="15.75" customHeight="1">
-      <c r="A872" s="42"/>
+      <c r="A872" s="43"/>
     </row>
     <row r="873" ht="15.75" customHeight="1">
-      <c r="A873" s="42"/>
+      <c r="A873" s="43"/>
     </row>
     <row r="874" ht="15.75" customHeight="1">
-      <c r="A874" s="42"/>
+      <c r="A874" s="43"/>
     </row>
     <row r="875" ht="15.75" customHeight="1">
-      <c r="A875" s="42"/>
+      <c r="A875" s="43"/>
     </row>
     <row r="876" ht="15.75" customHeight="1">
-      <c r="A876" s="42"/>
+      <c r="A876" s="43"/>
     </row>
     <row r="877" ht="15.75" customHeight="1">
-      <c r="A877" s="42"/>
+      <c r="A877" s="43"/>
     </row>
     <row r="878" ht="15.75" customHeight="1">
-      <c r="A878" s="42"/>
+      <c r="A878" s="43"/>
     </row>
     <row r="879" ht="15.75" customHeight="1">
-      <c r="A879" s="42"/>
+      <c r="A879" s="43"/>
     </row>
     <row r="880" ht="15.75" customHeight="1">
-      <c r="A880" s="42"/>
+      <c r="A880" s="43"/>
     </row>
     <row r="881" ht="15.75" customHeight="1">
-      <c r="A881" s="42"/>
+      <c r="A881" s="43"/>
     </row>
     <row r="882" ht="15.75" customHeight="1">
-      <c r="A882" s="42"/>
+      <c r="A882" s="43"/>
     </row>
     <row r="883" ht="15.75" customHeight="1">
-      <c r="A883" s="42"/>
+      <c r="A883" s="43"/>
     </row>
     <row r="884" ht="15.75" customHeight="1">
-      <c r="A884" s="42"/>
+      <c r="A884" s="43"/>
     </row>
     <row r="885" ht="15.75" customHeight="1">
-      <c r="A885" s="42"/>
+      <c r="A885" s="43"/>
     </row>
     <row r="886" ht="15.75" customHeight="1">
-      <c r="A886" s="42"/>
+      <c r="A886" s="43"/>
     </row>
     <row r="887" ht="15.75" customHeight="1">
-      <c r="A887" s="42"/>
+      <c r="A887" s="43"/>
     </row>
     <row r="888" ht="15.75" customHeight="1">
-      <c r="A888" s="42"/>
+      <c r="A888" s="43"/>
     </row>
     <row r="889" ht="15.75" customHeight="1">
-      <c r="A889" s="42"/>
+      <c r="A889" s="43"/>
     </row>
     <row r="890" ht="15.75" customHeight="1">
-      <c r="A890" s="42"/>
+      <c r="A890" s="43"/>
     </row>
     <row r="891" ht="15.75" customHeight="1">
-      <c r="A891" s="42"/>
+      <c r="A891" s="43"/>
     </row>
     <row r="892" ht="15.75" customHeight="1">
-      <c r="A892" s="42"/>
+      <c r="A892" s="43"/>
     </row>
     <row r="893" ht="15.75" customHeight="1">
-      <c r="A893" s="42"/>
+      <c r="A893" s="43"/>
     </row>
     <row r="894" ht="15.75" customHeight="1">
-      <c r="A894" s="42"/>
+      <c r="A894" s="43"/>
     </row>
     <row r="895" ht="15.75" customHeight="1">
-      <c r="A895" s="42"/>
+      <c r="A895" s="43"/>
     </row>
     <row r="896" ht="15.75" customHeight="1">
-      <c r="A896" s="42"/>
+      <c r="A896" s="43"/>
     </row>
     <row r="897" ht="15.75" customHeight="1">
-      <c r="A897" s="42"/>
+      <c r="A897" s="43"/>
     </row>
     <row r="898" ht="15.75" customHeight="1">
-      <c r="A898" s="42"/>
+      <c r="A898" s="43"/>
     </row>
     <row r="899" ht="15.75" customHeight="1">
-      <c r="A899" s="42"/>
+      <c r="A899" s="43"/>
     </row>
     <row r="900" ht="15.75" customHeight="1">
-      <c r="A900" s="42"/>
+      <c r="A900" s="43"/>
     </row>
     <row r="901" ht="15.75" customHeight="1">
-      <c r="A901" s="42"/>
+      <c r="A901" s="43"/>
     </row>
     <row r="902" ht="15.75" customHeight="1">
-      <c r="A902" s="42"/>
+      <c r="A902" s="43"/>
     </row>
     <row r="903" ht="15.75" customHeight="1">
-      <c r="A903" s="42"/>
+      <c r="A903" s="43"/>
     </row>
     <row r="904" ht="15.75" customHeight="1">
-      <c r="A904" s="42"/>
+      <c r="A904" s="43"/>
     </row>
     <row r="905" ht="15.75" customHeight="1">
-      <c r="A905" s="42"/>
+      <c r="A905" s="43"/>
     </row>
     <row r="906" ht="15.75" customHeight="1">
-      <c r="A906" s="42"/>
+      <c r="A906" s="43"/>
     </row>
     <row r="907" ht="15.75" customHeight="1">
-      <c r="A907" s="42"/>
+      <c r="A907" s="43"/>
     </row>
     <row r="908" ht="15.75" customHeight="1">
-      <c r="A908" s="42"/>
+      <c r="A908" s="43"/>
     </row>
     <row r="909" ht="15.75" customHeight="1">
-      <c r="A909" s="42"/>
+      <c r="A909" s="43"/>
     </row>
     <row r="910" ht="15.75" customHeight="1">
-      <c r="A910" s="42"/>
+      <c r="A910" s="43"/>
     </row>
     <row r="911" ht="15.75" customHeight="1">
-      <c r="A911" s="42"/>
+      <c r="A911" s="43"/>
     </row>
     <row r="912" ht="15.75" customHeight="1">
-      <c r="A912" s="42"/>
+      <c r="A912" s="43"/>
     </row>
     <row r="913" ht="15.75" customHeight="1">
-      <c r="A913" s="42"/>
+      <c r="A913" s="43"/>
     </row>
     <row r="914" ht="15.75" customHeight="1">
-      <c r="A914" s="42"/>
+      <c r="A914" s="43"/>
     </row>
     <row r="915" ht="15.75" customHeight="1">
-      <c r="A915" s="42"/>
+      <c r="A915" s="43"/>
     </row>
     <row r="916" ht="15.75" customHeight="1">
-      <c r="A916" s="42"/>
+      <c r="A916" s="43"/>
     </row>
     <row r="917" ht="15.75" customHeight="1">
-      <c r="A917" s="42"/>
+      <c r="A917" s="43"/>
     </row>
     <row r="918" ht="15.75" customHeight="1">
-      <c r="A918" s="42"/>
+      <c r="A918" s="43"/>
     </row>
     <row r="919" ht="15.75" customHeight="1">
-      <c r="A919" s="42"/>
+      <c r="A919" s="43"/>
     </row>
     <row r="920" ht="15.75" customHeight="1">
-      <c r="A920" s="42"/>
+      <c r="A920" s="43"/>
     </row>
     <row r="921" ht="15.75" customHeight="1">
-      <c r="A921" s="42"/>
+      <c r="A921" s="43"/>
     </row>
     <row r="922" ht="15.75" customHeight="1">
-      <c r="A922" s="42"/>
+      <c r="A922" s="43"/>
     </row>
     <row r="923" ht="15.75" customHeight="1">
-      <c r="A923" s="42"/>
+      <c r="A923" s="43"/>
     </row>
     <row r="924" ht="15.75" customHeight="1">
-      <c r="A924" s="42"/>
+      <c r="A924" s="43"/>
     </row>
     <row r="925" ht="15.75" customHeight="1">
-      <c r="A925" s="42"/>
+      <c r="A925" s="43"/>
     </row>
     <row r="926" ht="15.75" customHeight="1">
-      <c r="A926" s="42"/>
+      <c r="A926" s="43"/>
     </row>
     <row r="927" ht="15.75" customHeight="1">
-      <c r="A927" s="42"/>
+      <c r="A927" s="43"/>
     </row>
     <row r="928" ht="15.75" customHeight="1">
-      <c r="A928" s="42"/>
+      <c r="A928" s="43"/>
     </row>
     <row r="929" ht="15.75" customHeight="1">
-      <c r="A929" s="42"/>
+      <c r="A929" s="43"/>
     </row>
     <row r="930" ht="15.75" customHeight="1">
-      <c r="A930" s="42"/>
+      <c r="A930" s="43"/>
     </row>
     <row r="931" ht="15.75" customHeight="1">
-      <c r="A931" s="42"/>
+      <c r="A931" s="43"/>
     </row>
     <row r="932" ht="15.75" customHeight="1">
-      <c r="A932" s="42"/>
+      <c r="A932" s="43"/>
     </row>
     <row r="933" ht="15.75" customHeight="1">
-      <c r="A933" s="42"/>
+      <c r="A933" s="43"/>
     </row>
     <row r="934" ht="15.75" customHeight="1">
-      <c r="A934" s="42"/>
+      <c r="A934" s="43"/>
     </row>
     <row r="935" ht="15.75" customHeight="1">
-      <c r="A935" s="42"/>
+      <c r="A935" s="43"/>
     </row>
     <row r="936" ht="15.75" customHeight="1">
-      <c r="A936" s="42"/>
+      <c r="A936" s="43"/>
     </row>
     <row r="937" ht="15.75" customHeight="1">
-      <c r="A937" s="42"/>
+      <c r="A937" s="43"/>
     </row>
     <row r="938" ht="15.75" customHeight="1">
-      <c r="A938" s="42"/>
+      <c r="A938" s="43"/>
     </row>
     <row r="939" ht="15.75" customHeight="1">
-      <c r="A939" s="42"/>
+      <c r="A939" s="43"/>
     </row>
     <row r="940" ht="15.75" customHeight="1">
-      <c r="A940" s="42"/>
+      <c r="A940" s="43"/>
     </row>
     <row r="941" ht="15.75" customHeight="1">
-      <c r="A941" s="42"/>
+      <c r="A941" s="43"/>
     </row>
     <row r="942" ht="15.75" customHeight="1">
-      <c r="A942" s="42"/>
+      <c r="A942" s="43"/>
     </row>
     <row r="943" ht="15.75" customHeight="1">
-      <c r="A943" s="42"/>
+      <c r="A943" s="43"/>
     </row>
     <row r="944" ht="15.75" customHeight="1">
-      <c r="A944" s="42"/>
+      <c r="A944" s="43"/>
     </row>
     <row r="945" ht="15.75" customHeight="1">
-      <c r="A945" s="42"/>
+      <c r="A945" s="43"/>
     </row>
     <row r="946" ht="15.75" customHeight="1">
-      <c r="A946" s="42"/>
+      <c r="A946" s="43"/>
     </row>
     <row r="947" ht="15.75" customHeight="1">
-      <c r="A947" s="42"/>
+      <c r="A947" s="43"/>
     </row>
     <row r="948" ht="15.75" customHeight="1">
-      <c r="A948" s="42"/>
+      <c r="A948" s="43"/>
     </row>
     <row r="949" ht="15.75" customHeight="1">
-      <c r="A949" s="42"/>
+      <c r="A949" s="43"/>
     </row>
     <row r="950" ht="15.75" customHeight="1">
-      <c r="A950" s="42"/>
+      <c r="A950" s="43"/>
     </row>
     <row r="951" ht="15.75" customHeight="1">
-      <c r="A951" s="42"/>
+      <c r="A951" s="43"/>
     </row>
     <row r="952" ht="15.75" customHeight="1">
-      <c r="A952" s="42"/>
+      <c r="A952" s="43"/>
     </row>
     <row r="953" ht="15.75" customHeight="1">
-      <c r="A953" s="42"/>
+      <c r="A953" s="43"/>
     </row>
     <row r="954" ht="15.75" customHeight="1">
-      <c r="A954" s="42"/>
+      <c r="A954" s="43"/>
     </row>
     <row r="955" ht="15.75" customHeight="1">
-      <c r="A955" s="42"/>
+      <c r="A955" s="43"/>
     </row>
     <row r="956" ht="15.75" customHeight="1">
-      <c r="A956" s="42"/>
+      <c r="A956" s="43"/>
     </row>
     <row r="957" ht="15.75" customHeight="1">
-      <c r="A957" s="42"/>
+      <c r="A957" s="43"/>
     </row>
     <row r="958" ht="15.75" customHeight="1">
-      <c r="A958" s="42"/>
+      <c r="A958" s="43"/>
     </row>
     <row r="959" ht="15.75" customHeight="1">
-      <c r="A959" s="42"/>
+      <c r="A959" s="43"/>
     </row>
     <row r="960" ht="15.75" customHeight="1">
-      <c r="A960" s="42"/>
+      <c r="A960" s="43"/>
     </row>
     <row r="961" ht="15.75" customHeight="1">
-      <c r="A961" s="42"/>
+      <c r="A961" s="43"/>
     </row>
     <row r="962" ht="15.75" customHeight="1">
-      <c r="A962" s="42"/>
+      <c r="A962" s="43"/>
     </row>
     <row r="963" ht="15.75" customHeight="1">
-      <c r="A963" s="42"/>
+      <c r="A963" s="43"/>
     </row>
     <row r="964" ht="15.75" customHeight="1">
-      <c r="A964" s="42"/>
+      <c r="A964" s="43"/>
     </row>
     <row r="965" ht="15.75" customHeight="1">
-      <c r="A965" s="42"/>
+      <c r="A965" s="43"/>
     </row>
     <row r="966" ht="15.75" customHeight="1">
-      <c r="A966" s="42"/>
+      <c r="A966" s="43"/>
     </row>
     <row r="967" ht="15.75" customHeight="1">
-      <c r="A967" s="42"/>
+      <c r="A967" s="43"/>
     </row>
     <row r="968" ht="15.75" customHeight="1">
-      <c r="A968" s="42"/>
+      <c r="A968" s="43"/>
     </row>
     <row r="969" ht="15.75" customHeight="1">
-      <c r="A969" s="42"/>
+      <c r="A969" s="43"/>
     </row>
     <row r="970" ht="15.75" customHeight="1">
-      <c r="A970" s="42"/>
+      <c r="A970" s="43"/>
     </row>
     <row r="971" ht="15.75" customHeight="1">
-      <c r="A971" s="42"/>
+      <c r="A971" s="43"/>
     </row>
     <row r="972" ht="15.75" customHeight="1">
-      <c r="A972" s="42"/>
+      <c r="A972" s="43"/>
     </row>
     <row r="973" ht="15.75" customHeight="1">
-      <c r="A973" s="42"/>
+      <c r="A973" s="43"/>
     </row>
     <row r="974" ht="15.75" customHeight="1">
-      <c r="A974" s="42"/>
+      <c r="A974" s="43"/>
     </row>
     <row r="975" ht="15.75" customHeight="1">
-      <c r="A975" s="42"/>
+      <c r="A975" s="43"/>
     </row>
     <row r="976" ht="15.75" customHeight="1">
-      <c r="A976" s="42"/>
+      <c r="A976" s="43"/>
     </row>
     <row r="977" ht="15.75" customHeight="1">
-      <c r="A977" s="42"/>
+      <c r="A977" s="43"/>
     </row>
     <row r="978" ht="15.75" customHeight="1">
-      <c r="A978" s="42"/>
+      <c r="A978" s="43"/>
     </row>
     <row r="979" ht="15.75" customHeight="1">
-      <c r="A979" s="42"/>
+      <c r="A979" s="43"/>
     </row>
     <row r="980" ht="15.75" customHeight="1">
-      <c r="A980" s="42"/>
+      <c r="A980" s="43"/>
     </row>
     <row r="981" ht="15.75" customHeight="1">
-      <c r="A981" s="42"/>
+      <c r="A981" s="43"/>
     </row>
     <row r="982" ht="15.75" customHeight="1">
-      <c r="A982" s="42"/>
+      <c r="A982" s="43"/>
     </row>
     <row r="983" ht="15.75" customHeight="1">
-      <c r="A983" s="42"/>
+      <c r="A983" s="43"/>
     </row>
     <row r="984" ht="15.75" customHeight="1">
-      <c r="A984" s="42"/>
+      <c r="A984" s="43"/>
     </row>
     <row r="985" ht="15.75" customHeight="1">
-      <c r="A985" s="42"/>
+      <c r="A985" s="43"/>
     </row>
     <row r="986" ht="15.75" customHeight="1">
-      <c r="A986" s="42"/>
+      <c r="A986" s="43"/>
     </row>
     <row r="987" ht="15.75" customHeight="1">
-      <c r="A987" s="42"/>
+      <c r="A987" s="43"/>
     </row>
     <row r="988" ht="15.75" customHeight="1">
-      <c r="A988" s="42"/>
+      <c r="A988" s="43"/>
     </row>
     <row r="989" ht="15.75" customHeight="1">
-      <c r="A989" s="42"/>
+      <c r="A989" s="43"/>
     </row>
     <row r="990" ht="15.75" customHeight="1">
-      <c r="A990" s="42"/>
+      <c r="A990" s="43"/>
     </row>
     <row r="991" ht="15.75" customHeight="1">
-      <c r="A991" s="42"/>
+      <c r="A991" s="43"/>
     </row>
     <row r="992" ht="15.75" customHeight="1">
-      <c r="A992" s="42"/>
+      <c r="A992" s="43"/>
     </row>
     <row r="993" ht="15.75" customHeight="1">
-      <c r="A993" s="42"/>
+      <c r="A993" s="43"/>
     </row>
     <row r="994" ht="15.75" customHeight="1">
-      <c r="A994" s="42"/>
+      <c r="A994" s="43"/>
     </row>
     <row r="995" ht="15.75" customHeight="1">
-      <c r="A995" s="42"/>
+      <c r="A995" s="43"/>
     </row>
     <row r="996" ht="15.75" customHeight="1">
-      <c r="A996" s="42"/>
+      <c r="A996" s="43"/>
     </row>
     <row r="997" ht="15.75" customHeight="1">
-      <c r="A997" s="42"/>
+      <c r="A997" s="43"/>
     </row>
     <row r="998" ht="15.75" customHeight="1">
-      <c r="A998" s="42"/>
+      <c r="A998" s="43"/>
     </row>
     <row r="999" ht="15.75" customHeight="1">
-      <c r="A999" s="42"/>
+      <c r="A999" s="43"/>
     </row>
     <row r="1000" ht="15.75" customHeight="1">
-      <c r="A1000" s="42"/>
+      <c r="A1000" s="43"/>
     </row>
     <row r="1001" ht="15.75" customHeight="1">
-      <c r="A1001" s="42"/>
+      <c r="A1001" s="43"/>
     </row>
     <row r="1002" ht="15.75" customHeight="1">
-      <c r="A1002" s="42"/>
+      <c r="A1002" s="43"/>
     </row>
     <row r="1003" ht="15.75" customHeight="1">
-      <c r="A1003" s="42"/>
+      <c r="A1003" s="43"/>
     </row>
     <row r="1004" ht="15.75" customHeight="1">
-      <c r="A1004" s="42"/>
+      <c r="A1004" s="43"/>
     </row>
     <row r="1005" ht="15.75" customHeight="1">
-      <c r="A1005" s="42"/>
+      <c r="A1005" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="30">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:H1"/>
@@ -5010,7 +5032,6 @@
     <mergeCell ref="C29:H29"/>
     <mergeCell ref="C30:H30"/>
     <mergeCell ref="C31:H31"/>
-    <mergeCell ref="C33:H33"/>
     <mergeCell ref="C38:H38"/>
     <mergeCell ref="C39:H39"/>
   </mergeCells>
@@ -5043,7 +5064,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="44" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3"/>
@@ -5055,7 +5076,7 @@
     <row r="2">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="45" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="6" t="s">
@@ -5616,65 +5637,75 @@
         <v>94</v>
       </c>
       <c r="C33" s="30" t="s">
-        <v>169</v>
-      </c>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="17"/>
+        <v>95</v>
+      </c>
+      <c r="D33" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="E33" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="F33" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="G33" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="H33" s="31" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="B35" s="32" t="s">
-        <v>105</v>
+      <c r="A35" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="B35" s="33" t="s">
+        <v>110</v>
       </c>
       <c r="C35" s="18">
         <v>0.0</v>
       </c>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="14" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D36" s="12"/>
       <c r="E36" s="12"/>
@@ -5684,36 +5715,36 @@
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="14" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="14" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C38" s="15" t="s">
         <v>15</v>
@@ -5726,13 +5757,13 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="14" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D39" s="16"/>
       <c r="E39" s="16"/>
@@ -5742,10 +5773,10 @@
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="14" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C40" s="15" t="s">
         <v>15</v>
@@ -5758,13 +5789,13 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="14" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
@@ -5773,14 +5804,14 @@
       <c r="H41" s="12"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="B42" s="35" t="s">
-        <v>125</v>
-      </c>
-      <c r="C42" s="36" t="s">
-        <v>171</v>
+      <c r="A42" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="B42" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="C42" s="37" t="s">
+        <v>175</v>
       </c>
       <c r="D42" s="29"/>
       <c r="E42" s="12"/>
@@ -5789,14 +5820,14 @@
       <c r="H42" s="6"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="B43" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="C43" s="36" t="s">
-        <v>172</v>
+      <c r="A43" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="B43" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="C43" s="37" t="s">
+        <v>176</v>
       </c>
       <c r="D43" s="29"/>
       <c r="E43" s="12"/>
@@ -5805,14 +5836,14 @@
       <c r="H43" s="6"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="B44" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="C44" s="36" t="s">
-        <v>132</v>
+      <c r="A44" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="B44" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="C44" s="37" t="s">
+        <v>137</v>
       </c>
       <c r="D44" s="18"/>
       <c r="E44" s="12"/>
@@ -5821,14 +5852,14 @@
       <c r="H44" s="6"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="45" t="s">
-        <v>133</v>
-      </c>
-      <c r="B45" s="45" t="s">
-        <v>134</v>
-      </c>
-      <c r="C45" s="46" t="s">
-        <v>135</v>
+      <c r="A45" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="B45" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="C45" s="47" t="s">
+        <v>140</v>
       </c>
       <c r="D45" s="29"/>
       <c r="E45" s="12"/>
@@ -5838,10 +5869,10 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="14" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C46" s="12"/>
       <c r="D46" s="29">
@@ -5853,15 +5884,15 @@
       <c r="H46" s="6"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="37" t="s">
-        <v>138</v>
-      </c>
-      <c r="B47" s="38" t="s">
-        <v>139</v>
+      <c r="A47" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="B47" s="39" t="s">
+        <v>144</v>
       </c>
       <c r="C47" s="12"/>
       <c r="D47" s="9" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E47" s="12"/>
       <c r="F47" s="12"/>
@@ -5870,10 +5901,10 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="14" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C48" s="29">
         <v>0.875</v>
@@ -5885,14 +5916,14 @@
       <c r="H48" s="12"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="B49" s="38" t="s">
-        <v>144</v>
+      <c r="A49" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="B49" s="39" t="s">
+        <v>149</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="12"/>
@@ -5902,10 +5933,10 @@
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="14" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C50" s="12"/>
       <c r="D50" s="12"/>
@@ -5917,27 +5948,27 @@
       <c r="H50" s="12"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="37" t="s">
-        <v>148</v>
-      </c>
-      <c r="B51" s="38" t="s">
-        <v>149</v>
+      <c r="A51" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="B51" s="39" t="s">
+        <v>154</v>
       </c>
       <c r="C51" s="12"/>
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
       <c r="F51" s="9" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="G51" s="12"/>
       <c r="H51" s="12"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="14" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C52" s="12"/>
       <c r="D52" s="12"/>
@@ -5947,11 +5978,11 @@
       <c r="H52" s="12"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="37" t="s">
-        <v>153</v>
-      </c>
-      <c r="B53" s="38" t="s">
-        <v>154</v>
+      <c r="A53" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="B53" s="39" t="s">
+        <v>159</v>
       </c>
       <c r="C53" s="12"/>
       <c r="D53" s="12"/>
@@ -5962,18 +5993,18 @@
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="B54" s="39" t="s">
-        <v>156</v>
-      </c>
-      <c r="C54" s="40">
+        <v>160</v>
+      </c>
+      <c r="B54" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="C54" s="41">
         <v>0.7083333333333334</v>
       </c>
-      <c r="D54" s="40">
+      <c r="D54" s="41">
         <v>0.08333333333333333</v>
       </c>
-      <c r="E54" s="40">
+      <c r="E54" s="41">
         <v>0.08333333333333333</v>
       </c>
       <c r="F54" s="12"/>
@@ -5981,20 +6012,20 @@
       <c r="H54" s="12"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="37" t="s">
-        <v>157</v>
-      </c>
-      <c r="B55" s="41" t="s">
-        <v>158</v>
+      <c r="A55" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="B55" s="42" t="s">
+        <v>163</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F55" s="12"/>
       <c r="G55" s="12"/>
@@ -6002,50 +6033,50 @@
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="14" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C56" s="15"/>
       <c r="D56" s="15"/>
       <c r="E56" s="15"/>
-      <c r="F56" s="40">
+      <c r="F56" s="41">
         <v>0.08333333333333333</v>
       </c>
-      <c r="G56" s="40">
+      <c r="G56" s="41">
         <v>0.08333333333333333</v>
       </c>
-      <c r="H56" s="40">
+      <c r="H56" s="41">
         <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="37" t="s">
-        <v>162</v>
-      </c>
-      <c r="B57" s="38" t="s">
-        <v>163</v>
+      <c r="A57" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="B57" s="39" t="s">
+        <v>168</v>
       </c>
       <c r="C57" s="12"/>
       <c r="D57" s="12"/>
       <c r="E57" s="12"/>
       <c r="F57" s="9" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="H57" s="9" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="8" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C58" s="15" t="s">
         <v>15</v>
@@ -6058,10 +6089,10 @@
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="8" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C59" s="15" t="s">
         <v>15</v>
@@ -7019,7 +7050,7 @@
     <row r="1004" ht="15.75" customHeight="1"/>
     <row r="1005" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="31">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:H1"/>
@@ -7050,7 +7081,6 @@
     <mergeCell ref="C29:H29"/>
     <mergeCell ref="C30:H30"/>
     <mergeCell ref="C31:H31"/>
-    <mergeCell ref="C33:H33"/>
     <mergeCell ref="C38:H38"/>
   </mergeCells>
   <drawing r:id="rId1"/>
@@ -7082,7 +7112,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="44" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3"/>
@@ -7094,7 +7124,7 @@
     <row r="2">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="45" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="6" t="s">
@@ -7655,62 +7685,72 @@
         <v>94</v>
       </c>
       <c r="C33" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="17"/>
+        <v>95</v>
+      </c>
+      <c r="D33" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="E33" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="F33" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="G33" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="H33" s="31" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="B35" s="31" t="s">
-        <v>105</v>
+      <c r="A35" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="B35" s="32" t="s">
+        <v>110</v>
       </c>
       <c r="C35" s="18">
         <v>0.0</v>
       </c>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="14" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
@@ -7721,36 +7761,36 @@
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="14" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="14" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C38" s="15" t="s">
         <v>15</v>
@@ -7763,13 +7803,13 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="14" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D39" s="16"/>
       <c r="E39" s="16"/>
@@ -7779,13 +7819,13 @@
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="14" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D40" s="16"/>
       <c r="E40" s="16"/>
@@ -7795,13 +7835,13 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="14" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
@@ -7810,13 +7850,13 @@
       <c r="H41" s="12"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="B42" s="35" t="s">
-        <v>125</v>
-      </c>
-      <c r="C42" s="36"/>
+      <c r="A42" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="B42" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="C42" s="37"/>
       <c r="D42" s="18"/>
       <c r="E42" s="12"/>
       <c r="F42" s="12"/>
@@ -7824,13 +7864,13 @@
       <c r="H42" s="6"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="B43" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="C43" s="36"/>
+      <c r="A43" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="B43" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="C43" s="37"/>
       <c r="D43" s="18"/>
       <c r="E43" s="12"/>
       <c r="F43" s="12"/>
@@ -7838,14 +7878,14 @@
       <c r="H43" s="6"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="34" t="s">
-        <v>180</v>
-      </c>
-      <c r="B44" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="C44" s="36" t="s">
-        <v>181</v>
+      <c r="A44" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="B44" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="C44" s="37" t="s">
+        <v>184</v>
       </c>
       <c r="D44" s="18"/>
       <c r="E44" s="12"/>
@@ -7854,14 +7894,14 @@
       <c r="H44" s="6"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="38" t="s">
-        <v>133</v>
-      </c>
-      <c r="B45" s="37" t="s">
-        <v>134</v>
+      <c r="A45" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="B45" s="38" t="s">
+        <v>139</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D45" s="18"/>
       <c r="E45" s="12"/>
@@ -7871,10 +7911,10 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="14" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C46" s="12"/>
       <c r="D46" s="18"/>
@@ -7884,11 +7924,11 @@
       <c r="H46" s="6"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="37" t="s">
-        <v>138</v>
-      </c>
-      <c r="B47" s="38" t="s">
-        <v>139</v>
+      <c r="A47" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="B47" s="39" t="s">
+        <v>144</v>
       </c>
       <c r="C47" s="12"/>
       <c r="D47" s="12"/>
@@ -7899,10 +7939,10 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="14" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C48" s="12"/>
       <c r="D48" s="18"/>
@@ -7912,11 +7952,11 @@
       <c r="H48" s="12"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="B49" s="38" t="s">
-        <v>144</v>
+      <c r="A49" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="B49" s="39" t="s">
+        <v>149</v>
       </c>
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
@@ -7927,10 +7967,10 @@
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="14" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C50" s="12"/>
       <c r="D50" s="12"/>
@@ -7940,11 +7980,11 @@
       <c r="H50" s="12"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="37" t="s">
-        <v>148</v>
-      </c>
-      <c r="B51" s="38" t="s">
-        <v>149</v>
+      <c r="A51" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="B51" s="39" t="s">
+        <v>154</v>
       </c>
       <c r="C51" s="12"/>
       <c r="D51" s="12"/>
@@ -7955,10 +7995,10 @@
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="14" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C52" s="12"/>
       <c r="D52" s="12"/>
@@ -7970,16 +8010,16 @@
       <c r="H52" s="12"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="37" t="s">
-        <v>153</v>
-      </c>
-      <c r="B53" s="38" t="s">
-        <v>154</v>
+      <c r="A53" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="B53" s="39" t="s">
+        <v>159</v>
       </c>
       <c r="C53" s="12"/>
       <c r="D53" s="12"/>
       <c r="E53" s="9" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F53" s="12"/>
       <c r="G53" s="12"/>
@@ -7987,38 +8027,38 @@
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="B54" s="47" t="s">
-        <v>156</v>
-      </c>
-      <c r="C54" s="48"/>
-      <c r="D54" s="48"/>
-      <c r="E54" s="48"/>
+        <v>160</v>
+      </c>
+      <c r="B54" s="48" t="s">
+        <v>161</v>
+      </c>
+      <c r="C54" s="49"/>
+      <c r="D54" s="49"/>
+      <c r="E54" s="49"/>
       <c r="F54" s="12"/>
       <c r="G54" s="12"/>
       <c r="H54" s="12"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="37" t="s">
-        <v>157</v>
-      </c>
-      <c r="B55" s="41" t="s">
-        <v>158</v>
-      </c>
-      <c r="C55" s="48"/>
-      <c r="D55" s="48"/>
-      <c r="E55" s="48"/>
+      <c r="A55" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="B55" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="C55" s="49"/>
+      <c r="D55" s="49"/>
+      <c r="E55" s="49"/>
       <c r="F55" s="12"/>
       <c r="G55" s="12"/>
       <c r="H55" s="12"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="14" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C56" s="15"/>
       <c r="D56" s="15"/>
@@ -8028,11 +8068,11 @@
       <c r="H56" s="18"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="37" t="s">
-        <v>162</v>
-      </c>
-      <c r="B57" s="38" t="s">
-        <v>163</v>
+      <c r="A57" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="B57" s="39" t="s">
+        <v>168</v>
       </c>
       <c r="C57" s="15"/>
       <c r="D57" s="15"/>
@@ -8043,10 +8083,10 @@
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="8" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C58" s="15" t="s">
         <v>24</v>
@@ -8059,10 +8099,10 @@
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="8" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C59" s="15" t="s">
         <v>15</v>
@@ -8074,2845 +8114,2845 @@
       <c r="H59" s="17"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="B60" s="42"/>
+      <c r="B60" s="43"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="B61" s="42"/>
+      <c r="B61" s="43"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="B62" s="42"/>
+      <c r="B62" s="43"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="B63" s="42"/>
+      <c r="B63" s="43"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="B64" s="42"/>
+      <c r="B64" s="43"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="B65" s="42"/>
+      <c r="B65" s="43"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="B66" s="42"/>
+      <c r="B66" s="43"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="B67" s="42"/>
+      <c r="B67" s="43"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="B68" s="42"/>
+      <c r="B68" s="43"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="B69" s="42"/>
+      <c r="B69" s="43"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="B70" s="42"/>
+      <c r="B70" s="43"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="B71" s="42"/>
+      <c r="B71" s="43"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="B72" s="42"/>
+      <c r="B72" s="43"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="B73" s="42"/>
+      <c r="B73" s="43"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="B74" s="42"/>
+      <c r="B74" s="43"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="B75" s="42"/>
+      <c r="B75" s="43"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="B76" s="42"/>
+      <c r="B76" s="43"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="B77" s="42"/>
+      <c r="B77" s="43"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="B78" s="42"/>
+      <c r="B78" s="43"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="B79" s="42"/>
+      <c r="B79" s="43"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="B80" s="42"/>
+      <c r="B80" s="43"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="B81" s="42"/>
+      <c r="B81" s="43"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="B82" s="42"/>
+      <c r="B82" s="43"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="B83" s="42"/>
+      <c r="B83" s="43"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="B84" s="42"/>
+      <c r="B84" s="43"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="B85" s="42"/>
+      <c r="B85" s="43"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="B86" s="42"/>
+      <c r="B86" s="43"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="B87" s="42"/>
+      <c r="B87" s="43"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="B88" s="42"/>
+      <c r="B88" s="43"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="B89" s="42"/>
+      <c r="B89" s="43"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="B90" s="42"/>
+      <c r="B90" s="43"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="B91" s="42"/>
+      <c r="B91" s="43"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="B92" s="42"/>
+      <c r="B92" s="43"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="B93" s="42"/>
+      <c r="B93" s="43"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="B94" s="42"/>
+      <c r="B94" s="43"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="B95" s="42"/>
+      <c r="B95" s="43"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="B96" s="42"/>
+      <c r="B96" s="43"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="B97" s="42"/>
+      <c r="B97" s="43"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="B98" s="42"/>
+      <c r="B98" s="43"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="B99" s="42"/>
+      <c r="B99" s="43"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="B100" s="42"/>
+      <c r="B100" s="43"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="B101" s="42"/>
+      <c r="B101" s="43"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="B102" s="42"/>
+      <c r="B102" s="43"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="B103" s="42"/>
+      <c r="B103" s="43"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="B104" s="42"/>
+      <c r="B104" s="43"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="B105" s="42"/>
+      <c r="B105" s="43"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="B106" s="42"/>
+      <c r="B106" s="43"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="B107" s="42"/>
+      <c r="B107" s="43"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="B108" s="42"/>
+      <c r="B108" s="43"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="B109" s="42"/>
+      <c r="B109" s="43"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="B110" s="42"/>
+      <c r="B110" s="43"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="B111" s="42"/>
+      <c r="B111" s="43"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="B112" s="42"/>
+      <c r="B112" s="43"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="B113" s="42"/>
+      <c r="B113" s="43"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="B114" s="42"/>
+      <c r="B114" s="43"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="B115" s="42"/>
+      <c r="B115" s="43"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="B116" s="42"/>
+      <c r="B116" s="43"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="B117" s="42"/>
+      <c r="B117" s="43"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="B118" s="42"/>
+      <c r="B118" s="43"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="B119" s="42"/>
+      <c r="B119" s="43"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="B120" s="42"/>
+      <c r="B120" s="43"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="B121" s="42"/>
+      <c r="B121" s="43"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="B122" s="42"/>
+      <c r="B122" s="43"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="B123" s="42"/>
+      <c r="B123" s="43"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="B124" s="42"/>
+      <c r="B124" s="43"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="B125" s="42"/>
+      <c r="B125" s="43"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="B126" s="42"/>
+      <c r="B126" s="43"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="B127" s="42"/>
+      <c r="B127" s="43"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="B128" s="42"/>
+      <c r="B128" s="43"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="B129" s="42"/>
+      <c r="B129" s="43"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="B130" s="42"/>
+      <c r="B130" s="43"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="B131" s="42"/>
+      <c r="B131" s="43"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="B132" s="42"/>
+      <c r="B132" s="43"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="B133" s="42"/>
+      <c r="B133" s="43"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="B134" s="42"/>
+      <c r="B134" s="43"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="B135" s="42"/>
+      <c r="B135" s="43"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="B136" s="42"/>
+      <c r="B136" s="43"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="B137" s="42"/>
+      <c r="B137" s="43"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="B138" s="42"/>
+      <c r="B138" s="43"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="B139" s="42"/>
+      <c r="B139" s="43"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="B140" s="42"/>
+      <c r="B140" s="43"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="B141" s="42"/>
+      <c r="B141" s="43"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="B142" s="42"/>
+      <c r="B142" s="43"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="B143" s="42"/>
+      <c r="B143" s="43"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="B144" s="42"/>
+      <c r="B144" s="43"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="B145" s="42"/>
+      <c r="B145" s="43"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="B146" s="42"/>
+      <c r="B146" s="43"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="B147" s="42"/>
+      <c r="B147" s="43"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="B148" s="42"/>
+      <c r="B148" s="43"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="B149" s="42"/>
+      <c r="B149" s="43"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="B150" s="42"/>
+      <c r="B150" s="43"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="B151" s="42"/>
+      <c r="B151" s="43"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="B152" s="42"/>
+      <c r="B152" s="43"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="B153" s="42"/>
+      <c r="B153" s="43"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="B154" s="42"/>
+      <c r="B154" s="43"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="B155" s="42"/>
+      <c r="B155" s="43"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="B156" s="42"/>
+      <c r="B156" s="43"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="B157" s="42"/>
+      <c r="B157" s="43"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="B158" s="42"/>
+      <c r="B158" s="43"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="B159" s="42"/>
+      <c r="B159" s="43"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="B160" s="42"/>
+      <c r="B160" s="43"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="B161" s="42"/>
+      <c r="B161" s="43"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="B162" s="42"/>
+      <c r="B162" s="43"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="B163" s="42"/>
+      <c r="B163" s="43"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="B164" s="42"/>
+      <c r="B164" s="43"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="B165" s="42"/>
+      <c r="B165" s="43"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="B166" s="42"/>
+      <c r="B166" s="43"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="B167" s="42"/>
+      <c r="B167" s="43"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="B168" s="42"/>
+      <c r="B168" s="43"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="B169" s="42"/>
+      <c r="B169" s="43"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="B170" s="42"/>
+      <c r="B170" s="43"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="B171" s="42"/>
+      <c r="B171" s="43"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="B172" s="42"/>
+      <c r="B172" s="43"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="B173" s="42"/>
+      <c r="B173" s="43"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="B174" s="42"/>
+      <c r="B174" s="43"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="B175" s="42"/>
+      <c r="B175" s="43"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="B176" s="42"/>
+      <c r="B176" s="43"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="B177" s="42"/>
+      <c r="B177" s="43"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="B178" s="42"/>
+      <c r="B178" s="43"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="B179" s="42"/>
+      <c r="B179" s="43"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="B180" s="42"/>
+      <c r="B180" s="43"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="B181" s="42"/>
+      <c r="B181" s="43"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="B182" s="42"/>
+      <c r="B182" s="43"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="B183" s="42"/>
+      <c r="B183" s="43"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="B184" s="42"/>
+      <c r="B184" s="43"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="B185" s="42"/>
+      <c r="B185" s="43"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="B186" s="42"/>
+      <c r="B186" s="43"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="B187" s="42"/>
+      <c r="B187" s="43"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="B188" s="42"/>
+      <c r="B188" s="43"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="B189" s="42"/>
+      <c r="B189" s="43"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="B190" s="42"/>
+      <c r="B190" s="43"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="B191" s="42"/>
+      <c r="B191" s="43"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="B192" s="42"/>
+      <c r="B192" s="43"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="B193" s="42"/>
+      <c r="B193" s="43"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="B194" s="42"/>
+      <c r="B194" s="43"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="B195" s="42"/>
+      <c r="B195" s="43"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="B196" s="42"/>
+      <c r="B196" s="43"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="B197" s="42"/>
+      <c r="B197" s="43"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="B198" s="42"/>
+      <c r="B198" s="43"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="B199" s="42"/>
+      <c r="B199" s="43"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="B200" s="42"/>
+      <c r="B200" s="43"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="B201" s="42"/>
+      <c r="B201" s="43"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="B202" s="42"/>
+      <c r="B202" s="43"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="B203" s="42"/>
+      <c r="B203" s="43"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="B204" s="42"/>
+      <c r="B204" s="43"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="B205" s="42"/>
+      <c r="B205" s="43"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="B206" s="42"/>
+      <c r="B206" s="43"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="B207" s="42"/>
+      <c r="B207" s="43"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="B208" s="42"/>
+      <c r="B208" s="43"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="B209" s="42"/>
+      <c r="B209" s="43"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="B210" s="42"/>
+      <c r="B210" s="43"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="B211" s="42"/>
+      <c r="B211" s="43"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="B212" s="42"/>
+      <c r="B212" s="43"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="B213" s="42"/>
+      <c r="B213" s="43"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="B214" s="42"/>
+      <c r="B214" s="43"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="B215" s="42"/>
+      <c r="B215" s="43"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="B216" s="42"/>
+      <c r="B216" s="43"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="B217" s="42"/>
+      <c r="B217" s="43"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="B218" s="42"/>
+      <c r="B218" s="43"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="B219" s="42"/>
+      <c r="B219" s="43"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="B220" s="42"/>
+      <c r="B220" s="43"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="B221" s="42"/>
+      <c r="B221" s="43"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
-      <c r="B222" s="42"/>
+      <c r="B222" s="43"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
-      <c r="B223" s="42"/>
+      <c r="B223" s="43"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
-      <c r="B224" s="42"/>
+      <c r="B224" s="43"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
-      <c r="B225" s="42"/>
+      <c r="B225" s="43"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
-      <c r="B226" s="42"/>
+      <c r="B226" s="43"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
-      <c r="B227" s="42"/>
+      <c r="B227" s="43"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
-      <c r="B228" s="42"/>
+      <c r="B228" s="43"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
-      <c r="B229" s="42"/>
+      <c r="B229" s="43"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
-      <c r="B230" s="42"/>
+      <c r="B230" s="43"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
-      <c r="B231" s="42"/>
+      <c r="B231" s="43"/>
     </row>
     <row r="232" ht="15.75" customHeight="1">
-      <c r="B232" s="42"/>
+      <c r="B232" s="43"/>
     </row>
     <row r="233" ht="15.75" customHeight="1">
-      <c r="B233" s="42"/>
+      <c r="B233" s="43"/>
     </row>
     <row r="234" ht="15.75" customHeight="1">
-      <c r="B234" s="42"/>
+      <c r="B234" s="43"/>
     </row>
     <row r="235" ht="15.75" customHeight="1">
-      <c r="B235" s="42"/>
+      <c r="B235" s="43"/>
     </row>
     <row r="236" ht="15.75" customHeight="1">
-      <c r="B236" s="42"/>
+      <c r="B236" s="43"/>
     </row>
     <row r="237" ht="15.75" customHeight="1">
-      <c r="B237" s="42"/>
+      <c r="B237" s="43"/>
     </row>
     <row r="238" ht="15.75" customHeight="1">
-      <c r="B238" s="42"/>
+      <c r="B238" s="43"/>
     </row>
     <row r="239" ht="15.75" customHeight="1">
-      <c r="B239" s="42"/>
+      <c r="B239" s="43"/>
     </row>
     <row r="240" ht="15.75" customHeight="1">
-      <c r="B240" s="42"/>
+      <c r="B240" s="43"/>
     </row>
     <row r="241" ht="15.75" customHeight="1">
-      <c r="B241" s="42"/>
+      <c r="B241" s="43"/>
     </row>
     <row r="242" ht="15.75" customHeight="1">
-      <c r="B242" s="42"/>
+      <c r="B242" s="43"/>
     </row>
     <row r="243" ht="15.75" customHeight="1">
-      <c r="B243" s="42"/>
+      <c r="B243" s="43"/>
     </row>
     <row r="244" ht="15.75" customHeight="1">
-      <c r="B244" s="42"/>
+      <c r="B244" s="43"/>
     </row>
     <row r="245" ht="15.75" customHeight="1">
-      <c r="B245" s="42"/>
+      <c r="B245" s="43"/>
     </row>
     <row r="246" ht="15.75" customHeight="1">
-      <c r="B246" s="42"/>
+      <c r="B246" s="43"/>
     </row>
     <row r="247" ht="15.75" customHeight="1">
-      <c r="B247" s="42"/>
+      <c r="B247" s="43"/>
     </row>
     <row r="248" ht="15.75" customHeight="1">
-      <c r="B248" s="42"/>
+      <c r="B248" s="43"/>
     </row>
     <row r="249" ht="15.75" customHeight="1">
-      <c r="B249" s="42"/>
+      <c r="B249" s="43"/>
     </row>
     <row r="250" ht="15.75" customHeight="1">
-      <c r="B250" s="42"/>
+      <c r="B250" s="43"/>
     </row>
     <row r="251" ht="15.75" customHeight="1">
-      <c r="B251" s="42"/>
+      <c r="B251" s="43"/>
     </row>
     <row r="252" ht="15.75" customHeight="1">
-      <c r="B252" s="42"/>
+      <c r="B252" s="43"/>
     </row>
     <row r="253" ht="15.75" customHeight="1">
-      <c r="B253" s="42"/>
+      <c r="B253" s="43"/>
     </row>
     <row r="254" ht="15.75" customHeight="1">
-      <c r="B254" s="42"/>
+      <c r="B254" s="43"/>
     </row>
     <row r="255" ht="15.75" customHeight="1">
-      <c r="B255" s="42"/>
+      <c r="B255" s="43"/>
     </row>
     <row r="256" ht="15.75" customHeight="1">
-      <c r="B256" s="42"/>
+      <c r="B256" s="43"/>
     </row>
     <row r="257" ht="15.75" customHeight="1">
-      <c r="B257" s="42"/>
+      <c r="B257" s="43"/>
     </row>
     <row r="258" ht="15.75" customHeight="1">
-      <c r="B258" s="42"/>
+      <c r="B258" s="43"/>
     </row>
     <row r="259" ht="15.75" customHeight="1">
-      <c r="B259" s="42"/>
+      <c r="B259" s="43"/>
     </row>
     <row r="260" ht="15.75" customHeight="1">
-      <c r="B260" s="42"/>
+      <c r="B260" s="43"/>
     </row>
     <row r="261" ht="15.75" customHeight="1">
-      <c r="B261" s="42"/>
+      <c r="B261" s="43"/>
     </row>
     <row r="262" ht="15.75" customHeight="1">
-      <c r="B262" s="42"/>
+      <c r="B262" s="43"/>
     </row>
     <row r="263" ht="15.75" customHeight="1">
-      <c r="B263" s="42"/>
+      <c r="B263" s="43"/>
     </row>
     <row r="264" ht="15.75" customHeight="1">
-      <c r="B264" s="42"/>
+      <c r="B264" s="43"/>
     </row>
     <row r="265" ht="15.75" customHeight="1">
-      <c r="B265" s="42"/>
+      <c r="B265" s="43"/>
     </row>
     <row r="266" ht="15.75" customHeight="1">
-      <c r="B266" s="42"/>
+      <c r="B266" s="43"/>
     </row>
     <row r="267" ht="15.75" customHeight="1">
-      <c r="B267" s="42"/>
+      <c r="B267" s="43"/>
     </row>
     <row r="268" ht="15.75" customHeight="1">
-      <c r="B268" s="42"/>
+      <c r="B268" s="43"/>
     </row>
     <row r="269" ht="15.75" customHeight="1">
-      <c r="B269" s="42"/>
+      <c r="B269" s="43"/>
     </row>
     <row r="270" ht="15.75" customHeight="1">
-      <c r="B270" s="42"/>
+      <c r="B270" s="43"/>
     </row>
     <row r="271" ht="15.75" customHeight="1">
-      <c r="B271" s="42"/>
+      <c r="B271" s="43"/>
     </row>
     <row r="272" ht="15.75" customHeight="1">
-      <c r="B272" s="42"/>
+      <c r="B272" s="43"/>
     </row>
     <row r="273" ht="15.75" customHeight="1">
-      <c r="B273" s="42"/>
+      <c r="B273" s="43"/>
     </row>
     <row r="274" ht="15.75" customHeight="1">
-      <c r="B274" s="42"/>
+      <c r="B274" s="43"/>
     </row>
     <row r="275" ht="15.75" customHeight="1">
-      <c r="B275" s="42"/>
+      <c r="B275" s="43"/>
     </row>
     <row r="276" ht="15.75" customHeight="1">
-      <c r="B276" s="42"/>
+      <c r="B276" s="43"/>
     </row>
     <row r="277" ht="15.75" customHeight="1">
-      <c r="B277" s="42"/>
+      <c r="B277" s="43"/>
     </row>
     <row r="278" ht="15.75" customHeight="1">
-      <c r="B278" s="42"/>
+      <c r="B278" s="43"/>
     </row>
     <row r="279" ht="15.75" customHeight="1">
-      <c r="B279" s="42"/>
+      <c r="B279" s="43"/>
     </row>
     <row r="280" ht="15.75" customHeight="1">
-      <c r="B280" s="42"/>
+      <c r="B280" s="43"/>
     </row>
     <row r="281" ht="15.75" customHeight="1">
-      <c r="B281" s="42"/>
+      <c r="B281" s="43"/>
     </row>
     <row r="282" ht="15.75" customHeight="1">
-      <c r="B282" s="42"/>
+      <c r="B282" s="43"/>
     </row>
     <row r="283" ht="15.75" customHeight="1">
-      <c r="B283" s="42"/>
+      <c r="B283" s="43"/>
     </row>
     <row r="284" ht="15.75" customHeight="1">
-      <c r="B284" s="42"/>
+      <c r="B284" s="43"/>
     </row>
     <row r="285" ht="15.75" customHeight="1">
-      <c r="B285" s="42"/>
+      <c r="B285" s="43"/>
     </row>
     <row r="286" ht="15.75" customHeight="1">
-      <c r="B286" s="42"/>
+      <c r="B286" s="43"/>
     </row>
     <row r="287" ht="15.75" customHeight="1">
-      <c r="B287" s="42"/>
+      <c r="B287" s="43"/>
     </row>
     <row r="288" ht="15.75" customHeight="1">
-      <c r="B288" s="42"/>
+      <c r="B288" s="43"/>
     </row>
     <row r="289" ht="15.75" customHeight="1">
-      <c r="B289" s="42"/>
+      <c r="B289" s="43"/>
     </row>
     <row r="290" ht="15.75" customHeight="1">
-      <c r="B290" s="42"/>
+      <c r="B290" s="43"/>
     </row>
     <row r="291" ht="15.75" customHeight="1">
-      <c r="B291" s="42"/>
+      <c r="B291" s="43"/>
     </row>
     <row r="292" ht="15.75" customHeight="1">
-      <c r="B292" s="42"/>
+      <c r="B292" s="43"/>
     </row>
     <row r="293" ht="15.75" customHeight="1">
-      <c r="B293" s="42"/>
+      <c r="B293" s="43"/>
     </row>
     <row r="294" ht="15.75" customHeight="1">
-      <c r="B294" s="42"/>
+      <c r="B294" s="43"/>
     </row>
     <row r="295" ht="15.75" customHeight="1">
-      <c r="B295" s="42"/>
+      <c r="B295" s="43"/>
     </row>
     <row r="296" ht="15.75" customHeight="1">
-      <c r="B296" s="42"/>
+      <c r="B296" s="43"/>
     </row>
     <row r="297" ht="15.75" customHeight="1">
-      <c r="B297" s="42"/>
+      <c r="B297" s="43"/>
     </row>
     <row r="298" ht="15.75" customHeight="1">
-      <c r="B298" s="42"/>
+      <c r="B298" s="43"/>
     </row>
     <row r="299" ht="15.75" customHeight="1">
-      <c r="B299" s="42"/>
+      <c r="B299" s="43"/>
     </row>
     <row r="300" ht="15.75" customHeight="1">
-      <c r="B300" s="42"/>
+      <c r="B300" s="43"/>
     </row>
     <row r="301" ht="15.75" customHeight="1">
-      <c r="B301" s="42"/>
+      <c r="B301" s="43"/>
     </row>
     <row r="302" ht="15.75" customHeight="1">
-      <c r="B302" s="42"/>
+      <c r="B302" s="43"/>
     </row>
     <row r="303" ht="15.75" customHeight="1">
-      <c r="B303" s="42"/>
+      <c r="B303" s="43"/>
     </row>
     <row r="304" ht="15.75" customHeight="1">
-      <c r="B304" s="42"/>
+      <c r="B304" s="43"/>
     </row>
     <row r="305" ht="15.75" customHeight="1">
-      <c r="B305" s="42"/>
+      <c r="B305" s="43"/>
     </row>
     <row r="306" ht="15.75" customHeight="1">
-      <c r="B306" s="42"/>
+      <c r="B306" s="43"/>
     </row>
     <row r="307" ht="15.75" customHeight="1">
-      <c r="B307" s="42"/>
+      <c r="B307" s="43"/>
     </row>
     <row r="308" ht="15.75" customHeight="1">
-      <c r="B308" s="42"/>
+      <c r="B308" s="43"/>
     </row>
     <row r="309" ht="15.75" customHeight="1">
-      <c r="B309" s="42"/>
+      <c r="B309" s="43"/>
     </row>
     <row r="310" ht="15.75" customHeight="1">
-      <c r="B310" s="42"/>
+      <c r="B310" s="43"/>
     </row>
     <row r="311" ht="15.75" customHeight="1">
-      <c r="B311" s="42"/>
+      <c r="B311" s="43"/>
     </row>
     <row r="312" ht="15.75" customHeight="1">
-      <c r="B312" s="42"/>
+      <c r="B312" s="43"/>
     </row>
     <row r="313" ht="15.75" customHeight="1">
-      <c r="B313" s="42"/>
+      <c r="B313" s="43"/>
     </row>
     <row r="314" ht="15.75" customHeight="1">
-      <c r="B314" s="42"/>
+      <c r="B314" s="43"/>
     </row>
     <row r="315" ht="15.75" customHeight="1">
-      <c r="B315" s="42"/>
+      <c r="B315" s="43"/>
     </row>
     <row r="316" ht="15.75" customHeight="1">
-      <c r="B316" s="42"/>
+      <c r="B316" s="43"/>
     </row>
     <row r="317" ht="15.75" customHeight="1">
-      <c r="B317" s="42"/>
+      <c r="B317" s="43"/>
     </row>
     <row r="318" ht="15.75" customHeight="1">
-      <c r="B318" s="42"/>
+      <c r="B318" s="43"/>
     </row>
     <row r="319" ht="15.75" customHeight="1">
-      <c r="B319" s="42"/>
+      <c r="B319" s="43"/>
     </row>
     <row r="320" ht="15.75" customHeight="1">
-      <c r="B320" s="42"/>
+      <c r="B320" s="43"/>
     </row>
     <row r="321" ht="15.75" customHeight="1">
-      <c r="B321" s="42"/>
+      <c r="B321" s="43"/>
     </row>
     <row r="322" ht="15.75" customHeight="1">
-      <c r="B322" s="42"/>
+      <c r="B322" s="43"/>
     </row>
     <row r="323" ht="15.75" customHeight="1">
-      <c r="B323" s="42"/>
+      <c r="B323" s="43"/>
     </row>
     <row r="324" ht="15.75" customHeight="1">
-      <c r="B324" s="42"/>
+      <c r="B324" s="43"/>
     </row>
     <row r="325" ht="15.75" customHeight="1">
-      <c r="B325" s="42"/>
+      <c r="B325" s="43"/>
     </row>
     <row r="326" ht="15.75" customHeight="1">
-      <c r="B326" s="42"/>
+      <c r="B326" s="43"/>
     </row>
     <row r="327" ht="15.75" customHeight="1">
-      <c r="B327" s="42"/>
+      <c r="B327" s="43"/>
     </row>
     <row r="328" ht="15.75" customHeight="1">
-      <c r="B328" s="42"/>
+      <c r="B328" s="43"/>
     </row>
     <row r="329" ht="15.75" customHeight="1">
-      <c r="B329" s="42"/>
+      <c r="B329" s="43"/>
     </row>
     <row r="330" ht="15.75" customHeight="1">
-      <c r="B330" s="42"/>
+      <c r="B330" s="43"/>
     </row>
     <row r="331" ht="15.75" customHeight="1">
-      <c r="B331" s="42"/>
+      <c r="B331" s="43"/>
     </row>
     <row r="332" ht="15.75" customHeight="1">
-      <c r="B332" s="42"/>
+      <c r="B332" s="43"/>
     </row>
     <row r="333" ht="15.75" customHeight="1">
-      <c r="B333" s="42"/>
+      <c r="B333" s="43"/>
     </row>
     <row r="334" ht="15.75" customHeight="1">
-      <c r="B334" s="42"/>
+      <c r="B334" s="43"/>
     </row>
     <row r="335" ht="15.75" customHeight="1">
-      <c r="B335" s="42"/>
+      <c r="B335" s="43"/>
     </row>
     <row r="336" ht="15.75" customHeight="1">
-      <c r="B336" s="42"/>
+      <c r="B336" s="43"/>
     </row>
     <row r="337" ht="15.75" customHeight="1">
-      <c r="B337" s="42"/>
+      <c r="B337" s="43"/>
     </row>
     <row r="338" ht="15.75" customHeight="1">
-      <c r="B338" s="42"/>
+      <c r="B338" s="43"/>
     </row>
     <row r="339" ht="15.75" customHeight="1">
-      <c r="B339" s="42"/>
+      <c r="B339" s="43"/>
     </row>
     <row r="340" ht="15.75" customHeight="1">
-      <c r="B340" s="42"/>
+      <c r="B340" s="43"/>
     </row>
     <row r="341" ht="15.75" customHeight="1">
-      <c r="B341" s="42"/>
+      <c r="B341" s="43"/>
     </row>
     <row r="342" ht="15.75" customHeight="1">
-      <c r="B342" s="42"/>
+      <c r="B342" s="43"/>
     </row>
     <row r="343" ht="15.75" customHeight="1">
-      <c r="B343" s="42"/>
+      <c r="B343" s="43"/>
     </row>
     <row r="344" ht="15.75" customHeight="1">
-      <c r="B344" s="42"/>
+      <c r="B344" s="43"/>
     </row>
     <row r="345" ht="15.75" customHeight="1">
-      <c r="B345" s="42"/>
+      <c r="B345" s="43"/>
     </row>
     <row r="346" ht="15.75" customHeight="1">
-      <c r="B346" s="42"/>
+      <c r="B346" s="43"/>
     </row>
     <row r="347" ht="15.75" customHeight="1">
-      <c r="B347" s="42"/>
+      <c r="B347" s="43"/>
     </row>
     <row r="348" ht="15.75" customHeight="1">
-      <c r="B348" s="42"/>
+      <c r="B348" s="43"/>
     </row>
     <row r="349" ht="15.75" customHeight="1">
-      <c r="B349" s="42"/>
+      <c r="B349" s="43"/>
     </row>
     <row r="350" ht="15.75" customHeight="1">
-      <c r="B350" s="42"/>
+      <c r="B350" s="43"/>
     </row>
     <row r="351" ht="15.75" customHeight="1">
-      <c r="B351" s="42"/>
+      <c r="B351" s="43"/>
     </row>
     <row r="352" ht="15.75" customHeight="1">
-      <c r="B352" s="42"/>
+      <c r="B352" s="43"/>
     </row>
     <row r="353" ht="15.75" customHeight="1">
-      <c r="B353" s="42"/>
+      <c r="B353" s="43"/>
     </row>
     <row r="354" ht="15.75" customHeight="1">
-      <c r="B354" s="42"/>
+      <c r="B354" s="43"/>
     </row>
     <row r="355" ht="15.75" customHeight="1">
-      <c r="B355" s="42"/>
+      <c r="B355" s="43"/>
     </row>
     <row r="356" ht="15.75" customHeight="1">
-      <c r="B356" s="42"/>
+      <c r="B356" s="43"/>
     </row>
     <row r="357" ht="15.75" customHeight="1">
-      <c r="B357" s="42"/>
+      <c r="B357" s="43"/>
     </row>
     <row r="358" ht="15.75" customHeight="1">
-      <c r="B358" s="42"/>
+      <c r="B358" s="43"/>
     </row>
     <row r="359" ht="15.75" customHeight="1">
-      <c r="B359" s="42"/>
+      <c r="B359" s="43"/>
     </row>
     <row r="360" ht="15.75" customHeight="1">
-      <c r="B360" s="42"/>
+      <c r="B360" s="43"/>
     </row>
     <row r="361" ht="15.75" customHeight="1">
-      <c r="B361" s="42"/>
+      <c r="B361" s="43"/>
     </row>
     <row r="362" ht="15.75" customHeight="1">
-      <c r="B362" s="42"/>
+      <c r="B362" s="43"/>
     </row>
     <row r="363" ht="15.75" customHeight="1">
-      <c r="B363" s="42"/>
+      <c r="B363" s="43"/>
     </row>
     <row r="364" ht="15.75" customHeight="1">
-      <c r="B364" s="42"/>
+      <c r="B364" s="43"/>
     </row>
     <row r="365" ht="15.75" customHeight="1">
-      <c r="B365" s="42"/>
+      <c r="B365" s="43"/>
     </row>
     <row r="366" ht="15.75" customHeight="1">
-      <c r="B366" s="42"/>
+      <c r="B366" s="43"/>
     </row>
     <row r="367" ht="15.75" customHeight="1">
-      <c r="B367" s="42"/>
+      <c r="B367" s="43"/>
     </row>
     <row r="368" ht="15.75" customHeight="1">
-      <c r="B368" s="42"/>
+      <c r="B368" s="43"/>
     </row>
     <row r="369" ht="15.75" customHeight="1">
-      <c r="B369" s="42"/>
+      <c r="B369" s="43"/>
     </row>
     <row r="370" ht="15.75" customHeight="1">
-      <c r="B370" s="42"/>
+      <c r="B370" s="43"/>
     </row>
     <row r="371" ht="15.75" customHeight="1">
-      <c r="B371" s="42"/>
+      <c r="B371" s="43"/>
     </row>
     <row r="372" ht="15.75" customHeight="1">
-      <c r="B372" s="42"/>
+      <c r="B372" s="43"/>
     </row>
     <row r="373" ht="15.75" customHeight="1">
-      <c r="B373" s="42"/>
+      <c r="B373" s="43"/>
     </row>
     <row r="374" ht="15.75" customHeight="1">
-      <c r="B374" s="42"/>
+      <c r="B374" s="43"/>
     </row>
     <row r="375" ht="15.75" customHeight="1">
-      <c r="B375" s="42"/>
+      <c r="B375" s="43"/>
     </row>
     <row r="376" ht="15.75" customHeight="1">
-      <c r="B376" s="42"/>
+      <c r="B376" s="43"/>
     </row>
     <row r="377" ht="15.75" customHeight="1">
-      <c r="B377" s="42"/>
+      <c r="B377" s="43"/>
     </row>
     <row r="378" ht="15.75" customHeight="1">
-      <c r="B378" s="42"/>
+      <c r="B378" s="43"/>
     </row>
     <row r="379" ht="15.75" customHeight="1">
-      <c r="B379" s="42"/>
+      <c r="B379" s="43"/>
     </row>
     <row r="380" ht="15.75" customHeight="1">
-      <c r="B380" s="42"/>
+      <c r="B380" s="43"/>
     </row>
     <row r="381" ht="15.75" customHeight="1">
-      <c r="B381" s="42"/>
+      <c r="B381" s="43"/>
     </row>
     <row r="382" ht="15.75" customHeight="1">
-      <c r="B382" s="42"/>
+      <c r="B382" s="43"/>
     </row>
     <row r="383" ht="15.75" customHeight="1">
-      <c r="B383" s="42"/>
+      <c r="B383" s="43"/>
     </row>
     <row r="384" ht="15.75" customHeight="1">
-      <c r="B384" s="42"/>
+      <c r="B384" s="43"/>
     </row>
     <row r="385" ht="15.75" customHeight="1">
-      <c r="B385" s="42"/>
+      <c r="B385" s="43"/>
     </row>
     <row r="386" ht="15.75" customHeight="1">
-      <c r="B386" s="42"/>
+      <c r="B386" s="43"/>
     </row>
     <row r="387" ht="15.75" customHeight="1">
-      <c r="B387" s="42"/>
+      <c r="B387" s="43"/>
     </row>
     <row r="388" ht="15.75" customHeight="1">
-      <c r="B388" s="42"/>
+      <c r="B388" s="43"/>
     </row>
     <row r="389" ht="15.75" customHeight="1">
-      <c r="B389" s="42"/>
+      <c r="B389" s="43"/>
     </row>
     <row r="390" ht="15.75" customHeight="1">
-      <c r="B390" s="42"/>
+      <c r="B390" s="43"/>
     </row>
     <row r="391" ht="15.75" customHeight="1">
-      <c r="B391" s="42"/>
+      <c r="B391" s="43"/>
     </row>
     <row r="392" ht="15.75" customHeight="1">
-      <c r="B392" s="42"/>
+      <c r="B392" s="43"/>
     </row>
     <row r="393" ht="15.75" customHeight="1">
-      <c r="B393" s="42"/>
+      <c r="B393" s="43"/>
     </row>
     <row r="394" ht="15.75" customHeight="1">
-      <c r="B394" s="42"/>
+      <c r="B394" s="43"/>
     </row>
     <row r="395" ht="15.75" customHeight="1">
-      <c r="B395" s="42"/>
+      <c r="B395" s="43"/>
     </row>
     <row r="396" ht="15.75" customHeight="1">
-      <c r="B396" s="42"/>
+      <c r="B396" s="43"/>
     </row>
     <row r="397" ht="15.75" customHeight="1">
-      <c r="B397" s="42"/>
+      <c r="B397" s="43"/>
     </row>
     <row r="398" ht="15.75" customHeight="1">
-      <c r="B398" s="42"/>
+      <c r="B398" s="43"/>
     </row>
     <row r="399" ht="15.75" customHeight="1">
-      <c r="B399" s="42"/>
+      <c r="B399" s="43"/>
     </row>
     <row r="400" ht="15.75" customHeight="1">
-      <c r="B400" s="42"/>
+      <c r="B400" s="43"/>
     </row>
     <row r="401" ht="15.75" customHeight="1">
-      <c r="B401" s="42"/>
+      <c r="B401" s="43"/>
     </row>
     <row r="402" ht="15.75" customHeight="1">
-      <c r="B402" s="42"/>
+      <c r="B402" s="43"/>
     </row>
     <row r="403" ht="15.75" customHeight="1">
-      <c r="B403" s="42"/>
+      <c r="B403" s="43"/>
     </row>
     <row r="404" ht="15.75" customHeight="1">
-      <c r="B404" s="42"/>
+      <c r="B404" s="43"/>
     </row>
     <row r="405" ht="15.75" customHeight="1">
-      <c r="B405" s="42"/>
+      <c r="B405" s="43"/>
     </row>
     <row r="406" ht="15.75" customHeight="1">
-      <c r="B406" s="42"/>
+      <c r="B406" s="43"/>
     </row>
     <row r="407" ht="15.75" customHeight="1">
-      <c r="B407" s="42"/>
+      <c r="B407" s="43"/>
     </row>
     <row r="408" ht="15.75" customHeight="1">
-      <c r="B408" s="42"/>
+      <c r="B408" s="43"/>
     </row>
     <row r="409" ht="15.75" customHeight="1">
-      <c r="B409" s="42"/>
+      <c r="B409" s="43"/>
     </row>
     <row r="410" ht="15.75" customHeight="1">
-      <c r="B410" s="42"/>
+      <c r="B410" s="43"/>
     </row>
     <row r="411" ht="15.75" customHeight="1">
-      <c r="B411" s="42"/>
+      <c r="B411" s="43"/>
     </row>
     <row r="412" ht="15.75" customHeight="1">
-      <c r="B412" s="42"/>
+      <c r="B412" s="43"/>
     </row>
     <row r="413" ht="15.75" customHeight="1">
-      <c r="B413" s="42"/>
+      <c r="B413" s="43"/>
     </row>
     <row r="414" ht="15.75" customHeight="1">
-      <c r="B414" s="42"/>
+      <c r="B414" s="43"/>
     </row>
     <row r="415" ht="15.75" customHeight="1">
-      <c r="B415" s="42"/>
+      <c r="B415" s="43"/>
     </row>
     <row r="416" ht="15.75" customHeight="1">
-      <c r="B416" s="42"/>
+      <c r="B416" s="43"/>
     </row>
     <row r="417" ht="15.75" customHeight="1">
-      <c r="B417" s="42"/>
+      <c r="B417" s="43"/>
     </row>
     <row r="418" ht="15.75" customHeight="1">
-      <c r="B418" s="42"/>
+      <c r="B418" s="43"/>
     </row>
     <row r="419" ht="15.75" customHeight="1">
-      <c r="B419" s="42"/>
+      <c r="B419" s="43"/>
     </row>
     <row r="420" ht="15.75" customHeight="1">
-      <c r="B420" s="42"/>
+      <c r="B420" s="43"/>
     </row>
     <row r="421" ht="15.75" customHeight="1">
-      <c r="B421" s="42"/>
+      <c r="B421" s="43"/>
     </row>
     <row r="422" ht="15.75" customHeight="1">
-      <c r="B422" s="42"/>
+      <c r="B422" s="43"/>
     </row>
     <row r="423" ht="15.75" customHeight="1">
-      <c r="B423" s="42"/>
+      <c r="B423" s="43"/>
     </row>
     <row r="424" ht="15.75" customHeight="1">
-      <c r="B424" s="42"/>
+      <c r="B424" s="43"/>
     </row>
     <row r="425" ht="15.75" customHeight="1">
-      <c r="B425" s="42"/>
+      <c r="B425" s="43"/>
     </row>
     <row r="426" ht="15.75" customHeight="1">
-      <c r="B426" s="42"/>
+      <c r="B426" s="43"/>
     </row>
     <row r="427" ht="15.75" customHeight="1">
-      <c r="B427" s="42"/>
+      <c r="B427" s="43"/>
     </row>
     <row r="428" ht="15.75" customHeight="1">
-      <c r="B428" s="42"/>
+      <c r="B428" s="43"/>
     </row>
     <row r="429" ht="15.75" customHeight="1">
-      <c r="B429" s="42"/>
+      <c r="B429" s="43"/>
     </row>
     <row r="430" ht="15.75" customHeight="1">
-      <c r="B430" s="42"/>
+      <c r="B430" s="43"/>
     </row>
     <row r="431" ht="15.75" customHeight="1">
-      <c r="B431" s="42"/>
+      <c r="B431" s="43"/>
     </row>
     <row r="432" ht="15.75" customHeight="1">
-      <c r="B432" s="42"/>
+      <c r="B432" s="43"/>
     </row>
     <row r="433" ht="15.75" customHeight="1">
-      <c r="B433" s="42"/>
+      <c r="B433" s="43"/>
     </row>
     <row r="434" ht="15.75" customHeight="1">
-      <c r="B434" s="42"/>
+      <c r="B434" s="43"/>
     </row>
     <row r="435" ht="15.75" customHeight="1">
-      <c r="B435" s="42"/>
+      <c r="B435" s="43"/>
     </row>
     <row r="436" ht="15.75" customHeight="1">
-      <c r="B436" s="42"/>
+      <c r="B436" s="43"/>
     </row>
     <row r="437" ht="15.75" customHeight="1">
-      <c r="B437" s="42"/>
+      <c r="B437" s="43"/>
     </row>
     <row r="438" ht="15.75" customHeight="1">
-      <c r="B438" s="42"/>
+      <c r="B438" s="43"/>
     </row>
     <row r="439" ht="15.75" customHeight="1">
-      <c r="B439" s="42"/>
+      <c r="B439" s="43"/>
     </row>
     <row r="440" ht="15.75" customHeight="1">
-      <c r="B440" s="42"/>
+      <c r="B440" s="43"/>
     </row>
     <row r="441" ht="15.75" customHeight="1">
-      <c r="B441" s="42"/>
+      <c r="B441" s="43"/>
     </row>
     <row r="442" ht="15.75" customHeight="1">
-      <c r="B442" s="42"/>
+      <c r="B442" s="43"/>
     </row>
     <row r="443" ht="15.75" customHeight="1">
-      <c r="B443" s="42"/>
+      <c r="B443" s="43"/>
     </row>
     <row r="444" ht="15.75" customHeight="1">
-      <c r="B444" s="42"/>
+      <c r="B444" s="43"/>
     </row>
     <row r="445" ht="15.75" customHeight="1">
-      <c r="B445" s="42"/>
+      <c r="B445" s="43"/>
     </row>
     <row r="446" ht="15.75" customHeight="1">
-      <c r="B446" s="42"/>
+      <c r="B446" s="43"/>
     </row>
     <row r="447" ht="15.75" customHeight="1">
-      <c r="B447" s="42"/>
+      <c r="B447" s="43"/>
     </row>
     <row r="448" ht="15.75" customHeight="1">
-      <c r="B448" s="42"/>
+      <c r="B448" s="43"/>
     </row>
     <row r="449" ht="15.75" customHeight="1">
-      <c r="B449" s="42"/>
+      <c r="B449" s="43"/>
     </row>
     <row r="450" ht="15.75" customHeight="1">
-      <c r="B450" s="42"/>
+      <c r="B450" s="43"/>
     </row>
     <row r="451" ht="15.75" customHeight="1">
-      <c r="B451" s="42"/>
+      <c r="B451" s="43"/>
     </row>
     <row r="452" ht="15.75" customHeight="1">
-      <c r="B452" s="42"/>
+      <c r="B452" s="43"/>
     </row>
     <row r="453" ht="15.75" customHeight="1">
-      <c r="B453" s="42"/>
+      <c r="B453" s="43"/>
     </row>
     <row r="454" ht="15.75" customHeight="1">
-      <c r="B454" s="42"/>
+      <c r="B454" s="43"/>
     </row>
     <row r="455" ht="15.75" customHeight="1">
-      <c r="B455" s="42"/>
+      <c r="B455" s="43"/>
     </row>
     <row r="456" ht="15.75" customHeight="1">
-      <c r="B456" s="42"/>
+      <c r="B456" s="43"/>
     </row>
     <row r="457" ht="15.75" customHeight="1">
-      <c r="B457" s="42"/>
+      <c r="B457" s="43"/>
     </row>
     <row r="458" ht="15.75" customHeight="1">
-      <c r="B458" s="42"/>
+      <c r="B458" s="43"/>
     </row>
     <row r="459" ht="15.75" customHeight="1">
-      <c r="B459" s="42"/>
+      <c r="B459" s="43"/>
     </row>
     <row r="460" ht="15.75" customHeight="1">
-      <c r="B460" s="42"/>
+      <c r="B460" s="43"/>
     </row>
     <row r="461" ht="15.75" customHeight="1">
-      <c r="B461" s="42"/>
+      <c r="B461" s="43"/>
     </row>
     <row r="462" ht="15.75" customHeight="1">
-      <c r="B462" s="42"/>
+      <c r="B462" s="43"/>
     </row>
     <row r="463" ht="15.75" customHeight="1">
-      <c r="B463" s="42"/>
+      <c r="B463" s="43"/>
     </row>
     <row r="464" ht="15.75" customHeight="1">
-      <c r="B464" s="42"/>
+      <c r="B464" s="43"/>
     </row>
     <row r="465" ht="15.75" customHeight="1">
-      <c r="B465" s="42"/>
+      <c r="B465" s="43"/>
     </row>
     <row r="466" ht="15.75" customHeight="1">
-      <c r="B466" s="42"/>
+      <c r="B466" s="43"/>
     </row>
     <row r="467" ht="15.75" customHeight="1">
-      <c r="B467" s="42"/>
+      <c r="B467" s="43"/>
     </row>
     <row r="468" ht="15.75" customHeight="1">
-      <c r="B468" s="42"/>
+      <c r="B468" s="43"/>
     </row>
     <row r="469" ht="15.75" customHeight="1">
-      <c r="B469" s="42"/>
+      <c r="B469" s="43"/>
     </row>
     <row r="470" ht="15.75" customHeight="1">
-      <c r="B470" s="42"/>
+      <c r="B470" s="43"/>
     </row>
     <row r="471" ht="15.75" customHeight="1">
-      <c r="B471" s="42"/>
+      <c r="B471" s="43"/>
     </row>
     <row r="472" ht="15.75" customHeight="1">
-      <c r="B472" s="42"/>
+      <c r="B472" s="43"/>
     </row>
     <row r="473" ht="15.75" customHeight="1">
-      <c r="B473" s="42"/>
+      <c r="B473" s="43"/>
     </row>
     <row r="474" ht="15.75" customHeight="1">
-      <c r="B474" s="42"/>
+      <c r="B474" s="43"/>
     </row>
     <row r="475" ht="15.75" customHeight="1">
-      <c r="B475" s="42"/>
+      <c r="B475" s="43"/>
     </row>
     <row r="476" ht="15.75" customHeight="1">
-      <c r="B476" s="42"/>
+      <c r="B476" s="43"/>
     </row>
     <row r="477" ht="15.75" customHeight="1">
-      <c r="B477" s="42"/>
+      <c r="B477" s="43"/>
     </row>
     <row r="478" ht="15.75" customHeight="1">
-      <c r="B478" s="42"/>
+      <c r="B478" s="43"/>
     </row>
     <row r="479" ht="15.75" customHeight="1">
-      <c r="B479" s="42"/>
+      <c r="B479" s="43"/>
     </row>
     <row r="480" ht="15.75" customHeight="1">
-      <c r="B480" s="42"/>
+      <c r="B480" s="43"/>
     </row>
     <row r="481" ht="15.75" customHeight="1">
-      <c r="B481" s="42"/>
+      <c r="B481" s="43"/>
     </row>
     <row r="482" ht="15.75" customHeight="1">
-      <c r="B482" s="42"/>
+      <c r="B482" s="43"/>
     </row>
     <row r="483" ht="15.75" customHeight="1">
-      <c r="B483" s="42"/>
+      <c r="B483" s="43"/>
     </row>
     <row r="484" ht="15.75" customHeight="1">
-      <c r="B484" s="42"/>
+      <c r="B484" s="43"/>
     </row>
     <row r="485" ht="15.75" customHeight="1">
-      <c r="B485" s="42"/>
+      <c r="B485" s="43"/>
     </row>
     <row r="486" ht="15.75" customHeight="1">
-      <c r="B486" s="42"/>
+      <c r="B486" s="43"/>
     </row>
     <row r="487" ht="15.75" customHeight="1">
-      <c r="B487" s="42"/>
+      <c r="B487" s="43"/>
     </row>
     <row r="488" ht="15.75" customHeight="1">
-      <c r="B488" s="42"/>
+      <c r="B488" s="43"/>
     </row>
     <row r="489" ht="15.75" customHeight="1">
-      <c r="B489" s="42"/>
+      <c r="B489" s="43"/>
     </row>
     <row r="490" ht="15.75" customHeight="1">
-      <c r="B490" s="42"/>
+      <c r="B490" s="43"/>
     </row>
     <row r="491" ht="15.75" customHeight="1">
-      <c r="B491" s="42"/>
+      <c r="B491" s="43"/>
     </row>
     <row r="492" ht="15.75" customHeight="1">
-      <c r="B492" s="42"/>
+      <c r="B492" s="43"/>
     </row>
     <row r="493" ht="15.75" customHeight="1">
-      <c r="B493" s="42"/>
+      <c r="B493" s="43"/>
     </row>
     <row r="494" ht="15.75" customHeight="1">
-      <c r="B494" s="42"/>
+      <c r="B494" s="43"/>
     </row>
     <row r="495" ht="15.75" customHeight="1">
-      <c r="B495" s="42"/>
+      <c r="B495" s="43"/>
     </row>
     <row r="496" ht="15.75" customHeight="1">
-      <c r="B496" s="42"/>
+      <c r="B496" s="43"/>
     </row>
     <row r="497" ht="15.75" customHeight="1">
-      <c r="B497" s="42"/>
+      <c r="B497" s="43"/>
     </row>
     <row r="498" ht="15.75" customHeight="1">
-      <c r="B498" s="42"/>
+      <c r="B498" s="43"/>
     </row>
     <row r="499" ht="15.75" customHeight="1">
-      <c r="B499" s="42"/>
+      <c r="B499" s="43"/>
     </row>
     <row r="500" ht="15.75" customHeight="1">
-      <c r="B500" s="42"/>
+      <c r="B500" s="43"/>
     </row>
     <row r="501" ht="15.75" customHeight="1">
-      <c r="B501" s="42"/>
+      <c r="B501" s="43"/>
     </row>
     <row r="502" ht="15.75" customHeight="1">
-      <c r="B502" s="42"/>
+      <c r="B502" s="43"/>
     </row>
     <row r="503" ht="15.75" customHeight="1">
-      <c r="B503" s="42"/>
+      <c r="B503" s="43"/>
     </row>
     <row r="504" ht="15.75" customHeight="1">
-      <c r="B504" s="42"/>
+      <c r="B504" s="43"/>
     </row>
     <row r="505" ht="15.75" customHeight="1">
-      <c r="B505" s="42"/>
+      <c r="B505" s="43"/>
     </row>
     <row r="506" ht="15.75" customHeight="1">
-      <c r="B506" s="42"/>
+      <c r="B506" s="43"/>
     </row>
     <row r="507" ht="15.75" customHeight="1">
-      <c r="B507" s="42"/>
+      <c r="B507" s="43"/>
     </row>
     <row r="508" ht="15.75" customHeight="1">
-      <c r="B508" s="42"/>
+      <c r="B508" s="43"/>
     </row>
     <row r="509" ht="15.75" customHeight="1">
-      <c r="B509" s="42"/>
+      <c r="B509" s="43"/>
     </row>
     <row r="510" ht="15.75" customHeight="1">
-      <c r="B510" s="42"/>
+      <c r="B510" s="43"/>
     </row>
     <row r="511" ht="15.75" customHeight="1">
-      <c r="B511" s="42"/>
+      <c r="B511" s="43"/>
     </row>
     <row r="512" ht="15.75" customHeight="1">
-      <c r="B512" s="42"/>
+      <c r="B512" s="43"/>
     </row>
     <row r="513" ht="15.75" customHeight="1">
-      <c r="B513" s="42"/>
+      <c r="B513" s="43"/>
     </row>
     <row r="514" ht="15.75" customHeight="1">
-      <c r="B514" s="42"/>
+      <c r="B514" s="43"/>
     </row>
     <row r="515" ht="15.75" customHeight="1">
-      <c r="B515" s="42"/>
+      <c r="B515" s="43"/>
     </row>
     <row r="516" ht="15.75" customHeight="1">
-      <c r="B516" s="42"/>
+      <c r="B516" s="43"/>
     </row>
     <row r="517" ht="15.75" customHeight="1">
-      <c r="B517" s="42"/>
+      <c r="B517" s="43"/>
     </row>
     <row r="518" ht="15.75" customHeight="1">
-      <c r="B518" s="42"/>
+      <c r="B518" s="43"/>
     </row>
     <row r="519" ht="15.75" customHeight="1">
-      <c r="B519" s="42"/>
+      <c r="B519" s="43"/>
     </row>
     <row r="520" ht="15.75" customHeight="1">
-      <c r="B520" s="42"/>
+      <c r="B520" s="43"/>
     </row>
     <row r="521" ht="15.75" customHeight="1">
-      <c r="B521" s="42"/>
+      <c r="B521" s="43"/>
     </row>
     <row r="522" ht="15.75" customHeight="1">
-      <c r="B522" s="42"/>
+      <c r="B522" s="43"/>
     </row>
     <row r="523" ht="15.75" customHeight="1">
-      <c r="B523" s="42"/>
+      <c r="B523" s="43"/>
     </row>
     <row r="524" ht="15.75" customHeight="1">
-      <c r="B524" s="42"/>
+      <c r="B524" s="43"/>
     </row>
     <row r="525" ht="15.75" customHeight="1">
-      <c r="B525" s="42"/>
+      <c r="B525" s="43"/>
     </row>
     <row r="526" ht="15.75" customHeight="1">
-      <c r="B526" s="42"/>
+      <c r="B526" s="43"/>
     </row>
     <row r="527" ht="15.75" customHeight="1">
-      <c r="B527" s="42"/>
+      <c r="B527" s="43"/>
     </row>
     <row r="528" ht="15.75" customHeight="1">
-      <c r="B528" s="42"/>
+      <c r="B528" s="43"/>
     </row>
     <row r="529" ht="15.75" customHeight="1">
-      <c r="B529" s="42"/>
+      <c r="B529" s="43"/>
     </row>
     <row r="530" ht="15.75" customHeight="1">
-      <c r="B530" s="42"/>
+      <c r="B530" s="43"/>
     </row>
     <row r="531" ht="15.75" customHeight="1">
-      <c r="B531" s="42"/>
+      <c r="B531" s="43"/>
     </row>
     <row r="532" ht="15.75" customHeight="1">
-      <c r="B532" s="42"/>
+      <c r="B532" s="43"/>
     </row>
     <row r="533" ht="15.75" customHeight="1">
-      <c r="B533" s="42"/>
+      <c r="B533" s="43"/>
     </row>
     <row r="534" ht="15.75" customHeight="1">
-      <c r="B534" s="42"/>
+      <c r="B534" s="43"/>
     </row>
     <row r="535" ht="15.75" customHeight="1">
-      <c r="B535" s="42"/>
+      <c r="B535" s="43"/>
     </row>
     <row r="536" ht="15.75" customHeight="1">
-      <c r="B536" s="42"/>
+      <c r="B536" s="43"/>
     </row>
     <row r="537" ht="15.75" customHeight="1">
-      <c r="B537" s="42"/>
+      <c r="B537" s="43"/>
     </row>
     <row r="538" ht="15.75" customHeight="1">
-      <c r="B538" s="42"/>
+      <c r="B538" s="43"/>
     </row>
     <row r="539" ht="15.75" customHeight="1">
-      <c r="B539" s="42"/>
+      <c r="B539" s="43"/>
     </row>
     <row r="540" ht="15.75" customHeight="1">
-      <c r="B540" s="42"/>
+      <c r="B540" s="43"/>
     </row>
     <row r="541" ht="15.75" customHeight="1">
-      <c r="B541" s="42"/>
+      <c r="B541" s="43"/>
     </row>
     <row r="542" ht="15.75" customHeight="1">
-      <c r="B542" s="42"/>
+      <c r="B542" s="43"/>
     </row>
     <row r="543" ht="15.75" customHeight="1">
-      <c r="B543" s="42"/>
+      <c r="B543" s="43"/>
     </row>
     <row r="544" ht="15.75" customHeight="1">
-      <c r="B544" s="42"/>
+      <c r="B544" s="43"/>
     </row>
     <row r="545" ht="15.75" customHeight="1">
-      <c r="B545" s="42"/>
+      <c r="B545" s="43"/>
     </row>
     <row r="546" ht="15.75" customHeight="1">
-      <c r="B546" s="42"/>
+      <c r="B546" s="43"/>
     </row>
     <row r="547" ht="15.75" customHeight="1">
-      <c r="B547" s="42"/>
+      <c r="B547" s="43"/>
     </row>
     <row r="548" ht="15.75" customHeight="1">
-      <c r="B548" s="42"/>
+      <c r="B548" s="43"/>
     </row>
     <row r="549" ht="15.75" customHeight="1">
-      <c r="B549" s="42"/>
+      <c r="B549" s="43"/>
     </row>
     <row r="550" ht="15.75" customHeight="1">
-      <c r="B550" s="42"/>
+      <c r="B550" s="43"/>
     </row>
     <row r="551" ht="15.75" customHeight="1">
-      <c r="B551" s="42"/>
+      <c r="B551" s="43"/>
     </row>
     <row r="552" ht="15.75" customHeight="1">
-      <c r="B552" s="42"/>
+      <c r="B552" s="43"/>
     </row>
     <row r="553" ht="15.75" customHeight="1">
-      <c r="B553" s="42"/>
+      <c r="B553" s="43"/>
     </row>
     <row r="554" ht="15.75" customHeight="1">
-      <c r="B554" s="42"/>
+      <c r="B554" s="43"/>
     </row>
     <row r="555" ht="15.75" customHeight="1">
-      <c r="B555" s="42"/>
+      <c r="B555" s="43"/>
     </row>
     <row r="556" ht="15.75" customHeight="1">
-      <c r="B556" s="42"/>
+      <c r="B556" s="43"/>
     </row>
     <row r="557" ht="15.75" customHeight="1">
-      <c r="B557" s="42"/>
+      <c r="B557" s="43"/>
     </row>
     <row r="558" ht="15.75" customHeight="1">
-      <c r="B558" s="42"/>
+      <c r="B558" s="43"/>
     </row>
     <row r="559" ht="15.75" customHeight="1">
-      <c r="B559" s="42"/>
+      <c r="B559" s="43"/>
     </row>
     <row r="560" ht="15.75" customHeight="1">
-      <c r="B560" s="42"/>
+      <c r="B560" s="43"/>
     </row>
     <row r="561" ht="15.75" customHeight="1">
-      <c r="B561" s="42"/>
+      <c r="B561" s="43"/>
     </row>
     <row r="562" ht="15.75" customHeight="1">
-      <c r="B562" s="42"/>
+      <c r="B562" s="43"/>
     </row>
     <row r="563" ht="15.75" customHeight="1">
-      <c r="B563" s="42"/>
+      <c r="B563" s="43"/>
     </row>
     <row r="564" ht="15.75" customHeight="1">
-      <c r="B564" s="42"/>
+      <c r="B564" s="43"/>
     </row>
     <row r="565" ht="15.75" customHeight="1">
-      <c r="B565" s="42"/>
+      <c r="B565" s="43"/>
     </row>
     <row r="566" ht="15.75" customHeight="1">
-      <c r="B566" s="42"/>
+      <c r="B566" s="43"/>
     </row>
     <row r="567" ht="15.75" customHeight="1">
-      <c r="B567" s="42"/>
+      <c r="B567" s="43"/>
     </row>
     <row r="568" ht="15.75" customHeight="1">
-      <c r="B568" s="42"/>
+      <c r="B568" s="43"/>
     </row>
     <row r="569" ht="15.75" customHeight="1">
-      <c r="B569" s="42"/>
+      <c r="B569" s="43"/>
     </row>
     <row r="570" ht="15.75" customHeight="1">
-      <c r="B570" s="42"/>
+      <c r="B570" s="43"/>
     </row>
     <row r="571" ht="15.75" customHeight="1">
-      <c r="B571" s="42"/>
+      <c r="B571" s="43"/>
     </row>
     <row r="572" ht="15.75" customHeight="1">
-      <c r="B572" s="42"/>
+      <c r="B572" s="43"/>
     </row>
     <row r="573" ht="15.75" customHeight="1">
-      <c r="B573" s="42"/>
+      <c r="B573" s="43"/>
     </row>
     <row r="574" ht="15.75" customHeight="1">
-      <c r="B574" s="42"/>
+      <c r="B574" s="43"/>
     </row>
     <row r="575" ht="15.75" customHeight="1">
-      <c r="B575" s="42"/>
+      <c r="B575" s="43"/>
     </row>
     <row r="576" ht="15.75" customHeight="1">
-      <c r="B576" s="42"/>
+      <c r="B576" s="43"/>
     </row>
     <row r="577" ht="15.75" customHeight="1">
-      <c r="B577" s="42"/>
+      <c r="B577" s="43"/>
     </row>
     <row r="578" ht="15.75" customHeight="1">
-      <c r="B578" s="42"/>
+      <c r="B578" s="43"/>
     </row>
     <row r="579" ht="15.75" customHeight="1">
-      <c r="B579" s="42"/>
+      <c r="B579" s="43"/>
     </row>
     <row r="580" ht="15.75" customHeight="1">
-      <c r="B580" s="42"/>
+      <c r="B580" s="43"/>
     </row>
     <row r="581" ht="15.75" customHeight="1">
-      <c r="B581" s="42"/>
+      <c r="B581" s="43"/>
     </row>
     <row r="582" ht="15.75" customHeight="1">
-      <c r="B582" s="42"/>
+      <c r="B582" s="43"/>
     </row>
     <row r="583" ht="15.75" customHeight="1">
-      <c r="B583" s="42"/>
+      <c r="B583" s="43"/>
     </row>
     <row r="584" ht="15.75" customHeight="1">
-      <c r="B584" s="42"/>
+      <c r="B584" s="43"/>
     </row>
     <row r="585" ht="15.75" customHeight="1">
-      <c r="B585" s="42"/>
+      <c r="B585" s="43"/>
     </row>
     <row r="586" ht="15.75" customHeight="1">
-      <c r="B586" s="42"/>
+      <c r="B586" s="43"/>
     </row>
     <row r="587" ht="15.75" customHeight="1">
-      <c r="B587" s="42"/>
+      <c r="B587" s="43"/>
     </row>
     <row r="588" ht="15.75" customHeight="1">
-      <c r="B588" s="42"/>
+      <c r="B588" s="43"/>
     </row>
     <row r="589" ht="15.75" customHeight="1">
-      <c r="B589" s="42"/>
+      <c r="B589" s="43"/>
     </row>
     <row r="590" ht="15.75" customHeight="1">
-      <c r="B590" s="42"/>
+      <c r="B590" s="43"/>
     </row>
     <row r="591" ht="15.75" customHeight="1">
-      <c r="B591" s="42"/>
+      <c r="B591" s="43"/>
     </row>
     <row r="592" ht="15.75" customHeight="1">
-      <c r="B592" s="42"/>
+      <c r="B592" s="43"/>
     </row>
     <row r="593" ht="15.75" customHeight="1">
-      <c r="B593" s="42"/>
+      <c r="B593" s="43"/>
     </row>
     <row r="594" ht="15.75" customHeight="1">
-      <c r="B594" s="42"/>
+      <c r="B594" s="43"/>
     </row>
     <row r="595" ht="15.75" customHeight="1">
-      <c r="B595" s="42"/>
+      <c r="B595" s="43"/>
     </row>
     <row r="596" ht="15.75" customHeight="1">
-      <c r="B596" s="42"/>
+      <c r="B596" s="43"/>
     </row>
     <row r="597" ht="15.75" customHeight="1">
-      <c r="B597" s="42"/>
+      <c r="B597" s="43"/>
     </row>
     <row r="598" ht="15.75" customHeight="1">
-      <c r="B598" s="42"/>
+      <c r="B598" s="43"/>
     </row>
     <row r="599" ht="15.75" customHeight="1">
-      <c r="B599" s="42"/>
+      <c r="B599" s="43"/>
     </row>
     <row r="600" ht="15.75" customHeight="1">
-      <c r="B600" s="42"/>
+      <c r="B600" s="43"/>
     </row>
     <row r="601" ht="15.75" customHeight="1">
-      <c r="B601" s="42"/>
+      <c r="B601" s="43"/>
     </row>
     <row r="602" ht="15.75" customHeight="1">
-      <c r="B602" s="42"/>
+      <c r="B602" s="43"/>
     </row>
     <row r="603" ht="15.75" customHeight="1">
-      <c r="B603" s="42"/>
+      <c r="B603" s="43"/>
     </row>
     <row r="604" ht="15.75" customHeight="1">
-      <c r="B604" s="42"/>
+      <c r="B604" s="43"/>
     </row>
     <row r="605" ht="15.75" customHeight="1">
-      <c r="B605" s="42"/>
+      <c r="B605" s="43"/>
     </row>
     <row r="606" ht="15.75" customHeight="1">
-      <c r="B606" s="42"/>
+      <c r="B606" s="43"/>
     </row>
     <row r="607" ht="15.75" customHeight="1">
-      <c r="B607" s="42"/>
+      <c r="B607" s="43"/>
     </row>
     <row r="608" ht="15.75" customHeight="1">
-      <c r="B608" s="42"/>
+      <c r="B608" s="43"/>
     </row>
     <row r="609" ht="15.75" customHeight="1">
-      <c r="B609" s="42"/>
+      <c r="B609" s="43"/>
     </row>
     <row r="610" ht="15.75" customHeight="1">
-      <c r="B610" s="42"/>
+      <c r="B610" s="43"/>
     </row>
     <row r="611" ht="15.75" customHeight="1">
-      <c r="B611" s="42"/>
+      <c r="B611" s="43"/>
     </row>
     <row r="612" ht="15.75" customHeight="1">
-      <c r="B612" s="42"/>
+      <c r="B612" s="43"/>
     </row>
     <row r="613" ht="15.75" customHeight="1">
-      <c r="B613" s="42"/>
+      <c r="B613" s="43"/>
     </row>
     <row r="614" ht="15.75" customHeight="1">
-      <c r="B614" s="42"/>
+      <c r="B614" s="43"/>
     </row>
     <row r="615" ht="15.75" customHeight="1">
-      <c r="B615" s="42"/>
+      <c r="B615" s="43"/>
     </row>
     <row r="616" ht="15.75" customHeight="1">
-      <c r="B616" s="42"/>
+      <c r="B616" s="43"/>
     </row>
     <row r="617" ht="15.75" customHeight="1">
-      <c r="B617" s="42"/>
+      <c r="B617" s="43"/>
     </row>
     <row r="618" ht="15.75" customHeight="1">
-      <c r="B618" s="42"/>
+      <c r="B618" s="43"/>
     </row>
     <row r="619" ht="15.75" customHeight="1">
-      <c r="B619" s="42"/>
+      <c r="B619" s="43"/>
     </row>
     <row r="620" ht="15.75" customHeight="1">
-      <c r="B620" s="42"/>
+      <c r="B620" s="43"/>
     </row>
     <row r="621" ht="15.75" customHeight="1">
-      <c r="B621" s="42"/>
+      <c r="B621" s="43"/>
     </row>
     <row r="622" ht="15.75" customHeight="1">
-      <c r="B622" s="42"/>
+      <c r="B622" s="43"/>
     </row>
     <row r="623" ht="15.75" customHeight="1">
-      <c r="B623" s="42"/>
+      <c r="B623" s="43"/>
     </row>
     <row r="624" ht="15.75" customHeight="1">
-      <c r="B624" s="42"/>
+      <c r="B624" s="43"/>
     </row>
     <row r="625" ht="15.75" customHeight="1">
-      <c r="B625" s="42"/>
+      <c r="B625" s="43"/>
     </row>
     <row r="626" ht="15.75" customHeight="1">
-      <c r="B626" s="42"/>
+      <c r="B626" s="43"/>
     </row>
     <row r="627" ht="15.75" customHeight="1">
-      <c r="B627" s="42"/>
+      <c r="B627" s="43"/>
     </row>
     <row r="628" ht="15.75" customHeight="1">
-      <c r="B628" s="42"/>
+      <c r="B628" s="43"/>
     </row>
     <row r="629" ht="15.75" customHeight="1">
-      <c r="B629" s="42"/>
+      <c r="B629" s="43"/>
     </row>
     <row r="630" ht="15.75" customHeight="1">
-      <c r="B630" s="42"/>
+      <c r="B630" s="43"/>
     </row>
     <row r="631" ht="15.75" customHeight="1">
-      <c r="B631" s="42"/>
+      <c r="B631" s="43"/>
     </row>
     <row r="632" ht="15.75" customHeight="1">
-      <c r="B632" s="42"/>
+      <c r="B632" s="43"/>
     </row>
     <row r="633" ht="15.75" customHeight="1">
-      <c r="B633" s="42"/>
+      <c r="B633" s="43"/>
     </row>
     <row r="634" ht="15.75" customHeight="1">
-      <c r="B634" s="42"/>
+      <c r="B634" s="43"/>
     </row>
     <row r="635" ht="15.75" customHeight="1">
-      <c r="B635" s="42"/>
+      <c r="B635" s="43"/>
     </row>
     <row r="636" ht="15.75" customHeight="1">
-      <c r="B636" s="42"/>
+      <c r="B636" s="43"/>
     </row>
     <row r="637" ht="15.75" customHeight="1">
-      <c r="B637" s="42"/>
+      <c r="B637" s="43"/>
     </row>
     <row r="638" ht="15.75" customHeight="1">
-      <c r="B638" s="42"/>
+      <c r="B638" s="43"/>
     </row>
     <row r="639" ht="15.75" customHeight="1">
-      <c r="B639" s="42"/>
+      <c r="B639" s="43"/>
     </row>
     <row r="640" ht="15.75" customHeight="1">
-      <c r="B640" s="42"/>
+      <c r="B640" s="43"/>
     </row>
     <row r="641" ht="15.75" customHeight="1">
-      <c r="B641" s="42"/>
+      <c r="B641" s="43"/>
     </row>
     <row r="642" ht="15.75" customHeight="1">
-      <c r="B642" s="42"/>
+      <c r="B642" s="43"/>
     </row>
     <row r="643" ht="15.75" customHeight="1">
-      <c r="B643" s="42"/>
+      <c r="B643" s="43"/>
     </row>
     <row r="644" ht="15.75" customHeight="1">
-      <c r="B644" s="42"/>
+      <c r="B644" s="43"/>
     </row>
     <row r="645" ht="15.75" customHeight="1">
-      <c r="B645" s="42"/>
+      <c r="B645" s="43"/>
     </row>
     <row r="646" ht="15.75" customHeight="1">
-      <c r="B646" s="42"/>
+      <c r="B646" s="43"/>
     </row>
     <row r="647" ht="15.75" customHeight="1">
-      <c r="B647" s="42"/>
+      <c r="B647" s="43"/>
     </row>
     <row r="648" ht="15.75" customHeight="1">
-      <c r="B648" s="42"/>
+      <c r="B648" s="43"/>
     </row>
     <row r="649" ht="15.75" customHeight="1">
-      <c r="B649" s="42"/>
+      <c r="B649" s="43"/>
     </row>
     <row r="650" ht="15.75" customHeight="1">
-      <c r="B650" s="42"/>
+      <c r="B650" s="43"/>
     </row>
     <row r="651" ht="15.75" customHeight="1">
-      <c r="B651" s="42"/>
+      <c r="B651" s="43"/>
     </row>
     <row r="652" ht="15.75" customHeight="1">
-      <c r="B652" s="42"/>
+      <c r="B652" s="43"/>
     </row>
     <row r="653" ht="15.75" customHeight="1">
-      <c r="B653" s="42"/>
+      <c r="B653" s="43"/>
     </row>
     <row r="654" ht="15.75" customHeight="1">
-      <c r="B654" s="42"/>
+      <c r="B654" s="43"/>
     </row>
     <row r="655" ht="15.75" customHeight="1">
-      <c r="B655" s="42"/>
+      <c r="B655" s="43"/>
     </row>
     <row r="656" ht="15.75" customHeight="1">
-      <c r="B656" s="42"/>
+      <c r="B656" s="43"/>
     </row>
     <row r="657" ht="15.75" customHeight="1">
-      <c r="B657" s="42"/>
+      <c r="B657" s="43"/>
     </row>
     <row r="658" ht="15.75" customHeight="1">
-      <c r="B658" s="42"/>
+      <c r="B658" s="43"/>
     </row>
     <row r="659" ht="15.75" customHeight="1">
-      <c r="B659" s="42"/>
+      <c r="B659" s="43"/>
     </row>
     <row r="660" ht="15.75" customHeight="1">
-      <c r="B660" s="42"/>
+      <c r="B660" s="43"/>
     </row>
     <row r="661" ht="15.75" customHeight="1">
-      <c r="B661" s="42"/>
+      <c r="B661" s="43"/>
     </row>
     <row r="662" ht="15.75" customHeight="1">
-      <c r="B662" s="42"/>
+      <c r="B662" s="43"/>
     </row>
     <row r="663" ht="15.75" customHeight="1">
-      <c r="B663" s="42"/>
+      <c r="B663" s="43"/>
     </row>
     <row r="664" ht="15.75" customHeight="1">
-      <c r="B664" s="42"/>
+      <c r="B664" s="43"/>
     </row>
     <row r="665" ht="15.75" customHeight="1">
-      <c r="B665" s="42"/>
+      <c r="B665" s="43"/>
     </row>
     <row r="666" ht="15.75" customHeight="1">
-      <c r="B666" s="42"/>
+      <c r="B666" s="43"/>
     </row>
     <row r="667" ht="15.75" customHeight="1">
-      <c r="B667" s="42"/>
+      <c r="B667" s="43"/>
     </row>
     <row r="668" ht="15.75" customHeight="1">
-      <c r="B668" s="42"/>
+      <c r="B668" s="43"/>
     </row>
     <row r="669" ht="15.75" customHeight="1">
-      <c r="B669" s="42"/>
+      <c r="B669" s="43"/>
     </row>
     <row r="670" ht="15.75" customHeight="1">
-      <c r="B670" s="42"/>
+      <c r="B670" s="43"/>
     </row>
     <row r="671" ht="15.75" customHeight="1">
-      <c r="B671" s="42"/>
+      <c r="B671" s="43"/>
     </row>
     <row r="672" ht="15.75" customHeight="1">
-      <c r="B672" s="42"/>
+      <c r="B672" s="43"/>
     </row>
     <row r="673" ht="15.75" customHeight="1">
-      <c r="B673" s="42"/>
+      <c r="B673" s="43"/>
     </row>
     <row r="674" ht="15.75" customHeight="1">
-      <c r="B674" s="42"/>
+      <c r="B674" s="43"/>
     </row>
     <row r="675" ht="15.75" customHeight="1">
-      <c r="B675" s="42"/>
+      <c r="B675" s="43"/>
     </row>
     <row r="676" ht="15.75" customHeight="1">
-      <c r="B676" s="42"/>
+      <c r="B676" s="43"/>
     </row>
     <row r="677" ht="15.75" customHeight="1">
-      <c r="B677" s="42"/>
+      <c r="B677" s="43"/>
     </row>
     <row r="678" ht="15.75" customHeight="1">
-      <c r="B678" s="42"/>
+      <c r="B678" s="43"/>
     </row>
     <row r="679" ht="15.75" customHeight="1">
-      <c r="B679" s="42"/>
+      <c r="B679" s="43"/>
     </row>
     <row r="680" ht="15.75" customHeight="1">
-      <c r="B680" s="42"/>
+      <c r="B680" s="43"/>
     </row>
     <row r="681" ht="15.75" customHeight="1">
-      <c r="B681" s="42"/>
+      <c r="B681" s="43"/>
     </row>
     <row r="682" ht="15.75" customHeight="1">
-      <c r="B682" s="42"/>
+      <c r="B682" s="43"/>
     </row>
     <row r="683" ht="15.75" customHeight="1">
-      <c r="B683" s="42"/>
+      <c r="B683" s="43"/>
     </row>
     <row r="684" ht="15.75" customHeight="1">
-      <c r="B684" s="42"/>
+      <c r="B684" s="43"/>
     </row>
     <row r="685" ht="15.75" customHeight="1">
-      <c r="B685" s="42"/>
+      <c r="B685" s="43"/>
     </row>
     <row r="686" ht="15.75" customHeight="1">
-      <c r="B686" s="42"/>
+      <c r="B686" s="43"/>
     </row>
     <row r="687" ht="15.75" customHeight="1">
-      <c r="B687" s="42"/>
+      <c r="B687" s="43"/>
     </row>
     <row r="688" ht="15.75" customHeight="1">
-      <c r="B688" s="42"/>
+      <c r="B688" s="43"/>
     </row>
     <row r="689" ht="15.75" customHeight="1">
-      <c r="B689" s="42"/>
+      <c r="B689" s="43"/>
     </row>
     <row r="690" ht="15.75" customHeight="1">
-      <c r="B690" s="42"/>
+      <c r="B690" s="43"/>
     </row>
     <row r="691" ht="15.75" customHeight="1">
-      <c r="B691" s="42"/>
+      <c r="B691" s="43"/>
     </row>
     <row r="692" ht="15.75" customHeight="1">
-      <c r="B692" s="42"/>
+      <c r="B692" s="43"/>
     </row>
     <row r="693" ht="15.75" customHeight="1">
-      <c r="B693" s="42"/>
+      <c r="B693" s="43"/>
     </row>
     <row r="694" ht="15.75" customHeight="1">
-      <c r="B694" s="42"/>
+      <c r="B694" s="43"/>
     </row>
     <row r="695" ht="15.75" customHeight="1">
-      <c r="B695" s="42"/>
+      <c r="B695" s="43"/>
     </row>
     <row r="696" ht="15.75" customHeight="1">
-      <c r="B696" s="42"/>
+      <c r="B696" s="43"/>
     </row>
     <row r="697" ht="15.75" customHeight="1">
-      <c r="B697" s="42"/>
+      <c r="B697" s="43"/>
     </row>
     <row r="698" ht="15.75" customHeight="1">
-      <c r="B698" s="42"/>
+      <c r="B698" s="43"/>
     </row>
     <row r="699" ht="15.75" customHeight="1">
-      <c r="B699" s="42"/>
+      <c r="B699" s="43"/>
     </row>
     <row r="700" ht="15.75" customHeight="1">
-      <c r="B700" s="42"/>
+      <c r="B700" s="43"/>
     </row>
     <row r="701" ht="15.75" customHeight="1">
-      <c r="B701" s="42"/>
+      <c r="B701" s="43"/>
     </row>
     <row r="702" ht="15.75" customHeight="1">
-      <c r="B702" s="42"/>
+      <c r="B702" s="43"/>
     </row>
     <row r="703" ht="15.75" customHeight="1">
-      <c r="B703" s="42"/>
+      <c r="B703" s="43"/>
     </row>
     <row r="704" ht="15.75" customHeight="1">
-      <c r="B704" s="42"/>
+      <c r="B704" s="43"/>
     </row>
     <row r="705" ht="15.75" customHeight="1">
-      <c r="B705" s="42"/>
+      <c r="B705" s="43"/>
     </row>
     <row r="706" ht="15.75" customHeight="1">
-      <c r="B706" s="42"/>
+      <c r="B706" s="43"/>
     </row>
     <row r="707" ht="15.75" customHeight="1">
-      <c r="B707" s="42"/>
+      <c r="B707" s="43"/>
     </row>
     <row r="708" ht="15.75" customHeight="1">
-      <c r="B708" s="42"/>
+      <c r="B708" s="43"/>
     </row>
     <row r="709" ht="15.75" customHeight="1">
-      <c r="B709" s="42"/>
+      <c r="B709" s="43"/>
     </row>
     <row r="710" ht="15.75" customHeight="1">
-      <c r="B710" s="42"/>
+      <c r="B710" s="43"/>
     </row>
     <row r="711" ht="15.75" customHeight="1">
-      <c r="B711" s="42"/>
+      <c r="B711" s="43"/>
     </row>
     <row r="712" ht="15.75" customHeight="1">
-      <c r="B712" s="42"/>
+      <c r="B712" s="43"/>
     </row>
     <row r="713" ht="15.75" customHeight="1">
-      <c r="B713" s="42"/>
+      <c r="B713" s="43"/>
     </row>
     <row r="714" ht="15.75" customHeight="1">
-      <c r="B714" s="42"/>
+      <c r="B714" s="43"/>
     </row>
     <row r="715" ht="15.75" customHeight="1">
-      <c r="B715" s="42"/>
+      <c r="B715" s="43"/>
     </row>
     <row r="716" ht="15.75" customHeight="1">
-      <c r="B716" s="42"/>
+      <c r="B716" s="43"/>
     </row>
     <row r="717" ht="15.75" customHeight="1">
-      <c r="B717" s="42"/>
+      <c r="B717" s="43"/>
     </row>
     <row r="718" ht="15.75" customHeight="1">
-      <c r="B718" s="42"/>
+      <c r="B718" s="43"/>
     </row>
     <row r="719" ht="15.75" customHeight="1">
-      <c r="B719" s="42"/>
+      <c r="B719" s="43"/>
     </row>
     <row r="720" ht="15.75" customHeight="1">
-      <c r="B720" s="42"/>
+      <c r="B720" s="43"/>
     </row>
     <row r="721" ht="15.75" customHeight="1">
-      <c r="B721" s="42"/>
+      <c r="B721" s="43"/>
     </row>
     <row r="722" ht="15.75" customHeight="1">
-      <c r="B722" s="42"/>
+      <c r="B722" s="43"/>
     </row>
     <row r="723" ht="15.75" customHeight="1">
-      <c r="B723" s="42"/>
+      <c r="B723" s="43"/>
     </row>
     <row r="724" ht="15.75" customHeight="1">
-      <c r="B724" s="42"/>
+      <c r="B724" s="43"/>
     </row>
     <row r="725" ht="15.75" customHeight="1">
-      <c r="B725" s="42"/>
+      <c r="B725" s="43"/>
     </row>
     <row r="726" ht="15.75" customHeight="1">
-      <c r="B726" s="42"/>
+      <c r="B726" s="43"/>
     </row>
     <row r="727" ht="15.75" customHeight="1">
-      <c r="B727" s="42"/>
+      <c r="B727" s="43"/>
     </row>
     <row r="728" ht="15.75" customHeight="1">
-      <c r="B728" s="42"/>
+      <c r="B728" s="43"/>
     </row>
     <row r="729" ht="15.75" customHeight="1">
-      <c r="B729" s="42"/>
+      <c r="B729" s="43"/>
     </row>
     <row r="730" ht="15.75" customHeight="1">
-      <c r="B730" s="42"/>
+      <c r="B730" s="43"/>
     </row>
     <row r="731" ht="15.75" customHeight="1">
-      <c r="B731" s="42"/>
+      <c r="B731" s="43"/>
     </row>
     <row r="732" ht="15.75" customHeight="1">
-      <c r="B732" s="42"/>
+      <c r="B732" s="43"/>
     </row>
     <row r="733" ht="15.75" customHeight="1">
-      <c r="B733" s="42"/>
+      <c r="B733" s="43"/>
     </row>
     <row r="734" ht="15.75" customHeight="1">
-      <c r="B734" s="42"/>
+      <c r="B734" s="43"/>
     </row>
     <row r="735" ht="15.75" customHeight="1">
-      <c r="B735" s="42"/>
+      <c r="B735" s="43"/>
     </row>
     <row r="736" ht="15.75" customHeight="1">
-      <c r="B736" s="42"/>
+      <c r="B736" s="43"/>
     </row>
     <row r="737" ht="15.75" customHeight="1">
-      <c r="B737" s="42"/>
+      <c r="B737" s="43"/>
     </row>
     <row r="738" ht="15.75" customHeight="1">
-      <c r="B738" s="42"/>
+      <c r="B738" s="43"/>
     </row>
     <row r="739" ht="15.75" customHeight="1">
-      <c r="B739" s="42"/>
+      <c r="B739" s="43"/>
     </row>
     <row r="740" ht="15.75" customHeight="1">
-      <c r="B740" s="42"/>
+      <c r="B740" s="43"/>
     </row>
     <row r="741" ht="15.75" customHeight="1">
-      <c r="B741" s="42"/>
+      <c r="B741" s="43"/>
     </row>
     <row r="742" ht="15.75" customHeight="1">
-      <c r="B742" s="42"/>
+      <c r="B742" s="43"/>
     </row>
     <row r="743" ht="15.75" customHeight="1">
-      <c r="B743" s="42"/>
+      <c r="B743" s="43"/>
     </row>
     <row r="744" ht="15.75" customHeight="1">
-      <c r="B744" s="42"/>
+      <c r="B744" s="43"/>
     </row>
     <row r="745" ht="15.75" customHeight="1">
-      <c r="B745" s="42"/>
+      <c r="B745" s="43"/>
     </row>
     <row r="746" ht="15.75" customHeight="1">
-      <c r="B746" s="42"/>
+      <c r="B746" s="43"/>
     </row>
     <row r="747" ht="15.75" customHeight="1">
-      <c r="B747" s="42"/>
+      <c r="B747" s="43"/>
     </row>
     <row r="748" ht="15.75" customHeight="1">
-      <c r="B748" s="42"/>
+      <c r="B748" s="43"/>
     </row>
     <row r="749" ht="15.75" customHeight="1">
-      <c r="B749" s="42"/>
+      <c r="B749" s="43"/>
     </row>
     <row r="750" ht="15.75" customHeight="1">
-      <c r="B750" s="42"/>
+      <c r="B750" s="43"/>
     </row>
     <row r="751" ht="15.75" customHeight="1">
-      <c r="B751" s="42"/>
+      <c r="B751" s="43"/>
     </row>
     <row r="752" ht="15.75" customHeight="1">
-      <c r="B752" s="42"/>
+      <c r="B752" s="43"/>
     </row>
     <row r="753" ht="15.75" customHeight="1">
-      <c r="B753" s="42"/>
+      <c r="B753" s="43"/>
     </row>
     <row r="754" ht="15.75" customHeight="1">
-      <c r="B754" s="42"/>
+      <c r="B754" s="43"/>
     </row>
     <row r="755" ht="15.75" customHeight="1">
-      <c r="B755" s="42"/>
+      <c r="B755" s="43"/>
     </row>
     <row r="756" ht="15.75" customHeight="1">
-      <c r="B756" s="42"/>
+      <c r="B756" s="43"/>
     </row>
     <row r="757" ht="15.75" customHeight="1">
-      <c r="B757" s="42"/>
+      <c r="B757" s="43"/>
     </row>
     <row r="758" ht="15.75" customHeight="1">
-      <c r="B758" s="42"/>
+      <c r="B758" s="43"/>
     </row>
     <row r="759" ht="15.75" customHeight="1">
-      <c r="B759" s="42"/>
+      <c r="B759" s="43"/>
     </row>
     <row r="760" ht="15.75" customHeight="1">
-      <c r="B760" s="42"/>
+      <c r="B760" s="43"/>
     </row>
     <row r="761" ht="15.75" customHeight="1">
-      <c r="B761" s="42"/>
+      <c r="B761" s="43"/>
     </row>
     <row r="762" ht="15.75" customHeight="1">
-      <c r="B762" s="42"/>
+      <c r="B762" s="43"/>
     </row>
     <row r="763" ht="15.75" customHeight="1">
-      <c r="B763" s="42"/>
+      <c r="B763" s="43"/>
     </row>
     <row r="764" ht="15.75" customHeight="1">
-      <c r="B764" s="42"/>
+      <c r="B764" s="43"/>
     </row>
     <row r="765" ht="15.75" customHeight="1">
-      <c r="B765" s="42"/>
+      <c r="B765" s="43"/>
     </row>
     <row r="766" ht="15.75" customHeight="1">
-      <c r="B766" s="42"/>
+      <c r="B766" s="43"/>
     </row>
     <row r="767" ht="15.75" customHeight="1">
-      <c r="B767" s="42"/>
+      <c r="B767" s="43"/>
     </row>
     <row r="768" ht="15.75" customHeight="1">
-      <c r="B768" s="42"/>
+      <c r="B768" s="43"/>
     </row>
     <row r="769" ht="15.75" customHeight="1">
-      <c r="B769" s="42"/>
+      <c r="B769" s="43"/>
     </row>
     <row r="770" ht="15.75" customHeight="1">
-      <c r="B770" s="42"/>
+      <c r="B770" s="43"/>
     </row>
     <row r="771" ht="15.75" customHeight="1">
-      <c r="B771" s="42"/>
+      <c r="B771" s="43"/>
     </row>
     <row r="772" ht="15.75" customHeight="1">
-      <c r="B772" s="42"/>
+      <c r="B772" s="43"/>
     </row>
     <row r="773" ht="15.75" customHeight="1">
-      <c r="B773" s="42"/>
+      <c r="B773" s="43"/>
     </row>
     <row r="774" ht="15.75" customHeight="1">
-      <c r="B774" s="42"/>
+      <c r="B774" s="43"/>
     </row>
     <row r="775" ht="15.75" customHeight="1">
-      <c r="B775" s="42"/>
+      <c r="B775" s="43"/>
     </row>
     <row r="776" ht="15.75" customHeight="1">
-      <c r="B776" s="42"/>
+      <c r="B776" s="43"/>
     </row>
     <row r="777" ht="15.75" customHeight="1">
-      <c r="B777" s="42"/>
+      <c r="B777" s="43"/>
     </row>
     <row r="778" ht="15.75" customHeight="1">
-      <c r="B778" s="42"/>
+      <c r="B778" s="43"/>
     </row>
     <row r="779" ht="15.75" customHeight="1">
-      <c r="B779" s="42"/>
+      <c r="B779" s="43"/>
     </row>
     <row r="780" ht="15.75" customHeight="1">
-      <c r="B780" s="42"/>
+      <c r="B780" s="43"/>
     </row>
     <row r="781" ht="15.75" customHeight="1">
-      <c r="B781" s="42"/>
+      <c r="B781" s="43"/>
     </row>
     <row r="782" ht="15.75" customHeight="1">
-      <c r="B782" s="42"/>
+      <c r="B782" s="43"/>
     </row>
     <row r="783" ht="15.75" customHeight="1">
-      <c r="B783" s="42"/>
+      <c r="B783" s="43"/>
     </row>
     <row r="784" ht="15.75" customHeight="1">
-      <c r="B784" s="42"/>
+      <c r="B784" s="43"/>
     </row>
     <row r="785" ht="15.75" customHeight="1">
-      <c r="B785" s="42"/>
+      <c r="B785" s="43"/>
     </row>
     <row r="786" ht="15.75" customHeight="1">
-      <c r="B786" s="42"/>
+      <c r="B786" s="43"/>
     </row>
     <row r="787" ht="15.75" customHeight="1">
-      <c r="B787" s="42"/>
+      <c r="B787" s="43"/>
     </row>
     <row r="788" ht="15.75" customHeight="1">
-      <c r="B788" s="42"/>
+      <c r="B788" s="43"/>
     </row>
     <row r="789" ht="15.75" customHeight="1">
-      <c r="B789" s="42"/>
+      <c r="B789" s="43"/>
     </row>
     <row r="790" ht="15.75" customHeight="1">
-      <c r="B790" s="42"/>
+      <c r="B790" s="43"/>
     </row>
     <row r="791" ht="15.75" customHeight="1">
-      <c r="B791" s="42"/>
+      <c r="B791" s="43"/>
     </row>
     <row r="792" ht="15.75" customHeight="1">
-      <c r="B792" s="42"/>
+      <c r="B792" s="43"/>
     </row>
     <row r="793" ht="15.75" customHeight="1">
-      <c r="B793" s="42"/>
+      <c r="B793" s="43"/>
     </row>
     <row r="794" ht="15.75" customHeight="1">
-      <c r="B794" s="42"/>
+      <c r="B794" s="43"/>
     </row>
     <row r="795" ht="15.75" customHeight="1">
-      <c r="B795" s="42"/>
+      <c r="B795" s="43"/>
     </row>
     <row r="796" ht="15.75" customHeight="1">
-      <c r="B796" s="42"/>
+      <c r="B796" s="43"/>
     </row>
     <row r="797" ht="15.75" customHeight="1">
-      <c r="B797" s="42"/>
+      <c r="B797" s="43"/>
     </row>
     <row r="798" ht="15.75" customHeight="1">
-      <c r="B798" s="42"/>
+      <c r="B798" s="43"/>
     </row>
     <row r="799" ht="15.75" customHeight="1">
-      <c r="B799" s="42"/>
+      <c r="B799" s="43"/>
     </row>
     <row r="800" ht="15.75" customHeight="1">
-      <c r="B800" s="42"/>
+      <c r="B800" s="43"/>
     </row>
     <row r="801" ht="15.75" customHeight="1">
-      <c r="B801" s="42"/>
+      <c r="B801" s="43"/>
     </row>
     <row r="802" ht="15.75" customHeight="1">
-      <c r="B802" s="42"/>
+      <c r="B802" s="43"/>
     </row>
     <row r="803" ht="15.75" customHeight="1">
-      <c r="B803" s="42"/>
+      <c r="B803" s="43"/>
     </row>
     <row r="804" ht="15.75" customHeight="1">
-      <c r="B804" s="42"/>
+      <c r="B804" s="43"/>
     </row>
     <row r="805" ht="15.75" customHeight="1">
-      <c r="B805" s="42"/>
+      <c r="B805" s="43"/>
     </row>
     <row r="806" ht="15.75" customHeight="1">
-      <c r="B806" s="42"/>
+      <c r="B806" s="43"/>
     </row>
     <row r="807" ht="15.75" customHeight="1">
-      <c r="B807" s="42"/>
+      <c r="B807" s="43"/>
     </row>
     <row r="808" ht="15.75" customHeight="1">
-      <c r="B808" s="42"/>
+      <c r="B808" s="43"/>
     </row>
     <row r="809" ht="15.75" customHeight="1">
-      <c r="B809" s="42"/>
+      <c r="B809" s="43"/>
     </row>
     <row r="810" ht="15.75" customHeight="1">
-      <c r="B810" s="42"/>
+      <c r="B810" s="43"/>
     </row>
     <row r="811" ht="15.75" customHeight="1">
-      <c r="B811" s="42"/>
+      <c r="B811" s="43"/>
     </row>
     <row r="812" ht="15.75" customHeight="1">
-      <c r="B812" s="42"/>
+      <c r="B812" s="43"/>
     </row>
     <row r="813" ht="15.75" customHeight="1">
-      <c r="B813" s="42"/>
+      <c r="B813" s="43"/>
     </row>
     <row r="814" ht="15.75" customHeight="1">
-      <c r="B814" s="42"/>
+      <c r="B814" s="43"/>
     </row>
     <row r="815" ht="15.75" customHeight="1">
-      <c r="B815" s="42"/>
+      <c r="B815" s="43"/>
     </row>
     <row r="816" ht="15.75" customHeight="1">
-      <c r="B816" s="42"/>
+      <c r="B816" s="43"/>
     </row>
     <row r="817" ht="15.75" customHeight="1">
-      <c r="B817" s="42"/>
+      <c r="B817" s="43"/>
     </row>
     <row r="818" ht="15.75" customHeight="1">
-      <c r="B818" s="42"/>
+      <c r="B818" s="43"/>
     </row>
     <row r="819" ht="15.75" customHeight="1">
-      <c r="B819" s="42"/>
+      <c r="B819" s="43"/>
     </row>
     <row r="820" ht="15.75" customHeight="1">
-      <c r="B820" s="42"/>
+      <c r="B820" s="43"/>
     </row>
     <row r="821" ht="15.75" customHeight="1">
-      <c r="B821" s="42"/>
+      <c r="B821" s="43"/>
     </row>
     <row r="822" ht="15.75" customHeight="1">
-      <c r="B822" s="42"/>
+      <c r="B822" s="43"/>
     </row>
     <row r="823" ht="15.75" customHeight="1">
-      <c r="B823" s="42"/>
+      <c r="B823" s="43"/>
     </row>
     <row r="824" ht="15.75" customHeight="1">
-      <c r="B824" s="42"/>
+      <c r="B824" s="43"/>
     </row>
     <row r="825" ht="15.75" customHeight="1">
-      <c r="B825" s="42"/>
+      <c r="B825" s="43"/>
     </row>
     <row r="826" ht="15.75" customHeight="1">
-      <c r="B826" s="42"/>
+      <c r="B826" s="43"/>
     </row>
     <row r="827" ht="15.75" customHeight="1">
-      <c r="B827" s="42"/>
+      <c r="B827" s="43"/>
     </row>
     <row r="828" ht="15.75" customHeight="1">
-      <c r="B828" s="42"/>
+      <c r="B828" s="43"/>
     </row>
     <row r="829" ht="15.75" customHeight="1">
-      <c r="B829" s="42"/>
+      <c r="B829" s="43"/>
     </row>
     <row r="830" ht="15.75" customHeight="1">
-      <c r="B830" s="42"/>
+      <c r="B830" s="43"/>
     </row>
     <row r="831" ht="15.75" customHeight="1">
-      <c r="B831" s="42"/>
+      <c r="B831" s="43"/>
     </row>
     <row r="832" ht="15.75" customHeight="1">
-      <c r="B832" s="42"/>
+      <c r="B832" s="43"/>
     </row>
     <row r="833" ht="15.75" customHeight="1">
-      <c r="B833" s="42"/>
+      <c r="B833" s="43"/>
     </row>
     <row r="834" ht="15.75" customHeight="1">
-      <c r="B834" s="42"/>
+      <c r="B834" s="43"/>
     </row>
     <row r="835" ht="15.75" customHeight="1">
-      <c r="B835" s="42"/>
+      <c r="B835" s="43"/>
     </row>
     <row r="836" ht="15.75" customHeight="1">
-      <c r="B836" s="42"/>
+      <c r="B836" s="43"/>
     </row>
     <row r="837" ht="15.75" customHeight="1">
-      <c r="B837" s="42"/>
+      <c r="B837" s="43"/>
     </row>
     <row r="838" ht="15.75" customHeight="1">
-      <c r="B838" s="42"/>
+      <c r="B838" s="43"/>
     </row>
     <row r="839" ht="15.75" customHeight="1">
-      <c r="B839" s="42"/>
+      <c r="B839" s="43"/>
     </row>
     <row r="840" ht="15.75" customHeight="1">
-      <c r="B840" s="42"/>
+      <c r="B840" s="43"/>
     </row>
     <row r="841" ht="15.75" customHeight="1">
-      <c r="B841" s="42"/>
+      <c r="B841" s="43"/>
     </row>
     <row r="842" ht="15.75" customHeight="1">
-      <c r="B842" s="42"/>
+      <c r="B842" s="43"/>
     </row>
     <row r="843" ht="15.75" customHeight="1">
-      <c r="B843" s="42"/>
+      <c r="B843" s="43"/>
     </row>
     <row r="844" ht="15.75" customHeight="1">
-      <c r="B844" s="42"/>
+      <c r="B844" s="43"/>
     </row>
     <row r="845" ht="15.75" customHeight="1">
-      <c r="B845" s="42"/>
+      <c r="B845" s="43"/>
     </row>
     <row r="846" ht="15.75" customHeight="1">
-      <c r="B846" s="42"/>
+      <c r="B846" s="43"/>
     </row>
     <row r="847" ht="15.75" customHeight="1">
-      <c r="B847" s="42"/>
+      <c r="B847" s="43"/>
     </row>
     <row r="848" ht="15.75" customHeight="1">
-      <c r="B848" s="42"/>
+      <c r="B848" s="43"/>
     </row>
     <row r="849" ht="15.75" customHeight="1">
-      <c r="B849" s="42"/>
+      <c r="B849" s="43"/>
     </row>
     <row r="850" ht="15.75" customHeight="1">
-      <c r="B850" s="42"/>
+      <c r="B850" s="43"/>
     </row>
     <row r="851" ht="15.75" customHeight="1">
-      <c r="B851" s="42"/>
+      <c r="B851" s="43"/>
     </row>
     <row r="852" ht="15.75" customHeight="1">
-      <c r="B852" s="42"/>
+      <c r="B852" s="43"/>
     </row>
     <row r="853" ht="15.75" customHeight="1">
-      <c r="B853" s="42"/>
+      <c r="B853" s="43"/>
     </row>
     <row r="854" ht="15.75" customHeight="1">
-      <c r="B854" s="42"/>
+      <c r="B854" s="43"/>
     </row>
     <row r="855" ht="15.75" customHeight="1">
-      <c r="B855" s="42"/>
+      <c r="B855" s="43"/>
     </row>
     <row r="856" ht="15.75" customHeight="1">
-      <c r="B856" s="42"/>
+      <c r="B856" s="43"/>
     </row>
     <row r="857" ht="15.75" customHeight="1">
-      <c r="B857" s="42"/>
+      <c r="B857" s="43"/>
     </row>
     <row r="858" ht="15.75" customHeight="1">
-      <c r="B858" s="42"/>
+      <c r="B858" s="43"/>
     </row>
     <row r="859" ht="15.75" customHeight="1">
-      <c r="B859" s="42"/>
+      <c r="B859" s="43"/>
     </row>
     <row r="860" ht="15.75" customHeight="1">
-      <c r="B860" s="42"/>
+      <c r="B860" s="43"/>
     </row>
     <row r="861" ht="15.75" customHeight="1">
-      <c r="B861" s="42"/>
+      <c r="B861" s="43"/>
     </row>
     <row r="862" ht="15.75" customHeight="1">
-      <c r="B862" s="42"/>
+      <c r="B862" s="43"/>
     </row>
     <row r="863" ht="15.75" customHeight="1">
-      <c r="B863" s="42"/>
+      <c r="B863" s="43"/>
     </row>
     <row r="864" ht="15.75" customHeight="1">
-      <c r="B864" s="42"/>
+      <c r="B864" s="43"/>
     </row>
     <row r="865" ht="15.75" customHeight="1">
-      <c r="B865" s="42"/>
+      <c r="B865" s="43"/>
     </row>
     <row r="866" ht="15.75" customHeight="1">
-      <c r="B866" s="42"/>
+      <c r="B866" s="43"/>
     </row>
     <row r="867" ht="15.75" customHeight="1">
-      <c r="B867" s="42"/>
+      <c r="B867" s="43"/>
     </row>
     <row r="868" ht="15.75" customHeight="1">
-      <c r="B868" s="42"/>
+      <c r="B868" s="43"/>
     </row>
     <row r="869" ht="15.75" customHeight="1">
-      <c r="B869" s="42"/>
+      <c r="B869" s="43"/>
     </row>
     <row r="870" ht="15.75" customHeight="1">
-      <c r="B870" s="42"/>
+      <c r="B870" s="43"/>
     </row>
     <row r="871" ht="15.75" customHeight="1">
-      <c r="B871" s="42"/>
+      <c r="B871" s="43"/>
     </row>
     <row r="872" ht="15.75" customHeight="1">
-      <c r="B872" s="42"/>
+      <c r="B872" s="43"/>
     </row>
     <row r="873" ht="15.75" customHeight="1">
-      <c r="B873" s="42"/>
+      <c r="B873" s="43"/>
     </row>
     <row r="874" ht="15.75" customHeight="1">
-      <c r="B874" s="42"/>
+      <c r="B874" s="43"/>
     </row>
     <row r="875" ht="15.75" customHeight="1">
-      <c r="B875" s="42"/>
+      <c r="B875" s="43"/>
     </row>
     <row r="876" ht="15.75" customHeight="1">
-      <c r="B876" s="42"/>
+      <c r="B876" s="43"/>
     </row>
     <row r="877" ht="15.75" customHeight="1">
-      <c r="B877" s="42"/>
+      <c r="B877" s="43"/>
     </row>
     <row r="878" ht="15.75" customHeight="1">
-      <c r="B878" s="42"/>
+      <c r="B878" s="43"/>
     </row>
     <row r="879" ht="15.75" customHeight="1">
-      <c r="B879" s="42"/>
+      <c r="B879" s="43"/>
     </row>
     <row r="880" ht="15.75" customHeight="1">
-      <c r="B880" s="42"/>
+      <c r="B880" s="43"/>
     </row>
     <row r="881" ht="15.75" customHeight="1">
-      <c r="B881" s="42"/>
+      <c r="B881" s="43"/>
     </row>
     <row r="882" ht="15.75" customHeight="1">
-      <c r="B882" s="42"/>
+      <c r="B882" s="43"/>
     </row>
     <row r="883" ht="15.75" customHeight="1">
-      <c r="B883" s="42"/>
+      <c r="B883" s="43"/>
     </row>
     <row r="884" ht="15.75" customHeight="1">
-      <c r="B884" s="42"/>
+      <c r="B884" s="43"/>
     </row>
     <row r="885" ht="15.75" customHeight="1">
-      <c r="B885" s="42"/>
+      <c r="B885" s="43"/>
     </row>
     <row r="886" ht="15.75" customHeight="1">
-      <c r="B886" s="42"/>
+      <c r="B886" s="43"/>
     </row>
     <row r="887" ht="15.75" customHeight="1">
-      <c r="B887" s="42"/>
+      <c r="B887" s="43"/>
     </row>
     <row r="888" ht="15.75" customHeight="1">
-      <c r="B888" s="42"/>
+      <c r="B888" s="43"/>
     </row>
     <row r="889" ht="15.75" customHeight="1">
-      <c r="B889" s="42"/>
+      <c r="B889" s="43"/>
     </row>
     <row r="890" ht="15.75" customHeight="1">
-      <c r="B890" s="42"/>
+      <c r="B890" s="43"/>
     </row>
     <row r="891" ht="15.75" customHeight="1">
-      <c r="B891" s="42"/>
+      <c r="B891" s="43"/>
     </row>
     <row r="892" ht="15.75" customHeight="1">
-      <c r="B892" s="42"/>
+      <c r="B892" s="43"/>
     </row>
     <row r="893" ht="15.75" customHeight="1">
-      <c r="B893" s="42"/>
+      <c r="B893" s="43"/>
     </row>
     <row r="894" ht="15.75" customHeight="1">
-      <c r="B894" s="42"/>
+      <c r="B894" s="43"/>
     </row>
     <row r="895" ht="15.75" customHeight="1">
-      <c r="B895" s="42"/>
+      <c r="B895" s="43"/>
     </row>
     <row r="896" ht="15.75" customHeight="1">
-      <c r="B896" s="42"/>
+      <c r="B896" s="43"/>
     </row>
     <row r="897" ht="15.75" customHeight="1">
-      <c r="B897" s="42"/>
+      <c r="B897" s="43"/>
     </row>
     <row r="898" ht="15.75" customHeight="1">
-      <c r="B898" s="42"/>
+      <c r="B898" s="43"/>
     </row>
     <row r="899" ht="15.75" customHeight="1">
-      <c r="B899" s="42"/>
+      <c r="B899" s="43"/>
     </row>
     <row r="900" ht="15.75" customHeight="1">
-      <c r="B900" s="42"/>
+      <c r="B900" s="43"/>
     </row>
     <row r="901" ht="15.75" customHeight="1">
-      <c r="B901" s="42"/>
+      <c r="B901" s="43"/>
     </row>
     <row r="902" ht="15.75" customHeight="1">
-      <c r="B902" s="42"/>
+      <c r="B902" s="43"/>
     </row>
     <row r="903" ht="15.75" customHeight="1">
-      <c r="B903" s="42"/>
+      <c r="B903" s="43"/>
     </row>
     <row r="904" ht="15.75" customHeight="1">
-      <c r="B904" s="42"/>
+      <c r="B904" s="43"/>
     </row>
     <row r="905" ht="15.75" customHeight="1">
-      <c r="B905" s="42"/>
+      <c r="B905" s="43"/>
     </row>
     <row r="906" ht="15.75" customHeight="1">
-      <c r="B906" s="42"/>
+      <c r="B906" s="43"/>
     </row>
     <row r="907" ht="15.75" customHeight="1">
-      <c r="B907" s="42"/>
+      <c r="B907" s="43"/>
     </row>
     <row r="908" ht="15.75" customHeight="1">
-      <c r="B908" s="42"/>
+      <c r="B908" s="43"/>
     </row>
     <row r="909" ht="15.75" customHeight="1">
-      <c r="B909" s="42"/>
+      <c r="B909" s="43"/>
     </row>
     <row r="910" ht="15.75" customHeight="1">
-      <c r="B910" s="42"/>
+      <c r="B910" s="43"/>
     </row>
     <row r="911" ht="15.75" customHeight="1">
-      <c r="B911" s="42"/>
+      <c r="B911" s="43"/>
     </row>
     <row r="912" ht="15.75" customHeight="1">
-      <c r="B912" s="42"/>
+      <c r="B912" s="43"/>
     </row>
     <row r="913" ht="15.75" customHeight="1">
-      <c r="B913" s="42"/>
+      <c r="B913" s="43"/>
     </row>
     <row r="914" ht="15.75" customHeight="1">
-      <c r="B914" s="42"/>
+      <c r="B914" s="43"/>
     </row>
     <row r="915" ht="15.75" customHeight="1">
-      <c r="B915" s="42"/>
+      <c r="B915" s="43"/>
     </row>
     <row r="916" ht="15.75" customHeight="1">
-      <c r="B916" s="42"/>
+      <c r="B916" s="43"/>
     </row>
     <row r="917" ht="15.75" customHeight="1">
-      <c r="B917" s="42"/>
+      <c r="B917" s="43"/>
     </row>
     <row r="918" ht="15.75" customHeight="1">
-      <c r="B918" s="42"/>
+      <c r="B918" s="43"/>
     </row>
     <row r="919" ht="15.75" customHeight="1">
-      <c r="B919" s="42"/>
+      <c r="B919" s="43"/>
     </row>
     <row r="920" ht="15.75" customHeight="1">
-      <c r="B920" s="42"/>
+      <c r="B920" s="43"/>
     </row>
     <row r="921" ht="15.75" customHeight="1">
-      <c r="B921" s="42"/>
+      <c r="B921" s="43"/>
     </row>
     <row r="922" ht="15.75" customHeight="1">
-      <c r="B922" s="42"/>
+      <c r="B922" s="43"/>
     </row>
     <row r="923" ht="15.75" customHeight="1">
-      <c r="B923" s="42"/>
+      <c r="B923" s="43"/>
     </row>
     <row r="924" ht="15.75" customHeight="1">
-      <c r="B924" s="42"/>
+      <c r="B924" s="43"/>
     </row>
     <row r="925" ht="15.75" customHeight="1">
-      <c r="B925" s="42"/>
+      <c r="B925" s="43"/>
     </row>
     <row r="926" ht="15.75" customHeight="1">
-      <c r="B926" s="42"/>
+      <c r="B926" s="43"/>
     </row>
     <row r="927" ht="15.75" customHeight="1">
-      <c r="B927" s="42"/>
+      <c r="B927" s="43"/>
     </row>
     <row r="928" ht="15.75" customHeight="1">
-      <c r="B928" s="42"/>
+      <c r="B928" s="43"/>
     </row>
     <row r="929" ht="15.75" customHeight="1">
-      <c r="B929" s="42"/>
+      <c r="B929" s="43"/>
     </row>
     <row r="930" ht="15.75" customHeight="1">
-      <c r="B930" s="42"/>
+      <c r="B930" s="43"/>
     </row>
     <row r="931" ht="15.75" customHeight="1">
-      <c r="B931" s="42"/>
+      <c r="B931" s="43"/>
     </row>
     <row r="932" ht="15.75" customHeight="1">
-      <c r="B932" s="42"/>
+      <c r="B932" s="43"/>
     </row>
     <row r="933" ht="15.75" customHeight="1">
-      <c r="B933" s="42"/>
+      <c r="B933" s="43"/>
     </row>
     <row r="934" ht="15.75" customHeight="1">
-      <c r="B934" s="42"/>
+      <c r="B934" s="43"/>
     </row>
     <row r="935" ht="15.75" customHeight="1">
-      <c r="B935" s="42"/>
+      <c r="B935" s="43"/>
     </row>
     <row r="936" ht="15.75" customHeight="1">
-      <c r="B936" s="42"/>
+      <c r="B936" s="43"/>
     </row>
     <row r="937" ht="15.75" customHeight="1">
-      <c r="B937" s="42"/>
+      <c r="B937" s="43"/>
     </row>
     <row r="938" ht="15.75" customHeight="1">
-      <c r="B938" s="42"/>
+      <c r="B938" s="43"/>
     </row>
     <row r="939" ht="15.75" customHeight="1">
-      <c r="B939" s="42"/>
+      <c r="B939" s="43"/>
     </row>
     <row r="940" ht="15.75" customHeight="1">
-      <c r="B940" s="42"/>
+      <c r="B940" s="43"/>
     </row>
     <row r="941" ht="15.75" customHeight="1">
-      <c r="B941" s="42"/>
+      <c r="B941" s="43"/>
     </row>
     <row r="942" ht="15.75" customHeight="1">
-      <c r="B942" s="42"/>
+      <c r="B942" s="43"/>
     </row>
     <row r="943" ht="15.75" customHeight="1">
-      <c r="B943" s="42"/>
+      <c r="B943" s="43"/>
     </row>
     <row r="944" ht="15.75" customHeight="1">
-      <c r="B944" s="42"/>
+      <c r="B944" s="43"/>
     </row>
     <row r="945" ht="15.75" customHeight="1">
-      <c r="B945" s="42"/>
+      <c r="B945" s="43"/>
     </row>
     <row r="946" ht="15.75" customHeight="1">
-      <c r="B946" s="42"/>
+      <c r="B946" s="43"/>
     </row>
     <row r="947" ht="15.75" customHeight="1">
-      <c r="B947" s="42"/>
+      <c r="B947" s="43"/>
     </row>
     <row r="948" ht="15.75" customHeight="1">
-      <c r="B948" s="42"/>
+      <c r="B948" s="43"/>
     </row>
     <row r="949" ht="15.75" customHeight="1">
-      <c r="B949" s="42"/>
+      <c r="B949" s="43"/>
     </row>
     <row r="950" ht="15.75" customHeight="1">
-      <c r="B950" s="42"/>
+      <c r="B950" s="43"/>
     </row>
     <row r="951" ht="15.75" customHeight="1">
-      <c r="B951" s="42"/>
+      <c r="B951" s="43"/>
     </row>
     <row r="952" ht="15.75" customHeight="1">
-      <c r="B952" s="42"/>
+      <c r="B952" s="43"/>
     </row>
     <row r="953" ht="15.75" customHeight="1">
-      <c r="B953" s="42"/>
+      <c r="B953" s="43"/>
     </row>
     <row r="954" ht="15.75" customHeight="1">
-      <c r="B954" s="42"/>
+      <c r="B954" s="43"/>
     </row>
     <row r="955" ht="15.75" customHeight="1">
-      <c r="B955" s="42"/>
+      <c r="B955" s="43"/>
     </row>
     <row r="956" ht="15.75" customHeight="1">
-      <c r="B956" s="42"/>
+      <c r="B956" s="43"/>
     </row>
     <row r="957" ht="15.75" customHeight="1">
-      <c r="B957" s="42"/>
+      <c r="B957" s="43"/>
     </row>
     <row r="958" ht="15.75" customHeight="1">
-      <c r="B958" s="42"/>
+      <c r="B958" s="43"/>
     </row>
     <row r="959" ht="15.75" customHeight="1">
-      <c r="B959" s="42"/>
+      <c r="B959" s="43"/>
     </row>
     <row r="960" ht="15.75" customHeight="1">
-      <c r="B960" s="42"/>
+      <c r="B960" s="43"/>
     </row>
     <row r="961" ht="15.75" customHeight="1">
-      <c r="B961" s="42"/>
+      <c r="B961" s="43"/>
     </row>
     <row r="962" ht="15.75" customHeight="1">
-      <c r="B962" s="42"/>
+      <c r="B962" s="43"/>
     </row>
     <row r="963" ht="15.75" customHeight="1">
-      <c r="B963" s="42"/>
+      <c r="B963" s="43"/>
     </row>
     <row r="964" ht="15.75" customHeight="1">
-      <c r="B964" s="42"/>
+      <c r="B964" s="43"/>
     </row>
     <row r="965" ht="15.75" customHeight="1">
-      <c r="B965" s="42"/>
+      <c r="B965" s="43"/>
     </row>
     <row r="966" ht="15.75" customHeight="1">
-      <c r="B966" s="42"/>
+      <c r="B966" s="43"/>
     </row>
     <row r="967" ht="15.75" customHeight="1">
-      <c r="B967" s="42"/>
+      <c r="B967" s="43"/>
     </row>
     <row r="968" ht="15.75" customHeight="1">
-      <c r="B968" s="42"/>
+      <c r="B968" s="43"/>
     </row>
     <row r="969" ht="15.75" customHeight="1">
-      <c r="B969" s="42"/>
+      <c r="B969" s="43"/>
     </row>
     <row r="970" ht="15.75" customHeight="1">
-      <c r="B970" s="42"/>
+      <c r="B970" s="43"/>
     </row>
     <row r="971" ht="15.75" customHeight="1">
-      <c r="B971" s="42"/>
+      <c r="B971" s="43"/>
     </row>
     <row r="972" ht="15.75" customHeight="1">
-      <c r="B972" s="42"/>
+      <c r="B972" s="43"/>
     </row>
     <row r="973" ht="15.75" customHeight="1">
-      <c r="B973" s="42"/>
+      <c r="B973" s="43"/>
     </row>
     <row r="974" ht="15.75" customHeight="1">
-      <c r="B974" s="42"/>
+      <c r="B974" s="43"/>
     </row>
     <row r="975" ht="15.75" customHeight="1">
-      <c r="B975" s="42"/>
+      <c r="B975" s="43"/>
     </row>
     <row r="976" ht="15.75" customHeight="1">
-      <c r="B976" s="42"/>
+      <c r="B976" s="43"/>
     </row>
     <row r="977" ht="15.75" customHeight="1">
-      <c r="B977" s="42"/>
+      <c r="B977" s="43"/>
     </row>
     <row r="978" ht="15.75" customHeight="1">
-      <c r="B978" s="42"/>
+      <c r="B978" s="43"/>
     </row>
     <row r="979" ht="15.75" customHeight="1">
-      <c r="B979" s="42"/>
+      <c r="B979" s="43"/>
     </row>
     <row r="980" ht="15.75" customHeight="1">
-      <c r="B980" s="42"/>
+      <c r="B980" s="43"/>
     </row>
     <row r="981" ht="15.75" customHeight="1">
-      <c r="B981" s="42"/>
+      <c r="B981" s="43"/>
     </row>
     <row r="982" ht="15.75" customHeight="1">
-      <c r="B982" s="42"/>
+      <c r="B982" s="43"/>
     </row>
     <row r="983" ht="15.75" customHeight="1">
-      <c r="B983" s="42"/>
+      <c r="B983" s="43"/>
     </row>
     <row r="984" ht="15.75" customHeight="1">
-      <c r="B984" s="42"/>
+      <c r="B984" s="43"/>
     </row>
     <row r="985" ht="15.75" customHeight="1">
-      <c r="B985" s="42"/>
+      <c r="B985" s="43"/>
     </row>
     <row r="986" ht="15.75" customHeight="1">
-      <c r="B986" s="42"/>
+      <c r="B986" s="43"/>
     </row>
     <row r="987" ht="15.75" customHeight="1">
-      <c r="B987" s="42"/>
+      <c r="B987" s="43"/>
     </row>
     <row r="988" ht="15.75" customHeight="1">
-      <c r="B988" s="42"/>
+      <c r="B988" s="43"/>
     </row>
     <row r="989" ht="15.75" customHeight="1">
-      <c r="B989" s="42"/>
+      <c r="B989" s="43"/>
     </row>
     <row r="990" ht="15.75" customHeight="1">
-      <c r="B990" s="42"/>
+      <c r="B990" s="43"/>
     </row>
     <row r="991" ht="15.75" customHeight="1">
-      <c r="B991" s="42"/>
+      <c r="B991" s="43"/>
     </row>
     <row r="992" ht="15.75" customHeight="1">
-      <c r="B992" s="42"/>
+      <c r="B992" s="43"/>
     </row>
     <row r="993" ht="15.75" customHeight="1">
-      <c r="B993" s="42"/>
+      <c r="B993" s="43"/>
     </row>
     <row r="994" ht="15.75" customHeight="1">
-      <c r="B994" s="42"/>
+      <c r="B994" s="43"/>
     </row>
     <row r="995" ht="15.75" customHeight="1">
-      <c r="B995" s="42"/>
+      <c r="B995" s="43"/>
     </row>
     <row r="996" ht="15.75" customHeight="1">
-      <c r="B996" s="42"/>
+      <c r="B996" s="43"/>
     </row>
     <row r="997" ht="15.75" customHeight="1">
-      <c r="B997" s="42"/>
+      <c r="B997" s="43"/>
     </row>
     <row r="998" ht="15.75" customHeight="1">
-      <c r="B998" s="42"/>
+      <c r="B998" s="43"/>
     </row>
     <row r="999" ht="15.75" customHeight="1">
-      <c r="B999" s="42"/>
+      <c r="B999" s="43"/>
     </row>
     <row r="1000" ht="15.75" customHeight="1">
-      <c r="B1000" s="42"/>
+      <c r="B1000" s="43"/>
     </row>
     <row r="1001" ht="15.75" customHeight="1">
-      <c r="B1001" s="42"/>
+      <c r="B1001" s="43"/>
     </row>
     <row r="1002" ht="15.75" customHeight="1">
-      <c r="B1002" s="42"/>
+      <c r="B1002" s="43"/>
     </row>
     <row r="1003" ht="15.75" customHeight="1">
-      <c r="B1003" s="42"/>
+      <c r="B1003" s="43"/>
     </row>
     <row r="1004" ht="15.75" customHeight="1">
-      <c r="B1004" s="42"/>
+      <c r="B1004" s="43"/>
     </row>
     <row r="1005" ht="15.75" customHeight="1">
-      <c r="B1005" s="42"/>
+      <c r="B1005" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="31">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:H1"/>
@@ -10943,7 +10983,6 @@
     <mergeCell ref="C29:H29"/>
     <mergeCell ref="C30:H30"/>
     <mergeCell ref="C31:H31"/>
-    <mergeCell ref="C33:H33"/>
     <mergeCell ref="C38:H38"/>
   </mergeCells>
   <drawing r:id="rId1"/>

--- a/tools/game_levels.xlsx
+++ b/tools/game_levels.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="195">
   <si>
     <t>Feature</t>
   </si>
@@ -447,7 +447,7 @@
     <t>narrative_text</t>
   </si>
   <si>
-    <t>Ihr braucht dringend Geld - in der Nähe tobt ein Vulkan und ohne Geld könnt ihr nicht aus Hafenwald wegziehen. Verkauft eure Ernte, Holz und Früchte und verdient Münzen bei 'Kuh-in-den-Stall'. Doch Achtung, auch die Hornlinge brauchen Geld...</t>
+    <t>Dein Familienclan braucht dringend Geld - in der Nähe tobt ein Vulkan und ohne Geld könnt ihr nicht aus Hafenwald wegziehen. Verkauft eure Ernte, Holz und Früchte und verdient Münzen bei 'Kuh-in-den-Stall'. Doch Achtung, auch die Hornlinge brauchen Geld...</t>
   </si>
   <si>
     <t>Textbox and scripted sequence: Introduction to outgroup</t>
@@ -567,6 +567,9 @@
     <t>Dieses Mika ist noch kein vollwertiges Mitglied der Freundesfarm der Rothüte und hat bislang nur den Hut erhalten.</t>
   </si>
   <si>
+    <t>Deine Freundesfarm braucht dringend Geld - in der Nähe tobt ein Vulkan und ohne Geld könnt ihr nicht aus Hafenwald wegziehen. Verkauft eure Ernte, Holz und Früchte und verdient Münzen bei 'Kuh-in-den-Stall'. Doch Achtung, auch die Hornlinge brauchen Geld...</t>
+  </si>
+  <si>
     <t>Deine Freundesfarm verleiht Dir den Hut als Zeichen deiner Zugehörigkeit! Drücke die Leertaste, um fortzufahren.</t>
   </si>
   <si>
@@ -588,7 +591,7 @@
     <t>Textbox and scripted seque: narrative</t>
   </si>
   <si>
-    <t>Du brauchst dringend Geld - in der Nähe tobt ein Vulkan und ohne Geld kannst du nicht aus Hafenwald wegziehen. Verkaufe eure Ernte, Holz und Früchte und verdiene Münzen bei 'Kuh-in-den-Stall'.</t>
+    <t>Die Rothüte brauchen dringend Geld - in der Nähe tobt ein Vulkan und ohne Geld könnt ihr nicht aus Hafenwald wegziehen. Verkauft eure Ernte, Holz und Früchte und verdient Münzen bei 'Kuh-in-den-Stall'.</t>
   </si>
   <si>
     <t>Das sind die Hornlinge</t>
@@ -5929,7 +5932,7 @@
         <v>143</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>144</v>
+        <v>184</v>
       </c>
       <c r="D46" s="18"/>
       <c r="E46" s="12"/>
@@ -5978,7 +5981,7 @@
       </c>
       <c r="C49" s="12"/>
       <c r="D49" s="9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E49" s="12"/>
       <c r="F49" s="12"/>
@@ -6009,7 +6012,7 @@
         <v>156</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D51" s="9"/>
       <c r="E51" s="12"/>
@@ -6044,7 +6047,7 @@
       <c r="D53" s="12"/>
       <c r="E53" s="12"/>
       <c r="F53" s="9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G53" s="12"/>
       <c r="H53" s="12"/>
@@ -6105,13 +6108,13 @@
         <v>170</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F57" s="12"/>
       <c r="G57" s="12"/>
@@ -7939,7 +7942,7 @@
         <v>132</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D42" s="16"/>
       <c r="E42" s="16"/>
@@ -7955,7 +7958,7 @@
         <v>134</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
@@ -7993,13 +7996,13 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="26" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B46" s="28" t="s">
         <v>143</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D46" s="18"/>
       <c r="E46" s="12"/>
@@ -8015,7 +8018,7 @@
         <v>146</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D47" s="18"/>
       <c r="E47" s="12"/>
@@ -8133,7 +8136,7 @@
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
       <c r="E55" s="9" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F55" s="12"/>
       <c r="G55" s="12"/>

--- a/tools/game_levels.xlsx
+++ b/tools/game_levels.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="198">
   <si>
     <t>Feature</t>
   </si>
@@ -150,6 +150,414 @@
     <t>notify_round_end_outgroup_text</t>
   </si>
   <si>
+    <t xml:space="preserve">Super, ihr habt letzte Runde mehr Geld verdient als die Horlinge! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Hornlinge haben aufgeholt und letzte Runde gleich viel Geld verdient wie ihr. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gute Arbeit – ihr habt letzte Runde mehr Geld verdient als die Horlinge! </t>
+  </si>
+  <si>
+    <t>Round end screen</t>
+  </si>
+  <si>
+    <t>round_end_screen</t>
+  </si>
+  <si>
+    <t>Crops</t>
+  </si>
+  <si>
+    <t>crop_types_list</t>
+  </si>
+  <si>
+    <t>tomato, corn</t>
+  </si>
+  <si>
+    <t>tomato, corn, beetroot</t>
+  </si>
+  <si>
+    <t>tomato, corn, beetroot, carrot</t>
+  </si>
+  <si>
+    <t>tomato, corn, beetroot, carrot, eggplant</t>
+  </si>
+  <si>
+    <t>tomato, corn, beetroot, carrot, eggplant, pumpkin</t>
+  </si>
+  <si>
+    <t>tomato, corn, beetroot, carrot, eggplant, pumpkin, parsnip</t>
+  </si>
+  <si>
+    <t>Switching to the outgroup</t>
+  </si>
+  <si>
+    <t>playable_outgroup</t>
+  </si>
+  <si>
+    <t>No [Not possible]</t>
+  </si>
+  <si>
+    <t>Health bar</t>
+  </si>
+  <si>
+    <t>healthbar</t>
+  </si>
+  <si>
+    <t>No [No health bar]</t>
+  </si>
+  <si>
+    <t>Bath house</t>
+  </si>
+  <si>
+    <t>accessible_bathhouse</t>
+  </si>
+  <si>
+    <t>No [Cannot enter bathhouse]</t>
+  </si>
+  <si>
+    <t>Getting sick and dying</t>
+  </si>
+  <si>
+    <t>sickness</t>
+  </si>
+  <si>
+    <t>No [No getting sick and no dying]</t>
+  </si>
+  <si>
+    <t>Inventory: Goggles</t>
+  </si>
+  <si>
+    <t>inventory_goggles</t>
+  </si>
+  <si>
+    <t>No [No goggles]</t>
+  </si>
+  <si>
+    <t>Volcanic eruption</t>
+  </si>
+  <si>
+    <t>volcanic_eruption</t>
+  </si>
+  <si>
+    <t>No [No volcanic eruption]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Statistics </t>
+  </si>
+  <si>
+    <t>statistics</t>
+  </si>
+  <si>
+    <t>No [No statistics]</t>
+  </si>
+  <si>
+    <t>Government character</t>
+  </si>
+  <si>
+    <t>government_character</t>
+  </si>
+  <si>
+    <t>No [No government character]</t>
+  </si>
+  <si>
+    <t>Inventory: Tools</t>
+  </si>
+  <si>
+    <t>inventory_tools</t>
+  </si>
+  <si>
+    <t>Inventory: Crops</t>
+  </si>
+  <si>
+    <t>inventory_crops</t>
+  </si>
+  <si>
+    <t>Inventory: harvest</t>
+  </si>
+  <si>
+    <t>inventory_harvest</t>
+  </si>
+  <si>
+    <t>walking</t>
+  </si>
+  <si>
+    <t>farming (use hoe, shovel, watering can, harvest)</t>
+  </si>
+  <si>
+    <t>farming</t>
+  </si>
+  <si>
+    <t>Buying and selling at the market</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>Use emote wheel</t>
+  </si>
+  <si>
+    <t>emote_wheel</t>
+  </si>
+  <si>
+    <t>Government statistics</t>
+  </si>
+  <si>
+    <t>government_statistics</t>
+  </si>
+  <si>
+    <t>No [No government statistics]</t>
+  </si>
+  <si>
+    <t>Resource allocation timestamp</t>
+  </si>
+  <si>
+    <t>resource_allocation_timestamp</t>
+  </si>
+  <si>
+    <t>Text: Resource allocation task</t>
+  </si>
+  <si>
+    <t>resource_allocation_text</t>
+  </si>
+  <si>
+    <t>Verteile sie frei! Die Handschuhe helfen beim Ernten.</t>
+  </si>
+  <si>
+    <t>Verteile sie frei! Die Stiefel helfen bei Regen.</t>
+  </si>
+  <si>
+    <t>Verteile sie frei! Die Jeans helfen beim Bäume fällen.</t>
+  </si>
+  <si>
+    <t>Verteile sie frei! Die Hemden helfen bei Kälte.</t>
+  </si>
+  <si>
+    <t>Verteile sie frei! Die Mäntel helfen bei Regen.</t>
+  </si>
+  <si>
+    <t>Verteile sie frei! Die Schützen helfen beim Kochen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resources in the resource allocation task </t>
+  </si>
+  <si>
+    <t>resource_allocation_item_text</t>
+  </si>
+  <si>
+    <t>6 Paar Handschuhe</t>
+  </si>
+  <si>
+    <t>2 Paar Stiefel</t>
+  </si>
+  <si>
+    <t>4 Paar Jeans</t>
+  </si>
+  <si>
+    <t>8 Hemden</t>
+  </si>
+  <si>
+    <t>6 Regenmäntel</t>
+  </si>
+  <si>
+    <t>10 Schürzen</t>
+  </si>
+  <si>
+    <t>Textbox character introduction timestamp</t>
+  </si>
+  <si>
+    <t>character_introduction_timestamp</t>
+  </si>
+  <si>
+    <t>Textbox: Character introduction</t>
+  </si>
+  <si>
+    <t>character_introduction_text</t>
+  </si>
+  <si>
+    <t>Das bist Du: Ein Mika Wesen namens [Initialen]. Du lebst in Hafenwald, zusammen mit vielen anderen Mikas.</t>
+  </si>
+  <si>
+    <t>Measuring affect timestamp</t>
+  </si>
+  <si>
+    <t>self_assessment_timestamp</t>
+  </si>
+  <si>
+    <t>16:00, 22:00</t>
+  </si>
+  <si>
+    <t>01:00, 11:00</t>
+  </si>
+  <si>
+    <t>03:00, 11:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Measuring affect </t>
+  </si>
+  <si>
+    <t>self_assessment_menu</t>
+  </si>
+  <si>
+    <t>Mini game</t>
+  </si>
+  <si>
+    <t>minigame</t>
+  </si>
+  <si>
+    <t>Yes [Playable at any time]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NPCs rooting in mini game </t>
+  </si>
+  <si>
+    <t>minigame_rooting_npcs</t>
+  </si>
+  <si>
+    <t>Textbox and scripted sequence: Introduction to ingroup</t>
+  </si>
+  <si>
+    <t>ingroup_introduction_text</t>
+  </si>
+  <si>
+    <t>Das ist dein Familienclan: Ihr seid die Rothüte</t>
+  </si>
+  <si>
+    <t>Textbox and scripted sequence: Hat and necklace</t>
+  </si>
+  <si>
+    <t>ingroup_hat_necklace_introduction_text</t>
+  </si>
+  <si>
+    <t>Das ist ein vollwertiges Mika des Familienclans der Rothüte. Vollwertige Mitglieder tragen einen Hut und eine blaue Kette.</t>
+  </si>
+  <si>
+    <t>Textbox and scripted sequence: Hat</t>
+  </si>
+  <si>
+    <t>ingroup_hat_introduction_text</t>
+  </si>
+  <si>
+    <t>Dieses Mika ist noch kein vollwertiges Mitglied des Familienclans der Rothüte und hat bislang nur den Hut erhalten.</t>
+  </si>
+  <si>
+    <t>Textbox and scripted sequence: narrative</t>
+  </si>
+  <si>
+    <t>narrative_text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dein Familienclan braucht dringend Geld, denn unweit tobt ein Vulkan und ihr müsst umziehen - je mehr Geld ihr verdient, desto sicherer seid ihr! Verkauft Ernte, Holz und Früchte und verdient Münzen bei 'Kuh-in-den-Stall'. Doch seid auf der Hut vor den Hornlingen... </t>
+  </si>
+  <si>
+    <t>Textbox and scripted sequence: Introduction to outgroup</t>
+  </si>
+  <si>
+    <t>outgroup_introduction_text</t>
+  </si>
+  <si>
+    <t>Das ist die andere Gruppe: Die Hornlinge</t>
+  </si>
+  <si>
+    <t>Textbox and scripted sequence: Player receives hat timestamp</t>
+  </si>
+  <si>
+    <t>player_hat_sequence_timestamp</t>
+  </si>
+  <si>
+    <t>Textbox and scripted sequence: Player receives hat text</t>
+  </si>
+  <si>
+    <t>player_hat_sequence_text</t>
+  </si>
+  <si>
+    <t>Dein Familienclan verleiht Dir den Hut als Zeichen deiner Zugehörigkeit! Drücke die Leertaste, um fortzufahren.</t>
+  </si>
+  <si>
+    <t>Textbox and scripted sequence: In-group member receives necklace timestamp</t>
+  </si>
+  <si>
+    <t>ingroup_necklace_sequence_timestamp</t>
+  </si>
+  <si>
+    <t>Textbox and scripted sequence: In-group member receives necklace text</t>
+  </si>
+  <si>
+    <t>ingroup_necklace_sequence_text</t>
+  </si>
+  <si>
+    <t>Eines unserer Rothüte bekommt die Kette verliehen und ist jetzt ein vollwertiges Mitglied des Familienclans! Drücke die Leertaste, um fortzufahren.</t>
+  </si>
+  <si>
+    <t>Textbox and scripted sequence: Player receives necklace timestamp</t>
+  </si>
+  <si>
+    <t>player_necklace_sequence_timestamp</t>
+  </si>
+  <si>
+    <t>Textbox and scripted sequence: Player receives necklace text</t>
+  </si>
+  <si>
+    <t>player_necklace_sequence_text</t>
+  </si>
+  <si>
+    <t>Dein Familienclan verleiht Dir die Kette. Jetzt bist Du vollwertiges Mitglied des Familienclans! Drücke die Leertaste, um fortzufahren.</t>
+  </si>
+  <si>
+    <t>Textbox and scripted sequence: Players birthday timestamp</t>
+  </si>
+  <si>
+    <t>player_birthday_sequence_timestamp</t>
+  </si>
+  <si>
+    <t>Textbox and scripted sequence: Players birthday text</t>
+  </si>
+  <si>
+    <t>player_birthday_sequence_text</t>
+  </si>
+  <si>
+    <t>Textbox and scripted sequence: Group discussion what to sell at the market; player cannot make a decision timestamp</t>
+  </si>
+  <si>
+    <t>group_market_passive_player_sequence_timestamp</t>
+  </si>
+  <si>
+    <t>Textbox and scripted sequence: Group discussion what to sell at the market; player cannot make a decision  text</t>
+  </si>
+  <si>
+    <t>group_market_passive_player_sequence_text</t>
+  </si>
+  <si>
+    <t>Dein Familienclan versammelt sich zur täglichen Abstimmung darüber, was auf dem Markt gekauft werden soll. Du darfst noch nicht mitentscheiden, da Du noch kein vollwertiges Mitglied bist. Drücke die Leertaste, um fortzufahren.</t>
+  </si>
+  <si>
+    <t>Textbox and scripted sequence: Group discussion what to sell at the market; player can make a decision timestamp</t>
+  </si>
+  <si>
+    <t>group_market_active_player_sequence_timestamp</t>
+  </si>
+  <si>
+    <t>Textbox and scripted sequence: Group discussion what to sell at the market; player can make a decision text</t>
+  </si>
+  <si>
+    <t>group_market_active_player_sequence_text</t>
+  </si>
+  <si>
+    <t>Stimme ab:</t>
+  </si>
+  <si>
+    <t>40% of ingroup NPCs wear a hat and a necklace; 60% wear only a hat</t>
+  </si>
+  <si>
+    <t>ingroup_40p_hat_necklace_appearance</t>
+  </si>
+  <si>
+    <t>Outgroup NPCs all look the same</t>
+  </si>
+  <si>
+    <t>outgroup_npcs_identical_appearance</t>
+  </si>
+  <si>
     <t xml:space="preserve">Super, ihr liegt deutlich vor den Hornlingen! </t>
   </si>
   <si>
@@ -159,405 +567,6 @@
     <t>Die Hornlinge haben euch aufgeholt.</t>
   </si>
   <si>
-    <t>Round end screen</t>
-  </si>
-  <si>
-    <t>round_end_screen</t>
-  </si>
-  <si>
-    <t>Crops</t>
-  </si>
-  <si>
-    <t>crop_types_list</t>
-  </si>
-  <si>
-    <t>tomato, corn</t>
-  </si>
-  <si>
-    <t>tomato, corn, beetroot</t>
-  </si>
-  <si>
-    <t>tomato, corn, beetroot, carrot</t>
-  </si>
-  <si>
-    <t>tomato, corn, beetroot, carrot, eggplant</t>
-  </si>
-  <si>
-    <t>tomato, corn, beetroot, carrot, eggplant, pumpkin</t>
-  </si>
-  <si>
-    <t>tomato, corn, beetroot, carrot, eggplant, pumpkin, parsnip</t>
-  </si>
-  <si>
-    <t>Switching to the outgroup</t>
-  </si>
-  <si>
-    <t>playable_outgroup</t>
-  </si>
-  <si>
-    <t>No [Not possible]</t>
-  </si>
-  <si>
-    <t>Health bar</t>
-  </si>
-  <si>
-    <t>healthbar</t>
-  </si>
-  <si>
-    <t>No [No health bar]</t>
-  </si>
-  <si>
-    <t>Bath house</t>
-  </si>
-  <si>
-    <t>accessible_bathhouse</t>
-  </si>
-  <si>
-    <t>No [Cannot enter bathhouse]</t>
-  </si>
-  <si>
-    <t>Getting sick and dying</t>
-  </si>
-  <si>
-    <t>sickness</t>
-  </si>
-  <si>
-    <t>No [No getting sick and no dying]</t>
-  </si>
-  <si>
-    <t>Inventory: Goggles</t>
-  </si>
-  <si>
-    <t>inventory_goggles</t>
-  </si>
-  <si>
-    <t>No [No goggles]</t>
-  </si>
-  <si>
-    <t>Volcanic eruption</t>
-  </si>
-  <si>
-    <t>volcanic_eruption</t>
-  </si>
-  <si>
-    <t>No [No volcanic eruption]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Statistics </t>
-  </si>
-  <si>
-    <t>statistics</t>
-  </si>
-  <si>
-    <t>No [No statistics]</t>
-  </si>
-  <si>
-    <t>Government character</t>
-  </si>
-  <si>
-    <t>government_character</t>
-  </si>
-  <si>
-    <t>No [No government character]</t>
-  </si>
-  <si>
-    <t>Inventory: Tools</t>
-  </si>
-  <si>
-    <t>inventory_tools</t>
-  </si>
-  <si>
-    <t>Inventory: Crops</t>
-  </si>
-  <si>
-    <t>inventory_crops</t>
-  </si>
-  <si>
-    <t>Inventory: harvest</t>
-  </si>
-  <si>
-    <t>inventory_harvest</t>
-  </si>
-  <si>
-    <t>walking</t>
-  </si>
-  <si>
-    <t>farming (use hoe, shovel, watering can, harvest)</t>
-  </si>
-  <si>
-    <t>farming</t>
-  </si>
-  <si>
-    <t>Buying and selling at the market</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>Use emote wheel</t>
-  </si>
-  <si>
-    <t>emote_wheel</t>
-  </si>
-  <si>
-    <t>Government statistics</t>
-  </si>
-  <si>
-    <t>government_statistics</t>
-  </si>
-  <si>
-    <t>No [No government statistics]</t>
-  </si>
-  <si>
-    <t>Resource allocation timestamp</t>
-  </si>
-  <si>
-    <t>resource_allocation_timestamp</t>
-  </si>
-  <si>
-    <t>Text: Resource allocation task</t>
-  </si>
-  <si>
-    <t>resource_allocation_text</t>
-  </si>
-  <si>
-    <t>Verteile sie frei! Die Handschuhe helfen beim Ernten.</t>
-  </si>
-  <si>
-    <t>Verteile sie frei! Die Stiefel helfen bei Regen.</t>
-  </si>
-  <si>
-    <t>Verteile sie frei! Die Jeans helfen beim Bäume fällen.</t>
-  </si>
-  <si>
-    <t>Verteile sie frei! Die Hemden helfen bei Kälte.</t>
-  </si>
-  <si>
-    <t>Verteile sie frei! Die Mäntel helfen bei Regen.</t>
-  </si>
-  <si>
-    <t>Verteile sie frei! Die Schützen helfen beim Kochen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resources in the resource allocation task </t>
-  </si>
-  <si>
-    <t>resource_allocation_item_text</t>
-  </si>
-  <si>
-    <t>6 Paar Handschuhe</t>
-  </si>
-  <si>
-    <t>2 Paar Stiefel</t>
-  </si>
-  <si>
-    <t>4 Paar Jeans</t>
-  </si>
-  <si>
-    <t>8 Hemden</t>
-  </si>
-  <si>
-    <t>6 Regenmäntel</t>
-  </si>
-  <si>
-    <t>10 Schürzen</t>
-  </si>
-  <si>
-    <t>Textbox character introduction timestamp</t>
-  </si>
-  <si>
-    <t>character_introduction_timestamp</t>
-  </si>
-  <si>
-    <t>Textbox: Character introduction</t>
-  </si>
-  <si>
-    <t>character_introduction_text</t>
-  </si>
-  <si>
-    <t>Das bist Du: Ein Mika Wesen namens [Initialen]. Du lebst in Hafenwald, zusammen mit vielen anderen Mikas.</t>
-  </si>
-  <si>
-    <t>Measuring affect timestamp</t>
-  </si>
-  <si>
-    <t>self_assessment_timestamp</t>
-  </si>
-  <si>
-    <t>16:00, 22:00</t>
-  </si>
-  <si>
-    <t>01:00, 11:00</t>
-  </si>
-  <si>
-    <t>03:00, 11:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Measuring affect </t>
-  </si>
-  <si>
-    <t>self_assessment_menu</t>
-  </si>
-  <si>
-    <t>Mini game</t>
-  </si>
-  <si>
-    <t>minigame</t>
-  </si>
-  <si>
-    <t>Yes [Playable at any time]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NPCs rooting in mini game </t>
-  </si>
-  <si>
-    <t>minigame_rooting_npcs</t>
-  </si>
-  <si>
-    <t>Textbox and scripted sequence: Introduction to ingroup</t>
-  </si>
-  <si>
-    <t>ingroup_introduction_text</t>
-  </si>
-  <si>
-    <t>Das ist dein Familienclan: Ihr seid die Rothüte</t>
-  </si>
-  <si>
-    <t>Textbox and scripted sequence: Hat and necklace</t>
-  </si>
-  <si>
-    <t>ingroup_hat_necklace_introduction_text</t>
-  </si>
-  <si>
-    <t>Das ist ein vollwertiges Mika des Familienclans der Rothüte. Vollwertige Mitglieder tragen einen Hut und eine blaue Kette.</t>
-  </si>
-  <si>
-    <t>Textbox and scripted sequence: Hat</t>
-  </si>
-  <si>
-    <t>ingroup_hat_introduction_text</t>
-  </si>
-  <si>
-    <t>Dieses Mika ist noch kein vollwertiges Mitglied des Familienclans der Rothüte und hat bislang nur den Hut erhalten.</t>
-  </si>
-  <si>
-    <t>Textbox and scripted sequence: narrative</t>
-  </si>
-  <si>
-    <t>narrative_text</t>
-  </si>
-  <si>
-    <t>Dein Familienclan braucht dringend Geld - in der Nähe tobt ein Vulkan und ohne Geld könnt ihr nicht aus Hafenwald wegziehen. Verkauft eure Ernte, Holz und Früchte und verdient Münzen bei 'Kuh-in-den-Stall'. Doch Achtung, auch die Hornlinge brauchen Geld...</t>
-  </si>
-  <si>
-    <t>Textbox and scripted sequence: Introduction to outgroup</t>
-  </si>
-  <si>
-    <t>outgroup_introduction_text</t>
-  </si>
-  <si>
-    <t>Das ist die andere Gruppe: Die Hornlinge</t>
-  </si>
-  <si>
-    <t>Textbox and scripted sequence: Player receives hat timestamp</t>
-  </si>
-  <si>
-    <t>player_hat_sequence_timestamp</t>
-  </si>
-  <si>
-    <t>Textbox and scripted sequence: Player receives hat text</t>
-  </si>
-  <si>
-    <t>player_hat_sequence_text</t>
-  </si>
-  <si>
-    <t>Dein Familienclan verleiht Dir den Hut als Zeichen deiner Zugehörigkeit! Drücke die Leertaste, um fortzufahren.</t>
-  </si>
-  <si>
-    <t>Textbox and scripted sequence: In-group member receives necklace timestamp</t>
-  </si>
-  <si>
-    <t>ingroup_necklace_sequence_timestamp</t>
-  </si>
-  <si>
-    <t>Textbox and scripted sequence: In-group member receives necklace text</t>
-  </si>
-  <si>
-    <t>ingroup_necklace_sequence_text</t>
-  </si>
-  <si>
-    <t>Eines unserer Rothüte bekommt die Kette verliehen und ist jetzt ein vollwertiges Mitglied des Familienclans! Drücke die Leertaste, um fortzufahren.</t>
-  </si>
-  <si>
-    <t>Textbox and scripted sequence: Player receives necklace timestamp</t>
-  </si>
-  <si>
-    <t>player_necklace_sequence_timestamp</t>
-  </si>
-  <si>
-    <t>Textbox and scripted sequence: Player receives necklace text</t>
-  </si>
-  <si>
-    <t>player_necklace_sequence_text</t>
-  </si>
-  <si>
-    <t>Dein Familienclan verleiht Dir die Kette. Jetzt bist Du vollwertiges Mitglied des Familienclans! Drücke die Leertaste, um fortzufahren.</t>
-  </si>
-  <si>
-    <t>Textbox and scripted sequence: Players birthday timestamp</t>
-  </si>
-  <si>
-    <t>player_birthday_sequence_timestamp</t>
-  </si>
-  <si>
-    <t>Textbox and scripted sequence: Players birthday text</t>
-  </si>
-  <si>
-    <t>player_birthday_sequence_text</t>
-  </si>
-  <si>
-    <t>Textbox and scripted sequence: Group discussion what to sell at the market; player cannot make a decision timestamp</t>
-  </si>
-  <si>
-    <t>group_market_passive_player_sequence_timestamp</t>
-  </si>
-  <si>
-    <t>Textbox and scripted sequence: Group discussion what to sell at the market; player cannot make a decision  text</t>
-  </si>
-  <si>
-    <t>group_market_passive_player_sequence_text</t>
-  </si>
-  <si>
-    <t>Dein Familienclan versammelt sich zur täglichen Abstimmung darüber, was auf dem Markt gekauft werden soll. Du darfst noch nicht mitentscheiden, da Du noch kein vollwertiges Mitglied bist. Drücke die Leertaste, um fortzufahren.</t>
-  </si>
-  <si>
-    <t>Textbox and scripted sequence: Group discussion what to sell at the market; player can make a decision timestamp</t>
-  </si>
-  <si>
-    <t>group_market_active_player_sequence_timestamp</t>
-  </si>
-  <si>
-    <t>Textbox and scripted sequence: Group discussion what to sell at the market; player can make a decision text</t>
-  </si>
-  <si>
-    <t>group_market_active_player_sequence_text</t>
-  </si>
-  <si>
-    <t>Stimme ab:</t>
-  </si>
-  <si>
-    <t>40% of ingroup NPCs wear a hat and a necklace; 60% wear only a hat</t>
-  </si>
-  <si>
-    <t>ingroup_40p_hat_necklace_appearance</t>
-  </si>
-  <si>
-    <t>Outgroup NPCs all look the same</t>
-  </si>
-  <si>
-    <t>outgroup_npcs_identical_appearance</t>
-  </si>
-  <si>
     <t>Das ist deine Freundesfarm: Ihr seid die Rothüte</t>
   </si>
   <si>
@@ -567,7 +576,7 @@
     <t>Dieses Mika ist noch kein vollwertiges Mitglied der Freundesfarm der Rothüte und hat bislang nur den Hut erhalten.</t>
   </si>
   <si>
-    <t>Deine Freundesfarm braucht dringend Geld - in der Nähe tobt ein Vulkan und ohne Geld könnt ihr nicht aus Hafenwald wegziehen. Verkauft eure Ernte, Holz und Früchte und verdient Münzen bei 'Kuh-in-den-Stall'. Doch Achtung, auch die Hornlinge brauchen Geld...</t>
+    <t xml:space="preserve">Deine Freundesfarm braucht dringend Geld, denn unweit tobt ein Vulkan und ihr müsst umziehen - je mehr Geld ihr verdient, desto sicherer seid ihr! Verkauft Ernte, Holz und Früchte und verdient Münzen bei 'Kuh-in-den-Stall'. Doch seid auf der Hut vor den Hornlingen... </t>
   </si>
   <si>
     <t>Deine Freundesfarm verleiht Dir den Hut als Zeichen deiner Zugehörigkeit! Drücke die Leertaste, um fortzufahren.</t>
@@ -591,7 +600,7 @@
     <t>Textbox and scripted seque: narrative</t>
   </si>
   <si>
-    <t>Die Rothüte brauchen dringend Geld - in der Nähe tobt ein Vulkan und ohne Geld könnt ihr nicht aus Hafenwald wegziehen. Verkauft eure Ernte, Holz und Früchte und verdient Münzen bei 'Kuh-in-den-Stall'.</t>
+    <t>Die Rothüte brauchen dringend Geld, denn unweit tobt ein Vulkan und sie müssen umziehen - je mehr Geld sie verdienen, desto sicherer sind sie! Verkauft Ernte, Holz und Früchte und verdient Münzen bei 'Kuh-in-den-Stall'.</t>
   </si>
   <si>
     <t>Das sind die Hornlinge</t>
@@ -5383,15 +5392,15 @@
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9" t="s">
-        <v>45</v>
+        <v>181</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9" t="s">
-        <v>46</v>
+        <v>182</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="9" t="s">
-        <v>47</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16">
@@ -5884,7 +5893,7 @@
         <v>134</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
@@ -5900,7 +5909,7 @@
         <v>137</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D44" s="27"/>
       <c r="E44" s="12"/>
@@ -5916,7 +5925,7 @@
         <v>140</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D45" s="27"/>
       <c r="E45" s="12"/>
@@ -5932,7 +5941,7 @@
         <v>143</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D46" s="18"/>
       <c r="E46" s="12"/>
@@ -5981,7 +5990,7 @@
       </c>
       <c r="C49" s="12"/>
       <c r="D49" s="9" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E49" s="12"/>
       <c r="F49" s="12"/>
@@ -6012,7 +6021,7 @@
         <v>156</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D51" s="9"/>
       <c r="E51" s="12"/>
@@ -6047,7 +6056,7 @@
       <c r="D53" s="12"/>
       <c r="E53" s="12"/>
       <c r="F53" s="9" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="G53" s="12"/>
       <c r="H53" s="12"/>
@@ -6108,13 +6117,13 @@
         <v>170</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F57" s="12"/>
       <c r="G57" s="12"/>
@@ -7942,7 +7951,7 @@
         <v>132</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D42" s="16"/>
       <c r="E42" s="16"/>
@@ -7958,7 +7967,7 @@
         <v>134</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
@@ -7996,13 +8005,13 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="26" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B46" s="28" t="s">
         <v>143</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D46" s="18"/>
       <c r="E46" s="12"/>
@@ -8018,7 +8027,7 @@
         <v>146</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D47" s="18"/>
       <c r="E47" s="12"/>
@@ -8136,7 +8145,7 @@
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
       <c r="E55" s="9" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F55" s="12"/>
       <c r="G55" s="12"/>

--- a/tools/game_levels.xlsx
+++ b/tools/game_levels.xlsx
@@ -375,7 +375,7 @@
     <t>character_introduction_text</t>
   </si>
   <si>
-    <t>Das bist Du: Ein Mika Wesen namens [Initialen]. Du lebst in Hafenwald, zusammen mit vielen anderen Mikas.</t>
+    <t>Willkommen in der Stadt Hafenwald! Das bist Du: Ein Mika Wesen namens [Initialen]. Du lebst hier in Hafenwald, zusammen mit vielen anderen Mikas.</t>
   </si>
   <si>
     <t>Measuring affect timestamp</t>
@@ -420,7 +420,7 @@
     <t>ingroup_introduction_text</t>
   </si>
   <si>
-    <t>Das ist dein Familienclan: Ihr seid die Rothüte</t>
+    <t>Das ist dein Familienclan: Ihr seid die Rothüte.</t>
   </si>
   <si>
     <t>Textbox and scripted sequence: Hat and necklace</t>
@@ -456,7 +456,7 @@
     <t>outgroup_introduction_text</t>
   </si>
   <si>
-    <t>Das ist die andere Gruppe: Die Hornlinge</t>
+    <t>Das ist die andere Gruppe: Die Hornlinge.</t>
   </si>
   <si>
     <t>Textbox and scripted sequence: Player receives hat timestamp</t>
@@ -567,7 +567,7 @@
     <t>Die Hornlinge haben euch aufgeholt.</t>
   </si>
   <si>
-    <t>Das ist deine Freundesfarm: Ihr seid die Rothüte</t>
+    <t>Das ist deine Freundesfarm: Ihr seid die Rothüte.</t>
   </si>
   <si>
     <t>Das ist ein vollwertiges Mika der Freundesfarm der Rothüte. Vollwertige Mitglieder tragen einen Hut und eine blaue Kette.</t>
@@ -594,7 +594,7 @@
     <t xml:space="preserve">No </t>
   </si>
   <si>
-    <t>Du bist zufällig bei den Rothüten gelandet</t>
+    <t>Willkommen in der Stadt Hafenwald! Du bist zufällig bei den Rothüten gelandet.</t>
   </si>
   <si>
     <t>Textbox and scripted seque: narrative</t>
@@ -603,7 +603,7 @@
     <t>Die Rothüte brauchen dringend Geld, denn unweit tobt ein Vulkan und sie müssen umziehen - je mehr Geld sie verdienen, desto sicherer sind sie! Verkauft Ernte, Holz und Früchte und verdient Münzen bei 'Kuh-in-den-Stall'.</t>
   </si>
   <si>
-    <t>Das sind die Hornlinge</t>
+    <t>Das sind die Hornlinge.</t>
   </si>
   <si>
     <t>Die Rothüte gratulieren Dir zum Geburtstag! Drücke die Leertaste, um fortzufahren.</t>

--- a/tools/game_levels.xlsx
+++ b/tools/game_levels.xlsx
@@ -135,7 +135,7 @@
     <t>notify_questionnaire_text</t>
   </si>
   <si>
-    <t>Am Ende des Spiels gibt es einen kurzen Fragebogen</t>
+    <t>Bitte öffnen Sie jetzt den Fragebogen aus der E-Mail</t>
   </si>
   <si>
     <t>Textbox notification round end outgroup timestamp</t>
@@ -1353,15 +1353,15 @@
       </c>
       <c r="C12" s="22"/>
       <c r="D12" s="22">
-        <v>0.6041666666666666</v>
+        <v>0.6215277777777778</v>
       </c>
       <c r="E12" s="23"/>
       <c r="F12" s="22">
-        <v>0.6041666666666666</v>
+        <v>0.6215277777777778</v>
       </c>
       <c r="G12" s="23"/>
       <c r="H12" s="22">
-        <v>0.6041666666666666</v>
+        <v>0.6215277777777778</v>
       </c>
     </row>
     <row r="13">
@@ -5332,15 +5332,15 @@
       </c>
       <c r="C12" s="22"/>
       <c r="D12" s="22">
-        <v>0.6041666666666666</v>
+        <v>0.6215277777777778</v>
       </c>
       <c r="E12" s="23"/>
       <c r="F12" s="22">
-        <v>0.6041666666666666</v>
+        <v>0.6215277777777778</v>
       </c>
       <c r="G12" s="23"/>
       <c r="H12" s="22">
-        <v>0.6041666666666666</v>
+        <v>0.6215277777777778</v>
       </c>
     </row>
     <row r="13">
@@ -7420,15 +7420,15 @@
       </c>
       <c r="C12" s="22"/>
       <c r="D12" s="22">
-        <v>0.6041666666666666</v>
+        <v>0.6215277777777778</v>
       </c>
       <c r="E12" s="23"/>
       <c r="F12" s="22">
-        <v>0.6041666666666666</v>
+        <v>0.6215277777777778</v>
       </c>
       <c r="G12" s="23"/>
       <c r="H12" s="22">
-        <v>0.6041666666666666</v>
+        <v>0.6215277777777778</v>
       </c>
     </row>
     <row r="13">
@@ -7878,7 +7878,7 @@
       <c r="B38" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="C38" s="12"/>
+      <c r="C38" s="9"/>
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
       <c r="F38" s="12"/>

--- a/tools/game_levels.xlsx
+++ b/tools/game_levels.xlsx
@@ -48,547 +48,547 @@
     <t>level_duration</t>
   </si>
   <si>
+    <t>15 min</t>
+  </si>
+  <si>
+    <t>Town map</t>
+  </si>
+  <si>
+    <t>town_area</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Farm map</t>
+  </si>
+  <si>
+    <t>farm_area</t>
+  </si>
+  <si>
+    <t>Forest map</t>
+  </si>
+  <si>
+    <t>forest_area</t>
+  </si>
+  <si>
+    <t>Path signs</t>
+  </si>
+  <si>
+    <t>path_signs</t>
+  </si>
+  <si>
+    <t>Bathtub signs</t>
+  </si>
+  <si>
+    <t>bathtub_signs</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Interaction with signs possible</t>
+  </si>
+  <si>
+    <t>sign_interaction</t>
+  </si>
+  <si>
+    <t>Textbox notification new crop timestamp</t>
+  </si>
+  <si>
+    <t>notify_new_crop_timestamp</t>
+  </si>
+  <si>
+    <t>Textbox notification new crop</t>
+  </si>
+  <si>
+    <t>notify_new_crop_text</t>
+  </si>
+  <si>
+    <t>Hurra! Du kannst jetzt rote Beete pflanzen!</t>
+  </si>
+  <si>
+    <t>Hurra! Du kannst jetzt Karotten pflanzen!</t>
+  </si>
+  <si>
+    <t>Hurra! Du kannst jetzt Auberginen pflanzen!</t>
+  </si>
+  <si>
+    <t>Hurra! Du kannst jetzt Kürbis pflanzen!</t>
+  </si>
+  <si>
+    <t>Hurra! Du kannst jetzt Pastinaken pflanzen!</t>
+  </si>
+  <si>
+    <t>Textbox notification questionnaire reminder timestamp</t>
+  </si>
+  <si>
+    <t>notify_questionnaire_timestamp</t>
+  </si>
+  <si>
+    <t>Textbox notification questionnaire reminder</t>
+  </si>
+  <si>
+    <t>notify_questionnaire_text</t>
+  </si>
+  <si>
+    <t>Bitte öffnen Sie jetzt den Fragebogen aus der E-Mail</t>
+  </si>
+  <si>
+    <t>Textbox notification round end outgroup timestamp</t>
+  </si>
+  <si>
+    <t>notify_round_end_outgroup_timestamp</t>
+  </si>
+  <si>
+    <t>Textbox notification round end outgroup</t>
+  </si>
+  <si>
+    <t>notify_round_end_outgroup_text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Super, ihr habt letzte Runde mehr Geld verdient als die Horlinge! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Hornlinge haben aufgeholt und letzte Runde gleich viel Geld verdient wie ihr. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gute Arbeit – ihr habt letzte Runde mehr Geld verdient als die Horlinge! </t>
+  </si>
+  <si>
+    <t>Round end screen</t>
+  </si>
+  <si>
+    <t>round_end_screen</t>
+  </si>
+  <si>
+    <t>Crops</t>
+  </si>
+  <si>
+    <t>crop_types_list</t>
+  </si>
+  <si>
+    <t>tomato, corn</t>
+  </si>
+  <si>
+    <t>tomato, corn, beetroot</t>
+  </si>
+  <si>
+    <t>tomato, corn, beetroot, carrot</t>
+  </si>
+  <si>
+    <t>tomato, corn, beetroot, carrot, eggplant</t>
+  </si>
+  <si>
+    <t>tomato, corn, beetroot, carrot, eggplant, pumpkin</t>
+  </si>
+  <si>
+    <t>tomato, corn, beetroot, carrot, eggplant, pumpkin, parsnip</t>
+  </si>
+  <si>
+    <t>Switching to the outgroup</t>
+  </si>
+  <si>
+    <t>playable_outgroup</t>
+  </si>
+  <si>
+    <t>No [Not possible]</t>
+  </si>
+  <si>
+    <t>Health bar</t>
+  </si>
+  <si>
+    <t>healthbar</t>
+  </si>
+  <si>
+    <t>No [No health bar]</t>
+  </si>
+  <si>
+    <t>Bath house</t>
+  </si>
+  <si>
+    <t>accessible_bathhouse</t>
+  </si>
+  <si>
+    <t>No [Cannot enter bathhouse]</t>
+  </si>
+  <si>
+    <t>Getting sick and dying</t>
+  </si>
+  <si>
+    <t>sickness</t>
+  </si>
+  <si>
+    <t>No [No getting sick and no dying]</t>
+  </si>
+  <si>
+    <t>Inventory: Goggles</t>
+  </si>
+  <si>
+    <t>inventory_goggles</t>
+  </si>
+  <si>
+    <t>No [No goggles]</t>
+  </si>
+  <si>
+    <t>Volcanic eruption</t>
+  </si>
+  <si>
+    <t>volcanic_eruption</t>
+  </si>
+  <si>
+    <t>No [No volcanic eruption]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Statistics </t>
+  </si>
+  <si>
+    <t>statistics</t>
+  </si>
+  <si>
+    <t>No [No statistics]</t>
+  </si>
+  <si>
+    <t>Government character</t>
+  </si>
+  <si>
+    <t>government_character</t>
+  </si>
+  <si>
+    <t>No [No government character]</t>
+  </si>
+  <si>
+    <t>Inventory: Tools</t>
+  </si>
+  <si>
+    <t>inventory_tools</t>
+  </si>
+  <si>
+    <t>Inventory: Crops</t>
+  </si>
+  <si>
+    <t>inventory_crops</t>
+  </si>
+  <si>
+    <t>Inventory: harvest</t>
+  </si>
+  <si>
+    <t>inventory_harvest</t>
+  </si>
+  <si>
+    <t>walking</t>
+  </si>
+  <si>
+    <t>farming (use hoe, shovel, watering can, harvest)</t>
+  </si>
+  <si>
+    <t>farming</t>
+  </si>
+  <si>
+    <t>Buying and selling at the market</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>Use emote wheel</t>
+  </si>
+  <si>
+    <t>emote_wheel</t>
+  </si>
+  <si>
+    <t>Government statistics</t>
+  </si>
+  <si>
+    <t>government_statistics</t>
+  </si>
+  <si>
+    <t>No [No government statistics]</t>
+  </si>
+  <si>
+    <t>Resource allocation timestamp</t>
+  </si>
+  <si>
+    <t>resource_allocation_timestamp</t>
+  </si>
+  <si>
+    <t>Text: Resource allocation task</t>
+  </si>
+  <si>
+    <t>resource_allocation_text</t>
+  </si>
+  <si>
+    <t>Verteile sie frei! Die Handschuhe helfen beim Ernten.</t>
+  </si>
+  <si>
+    <t>Verteile sie frei! Die Stiefel helfen bei Regen.</t>
+  </si>
+  <si>
+    <t>Verteile sie frei! Die Jeans helfen beim Bäume fällen.</t>
+  </si>
+  <si>
+    <t>Verteile sie frei! Die Hemden helfen bei Kälte.</t>
+  </si>
+  <si>
+    <t>Verteile sie frei! Die Mäntel helfen bei Regen.</t>
+  </si>
+  <si>
+    <t>Verteile sie frei! Die Schützen helfen beim Kochen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resources in the resource allocation task </t>
+  </si>
+  <si>
+    <t>resource_allocation_item_text</t>
+  </si>
+  <si>
+    <t>6 Paar Handschuhe</t>
+  </si>
+  <si>
+    <t>2 Paar Stiefel</t>
+  </si>
+  <si>
+    <t>4 Paar Jeans</t>
+  </si>
+  <si>
+    <t>8 Hemden</t>
+  </si>
+  <si>
+    <t>6 Regenmäntel</t>
+  </si>
+  <si>
+    <t>10 Schürzen</t>
+  </si>
+  <si>
+    <t>Textbox character introduction timestamp</t>
+  </si>
+  <si>
+    <t>character_introduction_timestamp</t>
+  </si>
+  <si>
+    <t>Textbox: Character introduction</t>
+  </si>
+  <si>
+    <t>character_introduction_text</t>
+  </si>
+  <si>
+    <t>Willkommen in der Stadt Hafenwald! Das bist Du: Ein Mika Wesen namens [Initialen]. Du lebst hier in Hafenwald, zusammen mit vielen anderen Mikas.</t>
+  </si>
+  <si>
+    <t>Measuring affect timestamp</t>
+  </si>
+  <si>
+    <t>self_assessment_timestamp</t>
+  </si>
+  <si>
+    <t>10:00, 14:00</t>
+  </si>
+  <si>
+    <t>01:00, 11:00</t>
+  </si>
+  <si>
+    <t>03:00, 11:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Measuring affect </t>
+  </si>
+  <si>
+    <t>self_assessment_menu</t>
+  </si>
+  <si>
+    <t>Mini game</t>
+  </si>
+  <si>
+    <t>minigame</t>
+  </si>
+  <si>
+    <t>Yes [Playable at any time]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NPCs rooting in mini game </t>
+  </si>
+  <si>
+    <t>minigame_rooting_npcs</t>
+  </si>
+  <si>
+    <t>Textbox and scripted sequence: Introduction to ingroup</t>
+  </si>
+  <si>
+    <t>ingroup_introduction_text</t>
+  </si>
+  <si>
+    <t>Das ist dein Familienclan: Ihr seid die Rothüte.</t>
+  </si>
+  <si>
+    <t>Textbox and scripted sequence: Hat and necklace</t>
+  </si>
+  <si>
+    <t>ingroup_hat_necklace_introduction_text</t>
+  </si>
+  <si>
+    <t>Das ist ein vollwertiges Mika des Familienclans der Rothüte. Vollwertige Mitglieder tragen einen Hut und eine blaue Kette.</t>
+  </si>
+  <si>
+    <t>Textbox and scripted sequence: Hat</t>
+  </si>
+  <si>
+    <t>ingroup_hat_introduction_text</t>
+  </si>
+  <si>
+    <t>Dieses Mika ist noch kein vollwertiges Mitglied des Familienclans der Rothüte und hat bislang nur den Hut erhalten.</t>
+  </si>
+  <si>
+    <t>Textbox and scripted sequence: narrative</t>
+  </si>
+  <si>
+    <t>narrative_text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dein Familienclan braucht dringend Geld, denn unweit tobt ein Vulkan und ihr müsst umziehen - je mehr Geld ihr verdient, desto sicherer seid ihr! Verkauft Ernte, Holz und Früchte und verdient Münzen bei 'Kuh-in-den-Stall'. Doch seid auf der Hut vor den Hornlingen... </t>
+  </si>
+  <si>
+    <t>Textbox and scripted sequence: Introduction to outgroup</t>
+  </si>
+  <si>
+    <t>outgroup_introduction_text</t>
+  </si>
+  <si>
+    <t>Das ist die andere Gruppe: Die Hornlinge.</t>
+  </si>
+  <si>
+    <t>Textbox and scripted sequence: Player receives hat timestamp</t>
+  </si>
+  <si>
+    <t>player_hat_sequence_timestamp</t>
+  </si>
+  <si>
+    <t>Textbox and scripted sequence: Player receives hat text</t>
+  </si>
+  <si>
+    <t>player_hat_sequence_text</t>
+  </si>
+  <si>
+    <t>Dein Familienclan verleiht Dir den Hut als Zeichen deiner Zugehörigkeit! Drücke die Leertaste, um fortzufahren.</t>
+  </si>
+  <si>
+    <t>Textbox and scripted sequence: In-group member receives necklace timestamp</t>
+  </si>
+  <si>
+    <t>ingroup_necklace_sequence_timestamp</t>
+  </si>
+  <si>
+    <t>Textbox and scripted sequence: In-group member receives necklace text</t>
+  </si>
+  <si>
+    <t>ingroup_necklace_sequence_text</t>
+  </si>
+  <si>
+    <t>Eines unserer Rothüte bekommt die Kette verliehen und ist jetzt ein vollwertiges Mitglied des Familienclans! Drücke die Leertaste, um fortzufahren.</t>
+  </si>
+  <si>
+    <t>Textbox and scripted sequence: Player receives necklace timestamp</t>
+  </si>
+  <si>
+    <t>player_necklace_sequence_timestamp</t>
+  </si>
+  <si>
+    <t>Textbox and scripted sequence: Player receives necklace text</t>
+  </si>
+  <si>
+    <t>player_necklace_sequence_text</t>
+  </si>
+  <si>
+    <t>Dein Familienclan verleiht Dir die Kette. Jetzt bist Du vollwertiges Mitglied des Familienclans! Drücke die Leertaste, um fortzufahren.</t>
+  </si>
+  <si>
+    <t>Textbox and scripted sequence: Players birthday timestamp</t>
+  </si>
+  <si>
+    <t>player_birthday_sequence_timestamp</t>
+  </si>
+  <si>
+    <t>Textbox and scripted sequence: Players birthday text</t>
+  </si>
+  <si>
+    <t>player_birthday_sequence_text</t>
+  </si>
+  <si>
+    <t>Textbox and scripted sequence: Group discussion what to sell at the market; player cannot make a decision timestamp</t>
+  </si>
+  <si>
+    <t>group_market_passive_player_sequence_timestamp</t>
+  </si>
+  <si>
+    <t>Textbox and scripted sequence: Group discussion what to sell at the market; player cannot make a decision  text</t>
+  </si>
+  <si>
+    <t>group_market_passive_player_sequence_text</t>
+  </si>
+  <si>
+    <t>Dein Familienclan versammelt sich zur täglichen Abstimmung darüber, was auf dem Markt gekauft werden soll. Du darfst noch nicht mitentscheiden, da Du noch kein vollwertiges Mitglied bist. Drücke die Leertaste, um fortzufahren.</t>
+  </si>
+  <si>
+    <t>Textbox and scripted sequence: Group discussion what to sell at the market; player can make a decision timestamp</t>
+  </si>
+  <si>
+    <t>group_market_active_player_sequence_timestamp</t>
+  </si>
+  <si>
+    <t>Textbox and scripted sequence: Group discussion what to sell at the market; player can make a decision text</t>
+  </si>
+  <si>
+    <t>group_market_active_player_sequence_text</t>
+  </si>
+  <si>
+    <t>Stimme ab:</t>
+  </si>
+  <si>
+    <t>40% of ingroup NPCs wear a hat and a necklace; 60% wear only a hat</t>
+  </si>
+  <si>
+    <t>ingroup_40p_hat_necklace_appearance</t>
+  </si>
+  <si>
+    <t>Outgroup NPCs all look the same</t>
+  </si>
+  <si>
+    <t>outgroup_npcs_identical_appearance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Super, ihr liegt deutlich vor den Hornlingen! </t>
+  </si>
+  <si>
+    <t>Ihr seid jetzt gleichauf mit den Hornlingen.</t>
+  </si>
+  <si>
+    <t>Die Hornlinge haben euch aufgeholt.</t>
+  </si>
+  <si>
+    <t>Das ist deine Freundesfarm: Ihr seid die Rothüte.</t>
+  </si>
+  <si>
+    <t>Das ist ein vollwertiges Mika der Freundesfarm der Rothüte. Vollwertige Mitglieder tragen einen Hut und eine blaue Kette.</t>
+  </si>
+  <si>
+    <t>Dieses Mika ist noch kein vollwertiges Mitglied der Freundesfarm der Rothüte und hat bislang nur den Hut erhalten.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deine Freundesfarm braucht dringend Geld, denn unweit tobt ein Vulkan und ihr müsst umziehen - je mehr Geld ihr verdient, desto sicherer seid ihr! Verkauft Ernte, Holz und Früchte und verdient Münzen bei 'Kuh-in-den-Stall'. Doch seid auf der Hut vor den Hornlingen... </t>
+  </si>
+  <si>
+    <t>Deine Freundesfarm verleiht Dir den Hut als Zeichen deiner Zugehörigkeit! Drücke die Leertaste, um fortzufahren.</t>
+  </si>
+  <si>
+    <t>Eines unserer Rothüte bekommt die Kette verliehen und ist jetzt ein vollwertiges Mitglied der Freundesfarm! Drücke die Leertaste, um fortzufahren.</t>
+  </si>
+  <si>
+    <t>Deine Freundesfarm verleiht Dir die Kette. Jetzt bist Du vollwertiges Mitglied der Freundesfarm! Drücke die Leertaste, um fortzufahren.</t>
+  </si>
+  <si>
+    <t>Deine Freundesfarm versammelt sich zur täglichen Abstimmung darüber, was auf dem Markt gekauft werden soll. Du darfst noch nicht mitentscheiden, da Du noch kein vollwertiges Mitglied bist. Drücke die Leertaste, um fortzufahren.</t>
+  </si>
+  <si>
     <t>25 min</t>
-  </si>
-  <si>
-    <t>15 min</t>
-  </si>
-  <si>
-    <t>Town map</t>
-  </si>
-  <si>
-    <t>town_area</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Farm map</t>
-  </si>
-  <si>
-    <t>farm_area</t>
-  </si>
-  <si>
-    <t>Forest map</t>
-  </si>
-  <si>
-    <t>forest_area</t>
-  </si>
-  <si>
-    <t>Path signs</t>
-  </si>
-  <si>
-    <t>path_signs</t>
-  </si>
-  <si>
-    <t>Bathtub signs</t>
-  </si>
-  <si>
-    <t>bathtub_signs</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Interaction with signs possible</t>
-  </si>
-  <si>
-    <t>sign_interaction</t>
-  </si>
-  <si>
-    <t>Textbox notification new crop timestamp</t>
-  </si>
-  <si>
-    <t>notify_new_crop_timestamp</t>
-  </si>
-  <si>
-    <t>Textbox notification new crop</t>
-  </si>
-  <si>
-    <t>notify_new_crop_text</t>
-  </si>
-  <si>
-    <t>Hurra! Du kannst jetzt rote Beete pflanzen!</t>
-  </si>
-  <si>
-    <t>Hurra! Du kannst jetzt Karotten pflanzen!</t>
-  </si>
-  <si>
-    <t>Hurra! Du kannst jetzt Auberginen pflanzen!</t>
-  </si>
-  <si>
-    <t>Hurra! Du kannst jetzt Kürbis pflanzen!</t>
-  </si>
-  <si>
-    <t>Hurra! Du kannst jetzt Pastinaken pflanzen!</t>
-  </si>
-  <si>
-    <t>Textbox notification questionnaire reminder timestamp</t>
-  </si>
-  <si>
-    <t>notify_questionnaire_timestamp</t>
-  </si>
-  <si>
-    <t>Textbox notification questionnaire reminder</t>
-  </si>
-  <si>
-    <t>notify_questionnaire_text</t>
-  </si>
-  <si>
-    <t>Bitte öffnen Sie jetzt den Fragebogen aus der E-Mail</t>
-  </si>
-  <si>
-    <t>Textbox notification round end outgroup timestamp</t>
-  </si>
-  <si>
-    <t>notify_round_end_outgroup_timestamp</t>
-  </si>
-  <si>
-    <t>Textbox notification round end outgroup</t>
-  </si>
-  <si>
-    <t>notify_round_end_outgroup_text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Super, ihr habt letzte Runde mehr Geld verdient als die Horlinge! </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die Hornlinge haben aufgeholt und letzte Runde gleich viel Geld verdient wie ihr. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gute Arbeit – ihr habt letzte Runde mehr Geld verdient als die Horlinge! </t>
-  </si>
-  <si>
-    <t>Round end screen</t>
-  </si>
-  <si>
-    <t>round_end_screen</t>
-  </si>
-  <si>
-    <t>Crops</t>
-  </si>
-  <si>
-    <t>crop_types_list</t>
-  </si>
-  <si>
-    <t>tomato, corn</t>
-  </si>
-  <si>
-    <t>tomato, corn, beetroot</t>
-  </si>
-  <si>
-    <t>tomato, corn, beetroot, carrot</t>
-  </si>
-  <si>
-    <t>tomato, corn, beetroot, carrot, eggplant</t>
-  </si>
-  <si>
-    <t>tomato, corn, beetroot, carrot, eggplant, pumpkin</t>
-  </si>
-  <si>
-    <t>tomato, corn, beetroot, carrot, eggplant, pumpkin, parsnip</t>
-  </si>
-  <si>
-    <t>Switching to the outgroup</t>
-  </si>
-  <si>
-    <t>playable_outgroup</t>
-  </si>
-  <si>
-    <t>No [Not possible]</t>
-  </si>
-  <si>
-    <t>Health bar</t>
-  </si>
-  <si>
-    <t>healthbar</t>
-  </si>
-  <si>
-    <t>No [No health bar]</t>
-  </si>
-  <si>
-    <t>Bath house</t>
-  </si>
-  <si>
-    <t>accessible_bathhouse</t>
-  </si>
-  <si>
-    <t>No [Cannot enter bathhouse]</t>
-  </si>
-  <si>
-    <t>Getting sick and dying</t>
-  </si>
-  <si>
-    <t>sickness</t>
-  </si>
-  <si>
-    <t>No [No getting sick and no dying]</t>
-  </si>
-  <si>
-    <t>Inventory: Goggles</t>
-  </si>
-  <si>
-    <t>inventory_goggles</t>
-  </si>
-  <si>
-    <t>No [No goggles]</t>
-  </si>
-  <si>
-    <t>Volcanic eruption</t>
-  </si>
-  <si>
-    <t>volcanic_eruption</t>
-  </si>
-  <si>
-    <t>No [No volcanic eruption]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Statistics </t>
-  </si>
-  <si>
-    <t>statistics</t>
-  </si>
-  <si>
-    <t>No [No statistics]</t>
-  </si>
-  <si>
-    <t>Government character</t>
-  </si>
-  <si>
-    <t>government_character</t>
-  </si>
-  <si>
-    <t>No [No government character]</t>
-  </si>
-  <si>
-    <t>Inventory: Tools</t>
-  </si>
-  <si>
-    <t>inventory_tools</t>
-  </si>
-  <si>
-    <t>Inventory: Crops</t>
-  </si>
-  <si>
-    <t>inventory_crops</t>
-  </si>
-  <si>
-    <t>Inventory: harvest</t>
-  </si>
-  <si>
-    <t>inventory_harvest</t>
-  </si>
-  <si>
-    <t>walking</t>
-  </si>
-  <si>
-    <t>farming (use hoe, shovel, watering can, harvest)</t>
-  </si>
-  <si>
-    <t>farming</t>
-  </si>
-  <si>
-    <t>Buying and selling at the market</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>Use emote wheel</t>
-  </si>
-  <si>
-    <t>emote_wheel</t>
-  </si>
-  <si>
-    <t>Government statistics</t>
-  </si>
-  <si>
-    <t>government_statistics</t>
-  </si>
-  <si>
-    <t>No [No government statistics]</t>
-  </si>
-  <si>
-    <t>Resource allocation timestamp</t>
-  </si>
-  <si>
-    <t>resource_allocation_timestamp</t>
-  </si>
-  <si>
-    <t>Text: Resource allocation task</t>
-  </si>
-  <si>
-    <t>resource_allocation_text</t>
-  </si>
-  <si>
-    <t>Verteile sie frei! Die Handschuhe helfen beim Ernten.</t>
-  </si>
-  <si>
-    <t>Verteile sie frei! Die Stiefel helfen bei Regen.</t>
-  </si>
-  <si>
-    <t>Verteile sie frei! Die Jeans helfen beim Bäume fällen.</t>
-  </si>
-  <si>
-    <t>Verteile sie frei! Die Hemden helfen bei Kälte.</t>
-  </si>
-  <si>
-    <t>Verteile sie frei! Die Mäntel helfen bei Regen.</t>
-  </si>
-  <si>
-    <t>Verteile sie frei! Die Schützen helfen beim Kochen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resources in the resource allocation task </t>
-  </si>
-  <si>
-    <t>resource_allocation_item_text</t>
-  </si>
-  <si>
-    <t>6 Paar Handschuhe</t>
-  </si>
-  <si>
-    <t>2 Paar Stiefel</t>
-  </si>
-  <si>
-    <t>4 Paar Jeans</t>
-  </si>
-  <si>
-    <t>8 Hemden</t>
-  </si>
-  <si>
-    <t>6 Regenmäntel</t>
-  </si>
-  <si>
-    <t>10 Schürzen</t>
-  </si>
-  <si>
-    <t>Textbox character introduction timestamp</t>
-  </si>
-  <si>
-    <t>character_introduction_timestamp</t>
-  </si>
-  <si>
-    <t>Textbox: Character introduction</t>
-  </si>
-  <si>
-    <t>character_introduction_text</t>
-  </si>
-  <si>
-    <t>Willkommen in der Stadt Hafenwald! Das bist Du: Ein Mika Wesen namens [Initialen]. Du lebst hier in Hafenwald, zusammen mit vielen anderen Mikas.</t>
-  </si>
-  <si>
-    <t>Measuring affect timestamp</t>
-  </si>
-  <si>
-    <t>self_assessment_timestamp</t>
-  </si>
-  <si>
-    <t>16:00, 22:00</t>
-  </si>
-  <si>
-    <t>01:00, 11:00</t>
-  </si>
-  <si>
-    <t>03:00, 11:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Measuring affect </t>
-  </si>
-  <si>
-    <t>self_assessment_menu</t>
-  </si>
-  <si>
-    <t>Mini game</t>
-  </si>
-  <si>
-    <t>minigame</t>
-  </si>
-  <si>
-    <t>Yes [Playable at any time]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NPCs rooting in mini game </t>
-  </si>
-  <si>
-    <t>minigame_rooting_npcs</t>
-  </si>
-  <si>
-    <t>Textbox and scripted sequence: Introduction to ingroup</t>
-  </si>
-  <si>
-    <t>ingroup_introduction_text</t>
-  </si>
-  <si>
-    <t>Das ist dein Familienclan: Ihr seid die Rothüte.</t>
-  </si>
-  <si>
-    <t>Textbox and scripted sequence: Hat and necklace</t>
-  </si>
-  <si>
-    <t>ingroup_hat_necklace_introduction_text</t>
-  </si>
-  <si>
-    <t>Das ist ein vollwertiges Mika des Familienclans der Rothüte. Vollwertige Mitglieder tragen einen Hut und eine blaue Kette.</t>
-  </si>
-  <si>
-    <t>Textbox and scripted sequence: Hat</t>
-  </si>
-  <si>
-    <t>ingroup_hat_introduction_text</t>
-  </si>
-  <si>
-    <t>Dieses Mika ist noch kein vollwertiges Mitglied des Familienclans der Rothüte und hat bislang nur den Hut erhalten.</t>
-  </si>
-  <si>
-    <t>Textbox and scripted sequence: narrative</t>
-  </si>
-  <si>
-    <t>narrative_text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dein Familienclan braucht dringend Geld, denn unweit tobt ein Vulkan und ihr müsst umziehen - je mehr Geld ihr verdient, desto sicherer seid ihr! Verkauft Ernte, Holz und Früchte und verdient Münzen bei 'Kuh-in-den-Stall'. Doch seid auf der Hut vor den Hornlingen... </t>
-  </si>
-  <si>
-    <t>Textbox and scripted sequence: Introduction to outgroup</t>
-  </si>
-  <si>
-    <t>outgroup_introduction_text</t>
-  </si>
-  <si>
-    <t>Das ist die andere Gruppe: Die Hornlinge.</t>
-  </si>
-  <si>
-    <t>Textbox and scripted sequence: Player receives hat timestamp</t>
-  </si>
-  <si>
-    <t>player_hat_sequence_timestamp</t>
-  </si>
-  <si>
-    <t>Textbox and scripted sequence: Player receives hat text</t>
-  </si>
-  <si>
-    <t>player_hat_sequence_text</t>
-  </si>
-  <si>
-    <t>Dein Familienclan verleiht Dir den Hut als Zeichen deiner Zugehörigkeit! Drücke die Leertaste, um fortzufahren.</t>
-  </si>
-  <si>
-    <t>Textbox and scripted sequence: In-group member receives necklace timestamp</t>
-  </si>
-  <si>
-    <t>ingroup_necklace_sequence_timestamp</t>
-  </si>
-  <si>
-    <t>Textbox and scripted sequence: In-group member receives necklace text</t>
-  </si>
-  <si>
-    <t>ingroup_necklace_sequence_text</t>
-  </si>
-  <si>
-    <t>Eines unserer Rothüte bekommt die Kette verliehen und ist jetzt ein vollwertiges Mitglied des Familienclans! Drücke die Leertaste, um fortzufahren.</t>
-  </si>
-  <si>
-    <t>Textbox and scripted sequence: Player receives necklace timestamp</t>
-  </si>
-  <si>
-    <t>player_necklace_sequence_timestamp</t>
-  </si>
-  <si>
-    <t>Textbox and scripted sequence: Player receives necklace text</t>
-  </si>
-  <si>
-    <t>player_necklace_sequence_text</t>
-  </si>
-  <si>
-    <t>Dein Familienclan verleiht Dir die Kette. Jetzt bist Du vollwertiges Mitglied des Familienclans! Drücke die Leertaste, um fortzufahren.</t>
-  </si>
-  <si>
-    <t>Textbox and scripted sequence: Players birthday timestamp</t>
-  </si>
-  <si>
-    <t>player_birthday_sequence_timestamp</t>
-  </si>
-  <si>
-    <t>Textbox and scripted sequence: Players birthday text</t>
-  </si>
-  <si>
-    <t>player_birthday_sequence_text</t>
-  </si>
-  <si>
-    <t>Textbox and scripted sequence: Group discussion what to sell at the market; player cannot make a decision timestamp</t>
-  </si>
-  <si>
-    <t>group_market_passive_player_sequence_timestamp</t>
-  </si>
-  <si>
-    <t>Textbox and scripted sequence: Group discussion what to sell at the market; player cannot make a decision  text</t>
-  </si>
-  <si>
-    <t>group_market_passive_player_sequence_text</t>
-  </si>
-  <si>
-    <t>Dein Familienclan versammelt sich zur täglichen Abstimmung darüber, was auf dem Markt gekauft werden soll. Du darfst noch nicht mitentscheiden, da Du noch kein vollwertiges Mitglied bist. Drücke die Leertaste, um fortzufahren.</t>
-  </si>
-  <si>
-    <t>Textbox and scripted sequence: Group discussion what to sell at the market; player can make a decision timestamp</t>
-  </si>
-  <si>
-    <t>group_market_active_player_sequence_timestamp</t>
-  </si>
-  <si>
-    <t>Textbox and scripted sequence: Group discussion what to sell at the market; player can make a decision text</t>
-  </si>
-  <si>
-    <t>group_market_active_player_sequence_text</t>
-  </si>
-  <si>
-    <t>Stimme ab:</t>
-  </si>
-  <si>
-    <t>40% of ingroup NPCs wear a hat and a necklace; 60% wear only a hat</t>
-  </si>
-  <si>
-    <t>ingroup_40p_hat_necklace_appearance</t>
-  </si>
-  <si>
-    <t>Outgroup NPCs all look the same</t>
-  </si>
-  <si>
-    <t>outgroup_npcs_identical_appearance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Super, ihr liegt deutlich vor den Hornlingen! </t>
-  </si>
-  <si>
-    <t>Ihr seid jetzt gleichauf mit den Hornlingen.</t>
-  </si>
-  <si>
-    <t>Die Hornlinge haben euch aufgeholt.</t>
-  </si>
-  <si>
-    <t>Das ist deine Freundesfarm: Ihr seid die Rothüte.</t>
-  </si>
-  <si>
-    <t>Das ist ein vollwertiges Mika der Freundesfarm der Rothüte. Vollwertige Mitglieder tragen einen Hut und eine blaue Kette.</t>
-  </si>
-  <si>
-    <t>Dieses Mika ist noch kein vollwertiges Mitglied der Freundesfarm der Rothüte und hat bislang nur den Hut erhalten.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deine Freundesfarm braucht dringend Geld, denn unweit tobt ein Vulkan und ihr müsst umziehen - je mehr Geld ihr verdient, desto sicherer seid ihr! Verkauft Ernte, Holz und Früchte und verdient Münzen bei 'Kuh-in-den-Stall'. Doch seid auf der Hut vor den Hornlingen... </t>
-  </si>
-  <si>
-    <t>Deine Freundesfarm verleiht Dir den Hut als Zeichen deiner Zugehörigkeit! Drücke die Leertaste, um fortzufahren.</t>
-  </si>
-  <si>
-    <t>Eines unserer Rothüte bekommt die Kette verliehen und ist jetzt ein vollwertiges Mitglied der Freundesfarm! Drücke die Leertaste, um fortzufahren.</t>
-  </si>
-  <si>
-    <t>Deine Freundesfarm verleiht Dir die Kette. Jetzt bist Du vollwertiges Mitglied der Freundesfarm! Drücke die Leertaste, um fortzufahren.</t>
-  </si>
-  <si>
-    <t>Deine Freundesfarm versammelt sich zur täglichen Abstimmung darüber, was auf dem Markt gekauft werden soll. Du darfst noch nicht mitentscheiden, da Du noch kein vollwertiges Mitglied bist. Drücke die Leertaste, um fortzufahren.</t>
   </si>
   <si>
     <t xml:space="preserve">No </t>
@@ -1175,56 +1175,56 @@
         <v>11</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="C4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>15</v>
-      </c>
       <c r="D4" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>17</v>
-      </c>
       <c r="C5" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
@@ -1234,13 +1234,13 @@
     </row>
     <row r="6">
       <c r="A6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>19</v>
-      </c>
       <c r="C6" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
@@ -1250,13 +1250,13 @@
     </row>
     <row r="7">
       <c r="A7" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>21</v>
-      </c>
       <c r="C7" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
@@ -1266,13 +1266,13 @@
     </row>
     <row r="8">
       <c r="A8" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="C8" s="15" t="s">
         <v>23</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>24</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
@@ -1282,13 +1282,13 @@
     </row>
     <row r="9">
       <c r="A9" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>26</v>
-      </c>
       <c r="C9" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
@@ -1298,10 +1298,10 @@
     </row>
     <row r="10">
       <c r="A10" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="14" t="s">
         <v>27</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>28</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="18">
@@ -1322,34 +1322,34 @@
     </row>
     <row r="11">
       <c r="A11" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="14" t="s">
         <v>29</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>30</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="F11" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="G11" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="H11" s="19" t="s">
         <v>34</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="21" t="s">
         <v>36</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>37</v>
       </c>
       <c r="C12" s="22"/>
       <c r="D12" s="22">
@@ -1366,30 +1366,30 @@
     </row>
     <row r="13">
       <c r="A13" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="21" t="s">
         <v>38</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>39</v>
       </c>
       <c r="C13" s="24"/>
       <c r="D13" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E13" s="23"/>
       <c r="F13" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G13" s="23"/>
       <c r="H13" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="21" t="s">
         <v>41</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>42</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="27">
@@ -1406,33 +1406,33 @@
     </row>
     <row r="15">
       <c r="A15" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="28" t="s">
         <v>43</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>44</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="14" t="s">
-        <v>49</v>
-      </c>
       <c r="C16" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
@@ -1442,39 +1442,39 @@
     </row>
     <row r="17">
       <c r="A17" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="C17" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="D17" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="E17" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="F17" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="G17" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="H17" s="9" t="s">
         <v>56</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="C18" s="15" t="s">
         <v>59</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>60</v>
       </c>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
@@ -1484,13 +1484,13 @@
     </row>
     <row r="19">
       <c r="A19" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="C19" s="15" t="s">
         <v>62</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>63</v>
       </c>
       <c r="D19" s="16"/>
       <c r="E19" s="16"/>
@@ -1500,13 +1500,13 @@
     </row>
     <row r="20">
       <c r="A20" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="C20" s="15" t="s">
         <v>65</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>66</v>
       </c>
       <c r="D20" s="16"/>
       <c r="E20" s="16"/>
@@ -1516,13 +1516,13 @@
     </row>
     <row r="21">
       <c r="A21" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="C21" s="15" t="s">
         <v>68</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>69</v>
       </c>
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
@@ -1532,13 +1532,13 @@
     </row>
     <row r="22">
       <c r="A22" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="C22" s="15" t="s">
         <v>71</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>72</v>
       </c>
       <c r="D22" s="16"/>
       <c r="E22" s="16"/>
@@ -1548,13 +1548,13 @@
     </row>
     <row r="23">
       <c r="A23" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="C23" s="15" t="s">
         <v>74</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>75</v>
       </c>
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
@@ -1564,13 +1564,13 @@
     </row>
     <row r="24">
       <c r="A24" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="C24" s="15" t="s">
         <v>77</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>78</v>
       </c>
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
@@ -1580,13 +1580,13 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="C25" s="15" t="s">
         <v>80</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>81</v>
       </c>
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
@@ -1596,13 +1596,13 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="B26" s="14" t="s">
-        <v>83</v>
-      </c>
       <c r="C26" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D26" s="16"/>
       <c r="E26" s="16"/>
@@ -1612,13 +1612,13 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="B27" s="14" t="s">
-        <v>85</v>
-      </c>
       <c r="C27" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D27" s="16"/>
       <c r="E27" s="16"/>
@@ -1628,13 +1628,13 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="B28" s="14" t="s">
-        <v>87</v>
-      </c>
       <c r="C28" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
@@ -1644,13 +1644,13 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D29" s="16"/>
       <c r="E29" s="16"/>
@@ -1660,13 +1660,13 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B30" s="14" t="s">
-        <v>90</v>
-      </c>
       <c r="C30" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D30" s="16"/>
       <c r="E30" s="16"/>
@@ -1676,13 +1676,13 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="B31" s="14" t="s">
-        <v>92</v>
-      </c>
       <c r="C31" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
@@ -1692,13 +1692,13 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="B32" s="14" t="s">
-        <v>94</v>
-      </c>
       <c r="C32" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
@@ -1708,13 +1708,13 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B33" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="C33" s="15" t="s">
         <v>96</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>97</v>
       </c>
       <c r="D33" s="16"/>
       <c r="E33" s="16"/>
@@ -1724,13 +1724,13 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B34" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="B34" s="14" t="s">
-        <v>99</v>
-      </c>
       <c r="C34" s="27">
-        <v>0.9583333333333334</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="D34" s="18">
         <v>0.25</v>
@@ -1750,62 +1750,62 @@
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="C35" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="C35" s="32" t="s">
+      <c r="D35" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="D35" s="33" t="s">
+      <c r="E35" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="E35" s="33" t="s">
+      <c r="F35" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="F35" s="33" t="s">
+      <c r="G35" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="G35" s="33" t="s">
+      <c r="H35" s="33" t="s">
         <v>106</v>
-      </c>
-      <c r="H35" s="33" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B36" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="C36" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="D36" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="E36" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="F36" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="G36" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="G36" s="9" t="s">
+      <c r="H36" s="9" t="s">
         <v>114</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="B37" s="35" t="s">
         <v>116</v>
-      </c>
-      <c r="B37" s="35" t="s">
-        <v>117</v>
       </c>
       <c r="C37" s="18">
         <v>0.0</v>
@@ -1818,13 +1818,13 @@
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B38" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="C38" s="19" t="s">
         <v>119</v>
-      </c>
-      <c r="C38" s="19" t="s">
-        <v>120</v>
       </c>
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
@@ -1834,39 +1834,39 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="B39" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="C39" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="D39" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="E39" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F39" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="G39" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="F39" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="G39" s="9" t="s">
-        <v>125</v>
-      </c>
       <c r="H39" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="B40" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="B40" s="14" t="s">
-        <v>127</v>
-      </c>
       <c r="C40" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D40" s="16"/>
       <c r="E40" s="16"/>
@@ -1876,13 +1876,13 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="B41" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="C41" s="15" t="s">
         <v>129</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>130</v>
       </c>
       <c r="D41" s="16"/>
       <c r="E41" s="16"/>
@@ -1892,13 +1892,13 @@
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="B42" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="B42" s="14" t="s">
-        <v>132</v>
-      </c>
       <c r="C42" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D42" s="16"/>
       <c r="E42" s="16"/>
@@ -1908,13 +1908,13 @@
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B43" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="C43" s="19" t="s">
         <v>134</v>
-      </c>
-      <c r="C43" s="19" t="s">
-        <v>135</v>
       </c>
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
@@ -1924,13 +1924,13 @@
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="B44" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="B44" s="28" t="s">
+      <c r="C44" s="19" t="s">
         <v>137</v>
-      </c>
-      <c r="C44" s="19" t="s">
-        <v>138</v>
       </c>
       <c r="D44" s="27"/>
       <c r="E44" s="12"/>
@@ -1940,13 +1940,13 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="B45" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="B45" s="28" t="s">
+      <c r="C45" s="19" t="s">
         <v>140</v>
-      </c>
-      <c r="C45" s="19" t="s">
-        <v>141</v>
       </c>
       <c r="D45" s="27"/>
       <c r="E45" s="12"/>
@@ -1956,13 +1956,13 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="B46" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="B46" s="28" t="s">
+      <c r="C46" s="19" t="s">
         <v>143</v>
-      </c>
-      <c r="C46" s="19" t="s">
-        <v>144</v>
       </c>
       <c r="D46" s="18"/>
       <c r="E46" s="12"/>
@@ -1972,13 +1972,13 @@
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="B47" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="B47" s="28" t="s">
+      <c r="C47" s="19" t="s">
         <v>146</v>
-      </c>
-      <c r="C47" s="19" t="s">
-        <v>147</v>
       </c>
       <c r="D47" s="27"/>
       <c r="E47" s="12"/>
@@ -1988,10 +1988,10 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B48" s="14" t="s">
         <v>148</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>149</v>
       </c>
       <c r="C48" s="12"/>
       <c r="D48" s="27">
@@ -2004,14 +2004,14 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="B49" s="28" t="s">
         <v>150</v>
-      </c>
-      <c r="B49" s="28" t="s">
-        <v>151</v>
       </c>
       <c r="C49" s="12"/>
       <c r="D49" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E49" s="12"/>
       <c r="F49" s="12"/>
@@ -2020,13 +2020,13 @@
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="B50" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="B50" s="14" t="s">
-        <v>154</v>
-      </c>
       <c r="C50" s="27">
-        <v>0.875</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="D50" s="18"/>
       <c r="E50" s="12"/>
@@ -2036,13 +2036,13 @@
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="B51" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="B51" s="28" t="s">
+      <c r="C51" s="9" t="s">
         <v>156</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>157</v>
       </c>
       <c r="D51" s="9"/>
       <c r="E51" s="12"/>
@@ -2052,10 +2052,10 @@
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="B52" s="14" t="s">
         <v>158</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>159</v>
       </c>
       <c r="C52" s="12"/>
       <c r="D52" s="12"/>
@@ -2068,26 +2068,26 @@
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="B53" s="28" t="s">
         <v>160</v>
-      </c>
-      <c r="B53" s="28" t="s">
-        <v>161</v>
       </c>
       <c r="C53" s="12"/>
       <c r="D53" s="12"/>
       <c r="E53" s="12"/>
       <c r="F53" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G53" s="12"/>
       <c r="H53" s="12"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="B54" s="14" t="s">
         <v>163</v>
-      </c>
-      <c r="B54" s="14" t="s">
-        <v>164</v>
       </c>
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
@@ -2098,10 +2098,10 @@
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="B55" s="28" t="s">
         <v>165</v>
-      </c>
-      <c r="B55" s="28" t="s">
-        <v>166</v>
       </c>
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
@@ -2112,13 +2112,13 @@
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B56" s="37" t="s">
         <v>167</v>
       </c>
-      <c r="B56" s="37" t="s">
-        <v>168</v>
-      </c>
       <c r="C56" s="38">
-        <v>0.7083333333333334</v>
+        <v>0.5</v>
       </c>
       <c r="D56" s="38">
         <v>0.08333333333333333</v>
@@ -2132,19 +2132,19 @@
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="B57" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="B57" s="39" t="s">
+      <c r="C57" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="C57" s="9" t="s">
-        <v>171</v>
-      </c>
       <c r="D57" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F57" s="12"/>
       <c r="G57" s="12"/>
@@ -2152,10 +2152,10 @@
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="B58" s="14" t="s">
         <v>172</v>
-      </c>
-      <c r="B58" s="14" t="s">
-        <v>173</v>
       </c>
       <c r="C58" s="15"/>
       <c r="D58" s="15"/>
@@ -2172,33 +2172,33 @@
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="B59" s="28" t="s">
         <v>174</v>
-      </c>
-      <c r="B59" s="28" t="s">
-        <v>175</v>
       </c>
       <c r="C59" s="12"/>
       <c r="D59" s="12"/>
       <c r="E59" s="12"/>
       <c r="F59" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H59" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B60" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="B60" s="8" t="s">
-        <v>178</v>
-      </c>
       <c r="C60" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D60" s="16"/>
       <c r="E60" s="16"/>
@@ -2208,13 +2208,13 @@
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B61" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="B61" s="8" t="s">
-        <v>180</v>
-      </c>
       <c r="C61" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D61" s="16"/>
       <c r="E61" s="16"/>
@@ -5164,30 +5164,30 @@
         <v>11</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="C4" s="15" t="s">
         <v>14</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>15</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
@@ -5197,13 +5197,13 @@
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>17</v>
-      </c>
       <c r="C5" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
@@ -5213,13 +5213,13 @@
     </row>
     <row r="6">
       <c r="A6" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>19</v>
-      </c>
       <c r="C6" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
@@ -5229,13 +5229,13 @@
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>21</v>
-      </c>
       <c r="C7" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
@@ -5245,13 +5245,13 @@
     </row>
     <row r="8">
       <c r="A8" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="C8" s="15" t="s">
         <v>23</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>24</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
@@ -5261,13 +5261,13 @@
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>26</v>
-      </c>
       <c r="C9" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
@@ -5277,10 +5277,10 @@
     </row>
     <row r="10">
       <c r="A10" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="14" t="s">
         <v>27</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>28</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="18">
@@ -5301,34 +5301,34 @@
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="14" t="s">
         <v>29</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>30</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="F11" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="G11" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="H11" s="19" t="s">
         <v>34</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="21" t="s">
         <v>36</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>37</v>
       </c>
       <c r="C12" s="22"/>
       <c r="D12" s="22">
@@ -5345,30 +5345,30 @@
     </row>
     <row r="13">
       <c r="A13" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="21" t="s">
         <v>38</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>39</v>
       </c>
       <c r="C13" s="24"/>
       <c r="D13" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E13" s="23"/>
       <c r="F13" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G13" s="23"/>
       <c r="H13" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="21" t="s">
         <v>41</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>42</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="27">
@@ -5385,33 +5385,33 @@
     </row>
     <row r="15">
       <c r="A15" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="28" t="s">
         <v>43</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>44</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="14" t="s">
-        <v>49</v>
-      </c>
       <c r="C16" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
@@ -5421,39 +5421,39 @@
     </row>
     <row r="17">
       <c r="A17" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="C17" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="D17" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="E17" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="F17" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="G17" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="H17" s="9" t="s">
         <v>56</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="C18" s="15" t="s">
         <v>59</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>60</v>
       </c>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
@@ -5463,13 +5463,13 @@
     </row>
     <row r="19">
       <c r="A19" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="C19" s="15" t="s">
         <v>62</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>63</v>
       </c>
       <c r="D19" s="16"/>
       <c r="E19" s="16"/>
@@ -5479,13 +5479,13 @@
     </row>
     <row r="20">
       <c r="A20" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="C20" s="15" t="s">
         <v>65</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>66</v>
       </c>
       <c r="D20" s="16"/>
       <c r="E20" s="16"/>
@@ -5495,13 +5495,13 @@
     </row>
     <row r="21">
       <c r="A21" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="C21" s="15" t="s">
         <v>68</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>69</v>
       </c>
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
@@ -5511,13 +5511,13 @@
     </row>
     <row r="22">
       <c r="A22" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="C22" s="15" t="s">
         <v>71</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>72</v>
       </c>
       <c r="D22" s="16"/>
       <c r="E22" s="16"/>
@@ -5527,13 +5527,13 @@
     </row>
     <row r="23">
       <c r="A23" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="C23" s="15" t="s">
         <v>74</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>75</v>
       </c>
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
@@ -5543,13 +5543,13 @@
     </row>
     <row r="24">
       <c r="A24" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="C24" s="15" t="s">
         <v>77</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>78</v>
       </c>
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
@@ -5559,13 +5559,13 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="C25" s="15" t="s">
         <v>80</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>81</v>
       </c>
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
@@ -5575,13 +5575,13 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="B26" s="14" t="s">
-        <v>83</v>
-      </c>
       <c r="C26" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D26" s="16"/>
       <c r="E26" s="16"/>
@@ -5591,13 +5591,13 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="B27" s="14" t="s">
-        <v>85</v>
-      </c>
       <c r="C27" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D27" s="16"/>
       <c r="E27" s="16"/>
@@ -5607,13 +5607,13 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="B28" s="14" t="s">
-        <v>87</v>
-      </c>
       <c r="C28" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
@@ -5623,13 +5623,13 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D29" s="16"/>
       <c r="E29" s="16"/>
@@ -5639,13 +5639,13 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B30" s="14" t="s">
-        <v>90</v>
-      </c>
       <c r="C30" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D30" s="16"/>
       <c r="E30" s="16"/>
@@ -5655,13 +5655,13 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="B31" s="14" t="s">
-        <v>92</v>
-      </c>
       <c r="C31" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
@@ -5671,13 +5671,13 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="B32" s="14" t="s">
-        <v>94</v>
-      </c>
       <c r="C32" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
@@ -5687,13 +5687,13 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B33" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="C33" s="15" t="s">
         <v>96</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>97</v>
       </c>
       <c r="D33" s="16"/>
       <c r="E33" s="16"/>
@@ -5703,13 +5703,13 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B34" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="B34" s="14" t="s">
-        <v>99</v>
-      </c>
       <c r="C34" s="27">
-        <v>0.9583333333333334</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="D34" s="18">
         <v>0.25</v>
@@ -5729,62 +5729,62 @@
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="C35" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="C35" s="32" t="s">
+      <c r="D35" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="D35" s="33" t="s">
+      <c r="E35" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="E35" s="33" t="s">
+      <c r="F35" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="F35" s="33" t="s">
+      <c r="G35" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="G35" s="33" t="s">
+      <c r="H35" s="33" t="s">
         <v>106</v>
-      </c>
-      <c r="H35" s="33" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B36" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="C36" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="D36" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="E36" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="F36" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="G36" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="G36" s="9" t="s">
+      <c r="H36" s="9" t="s">
         <v>114</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="B37" s="35" t="s">
         <v>116</v>
-      </c>
-      <c r="B37" s="35" t="s">
-        <v>117</v>
       </c>
       <c r="C37" s="18">
         <v>0.0</v>
@@ -5797,13 +5797,13 @@
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="B38" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="C38" s="19" t="s">
         <v>119</v>
-      </c>
-      <c r="C38" s="19" t="s">
-        <v>120</v>
       </c>
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
@@ -5813,39 +5813,39 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B39" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="C39" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="D39" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="E39" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F39" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="G39" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="F39" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="G39" s="9" t="s">
-        <v>125</v>
-      </c>
       <c r="H39" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="B40" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="B40" s="14" t="s">
-        <v>127</v>
-      </c>
       <c r="C40" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D40" s="16"/>
       <c r="E40" s="16"/>
@@ -5855,13 +5855,13 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="B41" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="C41" s="15" t="s">
         <v>129</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>130</v>
       </c>
       <c r="D41" s="16"/>
       <c r="E41" s="16"/>
@@ -5871,13 +5871,13 @@
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B42" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="B42" s="14" t="s">
-        <v>132</v>
-      </c>
       <c r="C42" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D42" s="16"/>
       <c r="E42" s="16"/>
@@ -5887,13 +5887,13 @@
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="B43" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="B43" s="14" t="s">
-        <v>134</v>
-      </c>
       <c r="C43" s="19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
@@ -5903,13 +5903,13 @@
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="B44" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="B44" s="28" t="s">
-        <v>137</v>
-      </c>
       <c r="C44" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D44" s="27"/>
       <c r="E44" s="12"/>
@@ -5919,13 +5919,13 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="B45" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="B45" s="28" t="s">
-        <v>140</v>
-      </c>
       <c r="C45" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D45" s="27"/>
       <c r="E45" s="12"/>
@@ -5935,13 +5935,13 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="B46" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="B46" s="28" t="s">
-        <v>143</v>
-      </c>
       <c r="C46" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D46" s="18"/>
       <c r="E46" s="12"/>
@@ -5951,13 +5951,13 @@
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="B47" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="B47" s="43" t="s">
+      <c r="C47" s="44" t="s">
         <v>146</v>
-      </c>
-      <c r="C47" s="44" t="s">
-        <v>147</v>
       </c>
       <c r="D47" s="27"/>
       <c r="E47" s="12"/>
@@ -5967,10 +5967,10 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="B48" s="14" t="s">
         <v>148</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>149</v>
       </c>
       <c r="C48" s="12"/>
       <c r="D48" s="27">
@@ -5983,14 +5983,14 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="B49" s="28" t="s">
         <v>150</v>
-      </c>
-      <c r="B49" s="28" t="s">
-        <v>151</v>
       </c>
       <c r="C49" s="12"/>
       <c r="D49" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E49" s="12"/>
       <c r="F49" s="12"/>
@@ -5999,13 +5999,13 @@
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B50" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="B50" s="14" t="s">
-        <v>154</v>
-      </c>
       <c r="C50" s="27">
-        <v>0.875</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="D50" s="18"/>
       <c r="E50" s="12"/>
@@ -6015,13 +6015,13 @@
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="B51" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="B51" s="28" t="s">
-        <v>156</v>
-      </c>
       <c r="C51" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D51" s="9"/>
       <c r="E51" s="12"/>
@@ -6031,10 +6031,10 @@
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="B52" s="14" t="s">
         <v>158</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>159</v>
       </c>
       <c r="C52" s="12"/>
       <c r="D52" s="12"/>
@@ -6047,26 +6047,26 @@
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="B53" s="28" t="s">
         <v>160</v>
-      </c>
-      <c r="B53" s="28" t="s">
-        <v>161</v>
       </c>
       <c r="C53" s="12"/>
       <c r="D53" s="12"/>
       <c r="E53" s="12"/>
       <c r="F53" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G53" s="12"/>
       <c r="H53" s="12"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="B54" s="14" t="s">
         <v>163</v>
-      </c>
-      <c r="B54" s="14" t="s">
-        <v>164</v>
       </c>
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
@@ -6077,10 +6077,10 @@
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="B55" s="28" t="s">
         <v>165</v>
-      </c>
-      <c r="B55" s="28" t="s">
-        <v>166</v>
       </c>
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
@@ -6091,13 +6091,13 @@
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B56" s="37" t="s">
         <v>167</v>
       </c>
-      <c r="B56" s="37" t="s">
-        <v>168</v>
-      </c>
       <c r="C56" s="38">
-        <v>0.7083333333333334</v>
+        <v>0.5</v>
       </c>
       <c r="D56" s="38">
         <v>0.08333333333333333</v>
@@ -6111,19 +6111,19 @@
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="B57" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="B57" s="39" t="s">
-        <v>170</v>
-      </c>
       <c r="C57" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F57" s="12"/>
       <c r="G57" s="12"/>
@@ -6131,10 +6131,10 @@
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="B58" s="14" t="s">
         <v>172</v>
-      </c>
-      <c r="B58" s="14" t="s">
-        <v>173</v>
       </c>
       <c r="C58" s="15"/>
       <c r="D58" s="15"/>
@@ -6151,33 +6151,33 @@
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="B59" s="28" t="s">
         <v>174</v>
-      </c>
-      <c r="B59" s="28" t="s">
-        <v>175</v>
       </c>
       <c r="C59" s="12"/>
       <c r="D59" s="12"/>
       <c r="E59" s="12"/>
       <c r="F59" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H59" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B60" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="B60" s="8" t="s">
-        <v>178</v>
-      </c>
       <c r="C60" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D60" s="16"/>
       <c r="E60" s="16"/>
@@ -6187,13 +6187,13 @@
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B61" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="B61" s="8" t="s">
-        <v>180</v>
-      </c>
       <c r="C61" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D61" s="16"/>
       <c r="E61" s="16"/>
@@ -7249,33 +7249,33 @@
         <v>10</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>12</v>
-      </c>
       <c r="E3" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="C4" s="15" t="s">
         <v>14</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>15</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
@@ -7285,13 +7285,13 @@
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>17</v>
-      </c>
       <c r="C5" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
@@ -7301,13 +7301,13 @@
     </row>
     <row r="6">
       <c r="A6" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>19</v>
-      </c>
       <c r="C6" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
@@ -7317,13 +7317,13 @@
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>21</v>
-      </c>
       <c r="C7" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
@@ -7333,13 +7333,13 @@
     </row>
     <row r="8">
       <c r="A8" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="C8" s="15" t="s">
         <v>23</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>24</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
@@ -7349,13 +7349,13 @@
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>26</v>
-      </c>
       <c r="C9" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
@@ -7365,10 +7365,10 @@
     </row>
     <row r="10">
       <c r="A10" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>27</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>28</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="18">
@@ -7389,34 +7389,34 @@
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>29</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>30</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="F11" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="G11" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="H11" s="19" t="s">
         <v>34</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="21" t="s">
         <v>36</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>37</v>
       </c>
       <c r="C12" s="22"/>
       <c r="D12" s="22">
@@ -7433,30 +7433,30 @@
     </row>
     <row r="13">
       <c r="A13" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="21" t="s">
         <v>38</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>39</v>
       </c>
       <c r="C13" s="24"/>
       <c r="D13" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E13" s="23"/>
       <c r="F13" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G13" s="23"/>
       <c r="H13" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="21" t="s">
         <v>41</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>42</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="27"/>
@@ -7467,10 +7467,10 @@
     </row>
     <row r="15">
       <c r="A15" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="28" t="s">
         <v>43</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>44</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -7481,13 +7481,13 @@
     </row>
     <row r="16">
       <c r="A16" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>49</v>
-      </c>
       <c r="C16" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
@@ -7497,39 +7497,39 @@
     </row>
     <row r="17">
       <c r="A17" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="C17" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="D17" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="E17" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="F17" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="G17" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="H17" s="9" t="s">
         <v>56</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="C18" s="15" t="s">
         <v>59</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>60</v>
       </c>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
@@ -7539,13 +7539,13 @@
     </row>
     <row r="19">
       <c r="A19" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="C19" s="15" t="s">
         <v>62</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>63</v>
       </c>
       <c r="D19" s="16"/>
       <c r="E19" s="16"/>
@@ -7555,13 +7555,13 @@
     </row>
     <row r="20">
       <c r="A20" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="C20" s="15" t="s">
         <v>65</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>66</v>
       </c>
       <c r="D20" s="16"/>
       <c r="E20" s="16"/>
@@ -7571,13 +7571,13 @@
     </row>
     <row r="21">
       <c r="A21" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="C21" s="15" t="s">
         <v>68</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>69</v>
       </c>
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
@@ -7587,13 +7587,13 @@
     </row>
     <row r="22">
       <c r="A22" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="C22" s="15" t="s">
         <v>71</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>72</v>
       </c>
       <c r="D22" s="16"/>
       <c r="E22" s="16"/>
@@ -7603,13 +7603,13 @@
     </row>
     <row r="23">
       <c r="A23" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="C23" s="15" t="s">
         <v>74</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>75</v>
       </c>
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
@@ -7619,13 +7619,13 @@
     </row>
     <row r="24">
       <c r="A24" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="C24" s="15" t="s">
         <v>77</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>78</v>
       </c>
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
@@ -7635,13 +7635,13 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="C25" s="15" t="s">
         <v>80</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>81</v>
       </c>
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
@@ -7651,13 +7651,13 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B26" s="13" t="s">
-        <v>83</v>
-      </c>
       <c r="C26" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D26" s="16"/>
       <c r="E26" s="16"/>
@@ -7667,13 +7667,13 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B27" s="13" t="s">
-        <v>85</v>
-      </c>
       <c r="C27" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D27" s="16"/>
       <c r="E27" s="16"/>
@@ -7683,13 +7683,13 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="B28" s="13" t="s">
-        <v>87</v>
-      </c>
       <c r="C28" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
@@ -7699,13 +7699,13 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D29" s="16"/>
       <c r="E29" s="16"/>
@@ -7715,13 +7715,13 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="B30" s="13" t="s">
-        <v>90</v>
-      </c>
       <c r="C30" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D30" s="16"/>
       <c r="E30" s="16"/>
@@ -7731,13 +7731,13 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="B31" s="13" t="s">
-        <v>92</v>
-      </c>
       <c r="C31" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
@@ -7747,13 +7747,13 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="B32" s="13" t="s">
-        <v>94</v>
-      </c>
       <c r="C32" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
@@ -7763,13 +7763,13 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B33" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="C33" s="15" t="s">
         <v>96</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>97</v>
       </c>
       <c r="D33" s="16"/>
       <c r="E33" s="16"/>
@@ -7779,13 +7779,13 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B34" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B34" s="13" t="s">
-        <v>99</v>
-      </c>
       <c r="C34" s="27">
-        <v>0.9583333333333334</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="D34" s="18">
         <v>0.25</v>
@@ -7805,62 +7805,62 @@
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="C35" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="C35" s="32" t="s">
+      <c r="D35" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="D35" s="33" t="s">
+      <c r="E35" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="E35" s="33" t="s">
+      <c r="F35" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="F35" s="33" t="s">
+      <c r="G35" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="G35" s="33" t="s">
+      <c r="H35" s="33" t="s">
         <v>106</v>
-      </c>
-      <c r="H35" s="33" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B36" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="C36" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="D36" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="E36" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="F36" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="G36" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="G36" s="9" t="s">
+      <c r="H36" s="9" t="s">
         <v>114</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="B37" s="34" t="s">
         <v>116</v>
-      </c>
-      <c r="B37" s="34" t="s">
-        <v>117</v>
       </c>
       <c r="C37" s="18">
         <v>0.0</v>
@@ -7873,10 +7873,10 @@
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="B38" s="13" t="s">
         <v>118</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>119</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="12"/>
@@ -7887,39 +7887,39 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B39" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="C39" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="D39" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="E39" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F39" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="G39" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="F39" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="G39" s="9" t="s">
-        <v>125</v>
-      </c>
       <c r="H39" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="B40" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="B40" s="13" t="s">
-        <v>127</v>
-      </c>
       <c r="C40" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D40" s="16"/>
       <c r="E40" s="16"/>
@@ -7929,13 +7929,13 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="B41" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="C41" s="15" t="s">
         <v>129</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>130</v>
       </c>
       <c r="D41" s="16"/>
       <c r="E41" s="16"/>
@@ -7945,10 +7945,10 @@
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B42" s="13" t="s">
         <v>131</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>132</v>
       </c>
       <c r="C42" s="15" t="s">
         <v>192</v>
@@ -7961,10 +7961,10 @@
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="B43" s="13" t="s">
         <v>133</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>134</v>
       </c>
       <c r="C43" s="19" t="s">
         <v>193</v>
@@ -7977,10 +7977,10 @@
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="B44" s="28" t="s">
         <v>136</v>
-      </c>
-      <c r="B44" s="28" t="s">
-        <v>137</v>
       </c>
       <c r="C44" s="19"/>
       <c r="D44" s="18"/>
@@ -7991,10 +7991,10 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="B45" s="28" t="s">
         <v>139</v>
-      </c>
-      <c r="B45" s="28" t="s">
-        <v>140</v>
       </c>
       <c r="C45" s="19"/>
       <c r="D45" s="18"/>
@@ -8008,7 +8008,7 @@
         <v>194</v>
       </c>
       <c r="B46" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C46" s="19" t="s">
         <v>195</v>
@@ -8021,10 +8021,10 @@
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="B47" s="26" t="s">
         <v>145</v>
-      </c>
-      <c r="B47" s="26" t="s">
-        <v>146</v>
       </c>
       <c r="C47" s="19" t="s">
         <v>196</v>
@@ -8037,10 +8037,10 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="B48" s="13" t="s">
         <v>148</v>
-      </c>
-      <c r="B48" s="13" t="s">
-        <v>149</v>
       </c>
       <c r="C48" s="12"/>
       <c r="D48" s="18"/>
@@ -8051,10 +8051,10 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="B49" s="28" t="s">
         <v>150</v>
-      </c>
-      <c r="B49" s="28" t="s">
-        <v>151</v>
       </c>
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
@@ -8065,10 +8065,10 @@
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B50" s="13" t="s">
         <v>153</v>
-      </c>
-      <c r="B50" s="13" t="s">
-        <v>154</v>
       </c>
       <c r="C50" s="12"/>
       <c r="D50" s="18"/>
@@ -8079,10 +8079,10 @@
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="B51" s="28" t="s">
         <v>155</v>
-      </c>
-      <c r="B51" s="28" t="s">
-        <v>156</v>
       </c>
       <c r="C51" s="12"/>
       <c r="D51" s="12"/>
@@ -8093,10 +8093,10 @@
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="B52" s="13" t="s">
         <v>158</v>
-      </c>
-      <c r="B52" s="13" t="s">
-        <v>159</v>
       </c>
       <c r="C52" s="12"/>
       <c r="D52" s="12"/>
@@ -8107,10 +8107,10 @@
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="B53" s="28" t="s">
         <v>160</v>
-      </c>
-      <c r="B53" s="28" t="s">
-        <v>161</v>
       </c>
       <c r="C53" s="12"/>
       <c r="D53" s="12"/>
@@ -8121,10 +8121,10 @@
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="B54" s="13" t="s">
         <v>163</v>
-      </c>
-      <c r="B54" s="13" t="s">
-        <v>164</v>
       </c>
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
@@ -8137,10 +8137,10 @@
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="B55" s="28" t="s">
         <v>165</v>
-      </c>
-      <c r="B55" s="28" t="s">
-        <v>166</v>
       </c>
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
@@ -8153,10 +8153,10 @@
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B56" s="45" t="s">
         <v>167</v>
-      </c>
-      <c r="B56" s="45" t="s">
-        <v>168</v>
       </c>
       <c r="C56" s="46"/>
       <c r="D56" s="46"/>
@@ -8167,10 +8167,10 @@
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="B57" s="39" t="s">
         <v>169</v>
-      </c>
-      <c r="B57" s="39" t="s">
-        <v>170</v>
       </c>
       <c r="C57" s="46"/>
       <c r="D57" s="46"/>
@@ -8181,10 +8181,10 @@
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="B58" s="13" t="s">
         <v>172</v>
-      </c>
-      <c r="B58" s="13" t="s">
-        <v>173</v>
       </c>
       <c r="C58" s="15"/>
       <c r="D58" s="15"/>
@@ -8195,10 +8195,10 @@
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="B59" s="28" t="s">
         <v>174</v>
-      </c>
-      <c r="B59" s="28" t="s">
-        <v>175</v>
       </c>
       <c r="C59" s="15"/>
       <c r="D59" s="15"/>
@@ -8209,13 +8209,13 @@
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B60" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="B60" s="7" t="s">
-        <v>178</v>
-      </c>
       <c r="C60" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D60" s="16"/>
       <c r="E60" s="16"/>
@@ -8225,13 +8225,13 @@
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B61" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="B61" s="7" t="s">
-        <v>180</v>
-      </c>
       <c r="C61" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D61" s="16"/>
       <c r="E61" s="16"/>

--- a/tools/game_levels.xlsx
+++ b/tools/game_levels.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="199">
   <si>
     <t>Feature</t>
   </si>
@@ -591,10 +591,13 @@
     <t>25 min</t>
   </si>
   <si>
+    <t>Willkommen in der Stadt Hafenwald!</t>
+  </si>
+  <si>
     <t xml:space="preserve">No </t>
   </si>
   <si>
-    <t>Willkommen in der Stadt Hafenwald! Du bist zufällig bei den Rothüten gelandet.</t>
+    <t>Du bist zufällig bei den Rothüten gelandet.</t>
   </si>
   <si>
     <t>Textbox and scripted seque: narrative</t>
@@ -7878,7 +7881,9 @@
       <c r="B38" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="C38" s="9"/>
+      <c r="C38" s="9" t="s">
+        <v>192</v>
+      </c>
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
       <c r="F38" s="12"/>
@@ -7951,7 +7956,7 @@
         <v>131</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D42" s="16"/>
       <c r="E42" s="16"/>
@@ -7967,7 +7972,7 @@
         <v>133</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
@@ -8005,13 +8010,13 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="26" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B46" s="28" t="s">
         <v>142</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D46" s="18"/>
       <c r="E46" s="12"/>
@@ -8027,7 +8032,7 @@
         <v>145</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D47" s="18"/>
       <c r="E47" s="12"/>
@@ -8145,7 +8150,7 @@
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
       <c r="E55" s="9" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F55" s="12"/>
       <c r="G55" s="12"/>

--- a/tools/game_levels.xlsx
+++ b/tools/game_levels.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="200">
   <si>
     <t>Feature</t>
   </si>
@@ -385,6 +385,9 @@
   </si>
   <si>
     <t>01:00, 11:00</t>
+  </si>
+  <si>
+    <t>03:00, 10:00</t>
   </si>
   <si>
     <t>03:00, 11:00</t>
@@ -1742,7 +1745,7 @@
         <v>0.5</v>
       </c>
       <c r="F34" s="27">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G34" s="27">
         <v>0.5</v>
@@ -1855,18 +1858,18 @@
         <v>124</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C40" s="15" t="s">
         <v>14</v>
@@ -1879,13 +1882,13 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D41" s="16"/>
       <c r="E41" s="16"/>
@@ -1895,10 +1898,10 @@
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C42" s="15" t="s">
         <v>14</v>
@@ -1911,13 +1914,13 @@
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
@@ -1927,13 +1930,13 @@
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="26" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B44" s="28" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D44" s="27"/>
       <c r="E44" s="12"/>
@@ -1943,13 +1946,13 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="26" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B45" s="28" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D45" s="27"/>
       <c r="E45" s="12"/>
@@ -1959,13 +1962,13 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="26" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B46" s="28" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D46" s="18"/>
       <c r="E46" s="12"/>
@@ -1975,13 +1978,13 @@
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="26" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B47" s="28" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D47" s="27"/>
       <c r="E47" s="12"/>
@@ -1991,10 +1994,10 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="13" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C48" s="12"/>
       <c r="D48" s="27">
@@ -2007,14 +2010,14 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="26" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B49" s="28" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C49" s="12"/>
       <c r="D49" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E49" s="12"/>
       <c r="F49" s="12"/>
@@ -2023,10 +2026,10 @@
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="13" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C50" s="27">
         <v>0.4583333333333333</v>
@@ -2039,13 +2042,13 @@
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="26" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B51" s="28" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D51" s="9"/>
       <c r="E51" s="12"/>
@@ -2055,42 +2058,42 @@
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C52" s="12"/>
       <c r="D52" s="12"/>
       <c r="E52" s="12"/>
       <c r="F52" s="27">
-        <v>0.4166666666666667</v>
+        <v>0.25</v>
       </c>
       <c r="G52" s="12"/>
       <c r="H52" s="12"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="26" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B53" s="28" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C53" s="12"/>
       <c r="D53" s="12"/>
       <c r="E53" s="12"/>
       <c r="F53" s="9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G53" s="12"/>
       <c r="H53" s="12"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="13" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
@@ -2101,10 +2104,10 @@
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="26" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B55" s="28" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
@@ -2115,10 +2118,10 @@
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B56" s="37" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C56" s="38">
         <v>0.5</v>
@@ -2135,19 +2138,19 @@
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="26" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B57" s="39" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F57" s="12"/>
       <c r="G57" s="12"/>
@@ -2155,16 +2158,16 @@
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="13" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C58" s="15"/>
       <c r="D58" s="15"/>
       <c r="E58" s="15"/>
       <c r="F58" s="27">
-        <v>0.08333333333333333</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G58" s="27">
         <v>0.08333333333333333</v>
@@ -2175,30 +2178,30 @@
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="26" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B59" s="28" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C59" s="12"/>
       <c r="D59" s="12"/>
       <c r="E59" s="12"/>
       <c r="F59" s="9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H59" s="9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C60" s="15" t="s">
         <v>14</v>
@@ -2211,10 +2214,10 @@
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C61" s="15" t="s">
         <v>14</v>
@@ -5395,15 +5398,15 @@
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16">
@@ -5831,21 +5834,21 @@
         <v>123</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="14" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C40" s="15" t="s">
         <v>14</v>
@@ -5858,13 +5861,13 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D41" s="16"/>
       <c r="E41" s="16"/>
@@ -5874,10 +5877,10 @@
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="14" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C42" s="15" t="s">
         <v>14</v>
@@ -5890,13 +5893,13 @@
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="14" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
@@ -5906,13 +5909,13 @@
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="26" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B44" s="28" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D44" s="27"/>
       <c r="E44" s="12"/>
@@ -5922,13 +5925,13 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="26" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B45" s="28" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D45" s="27"/>
       <c r="E45" s="12"/>
@@ -5938,13 +5941,13 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="26" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B46" s="28" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D46" s="18"/>
       <c r="E46" s="12"/>
@@ -5954,13 +5957,13 @@
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="43" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B47" s="43" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C47" s="44" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D47" s="27"/>
       <c r="E47" s="12"/>
@@ -5970,10 +5973,10 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="14" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C48" s="12"/>
       <c r="D48" s="27">
@@ -5986,14 +5989,14 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="26" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B49" s="28" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C49" s="12"/>
       <c r="D49" s="9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E49" s="12"/>
       <c r="F49" s="12"/>
@@ -6002,10 +6005,10 @@
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="14" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C50" s="27">
         <v>0.4583333333333333</v>
@@ -6018,13 +6021,13 @@
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="26" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B51" s="28" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D51" s="9"/>
       <c r="E51" s="12"/>
@@ -6034,10 +6037,10 @@
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="14" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C52" s="12"/>
       <c r="D52" s="12"/>
@@ -6050,26 +6053,26 @@
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="26" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B53" s="28" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C53" s="12"/>
       <c r="D53" s="12"/>
       <c r="E53" s="12"/>
       <c r="F53" s="9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G53" s="12"/>
       <c r="H53" s="12"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="14" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
@@ -6080,10 +6083,10 @@
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="26" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B55" s="28" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
@@ -6094,10 +6097,10 @@
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="14" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B56" s="37" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C56" s="38">
         <v>0.5</v>
@@ -6114,19 +6117,19 @@
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="26" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B57" s="39" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F57" s="12"/>
       <c r="G57" s="12"/>
@@ -6134,10 +6137,10 @@
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="14" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C58" s="15"/>
       <c r="D58" s="15"/>
@@ -6154,30 +6157,30 @@
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="26" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B59" s="28" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C59" s="12"/>
       <c r="D59" s="12"/>
       <c r="E59" s="12"/>
       <c r="F59" s="9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H59" s="9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C60" s="15" t="s">
         <v>14</v>
@@ -6190,10 +6193,10 @@
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C61" s="15" t="s">
         <v>14</v>
@@ -7252,7 +7255,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>11</v>
@@ -7882,7 +7885,7 @@
         <v>118</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
@@ -7907,21 +7910,21 @@
         <v>123</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="14" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C40" s="15" t="s">
         <v>14</v>
@@ -7934,13 +7937,13 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D41" s="16"/>
       <c r="E41" s="16"/>
@@ -7950,13 +7953,13 @@
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="14" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D42" s="16"/>
       <c r="E42" s="16"/>
@@ -7966,13 +7969,13 @@
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="14" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
@@ -7982,10 +7985,10 @@
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="26" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B44" s="28" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C44" s="19"/>
       <c r="D44" s="18"/>
@@ -7996,10 +7999,10 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="26" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B45" s="28" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C45" s="19"/>
       <c r="D45" s="18"/>
@@ -8010,13 +8013,13 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="26" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B46" s="28" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D46" s="18"/>
       <c r="E46" s="12"/>
@@ -8026,13 +8029,13 @@
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="28" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D47" s="18"/>
       <c r="E47" s="12"/>
@@ -8042,10 +8045,10 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="14" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C48" s="12"/>
       <c r="D48" s="18"/>
@@ -8056,10 +8059,10 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="26" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B49" s="28" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
@@ -8070,10 +8073,10 @@
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="14" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C50" s="12"/>
       <c r="D50" s="18"/>
@@ -8084,10 +8087,10 @@
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="26" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B51" s="28" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C51" s="12"/>
       <c r="D51" s="12"/>
@@ -8098,10 +8101,10 @@
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="14" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C52" s="12"/>
       <c r="D52" s="12"/>
@@ -8112,10 +8115,10 @@
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="26" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B53" s="28" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C53" s="12"/>
       <c r="D53" s="12"/>
@@ -8126,10 +8129,10 @@
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="14" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
@@ -8142,15 +8145,15 @@
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="26" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B55" s="28" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
       <c r="E55" s="9" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F55" s="12"/>
       <c r="G55" s="12"/>
@@ -8158,10 +8161,10 @@
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="14" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B56" s="45" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C56" s="46"/>
       <c r="D56" s="46"/>
@@ -8172,10 +8175,10 @@
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="26" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B57" s="39" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C57" s="46"/>
       <c r="D57" s="46"/>
@@ -8186,10 +8189,10 @@
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="14" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C58" s="15"/>
       <c r="D58" s="15"/>
@@ -8200,10 +8203,10 @@
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="26" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B59" s="28" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C59" s="15"/>
       <c r="D59" s="15"/>
@@ -8214,10 +8217,10 @@
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C60" s="15" t="s">
         <v>23</v>
@@ -8230,10 +8233,10 @@
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C61" s="15" t="s">
         <v>14</v>

--- a/tools/game_levels.xlsx
+++ b/tools/game_levels.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="201">
   <si>
     <t>Feature</t>
   </si>
@@ -543,7 +543,7 @@
     <t>group_market_active_player_sequence_text</t>
   </si>
   <si>
-    <t>Stimme ab:</t>
+    <t>Dein Familienclan versammelt sich zur täglichen Abstimmung darüber, was auf dem Markt gekauft werden soll. Da Du jetzt ein vollwertiges Mitglied des Familienclans der Rothüte bist, darfst auch Du abstimmen! Drücke die Leertaste, um fortzufahren.</t>
   </si>
   <si>
     <t>40% of ingroup NPCs wear a hat and a necklace; 60% wear only a hat</t>
@@ -589,6 +589,9 @@
   </si>
   <si>
     <t>Deine Freundesfarm versammelt sich zur täglichen Abstimmung darüber, was auf dem Markt gekauft werden soll. Du darfst noch nicht mitentscheiden, da Du noch kein vollwertiges Mitglied bist. Drücke die Leertaste, um fortzufahren.</t>
+  </si>
+  <si>
+    <t>Deine Freundesfarm versammelt sich zur täglichen Abstimmung darüber, was auf dem Markt gekauft werden soll. Da Du jetzt ein vollwertiges Mitglied der Freundesfarm der Rothüte bist, darfst auch Du abstimmen! Drücke die Leertaste, um fortzufahren.</t>
   </si>
   <si>
     <t>25 min</t>
@@ -6166,13 +6169,13 @@
       <c r="D59" s="12"/>
       <c r="E59" s="12"/>
       <c r="F59" s="9" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="H59" s="9" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
@@ -7255,7 +7258,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>11</v>
@@ -7885,7 +7888,7 @@
         <v>118</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
@@ -7959,7 +7962,7 @@
         <v>132</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D42" s="16"/>
       <c r="E42" s="16"/>
@@ -7975,7 +7978,7 @@
         <v>134</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
@@ -8013,13 +8016,13 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="26" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B46" s="28" t="s">
         <v>143</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D46" s="18"/>
       <c r="E46" s="12"/>
@@ -8035,7 +8038,7 @@
         <v>146</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D47" s="18"/>
       <c r="E47" s="12"/>
@@ -8153,7 +8156,7 @@
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
       <c r="E55" s="9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F55" s="12"/>
       <c r="G55" s="12"/>

--- a/tools/game_levels.xlsx
+++ b/tools/game_levels.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="204">
   <si>
     <t>Feature</t>
   </si>
@@ -132,9 +132,6 @@
     <t>notify_questionnaire_text</t>
   </si>
   <si>
-    <t>Bitte öffnen Sie jetzt den Fragebogen aus der E-Mail</t>
-  </si>
-  <si>
     <t>Textbox notification round end outgroup timestamp</t>
   </si>
   <si>
@@ -397,6 +394,18 @@
   </si>
   <si>
     <t>self_assessment_menu</t>
+  </si>
+  <si>
+    <t>social identity assessment timestamp</t>
+  </si>
+  <si>
+    <t>social_identity_assessment_timestamp</t>
+  </si>
+  <si>
+    <t>social identity assessment</t>
+  </si>
+  <si>
+    <t>social_identity_assessment_menu</t>
   </si>
   <si>
     <t>Mini game</t>
@@ -1130,7 +1139,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="26.89"/>
+    <col customWidth="1" min="1" max="1" width="32.0"/>
     <col customWidth="1" min="2" max="2" width="43.56"/>
     <col customWidth="1" min="3" max="6" width="11.22"/>
   </cols>
@@ -1361,17 +1370,11 @@
         <v>36</v>
       </c>
       <c r="C12" s="22"/>
-      <c r="D12" s="22">
-        <v>0.6215277777777778</v>
-      </c>
+      <c r="D12" s="22"/>
       <c r="E12" s="23"/>
-      <c r="F12" s="22">
-        <v>0.6215277777777778</v>
-      </c>
+      <c r="F12" s="22"/>
       <c r="G12" s="23"/>
-      <c r="H12" s="22">
-        <v>0.6215277777777778</v>
-      </c>
+      <c r="H12" s="22"/>
     </row>
     <row r="13">
       <c r="A13" s="20" t="s">
@@ -1381,24 +1384,18 @@
         <v>38</v>
       </c>
       <c r="C13" s="24"/>
-      <c r="D13" s="25" t="s">
-        <v>39</v>
-      </c>
+      <c r="D13" s="25"/>
       <c r="E13" s="23"/>
-      <c r="F13" s="25" t="s">
-        <v>39</v>
-      </c>
+      <c r="F13" s="25"/>
       <c r="G13" s="23"/>
-      <c r="H13" s="25" t="s">
-        <v>39</v>
-      </c>
+      <c r="H13" s="25"/>
     </row>
     <row r="14">
       <c r="A14" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="21" t="s">
         <v>40</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>41</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="27">
@@ -1415,30 +1412,30 @@
     </row>
     <row r="15">
       <c r="A15" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="28" t="s">
         <v>42</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>43</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="14" t="s">
         <v>47</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>48</v>
       </c>
       <c r="C16" s="29" t="s">
         <v>14</v>
@@ -1451,39 +1448,39 @@
     </row>
     <row r="17">
       <c r="A17" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="C17" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="D17" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="E17" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="F17" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="G17" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="H17" s="9" t="s">
         <v>55</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="C18" s="15" t="s">
         <v>58</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>59</v>
       </c>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
@@ -1493,13 +1490,13 @@
     </row>
     <row r="19">
       <c r="A19" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="C19" s="15" t="s">
         <v>61</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>62</v>
       </c>
       <c r="D19" s="16"/>
       <c r="E19" s="16"/>
@@ -1509,13 +1506,13 @@
     </row>
     <row r="20">
       <c r="A20" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="C20" s="15" t="s">
         <v>64</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>65</v>
       </c>
       <c r="D20" s="16"/>
       <c r="E20" s="16"/>
@@ -1525,13 +1522,13 @@
     </row>
     <row r="21">
       <c r="A21" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="C21" s="15" t="s">
         <v>67</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>68</v>
       </c>
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
@@ -1541,13 +1538,13 @@
     </row>
     <row r="22">
       <c r="A22" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="C22" s="15" t="s">
         <v>70</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>71</v>
       </c>
       <c r="D22" s="16"/>
       <c r="E22" s="16"/>
@@ -1557,13 +1554,13 @@
     </row>
     <row r="23">
       <c r="A23" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="C23" s="15" t="s">
         <v>73</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>74</v>
       </c>
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
@@ -1573,13 +1570,13 @@
     </row>
     <row r="24">
       <c r="A24" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="C24" s="15" t="s">
         <v>76</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>77</v>
       </c>
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
@@ -1589,13 +1586,13 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="C25" s="15" t="s">
         <v>79</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>80</v>
       </c>
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
@@ -1605,10 +1602,10 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" s="14" t="s">
         <v>81</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>82</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>14</v>
@@ -1621,10 +1618,10 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="14" t="s">
         <v>83</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>84</v>
       </c>
       <c r="C27" s="15" t="s">
         <v>14</v>
@@ -1637,10 +1634,10 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" s="14" t="s">
         <v>85</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>86</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>14</v>
@@ -1653,10 +1650,10 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C29" s="15" t="s">
         <v>14</v>
@@ -1669,10 +1666,10 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" s="14" t="s">
         <v>88</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>89</v>
       </c>
       <c r="C30" s="15" t="s">
         <v>14</v>
@@ -1685,10 +1682,10 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" s="14" t="s">
         <v>90</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>91</v>
       </c>
       <c r="C31" s="15" t="s">
         <v>14</v>
@@ -1701,10 +1698,10 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" s="14" t="s">
         <v>92</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>93</v>
       </c>
       <c r="C32" s="15" t="s">
         <v>14</v>
@@ -1717,13 +1714,13 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="C33" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D33" s="16"/>
       <c r="E33" s="16"/>
@@ -1733,10 +1730,10 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34" s="14" t="s">
         <v>97</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>98</v>
       </c>
       <c r="C34" s="27">
         <v>0.5416666666666666</v>
@@ -1759,62 +1756,62 @@
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B35" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="C35" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="C35" s="32" t="s">
+      <c r="D35" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="D35" s="33" t="s">
+      <c r="E35" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="E35" s="33" t="s">
+      <c r="F35" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="F35" s="33" t="s">
+      <c r="G35" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="G35" s="33" t="s">
+      <c r="H35" s="33" t="s">
         <v>105</v>
-      </c>
-      <c r="H35" s="33" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="C36" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="D36" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="E36" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="F36" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="G36" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="G36" s="9" t="s">
+      <c r="H36" s="9" t="s">
         <v>113</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="B37" s="35" t="s">
         <v>115</v>
-      </c>
-      <c r="B37" s="35" t="s">
-        <v>116</v>
       </c>
       <c r="C37" s="18">
         <v>0.0</v>
@@ -1827,13 +1824,13 @@
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B38" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="C38" s="19" t="s">
         <v>118</v>
-      </c>
-      <c r="C38" s="19" t="s">
-        <v>119</v>
       </c>
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
@@ -1843,36 +1840,36 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B39" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="C39" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="D39" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="E39" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F39" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="E39" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="F39" s="9" t="s">
+      <c r="G39" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="G39" s="9" t="s">
-        <v>125</v>
-      </c>
       <c r="H39" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="B40" s="14" t="s">
         <v>126</v>
-      </c>
-      <c r="B40" s="14" t="s">
-        <v>127</v>
       </c>
       <c r="C40" s="15" t="s">
         <v>14</v>
@@ -1884,29 +1881,39 @@
       <c r="H40" s="17"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="B41" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="C41" s="27">
+        <v>0.6215277777777778</v>
+      </c>
+      <c r="D41" s="27">
+        <v>0.6215277777777778</v>
+      </c>
+      <c r="E41" s="27">
+        <v>0.6215277777777778</v>
+      </c>
+      <c r="F41" s="27">
+        <v>0.6215277777777778</v>
+      </c>
+      <c r="G41" s="27">
+        <v>0.6215277777777778</v>
+      </c>
+      <c r="H41" s="27">
+        <v>0.6215277777777778</v>
+      </c>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="B42" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="17"/>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="B42" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="C42" s="15" t="s">
+      <c r="C42" s="29" t="s">
         <v>14</v>
       </c>
       <c r="D42" s="16"/>
@@ -1917,63 +1924,63 @@
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="C43" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="17"/>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="A44" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="C43" s="19" t="s">
+      <c r="B44" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="26" t="s">
+      <c r="C44" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="17"/>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="A45" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B44" s="28" t="s">
+      <c r="B45" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="C44" s="19" t="s">
+      <c r="C45" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="D44" s="27"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="B45" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="C45" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="D45" s="27"/>
+      <c r="D45" s="12"/>
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="26" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B46" s="28" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="D46" s="18"/>
+        <v>141</v>
+      </c>
+      <c r="D46" s="27"/>
       <c r="E46" s="12"/>
       <c r="F46" s="12"/>
       <c r="G46" s="6"/>
@@ -1981,13 +1988,13 @@
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="26" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B47" s="28" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D47" s="27"/>
       <c r="E47" s="12"/>
@@ -1996,16 +2003,16 @@
       <c r="H47" s="6"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="C48" s="12"/>
-      <c r="D48" s="27">
-        <v>0.4166666666666667</v>
-      </c>
+      <c r="A48" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="B48" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="D48" s="18"/>
       <c r="E48" s="12"/>
       <c r="F48" s="12"/>
       <c r="G48" s="6"/>
@@ -2013,15 +2020,15 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="B49" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="C49" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="B49" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="C49" s="12"/>
-      <c r="D49" s="9" t="s">
-        <v>152</v>
-      </c>
+      <c r="D49" s="27"/>
       <c r="E49" s="12"/>
       <c r="F49" s="12"/>
       <c r="G49" s="6"/>
@@ -2029,215 +2036,241 @@
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="C50" s="27">
-        <v>0.4583333333333333</v>
-      </c>
-      <c r="D50" s="18"/>
+        <v>152</v>
+      </c>
+      <c r="C50" s="12"/>
+      <c r="D50" s="27">
+        <v>0.4166666666666667</v>
+      </c>
       <c r="E50" s="12"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="B51" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="C51" s="12"/>
+      <c r="D51" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="B51" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="D51" s="9"/>
       <c r="E51" s="12"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
+        <v>157</v>
+      </c>
+      <c r="C52" s="27">
+        <v>0.4583333333333333</v>
+      </c>
+      <c r="D52" s="18"/>
       <c r="E52" s="12"/>
-      <c r="F52" s="27">
-        <v>0.25</v>
-      </c>
+      <c r="F52" s="18"/>
       <c r="G52" s="12"/>
       <c r="H52" s="12"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="B53" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="C53" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="B53" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
+      <c r="D53" s="9"/>
       <c r="E53" s="12"/>
-      <c r="F53" s="9" t="s">
-        <v>162</v>
-      </c>
+      <c r="F53" s="9"/>
       <c r="G53" s="12"/>
       <c r="H53" s="12"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="27">
+        <v>0.25</v>
+      </c>
       <c r="G54" s="12"/>
       <c r="H54" s="12"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="26" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B55" s="28" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="9" t="s">
+        <v>165</v>
+      </c>
       <c r="G55" s="12"/>
       <c r="H55" s="12"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B56" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="B56" s="37" t="s">
-        <v>168</v>
-      </c>
-      <c r="C56" s="38">
-        <v>0.5</v>
-      </c>
-      <c r="D56" s="38">
-        <v>0.08333333333333333</v>
-      </c>
-      <c r="E56" s="38">
-        <v>0.08333333333333333</v>
-      </c>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="18"/>
       <c r="F56" s="12"/>
       <c r="G56" s="12"/>
       <c r="H56" s="12"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="B57" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="B57" s="39" t="s">
-        <v>170</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="E57" s="9" t="s">
-        <v>171</v>
-      </c>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="18"/>
       <c r="F57" s="12"/>
       <c r="G57" s="12"/>
       <c r="H57" s="12"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="B58" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="27">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G58" s="27">
+        <v>170</v>
+      </c>
+      <c r="B58" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="C58" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="D58" s="38">
         <v>0.08333333333333333</v>
       </c>
-      <c r="H58" s="27">
+      <c r="E58" s="38">
         <v>0.08333333333333333</v>
       </c>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="B59" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="C59" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="B59" s="28" t="s">
+      <c r="D59" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="A60" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="9" t="s">
+      <c r="B60" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="G59" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="H59" s="9" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="7" t="s">
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G60" s="27">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="H60" s="27">
+        <v>0.08333333333333333</v>
+      </c>
+    </row>
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="A61" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B61" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="C60" s="15" t="s">
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="H61" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="62" ht="15.75" customHeight="1">
+      <c r="A62" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C62" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D60" s="16"/>
-      <c r="E60" s="16"/>
-      <c r="F60" s="16"/>
-      <c r="G60" s="16"/>
-      <c r="H60" s="17"/>
-    </row>
-    <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="C61" s="15" t="s">
+      <c r="D62" s="16"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="16"/>
+      <c r="H62" s="17"/>
+    </row>
+    <row r="63" ht="15.75" customHeight="1">
+      <c r="A63" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C63" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D61" s="16"/>
-      <c r="E61" s="16"/>
-      <c r="F61" s="16"/>
-      <c r="G61" s="16"/>
-      <c r="H61" s="17"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="40"/>
-    </row>
-    <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="40"/>
-    </row>
-    <row r="64" ht="15.75" customHeight="1">
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16"/>
+      <c r="H63" s="17"/>
+    </row>
+    <row r="64">
       <c r="A64" s="40"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
@@ -5069,8 +5102,14 @@
     <row r="1007" ht="15.75" customHeight="1">
       <c r="A1007" s="40"/>
     </row>
+    <row r="1008" ht="15.75" customHeight="1">
+      <c r="A1008" s="40"/>
+    </row>
+    <row r="1009" ht="15.75" customHeight="1">
+      <c r="A1009" s="40"/>
+    </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="31">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:H1"/>
@@ -5092,14 +5131,15 @@
     <mergeCell ref="C27:H27"/>
     <mergeCell ref="C28:H28"/>
     <mergeCell ref="C29:H29"/>
-    <mergeCell ref="C60:H60"/>
-    <mergeCell ref="C61:H61"/>
+    <mergeCell ref="C62:H62"/>
+    <mergeCell ref="C63:H63"/>
     <mergeCell ref="C30:H30"/>
     <mergeCell ref="C31:H31"/>
     <mergeCell ref="C32:H32"/>
     <mergeCell ref="C33:H33"/>
     <mergeCell ref="C40:H40"/>
-    <mergeCell ref="C41:H41"/>
+    <mergeCell ref="C43:H43"/>
+    <mergeCell ref="C44:H44"/>
     <mergeCell ref="C42:H42"/>
   </mergeCells>
   <drawing r:id="rId1"/>
@@ -5340,17 +5380,11 @@
         <v>36</v>
       </c>
       <c r="C12" s="22"/>
-      <c r="D12" s="22">
-        <v>0.6215277777777778</v>
-      </c>
+      <c r="D12" s="22"/>
       <c r="E12" s="23"/>
-      <c r="F12" s="22">
-        <v>0.6215277777777778</v>
-      </c>
+      <c r="F12" s="22"/>
       <c r="G12" s="23"/>
-      <c r="H12" s="22">
-        <v>0.6215277777777778</v>
-      </c>
+      <c r="H12" s="22"/>
     </row>
     <row r="13">
       <c r="A13" s="20" t="s">
@@ -5360,24 +5394,18 @@
         <v>38</v>
       </c>
       <c r="C13" s="24"/>
-      <c r="D13" s="25" t="s">
-        <v>39</v>
-      </c>
+      <c r="D13" s="25"/>
       <c r="E13" s="23"/>
-      <c r="F13" s="25" t="s">
-        <v>39</v>
-      </c>
+      <c r="F13" s="25"/>
       <c r="G13" s="23"/>
-      <c r="H13" s="25" t="s">
-        <v>39</v>
-      </c>
+      <c r="H13" s="25"/>
     </row>
     <row r="14">
       <c r="A14" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="21" t="s">
         <v>40</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>41</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="27">
@@ -5394,30 +5422,30 @@
     </row>
     <row r="15">
       <c r="A15" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="28" t="s">
         <v>42</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>43</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="9" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="14" t="s">
         <v>47</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>48</v>
       </c>
       <c r="C16" s="29" t="s">
         <v>14</v>
@@ -5430,39 +5458,39 @@
     </row>
     <row r="17">
       <c r="A17" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="C17" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="D17" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="E17" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="F17" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="G17" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="H17" s="9" t="s">
         <v>55</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="C18" s="15" t="s">
         <v>58</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>59</v>
       </c>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
@@ -5472,13 +5500,13 @@
     </row>
     <row r="19">
       <c r="A19" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="C19" s="15" t="s">
         <v>61</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>62</v>
       </c>
       <c r="D19" s="16"/>
       <c r="E19" s="16"/>
@@ -5488,13 +5516,13 @@
     </row>
     <row r="20">
       <c r="A20" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="C20" s="15" t="s">
         <v>64</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>65</v>
       </c>
       <c r="D20" s="16"/>
       <c r="E20" s="16"/>
@@ -5504,13 +5532,13 @@
     </row>
     <row r="21">
       <c r="A21" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="C21" s="15" t="s">
         <v>67</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>68</v>
       </c>
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
@@ -5520,13 +5548,13 @@
     </row>
     <row r="22">
       <c r="A22" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="C22" s="15" t="s">
         <v>70</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>71</v>
       </c>
       <c r="D22" s="16"/>
       <c r="E22" s="16"/>
@@ -5536,13 +5564,13 @@
     </row>
     <row r="23">
       <c r="A23" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="C23" s="15" t="s">
         <v>73</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>74</v>
       </c>
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
@@ -5552,13 +5580,13 @@
     </row>
     <row r="24">
       <c r="A24" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="C24" s="15" t="s">
         <v>76</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>77</v>
       </c>
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
@@ -5568,13 +5596,13 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="C25" s="15" t="s">
         <v>79</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>80</v>
       </c>
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
@@ -5584,10 +5612,10 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" s="14" t="s">
         <v>81</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>82</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>14</v>
@@ -5600,10 +5628,10 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="14" t="s">
         <v>83</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>84</v>
       </c>
       <c r="C27" s="15" t="s">
         <v>14</v>
@@ -5616,10 +5644,10 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" s="14" t="s">
         <v>85</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>86</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>14</v>
@@ -5632,10 +5660,10 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C29" s="15" t="s">
         <v>14</v>
@@ -5648,10 +5676,10 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" s="14" t="s">
         <v>88</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>89</v>
       </c>
       <c r="C30" s="15" t="s">
         <v>14</v>
@@ -5664,10 +5692,10 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" s="14" t="s">
         <v>90</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>91</v>
       </c>
       <c r="C31" s="15" t="s">
         <v>14</v>
@@ -5680,10 +5708,10 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" s="14" t="s">
         <v>92</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>93</v>
       </c>
       <c r="C32" s="15" t="s">
         <v>14</v>
@@ -5696,13 +5724,13 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="C33" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D33" s="16"/>
       <c r="E33" s="16"/>
@@ -5712,10 +5740,10 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34" s="14" t="s">
         <v>97</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>98</v>
       </c>
       <c r="C34" s="27">
         <v>0.5416666666666666</v>
@@ -5738,62 +5766,62 @@
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B35" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="C35" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="C35" s="32" t="s">
+      <c r="D35" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="D35" s="33" t="s">
+      <c r="E35" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="E35" s="33" t="s">
+      <c r="F35" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="F35" s="33" t="s">
+      <c r="G35" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="G35" s="33" t="s">
+      <c r="H35" s="33" t="s">
         <v>105</v>
-      </c>
-      <c r="H35" s="33" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="C36" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="D36" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="E36" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="F36" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="G36" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="G36" s="9" t="s">
+      <c r="H36" s="9" t="s">
         <v>113</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="B37" s="35" t="s">
         <v>115</v>
-      </c>
-      <c r="B37" s="35" t="s">
-        <v>116</v>
       </c>
       <c r="C37" s="18">
         <v>0.0</v>
@@ -5806,13 +5834,13 @@
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B38" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="C38" s="19" t="s">
         <v>118</v>
-      </c>
-      <c r="C38" s="19" t="s">
-        <v>119</v>
       </c>
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
@@ -5822,36 +5850,36 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B39" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="C39" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="D39" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="D39" s="9" t="s">
-        <v>123</v>
-      </c>
       <c r="E39" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="B40" s="14" t="s">
         <v>126</v>
-      </c>
-      <c r="B40" s="14" t="s">
-        <v>127</v>
       </c>
       <c r="C40" s="15" t="s">
         <v>14</v>
@@ -5863,29 +5891,39 @@
       <c r="H40" s="17"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="14" t="s">
+      <c r="A41" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="B41" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="C41" s="27">
+        <v>0.6215277777777778</v>
+      </c>
+      <c r="D41" s="27">
+        <v>0.6215277777777778</v>
+      </c>
+      <c r="E41" s="27">
+        <v>0.6215277777777778</v>
+      </c>
+      <c r="F41" s="27">
+        <v>0.6215277777777778</v>
+      </c>
+      <c r="G41" s="27">
+        <v>0.6215277777777778</v>
+      </c>
+      <c r="H41" s="27">
+        <v>0.6215277777777778</v>
+      </c>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="B42" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="17"/>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="B42" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="C42" s="15" t="s">
+      <c r="C42" s="29" t="s">
         <v>14</v>
       </c>
       <c r="D42" s="16"/>
@@ -5896,77 +5934,77 @@
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="C43" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="17"/>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="A44" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="C43" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="26" t="s">
+      <c r="B44" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="17"/>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="A45" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B44" s="28" t="s">
+      <c r="B45" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="C44" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="D44" s="27"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="B45" s="28" t="s">
-        <v>140</v>
-      </c>
       <c r="C45" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="D45" s="27"/>
+        <v>187</v>
+      </c>
+      <c r="D45" s="12"/>
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="26" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B46" s="28" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="D46" s="18"/>
+        <v>188</v>
+      </c>
+      <c r="D46" s="27"/>
       <c r="E46" s="12"/>
       <c r="F46" s="12"/>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="43" t="s">
-        <v>145</v>
-      </c>
-      <c r="B47" s="43" t="s">
-        <v>146</v>
-      </c>
-      <c r="C47" s="44" t="s">
-        <v>147</v>
+      <c r="A47" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="B47" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>189</v>
       </c>
       <c r="D47" s="27"/>
       <c r="E47" s="12"/>
@@ -5975,32 +6013,32 @@
       <c r="H47" s="6"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="C48" s="12"/>
-      <c r="D48" s="27">
-        <v>0.4166666666666667</v>
-      </c>
+      <c r="A48" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="B48" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="D48" s="18"/>
       <c r="E48" s="12"/>
       <c r="F48" s="12"/>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="26" t="s">
+      <c r="A49" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="B49" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="C49" s="44" t="s">
         <v>150</v>
       </c>
-      <c r="B49" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="C49" s="12"/>
-      <c r="D49" s="9" t="s">
-        <v>188</v>
-      </c>
+      <c r="D49" s="27"/>
       <c r="E49" s="12"/>
       <c r="F49" s="12"/>
       <c r="G49" s="6"/>
@@ -6008,210 +6046,240 @@
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="14" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="C50" s="27">
-        <v>0.4583333333333333</v>
-      </c>
-      <c r="D50" s="18"/>
+        <v>152</v>
+      </c>
+      <c r="C50" s="12"/>
+      <c r="D50" s="27">
+        <v>0.4166666666666667</v>
+      </c>
       <c r="E50" s="12"/>
       <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="26" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B51" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="D51" s="9"/>
+        <v>154</v>
+      </c>
+      <c r="C51" s="12"/>
+      <c r="D51" s="9" t="s">
+        <v>191</v>
+      </c>
       <c r="E51" s="12"/>
       <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="12"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
+        <v>157</v>
+      </c>
+      <c r="C52" s="27">
+        <v>0.4583333333333333</v>
+      </c>
+      <c r="D52" s="18"/>
       <c r="E52" s="12"/>
-      <c r="F52" s="27">
-        <v>0.4166666666666667</v>
-      </c>
+      <c r="F52" s="12"/>
       <c r="G52" s="12"/>
       <c r="H52" s="12"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="26" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B53" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
+        <v>159</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="D53" s="9"/>
       <c r="E53" s="12"/>
-      <c r="F53" s="9" t="s">
-        <v>190</v>
-      </c>
+      <c r="F53" s="12"/>
       <c r="G53" s="12"/>
       <c r="H53" s="12"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="14" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="27">
+        <v>0.4166666666666667</v>
+      </c>
       <c r="G54" s="12"/>
       <c r="H54" s="12"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="26" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B55" s="28" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="9" t="s">
+        <v>193</v>
+      </c>
       <c r="G55" s="12"/>
       <c r="H55" s="12"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B56" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="B56" s="37" t="s">
-        <v>168</v>
-      </c>
-      <c r="C56" s="38">
-        <v>0.5</v>
-      </c>
-      <c r="D56" s="38">
-        <v>0.08333333333333333</v>
-      </c>
-      <c r="E56" s="38">
-        <v>0.08333333333333333</v>
-      </c>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="18"/>
       <c r="F56" s="12"/>
       <c r="G56" s="12"/>
       <c r="H56" s="12"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="B57" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="B57" s="39" t="s">
-        <v>170</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="E57" s="9" t="s">
-        <v>191</v>
-      </c>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="18"/>
       <c r="F57" s="12"/>
       <c r="G57" s="12"/>
       <c r="H57" s="12"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="B58" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="38">
+        <v>170</v>
+      </c>
+      <c r="B58" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="C58" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="D58" s="38">
         <v>0.08333333333333333</v>
       </c>
-      <c r="G58" s="38">
+      <c r="E58" s="38">
         <v>0.08333333333333333</v>
       </c>
-      <c r="H58" s="38">
-        <v>0.08333333333333333</v>
-      </c>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="B59" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="B59" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="A60" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="G59" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="H59" s="9" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="8" t="s">
+      <c r="B60" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="38">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="G60" s="38">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="H60" s="38">
+        <v>0.08333333333333333</v>
+      </c>
+    </row>
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="A61" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B61" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="C60" s="15" t="s">
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="H61" s="9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="62" ht="15.75" customHeight="1">
+      <c r="A62" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C62" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D60" s="16"/>
-      <c r="E60" s="16"/>
-      <c r="F60" s="16"/>
-      <c r="G60" s="16"/>
-      <c r="H60" s="17"/>
-    </row>
-    <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="C61" s="15" t="s">
+      <c r="D62" s="16"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="16"/>
+      <c r="H62" s="17"/>
+    </row>
+    <row r="63" ht="15.75" customHeight="1">
+      <c r="A63" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C63" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D61" s="16"/>
-      <c r="E61" s="16"/>
-      <c r="F61" s="16"/>
-      <c r="G61" s="16"/>
-      <c r="H61" s="17"/>
-    </row>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16"/>
+      <c r="H63" s="17"/>
+    </row>
     <row r="64" ht="15.75" customHeight="1"/>
     <row r="65" ht="15.75" customHeight="1"/>
     <row r="66" ht="15.75" customHeight="1"/>
@@ -7156,8 +7224,10 @@
     <row r="1005" ht="15.75" customHeight="1"/>
     <row r="1006" ht="15.75" customHeight="1"/>
     <row r="1007" ht="15.75" customHeight="1"/>
+    <row r="1008" ht="15.75" customHeight="1"/>
+    <row r="1009" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="32">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:H1"/>
@@ -7179,16 +7249,17 @@
     <mergeCell ref="C26:H26"/>
     <mergeCell ref="C27:H27"/>
     <mergeCell ref="C28:H28"/>
-    <mergeCell ref="C42:H42"/>
-    <mergeCell ref="C60:H60"/>
-    <mergeCell ref="C61:H61"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="C62:H62"/>
+    <mergeCell ref="C63:H63"/>
     <mergeCell ref="C29:H29"/>
     <mergeCell ref="C30:H30"/>
     <mergeCell ref="C31:H31"/>
     <mergeCell ref="C32:H32"/>
     <mergeCell ref="C33:H33"/>
     <mergeCell ref="C40:H40"/>
-    <mergeCell ref="C41:H41"/>
+    <mergeCell ref="C43:H43"/>
+    <mergeCell ref="C42:H42"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -7258,7 +7329,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>11</v>
@@ -7428,17 +7499,11 @@
         <v>36</v>
       </c>
       <c r="C12" s="22"/>
-      <c r="D12" s="22">
-        <v>0.6215277777777778</v>
-      </c>
+      <c r="D12" s="22"/>
       <c r="E12" s="23"/>
-      <c r="F12" s="22">
-        <v>0.6215277777777778</v>
-      </c>
+      <c r="F12" s="22"/>
       <c r="G12" s="23"/>
-      <c r="H12" s="22">
-        <v>0.6215277777777778</v>
-      </c>
+      <c r="H12" s="22"/>
     </row>
     <row r="13">
       <c r="A13" s="20" t="s">
@@ -7448,24 +7513,18 @@
         <v>38</v>
       </c>
       <c r="C13" s="24"/>
-      <c r="D13" s="25" t="s">
-        <v>39</v>
-      </c>
+      <c r="D13" s="25"/>
       <c r="E13" s="23"/>
-      <c r="F13" s="25" t="s">
-        <v>39</v>
-      </c>
+      <c r="F13" s="25"/>
       <c r="G13" s="23"/>
-      <c r="H13" s="25" t="s">
-        <v>39</v>
-      </c>
+      <c r="H13" s="25"/>
     </row>
     <row r="14">
       <c r="A14" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="21" t="s">
         <v>40</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>41</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="27"/>
@@ -7476,10 +7535,10 @@
     </row>
     <row r="15">
       <c r="A15" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="28" t="s">
         <v>42</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>43</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -7490,10 +7549,10 @@
     </row>
     <row r="16">
       <c r="A16" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="13" t="s">
         <v>47</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>48</v>
       </c>
       <c r="C16" s="29" t="s">
         <v>14</v>
@@ -7506,39 +7565,39 @@
     </row>
     <row r="17">
       <c r="A17" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="C17" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="D17" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="E17" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="F17" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="G17" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="H17" s="9" t="s">
         <v>55</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="C18" s="15" t="s">
         <v>58</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>59</v>
       </c>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
@@ -7548,13 +7607,13 @@
     </row>
     <row r="19">
       <c r="A19" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="C19" s="15" t="s">
         <v>61</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>62</v>
       </c>
       <c r="D19" s="16"/>
       <c r="E19" s="16"/>
@@ -7564,13 +7623,13 @@
     </row>
     <row r="20">
       <c r="A20" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="C20" s="15" t="s">
         <v>64</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>65</v>
       </c>
       <c r="D20" s="16"/>
       <c r="E20" s="16"/>
@@ -7580,13 +7639,13 @@
     </row>
     <row r="21">
       <c r="A21" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="C21" s="15" t="s">
         <v>67</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>68</v>
       </c>
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
@@ -7596,13 +7655,13 @@
     </row>
     <row r="22">
       <c r="A22" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="C22" s="15" t="s">
         <v>70</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>71</v>
       </c>
       <c r="D22" s="16"/>
       <c r="E22" s="16"/>
@@ -7612,13 +7671,13 @@
     </row>
     <row r="23">
       <c r="A23" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="C23" s="15" t="s">
         <v>73</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>74</v>
       </c>
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
@@ -7628,13 +7687,13 @@
     </row>
     <row r="24">
       <c r="A24" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="C24" s="15" t="s">
         <v>76</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>77</v>
       </c>
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
@@ -7644,13 +7703,13 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="C25" s="15" t="s">
         <v>79</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>80</v>
       </c>
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
@@ -7660,10 +7719,10 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" s="13" t="s">
         <v>81</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>82</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>14</v>
@@ -7676,10 +7735,10 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="13" t="s">
         <v>83</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>84</v>
       </c>
       <c r="C27" s="15" t="s">
         <v>14</v>
@@ -7692,10 +7751,10 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" s="13" t="s">
         <v>85</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>86</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>14</v>
@@ -7708,10 +7767,10 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C29" s="15" t="s">
         <v>14</v>
@@ -7724,10 +7783,10 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" s="13" t="s">
         <v>88</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>89</v>
       </c>
       <c r="C30" s="15" t="s">
         <v>14</v>
@@ -7740,10 +7799,10 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" s="13" t="s">
         <v>90</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>91</v>
       </c>
       <c r="C31" s="15" t="s">
         <v>14</v>
@@ -7756,10 +7815,10 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" s="13" t="s">
         <v>92</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>93</v>
       </c>
       <c r="C32" s="15" t="s">
         <v>14</v>
@@ -7772,13 +7831,13 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="C33" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D33" s="16"/>
       <c r="E33" s="16"/>
@@ -7788,10 +7847,10 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34" s="13" t="s">
         <v>97</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>98</v>
       </c>
       <c r="C34" s="27">
         <v>0.5416666666666666</v>
@@ -7814,62 +7873,62 @@
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B35" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="C35" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="C35" s="32" t="s">
+      <c r="D35" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="D35" s="33" t="s">
+      <c r="E35" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="E35" s="33" t="s">
+      <c r="F35" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="F35" s="33" t="s">
+      <c r="G35" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="G35" s="33" t="s">
+      <c r="H35" s="33" t="s">
         <v>105</v>
-      </c>
-      <c r="H35" s="33" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="C36" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="D36" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="E36" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="F36" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="G36" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="G36" s="9" t="s">
+      <c r="H36" s="9" t="s">
         <v>113</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="B37" s="34" t="s">
         <v>115</v>
-      </c>
-      <c r="B37" s="34" t="s">
-        <v>116</v>
       </c>
       <c r="C37" s="18">
         <v>0.0</v>
@@ -7882,13 +7941,13 @@
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B38" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="B38" s="13" t="s">
-        <v>118</v>
-      </c>
       <c r="C38" s="9" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
@@ -7898,36 +7957,36 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B39" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="C39" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="D39" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="D39" s="9" t="s">
-        <v>123</v>
-      </c>
       <c r="E39" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="B40" s="13" t="s">
         <v>126</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>127</v>
       </c>
       <c r="C40" s="15" t="s">
         <v>14</v>
@@ -7939,30 +7998,40 @@
       <c r="H40" s="17"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="14" t="s">
+      <c r="A41" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="B41" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="C41" s="27">
+        <v>0.6215277777777778</v>
+      </c>
+      <c r="D41" s="27">
+        <v>0.6215277777777778</v>
+      </c>
+      <c r="E41" s="27">
+        <v>0.6215277777777778</v>
+      </c>
+      <c r="F41" s="27">
+        <v>0.6215277777777778</v>
+      </c>
+      <c r="G41" s="27">
+        <v>0.6215277777777778</v>
+      </c>
+      <c r="H41" s="27">
+        <v>0.6215277777777778</v>
+      </c>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="B42" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="17"/>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>195</v>
+      <c r="C42" s="29" t="s">
+        <v>14</v>
       </c>
       <c r="D42" s="16"/>
       <c r="E42" s="16"/>
@@ -7972,58 +8041,60 @@
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="C43" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="17"/>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="A44" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="C43" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="26" t="s">
+      <c r="B44" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="17"/>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="A45" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B44" s="28" t="s">
+      <c r="B45" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="C44" s="19"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="B45" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="C45" s="19"/>
-      <c r="D45" s="18"/>
+      <c r="C45" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="D45" s="12"/>
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="26" t="s">
-        <v>197</v>
+        <v>139</v>
       </c>
       <c r="B46" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="C46" s="19" t="s">
-        <v>198</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="C46" s="19"/>
       <c r="D46" s="18"/>
       <c r="E46" s="12"/>
       <c r="F46" s="12"/>
@@ -8031,15 +8102,13 @@
       <c r="H46" s="6"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="B47" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="C47" s="19" t="s">
-        <v>199</v>
-      </c>
+      <c r="A47" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="B47" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="C47" s="19"/>
       <c r="D47" s="18"/>
       <c r="E47" s="12"/>
       <c r="F47" s="12"/>
@@ -8047,13 +8116,15 @@
       <c r="H47" s="6"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="B48" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="C48" s="12"/>
+      <c r="A48" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="B48" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>201</v>
+      </c>
       <c r="D48" s="18"/>
       <c r="E48" s="12"/>
       <c r="F48" s="12"/>
@@ -8061,14 +8132,16 @@
       <c r="H48" s="6"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="B49" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
+      <c r="A49" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="B49" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="D49" s="18"/>
       <c r="E49" s="12"/>
       <c r="F49" s="12"/>
       <c r="G49" s="6"/>
@@ -8076,52 +8149,52 @@
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="14" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C50" s="12"/>
       <c r="D50" s="18"/>
       <c r="E50" s="12"/>
       <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="26" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B51" s="28" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C51" s="12"/>
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
       <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="12"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
+      <c r="D52" s="18"/>
       <c r="E52" s="12"/>
-      <c r="F52" s="18"/>
+      <c r="F52" s="12"/>
       <c r="G52" s="12"/>
       <c r="H52" s="12"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="26" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B53" s="28" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C53" s="12"/>
       <c r="D53" s="12"/>
@@ -8132,129 +8205,151 @@
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="14" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
-      <c r="E54" s="27">
-        <v>0.4166666666666667</v>
-      </c>
-      <c r="F54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="18"/>
       <c r="G54" s="12"/>
       <c r="H54" s="12"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="26" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B55" s="28" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
-      <c r="E55" s="9" t="s">
-        <v>200</v>
-      </c>
+      <c r="E55" s="12"/>
       <c r="F55" s="12"/>
       <c r="G55" s="12"/>
       <c r="H55" s="12"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B56" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="B56" s="45" t="s">
-        <v>168</v>
-      </c>
-      <c r="C56" s="46"/>
-      <c r="D56" s="46"/>
-      <c r="E56" s="46"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="27">
+        <v>0.4166666666666667</v>
+      </c>
       <c r="F56" s="12"/>
       <c r="G56" s="12"/>
       <c r="H56" s="12"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="B57" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="B57" s="39" t="s">
-        <v>170</v>
-      </c>
-      <c r="C57" s="46"/>
-      <c r="D57" s="46"/>
-      <c r="E57" s="46"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="9" t="s">
+        <v>203</v>
+      </c>
       <c r="F57" s="12"/>
       <c r="G57" s="12"/>
       <c r="H57" s="12"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="B58" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="18"/>
+        <v>170</v>
+      </c>
+      <c r="B58" s="45" t="s">
+        <v>171</v>
+      </c>
+      <c r="C58" s="46"/>
+      <c r="D58" s="46"/>
+      <c r="E58" s="46"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="B59" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="B59" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="C59" s="46"/>
+      <c r="D59" s="46"/>
+      <c r="E59" s="46"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="A60" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="15"/>
-      <c r="H59" s="18"/>
-    </row>
-    <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="8" t="s">
+      <c r="B60" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="18"/>
+      <c r="H60" s="18"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="A61" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B61" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="C60" s="15" t="s">
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="18"/>
+    </row>
+    <row r="62" ht="15.75" customHeight="1">
+      <c r="A62" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C62" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D60" s="16"/>
-      <c r="E60" s="16"/>
-      <c r="F60" s="16"/>
-      <c r="G60" s="16"/>
-      <c r="H60" s="17"/>
-    </row>
-    <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="C61" s="15" t="s">
+      <c r="D62" s="16"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="16"/>
+      <c r="H62" s="17"/>
+    </row>
+    <row r="63" ht="15.75" customHeight="1">
+      <c r="A63" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C63" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D61" s="16"/>
-      <c r="E61" s="16"/>
-      <c r="F61" s="16"/>
-      <c r="G61" s="16"/>
-      <c r="H61" s="17"/>
-    </row>
-    <row r="62" ht="15.75" customHeight="1">
-      <c r="B62" s="40"/>
-    </row>
-    <row r="63" ht="15.75" customHeight="1">
-      <c r="B63" s="40"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16"/>
+      <c r="H63" s="17"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="B64" s="40"/>
@@ -11088,8 +11183,14 @@
     <row r="1007" ht="15.75" customHeight="1">
       <c r="B1007" s="40"/>
     </row>
+    <row r="1008" ht="15.75" customHeight="1">
+      <c r="B1008" s="40"/>
+    </row>
+    <row r="1009" ht="15.75" customHeight="1">
+      <c r="B1009" s="40"/>
+    </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="32">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:H1"/>
@@ -11111,16 +11212,17 @@
     <mergeCell ref="C26:H26"/>
     <mergeCell ref="C27:H27"/>
     <mergeCell ref="C28:H28"/>
-    <mergeCell ref="C42:H42"/>
-    <mergeCell ref="C60:H60"/>
-    <mergeCell ref="C61:H61"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="C62:H62"/>
+    <mergeCell ref="C63:H63"/>
     <mergeCell ref="C29:H29"/>
     <mergeCell ref="C30:H30"/>
     <mergeCell ref="C31:H31"/>
     <mergeCell ref="C32:H32"/>
     <mergeCell ref="C33:H33"/>
     <mergeCell ref="C40:H40"/>
-    <mergeCell ref="C41:H41"/>
+    <mergeCell ref="C43:H43"/>
+    <mergeCell ref="C42:H42"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/tools/game_levels.xlsx
+++ b/tools/game_levels.xlsx
@@ -369,7 +369,7 @@
     <t>character_introduction_text</t>
   </si>
   <si>
-    <t>Willkommen in der Stadt Hafenwald! Das bist Du: Ein Mika Wesen namens [Initialen]. Du lebst hier in Hafenwald, zusammen mit vielen anderen Mikas.</t>
+    <t>Willkommen in der Stadt Mikhausen auf dem Planeten Mikana! Das bist Du: Ein Mika, wie die auf Mikana lebenden Wesen genannt werden. Dein Name ist [Initialen]. Du lebst zusammen mit anderen Mikas hier in Mikhausen.</t>
   </si>
   <si>
     <t>Measuring affect timestamp</t>
@@ -438,7 +438,7 @@
     <t>ingroup_hat_necklace_introduction_text</t>
   </si>
   <si>
-    <t>Das ist ein vollwertiges Mika des Familienclans der Rothüte. Vollwertige Mitglieder tragen einen Hut und eine blaue Kette.</t>
+    <t>Man ist nicht von Anfang an ein Vollmitglied der Rothüte. Erst ist man Mini-Rothut, dann Junior-Rothut und erst dann Vollmitglied. Als Vollmitglied bekommt man Verantwortungen für die Gruppe. Ein Vollmitglied erkennst Du am Hut und der blauen Kette.</t>
   </si>
   <si>
     <t>Textbox and scripted sequence: Hat</t>
@@ -447,7 +447,7 @@
     <t>ingroup_hat_introduction_text</t>
   </si>
   <si>
-    <t>Dieses Mika ist noch kein vollwertiges Mitglied des Familienclans der Rothüte und hat bislang nur den Hut erhalten.</t>
+    <t>Dies ist ein Junior-Rothut, erkennbar am Hut, und hat schon das Privileg, auf dem Markt einkaufen zu dürfen. Aber erst mit Hut und Kette ist man ein Vollmitglied der Rothüte und mit allen Privilegien und Verantwortungen ausgestattet.</t>
   </si>
   <si>
     <t>Textbox and scripted sequence: narrative</t>
@@ -456,7 +456,7 @@
     <t>narrative_text</t>
   </si>
   <si>
-    <t xml:space="preserve">Dein Familienclan braucht dringend Geld, denn unweit tobt ein Vulkan und ihr müsst umziehen - je mehr Geld ihr verdient, desto sicherer seid ihr! Verkauft Ernte, Holz und Früchte und verdient Münzen bei 'Kuh-in-den-Stall'. Doch seid auf der Hut vor den Hornlingen... </t>
+    <t>Dein Familienclan braucht dringend Geld: unweit tobt ein Vulkan und ihr müsst umziehen. Das ist teuer. Daher: je mehr Geld ihr verdient, desto sicherer seid ihr! Verkauft Ernte, Holz und Früchte, verdient Münzen beim Wettstreit 'Kuh-in-den-Stall' gegen die Hornlinge.</t>
   </si>
   <si>
     <t>Textbox and scripted sequence: Introduction to outgroup</t>
@@ -465,7 +465,7 @@
     <t>outgroup_introduction_text</t>
   </si>
   <si>
-    <t>Das ist die andere Gruppe: Die Hornlinge.</t>
+    <t>Es gibt auch eine andere in Mikhausen lebende Gruppe: Die Hornlinge.</t>
   </si>
   <si>
     <t>Textbox and scripted sequence: Player receives hat timestamp</t>
@@ -480,7 +480,7 @@
     <t>player_hat_sequence_text</t>
   </si>
   <si>
-    <t>Dein Familienclan verleiht Dir den Hut als Zeichen deiner Zugehörigkeit! Drücke die Leertaste, um fortzufahren.</t>
+    <t>Du wirst zum Junior-Rothut: Dein Familienclan verleiht Dir den Hut als Zeichen deiner Zugehörigkeit! Du darfst jetzt auf dem Markt einkaufen und bist verantwortlich für das Geld der Rothüte. Drücke die Leertaste, um fortzufahren.</t>
   </si>
   <si>
     <t>Textbox and scripted sequence: In-group member receives necklace timestamp</t>
@@ -495,7 +495,7 @@
     <t>ingroup_necklace_sequence_text</t>
   </si>
   <si>
-    <t>Eines unserer Rothüte bekommt die Kette verliehen und ist jetzt ein vollwertiges Mitglied des Familienclans! Drücke die Leertaste, um fortzufahren.</t>
+    <t>Ein Junior-Rothut bekommt die Kette verliehen und wird so zum Vollmitglied. Mit der Kette darf man auf dem Markt einkaufen und an Abstimmungen teilnehmen. Drücke die Leertaste, um fortzufahren.</t>
   </si>
   <si>
     <t>Textbox and scripted sequence: Player receives necklace timestamp</t>
@@ -510,7 +510,7 @@
     <t>player_necklace_sequence_text</t>
   </si>
   <si>
-    <t>Dein Familienclan verleiht Dir die Kette. Jetzt bist Du vollwertiges Mitglied des Familienclans! Drücke die Leertaste, um fortzufahren.</t>
+    <t>Dein Familienclan verleiht Dir die Kette. Jetzt bist Du Vollmitglied der Rothüte! Du darfst jetzt auch an den Abstimmungen teilnehmen. Drücke die Leertaste, um fortzufahren.</t>
   </si>
   <si>
     <t>Textbox and scripted sequence: Players birthday timestamp</t>
@@ -537,7 +537,7 @@
     <t>group_market_passive_player_sequence_text</t>
   </si>
   <si>
-    <t>Dein Familienclan versammelt sich zur täglichen Abstimmung darüber, was auf dem Markt gekauft werden soll. Du darfst noch nicht mitentscheiden, da Du noch kein vollwertiges Mitglied bist. Drücke die Leertaste, um fortzufahren.</t>
+    <t>Dein Familienclan versammelt sich zur täglichen Abstimmung darüber, was auf dem Markt gekauft werden soll. Du darfst noch nicht mitentscheiden, da Du noch kein Vollmitglied bist. Drücke die Leertaste, um fortzufahren.</t>
   </si>
   <si>
     <t>Textbox and scripted sequence: Group discussion what to sell at the market; player can make a decision timestamp</t>
@@ -552,7 +552,10 @@
     <t>group_market_active_player_sequence_text</t>
   </si>
   <si>
-    <t>Dein Familienclan versammelt sich zur täglichen Abstimmung darüber, was auf dem Markt gekauft werden soll. Da Du jetzt ein vollwertiges Mitglied des Familienclans der Rothüte bist, darfst auch Du abstimmen! Drücke die Leertaste, um fortzufahren.</t>
+    <t>Dein Familienclan versammelt sich zur täglichen Abstimmung darüber, was auf dem Markt gekauft werden soll. Da Du jetzt ein Vollmitglied der Rothüte bist, darfst auch Du abstimmen! Drücke die Leertaste, um fortzufahren.</t>
+  </si>
+  <si>
+    <t>Dein Familienclan versammelt sich zur täglichen Abstimmung darüber, was auf dem Markt gekauft werden soll. Da Du ein Vollmitglied der Rothüte bist, darfst auch Du abstimmen! Drücke die Leertaste, um fortzufahren.</t>
   </si>
   <si>
     <t>40% of ingroup NPCs wear a hat and a necklace; 60% wear only a hat</t>
@@ -579,49 +582,46 @@
     <t>Das ist deine Freundesfarm: Ihr seid die Rothüte.</t>
   </si>
   <si>
-    <t>Das ist ein vollwertiges Mika der Freundesfarm der Rothüte. Vollwertige Mitglieder tragen einen Hut und eine blaue Kette.</t>
-  </si>
-  <si>
-    <t>Dieses Mika ist noch kein vollwertiges Mitglied der Freundesfarm der Rothüte und hat bislang nur den Hut erhalten.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deine Freundesfarm braucht dringend Geld, denn unweit tobt ein Vulkan und ihr müsst umziehen - je mehr Geld ihr verdient, desto sicherer seid ihr! Verkauft Ernte, Holz und Früchte und verdient Münzen bei 'Kuh-in-den-Stall'. Doch seid auf der Hut vor den Hornlingen... </t>
-  </si>
-  <si>
-    <t>Deine Freundesfarm verleiht Dir den Hut als Zeichen deiner Zugehörigkeit! Drücke die Leertaste, um fortzufahren.</t>
-  </si>
-  <si>
-    <t>Eines unserer Rothüte bekommt die Kette verliehen und ist jetzt ein vollwertiges Mitglied der Freundesfarm! Drücke die Leertaste, um fortzufahren.</t>
-  </si>
-  <si>
-    <t>Deine Freundesfarm verleiht Dir die Kette. Jetzt bist Du vollwertiges Mitglied der Freundesfarm! Drücke die Leertaste, um fortzufahren.</t>
-  </si>
-  <si>
-    <t>Deine Freundesfarm versammelt sich zur täglichen Abstimmung darüber, was auf dem Markt gekauft werden soll. Du darfst noch nicht mitentscheiden, da Du noch kein vollwertiges Mitglied bist. Drücke die Leertaste, um fortzufahren.</t>
-  </si>
-  <si>
-    <t>Deine Freundesfarm versammelt sich zur täglichen Abstimmung darüber, was auf dem Markt gekauft werden soll. Da Du jetzt ein vollwertiges Mitglied der Freundesfarm der Rothüte bist, darfst auch Du abstimmen! Drücke die Leertaste, um fortzufahren.</t>
+    <t>Wie in den meisten Freundesfarmen, ist man nicht von Anfang an ein Vollmitglied. Man beginnt als Mini-Rothut, dann wird man Junior-Rothut und erst dann Vollmitglied der Rothüte. Als Vollmitglied bekommt man Verantwortungen für die Gruppe und ist an Entscheidungen beteiligt. Ein Vollmitglied erkennst Du an dem Hut und der blauen Kette.</t>
+  </si>
+  <si>
+    <t>Deine Freundesfarm braucht dringend Geld: unweit tobt ein Vulkan und ihr müsst umziehen. Das ist teuer. Daher: je mehr Geld ihr verdient, desto sicherer seid ihr! Verkauft Ernte, Holz und Früchte, verdient Münzen beim Wettstreit 'Kuh-in-den-Stall' gegen die Hornlinge.</t>
+  </si>
+  <si>
+    <t>Du wirst zum Junior-Rothut: Deine Freundesfarm verleiht Dir den Hut als Zeichen deiner Zugehörigkeit! Du darfst jetzt auf dem Markt einkaufen und bist verantwortlich für das Geld der Rothüte. Drücke die Leertaste, um fortzufahren.</t>
+  </si>
+  <si>
+    <t>Deine Freundesfarm verleiht Dir die Kette. Jetzt bist Du Vollmitglied der Rothüte! Du darfst jetzt auch an den Abstimmungen teilnehmen. Drücke die Leertaste, um fortzufahren.</t>
+  </si>
+  <si>
+    <t>Deine Freundesfarm versammelt sich zur täglichen Abstimmung darüber, was auf dem Markt gekauft werden soll. Du darfst noch nicht mitentscheiden, da Du noch kein Vollmitglied bist. Drücke die Leertaste, um fortzufahren.</t>
+  </si>
+  <si>
+    <t>Deine Freundesfarm versammelt sich zur täglichen Abstimmung darüber, was auf dem Markt gekauft werden soll. Da Du jetzt ein Vollmitglied der Rothüte bist, darfst auch Du abstimmen! Drücke die Leertaste, um fortzufahren.</t>
+  </si>
+  <si>
+    <t>Deine Freundesfarm versammelt sich zur täglichen Abstimmung darüber, was auf dem Markt gekauft werden soll. Da Du ein Vollmitglied der Rothüte bist, darfst auch Du abstimmen! Drücke die Leertaste, um fortzufahren.</t>
   </si>
   <si>
     <t>25 min</t>
   </si>
   <si>
-    <t>Willkommen in der Stadt Hafenwald!</t>
+    <t>Willkommen in der Stadt Mikhausen auf dem Planeten Mikana! Das bist Du: Ein Mika, wie die auf Mikana lebenden Wesen genannt werden. Du lebst zusammen mit anderen Mikas hier in Mikhausen.</t>
   </si>
   <si>
     <t xml:space="preserve">No </t>
   </si>
   <si>
-    <t>Du bist zufällig bei den Rothüten gelandet.</t>
+    <t>Das hier sind die Rothüte.</t>
   </si>
   <si>
     <t>Textbox and scripted seque: narrative</t>
   </si>
   <si>
-    <t>Die Rothüte brauchen dringend Geld, denn unweit tobt ein Vulkan und sie müssen umziehen - je mehr Geld sie verdienen, desto sicherer sind sie! Verkauft Ernte, Holz und Früchte und verdient Münzen bei 'Kuh-in-den-Stall'.</t>
-  </si>
-  <si>
-    <t>Das sind die Hornlinge.</t>
+    <t>Unweit tobt ein Vulkan und ihr müsst umziehen. Das ist teuer. Daher: je mehr Geld man verdient, desto sicherer ist man. Man verkauft dazu Ernte, Holz und Früchte und verdient Münzen beim Spiel 'Kuh-in-den-Stall'.</t>
+  </si>
+  <si>
+    <t>Das hier sind die Hornlinge.</t>
   </si>
   <si>
     <t>Die Rothüte gratulieren Dir zum Geburtstag! Drücke die Leertaste, um fortzufahren.</t>
@@ -2232,18 +2232,18 @@
         <v>179</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H61" s="9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C62" s="15" t="s">
         <v>14</v>
@@ -2256,10 +2256,10 @@
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C63" s="15" t="s">
         <v>14</v>
@@ -5131,6 +5131,7 @@
     <mergeCell ref="C27:H27"/>
     <mergeCell ref="C28:H28"/>
     <mergeCell ref="C29:H29"/>
+    <mergeCell ref="C44:H44"/>
     <mergeCell ref="C62:H62"/>
     <mergeCell ref="C63:H63"/>
     <mergeCell ref="C30:H30"/>
@@ -5138,9 +5139,8 @@
     <mergeCell ref="C32:H32"/>
     <mergeCell ref="C33:H33"/>
     <mergeCell ref="C40:H40"/>
+    <mergeCell ref="C42:H42"/>
     <mergeCell ref="C43:H43"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="C42:H42"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -5429,15 +5429,15 @@
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16">
@@ -5972,7 +5972,7 @@
         <v>137</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D45" s="12"/>
       <c r="E45" s="12"/>
@@ -5988,7 +5988,7 @@
         <v>140</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D46" s="27"/>
       <c r="E46" s="12"/>
@@ -6004,7 +6004,7 @@
         <v>143</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>189</v>
+        <v>144</v>
       </c>
       <c r="D47" s="27"/>
       <c r="E47" s="12"/>
@@ -6100,7 +6100,7 @@
         <v>159</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>192</v>
+        <v>160</v>
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="12"/>
@@ -6135,7 +6135,7 @@
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
       <c r="F55" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G55" s="12"/>
       <c r="H55" s="12"/>
@@ -6196,13 +6196,13 @@
         <v>173</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F59" s="12"/>
       <c r="G59" s="12"/>
@@ -6239,7 +6239,7 @@
       <c r="D61" s="12"/>
       <c r="E61" s="12"/>
       <c r="F61" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G61" s="9" t="s">
         <v>195</v>
@@ -6250,10 +6250,10 @@
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C62" s="15" t="s">
         <v>14</v>
@@ -6266,10 +6266,10 @@
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C63" s="15" t="s">
         <v>14</v>
@@ -7249,6 +7249,7 @@
     <mergeCell ref="C26:H26"/>
     <mergeCell ref="C27:H27"/>
     <mergeCell ref="C28:H28"/>
+    <mergeCell ref="C43:H43"/>
     <mergeCell ref="C44:H44"/>
     <mergeCell ref="C62:H62"/>
     <mergeCell ref="C63:H63"/>
@@ -7258,7 +7259,6 @@
     <mergeCell ref="C32:H32"/>
     <mergeCell ref="C33:H33"/>
     <mergeCell ref="C40:H40"/>
-    <mergeCell ref="C43:H43"/>
     <mergeCell ref="C42:H42"/>
   </mergeCells>
   <drawing r:id="rId1"/>
@@ -7946,7 +7946,7 @@
       <c r="B38" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="19" t="s">
         <v>197</v>
       </c>
       <c r="D38" s="12"/>
@@ -8321,10 +8321,10 @@
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C62" s="15" t="s">
         <v>23</v>
@@ -8337,10 +8337,10 @@
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C63" s="15" t="s">
         <v>14</v>
@@ -11212,6 +11212,7 @@
     <mergeCell ref="C26:H26"/>
     <mergeCell ref="C27:H27"/>
     <mergeCell ref="C28:H28"/>
+    <mergeCell ref="C43:H43"/>
     <mergeCell ref="C44:H44"/>
     <mergeCell ref="C62:H62"/>
     <mergeCell ref="C63:H63"/>
@@ -11221,7 +11222,6 @@
     <mergeCell ref="C32:H32"/>
     <mergeCell ref="C33:H33"/>
     <mergeCell ref="C40:H40"/>
-    <mergeCell ref="C43:H43"/>
     <mergeCell ref="C42:H42"/>
   </mergeCells>
   <drawing r:id="rId1"/>

--- a/tools/game_levels.xlsx
+++ b/tools/game_levels.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="202">
   <si>
     <t>Feature</t>
   </si>
@@ -369,7 +369,7 @@
     <t>character_introduction_text</t>
   </si>
   <si>
-    <t>Willkommen in der Stadt Mikhausen auf dem Planeten Mikana! Das bist Du: Ein Mika, wie die auf Mikana lebenden Wesen genannt werden. Dein Name ist [Initialen]. Du lebst zusammen mit anderen Mikas hier in Mikhausen.</t>
+    <t>Willkommen in der Stadt Mikhausen auf dem Planeten Mikana! Das bist du: Ein Mika, wie die auf Mikana lebenden Wesen genannt werden. Dein Name ist [Initialen]. Du lebst zusammen mit anderen Mikas hier in Mikhausen.</t>
   </si>
   <si>
     <t>Measuring affect timestamp</t>
@@ -438,7 +438,7 @@
     <t>ingroup_hat_necklace_introduction_text</t>
   </si>
   <si>
-    <t>Man ist nicht von Anfang an ein Vollmitglied der Rothüte. Erst ist man Mini-Rothut, dann Junior-Rothut und erst dann Vollmitglied. Als Vollmitglied bekommt man Verantwortungen für die Gruppe. Ein Vollmitglied erkennst Du am Hut und der blauen Kette.</t>
+    <t>Man ist nicht von Anfang an ein Vollmitglied der Rothüte. Erst ist man Mini-Rothut, dann Junior-Rothut und erst dann Vollmitglied. Als Vollmitglied erhält man Privilegien und Verantwortung. Ein Vollmitglied erkennst du am Hut und der blauen Kette.</t>
   </si>
   <si>
     <t>Textbox and scripted sequence: Hat</t>
@@ -447,7 +447,7 @@
     <t>ingroup_hat_introduction_text</t>
   </si>
   <si>
-    <t>Dies ist ein Junior-Rothut, erkennbar am Hut, und hat schon das Privileg, auf dem Markt einkaufen zu dürfen. Aber erst mit Hut und Kette ist man ein Vollmitglied der Rothüte und mit allen Privilegien und Verantwortungen ausgestattet.</t>
+    <t>Dies ist ein Junior-Rothut, erkennbar am Hut, und hat schon die Verantwortung, auf dem Markt zu kaufen und verkaufen. Aber erst mit Hut und Kette ist man ein Vollmitglied der Rothüte und hat alle Privilegien und Verantwortungen.</t>
   </si>
   <si>
     <t>Textbox and scripted sequence: narrative</t>
@@ -480,7 +480,7 @@
     <t>player_hat_sequence_text</t>
   </si>
   <si>
-    <t>Du wirst zum Junior-Rothut: Dein Familienclan verleiht Dir den Hut als Zeichen deiner Zugehörigkeit! Du darfst jetzt auf dem Markt einkaufen und bist verantwortlich für das Geld der Rothüte. Drücke die Leertaste, um fortzufahren.</t>
+    <t>Du wirst zum Junior-Rothut: Deine Freundesfarm verleiht dir den Hut als Zeichen deiner Zugehörigkeit! Du darfst jetzt für die Rothüte auf dem Markt kaufen und verkaufen. Drücke die Leertaste, um fortzufahren.</t>
   </si>
   <si>
     <t>Textbox and scripted sequence: In-group member receives necklace timestamp</t>
@@ -495,7 +495,7 @@
     <t>ingroup_necklace_sequence_text</t>
   </si>
   <si>
-    <t>Ein Junior-Rothut bekommt die Kette verliehen und wird so zum Vollmitglied. Mit der Kette darf man auf dem Markt einkaufen und an Abstimmungen teilnehmen. Drücke die Leertaste, um fortzufahren.</t>
+    <t>Ein Junior-Rothut bekommt die Kette verliehen und wird so zum Vollmitglied. Mit der Kette darf man auf dem Markt kaufen und verkaufen und darf an Abstimmungen teilnehmen. Drücke die Leertaste, um fortzufahren.</t>
   </si>
   <si>
     <t>Textbox and scripted sequence: Player receives necklace timestamp</t>
@@ -537,7 +537,7 @@
     <t>group_market_passive_player_sequence_text</t>
   </si>
   <si>
-    <t>Dein Familienclan versammelt sich zur täglichen Abstimmung darüber, was auf dem Markt gekauft werden soll. Du darfst noch nicht mitentscheiden, da Du noch kein Vollmitglied bist. Drücke die Leertaste, um fortzufahren.</t>
+    <t>Dein Familienclan versammelt sich zur täglichen Abstimmung darüber, was auf dem Markt gekauft werden soll. Du darfst noch nicht mitentscheiden, da du noch kein Vollmitglied bist. Drücke die Leertaste, um fortzufahren.</t>
   </si>
   <si>
     <t>Textbox and scripted sequence: Group discussion what to sell at the market; player can make a decision timestamp</t>
@@ -552,10 +552,10 @@
     <t>group_market_active_player_sequence_text</t>
   </si>
   <si>
-    <t>Dein Familienclan versammelt sich zur täglichen Abstimmung darüber, was auf dem Markt gekauft werden soll. Da Du jetzt ein Vollmitglied der Rothüte bist, darfst auch Du abstimmen! Drücke die Leertaste, um fortzufahren.</t>
-  </si>
-  <si>
-    <t>Dein Familienclan versammelt sich zur täglichen Abstimmung darüber, was auf dem Markt gekauft werden soll. Da Du ein Vollmitglied der Rothüte bist, darfst auch Du abstimmen! Drücke die Leertaste, um fortzufahren.</t>
+    <t>Dein Familienclan versammelt sich zur täglichen Abstimmung darüber, was auf dem Markt gekauft werden soll. Da du jetzt ein Vollmitglied der Rothüte bist, darfst auch du abstimmen! Drücke die Leertaste, um fortzufahren.</t>
+  </si>
+  <si>
+    <t>Dein Familienclan versammelt sich zur täglichen Abstimmung darüber, was auf dem Markt gekauft werden soll. Da du ein Vollmitglied der Rothüte bist, darfst auch du abstimmen! Drücke die Leertaste, um fortzufahren.</t>
   </si>
   <si>
     <t>40% of ingroup NPCs wear a hat and a necklace; 60% wear only a hat</t>
@@ -582,31 +582,25 @@
     <t>Das ist deine Freundesfarm: Ihr seid die Rothüte.</t>
   </si>
   <si>
-    <t>Wie in den meisten Freundesfarmen, ist man nicht von Anfang an ein Vollmitglied. Man beginnt als Mini-Rothut, dann wird man Junior-Rothut und erst dann Vollmitglied der Rothüte. Als Vollmitglied bekommt man Verantwortungen für die Gruppe und ist an Entscheidungen beteiligt. Ein Vollmitglied erkennst Du an dem Hut und der blauen Kette.</t>
-  </si>
-  <si>
     <t>Deine Freundesfarm braucht dringend Geld: unweit tobt ein Vulkan und ihr müsst umziehen. Das ist teuer. Daher: je mehr Geld ihr verdient, desto sicherer seid ihr! Verkauft Ernte, Holz und Früchte, verdient Münzen beim Wettstreit 'Kuh-in-den-Stall' gegen die Hornlinge.</t>
   </si>
   <si>
-    <t>Du wirst zum Junior-Rothut: Deine Freundesfarm verleiht Dir den Hut als Zeichen deiner Zugehörigkeit! Du darfst jetzt auf dem Markt einkaufen und bist verantwortlich für das Geld der Rothüte. Drücke die Leertaste, um fortzufahren.</t>
-  </si>
-  <si>
-    <t>Deine Freundesfarm verleiht Dir die Kette. Jetzt bist Du Vollmitglied der Rothüte! Du darfst jetzt auch an den Abstimmungen teilnehmen. Drücke die Leertaste, um fortzufahren.</t>
-  </si>
-  <si>
-    <t>Deine Freundesfarm versammelt sich zur täglichen Abstimmung darüber, was auf dem Markt gekauft werden soll. Du darfst noch nicht mitentscheiden, da Du noch kein Vollmitglied bist. Drücke die Leertaste, um fortzufahren.</t>
-  </si>
-  <si>
-    <t>Deine Freundesfarm versammelt sich zur täglichen Abstimmung darüber, was auf dem Markt gekauft werden soll. Da Du jetzt ein Vollmitglied der Rothüte bist, darfst auch Du abstimmen! Drücke die Leertaste, um fortzufahren.</t>
-  </si>
-  <si>
-    <t>Deine Freundesfarm versammelt sich zur täglichen Abstimmung darüber, was auf dem Markt gekauft werden soll. Da Du ein Vollmitglied der Rothüte bist, darfst auch Du abstimmen! Drücke die Leertaste, um fortzufahren.</t>
+    <t>Deine Freundesfarm verleiht dir die Kette. Jetzt bist du Vollmitglied der Rothüte! Du darfst jetzt auch an den Abstimmungen teilnehmen. Drücke die Leertaste, um fortzufahren.</t>
+  </si>
+  <si>
+    <t>Deine Freundesfarm versammelt sich zur täglichen Abstimmung darüber, was auf dem Markt gekauft werden soll. Du darfst noch nicht mitentscheiden, da du noch kein Vollmitglied bist. Drücke die Leertaste, um fortzufahren.</t>
+  </si>
+  <si>
+    <t>Deine Freundesfarm versammelt sich zur täglichen Abstimmung darüber, was auf dem Markt gekauft werden soll. Da du jetzt ein Vollmitglied der Rothüte bist, darfst auch du abstimmen! Drücke die Leertaste, um fortzufahren.</t>
+  </si>
+  <si>
+    <t>Deine Freundesfarm versammelt sich zur täglichen Abstimmung darüber, was auf dem Markt gekauft werden soll. Da du ein Vollmitglied der Rothüte bist, darfst auch du abstimmen! Drücke die Leertaste, um fortzufahren.</t>
   </si>
   <si>
     <t>25 min</t>
   </si>
   <si>
-    <t>Willkommen in der Stadt Mikhausen auf dem Planeten Mikana! Das bist Du: Ein Mika, wie die auf Mikana lebenden Wesen genannt werden. Du lebst zusammen mit anderen Mikas hier in Mikhausen.</t>
+    <t>Willkommen in der Stadt Mikhausen auf dem Planeten Mikana! Das bist du: Ein Mika, wie die auf Mikana lebenden Wesen genannt werden. Du lebst zusammen mit anderen Mikas hier in Mikhausen.</t>
   </si>
   <si>
     <t xml:space="preserve">No </t>
@@ -618,13 +612,13 @@
     <t>Textbox and scripted seque: narrative</t>
   </si>
   <si>
-    <t>Unweit tobt ein Vulkan und ihr müsst umziehen. Das ist teuer. Daher: je mehr Geld man verdient, desto sicherer ist man. Man verkauft dazu Ernte, Holz und Früchte und verdient Münzen beim Spiel 'Kuh-in-den-Stall'.</t>
+    <t>Unweit von Mikahausen tobt ein Vulkan und alle müssen umziehen. Das ist teuer. Daher: je mehr Geld man verdient, desto sicherer ist man. Man verkauft dazu Ernte, Holz und Früchte und verdient Münzen beim Spiel 'Kuh-in-den-Stall'.</t>
   </si>
   <si>
     <t>Das hier sind die Hornlinge.</t>
   </si>
   <si>
-    <t>Die Rothüte gratulieren Dir zum Geburtstag! Drücke die Leertaste, um fortzufahren.</t>
+    <t>Die Rothüte gratulieren dir zum Geburtstag! Drücke die Leertaste, um fortzufahren.</t>
   </si>
 </sst>
 </file>
@@ -5988,7 +5982,7 @@
         <v>140</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>189</v>
+        <v>141</v>
       </c>
       <c r="D46" s="27"/>
       <c r="E46" s="12"/>
@@ -6020,7 +6014,7 @@
         <v>146</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D48" s="18"/>
       <c r="E48" s="12"/>
@@ -6069,7 +6063,7 @@
       </c>
       <c r="C51" s="12"/>
       <c r="D51" s="9" t="s">
-        <v>191</v>
+        <v>155</v>
       </c>
       <c r="E51" s="12"/>
       <c r="F51" s="12"/>
@@ -6135,7 +6129,7 @@
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
       <c r="F55" s="9" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G55" s="12"/>
       <c r="H55" s="12"/>
@@ -6196,13 +6190,13 @@
         <v>173</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F59" s="12"/>
       <c r="G59" s="12"/>
@@ -6239,13 +6233,13 @@
       <c r="D61" s="12"/>
       <c r="E61" s="12"/>
       <c r="F61" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H61" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
@@ -7329,7 +7323,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>11</v>
@@ -7947,7 +7941,7 @@
         <v>117</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
@@ -8063,7 +8057,7 @@
         <v>135</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D44" s="16"/>
       <c r="E44" s="16"/>
@@ -8079,7 +8073,7 @@
         <v>137</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D45" s="12"/>
       <c r="E45" s="12"/>
@@ -8117,13 +8111,13 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="26" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B48" s="28" t="s">
         <v>146</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D48" s="18"/>
       <c r="E48" s="12"/>
@@ -8139,7 +8133,7 @@
         <v>149</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D49" s="18"/>
       <c r="E49" s="12"/>
@@ -8257,7 +8251,7 @@
       <c r="C57" s="12"/>
       <c r="D57" s="12"/>
       <c r="E57" s="9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F57" s="12"/>
       <c r="G57" s="12"/>

--- a/tools/game_levels.xlsx
+++ b/tools/game_levels.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="204">
   <si>
     <t>Feature</t>
   </si>
@@ -597,7 +597,7 @@
     <t>Deine Freundesfarm versammelt sich zur täglichen Abstimmung darüber, was auf dem Markt gekauft werden soll. Da du ein Vollmitglied der Rothüte bist, darfst auch du abstimmen! Drücke die Leertaste, um fortzufahren.</t>
   </si>
   <si>
-    <t>25 min</t>
+    <t>15min</t>
   </si>
   <si>
     <t>Willkommen in der Stadt Mikhausen auf dem Planeten Mikana! Das bist du: Ein Mika, wie die auf Mikana lebenden Wesen genannt werden. Du lebst zusammen mit anderen Mikas hier in Mikhausen.</t>
@@ -606,7 +606,13 @@
     <t xml:space="preserve">No </t>
   </si>
   <si>
-    <t>Das hier sind die Rothüte.</t>
+    <t>Diese Mikas sind Rothüte.</t>
+  </si>
+  <si>
+    <t>Die ersten Mikas haben Mikahausen schon vor tausenden Jahren besiedelt.</t>
+  </si>
+  <si>
+    <t>Die Mikas in Mikahausen haben sich auf den Ackerbau spezialisiert.</t>
   </si>
   <si>
     <t>Textbox and scripted seque: narrative</t>
@@ -615,7 +621,7 @@
     <t>Unweit von Mikahausen tobt ein Vulkan und alle müssen umziehen. Das ist teuer. Daher: je mehr Geld man verdient, desto sicherer ist man. Man verkauft dazu Ernte, Holz und Früchte und verdient Münzen beim Spiel 'Kuh-in-den-Stall'.</t>
   </si>
   <si>
-    <t>Das hier sind die Hornlinge.</t>
+    <t>Diese Mikas sind Hornlinge.</t>
   </si>
   <si>
     <t>Die Rothüte gratulieren dir zum Geburtstag! Drücke die Leertaste, um fortzufahren.</t>
@@ -8088,7 +8094,9 @@
       <c r="B46" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="C46" s="19"/>
+      <c r="C46" s="19" t="s">
+        <v>198</v>
+      </c>
       <c r="D46" s="18"/>
       <c r="E46" s="12"/>
       <c r="F46" s="12"/>
@@ -8102,7 +8110,9 @@
       <c r="B47" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="C47" s="19"/>
+      <c r="C47" s="19" t="s">
+        <v>199</v>
+      </c>
       <c r="D47" s="18"/>
       <c r="E47" s="12"/>
       <c r="F47" s="12"/>
@@ -8111,13 +8121,13 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="26" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B48" s="28" t="s">
         <v>146</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D48" s="18"/>
       <c r="E48" s="12"/>
@@ -8133,7 +8143,7 @@
         <v>149</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D49" s="18"/>
       <c r="E49" s="12"/>
@@ -8251,7 +8261,7 @@
       <c r="C57" s="12"/>
       <c r="D57" s="12"/>
       <c r="E57" s="9" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F57" s="12"/>
       <c r="G57" s="12"/>

--- a/tools/game_levels.xlsx
+++ b/tools/game_levels.xlsx
@@ -6119,7 +6119,7 @@
       <c r="D54" s="12"/>
       <c r="E54" s="12"/>
       <c r="F54" s="27">
-        <v>0.4166666666666667</v>
+        <v>0.25</v>
       </c>
       <c r="G54" s="12"/>
       <c r="H54" s="12"/>
@@ -6219,7 +6219,7 @@
       <c r="D60" s="15"/>
       <c r="E60" s="15"/>
       <c r="F60" s="38">
-        <v>0.08333333333333333</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G60" s="38">
         <v>0.08333333333333333</v>

--- a/tools/game_levels.xlsx
+++ b/tools/game_levels.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="202">
   <si>
     <t>Feature</t>
   </si>
@@ -552,9 +552,6 @@
     <t>group_market_active_player_sequence_text</t>
   </si>
   <si>
-    <t>Dein Familienclan versammelt sich zur täglichen Abstimmung darüber, was auf dem Markt gekauft werden soll. Da du jetzt ein Vollmitglied der Rothüte bist, darfst auch du abstimmen! Drücke die Leertaste, um fortzufahren.</t>
-  </si>
-  <si>
     <t>Dein Familienclan versammelt sich zur täglichen Abstimmung darüber, was auf dem Markt gekauft werden soll. Da du ein Vollmitglied der Rothüte bist, darfst auch du abstimmen! Drücke die Leertaste, um fortzufahren.</t>
   </si>
   <si>
@@ -589,9 +586,6 @@
   </si>
   <si>
     <t>Deine Freundesfarm versammelt sich zur täglichen Abstimmung darüber, was auf dem Markt gekauft werden soll. Du darfst noch nicht mitentscheiden, da du noch kein Vollmitglied bist. Drücke die Leertaste, um fortzufahren.</t>
-  </si>
-  <si>
-    <t>Deine Freundesfarm versammelt sich zur täglichen Abstimmung darüber, was auf dem Markt gekauft werden soll. Da du jetzt ein Vollmitglied der Rothüte bist, darfst auch du abstimmen! Drücke die Leertaste, um fortzufahren.</t>
   </si>
   <si>
     <t>Deine Freundesfarm versammelt sich zur täglichen Abstimmung darüber, was auf dem Markt gekauft werden soll. Da du ein Vollmitglied der Rothüte bist, darfst auch du abstimmen! Drücke die Leertaste, um fortzufahren.</t>
@@ -2108,10 +2102,10 @@
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
       <c r="E54" s="12"/>
-      <c r="F54" s="27">
-        <v>0.25</v>
-      </c>
-      <c r="G54" s="12"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="27">
+        <v>0.08333333333333333</v>
+      </c>
       <c r="H54" s="12"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
@@ -2124,10 +2118,10 @@
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
-      <c r="F55" s="9" t="s">
+      <c r="F55" s="9"/>
+      <c r="G55" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="G55" s="12"/>
       <c r="H55" s="12"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
@@ -2174,7 +2168,9 @@
       <c r="E58" s="38">
         <v>0.08333333333333333</v>
       </c>
-      <c r="F58" s="12"/>
+      <c r="F58" s="27">
+        <v>0.08333333333333333</v>
+      </c>
       <c r="G58" s="12"/>
       <c r="H58" s="12"/>
     </row>
@@ -2194,7 +2190,9 @@
       <c r="E59" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="F59" s="12"/>
+      <c r="F59" s="9" t="s">
+        <v>174</v>
+      </c>
       <c r="G59" s="12"/>
       <c r="H59" s="12"/>
     </row>
@@ -2208,11 +2206,9 @@
       <c r="C60" s="15"/>
       <c r="D60" s="15"/>
       <c r="E60" s="15"/>
-      <c r="F60" s="27">
-        <v>0.3333333333333333</v>
-      </c>
+      <c r="F60" s="27"/>
       <c r="G60" s="27">
-        <v>0.08333333333333333</v>
+        <v>0.375</v>
       </c>
       <c r="H60" s="27">
         <v>0.08333333333333333</v>
@@ -2228,22 +2224,20 @@
       <c r="C61" s="12"/>
       <c r="D61" s="12"/>
       <c r="E61" s="12"/>
-      <c r="F61" s="9" t="s">
+      <c r="F61" s="9"/>
+      <c r="G61" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="G61" s="9" t="s">
-        <v>180</v>
-      </c>
       <c r="H61" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B62" s="8" t="s">
         <v>181</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>182</v>
       </c>
       <c r="C62" s="15" t="s">
         <v>14</v>
@@ -2256,10 +2250,10 @@
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="B63" s="8" t="s">
         <v>183</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>184</v>
       </c>
       <c r="C63" s="15" t="s">
         <v>14</v>
@@ -5429,15 +5423,15 @@
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16">
@@ -5972,7 +5966,7 @@
         <v>137</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D45" s="12"/>
       <c r="E45" s="12"/>
@@ -6020,7 +6014,7 @@
         <v>146</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D48" s="18"/>
       <c r="E48" s="12"/>
@@ -6118,10 +6112,10 @@
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
       <c r="E54" s="12"/>
-      <c r="F54" s="27">
-        <v>0.25</v>
-      </c>
-      <c r="G54" s="12"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="27">
+        <v>0.08333333333333333</v>
+      </c>
       <c r="H54" s="12"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
@@ -6134,10 +6128,10 @@
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
-      <c r="F55" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="G55" s="12"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9" t="s">
+        <v>189</v>
+      </c>
       <c r="H55" s="12"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
@@ -6184,7 +6178,9 @@
       <c r="E58" s="38">
         <v>0.08333333333333333</v>
       </c>
-      <c r="F58" s="12"/>
+      <c r="F58" s="38">
+        <v>0.08333333333333333</v>
+      </c>
       <c r="G58" s="12"/>
       <c r="H58" s="12"/>
     </row>
@@ -6196,15 +6192,17 @@
         <v>173</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="F59" s="12"/>
+        <v>190</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>190</v>
+      </c>
       <c r="G59" s="12"/>
       <c r="H59" s="12"/>
     </row>
@@ -6218,11 +6216,9 @@
       <c r="C60" s="15"/>
       <c r="D60" s="15"/>
       <c r="E60" s="15"/>
-      <c r="F60" s="38">
-        <v>0.3333333333333333</v>
-      </c>
+      <c r="F60" s="38"/>
       <c r="G60" s="38">
-        <v>0.08333333333333333</v>
+        <v>0.375</v>
       </c>
       <c r="H60" s="38">
         <v>0.08333333333333333</v>
@@ -6238,22 +6234,20 @@
       <c r="C61" s="12"/>
       <c r="D61" s="12"/>
       <c r="E61" s="12"/>
-      <c r="F61" s="9" t="s">
-        <v>192</v>
-      </c>
+      <c r="F61" s="9"/>
       <c r="G61" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H61" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B62" s="8" t="s">
         <v>181</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>182</v>
       </c>
       <c r="C62" s="15" t="s">
         <v>14</v>
@@ -6266,10 +6260,10 @@
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B63" s="8" t="s">
         <v>183</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>184</v>
       </c>
       <c r="C63" s="15" t="s">
         <v>14</v>
@@ -7329,7 +7323,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>11</v>
@@ -7947,7 +7941,7 @@
         <v>117</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
@@ -8063,7 +8057,7 @@
         <v>135</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D44" s="16"/>
       <c r="E44" s="16"/>
@@ -8079,7 +8073,7 @@
         <v>137</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D45" s="12"/>
       <c r="E45" s="12"/>
@@ -8095,7 +8089,7 @@
         <v>140</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D46" s="18"/>
       <c r="E46" s="12"/>
@@ -8111,7 +8105,7 @@
         <v>143</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D47" s="18"/>
       <c r="E47" s="12"/>
@@ -8121,13 +8115,13 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="26" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B48" s="28" t="s">
         <v>146</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D48" s="18"/>
       <c r="E48" s="12"/>
@@ -8143,7 +8137,7 @@
         <v>149</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D49" s="18"/>
       <c r="E49" s="12"/>
@@ -8261,7 +8255,7 @@
       <c r="C57" s="12"/>
       <c r="D57" s="12"/>
       <c r="E57" s="9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F57" s="12"/>
       <c r="G57" s="12"/>
@@ -8325,10 +8319,10 @@
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B62" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="C62" s="15" t="s">
         <v>23</v>
@@ -8341,10 +8335,10 @@
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B63" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="C63" s="15" t="s">
         <v>14</v>

--- a/tools/game_levels.xlsx
+++ b/tools/game_levels.xlsx
@@ -378,223 +378,223 @@
     <t>self_assessment_timestamp</t>
   </si>
   <si>
+    <t>11:00, 13:00</t>
+  </si>
+  <si>
+    <t>03:00, 11:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Measuring affect </t>
+  </si>
+  <si>
+    <t>self_assessment_menu</t>
+  </si>
+  <si>
+    <t>social identity assessment timestamp</t>
+  </si>
+  <si>
+    <t>social_identity_assessment_timestamp</t>
+  </si>
+  <si>
+    <t>social identity assessment</t>
+  </si>
+  <si>
+    <t>social_identity_assessment_menu</t>
+  </si>
+  <si>
+    <t>Mini game</t>
+  </si>
+  <si>
+    <t>minigame</t>
+  </si>
+  <si>
+    <t>Yes [Playable at any time]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NPCs rooting in mini game </t>
+  </si>
+  <si>
+    <t>minigame_rooting_npcs</t>
+  </si>
+  <si>
+    <t>Textbox and scripted sequence: Introduction to ingroup</t>
+  </si>
+  <si>
+    <t>ingroup_introduction_text</t>
+  </si>
+  <si>
+    <t>Das ist dein Familienclan: Ihr seid die Rothüte.</t>
+  </si>
+  <si>
+    <t>Textbox and scripted sequence: Hat and necklace</t>
+  </si>
+  <si>
+    <t>ingroup_hat_necklace_introduction_text</t>
+  </si>
+  <si>
+    <t>Man ist nicht von Anfang an ein Vollmitglied der Rothüte. Erst ist man Mini-Rothut, dann Junior-Rothut und erst dann Vollmitglied. Als Vollmitglied erhält man Privilegien und Verantwortung. Ein Vollmitglied erkennst du am Hut und der blauen Kette.</t>
+  </si>
+  <si>
+    <t>Textbox and scripted sequence: Hat</t>
+  </si>
+  <si>
+    <t>ingroup_hat_introduction_text</t>
+  </si>
+  <si>
+    <t>Dies ist ein Junior-Rothut, erkennbar am Hut, und hat schon die Verantwortung, auf dem Markt zu kaufen und verkaufen. Aber erst mit Hut und Kette ist man ein Vollmitglied der Rothüte und hat alle Privilegien und Verantwortungen.</t>
+  </si>
+  <si>
+    <t>Textbox and scripted sequence: narrative</t>
+  </si>
+  <si>
+    <t>narrative_text</t>
+  </si>
+  <si>
+    <t>Dein Familienclan braucht dringend Geld: unweit tobt ein Vulkan und ihr müsst umziehen. Das ist teuer. Daher: je mehr Geld ihr verdient, desto sicherer seid ihr! Verkauft Ernte, Holz und Früchte, verdient Münzen beim Wettstreit 'Kuh-in-den-Stall' gegen die Hornlinge.</t>
+  </si>
+  <si>
+    <t>Textbox and scripted sequence: Introduction to outgroup</t>
+  </si>
+  <si>
+    <t>outgroup_introduction_text</t>
+  </si>
+  <si>
+    <t>Es gibt auch eine andere in Mikhausen lebende Gruppe: Die Hornlinge.</t>
+  </si>
+  <si>
+    <t>Textbox and scripted sequence: Player receives hat timestamp</t>
+  </si>
+  <si>
+    <t>player_hat_sequence_timestamp</t>
+  </si>
+  <si>
+    <t>Textbox and scripted sequence: Player receives hat text</t>
+  </si>
+  <si>
+    <t>player_hat_sequence_text</t>
+  </si>
+  <si>
+    <t>Du wirst zum Junior-Rothut: Deine Freundesfarm verleiht dir den Hut als Zeichen deiner Zugehörigkeit! Du darfst jetzt für die Rothüte auf dem Markt kaufen und verkaufen. Drücke die Leertaste, um fortzufahren.</t>
+  </si>
+  <si>
+    <t>Textbox and scripted sequence: In-group member receives necklace timestamp</t>
+  </si>
+  <si>
+    <t>ingroup_necklace_sequence_timestamp</t>
+  </si>
+  <si>
+    <t>Textbox and scripted sequence: In-group member receives necklace text</t>
+  </si>
+  <si>
+    <t>ingroup_necklace_sequence_text</t>
+  </si>
+  <si>
+    <t>Ein Junior-Rothut bekommt die Kette verliehen und wird so zum Vollmitglied. Mit der Kette darf man auf dem Markt kaufen und verkaufen und darf an Abstimmungen teilnehmen. Drücke die Leertaste, um fortzufahren.</t>
+  </si>
+  <si>
+    <t>Textbox and scripted sequence: Player receives necklace timestamp</t>
+  </si>
+  <si>
+    <t>player_necklace_sequence_timestamp</t>
+  </si>
+  <si>
+    <t>Textbox and scripted sequence: Player receives necklace text</t>
+  </si>
+  <si>
+    <t>player_necklace_sequence_text</t>
+  </si>
+  <si>
+    <t>Dein Familienclan verleiht Dir die Kette. Jetzt bist Du Vollmitglied der Rothüte! Du darfst jetzt auch an den Abstimmungen teilnehmen. Drücke die Leertaste, um fortzufahren.</t>
+  </si>
+  <si>
+    <t>Textbox and scripted sequence: Players birthday timestamp</t>
+  </si>
+  <si>
+    <t>player_birthday_sequence_timestamp</t>
+  </si>
+  <si>
+    <t>Textbox and scripted sequence: Players birthday text</t>
+  </si>
+  <si>
+    <t>player_birthday_sequence_text</t>
+  </si>
+  <si>
+    <t>Textbox and scripted sequence: Group discussion what to sell at the market; player cannot make a decision timestamp</t>
+  </si>
+  <si>
+    <t>group_market_passive_player_sequence_timestamp</t>
+  </si>
+  <si>
+    <t>Textbox and scripted sequence: Group discussion what to sell at the market; player cannot make a decision  text</t>
+  </si>
+  <si>
+    <t>group_market_passive_player_sequence_text</t>
+  </si>
+  <si>
+    <t>Dein Familienclan versammelt sich zur täglichen Abstimmung darüber, was auf dem Markt gekauft werden soll. Du darfst noch nicht mitentscheiden, da du noch kein Vollmitglied bist. Drücke die Leertaste, um fortzufahren.</t>
+  </si>
+  <si>
+    <t>Textbox and scripted sequence: Group discussion what to sell at the market; player can make a decision timestamp</t>
+  </si>
+  <si>
+    <t>group_market_active_player_sequence_timestamp</t>
+  </si>
+  <si>
+    <t>Textbox and scripted sequence: Group discussion what to sell at the market; player can make a decision text</t>
+  </si>
+  <si>
+    <t>group_market_active_player_sequence_text</t>
+  </si>
+  <si>
+    <t>Dein Familienclan versammelt sich zur täglichen Abstimmung darüber, was auf dem Markt gekauft werden soll. Da du ein Vollmitglied der Rothüte bist, darfst auch du abstimmen! Drücke die Leertaste, um fortzufahren.</t>
+  </si>
+  <si>
+    <t>40% of ingroup NPCs wear a hat and a necklace; 60% wear only a hat</t>
+  </si>
+  <si>
+    <t>ingroup_40p_hat_necklace_appearance</t>
+  </si>
+  <si>
+    <t>Outgroup NPCs all look the same</t>
+  </si>
+  <si>
+    <t>outgroup_npcs_identical_appearance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Super, ihr liegt deutlich vor den Hornlingen! </t>
+  </si>
+  <si>
+    <t>Ihr seid jetzt gleichauf mit den Hornlingen.</t>
+  </si>
+  <si>
+    <t>Die Hornlinge haben euch aufgeholt.</t>
+  </si>
+  <si>
+    <t>Das ist deine Freundesfarm: Ihr seid die Rothüte.</t>
+  </si>
+  <si>
+    <t>Deine Freundesfarm braucht dringend Geld: unweit tobt ein Vulkan und ihr müsst umziehen. Das ist teuer. Daher: je mehr Geld ihr verdient, desto sicherer seid ihr! Verkauft Ernte, Holz und Früchte, verdient Münzen beim Wettstreit 'Kuh-in-den-Stall' gegen die Hornlinge.</t>
+  </si>
+  <si>
+    <t>Deine Freundesfarm verleiht dir die Kette. Jetzt bist du Vollmitglied der Rothüte! Du darfst jetzt auch an den Abstimmungen teilnehmen. Drücke die Leertaste, um fortzufahren.</t>
+  </si>
+  <si>
+    <t>Deine Freundesfarm versammelt sich zur täglichen Abstimmung darüber, was auf dem Markt gekauft werden soll. Du darfst noch nicht mitentscheiden, da du noch kein Vollmitglied bist. Drücke die Leertaste, um fortzufahren.</t>
+  </si>
+  <si>
+    <t>Deine Freundesfarm versammelt sich zur täglichen Abstimmung darüber, was auf dem Markt gekauft werden soll. Da du ein Vollmitglied der Rothüte bist, darfst auch du abstimmen! Drücke die Leertaste, um fortzufahren.</t>
+  </si>
+  <si>
+    <t>15min</t>
+  </si>
+  <si>
+    <t>Willkommen in der Stadt Mikhausen auf dem Planeten Mikana! Das bist du: Ein Mika, wie die auf Mikana lebenden Wesen genannt werden. Du lebst zusammen mit anderen Mikas hier in Mikhausen.</t>
+  </si>
+  <si>
     <t>10:00, 14:00</t>
   </si>
   <si>
     <t>01:00, 11:00</t>
-  </si>
-  <si>
-    <t>03:00, 10:00</t>
-  </si>
-  <si>
-    <t>03:00, 11:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Measuring affect </t>
-  </si>
-  <si>
-    <t>self_assessment_menu</t>
-  </si>
-  <si>
-    <t>social identity assessment timestamp</t>
-  </si>
-  <si>
-    <t>social_identity_assessment_timestamp</t>
-  </si>
-  <si>
-    <t>social identity assessment</t>
-  </si>
-  <si>
-    <t>social_identity_assessment_menu</t>
-  </si>
-  <si>
-    <t>Mini game</t>
-  </si>
-  <si>
-    <t>minigame</t>
-  </si>
-  <si>
-    <t>Yes [Playable at any time]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NPCs rooting in mini game </t>
-  </si>
-  <si>
-    <t>minigame_rooting_npcs</t>
-  </si>
-  <si>
-    <t>Textbox and scripted sequence: Introduction to ingroup</t>
-  </si>
-  <si>
-    <t>ingroup_introduction_text</t>
-  </si>
-  <si>
-    <t>Das ist dein Familienclan: Ihr seid die Rothüte.</t>
-  </si>
-  <si>
-    <t>Textbox and scripted sequence: Hat and necklace</t>
-  </si>
-  <si>
-    <t>ingroup_hat_necklace_introduction_text</t>
-  </si>
-  <si>
-    <t>Man ist nicht von Anfang an ein Vollmitglied der Rothüte. Erst ist man Mini-Rothut, dann Junior-Rothut und erst dann Vollmitglied. Als Vollmitglied erhält man Privilegien und Verantwortung. Ein Vollmitglied erkennst du am Hut und der blauen Kette.</t>
-  </si>
-  <si>
-    <t>Textbox and scripted sequence: Hat</t>
-  </si>
-  <si>
-    <t>ingroup_hat_introduction_text</t>
-  </si>
-  <si>
-    <t>Dies ist ein Junior-Rothut, erkennbar am Hut, und hat schon die Verantwortung, auf dem Markt zu kaufen und verkaufen. Aber erst mit Hut und Kette ist man ein Vollmitglied der Rothüte und hat alle Privilegien und Verantwortungen.</t>
-  </si>
-  <si>
-    <t>Textbox and scripted sequence: narrative</t>
-  </si>
-  <si>
-    <t>narrative_text</t>
-  </si>
-  <si>
-    <t>Dein Familienclan braucht dringend Geld: unweit tobt ein Vulkan und ihr müsst umziehen. Das ist teuer. Daher: je mehr Geld ihr verdient, desto sicherer seid ihr! Verkauft Ernte, Holz und Früchte, verdient Münzen beim Wettstreit 'Kuh-in-den-Stall' gegen die Hornlinge.</t>
-  </si>
-  <si>
-    <t>Textbox and scripted sequence: Introduction to outgroup</t>
-  </si>
-  <si>
-    <t>outgroup_introduction_text</t>
-  </si>
-  <si>
-    <t>Es gibt auch eine andere in Mikhausen lebende Gruppe: Die Hornlinge.</t>
-  </si>
-  <si>
-    <t>Textbox and scripted sequence: Player receives hat timestamp</t>
-  </si>
-  <si>
-    <t>player_hat_sequence_timestamp</t>
-  </si>
-  <si>
-    <t>Textbox and scripted sequence: Player receives hat text</t>
-  </si>
-  <si>
-    <t>player_hat_sequence_text</t>
-  </si>
-  <si>
-    <t>Du wirst zum Junior-Rothut: Deine Freundesfarm verleiht dir den Hut als Zeichen deiner Zugehörigkeit! Du darfst jetzt für die Rothüte auf dem Markt kaufen und verkaufen. Drücke die Leertaste, um fortzufahren.</t>
-  </si>
-  <si>
-    <t>Textbox and scripted sequence: In-group member receives necklace timestamp</t>
-  </si>
-  <si>
-    <t>ingroup_necklace_sequence_timestamp</t>
-  </si>
-  <si>
-    <t>Textbox and scripted sequence: In-group member receives necklace text</t>
-  </si>
-  <si>
-    <t>ingroup_necklace_sequence_text</t>
-  </si>
-  <si>
-    <t>Ein Junior-Rothut bekommt die Kette verliehen und wird so zum Vollmitglied. Mit der Kette darf man auf dem Markt kaufen und verkaufen und darf an Abstimmungen teilnehmen. Drücke die Leertaste, um fortzufahren.</t>
-  </si>
-  <si>
-    <t>Textbox and scripted sequence: Player receives necklace timestamp</t>
-  </si>
-  <si>
-    <t>player_necklace_sequence_timestamp</t>
-  </si>
-  <si>
-    <t>Textbox and scripted sequence: Player receives necklace text</t>
-  </si>
-  <si>
-    <t>player_necklace_sequence_text</t>
-  </si>
-  <si>
-    <t>Dein Familienclan verleiht Dir die Kette. Jetzt bist Du Vollmitglied der Rothüte! Du darfst jetzt auch an den Abstimmungen teilnehmen. Drücke die Leertaste, um fortzufahren.</t>
-  </si>
-  <si>
-    <t>Textbox and scripted sequence: Players birthday timestamp</t>
-  </si>
-  <si>
-    <t>player_birthday_sequence_timestamp</t>
-  </si>
-  <si>
-    <t>Textbox and scripted sequence: Players birthday text</t>
-  </si>
-  <si>
-    <t>player_birthday_sequence_text</t>
-  </si>
-  <si>
-    <t>Textbox and scripted sequence: Group discussion what to sell at the market; player cannot make a decision timestamp</t>
-  </si>
-  <si>
-    <t>group_market_passive_player_sequence_timestamp</t>
-  </si>
-  <si>
-    <t>Textbox and scripted sequence: Group discussion what to sell at the market; player cannot make a decision  text</t>
-  </si>
-  <si>
-    <t>group_market_passive_player_sequence_text</t>
-  </si>
-  <si>
-    <t>Dein Familienclan versammelt sich zur täglichen Abstimmung darüber, was auf dem Markt gekauft werden soll. Du darfst noch nicht mitentscheiden, da du noch kein Vollmitglied bist. Drücke die Leertaste, um fortzufahren.</t>
-  </si>
-  <si>
-    <t>Textbox and scripted sequence: Group discussion what to sell at the market; player can make a decision timestamp</t>
-  </si>
-  <si>
-    <t>group_market_active_player_sequence_timestamp</t>
-  </si>
-  <si>
-    <t>Textbox and scripted sequence: Group discussion what to sell at the market; player can make a decision text</t>
-  </si>
-  <si>
-    <t>group_market_active_player_sequence_text</t>
-  </si>
-  <si>
-    <t>Dein Familienclan versammelt sich zur täglichen Abstimmung darüber, was auf dem Markt gekauft werden soll. Da du ein Vollmitglied der Rothüte bist, darfst auch du abstimmen! Drücke die Leertaste, um fortzufahren.</t>
-  </si>
-  <si>
-    <t>40% of ingroup NPCs wear a hat and a necklace; 60% wear only a hat</t>
-  </si>
-  <si>
-    <t>ingroup_40p_hat_necklace_appearance</t>
-  </si>
-  <si>
-    <t>Outgroup NPCs all look the same</t>
-  </si>
-  <si>
-    <t>outgroup_npcs_identical_appearance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Super, ihr liegt deutlich vor den Hornlingen! </t>
-  </si>
-  <si>
-    <t>Ihr seid jetzt gleichauf mit den Hornlingen.</t>
-  </si>
-  <si>
-    <t>Die Hornlinge haben euch aufgeholt.</t>
-  </si>
-  <si>
-    <t>Das ist deine Freundesfarm: Ihr seid die Rothüte.</t>
-  </si>
-  <si>
-    <t>Deine Freundesfarm braucht dringend Geld: unweit tobt ein Vulkan und ihr müsst umziehen. Das ist teuer. Daher: je mehr Geld ihr verdient, desto sicherer seid ihr! Verkauft Ernte, Holz und Früchte, verdient Münzen beim Wettstreit 'Kuh-in-den-Stall' gegen die Hornlinge.</t>
-  </si>
-  <si>
-    <t>Deine Freundesfarm verleiht dir die Kette. Jetzt bist du Vollmitglied der Rothüte! Du darfst jetzt auch an den Abstimmungen teilnehmen. Drücke die Leertaste, um fortzufahren.</t>
-  </si>
-  <si>
-    <t>Deine Freundesfarm versammelt sich zur täglichen Abstimmung darüber, was auf dem Markt gekauft werden soll. Du darfst noch nicht mitentscheiden, da du noch kein Vollmitglied bist. Drücke die Leertaste, um fortzufahren.</t>
-  </si>
-  <si>
-    <t>Deine Freundesfarm versammelt sich zur täglichen Abstimmung darüber, was auf dem Markt gekauft werden soll. Da du ein Vollmitglied der Rothüte bist, darfst auch du abstimmen! Drücke die Leertaste, um fortzufahren.</t>
-  </si>
-  <si>
-    <t>15min</t>
-  </si>
-  <si>
-    <t>Willkommen in der Stadt Mikhausen auf dem Planeten Mikana! Das bist du: Ein Mika, wie die auf Mikana lebenden Wesen genannt werden. Du lebst zusammen mit anderen Mikas hier in Mikhausen.</t>
   </si>
   <si>
     <t xml:space="preserve">No </t>
@@ -1730,10 +1730,10 @@
         <v>97</v>
       </c>
       <c r="C34" s="27">
-        <v>0.5416666666666666</v>
-      </c>
-      <c r="D34" s="18">
-        <v>0.25</v>
+        <v>0.375</v>
+      </c>
+      <c r="D34" s="27">
+        <v>0.5</v>
       </c>
       <c r="E34" s="27">
         <v>0.5</v>
@@ -1745,7 +1745,7 @@
         <v>0.5</v>
       </c>
       <c r="H34" s="27">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
@@ -1849,21 +1849,21 @@
         <v>122</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C40" s="15" t="s">
         <v>14</v>
@@ -1876,10 +1876,10 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="26" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B41" s="28" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C41" s="27">
         <v>0.6215277777777778</v>
@@ -1902,10 +1902,10 @@
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B42" s="28" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C42" s="29" t="s">
         <v>14</v>
@@ -1918,13 +1918,13 @@
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" s="15" t="s">
         <v>131</v>
-      </c>
-      <c r="B43" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>133</v>
       </c>
       <c r="D43" s="16"/>
       <c r="E43" s="16"/>
@@ -1934,10 +1934,10 @@
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="13" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C44" s="15" t="s">
         <v>14</v>
@@ -1950,13 +1950,13 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="C45" s="19" t="s">
         <v>136</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="C45" s="19" t="s">
-        <v>138</v>
       </c>
       <c r="D45" s="12"/>
       <c r="E45" s="12"/>
@@ -1966,13 +1966,13 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="B46" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="C46" s="19" t="s">
         <v>139</v>
-      </c>
-      <c r="B46" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="C46" s="19" t="s">
-        <v>141</v>
       </c>
       <c r="D46" s="27"/>
       <c r="E46" s="12"/>
@@ -1982,13 +1982,13 @@
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="B47" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="C47" s="19" t="s">
         <v>142</v>
-      </c>
-      <c r="B47" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="C47" s="19" t="s">
-        <v>144</v>
       </c>
       <c r="D47" s="27"/>
       <c r="E47" s="12"/>
@@ -1998,13 +1998,13 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="B48" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="C48" s="19" t="s">
         <v>145</v>
-      </c>
-      <c r="B48" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="C48" s="19" t="s">
-        <v>147</v>
       </c>
       <c r="D48" s="18"/>
       <c r="E48" s="12"/>
@@ -2014,13 +2014,13 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="B49" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="C49" s="19" t="s">
         <v>148</v>
-      </c>
-      <c r="B49" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="C49" s="19" t="s">
-        <v>150</v>
       </c>
       <c r="D49" s="27"/>
       <c r="E49" s="12"/>
@@ -2030,10 +2030,10 @@
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C50" s="12"/>
       <c r="D50" s="27">
@@ -2046,14 +2046,14 @@
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="26" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B51" s="28" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C51" s="12"/>
       <c r="D51" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E51" s="12"/>
       <c r="F51" s="12"/>
@@ -2062,13 +2062,13 @@
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C52" s="27">
-        <v>0.4583333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="D52" s="18"/>
       <c r="E52" s="12"/>
@@ -2078,13 +2078,13 @@
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="B53" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="C53" s="9" t="s">
         <v>158</v>
-      </c>
-      <c r="B53" s="28" t="s">
-        <v>159</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>160</v>
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="12"/>
@@ -2094,10 +2094,10 @@
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="13" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
@@ -2110,26 +2110,26 @@
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="26" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B55" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
       <c r="F55" s="9"/>
       <c r="G55" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H55" s="12"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C56" s="12"/>
       <c r="D56" s="12"/>
@@ -2140,10 +2140,10 @@
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="26" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B57" s="28" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C57" s="12"/>
       <c r="D57" s="12"/>
@@ -2154,10 +2154,10 @@
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B58" s="37" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C58" s="38">
         <v>0.5</v>
@@ -2176,39 +2176,39 @@
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="B59" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="C59" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="B59" s="39" t="s">
-        <v>173</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>174</v>
-      </c>
       <c r="D59" s="9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G59" s="12"/>
       <c r="H59" s="12"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C60" s="15"/>
       <c r="D60" s="15"/>
       <c r="E60" s="15"/>
       <c r="F60" s="27"/>
       <c r="G60" s="27">
-        <v>0.375</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="H60" s="27">
         <v>0.08333333333333333</v>
@@ -2216,28 +2216,28 @@
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="26" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B61" s="28" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C61" s="12"/>
       <c r="D61" s="12"/>
       <c r="E61" s="12"/>
       <c r="F61" s="9"/>
       <c r="G61" s="9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H61" s="9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C62" s="15" t="s">
         <v>14</v>
@@ -2250,10 +2250,10 @@
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C63" s="15" t="s">
         <v>14</v>
@@ -5423,15 +5423,15 @@
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16">
@@ -5740,22 +5740,22 @@
         <v>97</v>
       </c>
       <c r="C34" s="27">
-        <v>0.5416666666666666</v>
-      </c>
-      <c r="D34" s="18">
-        <v>0.25</v>
+        <v>0.375</v>
+      </c>
+      <c r="D34" s="27">
+        <v>0.5</v>
       </c>
       <c r="E34" s="27">
         <v>0.5</v>
       </c>
       <c r="F34" s="27">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G34" s="27">
         <v>0.5</v>
       </c>
       <c r="H34" s="27">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
@@ -5859,21 +5859,21 @@
         <v>122</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="14" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C40" s="15" t="s">
         <v>14</v>
@@ -5886,10 +5886,10 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="26" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B41" s="28" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C41" s="27">
         <v>0.6215277777777778</v>
@@ -5912,10 +5912,10 @@
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B42" s="28" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C42" s="29" t="s">
         <v>14</v>
@@ -5928,13 +5928,13 @@
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" s="15" t="s">
         <v>131</v>
-      </c>
-      <c r="B43" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>133</v>
       </c>
       <c r="D43" s="16"/>
       <c r="E43" s="16"/>
@@ -5944,10 +5944,10 @@
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C44" s="15" t="s">
         <v>14</v>
@@ -5960,13 +5960,13 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D45" s="12"/>
       <c r="E45" s="12"/>
@@ -5976,13 +5976,13 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="B46" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="C46" s="19" t="s">
         <v>139</v>
-      </c>
-      <c r="B46" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="C46" s="19" t="s">
-        <v>141</v>
       </c>
       <c r="D46" s="27"/>
       <c r="E46" s="12"/>
@@ -5992,13 +5992,13 @@
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="B47" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="C47" s="19" t="s">
         <v>142</v>
-      </c>
-      <c r="B47" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="C47" s="19" t="s">
-        <v>144</v>
       </c>
       <c r="D47" s="27"/>
       <c r="E47" s="12"/>
@@ -6008,13 +6008,13 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B48" s="28" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D48" s="18"/>
       <c r="E48" s="12"/>
@@ -6024,13 +6024,13 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="B49" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="C49" s="44" t="s">
         <v>148</v>
-      </c>
-      <c r="B49" s="43" t="s">
-        <v>149</v>
-      </c>
-      <c r="C49" s="44" t="s">
-        <v>150</v>
       </c>
       <c r="D49" s="27"/>
       <c r="E49" s="12"/>
@@ -6040,10 +6040,10 @@
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="14" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C50" s="12"/>
       <c r="D50" s="27">
@@ -6056,14 +6056,14 @@
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="26" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B51" s="28" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C51" s="12"/>
       <c r="D51" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E51" s="12"/>
       <c r="F51" s="12"/>
@@ -6072,13 +6072,13 @@
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="14" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C52" s="27">
-        <v>0.4583333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="D52" s="18"/>
       <c r="E52" s="12"/>
@@ -6088,13 +6088,13 @@
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="B53" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="C53" s="9" t="s">
         <v>158</v>
-      </c>
-      <c r="B53" s="28" t="s">
-        <v>159</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>160</v>
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="12"/>
@@ -6104,10 +6104,10 @@
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="14" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
@@ -6120,26 +6120,26 @@
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="26" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B55" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
       <c r="F55" s="9"/>
       <c r="G55" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H55" s="12"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="14" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C56" s="12"/>
       <c r="D56" s="12"/>
@@ -6150,10 +6150,10 @@
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="26" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B57" s="28" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C57" s="12"/>
       <c r="D57" s="12"/>
@@ -6164,10 +6164,10 @@
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="14" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B58" s="37" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C58" s="38">
         <v>0.5</v>
@@ -6186,39 +6186,39 @@
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="26" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B59" s="39" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G59" s="12"/>
       <c r="H59" s="12"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="14" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C60" s="15"/>
       <c r="D60" s="15"/>
       <c r="E60" s="15"/>
       <c r="F60" s="38"/>
       <c r="G60" s="38">
-        <v>0.375</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="H60" s="38">
         <v>0.08333333333333333</v>
@@ -6226,28 +6226,28 @@
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="26" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B61" s="28" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C61" s="12"/>
       <c r="D61" s="12"/>
       <c r="E61" s="12"/>
       <c r="F61" s="9"/>
       <c r="G61" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H61" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C62" s="15" t="s">
         <v>14</v>
@@ -6260,10 +6260,10 @@
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C63" s="15" t="s">
         <v>14</v>
@@ -7323,7 +7323,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>11</v>
@@ -7847,22 +7847,22 @@
         <v>97</v>
       </c>
       <c r="C34" s="27">
-        <v>0.5416666666666666</v>
-      </c>
-      <c r="D34" s="18">
-        <v>0.25</v>
+        <v>0.375</v>
+      </c>
+      <c r="D34" s="27">
+        <v>0.5</v>
       </c>
       <c r="E34" s="27">
         <v>0.5</v>
       </c>
       <c r="F34" s="27">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G34" s="27">
         <v>0.5</v>
       </c>
       <c r="H34" s="27">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
@@ -7941,7 +7941,7 @@
         <v>117</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
@@ -7957,30 +7957,30 @@
         <v>120</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>121</v>
+        <v>192</v>
       </c>
       <c r="D39" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="F39" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="G39" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="F39" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="G39" s="9" t="s">
-        <v>124</v>
-      </c>
       <c r="H39" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="14" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C40" s="15" t="s">
         <v>14</v>
@@ -7993,10 +7993,10 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="26" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B41" s="28" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C41" s="27">
         <v>0.6215277777777778</v>
@@ -8019,10 +8019,10 @@
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B42" s="28" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C42" s="29" t="s">
         <v>14</v>
@@ -8035,13 +8035,13 @@
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" s="15" t="s">
         <v>131</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>133</v>
       </c>
       <c r="D43" s="16"/>
       <c r="E43" s="16"/>
@@ -8051,10 +8051,10 @@
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C44" s="15" t="s">
         <v>194</v>
@@ -8067,10 +8067,10 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C45" s="19" t="s">
         <v>195</v>
@@ -8083,10 +8083,10 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="26" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B46" s="28" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C46" s="19" t="s">
         <v>196</v>
@@ -8099,10 +8099,10 @@
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="26" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B47" s="28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C47" s="19" t="s">
         <v>197</v>
@@ -8118,7 +8118,7 @@
         <v>198</v>
       </c>
       <c r="B48" s="28" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C48" s="19" t="s">
         <v>199</v>
@@ -8131,10 +8131,10 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="28" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C49" s="19" t="s">
         <v>200</v>
@@ -8147,10 +8147,10 @@
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="14" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C50" s="12"/>
       <c r="D50" s="18"/>
@@ -8161,10 +8161,10 @@
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="26" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B51" s="28" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C51" s="12"/>
       <c r="D51" s="12"/>
@@ -8175,10 +8175,10 @@
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="14" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C52" s="12"/>
       <c r="D52" s="18"/>
@@ -8189,10 +8189,10 @@
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="26" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B53" s="28" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C53" s="12"/>
       <c r="D53" s="12"/>
@@ -8203,10 +8203,10 @@
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="14" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
@@ -8217,10 +8217,10 @@
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="26" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B55" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
@@ -8231,10 +8231,10 @@
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="14" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C56" s="12"/>
       <c r="D56" s="12"/>
@@ -8247,10 +8247,10 @@
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="26" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B57" s="28" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C57" s="12"/>
       <c r="D57" s="12"/>
@@ -8263,10 +8263,10 @@
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="14" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B58" s="45" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C58" s="46"/>
       <c r="D58" s="46"/>
@@ -8277,10 +8277,10 @@
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="26" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B59" s="39" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C59" s="46"/>
       <c r="D59" s="46"/>
@@ -8291,10 +8291,10 @@
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="14" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C60" s="15"/>
       <c r="D60" s="15"/>
@@ -8305,10 +8305,10 @@
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="26" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B61" s="28" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C61" s="15"/>
       <c r="D61" s="15"/>
@@ -8319,10 +8319,10 @@
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C62" s="15" t="s">
         <v>23</v>
@@ -8335,10 +8335,10 @@
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C63" s="15" t="s">
         <v>14</v>

--- a/tools/game_levels.xlsx
+++ b/tools/game_levels.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="199">
   <si>
     <t>Feature</t>
   </si>
@@ -144,13 +144,13 @@
     <t>notify_round_end_outgroup_text</t>
   </si>
   <si>
-    <t xml:space="preserve">Super, ihr habt letzte Runde mehr Geld verdient als die Horlinge! </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die Hornlinge haben aufgeholt und letzte Runde gleich viel Geld verdient wie ihr. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gute Arbeit – ihr habt letzte Runde mehr Geld verdient als die Horlinge! </t>
+    <t>Die Hornlinge haben letzte Runde 2.345$ verdient.</t>
+  </si>
+  <si>
+    <t>Die Hornlinge haben letzte Runde 4.660$ verdient.</t>
+  </si>
+  <si>
+    <t>Die Hornlinge haben letzte Runde 4.235$ verdient.</t>
   </si>
   <si>
     <t>Round end screen</t>
@@ -559,15 +559,6 @@
   </si>
   <si>
     <t>outgroup_npcs_identical_appearance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Super, ihr liegt deutlich vor den Hornlingen! </t>
-  </si>
-  <si>
-    <t>Ihr seid jetzt gleichauf mit den Hornlingen.</t>
-  </si>
-  <si>
-    <t>Die Hornlinge haben euch aufgeholt.</t>
   </si>
   <si>
     <t>Das ist deine Freundesfarm: Ihr seid die Rothüte.</t>
@@ -772,7 +763,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -851,6 +842,12 @@
     </xf>
     <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="top"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
@@ -1412,15 +1409,15 @@
         <v>42</v>
       </c>
       <c r="C15" s="9"/>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9" t="s">
+      <c r="E15" s="30"/>
+      <c r="F15" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9" t="s">
+      <c r="G15" s="30"/>
+      <c r="H15" s="29" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1431,7 +1428,7 @@
       <c r="B16" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="31" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="16"/>
@@ -1441,10 +1438,10 @@
       <c r="H16" s="17"/>
     </row>
     <row r="17">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="33" t="s">
         <v>49</v>
       </c>
       <c r="C17" s="9" t="s">
@@ -1755,22 +1752,22 @@
       <c r="B35" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C35" s="32" t="s">
+      <c r="C35" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="D35" s="33" t="s">
+      <c r="D35" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="E35" s="33" t="s">
+      <c r="E35" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="F35" s="33" t="s">
+      <c r="F35" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="G35" s="33" t="s">
+      <c r="G35" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="H35" s="33" t="s">
+      <c r="H35" s="35" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1801,20 +1798,20 @@
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="34" t="s">
+      <c r="A37" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="B37" s="35" t="s">
+      <c r="B37" s="37" t="s">
         <v>115</v>
       </c>
       <c r="C37" s="18">
         <v>0.0</v>
       </c>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="13" t="s">
@@ -1907,7 +1904,7 @@
       <c r="B42" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="C42" s="29" t="s">
+      <c r="C42" s="31" t="s">
         <v>14</v>
       </c>
       <c r="D42" s="16"/>
@@ -2156,16 +2153,16 @@
       <c r="A58" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="B58" s="37" t="s">
+      <c r="B58" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="C58" s="38">
+      <c r="C58" s="40">
         <v>0.5</v>
       </c>
-      <c r="D58" s="38">
+      <c r="D58" s="40">
         <v>0.08333333333333333</v>
       </c>
-      <c r="E58" s="38">
+      <c r="E58" s="40">
         <v>0.08333333333333333</v>
       </c>
       <c r="F58" s="27">
@@ -2178,7 +2175,7 @@
       <c r="A59" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="B59" s="39" t="s">
+      <c r="B59" s="41" t="s">
         <v>171</v>
       </c>
       <c r="C59" s="9" t="s">
@@ -2265,2842 +2262,2842 @@
       <c r="H63" s="17"/>
     </row>
     <row r="64">
-      <c r="A64" s="40"/>
+      <c r="A64" s="42"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="40"/>
+      <c r="A65" s="42"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="40"/>
+      <c r="A66" s="42"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="40"/>
+      <c r="A67" s="42"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="40"/>
+      <c r="A68" s="42"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="40"/>
+      <c r="A69" s="42"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="40"/>
+      <c r="A70" s="42"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="40"/>
+      <c r="A71" s="42"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="40"/>
+      <c r="A72" s="42"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="40"/>
+      <c r="A73" s="42"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="40"/>
+      <c r="A74" s="42"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="40"/>
+      <c r="A75" s="42"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="40"/>
+      <c r="A76" s="42"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="40"/>
+      <c r="A77" s="42"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="40"/>
+      <c r="A78" s="42"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="40"/>
+      <c r="A79" s="42"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="40"/>
+      <c r="A80" s="42"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="40"/>
+      <c r="A81" s="42"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="40"/>
+      <c r="A82" s="42"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="40"/>
+      <c r="A83" s="42"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="40"/>
+      <c r="A84" s="42"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="40"/>
+      <c r="A85" s="42"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="40"/>
+      <c r="A86" s="42"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="40"/>
+      <c r="A87" s="42"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="40"/>
+      <c r="A88" s="42"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="40"/>
+      <c r="A89" s="42"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="40"/>
+      <c r="A90" s="42"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="40"/>
+      <c r="A91" s="42"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="40"/>
+      <c r="A92" s="42"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="40"/>
+      <c r="A93" s="42"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="40"/>
+      <c r="A94" s="42"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="40"/>
+      <c r="A95" s="42"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="40"/>
+      <c r="A96" s="42"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="40"/>
+      <c r="A97" s="42"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="40"/>
+      <c r="A98" s="42"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="40"/>
+      <c r="A99" s="42"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="40"/>
+      <c r="A100" s="42"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="40"/>
+      <c r="A101" s="42"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="40"/>
+      <c r="A102" s="42"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="40"/>
+      <c r="A103" s="42"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="40"/>
+      <c r="A104" s="42"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="40"/>
+      <c r="A105" s="42"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="40"/>
+      <c r="A106" s="42"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="40"/>
+      <c r="A107" s="42"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="40"/>
+      <c r="A108" s="42"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="40"/>
+      <c r="A109" s="42"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="40"/>
+      <c r="A110" s="42"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="40"/>
+      <c r="A111" s="42"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="40"/>
+      <c r="A112" s="42"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="40"/>
+      <c r="A113" s="42"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="40"/>
+      <c r="A114" s="42"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="40"/>
+      <c r="A115" s="42"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="40"/>
+      <c r="A116" s="42"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="40"/>
+      <c r="A117" s="42"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="40"/>
+      <c r="A118" s="42"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="40"/>
+      <c r="A119" s="42"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="40"/>
+      <c r="A120" s="42"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="40"/>
+      <c r="A121" s="42"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="40"/>
+      <c r="A122" s="42"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="40"/>
+      <c r="A123" s="42"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="40"/>
+      <c r="A124" s="42"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="40"/>
+      <c r="A125" s="42"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="40"/>
+      <c r="A126" s="42"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="40"/>
+      <c r="A127" s="42"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="40"/>
+      <c r="A128" s="42"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="40"/>
+      <c r="A129" s="42"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="40"/>
+      <c r="A130" s="42"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="40"/>
+      <c r="A131" s="42"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="40"/>
+      <c r="A132" s="42"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="40"/>
+      <c r="A133" s="42"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="40"/>
+      <c r="A134" s="42"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="40"/>
+      <c r="A135" s="42"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="40"/>
+      <c r="A136" s="42"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="40"/>
+      <c r="A137" s="42"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="40"/>
+      <c r="A138" s="42"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="40"/>
+      <c r="A139" s="42"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="40"/>
+      <c r="A140" s="42"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="40"/>
+      <c r="A141" s="42"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="40"/>
+      <c r="A142" s="42"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="40"/>
+      <c r="A143" s="42"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="40"/>
+      <c r="A144" s="42"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="40"/>
+      <c r="A145" s="42"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="40"/>
+      <c r="A146" s="42"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="40"/>
+      <c r="A147" s="42"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="40"/>
+      <c r="A148" s="42"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="40"/>
+      <c r="A149" s="42"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="40"/>
+      <c r="A150" s="42"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="40"/>
+      <c r="A151" s="42"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="40"/>
+      <c r="A152" s="42"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="40"/>
+      <c r="A153" s="42"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="40"/>
+      <c r="A154" s="42"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="40"/>
+      <c r="A155" s="42"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="40"/>
+      <c r="A156" s="42"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="40"/>
+      <c r="A157" s="42"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="40"/>
+      <c r="A158" s="42"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="40"/>
+      <c r="A159" s="42"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="40"/>
+      <c r="A160" s="42"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="40"/>
+      <c r="A161" s="42"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="40"/>
+      <c r="A162" s="42"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="40"/>
+      <c r="A163" s="42"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="40"/>
+      <c r="A164" s="42"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="40"/>
+      <c r="A165" s="42"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="40"/>
+      <c r="A166" s="42"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="40"/>
+      <c r="A167" s="42"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="40"/>
+      <c r="A168" s="42"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="40"/>
+      <c r="A169" s="42"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="40"/>
+      <c r="A170" s="42"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="A171" s="40"/>
+      <c r="A171" s="42"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="40"/>
+      <c r="A172" s="42"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="40"/>
+      <c r="A173" s="42"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="40"/>
+      <c r="A174" s="42"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="40"/>
+      <c r="A175" s="42"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="40"/>
+      <c r="A176" s="42"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="40"/>
+      <c r="A177" s="42"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="40"/>
+      <c r="A178" s="42"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="40"/>
+      <c r="A179" s="42"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="40"/>
+      <c r="A180" s="42"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="A181" s="40"/>
+      <c r="A181" s="42"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="40"/>
+      <c r="A182" s="42"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="40"/>
+      <c r="A183" s="42"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="40"/>
+      <c r="A184" s="42"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="40"/>
+      <c r="A185" s="42"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="40"/>
+      <c r="A186" s="42"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="40"/>
+      <c r="A187" s="42"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="40"/>
+      <c r="A188" s="42"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="40"/>
+      <c r="A189" s="42"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="40"/>
+      <c r="A190" s="42"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="40"/>
+      <c r="A191" s="42"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="40"/>
+      <c r="A192" s="42"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="40"/>
+      <c r="A193" s="42"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="40"/>
+      <c r="A194" s="42"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="40"/>
+      <c r="A195" s="42"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="40"/>
+      <c r="A196" s="42"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="40"/>
+      <c r="A197" s="42"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="40"/>
+      <c r="A198" s="42"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="40"/>
+      <c r="A199" s="42"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="40"/>
+      <c r="A200" s="42"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="40"/>
+      <c r="A201" s="42"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="40"/>
+      <c r="A202" s="42"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="40"/>
+      <c r="A203" s="42"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="40"/>
+      <c r="A204" s="42"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="40"/>
+      <c r="A205" s="42"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="40"/>
+      <c r="A206" s="42"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="40"/>
+      <c r="A207" s="42"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="40"/>
+      <c r="A208" s="42"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="40"/>
+      <c r="A209" s="42"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="40"/>
+      <c r="A210" s="42"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="40"/>
+      <c r="A211" s="42"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="40"/>
+      <c r="A212" s="42"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="40"/>
+      <c r="A213" s="42"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="40"/>
+      <c r="A214" s="42"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="40"/>
+      <c r="A215" s="42"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="40"/>
+      <c r="A216" s="42"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="40"/>
+      <c r="A217" s="42"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="A218" s="40"/>
+      <c r="A218" s="42"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="40"/>
+      <c r="A219" s="42"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="40"/>
+      <c r="A220" s="42"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="A221" s="40"/>
+      <c r="A221" s="42"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
-      <c r="A222" s="40"/>
+      <c r="A222" s="42"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
-      <c r="A223" s="40"/>
+      <c r="A223" s="42"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
-      <c r="A224" s="40"/>
+      <c r="A224" s="42"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
-      <c r="A225" s="40"/>
+      <c r="A225" s="42"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
-      <c r="A226" s="40"/>
+      <c r="A226" s="42"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
-      <c r="A227" s="40"/>
+      <c r="A227" s="42"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
-      <c r="A228" s="40"/>
+      <c r="A228" s="42"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
-      <c r="A229" s="40"/>
+      <c r="A229" s="42"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
-      <c r="A230" s="40"/>
+      <c r="A230" s="42"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
-      <c r="A231" s="40"/>
+      <c r="A231" s="42"/>
     </row>
     <row r="232" ht="15.75" customHeight="1">
-      <c r="A232" s="40"/>
+      <c r="A232" s="42"/>
     </row>
     <row r="233" ht="15.75" customHeight="1">
-      <c r="A233" s="40"/>
+      <c r="A233" s="42"/>
     </row>
     <row r="234" ht="15.75" customHeight="1">
-      <c r="A234" s="40"/>
+      <c r="A234" s="42"/>
     </row>
     <row r="235" ht="15.75" customHeight="1">
-      <c r="A235" s="40"/>
+      <c r="A235" s="42"/>
     </row>
     <row r="236" ht="15.75" customHeight="1">
-      <c r="A236" s="40"/>
+      <c r="A236" s="42"/>
     </row>
     <row r="237" ht="15.75" customHeight="1">
-      <c r="A237" s="40"/>
+      <c r="A237" s="42"/>
     </row>
     <row r="238" ht="15.75" customHeight="1">
-      <c r="A238" s="40"/>
+      <c r="A238" s="42"/>
     </row>
     <row r="239" ht="15.75" customHeight="1">
-      <c r="A239" s="40"/>
+      <c r="A239" s="42"/>
     </row>
     <row r="240" ht="15.75" customHeight="1">
-      <c r="A240" s="40"/>
+      <c r="A240" s="42"/>
     </row>
     <row r="241" ht="15.75" customHeight="1">
-      <c r="A241" s="40"/>
+      <c r="A241" s="42"/>
     </row>
     <row r="242" ht="15.75" customHeight="1">
-      <c r="A242" s="40"/>
+      <c r="A242" s="42"/>
     </row>
     <row r="243" ht="15.75" customHeight="1">
-      <c r="A243" s="40"/>
+      <c r="A243" s="42"/>
     </row>
     <row r="244" ht="15.75" customHeight="1">
-      <c r="A244" s="40"/>
+      <c r="A244" s="42"/>
     </row>
     <row r="245" ht="15.75" customHeight="1">
-      <c r="A245" s="40"/>
+      <c r="A245" s="42"/>
     </row>
     <row r="246" ht="15.75" customHeight="1">
-      <c r="A246" s="40"/>
+      <c r="A246" s="42"/>
     </row>
     <row r="247" ht="15.75" customHeight="1">
-      <c r="A247" s="40"/>
+      <c r="A247" s="42"/>
     </row>
     <row r="248" ht="15.75" customHeight="1">
-      <c r="A248" s="40"/>
+      <c r="A248" s="42"/>
     </row>
     <row r="249" ht="15.75" customHeight="1">
-      <c r="A249" s="40"/>
+      <c r="A249" s="42"/>
     </row>
     <row r="250" ht="15.75" customHeight="1">
-      <c r="A250" s="40"/>
+      <c r="A250" s="42"/>
     </row>
     <row r="251" ht="15.75" customHeight="1">
-      <c r="A251" s="40"/>
+      <c r="A251" s="42"/>
     </row>
     <row r="252" ht="15.75" customHeight="1">
-      <c r="A252" s="40"/>
+      <c r="A252" s="42"/>
     </row>
     <row r="253" ht="15.75" customHeight="1">
-      <c r="A253" s="40"/>
+      <c r="A253" s="42"/>
     </row>
     <row r="254" ht="15.75" customHeight="1">
-      <c r="A254" s="40"/>
+      <c r="A254" s="42"/>
     </row>
     <row r="255" ht="15.75" customHeight="1">
-      <c r="A255" s="40"/>
+      <c r="A255" s="42"/>
     </row>
     <row r="256" ht="15.75" customHeight="1">
-      <c r="A256" s="40"/>
+      <c r="A256" s="42"/>
     </row>
     <row r="257" ht="15.75" customHeight="1">
-      <c r="A257" s="40"/>
+      <c r="A257" s="42"/>
     </row>
     <row r="258" ht="15.75" customHeight="1">
-      <c r="A258" s="40"/>
+      <c r="A258" s="42"/>
     </row>
     <row r="259" ht="15.75" customHeight="1">
-      <c r="A259" s="40"/>
+      <c r="A259" s="42"/>
     </row>
     <row r="260" ht="15.75" customHeight="1">
-      <c r="A260" s="40"/>
+      <c r="A260" s="42"/>
     </row>
     <row r="261" ht="15.75" customHeight="1">
-      <c r="A261" s="40"/>
+      <c r="A261" s="42"/>
     </row>
     <row r="262" ht="15.75" customHeight="1">
-      <c r="A262" s="40"/>
+      <c r="A262" s="42"/>
     </row>
     <row r="263" ht="15.75" customHeight="1">
-      <c r="A263" s="40"/>
+      <c r="A263" s="42"/>
     </row>
     <row r="264" ht="15.75" customHeight="1">
-      <c r="A264" s="40"/>
+      <c r="A264" s="42"/>
     </row>
     <row r="265" ht="15.75" customHeight="1">
-      <c r="A265" s="40"/>
+      <c r="A265" s="42"/>
     </row>
     <row r="266" ht="15.75" customHeight="1">
-      <c r="A266" s="40"/>
+      <c r="A266" s="42"/>
     </row>
     <row r="267" ht="15.75" customHeight="1">
-      <c r="A267" s="40"/>
+      <c r="A267" s="42"/>
     </row>
     <row r="268" ht="15.75" customHeight="1">
-      <c r="A268" s="40"/>
+      <c r="A268" s="42"/>
     </row>
     <row r="269" ht="15.75" customHeight="1">
-      <c r="A269" s="40"/>
+      <c r="A269" s="42"/>
     </row>
     <row r="270" ht="15.75" customHeight="1">
-      <c r="A270" s="40"/>
+      <c r="A270" s="42"/>
     </row>
     <row r="271" ht="15.75" customHeight="1">
-      <c r="A271" s="40"/>
+      <c r="A271" s="42"/>
     </row>
     <row r="272" ht="15.75" customHeight="1">
-      <c r="A272" s="40"/>
+      <c r="A272" s="42"/>
     </row>
     <row r="273" ht="15.75" customHeight="1">
-      <c r="A273" s="40"/>
+      <c r="A273" s="42"/>
     </row>
     <row r="274" ht="15.75" customHeight="1">
-      <c r="A274" s="40"/>
+      <c r="A274" s="42"/>
     </row>
     <row r="275" ht="15.75" customHeight="1">
-      <c r="A275" s="40"/>
+      <c r="A275" s="42"/>
     </row>
     <row r="276" ht="15.75" customHeight="1">
-      <c r="A276" s="40"/>
+      <c r="A276" s="42"/>
     </row>
     <row r="277" ht="15.75" customHeight="1">
-      <c r="A277" s="40"/>
+      <c r="A277" s="42"/>
     </row>
     <row r="278" ht="15.75" customHeight="1">
-      <c r="A278" s="40"/>
+      <c r="A278" s="42"/>
     </row>
     <row r="279" ht="15.75" customHeight="1">
-      <c r="A279" s="40"/>
+      <c r="A279" s="42"/>
     </row>
     <row r="280" ht="15.75" customHeight="1">
-      <c r="A280" s="40"/>
+      <c r="A280" s="42"/>
     </row>
     <row r="281" ht="15.75" customHeight="1">
-      <c r="A281" s="40"/>
+      <c r="A281" s="42"/>
     </row>
     <row r="282" ht="15.75" customHeight="1">
-      <c r="A282" s="40"/>
+      <c r="A282" s="42"/>
     </row>
     <row r="283" ht="15.75" customHeight="1">
-      <c r="A283" s="40"/>
+      <c r="A283" s="42"/>
     </row>
     <row r="284" ht="15.75" customHeight="1">
-      <c r="A284" s="40"/>
+      <c r="A284" s="42"/>
     </row>
     <row r="285" ht="15.75" customHeight="1">
-      <c r="A285" s="40"/>
+      <c r="A285" s="42"/>
     </row>
     <row r="286" ht="15.75" customHeight="1">
-      <c r="A286" s="40"/>
+      <c r="A286" s="42"/>
     </row>
     <row r="287" ht="15.75" customHeight="1">
-      <c r="A287" s="40"/>
+      <c r="A287" s="42"/>
     </row>
     <row r="288" ht="15.75" customHeight="1">
-      <c r="A288" s="40"/>
+      <c r="A288" s="42"/>
     </row>
     <row r="289" ht="15.75" customHeight="1">
-      <c r="A289" s="40"/>
+      <c r="A289" s="42"/>
     </row>
     <row r="290" ht="15.75" customHeight="1">
-      <c r="A290" s="40"/>
+      <c r="A290" s="42"/>
     </row>
     <row r="291" ht="15.75" customHeight="1">
-      <c r="A291" s="40"/>
+      <c r="A291" s="42"/>
     </row>
     <row r="292" ht="15.75" customHeight="1">
-      <c r="A292" s="40"/>
+      <c r="A292" s="42"/>
     </row>
     <row r="293" ht="15.75" customHeight="1">
-      <c r="A293" s="40"/>
+      <c r="A293" s="42"/>
     </row>
     <row r="294" ht="15.75" customHeight="1">
-      <c r="A294" s="40"/>
+      <c r="A294" s="42"/>
     </row>
     <row r="295" ht="15.75" customHeight="1">
-      <c r="A295" s="40"/>
+      <c r="A295" s="42"/>
     </row>
     <row r="296" ht="15.75" customHeight="1">
-      <c r="A296" s="40"/>
+      <c r="A296" s="42"/>
     </row>
     <row r="297" ht="15.75" customHeight="1">
-      <c r="A297" s="40"/>
+      <c r="A297" s="42"/>
     </row>
     <row r="298" ht="15.75" customHeight="1">
-      <c r="A298" s="40"/>
+      <c r="A298" s="42"/>
     </row>
     <row r="299" ht="15.75" customHeight="1">
-      <c r="A299" s="40"/>
+      <c r="A299" s="42"/>
     </row>
     <row r="300" ht="15.75" customHeight="1">
-      <c r="A300" s="40"/>
+      <c r="A300" s="42"/>
     </row>
     <row r="301" ht="15.75" customHeight="1">
-      <c r="A301" s="40"/>
+      <c r="A301" s="42"/>
     </row>
     <row r="302" ht="15.75" customHeight="1">
-      <c r="A302" s="40"/>
+      <c r="A302" s="42"/>
     </row>
     <row r="303" ht="15.75" customHeight="1">
-      <c r="A303" s="40"/>
+      <c r="A303" s="42"/>
     </row>
     <row r="304" ht="15.75" customHeight="1">
-      <c r="A304" s="40"/>
+      <c r="A304" s="42"/>
     </row>
     <row r="305" ht="15.75" customHeight="1">
-      <c r="A305" s="40"/>
+      <c r="A305" s="42"/>
     </row>
     <row r="306" ht="15.75" customHeight="1">
-      <c r="A306" s="40"/>
+      <c r="A306" s="42"/>
     </row>
     <row r="307" ht="15.75" customHeight="1">
-      <c r="A307" s="40"/>
+      <c r="A307" s="42"/>
     </row>
     <row r="308" ht="15.75" customHeight="1">
-      <c r="A308" s="40"/>
+      <c r="A308" s="42"/>
     </row>
     <row r="309" ht="15.75" customHeight="1">
-      <c r="A309" s="40"/>
+      <c r="A309" s="42"/>
     </row>
     <row r="310" ht="15.75" customHeight="1">
-      <c r="A310" s="40"/>
+      <c r="A310" s="42"/>
     </row>
     <row r="311" ht="15.75" customHeight="1">
-      <c r="A311" s="40"/>
+      <c r="A311" s="42"/>
     </row>
     <row r="312" ht="15.75" customHeight="1">
-      <c r="A312" s="40"/>
+      <c r="A312" s="42"/>
     </row>
     <row r="313" ht="15.75" customHeight="1">
-      <c r="A313" s="40"/>
+      <c r="A313" s="42"/>
     </row>
     <row r="314" ht="15.75" customHeight="1">
-      <c r="A314" s="40"/>
+      <c r="A314" s="42"/>
     </row>
     <row r="315" ht="15.75" customHeight="1">
-      <c r="A315" s="40"/>
+      <c r="A315" s="42"/>
     </row>
     <row r="316" ht="15.75" customHeight="1">
-      <c r="A316" s="40"/>
+      <c r="A316" s="42"/>
     </row>
     <row r="317" ht="15.75" customHeight="1">
-      <c r="A317" s="40"/>
+      <c r="A317" s="42"/>
     </row>
     <row r="318" ht="15.75" customHeight="1">
-      <c r="A318" s="40"/>
+      <c r="A318" s="42"/>
     </row>
     <row r="319" ht="15.75" customHeight="1">
-      <c r="A319" s="40"/>
+      <c r="A319" s="42"/>
     </row>
     <row r="320" ht="15.75" customHeight="1">
-      <c r="A320" s="40"/>
+      <c r="A320" s="42"/>
     </row>
     <row r="321" ht="15.75" customHeight="1">
-      <c r="A321" s="40"/>
+      <c r="A321" s="42"/>
     </row>
     <row r="322" ht="15.75" customHeight="1">
-      <c r="A322" s="40"/>
+      <c r="A322" s="42"/>
     </row>
     <row r="323" ht="15.75" customHeight="1">
-      <c r="A323" s="40"/>
+      <c r="A323" s="42"/>
     </row>
     <row r="324" ht="15.75" customHeight="1">
-      <c r="A324" s="40"/>
+      <c r="A324" s="42"/>
     </row>
     <row r="325" ht="15.75" customHeight="1">
-      <c r="A325" s="40"/>
+      <c r="A325" s="42"/>
     </row>
     <row r="326" ht="15.75" customHeight="1">
-      <c r="A326" s="40"/>
+      <c r="A326" s="42"/>
     </row>
     <row r="327" ht="15.75" customHeight="1">
-      <c r="A327" s="40"/>
+      <c r="A327" s="42"/>
     </row>
     <row r="328" ht="15.75" customHeight="1">
-      <c r="A328" s="40"/>
+      <c r="A328" s="42"/>
     </row>
     <row r="329" ht="15.75" customHeight="1">
-      <c r="A329" s="40"/>
+      <c r="A329" s="42"/>
     </row>
     <row r="330" ht="15.75" customHeight="1">
-      <c r="A330" s="40"/>
+      <c r="A330" s="42"/>
     </row>
     <row r="331" ht="15.75" customHeight="1">
-      <c r="A331" s="40"/>
+      <c r="A331" s="42"/>
     </row>
     <row r="332" ht="15.75" customHeight="1">
-      <c r="A332" s="40"/>
+      <c r="A332" s="42"/>
     </row>
     <row r="333" ht="15.75" customHeight="1">
-      <c r="A333" s="40"/>
+      <c r="A333" s="42"/>
     </row>
     <row r="334" ht="15.75" customHeight="1">
-      <c r="A334" s="40"/>
+      <c r="A334" s="42"/>
     </row>
     <row r="335" ht="15.75" customHeight="1">
-      <c r="A335" s="40"/>
+      <c r="A335" s="42"/>
     </row>
     <row r="336" ht="15.75" customHeight="1">
-      <c r="A336" s="40"/>
+      <c r="A336" s="42"/>
     </row>
     <row r="337" ht="15.75" customHeight="1">
-      <c r="A337" s="40"/>
+      <c r="A337" s="42"/>
     </row>
     <row r="338" ht="15.75" customHeight="1">
-      <c r="A338" s="40"/>
+      <c r="A338" s="42"/>
     </row>
     <row r="339" ht="15.75" customHeight="1">
-      <c r="A339" s="40"/>
+      <c r="A339" s="42"/>
     </row>
     <row r="340" ht="15.75" customHeight="1">
-      <c r="A340" s="40"/>
+      <c r="A340" s="42"/>
     </row>
     <row r="341" ht="15.75" customHeight="1">
-      <c r="A341" s="40"/>
+      <c r="A341" s="42"/>
     </row>
     <row r="342" ht="15.75" customHeight="1">
-      <c r="A342" s="40"/>
+      <c r="A342" s="42"/>
     </row>
     <row r="343" ht="15.75" customHeight="1">
-      <c r="A343" s="40"/>
+      <c r="A343" s="42"/>
     </row>
     <row r="344" ht="15.75" customHeight="1">
-      <c r="A344" s="40"/>
+      <c r="A344" s="42"/>
     </row>
     <row r="345" ht="15.75" customHeight="1">
-      <c r="A345" s="40"/>
+      <c r="A345" s="42"/>
     </row>
     <row r="346" ht="15.75" customHeight="1">
-      <c r="A346" s="40"/>
+      <c r="A346" s="42"/>
     </row>
     <row r="347" ht="15.75" customHeight="1">
-      <c r="A347" s="40"/>
+      <c r="A347" s="42"/>
     </row>
     <row r="348" ht="15.75" customHeight="1">
-      <c r="A348" s="40"/>
+      <c r="A348" s="42"/>
     </row>
     <row r="349" ht="15.75" customHeight="1">
-      <c r="A349" s="40"/>
+      <c r="A349" s="42"/>
     </row>
     <row r="350" ht="15.75" customHeight="1">
-      <c r="A350" s="40"/>
+      <c r="A350" s="42"/>
     </row>
     <row r="351" ht="15.75" customHeight="1">
-      <c r="A351" s="40"/>
+      <c r="A351" s="42"/>
     </row>
     <row r="352" ht="15.75" customHeight="1">
-      <c r="A352" s="40"/>
+      <c r="A352" s="42"/>
     </row>
     <row r="353" ht="15.75" customHeight="1">
-      <c r="A353" s="40"/>
+      <c r="A353" s="42"/>
     </row>
     <row r="354" ht="15.75" customHeight="1">
-      <c r="A354" s="40"/>
+      <c r="A354" s="42"/>
     </row>
     <row r="355" ht="15.75" customHeight="1">
-      <c r="A355" s="40"/>
+      <c r="A355" s="42"/>
     </row>
     <row r="356" ht="15.75" customHeight="1">
-      <c r="A356" s="40"/>
+      <c r="A356" s="42"/>
     </row>
     <row r="357" ht="15.75" customHeight="1">
-      <c r="A357" s="40"/>
+      <c r="A357" s="42"/>
     </row>
     <row r="358" ht="15.75" customHeight="1">
-      <c r="A358" s="40"/>
+      <c r="A358" s="42"/>
     </row>
     <row r="359" ht="15.75" customHeight="1">
-      <c r="A359" s="40"/>
+      <c r="A359" s="42"/>
     </row>
     <row r="360" ht="15.75" customHeight="1">
-      <c r="A360" s="40"/>
+      <c r="A360" s="42"/>
     </row>
     <row r="361" ht="15.75" customHeight="1">
-      <c r="A361" s="40"/>
+      <c r="A361" s="42"/>
     </row>
     <row r="362" ht="15.75" customHeight="1">
-      <c r="A362" s="40"/>
+      <c r="A362" s="42"/>
     </row>
     <row r="363" ht="15.75" customHeight="1">
-      <c r="A363" s="40"/>
+      <c r="A363" s="42"/>
     </row>
     <row r="364" ht="15.75" customHeight="1">
-      <c r="A364" s="40"/>
+      <c r="A364" s="42"/>
     </row>
     <row r="365" ht="15.75" customHeight="1">
-      <c r="A365" s="40"/>
+      <c r="A365" s="42"/>
     </row>
     <row r="366" ht="15.75" customHeight="1">
-      <c r="A366" s="40"/>
+      <c r="A366" s="42"/>
     </row>
     <row r="367" ht="15.75" customHeight="1">
-      <c r="A367" s="40"/>
+      <c r="A367" s="42"/>
     </row>
     <row r="368" ht="15.75" customHeight="1">
-      <c r="A368" s="40"/>
+      <c r="A368" s="42"/>
     </row>
     <row r="369" ht="15.75" customHeight="1">
-      <c r="A369" s="40"/>
+      <c r="A369" s="42"/>
     </row>
     <row r="370" ht="15.75" customHeight="1">
-      <c r="A370" s="40"/>
+      <c r="A370" s="42"/>
     </row>
     <row r="371" ht="15.75" customHeight="1">
-      <c r="A371" s="40"/>
+      <c r="A371" s="42"/>
     </row>
     <row r="372" ht="15.75" customHeight="1">
-      <c r="A372" s="40"/>
+      <c r="A372" s="42"/>
     </row>
     <row r="373" ht="15.75" customHeight="1">
-      <c r="A373" s="40"/>
+      <c r="A373" s="42"/>
     </row>
     <row r="374" ht="15.75" customHeight="1">
-      <c r="A374" s="40"/>
+      <c r="A374" s="42"/>
     </row>
     <row r="375" ht="15.75" customHeight="1">
-      <c r="A375" s="40"/>
+      <c r="A375" s="42"/>
     </row>
     <row r="376" ht="15.75" customHeight="1">
-      <c r="A376" s="40"/>
+      <c r="A376" s="42"/>
     </row>
     <row r="377" ht="15.75" customHeight="1">
-      <c r="A377" s="40"/>
+      <c r="A377" s="42"/>
     </row>
     <row r="378" ht="15.75" customHeight="1">
-      <c r="A378" s="40"/>
+      <c r="A378" s="42"/>
     </row>
     <row r="379" ht="15.75" customHeight="1">
-      <c r="A379" s="40"/>
+      <c r="A379" s="42"/>
     </row>
     <row r="380" ht="15.75" customHeight="1">
-      <c r="A380" s="40"/>
+      <c r="A380" s="42"/>
     </row>
     <row r="381" ht="15.75" customHeight="1">
-      <c r="A381" s="40"/>
+      <c r="A381" s="42"/>
     </row>
     <row r="382" ht="15.75" customHeight="1">
-      <c r="A382" s="40"/>
+      <c r="A382" s="42"/>
     </row>
     <row r="383" ht="15.75" customHeight="1">
-      <c r="A383" s="40"/>
+      <c r="A383" s="42"/>
     </row>
     <row r="384" ht="15.75" customHeight="1">
-      <c r="A384" s="40"/>
+      <c r="A384" s="42"/>
     </row>
     <row r="385" ht="15.75" customHeight="1">
-      <c r="A385" s="40"/>
+      <c r="A385" s="42"/>
     </row>
     <row r="386" ht="15.75" customHeight="1">
-      <c r="A386" s="40"/>
+      <c r="A386" s="42"/>
     </row>
     <row r="387" ht="15.75" customHeight="1">
-      <c r="A387" s="40"/>
+      <c r="A387" s="42"/>
     </row>
     <row r="388" ht="15.75" customHeight="1">
-      <c r="A388" s="40"/>
+      <c r="A388" s="42"/>
     </row>
     <row r="389" ht="15.75" customHeight="1">
-      <c r="A389" s="40"/>
+      <c r="A389" s="42"/>
     </row>
     <row r="390" ht="15.75" customHeight="1">
-      <c r="A390" s="40"/>
+      <c r="A390" s="42"/>
     </row>
     <row r="391" ht="15.75" customHeight="1">
-      <c r="A391" s="40"/>
+      <c r="A391" s="42"/>
     </row>
     <row r="392" ht="15.75" customHeight="1">
-      <c r="A392" s="40"/>
+      <c r="A392" s="42"/>
     </row>
     <row r="393" ht="15.75" customHeight="1">
-      <c r="A393" s="40"/>
+      <c r="A393" s="42"/>
     </row>
     <row r="394" ht="15.75" customHeight="1">
-      <c r="A394" s="40"/>
+      <c r="A394" s="42"/>
     </row>
     <row r="395" ht="15.75" customHeight="1">
-      <c r="A395" s="40"/>
+      <c r="A395" s="42"/>
     </row>
     <row r="396" ht="15.75" customHeight="1">
-      <c r="A396" s="40"/>
+      <c r="A396" s="42"/>
     </row>
     <row r="397" ht="15.75" customHeight="1">
-      <c r="A397" s="40"/>
+      <c r="A397" s="42"/>
     </row>
     <row r="398" ht="15.75" customHeight="1">
-      <c r="A398" s="40"/>
+      <c r="A398" s="42"/>
     </row>
     <row r="399" ht="15.75" customHeight="1">
-      <c r="A399" s="40"/>
+      <c r="A399" s="42"/>
     </row>
     <row r="400" ht="15.75" customHeight="1">
-      <c r="A400" s="40"/>
+      <c r="A400" s="42"/>
     </row>
     <row r="401" ht="15.75" customHeight="1">
-      <c r="A401" s="40"/>
+      <c r="A401" s="42"/>
     </row>
     <row r="402" ht="15.75" customHeight="1">
-      <c r="A402" s="40"/>
+      <c r="A402" s="42"/>
     </row>
     <row r="403" ht="15.75" customHeight="1">
-      <c r="A403" s="40"/>
+      <c r="A403" s="42"/>
     </row>
     <row r="404" ht="15.75" customHeight="1">
-      <c r="A404" s="40"/>
+      <c r="A404" s="42"/>
     </row>
     <row r="405" ht="15.75" customHeight="1">
-      <c r="A405" s="40"/>
+      <c r="A405" s="42"/>
     </row>
     <row r="406" ht="15.75" customHeight="1">
-      <c r="A406" s="40"/>
+      <c r="A406" s="42"/>
     </row>
     <row r="407" ht="15.75" customHeight="1">
-      <c r="A407" s="40"/>
+      <c r="A407" s="42"/>
     </row>
     <row r="408" ht="15.75" customHeight="1">
-      <c r="A408" s="40"/>
+      <c r="A408" s="42"/>
     </row>
     <row r="409" ht="15.75" customHeight="1">
-      <c r="A409" s="40"/>
+      <c r="A409" s="42"/>
     </row>
     <row r="410" ht="15.75" customHeight="1">
-      <c r="A410" s="40"/>
+      <c r="A410" s="42"/>
     </row>
     <row r="411" ht="15.75" customHeight="1">
-      <c r="A411" s="40"/>
+      <c r="A411" s="42"/>
     </row>
     <row r="412" ht="15.75" customHeight="1">
-      <c r="A412" s="40"/>
+      <c r="A412" s="42"/>
     </row>
     <row r="413" ht="15.75" customHeight="1">
-      <c r="A413" s="40"/>
+      <c r="A413" s="42"/>
     </row>
     <row r="414" ht="15.75" customHeight="1">
-      <c r="A414" s="40"/>
+      <c r="A414" s="42"/>
     </row>
     <row r="415" ht="15.75" customHeight="1">
-      <c r="A415" s="40"/>
+      <c r="A415" s="42"/>
     </row>
     <row r="416" ht="15.75" customHeight="1">
-      <c r="A416" s="40"/>
+      <c r="A416" s="42"/>
     </row>
     <row r="417" ht="15.75" customHeight="1">
-      <c r="A417" s="40"/>
+      <c r="A417" s="42"/>
     </row>
     <row r="418" ht="15.75" customHeight="1">
-      <c r="A418" s="40"/>
+      <c r="A418" s="42"/>
     </row>
     <row r="419" ht="15.75" customHeight="1">
-      <c r="A419" s="40"/>
+      <c r="A419" s="42"/>
     </row>
     <row r="420" ht="15.75" customHeight="1">
-      <c r="A420" s="40"/>
+      <c r="A420" s="42"/>
     </row>
     <row r="421" ht="15.75" customHeight="1">
-      <c r="A421" s="40"/>
+      <c r="A421" s="42"/>
     </row>
     <row r="422" ht="15.75" customHeight="1">
-      <c r="A422" s="40"/>
+      <c r="A422" s="42"/>
     </row>
     <row r="423" ht="15.75" customHeight="1">
-      <c r="A423" s="40"/>
+      <c r="A423" s="42"/>
     </row>
     <row r="424" ht="15.75" customHeight="1">
-      <c r="A424" s="40"/>
+      <c r="A424" s="42"/>
     </row>
     <row r="425" ht="15.75" customHeight="1">
-      <c r="A425" s="40"/>
+      <c r="A425" s="42"/>
     </row>
     <row r="426" ht="15.75" customHeight="1">
-      <c r="A426" s="40"/>
+      <c r="A426" s="42"/>
     </row>
     <row r="427" ht="15.75" customHeight="1">
-      <c r="A427" s="40"/>
+      <c r="A427" s="42"/>
     </row>
     <row r="428" ht="15.75" customHeight="1">
-      <c r="A428" s="40"/>
+      <c r="A428" s="42"/>
     </row>
     <row r="429" ht="15.75" customHeight="1">
-      <c r="A429" s="40"/>
+      <c r="A429" s="42"/>
     </row>
     <row r="430" ht="15.75" customHeight="1">
-      <c r="A430" s="40"/>
+      <c r="A430" s="42"/>
     </row>
     <row r="431" ht="15.75" customHeight="1">
-      <c r="A431" s="40"/>
+      <c r="A431" s="42"/>
     </row>
     <row r="432" ht="15.75" customHeight="1">
-      <c r="A432" s="40"/>
+      <c r="A432" s="42"/>
     </row>
     <row r="433" ht="15.75" customHeight="1">
-      <c r="A433" s="40"/>
+      <c r="A433" s="42"/>
     </row>
     <row r="434" ht="15.75" customHeight="1">
-      <c r="A434" s="40"/>
+      <c r="A434" s="42"/>
     </row>
     <row r="435" ht="15.75" customHeight="1">
-      <c r="A435" s="40"/>
+      <c r="A435" s="42"/>
     </row>
     <row r="436" ht="15.75" customHeight="1">
-      <c r="A436" s="40"/>
+      <c r="A436" s="42"/>
     </row>
     <row r="437" ht="15.75" customHeight="1">
-      <c r="A437" s="40"/>
+      <c r="A437" s="42"/>
     </row>
     <row r="438" ht="15.75" customHeight="1">
-      <c r="A438" s="40"/>
+      <c r="A438" s="42"/>
     </row>
     <row r="439" ht="15.75" customHeight="1">
-      <c r="A439" s="40"/>
+      <c r="A439" s="42"/>
     </row>
     <row r="440" ht="15.75" customHeight="1">
-      <c r="A440" s="40"/>
+      <c r="A440" s="42"/>
     </row>
     <row r="441" ht="15.75" customHeight="1">
-      <c r="A441" s="40"/>
+      <c r="A441" s="42"/>
     </row>
     <row r="442" ht="15.75" customHeight="1">
-      <c r="A442" s="40"/>
+      <c r="A442" s="42"/>
     </row>
     <row r="443" ht="15.75" customHeight="1">
-      <c r="A443" s="40"/>
+      <c r="A443" s="42"/>
     </row>
     <row r="444" ht="15.75" customHeight="1">
-      <c r="A444" s="40"/>
+      <c r="A444" s="42"/>
     </row>
     <row r="445" ht="15.75" customHeight="1">
-      <c r="A445" s="40"/>
+      <c r="A445" s="42"/>
     </row>
     <row r="446" ht="15.75" customHeight="1">
-      <c r="A446" s="40"/>
+      <c r="A446" s="42"/>
     </row>
     <row r="447" ht="15.75" customHeight="1">
-      <c r="A447" s="40"/>
+      <c r="A447" s="42"/>
     </row>
     <row r="448" ht="15.75" customHeight="1">
-      <c r="A448" s="40"/>
+      <c r="A448" s="42"/>
     </row>
     <row r="449" ht="15.75" customHeight="1">
-      <c r="A449" s="40"/>
+      <c r="A449" s="42"/>
     </row>
     <row r="450" ht="15.75" customHeight="1">
-      <c r="A450" s="40"/>
+      <c r="A450" s="42"/>
     </row>
     <row r="451" ht="15.75" customHeight="1">
-      <c r="A451" s="40"/>
+      <c r="A451" s="42"/>
     </row>
     <row r="452" ht="15.75" customHeight="1">
-      <c r="A452" s="40"/>
+      <c r="A452" s="42"/>
     </row>
     <row r="453" ht="15.75" customHeight="1">
-      <c r="A453" s="40"/>
+      <c r="A453" s="42"/>
     </row>
     <row r="454" ht="15.75" customHeight="1">
-      <c r="A454" s="40"/>
+      <c r="A454" s="42"/>
     </row>
     <row r="455" ht="15.75" customHeight="1">
-      <c r="A455" s="40"/>
+      <c r="A455" s="42"/>
     </row>
     <row r="456" ht="15.75" customHeight="1">
-      <c r="A456" s="40"/>
+      <c r="A456" s="42"/>
     </row>
     <row r="457" ht="15.75" customHeight="1">
-      <c r="A457" s="40"/>
+      <c r="A457" s="42"/>
     </row>
     <row r="458" ht="15.75" customHeight="1">
-      <c r="A458" s="40"/>
+      <c r="A458" s="42"/>
     </row>
     <row r="459" ht="15.75" customHeight="1">
-      <c r="A459" s="40"/>
+      <c r="A459" s="42"/>
     </row>
     <row r="460" ht="15.75" customHeight="1">
-      <c r="A460" s="40"/>
+      <c r="A460" s="42"/>
     </row>
     <row r="461" ht="15.75" customHeight="1">
-      <c r="A461" s="40"/>
+      <c r="A461" s="42"/>
     </row>
     <row r="462" ht="15.75" customHeight="1">
-      <c r="A462" s="40"/>
+      <c r="A462" s="42"/>
     </row>
     <row r="463" ht="15.75" customHeight="1">
-      <c r="A463" s="40"/>
+      <c r="A463" s="42"/>
     </row>
     <row r="464" ht="15.75" customHeight="1">
-      <c r="A464" s="40"/>
+      <c r="A464" s="42"/>
     </row>
     <row r="465" ht="15.75" customHeight="1">
-      <c r="A465" s="40"/>
+      <c r="A465" s="42"/>
     </row>
     <row r="466" ht="15.75" customHeight="1">
-      <c r="A466" s="40"/>
+      <c r="A466" s="42"/>
     </row>
     <row r="467" ht="15.75" customHeight="1">
-      <c r="A467" s="40"/>
+      <c r="A467" s="42"/>
     </row>
     <row r="468" ht="15.75" customHeight="1">
-      <c r="A468" s="40"/>
+      <c r="A468" s="42"/>
     </row>
     <row r="469" ht="15.75" customHeight="1">
-      <c r="A469" s="40"/>
+      <c r="A469" s="42"/>
     </row>
     <row r="470" ht="15.75" customHeight="1">
-      <c r="A470" s="40"/>
+      <c r="A470" s="42"/>
     </row>
     <row r="471" ht="15.75" customHeight="1">
-      <c r="A471" s="40"/>
+      <c r="A471" s="42"/>
     </row>
     <row r="472" ht="15.75" customHeight="1">
-      <c r="A472" s="40"/>
+      <c r="A472" s="42"/>
     </row>
     <row r="473" ht="15.75" customHeight="1">
-      <c r="A473" s="40"/>
+      <c r="A473" s="42"/>
     </row>
     <row r="474" ht="15.75" customHeight="1">
-      <c r="A474" s="40"/>
+      <c r="A474" s="42"/>
     </row>
     <row r="475" ht="15.75" customHeight="1">
-      <c r="A475" s="40"/>
+      <c r="A475" s="42"/>
     </row>
     <row r="476" ht="15.75" customHeight="1">
-      <c r="A476" s="40"/>
+      <c r="A476" s="42"/>
     </row>
     <row r="477" ht="15.75" customHeight="1">
-      <c r="A477" s="40"/>
+      <c r="A477" s="42"/>
     </row>
     <row r="478" ht="15.75" customHeight="1">
-      <c r="A478" s="40"/>
+      <c r="A478" s="42"/>
     </row>
     <row r="479" ht="15.75" customHeight="1">
-      <c r="A479" s="40"/>
+      <c r="A479" s="42"/>
     </row>
     <row r="480" ht="15.75" customHeight="1">
-      <c r="A480" s="40"/>
+      <c r="A480" s="42"/>
     </row>
     <row r="481" ht="15.75" customHeight="1">
-      <c r="A481" s="40"/>
+      <c r="A481" s="42"/>
     </row>
     <row r="482" ht="15.75" customHeight="1">
-      <c r="A482" s="40"/>
+      <c r="A482" s="42"/>
     </row>
     <row r="483" ht="15.75" customHeight="1">
-      <c r="A483" s="40"/>
+      <c r="A483" s="42"/>
     </row>
     <row r="484" ht="15.75" customHeight="1">
-      <c r="A484" s="40"/>
+      <c r="A484" s="42"/>
     </row>
     <row r="485" ht="15.75" customHeight="1">
-      <c r="A485" s="40"/>
+      <c r="A485" s="42"/>
     </row>
     <row r="486" ht="15.75" customHeight="1">
-      <c r="A486" s="40"/>
+      <c r="A486" s="42"/>
     </row>
     <row r="487" ht="15.75" customHeight="1">
-      <c r="A487" s="40"/>
+      <c r="A487" s="42"/>
     </row>
     <row r="488" ht="15.75" customHeight="1">
-      <c r="A488" s="40"/>
+      <c r="A488" s="42"/>
     </row>
     <row r="489" ht="15.75" customHeight="1">
-      <c r="A489" s="40"/>
+      <c r="A489" s="42"/>
     </row>
     <row r="490" ht="15.75" customHeight="1">
-      <c r="A490" s="40"/>
+      <c r="A490" s="42"/>
     </row>
     <row r="491" ht="15.75" customHeight="1">
-      <c r="A491" s="40"/>
+      <c r="A491" s="42"/>
     </row>
     <row r="492" ht="15.75" customHeight="1">
-      <c r="A492" s="40"/>
+      <c r="A492" s="42"/>
     </row>
     <row r="493" ht="15.75" customHeight="1">
-      <c r="A493" s="40"/>
+      <c r="A493" s="42"/>
     </row>
     <row r="494" ht="15.75" customHeight="1">
-      <c r="A494" s="40"/>
+      <c r="A494" s="42"/>
     </row>
     <row r="495" ht="15.75" customHeight="1">
-      <c r="A495" s="40"/>
+      <c r="A495" s="42"/>
     </row>
     <row r="496" ht="15.75" customHeight="1">
-      <c r="A496" s="40"/>
+      <c r="A496" s="42"/>
     </row>
     <row r="497" ht="15.75" customHeight="1">
-      <c r="A497" s="40"/>
+      <c r="A497" s="42"/>
     </row>
     <row r="498" ht="15.75" customHeight="1">
-      <c r="A498" s="40"/>
+      <c r="A498" s="42"/>
     </row>
     <row r="499" ht="15.75" customHeight="1">
-      <c r="A499" s="40"/>
+      <c r="A499" s="42"/>
     </row>
     <row r="500" ht="15.75" customHeight="1">
-      <c r="A500" s="40"/>
+      <c r="A500" s="42"/>
     </row>
     <row r="501" ht="15.75" customHeight="1">
-      <c r="A501" s="40"/>
+      <c r="A501" s="42"/>
     </row>
     <row r="502" ht="15.75" customHeight="1">
-      <c r="A502" s="40"/>
+      <c r="A502" s="42"/>
     </row>
     <row r="503" ht="15.75" customHeight="1">
-      <c r="A503" s="40"/>
+      <c r="A503" s="42"/>
     </row>
     <row r="504" ht="15.75" customHeight="1">
-      <c r="A504" s="40"/>
+      <c r="A504" s="42"/>
     </row>
     <row r="505" ht="15.75" customHeight="1">
-      <c r="A505" s="40"/>
+      <c r="A505" s="42"/>
     </row>
     <row r="506" ht="15.75" customHeight="1">
-      <c r="A506" s="40"/>
+      <c r="A506" s="42"/>
     </row>
     <row r="507" ht="15.75" customHeight="1">
-      <c r="A507" s="40"/>
+      <c r="A507" s="42"/>
     </row>
     <row r="508" ht="15.75" customHeight="1">
-      <c r="A508" s="40"/>
+      <c r="A508" s="42"/>
     </row>
     <row r="509" ht="15.75" customHeight="1">
-      <c r="A509" s="40"/>
+      <c r="A509" s="42"/>
     </row>
     <row r="510" ht="15.75" customHeight="1">
-      <c r="A510" s="40"/>
+      <c r="A510" s="42"/>
     </row>
     <row r="511" ht="15.75" customHeight="1">
-      <c r="A511" s="40"/>
+      <c r="A511" s="42"/>
     </row>
     <row r="512" ht="15.75" customHeight="1">
-      <c r="A512" s="40"/>
+      <c r="A512" s="42"/>
     </row>
     <row r="513" ht="15.75" customHeight="1">
-      <c r="A513" s="40"/>
+      <c r="A513" s="42"/>
     </row>
     <row r="514" ht="15.75" customHeight="1">
-      <c r="A514" s="40"/>
+      <c r="A514" s="42"/>
     </row>
     <row r="515" ht="15.75" customHeight="1">
-      <c r="A515" s="40"/>
+      <c r="A515" s="42"/>
     </row>
     <row r="516" ht="15.75" customHeight="1">
-      <c r="A516" s="40"/>
+      <c r="A516" s="42"/>
     </row>
     <row r="517" ht="15.75" customHeight="1">
-      <c r="A517" s="40"/>
+      <c r="A517" s="42"/>
     </row>
     <row r="518" ht="15.75" customHeight="1">
-      <c r="A518" s="40"/>
+      <c r="A518" s="42"/>
     </row>
     <row r="519" ht="15.75" customHeight="1">
-      <c r="A519" s="40"/>
+      <c r="A519" s="42"/>
     </row>
     <row r="520" ht="15.75" customHeight="1">
-      <c r="A520" s="40"/>
+      <c r="A520" s="42"/>
     </row>
     <row r="521" ht="15.75" customHeight="1">
-      <c r="A521" s="40"/>
+      <c r="A521" s="42"/>
     </row>
     <row r="522" ht="15.75" customHeight="1">
-      <c r="A522" s="40"/>
+      <c r="A522" s="42"/>
     </row>
     <row r="523" ht="15.75" customHeight="1">
-      <c r="A523" s="40"/>
+      <c r="A523" s="42"/>
     </row>
     <row r="524" ht="15.75" customHeight="1">
-      <c r="A524" s="40"/>
+      <c r="A524" s="42"/>
     </row>
     <row r="525" ht="15.75" customHeight="1">
-      <c r="A525" s="40"/>
+      <c r="A525" s="42"/>
     </row>
     <row r="526" ht="15.75" customHeight="1">
-      <c r="A526" s="40"/>
+      <c r="A526" s="42"/>
     </row>
     <row r="527" ht="15.75" customHeight="1">
-      <c r="A527" s="40"/>
+      <c r="A527" s="42"/>
     </row>
     <row r="528" ht="15.75" customHeight="1">
-      <c r="A528" s="40"/>
+      <c r="A528" s="42"/>
     </row>
     <row r="529" ht="15.75" customHeight="1">
-      <c r="A529" s="40"/>
+      <c r="A529" s="42"/>
     </row>
     <row r="530" ht="15.75" customHeight="1">
-      <c r="A530" s="40"/>
+      <c r="A530" s="42"/>
     </row>
     <row r="531" ht="15.75" customHeight="1">
-      <c r="A531" s="40"/>
+      <c r="A531" s="42"/>
     </row>
     <row r="532" ht="15.75" customHeight="1">
-      <c r="A532" s="40"/>
+      <c r="A532" s="42"/>
     </row>
     <row r="533" ht="15.75" customHeight="1">
-      <c r="A533" s="40"/>
+      <c r="A533" s="42"/>
     </row>
     <row r="534" ht="15.75" customHeight="1">
-      <c r="A534" s="40"/>
+      <c r="A534" s="42"/>
     </row>
     <row r="535" ht="15.75" customHeight="1">
-      <c r="A535" s="40"/>
+      <c r="A535" s="42"/>
     </row>
     <row r="536" ht="15.75" customHeight="1">
-      <c r="A536" s="40"/>
+      <c r="A536" s="42"/>
     </row>
     <row r="537" ht="15.75" customHeight="1">
-      <c r="A537" s="40"/>
+      <c r="A537" s="42"/>
     </row>
     <row r="538" ht="15.75" customHeight="1">
-      <c r="A538" s="40"/>
+      <c r="A538" s="42"/>
     </row>
     <row r="539" ht="15.75" customHeight="1">
-      <c r="A539" s="40"/>
+      <c r="A539" s="42"/>
     </row>
     <row r="540" ht="15.75" customHeight="1">
-      <c r="A540" s="40"/>
+      <c r="A540" s="42"/>
     </row>
     <row r="541" ht="15.75" customHeight="1">
-      <c r="A541" s="40"/>
+      <c r="A541" s="42"/>
     </row>
     <row r="542" ht="15.75" customHeight="1">
-      <c r="A542" s="40"/>
+      <c r="A542" s="42"/>
     </row>
     <row r="543" ht="15.75" customHeight="1">
-      <c r="A543" s="40"/>
+      <c r="A543" s="42"/>
     </row>
     <row r="544" ht="15.75" customHeight="1">
-      <c r="A544" s="40"/>
+      <c r="A544" s="42"/>
     </row>
     <row r="545" ht="15.75" customHeight="1">
-      <c r="A545" s="40"/>
+      <c r="A545" s="42"/>
     </row>
     <row r="546" ht="15.75" customHeight="1">
-      <c r="A546" s="40"/>
+      <c r="A546" s="42"/>
     </row>
     <row r="547" ht="15.75" customHeight="1">
-      <c r="A547" s="40"/>
+      <c r="A547" s="42"/>
     </row>
     <row r="548" ht="15.75" customHeight="1">
-      <c r="A548" s="40"/>
+      <c r="A548" s="42"/>
     </row>
     <row r="549" ht="15.75" customHeight="1">
-      <c r="A549" s="40"/>
+      <c r="A549" s="42"/>
     </row>
     <row r="550" ht="15.75" customHeight="1">
-      <c r="A550" s="40"/>
+      <c r="A550" s="42"/>
     </row>
     <row r="551" ht="15.75" customHeight="1">
-      <c r="A551" s="40"/>
+      <c r="A551" s="42"/>
     </row>
     <row r="552" ht="15.75" customHeight="1">
-      <c r="A552" s="40"/>
+      <c r="A552" s="42"/>
     </row>
     <row r="553" ht="15.75" customHeight="1">
-      <c r="A553" s="40"/>
+      <c r="A553" s="42"/>
     </row>
     <row r="554" ht="15.75" customHeight="1">
-      <c r="A554" s="40"/>
+      <c r="A554" s="42"/>
     </row>
     <row r="555" ht="15.75" customHeight="1">
-      <c r="A555" s="40"/>
+      <c r="A555" s="42"/>
     </row>
     <row r="556" ht="15.75" customHeight="1">
-      <c r="A556" s="40"/>
+      <c r="A556" s="42"/>
     </row>
     <row r="557" ht="15.75" customHeight="1">
-      <c r="A557" s="40"/>
+      <c r="A557" s="42"/>
     </row>
     <row r="558" ht="15.75" customHeight="1">
-      <c r="A558" s="40"/>
+      <c r="A558" s="42"/>
     </row>
     <row r="559" ht="15.75" customHeight="1">
-      <c r="A559" s="40"/>
+      <c r="A559" s="42"/>
     </row>
     <row r="560" ht="15.75" customHeight="1">
-      <c r="A560" s="40"/>
+      <c r="A560" s="42"/>
     </row>
     <row r="561" ht="15.75" customHeight="1">
-      <c r="A561" s="40"/>
+      <c r="A561" s="42"/>
     </row>
     <row r="562" ht="15.75" customHeight="1">
-      <c r="A562" s="40"/>
+      <c r="A562" s="42"/>
     </row>
     <row r="563" ht="15.75" customHeight="1">
-      <c r="A563" s="40"/>
+      <c r="A563" s="42"/>
     </row>
     <row r="564" ht="15.75" customHeight="1">
-      <c r="A564" s="40"/>
+      <c r="A564" s="42"/>
     </row>
     <row r="565" ht="15.75" customHeight="1">
-      <c r="A565" s="40"/>
+      <c r="A565" s="42"/>
     </row>
     <row r="566" ht="15.75" customHeight="1">
-      <c r="A566" s="40"/>
+      <c r="A566" s="42"/>
     </row>
     <row r="567" ht="15.75" customHeight="1">
-      <c r="A567" s="40"/>
+      <c r="A567" s="42"/>
     </row>
     <row r="568" ht="15.75" customHeight="1">
-      <c r="A568" s="40"/>
+      <c r="A568" s="42"/>
     </row>
     <row r="569" ht="15.75" customHeight="1">
-      <c r="A569" s="40"/>
+      <c r="A569" s="42"/>
     </row>
     <row r="570" ht="15.75" customHeight="1">
-      <c r="A570" s="40"/>
+      <c r="A570" s="42"/>
     </row>
     <row r="571" ht="15.75" customHeight="1">
-      <c r="A571" s="40"/>
+      <c r="A571" s="42"/>
     </row>
     <row r="572" ht="15.75" customHeight="1">
-      <c r="A572" s="40"/>
+      <c r="A572" s="42"/>
     </row>
     <row r="573" ht="15.75" customHeight="1">
-      <c r="A573" s="40"/>
+      <c r="A573" s="42"/>
     </row>
     <row r="574" ht="15.75" customHeight="1">
-      <c r="A574" s="40"/>
+      <c r="A574" s="42"/>
     </row>
     <row r="575" ht="15.75" customHeight="1">
-      <c r="A575" s="40"/>
+      <c r="A575" s="42"/>
     </row>
     <row r="576" ht="15.75" customHeight="1">
-      <c r="A576" s="40"/>
+      <c r="A576" s="42"/>
     </row>
     <row r="577" ht="15.75" customHeight="1">
-      <c r="A577" s="40"/>
+      <c r="A577" s="42"/>
     </row>
     <row r="578" ht="15.75" customHeight="1">
-      <c r="A578" s="40"/>
+      <c r="A578" s="42"/>
     </row>
     <row r="579" ht="15.75" customHeight="1">
-      <c r="A579" s="40"/>
+      <c r="A579" s="42"/>
     </row>
     <row r="580" ht="15.75" customHeight="1">
-      <c r="A580" s="40"/>
+      <c r="A580" s="42"/>
     </row>
     <row r="581" ht="15.75" customHeight="1">
-      <c r="A581" s="40"/>
+      <c r="A581" s="42"/>
     </row>
     <row r="582" ht="15.75" customHeight="1">
-      <c r="A582" s="40"/>
+      <c r="A582" s="42"/>
     </row>
     <row r="583" ht="15.75" customHeight="1">
-      <c r="A583" s="40"/>
+      <c r="A583" s="42"/>
     </row>
     <row r="584" ht="15.75" customHeight="1">
-      <c r="A584" s="40"/>
+      <c r="A584" s="42"/>
     </row>
     <row r="585" ht="15.75" customHeight="1">
-      <c r="A585" s="40"/>
+      <c r="A585" s="42"/>
     </row>
     <row r="586" ht="15.75" customHeight="1">
-      <c r="A586" s="40"/>
+      <c r="A586" s="42"/>
     </row>
     <row r="587" ht="15.75" customHeight="1">
-      <c r="A587" s="40"/>
+      <c r="A587" s="42"/>
     </row>
     <row r="588" ht="15.75" customHeight="1">
-      <c r="A588" s="40"/>
+      <c r="A588" s="42"/>
     </row>
     <row r="589" ht="15.75" customHeight="1">
-      <c r="A589" s="40"/>
+      <c r="A589" s="42"/>
     </row>
     <row r="590" ht="15.75" customHeight="1">
-      <c r="A590" s="40"/>
+      <c r="A590" s="42"/>
     </row>
     <row r="591" ht="15.75" customHeight="1">
-      <c r="A591" s="40"/>
+      <c r="A591" s="42"/>
     </row>
     <row r="592" ht="15.75" customHeight="1">
-      <c r="A592" s="40"/>
+      <c r="A592" s="42"/>
     </row>
     <row r="593" ht="15.75" customHeight="1">
-      <c r="A593" s="40"/>
+      <c r="A593" s="42"/>
     </row>
     <row r="594" ht="15.75" customHeight="1">
-      <c r="A594" s="40"/>
+      <c r="A594" s="42"/>
     </row>
     <row r="595" ht="15.75" customHeight="1">
-      <c r="A595" s="40"/>
+      <c r="A595" s="42"/>
     </row>
     <row r="596" ht="15.75" customHeight="1">
-      <c r="A596" s="40"/>
+      <c r="A596" s="42"/>
     </row>
     <row r="597" ht="15.75" customHeight="1">
-      <c r="A597" s="40"/>
+      <c r="A597" s="42"/>
     </row>
     <row r="598" ht="15.75" customHeight="1">
-      <c r="A598" s="40"/>
+      <c r="A598" s="42"/>
     </row>
     <row r="599" ht="15.75" customHeight="1">
-      <c r="A599" s="40"/>
+      <c r="A599" s="42"/>
     </row>
     <row r="600" ht="15.75" customHeight="1">
-      <c r="A600" s="40"/>
+      <c r="A600" s="42"/>
     </row>
     <row r="601" ht="15.75" customHeight="1">
-      <c r="A601" s="40"/>
+      <c r="A601" s="42"/>
     </row>
     <row r="602" ht="15.75" customHeight="1">
-      <c r="A602" s="40"/>
+      <c r="A602" s="42"/>
     </row>
     <row r="603" ht="15.75" customHeight="1">
-      <c r="A603" s="40"/>
+      <c r="A603" s="42"/>
     </row>
     <row r="604" ht="15.75" customHeight="1">
-      <c r="A604" s="40"/>
+      <c r="A604" s="42"/>
     </row>
     <row r="605" ht="15.75" customHeight="1">
-      <c r="A605" s="40"/>
+      <c r="A605" s="42"/>
     </row>
     <row r="606" ht="15.75" customHeight="1">
-      <c r="A606" s="40"/>
+      <c r="A606" s="42"/>
     </row>
     <row r="607" ht="15.75" customHeight="1">
-      <c r="A607" s="40"/>
+      <c r="A607" s="42"/>
     </row>
     <row r="608" ht="15.75" customHeight="1">
-      <c r="A608" s="40"/>
+      <c r="A608" s="42"/>
     </row>
     <row r="609" ht="15.75" customHeight="1">
-      <c r="A609" s="40"/>
+      <c r="A609" s="42"/>
     </row>
     <row r="610" ht="15.75" customHeight="1">
-      <c r="A610" s="40"/>
+      <c r="A610" s="42"/>
     </row>
     <row r="611" ht="15.75" customHeight="1">
-      <c r="A611" s="40"/>
+      <c r="A611" s="42"/>
     </row>
     <row r="612" ht="15.75" customHeight="1">
-      <c r="A612" s="40"/>
+      <c r="A612" s="42"/>
     </row>
     <row r="613" ht="15.75" customHeight="1">
-      <c r="A613" s="40"/>
+      <c r="A613" s="42"/>
     </row>
     <row r="614" ht="15.75" customHeight="1">
-      <c r="A614" s="40"/>
+      <c r="A614" s="42"/>
     </row>
     <row r="615" ht="15.75" customHeight="1">
-      <c r="A615" s="40"/>
+      <c r="A615" s="42"/>
     </row>
     <row r="616" ht="15.75" customHeight="1">
-      <c r="A616" s="40"/>
+      <c r="A616" s="42"/>
     </row>
     <row r="617" ht="15.75" customHeight="1">
-      <c r="A617" s="40"/>
+      <c r="A617" s="42"/>
     </row>
     <row r="618" ht="15.75" customHeight="1">
-      <c r="A618" s="40"/>
+      <c r="A618" s="42"/>
     </row>
     <row r="619" ht="15.75" customHeight="1">
-      <c r="A619" s="40"/>
+      <c r="A619" s="42"/>
     </row>
     <row r="620" ht="15.75" customHeight="1">
-      <c r="A620" s="40"/>
+      <c r="A620" s="42"/>
     </row>
     <row r="621" ht="15.75" customHeight="1">
-      <c r="A621" s="40"/>
+      <c r="A621" s="42"/>
     </row>
     <row r="622" ht="15.75" customHeight="1">
-      <c r="A622" s="40"/>
+      <c r="A622" s="42"/>
     </row>
     <row r="623" ht="15.75" customHeight="1">
-      <c r="A623" s="40"/>
+      <c r="A623" s="42"/>
     </row>
     <row r="624" ht="15.75" customHeight="1">
-      <c r="A624" s="40"/>
+      <c r="A624" s="42"/>
     </row>
     <row r="625" ht="15.75" customHeight="1">
-      <c r="A625" s="40"/>
+      <c r="A625" s="42"/>
     </row>
     <row r="626" ht="15.75" customHeight="1">
-      <c r="A626" s="40"/>
+      <c r="A626" s="42"/>
     </row>
     <row r="627" ht="15.75" customHeight="1">
-      <c r="A627" s="40"/>
+      <c r="A627" s="42"/>
     </row>
     <row r="628" ht="15.75" customHeight="1">
-      <c r="A628" s="40"/>
+      <c r="A628" s="42"/>
     </row>
     <row r="629" ht="15.75" customHeight="1">
-      <c r="A629" s="40"/>
+      <c r="A629" s="42"/>
     </row>
     <row r="630" ht="15.75" customHeight="1">
-      <c r="A630" s="40"/>
+      <c r="A630" s="42"/>
     </row>
     <row r="631" ht="15.75" customHeight="1">
-      <c r="A631" s="40"/>
+      <c r="A631" s="42"/>
     </row>
     <row r="632" ht="15.75" customHeight="1">
-      <c r="A632" s="40"/>
+      <c r="A632" s="42"/>
     </row>
     <row r="633" ht="15.75" customHeight="1">
-      <c r="A633" s="40"/>
+      <c r="A633" s="42"/>
     </row>
     <row r="634" ht="15.75" customHeight="1">
-      <c r="A634" s="40"/>
+      <c r="A634" s="42"/>
     </row>
     <row r="635" ht="15.75" customHeight="1">
-      <c r="A635" s="40"/>
+      <c r="A635" s="42"/>
     </row>
     <row r="636" ht="15.75" customHeight="1">
-      <c r="A636" s="40"/>
+      <c r="A636" s="42"/>
     </row>
     <row r="637" ht="15.75" customHeight="1">
-      <c r="A637" s="40"/>
+      <c r="A637" s="42"/>
     </row>
     <row r="638" ht="15.75" customHeight="1">
-      <c r="A638" s="40"/>
+      <c r="A638" s="42"/>
     </row>
     <row r="639" ht="15.75" customHeight="1">
-      <c r="A639" s="40"/>
+      <c r="A639" s="42"/>
     </row>
     <row r="640" ht="15.75" customHeight="1">
-      <c r="A640" s="40"/>
+      <c r="A640" s="42"/>
     </row>
     <row r="641" ht="15.75" customHeight="1">
-      <c r="A641" s="40"/>
+      <c r="A641" s="42"/>
     </row>
     <row r="642" ht="15.75" customHeight="1">
-      <c r="A642" s="40"/>
+      <c r="A642" s="42"/>
     </row>
     <row r="643" ht="15.75" customHeight="1">
-      <c r="A643" s="40"/>
+      <c r="A643" s="42"/>
     </row>
     <row r="644" ht="15.75" customHeight="1">
-      <c r="A644" s="40"/>
+      <c r="A644" s="42"/>
     </row>
     <row r="645" ht="15.75" customHeight="1">
-      <c r="A645" s="40"/>
+      <c r="A645" s="42"/>
     </row>
     <row r="646" ht="15.75" customHeight="1">
-      <c r="A646" s="40"/>
+      <c r="A646" s="42"/>
     </row>
     <row r="647" ht="15.75" customHeight="1">
-      <c r="A647" s="40"/>
+      <c r="A647" s="42"/>
     </row>
     <row r="648" ht="15.75" customHeight="1">
-      <c r="A648" s="40"/>
+      <c r="A648" s="42"/>
     </row>
     <row r="649" ht="15.75" customHeight="1">
-      <c r="A649" s="40"/>
+      <c r="A649" s="42"/>
     </row>
     <row r="650" ht="15.75" customHeight="1">
-      <c r="A650" s="40"/>
+      <c r="A650" s="42"/>
     </row>
     <row r="651" ht="15.75" customHeight="1">
-      <c r="A651" s="40"/>
+      <c r="A651" s="42"/>
     </row>
     <row r="652" ht="15.75" customHeight="1">
-      <c r="A652" s="40"/>
+      <c r="A652" s="42"/>
     </row>
     <row r="653" ht="15.75" customHeight="1">
-      <c r="A653" s="40"/>
+      <c r="A653" s="42"/>
     </row>
     <row r="654" ht="15.75" customHeight="1">
-      <c r="A654" s="40"/>
+      <c r="A654" s="42"/>
     </row>
     <row r="655" ht="15.75" customHeight="1">
-      <c r="A655" s="40"/>
+      <c r="A655" s="42"/>
     </row>
     <row r="656" ht="15.75" customHeight="1">
-      <c r="A656" s="40"/>
+      <c r="A656" s="42"/>
     </row>
     <row r="657" ht="15.75" customHeight="1">
-      <c r="A657" s="40"/>
+      <c r="A657" s="42"/>
     </row>
     <row r="658" ht="15.75" customHeight="1">
-      <c r="A658" s="40"/>
+      <c r="A658" s="42"/>
     </row>
     <row r="659" ht="15.75" customHeight="1">
-      <c r="A659" s="40"/>
+      <c r="A659" s="42"/>
     </row>
     <row r="660" ht="15.75" customHeight="1">
-      <c r="A660" s="40"/>
+      <c r="A660" s="42"/>
     </row>
     <row r="661" ht="15.75" customHeight="1">
-      <c r="A661" s="40"/>
+      <c r="A661" s="42"/>
     </row>
     <row r="662" ht="15.75" customHeight="1">
-      <c r="A662" s="40"/>
+      <c r="A662" s="42"/>
     </row>
     <row r="663" ht="15.75" customHeight="1">
-      <c r="A663" s="40"/>
+      <c r="A663" s="42"/>
     </row>
     <row r="664" ht="15.75" customHeight="1">
-      <c r="A664" s="40"/>
+      <c r="A664" s="42"/>
     </row>
     <row r="665" ht="15.75" customHeight="1">
-      <c r="A665" s="40"/>
+      <c r="A665" s="42"/>
     </row>
     <row r="666" ht="15.75" customHeight="1">
-      <c r="A666" s="40"/>
+      <c r="A666" s="42"/>
     </row>
     <row r="667" ht="15.75" customHeight="1">
-      <c r="A667" s="40"/>
+      <c r="A667" s="42"/>
     </row>
     <row r="668" ht="15.75" customHeight="1">
-      <c r="A668" s="40"/>
+      <c r="A668" s="42"/>
     </row>
     <row r="669" ht="15.75" customHeight="1">
-      <c r="A669" s="40"/>
+      <c r="A669" s="42"/>
     </row>
     <row r="670" ht="15.75" customHeight="1">
-      <c r="A670" s="40"/>
+      <c r="A670" s="42"/>
     </row>
     <row r="671" ht="15.75" customHeight="1">
-      <c r="A671" s="40"/>
+      <c r="A671" s="42"/>
     </row>
     <row r="672" ht="15.75" customHeight="1">
-      <c r="A672" s="40"/>
+      <c r="A672" s="42"/>
     </row>
     <row r="673" ht="15.75" customHeight="1">
-      <c r="A673" s="40"/>
+      <c r="A673" s="42"/>
     </row>
     <row r="674" ht="15.75" customHeight="1">
-      <c r="A674" s="40"/>
+      <c r="A674" s="42"/>
     </row>
     <row r="675" ht="15.75" customHeight="1">
-      <c r="A675" s="40"/>
+      <c r="A675" s="42"/>
     </row>
     <row r="676" ht="15.75" customHeight="1">
-      <c r="A676" s="40"/>
+      <c r="A676" s="42"/>
     </row>
     <row r="677" ht="15.75" customHeight="1">
-      <c r="A677" s="40"/>
+      <c r="A677" s="42"/>
     </row>
     <row r="678" ht="15.75" customHeight="1">
-      <c r="A678" s="40"/>
+      <c r="A678" s="42"/>
     </row>
     <row r="679" ht="15.75" customHeight="1">
-      <c r="A679" s="40"/>
+      <c r="A679" s="42"/>
     </row>
     <row r="680" ht="15.75" customHeight="1">
-      <c r="A680" s="40"/>
+      <c r="A680" s="42"/>
     </row>
     <row r="681" ht="15.75" customHeight="1">
-      <c r="A681" s="40"/>
+      <c r="A681" s="42"/>
     </row>
     <row r="682" ht="15.75" customHeight="1">
-      <c r="A682" s="40"/>
+      <c r="A682" s="42"/>
     </row>
     <row r="683" ht="15.75" customHeight="1">
-      <c r="A683" s="40"/>
+      <c r="A683" s="42"/>
     </row>
     <row r="684" ht="15.75" customHeight="1">
-      <c r="A684" s="40"/>
+      <c r="A684" s="42"/>
     </row>
     <row r="685" ht="15.75" customHeight="1">
-      <c r="A685" s="40"/>
+      <c r="A685" s="42"/>
     </row>
     <row r="686" ht="15.75" customHeight="1">
-      <c r="A686" s="40"/>
+      <c r="A686" s="42"/>
     </row>
     <row r="687" ht="15.75" customHeight="1">
-      <c r="A687" s="40"/>
+      <c r="A687" s="42"/>
     </row>
     <row r="688" ht="15.75" customHeight="1">
-      <c r="A688" s="40"/>
+      <c r="A688" s="42"/>
     </row>
     <row r="689" ht="15.75" customHeight="1">
-      <c r="A689" s="40"/>
+      <c r="A689" s="42"/>
     </row>
     <row r="690" ht="15.75" customHeight="1">
-      <c r="A690" s="40"/>
+      <c r="A690" s="42"/>
     </row>
     <row r="691" ht="15.75" customHeight="1">
-      <c r="A691" s="40"/>
+      <c r="A691" s="42"/>
     </row>
     <row r="692" ht="15.75" customHeight="1">
-      <c r="A692" s="40"/>
+      <c r="A692" s="42"/>
     </row>
     <row r="693" ht="15.75" customHeight="1">
-      <c r="A693" s="40"/>
+      <c r="A693" s="42"/>
     </row>
     <row r="694" ht="15.75" customHeight="1">
-      <c r="A694" s="40"/>
+      <c r="A694" s="42"/>
     </row>
     <row r="695" ht="15.75" customHeight="1">
-      <c r="A695" s="40"/>
+      <c r="A695" s="42"/>
     </row>
     <row r="696" ht="15.75" customHeight="1">
-      <c r="A696" s="40"/>
+      <c r="A696" s="42"/>
     </row>
     <row r="697" ht="15.75" customHeight="1">
-      <c r="A697" s="40"/>
+      <c r="A697" s="42"/>
     </row>
     <row r="698" ht="15.75" customHeight="1">
-      <c r="A698" s="40"/>
+      <c r="A698" s="42"/>
     </row>
     <row r="699" ht="15.75" customHeight="1">
-      <c r="A699" s="40"/>
+      <c r="A699" s="42"/>
     </row>
     <row r="700" ht="15.75" customHeight="1">
-      <c r="A700" s="40"/>
+      <c r="A700" s="42"/>
     </row>
     <row r="701" ht="15.75" customHeight="1">
-      <c r="A701" s="40"/>
+      <c r="A701" s="42"/>
     </row>
     <row r="702" ht="15.75" customHeight="1">
-      <c r="A702" s="40"/>
+      <c r="A702" s="42"/>
     </row>
     <row r="703" ht="15.75" customHeight="1">
-      <c r="A703" s="40"/>
+      <c r="A703" s="42"/>
     </row>
     <row r="704" ht="15.75" customHeight="1">
-      <c r="A704" s="40"/>
+      <c r="A704" s="42"/>
     </row>
     <row r="705" ht="15.75" customHeight="1">
-      <c r="A705" s="40"/>
+      <c r="A705" s="42"/>
     </row>
     <row r="706" ht="15.75" customHeight="1">
-      <c r="A706" s="40"/>
+      <c r="A706" s="42"/>
     </row>
     <row r="707" ht="15.75" customHeight="1">
-      <c r="A707" s="40"/>
+      <c r="A707" s="42"/>
     </row>
     <row r="708" ht="15.75" customHeight="1">
-      <c r="A708" s="40"/>
+      <c r="A708" s="42"/>
     </row>
     <row r="709" ht="15.75" customHeight="1">
-      <c r="A709" s="40"/>
+      <c r="A709" s="42"/>
     </row>
     <row r="710" ht="15.75" customHeight="1">
-      <c r="A710" s="40"/>
+      <c r="A710" s="42"/>
     </row>
     <row r="711" ht="15.75" customHeight="1">
-      <c r="A711" s="40"/>
+      <c r="A711" s="42"/>
     </row>
     <row r="712" ht="15.75" customHeight="1">
-      <c r="A712" s="40"/>
+      <c r="A712" s="42"/>
     </row>
     <row r="713" ht="15.75" customHeight="1">
-      <c r="A713" s="40"/>
+      <c r="A713" s="42"/>
     </row>
     <row r="714" ht="15.75" customHeight="1">
-      <c r="A714" s="40"/>
+      <c r="A714" s="42"/>
     </row>
     <row r="715" ht="15.75" customHeight="1">
-      <c r="A715" s="40"/>
+      <c r="A715" s="42"/>
     </row>
     <row r="716" ht="15.75" customHeight="1">
-      <c r="A716" s="40"/>
+      <c r="A716" s="42"/>
     </row>
     <row r="717" ht="15.75" customHeight="1">
-      <c r="A717" s="40"/>
+      <c r="A717" s="42"/>
     </row>
     <row r="718" ht="15.75" customHeight="1">
-      <c r="A718" s="40"/>
+      <c r="A718" s="42"/>
     </row>
     <row r="719" ht="15.75" customHeight="1">
-      <c r="A719" s="40"/>
+      <c r="A719" s="42"/>
     </row>
     <row r="720" ht="15.75" customHeight="1">
-      <c r="A720" s="40"/>
+      <c r="A720" s="42"/>
     </row>
     <row r="721" ht="15.75" customHeight="1">
-      <c r="A721" s="40"/>
+      <c r="A721" s="42"/>
     </row>
     <row r="722" ht="15.75" customHeight="1">
-      <c r="A722" s="40"/>
+      <c r="A722" s="42"/>
     </row>
     <row r="723" ht="15.75" customHeight="1">
-      <c r="A723" s="40"/>
+      <c r="A723" s="42"/>
     </row>
     <row r="724" ht="15.75" customHeight="1">
-      <c r="A724" s="40"/>
+      <c r="A724" s="42"/>
     </row>
     <row r="725" ht="15.75" customHeight="1">
-      <c r="A725" s="40"/>
+      <c r="A725" s="42"/>
     </row>
     <row r="726" ht="15.75" customHeight="1">
-      <c r="A726" s="40"/>
+      <c r="A726" s="42"/>
     </row>
     <row r="727" ht="15.75" customHeight="1">
-      <c r="A727" s="40"/>
+      <c r="A727" s="42"/>
     </row>
     <row r="728" ht="15.75" customHeight="1">
-      <c r="A728" s="40"/>
+      <c r="A728" s="42"/>
     </row>
     <row r="729" ht="15.75" customHeight="1">
-      <c r="A729" s="40"/>
+      <c r="A729" s="42"/>
     </row>
     <row r="730" ht="15.75" customHeight="1">
-      <c r="A730" s="40"/>
+      <c r="A730" s="42"/>
     </row>
     <row r="731" ht="15.75" customHeight="1">
-      <c r="A731" s="40"/>
+      <c r="A731" s="42"/>
     </row>
     <row r="732" ht="15.75" customHeight="1">
-      <c r="A732" s="40"/>
+      <c r="A732" s="42"/>
     </row>
     <row r="733" ht="15.75" customHeight="1">
-      <c r="A733" s="40"/>
+      <c r="A733" s="42"/>
     </row>
     <row r="734" ht="15.75" customHeight="1">
-      <c r="A734" s="40"/>
+      <c r="A734" s="42"/>
     </row>
     <row r="735" ht="15.75" customHeight="1">
-      <c r="A735" s="40"/>
+      <c r="A735" s="42"/>
     </row>
     <row r="736" ht="15.75" customHeight="1">
-      <c r="A736" s="40"/>
+      <c r="A736" s="42"/>
     </row>
     <row r="737" ht="15.75" customHeight="1">
-      <c r="A737" s="40"/>
+      <c r="A737" s="42"/>
     </row>
     <row r="738" ht="15.75" customHeight="1">
-      <c r="A738" s="40"/>
+      <c r="A738" s="42"/>
     </row>
     <row r="739" ht="15.75" customHeight="1">
-      <c r="A739" s="40"/>
+      <c r="A739" s="42"/>
     </row>
     <row r="740" ht="15.75" customHeight="1">
-      <c r="A740" s="40"/>
+      <c r="A740" s="42"/>
     </row>
     <row r="741" ht="15.75" customHeight="1">
-      <c r="A741" s="40"/>
+      <c r="A741" s="42"/>
     </row>
     <row r="742" ht="15.75" customHeight="1">
-      <c r="A742" s="40"/>
+      <c r="A742" s="42"/>
     </row>
     <row r="743" ht="15.75" customHeight="1">
-      <c r="A743" s="40"/>
+      <c r="A743" s="42"/>
     </row>
     <row r="744" ht="15.75" customHeight="1">
-      <c r="A744" s="40"/>
+      <c r="A744" s="42"/>
     </row>
     <row r="745" ht="15.75" customHeight="1">
-      <c r="A745" s="40"/>
+      <c r="A745" s="42"/>
     </row>
     <row r="746" ht="15.75" customHeight="1">
-      <c r="A746" s="40"/>
+      <c r="A746" s="42"/>
     </row>
     <row r="747" ht="15.75" customHeight="1">
-      <c r="A747" s="40"/>
+      <c r="A747" s="42"/>
     </row>
     <row r="748" ht="15.75" customHeight="1">
-      <c r="A748" s="40"/>
+      <c r="A748" s="42"/>
     </row>
     <row r="749" ht="15.75" customHeight="1">
-      <c r="A749" s="40"/>
+      <c r="A749" s="42"/>
     </row>
     <row r="750" ht="15.75" customHeight="1">
-      <c r="A750" s="40"/>
+      <c r="A750" s="42"/>
     </row>
     <row r="751" ht="15.75" customHeight="1">
-      <c r="A751" s="40"/>
+      <c r="A751" s="42"/>
     </row>
     <row r="752" ht="15.75" customHeight="1">
-      <c r="A752" s="40"/>
+      <c r="A752" s="42"/>
     </row>
     <row r="753" ht="15.75" customHeight="1">
-      <c r="A753" s="40"/>
+      <c r="A753" s="42"/>
     </row>
     <row r="754" ht="15.75" customHeight="1">
-      <c r="A754" s="40"/>
+      <c r="A754" s="42"/>
     </row>
     <row r="755" ht="15.75" customHeight="1">
-      <c r="A755" s="40"/>
+      <c r="A755" s="42"/>
     </row>
     <row r="756" ht="15.75" customHeight="1">
-      <c r="A756" s="40"/>
+      <c r="A756" s="42"/>
     </row>
     <row r="757" ht="15.75" customHeight="1">
-      <c r="A757" s="40"/>
+      <c r="A757" s="42"/>
     </row>
     <row r="758" ht="15.75" customHeight="1">
-      <c r="A758" s="40"/>
+      <c r="A758" s="42"/>
     </row>
     <row r="759" ht="15.75" customHeight="1">
-      <c r="A759" s="40"/>
+      <c r="A759" s="42"/>
     </row>
     <row r="760" ht="15.75" customHeight="1">
-      <c r="A760" s="40"/>
+      <c r="A760" s="42"/>
     </row>
     <row r="761" ht="15.75" customHeight="1">
-      <c r="A761" s="40"/>
+      <c r="A761" s="42"/>
     </row>
     <row r="762" ht="15.75" customHeight="1">
-      <c r="A762" s="40"/>
+      <c r="A762" s="42"/>
     </row>
     <row r="763" ht="15.75" customHeight="1">
-      <c r="A763" s="40"/>
+      <c r="A763" s="42"/>
     </row>
     <row r="764" ht="15.75" customHeight="1">
-      <c r="A764" s="40"/>
+      <c r="A764" s="42"/>
     </row>
     <row r="765" ht="15.75" customHeight="1">
-      <c r="A765" s="40"/>
+      <c r="A765" s="42"/>
     </row>
     <row r="766" ht="15.75" customHeight="1">
-      <c r="A766" s="40"/>
+      <c r="A766" s="42"/>
     </row>
     <row r="767" ht="15.75" customHeight="1">
-      <c r="A767" s="40"/>
+      <c r="A767" s="42"/>
     </row>
     <row r="768" ht="15.75" customHeight="1">
-      <c r="A768" s="40"/>
+      <c r="A768" s="42"/>
     </row>
     <row r="769" ht="15.75" customHeight="1">
-      <c r="A769" s="40"/>
+      <c r="A769" s="42"/>
     </row>
     <row r="770" ht="15.75" customHeight="1">
-      <c r="A770" s="40"/>
+      <c r="A770" s="42"/>
     </row>
     <row r="771" ht="15.75" customHeight="1">
-      <c r="A771" s="40"/>
+      <c r="A771" s="42"/>
     </row>
     <row r="772" ht="15.75" customHeight="1">
-      <c r="A772" s="40"/>
+      <c r="A772" s="42"/>
     </row>
     <row r="773" ht="15.75" customHeight="1">
-      <c r="A773" s="40"/>
+      <c r="A773" s="42"/>
     </row>
     <row r="774" ht="15.75" customHeight="1">
-      <c r="A774" s="40"/>
+      <c r="A774" s="42"/>
     </row>
     <row r="775" ht="15.75" customHeight="1">
-      <c r="A775" s="40"/>
+      <c r="A775" s="42"/>
     </row>
     <row r="776" ht="15.75" customHeight="1">
-      <c r="A776" s="40"/>
+      <c r="A776" s="42"/>
     </row>
     <row r="777" ht="15.75" customHeight="1">
-      <c r="A777" s="40"/>
+      <c r="A777" s="42"/>
     </row>
     <row r="778" ht="15.75" customHeight="1">
-      <c r="A778" s="40"/>
+      <c r="A778" s="42"/>
     </row>
     <row r="779" ht="15.75" customHeight="1">
-      <c r="A779" s="40"/>
+      <c r="A779" s="42"/>
     </row>
     <row r="780" ht="15.75" customHeight="1">
-      <c r="A780" s="40"/>
+      <c r="A780" s="42"/>
     </row>
     <row r="781" ht="15.75" customHeight="1">
-      <c r="A781" s="40"/>
+      <c r="A781" s="42"/>
     </row>
     <row r="782" ht="15.75" customHeight="1">
-      <c r="A782" s="40"/>
+      <c r="A782" s="42"/>
     </row>
     <row r="783" ht="15.75" customHeight="1">
-      <c r="A783" s="40"/>
+      <c r="A783" s="42"/>
     </row>
     <row r="784" ht="15.75" customHeight="1">
-      <c r="A784" s="40"/>
+      <c r="A784" s="42"/>
     </row>
     <row r="785" ht="15.75" customHeight="1">
-      <c r="A785" s="40"/>
+      <c r="A785" s="42"/>
     </row>
     <row r="786" ht="15.75" customHeight="1">
-      <c r="A786" s="40"/>
+      <c r="A786" s="42"/>
     </row>
     <row r="787" ht="15.75" customHeight="1">
-      <c r="A787" s="40"/>
+      <c r="A787" s="42"/>
     </row>
     <row r="788" ht="15.75" customHeight="1">
-      <c r="A788" s="40"/>
+      <c r="A788" s="42"/>
     </row>
     <row r="789" ht="15.75" customHeight="1">
-      <c r="A789" s="40"/>
+      <c r="A789" s="42"/>
     </row>
     <row r="790" ht="15.75" customHeight="1">
-      <c r="A790" s="40"/>
+      <c r="A790" s="42"/>
     </row>
     <row r="791" ht="15.75" customHeight="1">
-      <c r="A791" s="40"/>
+      <c r="A791" s="42"/>
     </row>
     <row r="792" ht="15.75" customHeight="1">
-      <c r="A792" s="40"/>
+      <c r="A792" s="42"/>
     </row>
     <row r="793" ht="15.75" customHeight="1">
-      <c r="A793" s="40"/>
+      <c r="A793" s="42"/>
     </row>
     <row r="794" ht="15.75" customHeight="1">
-      <c r="A794" s="40"/>
+      <c r="A794" s="42"/>
     </row>
     <row r="795" ht="15.75" customHeight="1">
-      <c r="A795" s="40"/>
+      <c r="A795" s="42"/>
     </row>
     <row r="796" ht="15.75" customHeight="1">
-      <c r="A796" s="40"/>
+      <c r="A796" s="42"/>
     </row>
     <row r="797" ht="15.75" customHeight="1">
-      <c r="A797" s="40"/>
+      <c r="A797" s="42"/>
     </row>
     <row r="798" ht="15.75" customHeight="1">
-      <c r="A798" s="40"/>
+      <c r="A798" s="42"/>
     </row>
     <row r="799" ht="15.75" customHeight="1">
-      <c r="A799" s="40"/>
+      <c r="A799" s="42"/>
     </row>
     <row r="800" ht="15.75" customHeight="1">
-      <c r="A800" s="40"/>
+      <c r="A800" s="42"/>
     </row>
     <row r="801" ht="15.75" customHeight="1">
-      <c r="A801" s="40"/>
+      <c r="A801" s="42"/>
     </row>
     <row r="802" ht="15.75" customHeight="1">
-      <c r="A802" s="40"/>
+      <c r="A802" s="42"/>
     </row>
     <row r="803" ht="15.75" customHeight="1">
-      <c r="A803" s="40"/>
+      <c r="A803" s="42"/>
     </row>
     <row r="804" ht="15.75" customHeight="1">
-      <c r="A804" s="40"/>
+      <c r="A804" s="42"/>
     </row>
     <row r="805" ht="15.75" customHeight="1">
-      <c r="A805" s="40"/>
+      <c r="A805" s="42"/>
     </row>
     <row r="806" ht="15.75" customHeight="1">
-      <c r="A806" s="40"/>
+      <c r="A806" s="42"/>
     </row>
     <row r="807" ht="15.75" customHeight="1">
-      <c r="A807" s="40"/>
+      <c r="A807" s="42"/>
     </row>
     <row r="808" ht="15.75" customHeight="1">
-      <c r="A808" s="40"/>
+      <c r="A808" s="42"/>
     </row>
     <row r="809" ht="15.75" customHeight="1">
-      <c r="A809" s="40"/>
+      <c r="A809" s="42"/>
     </row>
     <row r="810" ht="15.75" customHeight="1">
-      <c r="A810" s="40"/>
+      <c r="A810" s="42"/>
     </row>
     <row r="811" ht="15.75" customHeight="1">
-      <c r="A811" s="40"/>
+      <c r="A811" s="42"/>
     </row>
     <row r="812" ht="15.75" customHeight="1">
-      <c r="A812" s="40"/>
+      <c r="A812" s="42"/>
     </row>
     <row r="813" ht="15.75" customHeight="1">
-      <c r="A813" s="40"/>
+      <c r="A813" s="42"/>
     </row>
     <row r="814" ht="15.75" customHeight="1">
-      <c r="A814" s="40"/>
+      <c r="A814" s="42"/>
     </row>
     <row r="815" ht="15.75" customHeight="1">
-      <c r="A815" s="40"/>
+      <c r="A815" s="42"/>
     </row>
     <row r="816" ht="15.75" customHeight="1">
-      <c r="A816" s="40"/>
+      <c r="A816" s="42"/>
     </row>
     <row r="817" ht="15.75" customHeight="1">
-      <c r="A817" s="40"/>
+      <c r="A817" s="42"/>
     </row>
     <row r="818" ht="15.75" customHeight="1">
-      <c r="A818" s="40"/>
+      <c r="A818" s="42"/>
     </row>
     <row r="819" ht="15.75" customHeight="1">
-      <c r="A819" s="40"/>
+      <c r="A819" s="42"/>
     </row>
     <row r="820" ht="15.75" customHeight="1">
-      <c r="A820" s="40"/>
+      <c r="A820" s="42"/>
     </row>
     <row r="821" ht="15.75" customHeight="1">
-      <c r="A821" s="40"/>
+      <c r="A821" s="42"/>
     </row>
     <row r="822" ht="15.75" customHeight="1">
-      <c r="A822" s="40"/>
+      <c r="A822" s="42"/>
     </row>
     <row r="823" ht="15.75" customHeight="1">
-      <c r="A823" s="40"/>
+      <c r="A823" s="42"/>
     </row>
     <row r="824" ht="15.75" customHeight="1">
-      <c r="A824" s="40"/>
+      <c r="A824" s="42"/>
     </row>
     <row r="825" ht="15.75" customHeight="1">
-      <c r="A825" s="40"/>
+      <c r="A825" s="42"/>
     </row>
     <row r="826" ht="15.75" customHeight="1">
-      <c r="A826" s="40"/>
+      <c r="A826" s="42"/>
     </row>
     <row r="827" ht="15.75" customHeight="1">
-      <c r="A827" s="40"/>
+      <c r="A827" s="42"/>
     </row>
     <row r="828" ht="15.75" customHeight="1">
-      <c r="A828" s="40"/>
+      <c r="A828" s="42"/>
     </row>
     <row r="829" ht="15.75" customHeight="1">
-      <c r="A829" s="40"/>
+      <c r="A829" s="42"/>
     </row>
     <row r="830" ht="15.75" customHeight="1">
-      <c r="A830" s="40"/>
+      <c r="A830" s="42"/>
     </row>
     <row r="831" ht="15.75" customHeight="1">
-      <c r="A831" s="40"/>
+      <c r="A831" s="42"/>
     </row>
     <row r="832" ht="15.75" customHeight="1">
-      <c r="A832" s="40"/>
+      <c r="A832" s="42"/>
     </row>
     <row r="833" ht="15.75" customHeight="1">
-      <c r="A833" s="40"/>
+      <c r="A833" s="42"/>
     </row>
     <row r="834" ht="15.75" customHeight="1">
-      <c r="A834" s="40"/>
+      <c r="A834" s="42"/>
     </row>
     <row r="835" ht="15.75" customHeight="1">
-      <c r="A835" s="40"/>
+      <c r="A835" s="42"/>
     </row>
     <row r="836" ht="15.75" customHeight="1">
-      <c r="A836" s="40"/>
+      <c r="A836" s="42"/>
     </row>
     <row r="837" ht="15.75" customHeight="1">
-      <c r="A837" s="40"/>
+      <c r="A837" s="42"/>
     </row>
     <row r="838" ht="15.75" customHeight="1">
-      <c r="A838" s="40"/>
+      <c r="A838" s="42"/>
     </row>
     <row r="839" ht="15.75" customHeight="1">
-      <c r="A839" s="40"/>
+      <c r="A839" s="42"/>
     </row>
     <row r="840" ht="15.75" customHeight="1">
-      <c r="A840" s="40"/>
+      <c r="A840" s="42"/>
     </row>
     <row r="841" ht="15.75" customHeight="1">
-      <c r="A841" s="40"/>
+      <c r="A841" s="42"/>
     </row>
     <row r="842" ht="15.75" customHeight="1">
-      <c r="A842" s="40"/>
+      <c r="A842" s="42"/>
     </row>
     <row r="843" ht="15.75" customHeight="1">
-      <c r="A843" s="40"/>
+      <c r="A843" s="42"/>
     </row>
     <row r="844" ht="15.75" customHeight="1">
-      <c r="A844" s="40"/>
+      <c r="A844" s="42"/>
     </row>
     <row r="845" ht="15.75" customHeight="1">
-      <c r="A845" s="40"/>
+      <c r="A845" s="42"/>
     </row>
     <row r="846" ht="15.75" customHeight="1">
-      <c r="A846" s="40"/>
+      <c r="A846" s="42"/>
     </row>
     <row r="847" ht="15.75" customHeight="1">
-      <c r="A847" s="40"/>
+      <c r="A847" s="42"/>
     </row>
     <row r="848" ht="15.75" customHeight="1">
-      <c r="A848" s="40"/>
+      <c r="A848" s="42"/>
     </row>
     <row r="849" ht="15.75" customHeight="1">
-      <c r="A849" s="40"/>
+      <c r="A849" s="42"/>
     </row>
     <row r="850" ht="15.75" customHeight="1">
-      <c r="A850" s="40"/>
+      <c r="A850" s="42"/>
     </row>
     <row r="851" ht="15.75" customHeight="1">
-      <c r="A851" s="40"/>
+      <c r="A851" s="42"/>
     </row>
     <row r="852" ht="15.75" customHeight="1">
-      <c r="A852" s="40"/>
+      <c r="A852" s="42"/>
     </row>
     <row r="853" ht="15.75" customHeight="1">
-      <c r="A853" s="40"/>
+      <c r="A853" s="42"/>
     </row>
     <row r="854" ht="15.75" customHeight="1">
-      <c r="A854" s="40"/>
+      <c r="A854" s="42"/>
     </row>
     <row r="855" ht="15.75" customHeight="1">
-      <c r="A855" s="40"/>
+      <c r="A855" s="42"/>
     </row>
     <row r="856" ht="15.75" customHeight="1">
-      <c r="A856" s="40"/>
+      <c r="A856" s="42"/>
     </row>
     <row r="857" ht="15.75" customHeight="1">
-      <c r="A857" s="40"/>
+      <c r="A857" s="42"/>
     </row>
     <row r="858" ht="15.75" customHeight="1">
-      <c r="A858" s="40"/>
+      <c r="A858" s="42"/>
     </row>
     <row r="859" ht="15.75" customHeight="1">
-      <c r="A859" s="40"/>
+      <c r="A859" s="42"/>
     </row>
     <row r="860" ht="15.75" customHeight="1">
-      <c r="A860" s="40"/>
+      <c r="A860" s="42"/>
     </row>
     <row r="861" ht="15.75" customHeight="1">
-      <c r="A861" s="40"/>
+      <c r="A861" s="42"/>
     </row>
     <row r="862" ht="15.75" customHeight="1">
-      <c r="A862" s="40"/>
+      <c r="A862" s="42"/>
     </row>
     <row r="863" ht="15.75" customHeight="1">
-      <c r="A863" s="40"/>
+      <c r="A863" s="42"/>
     </row>
     <row r="864" ht="15.75" customHeight="1">
-      <c r="A864" s="40"/>
+      <c r="A864" s="42"/>
     </row>
     <row r="865" ht="15.75" customHeight="1">
-      <c r="A865" s="40"/>
+      <c r="A865" s="42"/>
     </row>
     <row r="866" ht="15.75" customHeight="1">
-      <c r="A866" s="40"/>
+      <c r="A866" s="42"/>
     </row>
     <row r="867" ht="15.75" customHeight="1">
-      <c r="A867" s="40"/>
+      <c r="A867" s="42"/>
     </row>
     <row r="868" ht="15.75" customHeight="1">
-      <c r="A868" s="40"/>
+      <c r="A868" s="42"/>
     </row>
     <row r="869" ht="15.75" customHeight="1">
-      <c r="A869" s="40"/>
+      <c r="A869" s="42"/>
     </row>
     <row r="870" ht="15.75" customHeight="1">
-      <c r="A870" s="40"/>
+      <c r="A870" s="42"/>
     </row>
     <row r="871" ht="15.75" customHeight="1">
-      <c r="A871" s="40"/>
+      <c r="A871" s="42"/>
     </row>
     <row r="872" ht="15.75" customHeight="1">
-      <c r="A872" s="40"/>
+      <c r="A872" s="42"/>
     </row>
     <row r="873" ht="15.75" customHeight="1">
-      <c r="A873" s="40"/>
+      <c r="A873" s="42"/>
     </row>
     <row r="874" ht="15.75" customHeight="1">
-      <c r="A874" s="40"/>
+      <c r="A874" s="42"/>
     </row>
     <row r="875" ht="15.75" customHeight="1">
-      <c r="A875" s="40"/>
+      <c r="A875" s="42"/>
     </row>
     <row r="876" ht="15.75" customHeight="1">
-      <c r="A876" s="40"/>
+      <c r="A876" s="42"/>
     </row>
     <row r="877" ht="15.75" customHeight="1">
-      <c r="A877" s="40"/>
+      <c r="A877" s="42"/>
     </row>
     <row r="878" ht="15.75" customHeight="1">
-      <c r="A878" s="40"/>
+      <c r="A878" s="42"/>
     </row>
     <row r="879" ht="15.75" customHeight="1">
-      <c r="A879" s="40"/>
+      <c r="A879" s="42"/>
     </row>
     <row r="880" ht="15.75" customHeight="1">
-      <c r="A880" s="40"/>
+      <c r="A880" s="42"/>
     </row>
     <row r="881" ht="15.75" customHeight="1">
-      <c r="A881" s="40"/>
+      <c r="A881" s="42"/>
     </row>
     <row r="882" ht="15.75" customHeight="1">
-      <c r="A882" s="40"/>
+      <c r="A882" s="42"/>
     </row>
     <row r="883" ht="15.75" customHeight="1">
-      <c r="A883" s="40"/>
+      <c r="A883" s="42"/>
     </row>
     <row r="884" ht="15.75" customHeight="1">
-      <c r="A884" s="40"/>
+      <c r="A884" s="42"/>
     </row>
     <row r="885" ht="15.75" customHeight="1">
-      <c r="A885" s="40"/>
+      <c r="A885" s="42"/>
     </row>
     <row r="886" ht="15.75" customHeight="1">
-      <c r="A886" s="40"/>
+      <c r="A886" s="42"/>
     </row>
     <row r="887" ht="15.75" customHeight="1">
-      <c r="A887" s="40"/>
+      <c r="A887" s="42"/>
     </row>
     <row r="888" ht="15.75" customHeight="1">
-      <c r="A888" s="40"/>
+      <c r="A888" s="42"/>
     </row>
     <row r="889" ht="15.75" customHeight="1">
-      <c r="A889" s="40"/>
+      <c r="A889" s="42"/>
     </row>
     <row r="890" ht="15.75" customHeight="1">
-      <c r="A890" s="40"/>
+      <c r="A890" s="42"/>
     </row>
     <row r="891" ht="15.75" customHeight="1">
-      <c r="A891" s="40"/>
+      <c r="A891" s="42"/>
     </row>
     <row r="892" ht="15.75" customHeight="1">
-      <c r="A892" s="40"/>
+      <c r="A892" s="42"/>
     </row>
     <row r="893" ht="15.75" customHeight="1">
-      <c r="A893" s="40"/>
+      <c r="A893" s="42"/>
     </row>
     <row r="894" ht="15.75" customHeight="1">
-      <c r="A894" s="40"/>
+      <c r="A894" s="42"/>
     </row>
     <row r="895" ht="15.75" customHeight="1">
-      <c r="A895" s="40"/>
+      <c r="A895" s="42"/>
     </row>
     <row r="896" ht="15.75" customHeight="1">
-      <c r="A896" s="40"/>
+      <c r="A896" s="42"/>
     </row>
     <row r="897" ht="15.75" customHeight="1">
-      <c r="A897" s="40"/>
+      <c r="A897" s="42"/>
     </row>
     <row r="898" ht="15.75" customHeight="1">
-      <c r="A898" s="40"/>
+      <c r="A898" s="42"/>
     </row>
     <row r="899" ht="15.75" customHeight="1">
-      <c r="A899" s="40"/>
+      <c r="A899" s="42"/>
     </row>
     <row r="900" ht="15.75" customHeight="1">
-      <c r="A900" s="40"/>
+      <c r="A900" s="42"/>
     </row>
     <row r="901" ht="15.75" customHeight="1">
-      <c r="A901" s="40"/>
+      <c r="A901" s="42"/>
     </row>
     <row r="902" ht="15.75" customHeight="1">
-      <c r="A902" s="40"/>
+      <c r="A902" s="42"/>
     </row>
     <row r="903" ht="15.75" customHeight="1">
-      <c r="A903" s="40"/>
+      <c r="A903" s="42"/>
     </row>
     <row r="904" ht="15.75" customHeight="1">
-      <c r="A904" s="40"/>
+      <c r="A904" s="42"/>
     </row>
     <row r="905" ht="15.75" customHeight="1">
-      <c r="A905" s="40"/>
+      <c r="A905" s="42"/>
     </row>
     <row r="906" ht="15.75" customHeight="1">
-      <c r="A906" s="40"/>
+      <c r="A906" s="42"/>
     </row>
     <row r="907" ht="15.75" customHeight="1">
-      <c r="A907" s="40"/>
+      <c r="A907" s="42"/>
     </row>
     <row r="908" ht="15.75" customHeight="1">
-      <c r="A908" s="40"/>
+      <c r="A908" s="42"/>
     </row>
     <row r="909" ht="15.75" customHeight="1">
-      <c r="A909" s="40"/>
+      <c r="A909" s="42"/>
     </row>
     <row r="910" ht="15.75" customHeight="1">
-      <c r="A910" s="40"/>
+      <c r="A910" s="42"/>
     </row>
     <row r="911" ht="15.75" customHeight="1">
-      <c r="A911" s="40"/>
+      <c r="A911" s="42"/>
     </row>
     <row r="912" ht="15.75" customHeight="1">
-      <c r="A912" s="40"/>
+      <c r="A912" s="42"/>
     </row>
     <row r="913" ht="15.75" customHeight="1">
-      <c r="A913" s="40"/>
+      <c r="A913" s="42"/>
     </row>
     <row r="914" ht="15.75" customHeight="1">
-      <c r="A914" s="40"/>
+      <c r="A914" s="42"/>
     </row>
     <row r="915" ht="15.75" customHeight="1">
-      <c r="A915" s="40"/>
+      <c r="A915" s="42"/>
     </row>
     <row r="916" ht="15.75" customHeight="1">
-      <c r="A916" s="40"/>
+      <c r="A916" s="42"/>
     </row>
     <row r="917" ht="15.75" customHeight="1">
-      <c r="A917" s="40"/>
+      <c r="A917" s="42"/>
     </row>
     <row r="918" ht="15.75" customHeight="1">
-      <c r="A918" s="40"/>
+      <c r="A918" s="42"/>
     </row>
     <row r="919" ht="15.75" customHeight="1">
-      <c r="A919" s="40"/>
+      <c r="A919" s="42"/>
     </row>
     <row r="920" ht="15.75" customHeight="1">
-      <c r="A920" s="40"/>
+      <c r="A920" s="42"/>
     </row>
     <row r="921" ht="15.75" customHeight="1">
-      <c r="A921" s="40"/>
+      <c r="A921" s="42"/>
     </row>
     <row r="922" ht="15.75" customHeight="1">
-      <c r="A922" s="40"/>
+      <c r="A922" s="42"/>
     </row>
     <row r="923" ht="15.75" customHeight="1">
-      <c r="A923" s="40"/>
+      <c r="A923" s="42"/>
     </row>
     <row r="924" ht="15.75" customHeight="1">
-      <c r="A924" s="40"/>
+      <c r="A924" s="42"/>
     </row>
     <row r="925" ht="15.75" customHeight="1">
-      <c r="A925" s="40"/>
+      <c r="A925" s="42"/>
     </row>
     <row r="926" ht="15.75" customHeight="1">
-      <c r="A926" s="40"/>
+      <c r="A926" s="42"/>
     </row>
     <row r="927" ht="15.75" customHeight="1">
-      <c r="A927" s="40"/>
+      <c r="A927" s="42"/>
     </row>
     <row r="928" ht="15.75" customHeight="1">
-      <c r="A928" s="40"/>
+      <c r="A928" s="42"/>
     </row>
     <row r="929" ht="15.75" customHeight="1">
-      <c r="A929" s="40"/>
+      <c r="A929" s="42"/>
     </row>
     <row r="930" ht="15.75" customHeight="1">
-      <c r="A930" s="40"/>
+      <c r="A930" s="42"/>
     </row>
     <row r="931" ht="15.75" customHeight="1">
-      <c r="A931" s="40"/>
+      <c r="A931" s="42"/>
     </row>
     <row r="932" ht="15.75" customHeight="1">
-      <c r="A932" s="40"/>
+      <c r="A932" s="42"/>
     </row>
     <row r="933" ht="15.75" customHeight="1">
-      <c r="A933" s="40"/>
+      <c r="A933" s="42"/>
     </row>
     <row r="934" ht="15.75" customHeight="1">
-      <c r="A934" s="40"/>
+      <c r="A934" s="42"/>
     </row>
     <row r="935" ht="15.75" customHeight="1">
-      <c r="A935" s="40"/>
+      <c r="A935" s="42"/>
     </row>
     <row r="936" ht="15.75" customHeight="1">
-      <c r="A936" s="40"/>
+      <c r="A936" s="42"/>
     </row>
     <row r="937" ht="15.75" customHeight="1">
-      <c r="A937" s="40"/>
+      <c r="A937" s="42"/>
     </row>
     <row r="938" ht="15.75" customHeight="1">
-      <c r="A938" s="40"/>
+      <c r="A938" s="42"/>
     </row>
     <row r="939" ht="15.75" customHeight="1">
-      <c r="A939" s="40"/>
+      <c r="A939" s="42"/>
     </row>
     <row r="940" ht="15.75" customHeight="1">
-      <c r="A940" s="40"/>
+      <c r="A940" s="42"/>
     </row>
     <row r="941" ht="15.75" customHeight="1">
-      <c r="A941" s="40"/>
+      <c r="A941" s="42"/>
     </row>
     <row r="942" ht="15.75" customHeight="1">
-      <c r="A942" s="40"/>
+      <c r="A942" s="42"/>
     </row>
     <row r="943" ht="15.75" customHeight="1">
-      <c r="A943" s="40"/>
+      <c r="A943" s="42"/>
     </row>
     <row r="944" ht="15.75" customHeight="1">
-      <c r="A944" s="40"/>
+      <c r="A944" s="42"/>
     </row>
     <row r="945" ht="15.75" customHeight="1">
-      <c r="A945" s="40"/>
+      <c r="A945" s="42"/>
     </row>
     <row r="946" ht="15.75" customHeight="1">
-      <c r="A946" s="40"/>
+      <c r="A946" s="42"/>
     </row>
     <row r="947" ht="15.75" customHeight="1">
-      <c r="A947" s="40"/>
+      <c r="A947" s="42"/>
     </row>
     <row r="948" ht="15.75" customHeight="1">
-      <c r="A948" s="40"/>
+      <c r="A948" s="42"/>
     </row>
     <row r="949" ht="15.75" customHeight="1">
-      <c r="A949" s="40"/>
+      <c r="A949" s="42"/>
     </row>
     <row r="950" ht="15.75" customHeight="1">
-      <c r="A950" s="40"/>
+      <c r="A950" s="42"/>
     </row>
     <row r="951" ht="15.75" customHeight="1">
-      <c r="A951" s="40"/>
+      <c r="A951" s="42"/>
     </row>
     <row r="952" ht="15.75" customHeight="1">
-      <c r="A952" s="40"/>
+      <c r="A952" s="42"/>
     </row>
     <row r="953" ht="15.75" customHeight="1">
-      <c r="A953" s="40"/>
+      <c r="A953" s="42"/>
     </row>
     <row r="954" ht="15.75" customHeight="1">
-      <c r="A954" s="40"/>
+      <c r="A954" s="42"/>
     </row>
     <row r="955" ht="15.75" customHeight="1">
-      <c r="A955" s="40"/>
+      <c r="A955" s="42"/>
     </row>
     <row r="956" ht="15.75" customHeight="1">
-      <c r="A956" s="40"/>
+      <c r="A956" s="42"/>
     </row>
     <row r="957" ht="15.75" customHeight="1">
-      <c r="A957" s="40"/>
+      <c r="A957" s="42"/>
     </row>
     <row r="958" ht="15.75" customHeight="1">
-      <c r="A958" s="40"/>
+      <c r="A958" s="42"/>
     </row>
     <row r="959" ht="15.75" customHeight="1">
-      <c r="A959" s="40"/>
+      <c r="A959" s="42"/>
     </row>
     <row r="960" ht="15.75" customHeight="1">
-      <c r="A960" s="40"/>
+      <c r="A960" s="42"/>
     </row>
     <row r="961" ht="15.75" customHeight="1">
-      <c r="A961" s="40"/>
+      <c r="A961" s="42"/>
     </row>
     <row r="962" ht="15.75" customHeight="1">
-      <c r="A962" s="40"/>
+      <c r="A962" s="42"/>
     </row>
     <row r="963" ht="15.75" customHeight="1">
-      <c r="A963" s="40"/>
+      <c r="A963" s="42"/>
     </row>
     <row r="964" ht="15.75" customHeight="1">
-      <c r="A964" s="40"/>
+      <c r="A964" s="42"/>
     </row>
     <row r="965" ht="15.75" customHeight="1">
-      <c r="A965" s="40"/>
+      <c r="A965" s="42"/>
     </row>
     <row r="966" ht="15.75" customHeight="1">
-      <c r="A966" s="40"/>
+      <c r="A966" s="42"/>
     </row>
     <row r="967" ht="15.75" customHeight="1">
-      <c r="A967" s="40"/>
+      <c r="A967" s="42"/>
     </row>
     <row r="968" ht="15.75" customHeight="1">
-      <c r="A968" s="40"/>
+      <c r="A968" s="42"/>
     </row>
     <row r="969" ht="15.75" customHeight="1">
-      <c r="A969" s="40"/>
+      <c r="A969" s="42"/>
     </row>
     <row r="970" ht="15.75" customHeight="1">
-      <c r="A970" s="40"/>
+      <c r="A970" s="42"/>
     </row>
     <row r="971" ht="15.75" customHeight="1">
-      <c r="A971" s="40"/>
+      <c r="A971" s="42"/>
     </row>
     <row r="972" ht="15.75" customHeight="1">
-      <c r="A972" s="40"/>
+      <c r="A972" s="42"/>
     </row>
     <row r="973" ht="15.75" customHeight="1">
-      <c r="A973" s="40"/>
+      <c r="A973" s="42"/>
     </row>
     <row r="974" ht="15.75" customHeight="1">
-      <c r="A974" s="40"/>
+      <c r="A974" s="42"/>
     </row>
     <row r="975" ht="15.75" customHeight="1">
-      <c r="A975" s="40"/>
+      <c r="A975" s="42"/>
     </row>
     <row r="976" ht="15.75" customHeight="1">
-      <c r="A976" s="40"/>
+      <c r="A976" s="42"/>
     </row>
     <row r="977" ht="15.75" customHeight="1">
-      <c r="A977" s="40"/>
+      <c r="A977" s="42"/>
     </row>
     <row r="978" ht="15.75" customHeight="1">
-      <c r="A978" s="40"/>
+      <c r="A978" s="42"/>
     </row>
     <row r="979" ht="15.75" customHeight="1">
-      <c r="A979" s="40"/>
+      <c r="A979" s="42"/>
     </row>
     <row r="980" ht="15.75" customHeight="1">
-      <c r="A980" s="40"/>
+      <c r="A980" s="42"/>
     </row>
     <row r="981" ht="15.75" customHeight="1">
-      <c r="A981" s="40"/>
+      <c r="A981" s="42"/>
     </row>
     <row r="982" ht="15.75" customHeight="1">
-      <c r="A982" s="40"/>
+      <c r="A982" s="42"/>
     </row>
     <row r="983" ht="15.75" customHeight="1">
-      <c r="A983" s="40"/>
+      <c r="A983" s="42"/>
     </row>
     <row r="984" ht="15.75" customHeight="1">
-      <c r="A984" s="40"/>
+      <c r="A984" s="42"/>
     </row>
     <row r="985" ht="15.75" customHeight="1">
-      <c r="A985" s="40"/>
+      <c r="A985" s="42"/>
     </row>
     <row r="986" ht="15.75" customHeight="1">
-      <c r="A986" s="40"/>
+      <c r="A986" s="42"/>
     </row>
     <row r="987" ht="15.75" customHeight="1">
-      <c r="A987" s="40"/>
+      <c r="A987" s="42"/>
     </row>
     <row r="988" ht="15.75" customHeight="1">
-      <c r="A988" s="40"/>
+      <c r="A988" s="42"/>
     </row>
     <row r="989" ht="15.75" customHeight="1">
-      <c r="A989" s="40"/>
+      <c r="A989" s="42"/>
     </row>
     <row r="990" ht="15.75" customHeight="1">
-      <c r="A990" s="40"/>
+      <c r="A990" s="42"/>
     </row>
     <row r="991" ht="15.75" customHeight="1">
-      <c r="A991" s="40"/>
+      <c r="A991" s="42"/>
     </row>
     <row r="992" ht="15.75" customHeight="1">
-      <c r="A992" s="40"/>
+      <c r="A992" s="42"/>
     </row>
     <row r="993" ht="15.75" customHeight="1">
-      <c r="A993" s="40"/>
+      <c r="A993" s="42"/>
     </row>
     <row r="994" ht="15.75" customHeight="1">
-      <c r="A994" s="40"/>
+      <c r="A994" s="42"/>
     </row>
     <row r="995" ht="15.75" customHeight="1">
-      <c r="A995" s="40"/>
+      <c r="A995" s="42"/>
     </row>
     <row r="996" ht="15.75" customHeight="1">
-      <c r="A996" s="40"/>
+      <c r="A996" s="42"/>
     </row>
     <row r="997" ht="15.75" customHeight="1">
-      <c r="A997" s="40"/>
+      <c r="A997" s="42"/>
     </row>
     <row r="998" ht="15.75" customHeight="1">
-      <c r="A998" s="40"/>
+      <c r="A998" s="42"/>
     </row>
     <row r="999" ht="15.75" customHeight="1">
-      <c r="A999" s="40"/>
+      <c r="A999" s="42"/>
     </row>
     <row r="1000" ht="15.75" customHeight="1">
-      <c r="A1000" s="40"/>
+      <c r="A1000" s="42"/>
     </row>
     <row r="1001" ht="15.75" customHeight="1">
-      <c r="A1001" s="40"/>
+      <c r="A1001" s="42"/>
     </row>
     <row r="1002" ht="15.75" customHeight="1">
-      <c r="A1002" s="40"/>
+      <c r="A1002" s="42"/>
     </row>
     <row r="1003" ht="15.75" customHeight="1">
-      <c r="A1003" s="40"/>
+      <c r="A1003" s="42"/>
     </row>
     <row r="1004" ht="15.75" customHeight="1">
-      <c r="A1004" s="40"/>
+      <c r="A1004" s="42"/>
     </row>
     <row r="1005" ht="15.75" customHeight="1">
-      <c r="A1005" s="40"/>
+      <c r="A1005" s="42"/>
     </row>
     <row r="1006" ht="15.75" customHeight="1">
-      <c r="A1006" s="40"/>
+      <c r="A1006" s="42"/>
     </row>
     <row r="1007" ht="15.75" customHeight="1">
-      <c r="A1007" s="40"/>
+      <c r="A1007" s="42"/>
     </row>
     <row r="1008" ht="15.75" customHeight="1">
-      <c r="A1008" s="40"/>
+      <c r="A1008" s="42"/>
     </row>
     <row r="1009" ht="15.75" customHeight="1">
-      <c r="A1009" s="40"/>
+      <c r="A1009" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="31">
@@ -5165,7 +5162,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="43" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3"/>
@@ -5177,7 +5174,7 @@
     <row r="2">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="44" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="6" t="s">
@@ -5422,16 +5419,16 @@
         <v>42</v>
       </c>
       <c r="C15" s="9"/>
-      <c r="D15" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9" t="s">
-        <v>184</v>
+      <c r="D15" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="30"/>
+      <c r="F15" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="30"/>
+      <c r="H15" s="29" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="16">
@@ -5441,7 +5438,7 @@
       <c r="B16" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="31" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="16"/>
@@ -5451,10 +5448,10 @@
       <c r="H16" s="17"/>
     </row>
     <row r="17">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="33" t="s">
         <v>49</v>
       </c>
       <c r="C17" s="9" t="s">
@@ -5765,22 +5762,22 @@
       <c r="B35" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C35" s="32" t="s">
+      <c r="C35" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="D35" s="33" t="s">
+      <c r="D35" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="E35" s="33" t="s">
+      <c r="E35" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="F35" s="33" t="s">
+      <c r="F35" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="G35" s="33" t="s">
+      <c r="G35" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="H35" s="33" t="s">
+      <c r="H35" s="35" t="s">
         <v>105</v>
       </c>
     </row>
@@ -5811,20 +5808,20 @@
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="35" t="s">
+      <c r="A37" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="B37" s="35" t="s">
+      <c r="B37" s="37" t="s">
         <v>115</v>
       </c>
       <c r="C37" s="18">
         <v>0.0</v>
       </c>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="14" t="s">
@@ -5917,7 +5914,7 @@
       <c r="B42" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="C42" s="29" t="s">
+      <c r="C42" s="31" t="s">
         <v>14</v>
       </c>
       <c r="D42" s="16"/>
@@ -5966,7 +5963,7 @@
         <v>135</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D45" s="12"/>
       <c r="E45" s="12"/>
@@ -6014,7 +6011,7 @@
         <v>144</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D48" s="18"/>
       <c r="E48" s="12"/>
@@ -6023,13 +6020,13 @@
       <c r="H48" s="6"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="43" t="s">
+      <c r="A49" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="B49" s="43" t="s">
+      <c r="B49" s="45" t="s">
         <v>147</v>
       </c>
-      <c r="C49" s="44" t="s">
+      <c r="C49" s="46" t="s">
         <v>148</v>
       </c>
       <c r="D49" s="27"/>
@@ -6130,7 +6127,7 @@
       <c r="E55" s="12"/>
       <c r="F55" s="9"/>
       <c r="G55" s="9" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H55" s="12"/>
     </row>
@@ -6166,19 +6163,19 @@
       <c r="A58" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="B58" s="37" t="s">
+      <c r="B58" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="C58" s="38">
+      <c r="C58" s="40">
         <v>0.5</v>
       </c>
-      <c r="D58" s="38">
+      <c r="D58" s="40">
         <v>0.08333333333333333</v>
       </c>
-      <c r="E58" s="38">
+      <c r="E58" s="40">
         <v>0.08333333333333333</v>
       </c>
-      <c r="F58" s="38">
+      <c r="F58" s="40">
         <v>0.08333333333333333</v>
       </c>
       <c r="G58" s="12"/>
@@ -6188,20 +6185,20 @@
       <c r="A59" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="B59" s="39" t="s">
+      <c r="B59" s="41" t="s">
         <v>171</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G59" s="12"/>
       <c r="H59" s="12"/>
@@ -6216,11 +6213,11 @@
       <c r="C60" s="15"/>
       <c r="D60" s="15"/>
       <c r="E60" s="15"/>
-      <c r="F60" s="38"/>
-      <c r="G60" s="38">
+      <c r="F60" s="40"/>
+      <c r="G60" s="40">
         <v>0.4166666666666667</v>
       </c>
-      <c r="H60" s="38">
+      <c r="H60" s="40">
         <v>0.08333333333333333</v>
       </c>
     </row>
@@ -6236,10 +6233,10 @@
       <c r="E61" s="12"/>
       <c r="F61" s="9"/>
       <c r="G61" s="9" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H61" s="9" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
@@ -7284,7 +7281,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="43" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3"/>
@@ -7296,7 +7293,7 @@
     <row r="2">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="44" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="6" t="s">
@@ -7323,7 +7320,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>11</v>
@@ -7548,7 +7545,7 @@
       <c r="B16" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="31" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="16"/>
@@ -7558,10 +7555,10 @@
       <c r="H16" s="17"/>
     </row>
     <row r="17">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="32" t="s">
         <v>49</v>
       </c>
       <c r="C17" s="9" t="s">
@@ -7872,22 +7869,22 @@
       <c r="B35" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C35" s="32" t="s">
+      <c r="C35" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="D35" s="33" t="s">
+      <c r="D35" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="E35" s="33" t="s">
+      <c r="E35" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="F35" s="33" t="s">
+      <c r="F35" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="G35" s="33" t="s">
+      <c r="G35" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="H35" s="33" t="s">
+      <c r="H35" s="35" t="s">
         <v>105</v>
       </c>
     </row>
@@ -7918,20 +7915,20 @@
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="35" t="s">
+      <c r="A37" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="B37" s="34" t="s">
+      <c r="B37" s="36" t="s">
         <v>115</v>
       </c>
       <c r="C37" s="18">
         <v>0.0</v>
       </c>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="14" t="s">
@@ -7941,7 +7938,7 @@
         <v>117</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
@@ -7957,13 +7954,13 @@
         <v>120</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F39" s="9" t="s">
         <v>122</v>
@@ -8024,7 +8021,7 @@
       <c r="B42" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="C42" s="29" t="s">
+      <c r="C42" s="31" t="s">
         <v>14</v>
       </c>
       <c r="D42" s="16"/>
@@ -8057,7 +8054,7 @@
         <v>133</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D44" s="16"/>
       <c r="E44" s="16"/>
@@ -8073,7 +8070,7 @@
         <v>135</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D45" s="12"/>
       <c r="E45" s="12"/>
@@ -8089,7 +8086,7 @@
         <v>138</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D46" s="18"/>
       <c r="E46" s="12"/>
@@ -8105,7 +8102,7 @@
         <v>141</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D47" s="18"/>
       <c r="E47" s="12"/>
@@ -8115,13 +8112,13 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="26" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B48" s="28" t="s">
         <v>144</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D48" s="18"/>
       <c r="E48" s="12"/>
@@ -8137,7 +8134,7 @@
         <v>147</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D49" s="18"/>
       <c r="E49" s="12"/>
@@ -8255,7 +8252,7 @@
       <c r="C57" s="12"/>
       <c r="D57" s="12"/>
       <c r="E57" s="9" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F57" s="12"/>
       <c r="G57" s="12"/>
@@ -8265,12 +8262,12 @@
       <c r="A58" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="B58" s="45" t="s">
+      <c r="B58" s="47" t="s">
         <v>169</v>
       </c>
-      <c r="C58" s="46"/>
-      <c r="D58" s="46"/>
-      <c r="E58" s="46"/>
+      <c r="C58" s="48"/>
+      <c r="D58" s="48"/>
+      <c r="E58" s="48"/>
       <c r="F58" s="12"/>
       <c r="G58" s="12"/>
       <c r="H58" s="12"/>
@@ -8279,12 +8276,12 @@
       <c r="A59" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="B59" s="39" t="s">
+      <c r="B59" s="41" t="s">
         <v>171</v>
       </c>
-      <c r="C59" s="46"/>
-      <c r="D59" s="46"/>
-      <c r="E59" s="46"/>
+      <c r="C59" s="48"/>
+      <c r="D59" s="48"/>
+      <c r="E59" s="48"/>
       <c r="F59" s="12"/>
       <c r="G59" s="12"/>
       <c r="H59" s="12"/>
@@ -8350,2842 +8347,2842 @@
       <c r="H63" s="17"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="B64" s="40"/>
+      <c r="B64" s="42"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="B65" s="40"/>
+      <c r="B65" s="42"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="B66" s="40"/>
+      <c r="B66" s="42"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="B67" s="40"/>
+      <c r="B67" s="42"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="B68" s="40"/>
+      <c r="B68" s="42"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="B69" s="40"/>
+      <c r="B69" s="42"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="B70" s="40"/>
+      <c r="B70" s="42"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="B71" s="40"/>
+      <c r="B71" s="42"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="B72" s="40"/>
+      <c r="B72" s="42"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="B73" s="40"/>
+      <c r="B73" s="42"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="B74" s="40"/>
+      <c r="B74" s="42"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="B75" s="40"/>
+      <c r="B75" s="42"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="B76" s="40"/>
+      <c r="B76" s="42"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="B77" s="40"/>
+      <c r="B77" s="42"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="B78" s="40"/>
+      <c r="B78" s="42"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="B79" s="40"/>
+      <c r="B79" s="42"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="B80" s="40"/>
+      <c r="B80" s="42"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="B81" s="40"/>
+      <c r="B81" s="42"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="B82" s="40"/>
+      <c r="B82" s="42"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="B83" s="40"/>
+      <c r="B83" s="42"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="B84" s="40"/>
+      <c r="B84" s="42"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="B85" s="40"/>
+      <c r="B85" s="42"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="B86" s="40"/>
+      <c r="B86" s="42"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="B87" s="40"/>
+      <c r="B87" s="42"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="B88" s="40"/>
+      <c r="B88" s="42"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="B89" s="40"/>
+      <c r="B89" s="42"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="B90" s="40"/>
+      <c r="B90" s="42"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="B91" s="40"/>
+      <c r="B91" s="42"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="B92" s="40"/>
+      <c r="B92" s="42"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="B93" s="40"/>
+      <c r="B93" s="42"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="B94" s="40"/>
+      <c r="B94" s="42"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="B95" s="40"/>
+      <c r="B95" s="42"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="B96" s="40"/>
+      <c r="B96" s="42"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="B97" s="40"/>
+      <c r="B97" s="42"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="B98" s="40"/>
+      <c r="B98" s="42"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="B99" s="40"/>
+      <c r="B99" s="42"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="B100" s="40"/>
+      <c r="B100" s="42"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="B101" s="40"/>
+      <c r="B101" s="42"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="B102" s="40"/>
+      <c r="B102" s="42"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="B103" s="40"/>
+      <c r="B103" s="42"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="B104" s="40"/>
+      <c r="B104" s="42"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="B105" s="40"/>
+      <c r="B105" s="42"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="B106" s="40"/>
+      <c r="B106" s="42"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="B107" s="40"/>
+      <c r="B107" s="42"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="B108" s="40"/>
+      <c r="B108" s="42"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="B109" s="40"/>
+      <c r="B109" s="42"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="B110" s="40"/>
+      <c r="B110" s="42"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="B111" s="40"/>
+      <c r="B111" s="42"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="B112" s="40"/>
+      <c r="B112" s="42"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="B113" s="40"/>
+      <c r="B113" s="42"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="B114" s="40"/>
+      <c r="B114" s="42"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="B115" s="40"/>
+      <c r="B115" s="42"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="B116" s="40"/>
+      <c r="B116" s="42"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="B117" s="40"/>
+      <c r="B117" s="42"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="B118" s="40"/>
+      <c r="B118" s="42"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="B119" s="40"/>
+      <c r="B119" s="42"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="B120" s="40"/>
+      <c r="B120" s="42"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="B121" s="40"/>
+      <c r="B121" s="42"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="B122" s="40"/>
+      <c r="B122" s="42"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="B123" s="40"/>
+      <c r="B123" s="42"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="B124" s="40"/>
+      <c r="B124" s="42"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="B125" s="40"/>
+      <c r="B125" s="42"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="B126" s="40"/>
+      <c r="B126" s="42"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="B127" s="40"/>
+      <c r="B127" s="42"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="B128" s="40"/>
+      <c r="B128" s="42"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="B129" s="40"/>
+      <c r="B129" s="42"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="B130" s="40"/>
+      <c r="B130" s="42"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="B131" s="40"/>
+      <c r="B131" s="42"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="B132" s="40"/>
+      <c r="B132" s="42"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="B133" s="40"/>
+      <c r="B133" s="42"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="B134" s="40"/>
+      <c r="B134" s="42"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="B135" s="40"/>
+      <c r="B135" s="42"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="B136" s="40"/>
+      <c r="B136" s="42"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="B137" s="40"/>
+      <c r="B137" s="42"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="B138" s="40"/>
+      <c r="B138" s="42"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="B139" s="40"/>
+      <c r="B139" s="42"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="B140" s="40"/>
+      <c r="B140" s="42"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="B141" s="40"/>
+      <c r="B141" s="42"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="B142" s="40"/>
+      <c r="B142" s="42"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="B143" s="40"/>
+      <c r="B143" s="42"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="B144" s="40"/>
+      <c r="B144" s="42"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="B145" s="40"/>
+      <c r="B145" s="42"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="B146" s="40"/>
+      <c r="B146" s="42"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="B147" s="40"/>
+      <c r="B147" s="42"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="B148" s="40"/>
+      <c r="B148" s="42"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="B149" s="40"/>
+      <c r="B149" s="42"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="B150" s="40"/>
+      <c r="B150" s="42"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="B151" s="40"/>
+      <c r="B151" s="42"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="B152" s="40"/>
+      <c r="B152" s="42"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="B153" s="40"/>
+      <c r="B153" s="42"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="B154" s="40"/>
+      <c r="B154" s="42"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="B155" s="40"/>
+      <c r="B155" s="42"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="B156" s="40"/>
+      <c r="B156" s="42"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="B157" s="40"/>
+      <c r="B157" s="42"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="B158" s="40"/>
+      <c r="B158" s="42"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="B159" s="40"/>
+      <c r="B159" s="42"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="B160" s="40"/>
+      <c r="B160" s="42"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="B161" s="40"/>
+      <c r="B161" s="42"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="B162" s="40"/>
+      <c r="B162" s="42"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="B163" s="40"/>
+      <c r="B163" s="42"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="B164" s="40"/>
+      <c r="B164" s="42"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="B165" s="40"/>
+      <c r="B165" s="42"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="B166" s="40"/>
+      <c r="B166" s="42"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="B167" s="40"/>
+      <c r="B167" s="42"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="B168" s="40"/>
+      <c r="B168" s="42"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="B169" s="40"/>
+      <c r="B169" s="42"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="B170" s="40"/>
+      <c r="B170" s="42"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="B171" s="40"/>
+      <c r="B171" s="42"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="B172" s="40"/>
+      <c r="B172" s="42"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="B173" s="40"/>
+      <c r="B173" s="42"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="B174" s="40"/>
+      <c r="B174" s="42"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="B175" s="40"/>
+      <c r="B175" s="42"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="B176" s="40"/>
+      <c r="B176" s="42"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="B177" s="40"/>
+      <c r="B177" s="42"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="B178" s="40"/>
+      <c r="B178" s="42"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="B179" s="40"/>
+      <c r="B179" s="42"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="B180" s="40"/>
+      <c r="B180" s="42"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="B181" s="40"/>
+      <c r="B181" s="42"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="B182" s="40"/>
+      <c r="B182" s="42"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="B183" s="40"/>
+      <c r="B183" s="42"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="B184" s="40"/>
+      <c r="B184" s="42"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="B185" s="40"/>
+      <c r="B185" s="42"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="B186" s="40"/>
+      <c r="B186" s="42"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="B187" s="40"/>
+      <c r="B187" s="42"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="B188" s="40"/>
+      <c r="B188" s="42"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="B189" s="40"/>
+      <c r="B189" s="42"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="B190" s="40"/>
+      <c r="B190" s="42"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="B191" s="40"/>
+      <c r="B191" s="42"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="B192" s="40"/>
+      <c r="B192" s="42"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="B193" s="40"/>
+      <c r="B193" s="42"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="B194" s="40"/>
+      <c r="B194" s="42"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="B195" s="40"/>
+      <c r="B195" s="42"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="B196" s="40"/>
+      <c r="B196" s="42"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="B197" s="40"/>
+      <c r="B197" s="42"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="B198" s="40"/>
+      <c r="B198" s="42"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="B199" s="40"/>
+      <c r="B199" s="42"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="B200" s="40"/>
+      <c r="B200" s="42"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="B201" s="40"/>
+      <c r="B201" s="42"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="B202" s="40"/>
+      <c r="B202" s="42"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="B203" s="40"/>
+      <c r="B203" s="42"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="B204" s="40"/>
+      <c r="B204" s="42"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="B205" s="40"/>
+      <c r="B205" s="42"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="B206" s="40"/>
+      <c r="B206" s="42"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="B207" s="40"/>
+      <c r="B207" s="42"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="B208" s="40"/>
+      <c r="B208" s="42"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="B209" s="40"/>
+      <c r="B209" s="42"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="B210" s="40"/>
+      <c r="B210" s="42"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="B211" s="40"/>
+      <c r="B211" s="42"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="B212" s="40"/>
+      <c r="B212" s="42"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="B213" s="40"/>
+      <c r="B213" s="42"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="B214" s="40"/>
+      <c r="B214" s="42"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="B215" s="40"/>
+      <c r="B215" s="42"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="B216" s="40"/>
+      <c r="B216" s="42"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="B217" s="40"/>
+      <c r="B217" s="42"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="B218" s="40"/>
+      <c r="B218" s="42"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="B219" s="40"/>
+      <c r="B219" s="42"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="B220" s="40"/>
+      <c r="B220" s="42"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="B221" s="40"/>
+      <c r="B221" s="42"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
-      <c r="B222" s="40"/>
+      <c r="B222" s="42"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
-      <c r="B223" s="40"/>
+      <c r="B223" s="42"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
-      <c r="B224" s="40"/>
+      <c r="B224" s="42"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
-      <c r="B225" s="40"/>
+      <c r="B225" s="42"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
-      <c r="B226" s="40"/>
+      <c r="B226" s="42"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
-      <c r="B227" s="40"/>
+      <c r="B227" s="42"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
-      <c r="B228" s="40"/>
+      <c r="B228" s="42"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
-      <c r="B229" s="40"/>
+      <c r="B229" s="42"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
-      <c r="B230" s="40"/>
+      <c r="B230" s="42"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
-      <c r="B231" s="40"/>
+      <c r="B231" s="42"/>
     </row>
     <row r="232" ht="15.75" customHeight="1">
-      <c r="B232" s="40"/>
+      <c r="B232" s="42"/>
     </row>
     <row r="233" ht="15.75" customHeight="1">
-      <c r="B233" s="40"/>
+      <c r="B233" s="42"/>
     </row>
     <row r="234" ht="15.75" customHeight="1">
-      <c r="B234" s="40"/>
+      <c r="B234" s="42"/>
     </row>
     <row r="235" ht="15.75" customHeight="1">
-      <c r="B235" s="40"/>
+      <c r="B235" s="42"/>
     </row>
     <row r="236" ht="15.75" customHeight="1">
-      <c r="B236" s="40"/>
+      <c r="B236" s="42"/>
     </row>
     <row r="237" ht="15.75" customHeight="1">
-      <c r="B237" s="40"/>
+      <c r="B237" s="42"/>
     </row>
     <row r="238" ht="15.75" customHeight="1">
-      <c r="B238" s="40"/>
+      <c r="B238" s="42"/>
     </row>
     <row r="239" ht="15.75" customHeight="1">
-      <c r="B239" s="40"/>
+      <c r="B239" s="42"/>
     </row>
     <row r="240" ht="15.75" customHeight="1">
-      <c r="B240" s="40"/>
+      <c r="B240" s="42"/>
     </row>
     <row r="241" ht="15.75" customHeight="1">
-      <c r="B241" s="40"/>
+      <c r="B241" s="42"/>
     </row>
     <row r="242" ht="15.75" customHeight="1">
-      <c r="B242" s="40"/>
+      <c r="B242" s="42"/>
     </row>
     <row r="243" ht="15.75" customHeight="1">
-      <c r="B243" s="40"/>
+      <c r="B243" s="42"/>
     </row>
     <row r="244" ht="15.75" customHeight="1">
-      <c r="B244" s="40"/>
+      <c r="B244" s="42"/>
     </row>
     <row r="245" ht="15.75" customHeight="1">
-      <c r="B245" s="40"/>
+      <c r="B245" s="42"/>
     </row>
     <row r="246" ht="15.75" customHeight="1">
-      <c r="B246" s="40"/>
+      <c r="B246" s="42"/>
     </row>
     <row r="247" ht="15.75" customHeight="1">
-      <c r="B247" s="40"/>
+      <c r="B247" s="42"/>
     </row>
     <row r="248" ht="15.75" customHeight="1">
-      <c r="B248" s="40"/>
+      <c r="B248" s="42"/>
     </row>
     <row r="249" ht="15.75" customHeight="1">
-      <c r="B249" s="40"/>
+      <c r="B249" s="42"/>
     </row>
     <row r="250" ht="15.75" customHeight="1">
-      <c r="B250" s="40"/>
+      <c r="B250" s="42"/>
     </row>
     <row r="251" ht="15.75" customHeight="1">
-      <c r="B251" s="40"/>
+      <c r="B251" s="42"/>
     </row>
     <row r="252" ht="15.75" customHeight="1">
-      <c r="B252" s="40"/>
+      <c r="B252" s="42"/>
     </row>
     <row r="253" ht="15.75" customHeight="1">
-      <c r="B253" s="40"/>
+      <c r="B253" s="42"/>
     </row>
     <row r="254" ht="15.75" customHeight="1">
-      <c r="B254" s="40"/>
+      <c r="B254" s="42"/>
     </row>
     <row r="255" ht="15.75" customHeight="1">
-      <c r="B255" s="40"/>
+      <c r="B255" s="42"/>
     </row>
     <row r="256" ht="15.75" customHeight="1">
-      <c r="B256" s="40"/>
+      <c r="B256" s="42"/>
     </row>
     <row r="257" ht="15.75" customHeight="1">
-      <c r="B257" s="40"/>
+      <c r="B257" s="42"/>
     </row>
     <row r="258" ht="15.75" customHeight="1">
-      <c r="B258" s="40"/>
+      <c r="B258" s="42"/>
     </row>
     <row r="259" ht="15.75" customHeight="1">
-      <c r="B259" s="40"/>
+      <c r="B259" s="42"/>
     </row>
     <row r="260" ht="15.75" customHeight="1">
-      <c r="B260" s="40"/>
+      <c r="B260" s="42"/>
     </row>
     <row r="261" ht="15.75" customHeight="1">
-      <c r="B261" s="40"/>
+      <c r="B261" s="42"/>
     </row>
     <row r="262" ht="15.75" customHeight="1">
-      <c r="B262" s="40"/>
+      <c r="B262" s="42"/>
     </row>
     <row r="263" ht="15.75" customHeight="1">
-      <c r="B263" s="40"/>
+      <c r="B263" s="42"/>
     </row>
     <row r="264" ht="15.75" customHeight="1">
-      <c r="B264" s="40"/>
+      <c r="B264" s="42"/>
     </row>
     <row r="265" ht="15.75" customHeight="1">
-      <c r="B265" s="40"/>
+      <c r="B265" s="42"/>
     </row>
     <row r="266" ht="15.75" customHeight="1">
-      <c r="B266" s="40"/>
+      <c r="B266" s="42"/>
     </row>
     <row r="267" ht="15.75" customHeight="1">
-      <c r="B267" s="40"/>
+      <c r="B267" s="42"/>
     </row>
     <row r="268" ht="15.75" customHeight="1">
-      <c r="B268" s="40"/>
+      <c r="B268" s="42"/>
     </row>
     <row r="269" ht="15.75" customHeight="1">
-      <c r="B269" s="40"/>
+      <c r="B269" s="42"/>
     </row>
     <row r="270" ht="15.75" customHeight="1">
-      <c r="B270" s="40"/>
+      <c r="B270" s="42"/>
     </row>
     <row r="271" ht="15.75" customHeight="1">
-      <c r="B271" s="40"/>
+      <c r="B271" s="42"/>
     </row>
     <row r="272" ht="15.75" customHeight="1">
-      <c r="B272" s="40"/>
+      <c r="B272" s="42"/>
     </row>
     <row r="273" ht="15.75" customHeight="1">
-      <c r="B273" s="40"/>
+      <c r="B273" s="42"/>
     </row>
     <row r="274" ht="15.75" customHeight="1">
-      <c r="B274" s="40"/>
+      <c r="B274" s="42"/>
     </row>
     <row r="275" ht="15.75" customHeight="1">
-      <c r="B275" s="40"/>
+      <c r="B275" s="42"/>
     </row>
     <row r="276" ht="15.75" customHeight="1">
-      <c r="B276" s="40"/>
+      <c r="B276" s="42"/>
     </row>
     <row r="277" ht="15.75" customHeight="1">
-      <c r="B277" s="40"/>
+      <c r="B277" s="42"/>
     </row>
     <row r="278" ht="15.75" customHeight="1">
-      <c r="B278" s="40"/>
+      <c r="B278" s="42"/>
     </row>
     <row r="279" ht="15.75" customHeight="1">
-      <c r="B279" s="40"/>
+      <c r="B279" s="42"/>
     </row>
     <row r="280" ht="15.75" customHeight="1">
-      <c r="B280" s="40"/>
+      <c r="B280" s="42"/>
     </row>
     <row r="281" ht="15.75" customHeight="1">
-      <c r="B281" s="40"/>
+      <c r="B281" s="42"/>
     </row>
     <row r="282" ht="15.75" customHeight="1">
-      <c r="B282" s="40"/>
+      <c r="B282" s="42"/>
     </row>
     <row r="283" ht="15.75" customHeight="1">
-      <c r="B283" s="40"/>
+      <c r="B283" s="42"/>
     </row>
     <row r="284" ht="15.75" customHeight="1">
-      <c r="B284" s="40"/>
+      <c r="B284" s="42"/>
     </row>
     <row r="285" ht="15.75" customHeight="1">
-      <c r="B285" s="40"/>
+      <c r="B285" s="42"/>
     </row>
     <row r="286" ht="15.75" customHeight="1">
-      <c r="B286" s="40"/>
+      <c r="B286" s="42"/>
     </row>
     <row r="287" ht="15.75" customHeight="1">
-      <c r="B287" s="40"/>
+      <c r="B287" s="42"/>
     </row>
     <row r="288" ht="15.75" customHeight="1">
-      <c r="B288" s="40"/>
+      <c r="B288" s="42"/>
     </row>
     <row r="289" ht="15.75" customHeight="1">
-      <c r="B289" s="40"/>
+      <c r="B289" s="42"/>
     </row>
     <row r="290" ht="15.75" customHeight="1">
-      <c r="B290" s="40"/>
+      <c r="B290" s="42"/>
     </row>
     <row r="291" ht="15.75" customHeight="1">
-      <c r="B291" s="40"/>
+      <c r="B291" s="42"/>
     </row>
     <row r="292" ht="15.75" customHeight="1">
-      <c r="B292" s="40"/>
+      <c r="B292" s="42"/>
     </row>
     <row r="293" ht="15.75" customHeight="1">
-      <c r="B293" s="40"/>
+      <c r="B293" s="42"/>
     </row>
     <row r="294" ht="15.75" customHeight="1">
-      <c r="B294" s="40"/>
+      <c r="B294" s="42"/>
     </row>
     <row r="295" ht="15.75" customHeight="1">
-      <c r="B295" s="40"/>
+      <c r="B295" s="42"/>
     </row>
     <row r="296" ht="15.75" customHeight="1">
-      <c r="B296" s="40"/>
+      <c r="B296" s="42"/>
     </row>
     <row r="297" ht="15.75" customHeight="1">
-      <c r="B297" s="40"/>
+      <c r="B297" s="42"/>
     </row>
     <row r="298" ht="15.75" customHeight="1">
-      <c r="B298" s="40"/>
+      <c r="B298" s="42"/>
     </row>
     <row r="299" ht="15.75" customHeight="1">
-      <c r="B299" s="40"/>
+      <c r="B299" s="42"/>
     </row>
     <row r="300" ht="15.75" customHeight="1">
-      <c r="B300" s="40"/>
+      <c r="B300" s="42"/>
     </row>
     <row r="301" ht="15.75" customHeight="1">
-      <c r="B301" s="40"/>
+      <c r="B301" s="42"/>
     </row>
     <row r="302" ht="15.75" customHeight="1">
-      <c r="B302" s="40"/>
+      <c r="B302" s="42"/>
     </row>
     <row r="303" ht="15.75" customHeight="1">
-      <c r="B303" s="40"/>
+      <c r="B303" s="42"/>
     </row>
     <row r="304" ht="15.75" customHeight="1">
-      <c r="B304" s="40"/>
+      <c r="B304" s="42"/>
     </row>
     <row r="305" ht="15.75" customHeight="1">
-      <c r="B305" s="40"/>
+      <c r="B305" s="42"/>
     </row>
     <row r="306" ht="15.75" customHeight="1">
-      <c r="B306" s="40"/>
+      <c r="B306" s="42"/>
     </row>
     <row r="307" ht="15.75" customHeight="1">
-      <c r="B307" s="40"/>
+      <c r="B307" s="42"/>
     </row>
     <row r="308" ht="15.75" customHeight="1">
-      <c r="B308" s="40"/>
+      <c r="B308" s="42"/>
     </row>
     <row r="309" ht="15.75" customHeight="1">
-      <c r="B309" s="40"/>
+      <c r="B309" s="42"/>
     </row>
     <row r="310" ht="15.75" customHeight="1">
-      <c r="B310" s="40"/>
+      <c r="B310" s="42"/>
     </row>
     <row r="311" ht="15.75" customHeight="1">
-      <c r="B311" s="40"/>
+      <c r="B311" s="42"/>
     </row>
     <row r="312" ht="15.75" customHeight="1">
-      <c r="B312" s="40"/>
+      <c r="B312" s="42"/>
     </row>
     <row r="313" ht="15.75" customHeight="1">
-      <c r="B313" s="40"/>
+      <c r="B313" s="42"/>
     </row>
     <row r="314" ht="15.75" customHeight="1">
-      <c r="B314" s="40"/>
+      <c r="B314" s="42"/>
     </row>
     <row r="315" ht="15.75" customHeight="1">
-      <c r="B315" s="40"/>
+      <c r="B315" s="42"/>
     </row>
     <row r="316" ht="15.75" customHeight="1">
-      <c r="B316" s="40"/>
+      <c r="B316" s="42"/>
     </row>
     <row r="317" ht="15.75" customHeight="1">
-      <c r="B317" s="40"/>
+      <c r="B317" s="42"/>
     </row>
     <row r="318" ht="15.75" customHeight="1">
-      <c r="B318" s="40"/>
+      <c r="B318" s="42"/>
     </row>
     <row r="319" ht="15.75" customHeight="1">
-      <c r="B319" s="40"/>
+      <c r="B319" s="42"/>
     </row>
     <row r="320" ht="15.75" customHeight="1">
-      <c r="B320" s="40"/>
+      <c r="B320" s="42"/>
     </row>
     <row r="321" ht="15.75" customHeight="1">
-      <c r="B321" s="40"/>
+      <c r="B321" s="42"/>
     </row>
     <row r="322" ht="15.75" customHeight="1">
-      <c r="B322" s="40"/>
+      <c r="B322" s="42"/>
     </row>
     <row r="323" ht="15.75" customHeight="1">
-      <c r="B323" s="40"/>
+      <c r="B323" s="42"/>
     </row>
     <row r="324" ht="15.75" customHeight="1">
-      <c r="B324" s="40"/>
+      <c r="B324" s="42"/>
     </row>
     <row r="325" ht="15.75" customHeight="1">
-      <c r="B325" s="40"/>
+      <c r="B325" s="42"/>
     </row>
     <row r="326" ht="15.75" customHeight="1">
-      <c r="B326" s="40"/>
+      <c r="B326" s="42"/>
     </row>
     <row r="327" ht="15.75" customHeight="1">
-      <c r="B327" s="40"/>
+      <c r="B327" s="42"/>
     </row>
     <row r="328" ht="15.75" customHeight="1">
-      <c r="B328" s="40"/>
+      <c r="B328" s="42"/>
     </row>
     <row r="329" ht="15.75" customHeight="1">
-      <c r="B329" s="40"/>
+      <c r="B329" s="42"/>
     </row>
     <row r="330" ht="15.75" customHeight="1">
-      <c r="B330" s="40"/>
+      <c r="B330" s="42"/>
     </row>
     <row r="331" ht="15.75" customHeight="1">
-      <c r="B331" s="40"/>
+      <c r="B331" s="42"/>
     </row>
     <row r="332" ht="15.75" customHeight="1">
-      <c r="B332" s="40"/>
+      <c r="B332" s="42"/>
     </row>
     <row r="333" ht="15.75" customHeight="1">
-      <c r="B333" s="40"/>
+      <c r="B333" s="42"/>
     </row>
     <row r="334" ht="15.75" customHeight="1">
-      <c r="B334" s="40"/>
+      <c r="B334" s="42"/>
     </row>
     <row r="335" ht="15.75" customHeight="1">
-      <c r="B335" s="40"/>
+      <c r="B335" s="42"/>
     </row>
     <row r="336" ht="15.75" customHeight="1">
-      <c r="B336" s="40"/>
+      <c r="B336" s="42"/>
     </row>
     <row r="337" ht="15.75" customHeight="1">
-      <c r="B337" s="40"/>
+      <c r="B337" s="42"/>
     </row>
     <row r="338" ht="15.75" customHeight="1">
-      <c r="B338" s="40"/>
+      <c r="B338" s="42"/>
     </row>
     <row r="339" ht="15.75" customHeight="1">
-      <c r="B339" s="40"/>
+      <c r="B339" s="42"/>
     </row>
     <row r="340" ht="15.75" customHeight="1">
-      <c r="B340" s="40"/>
+      <c r="B340" s="42"/>
     </row>
     <row r="341" ht="15.75" customHeight="1">
-      <c r="B341" s="40"/>
+      <c r="B341" s="42"/>
     </row>
     <row r="342" ht="15.75" customHeight="1">
-      <c r="B342" s="40"/>
+      <c r="B342" s="42"/>
     </row>
     <row r="343" ht="15.75" customHeight="1">
-      <c r="B343" s="40"/>
+      <c r="B343" s="42"/>
     </row>
     <row r="344" ht="15.75" customHeight="1">
-      <c r="B344" s="40"/>
+      <c r="B344" s="42"/>
     </row>
     <row r="345" ht="15.75" customHeight="1">
-      <c r="B345" s="40"/>
+      <c r="B345" s="42"/>
     </row>
     <row r="346" ht="15.75" customHeight="1">
-      <c r="B346" s="40"/>
+      <c r="B346" s="42"/>
     </row>
     <row r="347" ht="15.75" customHeight="1">
-      <c r="B347" s="40"/>
+      <c r="B347" s="42"/>
     </row>
     <row r="348" ht="15.75" customHeight="1">
-      <c r="B348" s="40"/>
+      <c r="B348" s="42"/>
     </row>
     <row r="349" ht="15.75" customHeight="1">
-      <c r="B349" s="40"/>
+      <c r="B349" s="42"/>
     </row>
     <row r="350" ht="15.75" customHeight="1">
-      <c r="B350" s="40"/>
+      <c r="B350" s="42"/>
     </row>
     <row r="351" ht="15.75" customHeight="1">
-      <c r="B351" s="40"/>
+      <c r="B351" s="42"/>
     </row>
     <row r="352" ht="15.75" customHeight="1">
-      <c r="B352" s="40"/>
+      <c r="B352" s="42"/>
     </row>
     <row r="353" ht="15.75" customHeight="1">
-      <c r="B353" s="40"/>
+      <c r="B353" s="42"/>
     </row>
     <row r="354" ht="15.75" customHeight="1">
-      <c r="B354" s="40"/>
+      <c r="B354" s="42"/>
     </row>
     <row r="355" ht="15.75" customHeight="1">
-      <c r="B355" s="40"/>
+      <c r="B355" s="42"/>
     </row>
     <row r="356" ht="15.75" customHeight="1">
-      <c r="B356" s="40"/>
+      <c r="B356" s="42"/>
     </row>
     <row r="357" ht="15.75" customHeight="1">
-      <c r="B357" s="40"/>
+      <c r="B357" s="42"/>
     </row>
     <row r="358" ht="15.75" customHeight="1">
-      <c r="B358" s="40"/>
+      <c r="B358" s="42"/>
     </row>
     <row r="359" ht="15.75" customHeight="1">
-      <c r="B359" s="40"/>
+      <c r="B359" s="42"/>
     </row>
     <row r="360" ht="15.75" customHeight="1">
-      <c r="B360" s="40"/>
+      <c r="B360" s="42"/>
     </row>
     <row r="361" ht="15.75" customHeight="1">
-      <c r="B361" s="40"/>
+      <c r="B361" s="42"/>
     </row>
     <row r="362" ht="15.75" customHeight="1">
-      <c r="B362" s="40"/>
+      <c r="B362" s="42"/>
     </row>
     <row r="363" ht="15.75" customHeight="1">
-      <c r="B363" s="40"/>
+      <c r="B363" s="42"/>
     </row>
     <row r="364" ht="15.75" customHeight="1">
-      <c r="B364" s="40"/>
+      <c r="B364" s="42"/>
     </row>
     <row r="365" ht="15.75" customHeight="1">
-      <c r="B365" s="40"/>
+      <c r="B365" s="42"/>
     </row>
     <row r="366" ht="15.75" customHeight="1">
-      <c r="B366" s="40"/>
+      <c r="B366" s="42"/>
     </row>
     <row r="367" ht="15.75" customHeight="1">
-      <c r="B367" s="40"/>
+      <c r="B367" s="42"/>
     </row>
     <row r="368" ht="15.75" customHeight="1">
-      <c r="B368" s="40"/>
+      <c r="B368" s="42"/>
     </row>
     <row r="369" ht="15.75" customHeight="1">
-      <c r="B369" s="40"/>
+      <c r="B369" s="42"/>
     </row>
     <row r="370" ht="15.75" customHeight="1">
-      <c r="B370" s="40"/>
+      <c r="B370" s="42"/>
     </row>
     <row r="371" ht="15.75" customHeight="1">
-      <c r="B371" s="40"/>
+      <c r="B371" s="42"/>
     </row>
     <row r="372" ht="15.75" customHeight="1">
-      <c r="B372" s="40"/>
+      <c r="B372" s="42"/>
     </row>
     <row r="373" ht="15.75" customHeight="1">
-      <c r="B373" s="40"/>
+      <c r="B373" s="42"/>
     </row>
     <row r="374" ht="15.75" customHeight="1">
-      <c r="B374" s="40"/>
+      <c r="B374" s="42"/>
     </row>
     <row r="375" ht="15.75" customHeight="1">
-      <c r="B375" s="40"/>
+      <c r="B375" s="42"/>
     </row>
     <row r="376" ht="15.75" customHeight="1">
-      <c r="B376" s="40"/>
+      <c r="B376" s="42"/>
     </row>
     <row r="377" ht="15.75" customHeight="1">
-      <c r="B377" s="40"/>
+      <c r="B377" s="42"/>
     </row>
     <row r="378" ht="15.75" customHeight="1">
-      <c r="B378" s="40"/>
+      <c r="B378" s="42"/>
     </row>
     <row r="379" ht="15.75" customHeight="1">
-      <c r="B379" s="40"/>
+      <c r="B379" s="42"/>
     </row>
     <row r="380" ht="15.75" customHeight="1">
-      <c r="B380" s="40"/>
+      <c r="B380" s="42"/>
     </row>
     <row r="381" ht="15.75" customHeight="1">
-      <c r="B381" s="40"/>
+      <c r="B381" s="42"/>
     </row>
     <row r="382" ht="15.75" customHeight="1">
-      <c r="B382" s="40"/>
+      <c r="B382" s="42"/>
     </row>
     <row r="383" ht="15.75" customHeight="1">
-      <c r="B383" s="40"/>
+      <c r="B383" s="42"/>
     </row>
     <row r="384" ht="15.75" customHeight="1">
-      <c r="B384" s="40"/>
+      <c r="B384" s="42"/>
     </row>
     <row r="385" ht="15.75" customHeight="1">
-      <c r="B385" s="40"/>
+      <c r="B385" s="42"/>
     </row>
     <row r="386" ht="15.75" customHeight="1">
-      <c r="B386" s="40"/>
+      <c r="B386" s="42"/>
     </row>
     <row r="387" ht="15.75" customHeight="1">
-      <c r="B387" s="40"/>
+      <c r="B387" s="42"/>
     </row>
     <row r="388" ht="15.75" customHeight="1">
-      <c r="B388" s="40"/>
+      <c r="B388" s="42"/>
     </row>
     <row r="389" ht="15.75" customHeight="1">
-      <c r="B389" s="40"/>
+      <c r="B389" s="42"/>
     </row>
     <row r="390" ht="15.75" customHeight="1">
-      <c r="B390" s="40"/>
+      <c r="B390" s="42"/>
     </row>
     <row r="391" ht="15.75" customHeight="1">
-      <c r="B391" s="40"/>
+      <c r="B391" s="42"/>
     </row>
     <row r="392" ht="15.75" customHeight="1">
-      <c r="B392" s="40"/>
+      <c r="B392" s="42"/>
     </row>
     <row r="393" ht="15.75" customHeight="1">
-      <c r="B393" s="40"/>
+      <c r="B393" s="42"/>
     </row>
     <row r="394" ht="15.75" customHeight="1">
-      <c r="B394" s="40"/>
+      <c r="B394" s="42"/>
     </row>
     <row r="395" ht="15.75" customHeight="1">
-      <c r="B395" s="40"/>
+      <c r="B395" s="42"/>
     </row>
     <row r="396" ht="15.75" customHeight="1">
-      <c r="B396" s="40"/>
+      <c r="B396" s="42"/>
     </row>
     <row r="397" ht="15.75" customHeight="1">
-      <c r="B397" s="40"/>
+      <c r="B397" s="42"/>
     </row>
     <row r="398" ht="15.75" customHeight="1">
-      <c r="B398" s="40"/>
+      <c r="B398" s="42"/>
     </row>
     <row r="399" ht="15.75" customHeight="1">
-      <c r="B399" s="40"/>
+      <c r="B399" s="42"/>
     </row>
     <row r="400" ht="15.75" customHeight="1">
-      <c r="B400" s="40"/>
+      <c r="B400" s="42"/>
     </row>
     <row r="401" ht="15.75" customHeight="1">
-      <c r="B401" s="40"/>
+      <c r="B401" s="42"/>
     </row>
     <row r="402" ht="15.75" customHeight="1">
-      <c r="B402" s="40"/>
+      <c r="B402" s="42"/>
     </row>
     <row r="403" ht="15.75" customHeight="1">
-      <c r="B403" s="40"/>
+      <c r="B403" s="42"/>
     </row>
     <row r="404" ht="15.75" customHeight="1">
-      <c r="B404" s="40"/>
+      <c r="B404" s="42"/>
     </row>
     <row r="405" ht="15.75" customHeight="1">
-      <c r="B405" s="40"/>
+      <c r="B405" s="42"/>
     </row>
     <row r="406" ht="15.75" customHeight="1">
-      <c r="B406" s="40"/>
+      <c r="B406" s="42"/>
     </row>
     <row r="407" ht="15.75" customHeight="1">
-      <c r="B407" s="40"/>
+      <c r="B407" s="42"/>
     </row>
     <row r="408" ht="15.75" customHeight="1">
-      <c r="B408" s="40"/>
+      <c r="B408" s="42"/>
     </row>
     <row r="409" ht="15.75" customHeight="1">
-      <c r="B409" s="40"/>
+      <c r="B409" s="42"/>
     </row>
     <row r="410" ht="15.75" customHeight="1">
-      <c r="B410" s="40"/>
+      <c r="B410" s="42"/>
     </row>
     <row r="411" ht="15.75" customHeight="1">
-      <c r="B411" s="40"/>
+      <c r="B411" s="42"/>
     </row>
     <row r="412" ht="15.75" customHeight="1">
-      <c r="B412" s="40"/>
+      <c r="B412" s="42"/>
     </row>
     <row r="413" ht="15.75" customHeight="1">
-      <c r="B413" s="40"/>
+      <c r="B413" s="42"/>
     </row>
     <row r="414" ht="15.75" customHeight="1">
-      <c r="B414" s="40"/>
+      <c r="B414" s="42"/>
     </row>
     <row r="415" ht="15.75" customHeight="1">
-      <c r="B415" s="40"/>
+      <c r="B415" s="42"/>
     </row>
     <row r="416" ht="15.75" customHeight="1">
-      <c r="B416" s="40"/>
+      <c r="B416" s="42"/>
     </row>
     <row r="417" ht="15.75" customHeight="1">
-      <c r="B417" s="40"/>
+      <c r="B417" s="42"/>
     </row>
     <row r="418" ht="15.75" customHeight="1">
-      <c r="B418" s="40"/>
+      <c r="B418" s="42"/>
     </row>
     <row r="419" ht="15.75" customHeight="1">
-      <c r="B419" s="40"/>
+      <c r="B419" s="42"/>
     </row>
     <row r="420" ht="15.75" customHeight="1">
-      <c r="B420" s="40"/>
+      <c r="B420" s="42"/>
     </row>
     <row r="421" ht="15.75" customHeight="1">
-      <c r="B421" s="40"/>
+      <c r="B421" s="42"/>
     </row>
     <row r="422" ht="15.75" customHeight="1">
-      <c r="B422" s="40"/>
+      <c r="B422" s="42"/>
     </row>
     <row r="423" ht="15.75" customHeight="1">
-      <c r="B423" s="40"/>
+      <c r="B423" s="42"/>
     </row>
     <row r="424" ht="15.75" customHeight="1">
-      <c r="B424" s="40"/>
+      <c r="B424" s="42"/>
     </row>
     <row r="425" ht="15.75" customHeight="1">
-      <c r="B425" s="40"/>
+      <c r="B425" s="42"/>
     </row>
     <row r="426" ht="15.75" customHeight="1">
-      <c r="B426" s="40"/>
+      <c r="B426" s="42"/>
     </row>
     <row r="427" ht="15.75" customHeight="1">
-      <c r="B427" s="40"/>
+      <c r="B427" s="42"/>
     </row>
     <row r="428" ht="15.75" customHeight="1">
-      <c r="B428" s="40"/>
+      <c r="B428" s="42"/>
     </row>
     <row r="429" ht="15.75" customHeight="1">
-      <c r="B429" s="40"/>
+      <c r="B429" s="42"/>
     </row>
     <row r="430" ht="15.75" customHeight="1">
-      <c r="B430" s="40"/>
+      <c r="B430" s="42"/>
     </row>
     <row r="431" ht="15.75" customHeight="1">
-      <c r="B431" s="40"/>
+      <c r="B431" s="42"/>
     </row>
     <row r="432" ht="15.75" customHeight="1">
-      <c r="B432" s="40"/>
+      <c r="B432" s="42"/>
     </row>
     <row r="433" ht="15.75" customHeight="1">
-      <c r="B433" s="40"/>
+      <c r="B433" s="42"/>
     </row>
     <row r="434" ht="15.75" customHeight="1">
-      <c r="B434" s="40"/>
+      <c r="B434" s="42"/>
     </row>
     <row r="435" ht="15.75" customHeight="1">
-      <c r="B435" s="40"/>
+      <c r="B435" s="42"/>
     </row>
     <row r="436" ht="15.75" customHeight="1">
-      <c r="B436" s="40"/>
+      <c r="B436" s="42"/>
     </row>
     <row r="437" ht="15.75" customHeight="1">
-      <c r="B437" s="40"/>
+      <c r="B437" s="42"/>
     </row>
     <row r="438" ht="15.75" customHeight="1">
-      <c r="B438" s="40"/>
+      <c r="B438" s="42"/>
     </row>
     <row r="439" ht="15.75" customHeight="1">
-      <c r="B439" s="40"/>
+      <c r="B439" s="42"/>
     </row>
     <row r="440" ht="15.75" customHeight="1">
-      <c r="B440" s="40"/>
+      <c r="B440" s="42"/>
     </row>
     <row r="441" ht="15.75" customHeight="1">
-      <c r="B441" s="40"/>
+      <c r="B441" s="42"/>
     </row>
     <row r="442" ht="15.75" customHeight="1">
-      <c r="B442" s="40"/>
+      <c r="B442" s="42"/>
     </row>
     <row r="443" ht="15.75" customHeight="1">
-      <c r="B443" s="40"/>
+      <c r="B443" s="42"/>
     </row>
     <row r="444" ht="15.75" customHeight="1">
-      <c r="B444" s="40"/>
+      <c r="B444" s="42"/>
     </row>
     <row r="445" ht="15.75" customHeight="1">
-      <c r="B445" s="40"/>
+      <c r="B445" s="42"/>
     </row>
     <row r="446" ht="15.75" customHeight="1">
-      <c r="B446" s="40"/>
+      <c r="B446" s="42"/>
     </row>
     <row r="447" ht="15.75" customHeight="1">
-      <c r="B447" s="40"/>
+      <c r="B447" s="42"/>
     </row>
     <row r="448" ht="15.75" customHeight="1">
-      <c r="B448" s="40"/>
+      <c r="B448" s="42"/>
     </row>
     <row r="449" ht="15.75" customHeight="1">
-      <c r="B449" s="40"/>
+      <c r="B449" s="42"/>
     </row>
     <row r="450" ht="15.75" customHeight="1">
-      <c r="B450" s="40"/>
+      <c r="B450" s="42"/>
     </row>
     <row r="451" ht="15.75" customHeight="1">
-      <c r="B451" s="40"/>
+      <c r="B451" s="42"/>
     </row>
     <row r="452" ht="15.75" customHeight="1">
-      <c r="B452" s="40"/>
+      <c r="B452" s="42"/>
     </row>
     <row r="453" ht="15.75" customHeight="1">
-      <c r="B453" s="40"/>
+      <c r="B453" s="42"/>
     </row>
     <row r="454" ht="15.75" customHeight="1">
-      <c r="B454" s="40"/>
+      <c r="B454" s="42"/>
     </row>
     <row r="455" ht="15.75" customHeight="1">
-      <c r="B455" s="40"/>
+      <c r="B455" s="42"/>
     </row>
     <row r="456" ht="15.75" customHeight="1">
-      <c r="B456" s="40"/>
+      <c r="B456" s="42"/>
     </row>
     <row r="457" ht="15.75" customHeight="1">
-      <c r="B457" s="40"/>
+      <c r="B457" s="42"/>
     </row>
     <row r="458" ht="15.75" customHeight="1">
-      <c r="B458" s="40"/>
+      <c r="B458" s="42"/>
     </row>
     <row r="459" ht="15.75" customHeight="1">
-      <c r="B459" s="40"/>
+      <c r="B459" s="42"/>
     </row>
     <row r="460" ht="15.75" customHeight="1">
-      <c r="B460" s="40"/>
+      <c r="B460" s="42"/>
     </row>
     <row r="461" ht="15.75" customHeight="1">
-      <c r="B461" s="40"/>
+      <c r="B461" s="42"/>
     </row>
     <row r="462" ht="15.75" customHeight="1">
-      <c r="B462" s="40"/>
+      <c r="B462" s="42"/>
     </row>
     <row r="463" ht="15.75" customHeight="1">
-      <c r="B463" s="40"/>
+      <c r="B463" s="42"/>
     </row>
     <row r="464" ht="15.75" customHeight="1">
-      <c r="B464" s="40"/>
+      <c r="B464" s="42"/>
     </row>
     <row r="465" ht="15.75" customHeight="1">
-      <c r="B465" s="40"/>
+      <c r="B465" s="42"/>
     </row>
     <row r="466" ht="15.75" customHeight="1">
-      <c r="B466" s="40"/>
+      <c r="B466" s="42"/>
     </row>
     <row r="467" ht="15.75" customHeight="1">
-      <c r="B467" s="40"/>
+      <c r="B467" s="42"/>
     </row>
     <row r="468" ht="15.75" customHeight="1">
-      <c r="B468" s="40"/>
+      <c r="B468" s="42"/>
     </row>
     <row r="469" ht="15.75" customHeight="1">
-      <c r="B469" s="40"/>
+      <c r="B469" s="42"/>
     </row>
     <row r="470" ht="15.75" customHeight="1">
-      <c r="B470" s="40"/>
+      <c r="B470" s="42"/>
     </row>
     <row r="471" ht="15.75" customHeight="1">
-      <c r="B471" s="40"/>
+      <c r="B471" s="42"/>
     </row>
     <row r="472" ht="15.75" customHeight="1">
-      <c r="B472" s="40"/>
+      <c r="B472" s="42"/>
     </row>
     <row r="473" ht="15.75" customHeight="1">
-      <c r="B473" s="40"/>
+      <c r="B473" s="42"/>
     </row>
     <row r="474" ht="15.75" customHeight="1">
-      <c r="B474" s="40"/>
+      <c r="B474" s="42"/>
     </row>
     <row r="475" ht="15.75" customHeight="1">
-      <c r="B475" s="40"/>
+      <c r="B475" s="42"/>
     </row>
     <row r="476" ht="15.75" customHeight="1">
-      <c r="B476" s="40"/>
+      <c r="B476" s="42"/>
     </row>
     <row r="477" ht="15.75" customHeight="1">
-      <c r="B477" s="40"/>
+      <c r="B477" s="42"/>
     </row>
     <row r="478" ht="15.75" customHeight="1">
-      <c r="B478" s="40"/>
+      <c r="B478" s="42"/>
     </row>
     <row r="479" ht="15.75" customHeight="1">
-      <c r="B479" s="40"/>
+      <c r="B479" s="42"/>
     </row>
     <row r="480" ht="15.75" customHeight="1">
-      <c r="B480" s="40"/>
+      <c r="B480" s="42"/>
     </row>
     <row r="481" ht="15.75" customHeight="1">
-      <c r="B481" s="40"/>
+      <c r="B481" s="42"/>
     </row>
     <row r="482" ht="15.75" customHeight="1">
-      <c r="B482" s="40"/>
+      <c r="B482" s="42"/>
     </row>
     <row r="483" ht="15.75" customHeight="1">
-      <c r="B483" s="40"/>
+      <c r="B483" s="42"/>
     </row>
     <row r="484" ht="15.75" customHeight="1">
-      <c r="B484" s="40"/>
+      <c r="B484" s="42"/>
     </row>
     <row r="485" ht="15.75" customHeight="1">
-      <c r="B485" s="40"/>
+      <c r="B485" s="42"/>
     </row>
     <row r="486" ht="15.75" customHeight="1">
-      <c r="B486" s="40"/>
+      <c r="B486" s="42"/>
     </row>
     <row r="487" ht="15.75" customHeight="1">
-      <c r="B487" s="40"/>
+      <c r="B487" s="42"/>
     </row>
     <row r="488" ht="15.75" customHeight="1">
-      <c r="B488" s="40"/>
+      <c r="B488" s="42"/>
     </row>
     <row r="489" ht="15.75" customHeight="1">
-      <c r="B489" s="40"/>
+      <c r="B489" s="42"/>
     </row>
     <row r="490" ht="15.75" customHeight="1">
-      <c r="B490" s="40"/>
+      <c r="B490" s="42"/>
     </row>
     <row r="491" ht="15.75" customHeight="1">
-      <c r="B491" s="40"/>
+      <c r="B491" s="42"/>
     </row>
     <row r="492" ht="15.75" customHeight="1">
-      <c r="B492" s="40"/>
+      <c r="B492" s="42"/>
     </row>
     <row r="493" ht="15.75" customHeight="1">
-      <c r="B493" s="40"/>
+      <c r="B493" s="42"/>
     </row>
     <row r="494" ht="15.75" customHeight="1">
-      <c r="B494" s="40"/>
+      <c r="B494" s="42"/>
     </row>
     <row r="495" ht="15.75" customHeight="1">
-      <c r="B495" s="40"/>
+      <c r="B495" s="42"/>
     </row>
     <row r="496" ht="15.75" customHeight="1">
-      <c r="B496" s="40"/>
+      <c r="B496" s="42"/>
     </row>
     <row r="497" ht="15.75" customHeight="1">
-      <c r="B497" s="40"/>
+      <c r="B497" s="42"/>
     </row>
     <row r="498" ht="15.75" customHeight="1">
-      <c r="B498" s="40"/>
+      <c r="B498" s="42"/>
     </row>
     <row r="499" ht="15.75" customHeight="1">
-      <c r="B499" s="40"/>
+      <c r="B499" s="42"/>
     </row>
     <row r="500" ht="15.75" customHeight="1">
-      <c r="B500" s="40"/>
+      <c r="B500" s="42"/>
     </row>
     <row r="501" ht="15.75" customHeight="1">
-      <c r="B501" s="40"/>
+      <c r="B501" s="42"/>
     </row>
     <row r="502" ht="15.75" customHeight="1">
-      <c r="B502" s="40"/>
+      <c r="B502" s="42"/>
     </row>
     <row r="503" ht="15.75" customHeight="1">
-      <c r="B503" s="40"/>
+      <c r="B503" s="42"/>
     </row>
     <row r="504" ht="15.75" customHeight="1">
-      <c r="B504" s="40"/>
+      <c r="B504" s="42"/>
     </row>
     <row r="505" ht="15.75" customHeight="1">
-      <c r="B505" s="40"/>
+      <c r="B505" s="42"/>
     </row>
     <row r="506" ht="15.75" customHeight="1">
-      <c r="B506" s="40"/>
+      <c r="B506" s="42"/>
     </row>
     <row r="507" ht="15.75" customHeight="1">
-      <c r="B507" s="40"/>
+      <c r="B507" s="42"/>
     </row>
     <row r="508" ht="15.75" customHeight="1">
-      <c r="B508" s="40"/>
+      <c r="B508" s="42"/>
     </row>
     <row r="509" ht="15.75" customHeight="1">
-      <c r="B509" s="40"/>
+      <c r="B509" s="42"/>
     </row>
     <row r="510" ht="15.75" customHeight="1">
-      <c r="B510" s="40"/>
+      <c r="B510" s="42"/>
     </row>
     <row r="511" ht="15.75" customHeight="1">
-      <c r="B511" s="40"/>
+      <c r="B511" s="42"/>
     </row>
     <row r="512" ht="15.75" customHeight="1">
-      <c r="B512" s="40"/>
+      <c r="B512" s="42"/>
     </row>
     <row r="513" ht="15.75" customHeight="1">
-      <c r="B513" s="40"/>
+      <c r="B513" s="42"/>
     </row>
     <row r="514" ht="15.75" customHeight="1">
-      <c r="B514" s="40"/>
+      <c r="B514" s="42"/>
     </row>
     <row r="515" ht="15.75" customHeight="1">
-      <c r="B515" s="40"/>
+      <c r="B515" s="42"/>
     </row>
     <row r="516" ht="15.75" customHeight="1">
-      <c r="B516" s="40"/>
+      <c r="B516" s="42"/>
     </row>
     <row r="517" ht="15.75" customHeight="1">
-      <c r="B517" s="40"/>
+      <c r="B517" s="42"/>
     </row>
     <row r="518" ht="15.75" customHeight="1">
-      <c r="B518" s="40"/>
+      <c r="B518" s="42"/>
     </row>
     <row r="519" ht="15.75" customHeight="1">
-      <c r="B519" s="40"/>
+      <c r="B519" s="42"/>
     </row>
     <row r="520" ht="15.75" customHeight="1">
-      <c r="B520" s="40"/>
+      <c r="B520" s="42"/>
     </row>
     <row r="521" ht="15.75" customHeight="1">
-      <c r="B521" s="40"/>
+      <c r="B521" s="42"/>
     </row>
     <row r="522" ht="15.75" customHeight="1">
-      <c r="B522" s="40"/>
+      <c r="B522" s="42"/>
     </row>
     <row r="523" ht="15.75" customHeight="1">
-      <c r="B523" s="40"/>
+      <c r="B523" s="42"/>
     </row>
     <row r="524" ht="15.75" customHeight="1">
-      <c r="B524" s="40"/>
+      <c r="B524" s="42"/>
     </row>
     <row r="525" ht="15.75" customHeight="1">
-      <c r="B525" s="40"/>
+      <c r="B525" s="42"/>
     </row>
     <row r="526" ht="15.75" customHeight="1">
-      <c r="B526" s="40"/>
+      <c r="B526" s="42"/>
     </row>
     <row r="527" ht="15.75" customHeight="1">
-      <c r="B527" s="40"/>
+      <c r="B527" s="42"/>
     </row>
     <row r="528" ht="15.75" customHeight="1">
-      <c r="B528" s="40"/>
+      <c r="B528" s="42"/>
     </row>
     <row r="529" ht="15.75" customHeight="1">
-      <c r="B529" s="40"/>
+      <c r="B529" s="42"/>
     </row>
     <row r="530" ht="15.75" customHeight="1">
-      <c r="B530" s="40"/>
+      <c r="B530" s="42"/>
     </row>
     <row r="531" ht="15.75" customHeight="1">
-      <c r="B531" s="40"/>
+      <c r="B531" s="42"/>
     </row>
     <row r="532" ht="15.75" customHeight="1">
-      <c r="B532" s="40"/>
+      <c r="B532" s="42"/>
     </row>
     <row r="533" ht="15.75" customHeight="1">
-      <c r="B533" s="40"/>
+      <c r="B533" s="42"/>
     </row>
     <row r="534" ht="15.75" customHeight="1">
-      <c r="B534" s="40"/>
+      <c r="B534" s="42"/>
     </row>
     <row r="535" ht="15.75" customHeight="1">
-      <c r="B535" s="40"/>
+      <c r="B535" s="42"/>
     </row>
     <row r="536" ht="15.75" customHeight="1">
-      <c r="B536" s="40"/>
+      <c r="B536" s="42"/>
     </row>
     <row r="537" ht="15.75" customHeight="1">
-      <c r="B537" s="40"/>
+      <c r="B537" s="42"/>
     </row>
     <row r="538" ht="15.75" customHeight="1">
-      <c r="B538" s="40"/>
+      <c r="B538" s="42"/>
     </row>
     <row r="539" ht="15.75" customHeight="1">
-      <c r="B539" s="40"/>
+      <c r="B539" s="42"/>
     </row>
     <row r="540" ht="15.75" customHeight="1">
-      <c r="B540" s="40"/>
+      <c r="B540" s="42"/>
     </row>
     <row r="541" ht="15.75" customHeight="1">
-      <c r="B541" s="40"/>
+      <c r="B541" s="42"/>
     </row>
     <row r="542" ht="15.75" customHeight="1">
-      <c r="B542" s="40"/>
+      <c r="B542" s="42"/>
     </row>
     <row r="543" ht="15.75" customHeight="1">
-      <c r="B543" s="40"/>
+      <c r="B543" s="42"/>
     </row>
     <row r="544" ht="15.75" customHeight="1">
-      <c r="B544" s="40"/>
+      <c r="B544" s="42"/>
     </row>
     <row r="545" ht="15.75" customHeight="1">
-      <c r="B545" s="40"/>
+      <c r="B545" s="42"/>
     </row>
     <row r="546" ht="15.75" customHeight="1">
-      <c r="B546" s="40"/>
+      <c r="B546" s="42"/>
     </row>
     <row r="547" ht="15.75" customHeight="1">
-      <c r="B547" s="40"/>
+      <c r="B547" s="42"/>
     </row>
     <row r="548" ht="15.75" customHeight="1">
-      <c r="B548" s="40"/>
+      <c r="B548" s="42"/>
     </row>
     <row r="549" ht="15.75" customHeight="1">
-      <c r="B549" s="40"/>
+      <c r="B549" s="42"/>
     </row>
     <row r="550" ht="15.75" customHeight="1">
-      <c r="B550" s="40"/>
+      <c r="B550" s="42"/>
     </row>
     <row r="551" ht="15.75" customHeight="1">
-      <c r="B551" s="40"/>
+      <c r="B551" s="42"/>
     </row>
     <row r="552" ht="15.75" customHeight="1">
-      <c r="B552" s="40"/>
+      <c r="B552" s="42"/>
     </row>
     <row r="553" ht="15.75" customHeight="1">
-      <c r="B553" s="40"/>
+      <c r="B553" s="42"/>
     </row>
     <row r="554" ht="15.75" customHeight="1">
-      <c r="B554" s="40"/>
+      <c r="B554" s="42"/>
     </row>
     <row r="555" ht="15.75" customHeight="1">
-      <c r="B555" s="40"/>
+      <c r="B555" s="42"/>
     </row>
     <row r="556" ht="15.75" customHeight="1">
-      <c r="B556" s="40"/>
+      <c r="B556" s="42"/>
     </row>
     <row r="557" ht="15.75" customHeight="1">
-      <c r="B557" s="40"/>
+      <c r="B557" s="42"/>
     </row>
     <row r="558" ht="15.75" customHeight="1">
-      <c r="B558" s="40"/>
+      <c r="B558" s="42"/>
     </row>
     <row r="559" ht="15.75" customHeight="1">
-      <c r="B559" s="40"/>
+      <c r="B559" s="42"/>
     </row>
     <row r="560" ht="15.75" customHeight="1">
-      <c r="B560" s="40"/>
+      <c r="B560" s="42"/>
     </row>
     <row r="561" ht="15.75" customHeight="1">
-      <c r="B561" s="40"/>
+      <c r="B561" s="42"/>
     </row>
     <row r="562" ht="15.75" customHeight="1">
-      <c r="B562" s="40"/>
+      <c r="B562" s="42"/>
     </row>
     <row r="563" ht="15.75" customHeight="1">
-      <c r="B563" s="40"/>
+      <c r="B563" s="42"/>
     </row>
     <row r="564" ht="15.75" customHeight="1">
-      <c r="B564" s="40"/>
+      <c r="B564" s="42"/>
     </row>
     <row r="565" ht="15.75" customHeight="1">
-      <c r="B565" s="40"/>
+      <c r="B565" s="42"/>
     </row>
     <row r="566" ht="15.75" customHeight="1">
-      <c r="B566" s="40"/>
+      <c r="B566" s="42"/>
     </row>
     <row r="567" ht="15.75" customHeight="1">
-      <c r="B567" s="40"/>
+      <c r="B567" s="42"/>
     </row>
     <row r="568" ht="15.75" customHeight="1">
-      <c r="B568" s="40"/>
+      <c r="B568" s="42"/>
     </row>
     <row r="569" ht="15.75" customHeight="1">
-      <c r="B569" s="40"/>
+      <c r="B569" s="42"/>
     </row>
     <row r="570" ht="15.75" customHeight="1">
-      <c r="B570" s="40"/>
+      <c r="B570" s="42"/>
     </row>
     <row r="571" ht="15.75" customHeight="1">
-      <c r="B571" s="40"/>
+      <c r="B571" s="42"/>
     </row>
     <row r="572" ht="15.75" customHeight="1">
-      <c r="B572" s="40"/>
+      <c r="B572" s="42"/>
     </row>
     <row r="573" ht="15.75" customHeight="1">
-      <c r="B573" s="40"/>
+      <c r="B573" s="42"/>
     </row>
     <row r="574" ht="15.75" customHeight="1">
-      <c r="B574" s="40"/>
+      <c r="B574" s="42"/>
     </row>
     <row r="575" ht="15.75" customHeight="1">
-      <c r="B575" s="40"/>
+      <c r="B575" s="42"/>
     </row>
     <row r="576" ht="15.75" customHeight="1">
-      <c r="B576" s="40"/>
+      <c r="B576" s="42"/>
     </row>
     <row r="577" ht="15.75" customHeight="1">
-      <c r="B577" s="40"/>
+      <c r="B577" s="42"/>
     </row>
     <row r="578" ht="15.75" customHeight="1">
-      <c r="B578" s="40"/>
+      <c r="B578" s="42"/>
     </row>
     <row r="579" ht="15.75" customHeight="1">
-      <c r="B579" s="40"/>
+      <c r="B579" s="42"/>
     </row>
     <row r="580" ht="15.75" customHeight="1">
-      <c r="B580" s="40"/>
+      <c r="B580" s="42"/>
     </row>
     <row r="581" ht="15.75" customHeight="1">
-      <c r="B581" s="40"/>
+      <c r="B581" s="42"/>
     </row>
     <row r="582" ht="15.75" customHeight="1">
-      <c r="B582" s="40"/>
+      <c r="B582" s="42"/>
     </row>
     <row r="583" ht="15.75" customHeight="1">
-      <c r="B583" s="40"/>
+      <c r="B583" s="42"/>
     </row>
     <row r="584" ht="15.75" customHeight="1">
-      <c r="B584" s="40"/>
+      <c r="B584" s="42"/>
     </row>
     <row r="585" ht="15.75" customHeight="1">
-      <c r="B585" s="40"/>
+      <c r="B585" s="42"/>
     </row>
     <row r="586" ht="15.75" customHeight="1">
-      <c r="B586" s="40"/>
+      <c r="B586" s="42"/>
     </row>
     <row r="587" ht="15.75" customHeight="1">
-      <c r="B587" s="40"/>
+      <c r="B587" s="42"/>
     </row>
     <row r="588" ht="15.75" customHeight="1">
-      <c r="B588" s="40"/>
+      <c r="B588" s="42"/>
     </row>
     <row r="589" ht="15.75" customHeight="1">
-      <c r="B589" s="40"/>
+      <c r="B589" s="42"/>
     </row>
     <row r="590" ht="15.75" customHeight="1">
-      <c r="B590" s="40"/>
+      <c r="B590" s="42"/>
     </row>
     <row r="591" ht="15.75" customHeight="1">
-      <c r="B591" s="40"/>
+      <c r="B591" s="42"/>
     </row>
     <row r="592" ht="15.75" customHeight="1">
-      <c r="B592" s="40"/>
+      <c r="B592" s="42"/>
     </row>
     <row r="593" ht="15.75" customHeight="1">
-      <c r="B593" s="40"/>
+      <c r="B593" s="42"/>
     </row>
     <row r="594" ht="15.75" customHeight="1">
-      <c r="B594" s="40"/>
+      <c r="B594" s="42"/>
     </row>
     <row r="595" ht="15.75" customHeight="1">
-      <c r="B595" s="40"/>
+      <c r="B595" s="42"/>
     </row>
     <row r="596" ht="15.75" customHeight="1">
-      <c r="B596" s="40"/>
+      <c r="B596" s="42"/>
     </row>
     <row r="597" ht="15.75" customHeight="1">
-      <c r="B597" s="40"/>
+      <c r="B597" s="42"/>
     </row>
     <row r="598" ht="15.75" customHeight="1">
-      <c r="B598" s="40"/>
+      <c r="B598" s="42"/>
     </row>
     <row r="599" ht="15.75" customHeight="1">
-      <c r="B599" s="40"/>
+      <c r="B599" s="42"/>
     </row>
     <row r="600" ht="15.75" customHeight="1">
-      <c r="B600" s="40"/>
+      <c r="B600" s="42"/>
     </row>
     <row r="601" ht="15.75" customHeight="1">
-      <c r="B601" s="40"/>
+      <c r="B601" s="42"/>
     </row>
     <row r="602" ht="15.75" customHeight="1">
-      <c r="B602" s="40"/>
+      <c r="B602" s="42"/>
     </row>
     <row r="603" ht="15.75" customHeight="1">
-      <c r="B603" s="40"/>
+      <c r="B603" s="42"/>
     </row>
     <row r="604" ht="15.75" customHeight="1">
-      <c r="B604" s="40"/>
+      <c r="B604" s="42"/>
     </row>
     <row r="605" ht="15.75" customHeight="1">
-      <c r="B605" s="40"/>
+      <c r="B605" s="42"/>
     </row>
     <row r="606" ht="15.75" customHeight="1">
-      <c r="B606" s="40"/>
+      <c r="B606" s="42"/>
     </row>
     <row r="607" ht="15.75" customHeight="1">
-      <c r="B607" s="40"/>
+      <c r="B607" s="42"/>
     </row>
     <row r="608" ht="15.75" customHeight="1">
-      <c r="B608" s="40"/>
+      <c r="B608" s="42"/>
     </row>
     <row r="609" ht="15.75" customHeight="1">
-      <c r="B609" s="40"/>
+      <c r="B609" s="42"/>
     </row>
     <row r="610" ht="15.75" customHeight="1">
-      <c r="B610" s="40"/>
+      <c r="B610" s="42"/>
     </row>
     <row r="611" ht="15.75" customHeight="1">
-      <c r="B611" s="40"/>
+      <c r="B611" s="42"/>
     </row>
     <row r="612" ht="15.75" customHeight="1">
-      <c r="B612" s="40"/>
+      <c r="B612" s="42"/>
     </row>
     <row r="613" ht="15.75" customHeight="1">
-      <c r="B613" s="40"/>
+      <c r="B613" s="42"/>
     </row>
     <row r="614" ht="15.75" customHeight="1">
-      <c r="B614" s="40"/>
+      <c r="B614" s="42"/>
     </row>
     <row r="615" ht="15.75" customHeight="1">
-      <c r="B615" s="40"/>
+      <c r="B615" s="42"/>
     </row>
     <row r="616" ht="15.75" customHeight="1">
-      <c r="B616" s="40"/>
+      <c r="B616" s="42"/>
     </row>
     <row r="617" ht="15.75" customHeight="1">
-      <c r="B617" s="40"/>
+      <c r="B617" s="42"/>
     </row>
     <row r="618" ht="15.75" customHeight="1">
-      <c r="B618" s="40"/>
+      <c r="B618" s="42"/>
     </row>
     <row r="619" ht="15.75" customHeight="1">
-      <c r="B619" s="40"/>
+      <c r="B619" s="42"/>
     </row>
     <row r="620" ht="15.75" customHeight="1">
-      <c r="B620" s="40"/>
+      <c r="B620" s="42"/>
     </row>
     <row r="621" ht="15.75" customHeight="1">
-      <c r="B621" s="40"/>
+      <c r="B621" s="42"/>
     </row>
     <row r="622" ht="15.75" customHeight="1">
-      <c r="B622" s="40"/>
+      <c r="B622" s="42"/>
     </row>
     <row r="623" ht="15.75" customHeight="1">
-      <c r="B623" s="40"/>
+      <c r="B623" s="42"/>
     </row>
     <row r="624" ht="15.75" customHeight="1">
-      <c r="B624" s="40"/>
+      <c r="B624" s="42"/>
     </row>
     <row r="625" ht="15.75" customHeight="1">
-      <c r="B625" s="40"/>
+      <c r="B625" s="42"/>
     </row>
     <row r="626" ht="15.75" customHeight="1">
-      <c r="B626" s="40"/>
+      <c r="B626" s="42"/>
     </row>
     <row r="627" ht="15.75" customHeight="1">
-      <c r="B627" s="40"/>
+      <c r="B627" s="42"/>
     </row>
     <row r="628" ht="15.75" customHeight="1">
-      <c r="B628" s="40"/>
+      <c r="B628" s="42"/>
     </row>
     <row r="629" ht="15.75" customHeight="1">
-      <c r="B629" s="40"/>
+      <c r="B629" s="42"/>
     </row>
     <row r="630" ht="15.75" customHeight="1">
-      <c r="B630" s="40"/>
+      <c r="B630" s="42"/>
     </row>
     <row r="631" ht="15.75" customHeight="1">
-      <c r="B631" s="40"/>
+      <c r="B631" s="42"/>
     </row>
     <row r="632" ht="15.75" customHeight="1">
-      <c r="B632" s="40"/>
+      <c r="B632" s="42"/>
     </row>
     <row r="633" ht="15.75" customHeight="1">
-      <c r="B633" s="40"/>
+      <c r="B633" s="42"/>
     </row>
     <row r="634" ht="15.75" customHeight="1">
-      <c r="B634" s="40"/>
+      <c r="B634" s="42"/>
     </row>
     <row r="635" ht="15.75" customHeight="1">
-      <c r="B635" s="40"/>
+      <c r="B635" s="42"/>
     </row>
     <row r="636" ht="15.75" customHeight="1">
-      <c r="B636" s="40"/>
+      <c r="B636" s="42"/>
     </row>
     <row r="637" ht="15.75" customHeight="1">
-      <c r="B637" s="40"/>
+      <c r="B637" s="42"/>
     </row>
     <row r="638" ht="15.75" customHeight="1">
-      <c r="B638" s="40"/>
+      <c r="B638" s="42"/>
     </row>
     <row r="639" ht="15.75" customHeight="1">
-      <c r="B639" s="40"/>
+      <c r="B639" s="42"/>
     </row>
     <row r="640" ht="15.75" customHeight="1">
-      <c r="B640" s="40"/>
+      <c r="B640" s="42"/>
     </row>
     <row r="641" ht="15.75" customHeight="1">
-      <c r="B641" s="40"/>
+      <c r="B641" s="42"/>
     </row>
     <row r="642" ht="15.75" customHeight="1">
-      <c r="B642" s="40"/>
+      <c r="B642" s="42"/>
     </row>
     <row r="643" ht="15.75" customHeight="1">
-      <c r="B643" s="40"/>
+      <c r="B643" s="42"/>
     </row>
     <row r="644" ht="15.75" customHeight="1">
-      <c r="B644" s="40"/>
+      <c r="B644" s="42"/>
     </row>
     <row r="645" ht="15.75" customHeight="1">
-      <c r="B645" s="40"/>
+      <c r="B645" s="42"/>
     </row>
     <row r="646" ht="15.75" customHeight="1">
-      <c r="B646" s="40"/>
+      <c r="B646" s="42"/>
     </row>
     <row r="647" ht="15.75" customHeight="1">
-      <c r="B647" s="40"/>
+      <c r="B647" s="42"/>
     </row>
     <row r="648" ht="15.75" customHeight="1">
-      <c r="B648" s="40"/>
+      <c r="B648" s="42"/>
     </row>
     <row r="649" ht="15.75" customHeight="1">
-      <c r="B649" s="40"/>
+      <c r="B649" s="42"/>
     </row>
     <row r="650" ht="15.75" customHeight="1">
-      <c r="B650" s="40"/>
+      <c r="B650" s="42"/>
     </row>
     <row r="651" ht="15.75" customHeight="1">
-      <c r="B651" s="40"/>
+      <c r="B651" s="42"/>
     </row>
     <row r="652" ht="15.75" customHeight="1">
-      <c r="B652" s="40"/>
+      <c r="B652" s="42"/>
     </row>
     <row r="653" ht="15.75" customHeight="1">
-      <c r="B653" s="40"/>
+      <c r="B653" s="42"/>
     </row>
     <row r="654" ht="15.75" customHeight="1">
-      <c r="B654" s="40"/>
+      <c r="B654" s="42"/>
     </row>
     <row r="655" ht="15.75" customHeight="1">
-      <c r="B655" s="40"/>
+      <c r="B655" s="42"/>
     </row>
     <row r="656" ht="15.75" customHeight="1">
-      <c r="B656" s="40"/>
+      <c r="B656" s="42"/>
     </row>
     <row r="657" ht="15.75" customHeight="1">
-      <c r="B657" s="40"/>
+      <c r="B657" s="42"/>
     </row>
     <row r="658" ht="15.75" customHeight="1">
-      <c r="B658" s="40"/>
+      <c r="B658" s="42"/>
     </row>
     <row r="659" ht="15.75" customHeight="1">
-      <c r="B659" s="40"/>
+      <c r="B659" s="42"/>
     </row>
     <row r="660" ht="15.75" customHeight="1">
-      <c r="B660" s="40"/>
+      <c r="B660" s="42"/>
     </row>
     <row r="661" ht="15.75" customHeight="1">
-      <c r="B661" s="40"/>
+      <c r="B661" s="42"/>
     </row>
     <row r="662" ht="15.75" customHeight="1">
-      <c r="B662" s="40"/>
+      <c r="B662" s="42"/>
     </row>
     <row r="663" ht="15.75" customHeight="1">
-      <c r="B663" s="40"/>
+      <c r="B663" s="42"/>
     </row>
     <row r="664" ht="15.75" customHeight="1">
-      <c r="B664" s="40"/>
+      <c r="B664" s="42"/>
     </row>
     <row r="665" ht="15.75" customHeight="1">
-      <c r="B665" s="40"/>
+      <c r="B665" s="42"/>
     </row>
     <row r="666" ht="15.75" customHeight="1">
-      <c r="B666" s="40"/>
+      <c r="B666" s="42"/>
     </row>
     <row r="667" ht="15.75" customHeight="1">
-      <c r="B667" s="40"/>
+      <c r="B667" s="42"/>
     </row>
     <row r="668" ht="15.75" customHeight="1">
-      <c r="B668" s="40"/>
+      <c r="B668" s="42"/>
     </row>
     <row r="669" ht="15.75" customHeight="1">
-      <c r="B669" s="40"/>
+      <c r="B669" s="42"/>
     </row>
     <row r="670" ht="15.75" customHeight="1">
-      <c r="B670" s="40"/>
+      <c r="B670" s="42"/>
     </row>
     <row r="671" ht="15.75" customHeight="1">
-      <c r="B671" s="40"/>
+      <c r="B671" s="42"/>
     </row>
     <row r="672" ht="15.75" customHeight="1">
-      <c r="B672" s="40"/>
+      <c r="B672" s="42"/>
     </row>
     <row r="673" ht="15.75" customHeight="1">
-      <c r="B673" s="40"/>
+      <c r="B673" s="42"/>
     </row>
     <row r="674" ht="15.75" customHeight="1">
-      <c r="B674" s="40"/>
+      <c r="B674" s="42"/>
     </row>
     <row r="675" ht="15.75" customHeight="1">
-      <c r="B675" s="40"/>
+      <c r="B675" s="42"/>
     </row>
     <row r="676" ht="15.75" customHeight="1">
-      <c r="B676" s="40"/>
+      <c r="B676" s="42"/>
     </row>
     <row r="677" ht="15.75" customHeight="1">
-      <c r="B677" s="40"/>
+      <c r="B677" s="42"/>
     </row>
     <row r="678" ht="15.75" customHeight="1">
-      <c r="B678" s="40"/>
+      <c r="B678" s="42"/>
     </row>
     <row r="679" ht="15.75" customHeight="1">
-      <c r="B679" s="40"/>
+      <c r="B679" s="42"/>
     </row>
     <row r="680" ht="15.75" customHeight="1">
-      <c r="B680" s="40"/>
+      <c r="B680" s="42"/>
     </row>
     <row r="681" ht="15.75" customHeight="1">
-      <c r="B681" s="40"/>
+      <c r="B681" s="42"/>
     </row>
     <row r="682" ht="15.75" customHeight="1">
-      <c r="B682" s="40"/>
+      <c r="B682" s="42"/>
     </row>
     <row r="683" ht="15.75" customHeight="1">
-      <c r="B683" s="40"/>
+      <c r="B683" s="42"/>
     </row>
     <row r="684" ht="15.75" customHeight="1">
-      <c r="B684" s="40"/>
+      <c r="B684" s="42"/>
     </row>
     <row r="685" ht="15.75" customHeight="1">
-      <c r="B685" s="40"/>
+      <c r="B685" s="42"/>
     </row>
     <row r="686" ht="15.75" customHeight="1">
-      <c r="B686" s="40"/>
+      <c r="B686" s="42"/>
     </row>
     <row r="687" ht="15.75" customHeight="1">
-      <c r="B687" s="40"/>
+      <c r="B687" s="42"/>
     </row>
     <row r="688" ht="15.75" customHeight="1">
-      <c r="B688" s="40"/>
+      <c r="B688" s="42"/>
     </row>
     <row r="689" ht="15.75" customHeight="1">
-      <c r="B689" s="40"/>
+      <c r="B689" s="42"/>
     </row>
     <row r="690" ht="15.75" customHeight="1">
-      <c r="B690" s="40"/>
+      <c r="B690" s="42"/>
     </row>
     <row r="691" ht="15.75" customHeight="1">
-      <c r="B691" s="40"/>
+      <c r="B691" s="42"/>
     </row>
     <row r="692" ht="15.75" customHeight="1">
-      <c r="B692" s="40"/>
+      <c r="B692" s="42"/>
     </row>
     <row r="693" ht="15.75" customHeight="1">
-      <c r="B693" s="40"/>
+      <c r="B693" s="42"/>
     </row>
     <row r="694" ht="15.75" customHeight="1">
-      <c r="B694" s="40"/>
+      <c r="B694" s="42"/>
     </row>
     <row r="695" ht="15.75" customHeight="1">
-      <c r="B695" s="40"/>
+      <c r="B695" s="42"/>
     </row>
     <row r="696" ht="15.75" customHeight="1">
-      <c r="B696" s="40"/>
+      <c r="B696" s="42"/>
     </row>
     <row r="697" ht="15.75" customHeight="1">
-      <c r="B697" s="40"/>
+      <c r="B697" s="42"/>
     </row>
     <row r="698" ht="15.75" customHeight="1">
-      <c r="B698" s="40"/>
+      <c r="B698" s="42"/>
     </row>
     <row r="699" ht="15.75" customHeight="1">
-      <c r="B699" s="40"/>
+      <c r="B699" s="42"/>
     </row>
     <row r="700" ht="15.75" customHeight="1">
-      <c r="B700" s="40"/>
+      <c r="B700" s="42"/>
     </row>
     <row r="701" ht="15.75" customHeight="1">
-      <c r="B701" s="40"/>
+      <c r="B701" s="42"/>
     </row>
     <row r="702" ht="15.75" customHeight="1">
-      <c r="B702" s="40"/>
+      <c r="B702" s="42"/>
     </row>
     <row r="703" ht="15.75" customHeight="1">
-      <c r="B703" s="40"/>
+      <c r="B703" s="42"/>
     </row>
     <row r="704" ht="15.75" customHeight="1">
-      <c r="B704" s="40"/>
+      <c r="B704" s="42"/>
     </row>
     <row r="705" ht="15.75" customHeight="1">
-      <c r="B705" s="40"/>
+      <c r="B705" s="42"/>
     </row>
     <row r="706" ht="15.75" customHeight="1">
-      <c r="B706" s="40"/>
+      <c r="B706" s="42"/>
     </row>
     <row r="707" ht="15.75" customHeight="1">
-      <c r="B707" s="40"/>
+      <c r="B707" s="42"/>
     </row>
     <row r="708" ht="15.75" customHeight="1">
-      <c r="B708" s="40"/>
+      <c r="B708" s="42"/>
     </row>
     <row r="709" ht="15.75" customHeight="1">
-      <c r="B709" s="40"/>
+      <c r="B709" s="42"/>
     </row>
     <row r="710" ht="15.75" customHeight="1">
-      <c r="B710" s="40"/>
+      <c r="B710" s="42"/>
     </row>
     <row r="711" ht="15.75" customHeight="1">
-      <c r="B711" s="40"/>
+      <c r="B711" s="42"/>
     </row>
     <row r="712" ht="15.75" customHeight="1">
-      <c r="B712" s="40"/>
+      <c r="B712" s="42"/>
     </row>
     <row r="713" ht="15.75" customHeight="1">
-      <c r="B713" s="40"/>
+      <c r="B713" s="42"/>
     </row>
     <row r="714" ht="15.75" customHeight="1">
-      <c r="B714" s="40"/>
+      <c r="B714" s="42"/>
     </row>
     <row r="715" ht="15.75" customHeight="1">
-      <c r="B715" s="40"/>
+      <c r="B715" s="42"/>
     </row>
     <row r="716" ht="15.75" customHeight="1">
-      <c r="B716" s="40"/>
+      <c r="B716" s="42"/>
     </row>
     <row r="717" ht="15.75" customHeight="1">
-      <c r="B717" s="40"/>
+      <c r="B717" s="42"/>
     </row>
     <row r="718" ht="15.75" customHeight="1">
-      <c r="B718" s="40"/>
+      <c r="B718" s="42"/>
     </row>
     <row r="719" ht="15.75" customHeight="1">
-      <c r="B719" s="40"/>
+      <c r="B719" s="42"/>
     </row>
     <row r="720" ht="15.75" customHeight="1">
-      <c r="B720" s="40"/>
+      <c r="B720" s="42"/>
     </row>
     <row r="721" ht="15.75" customHeight="1">
-      <c r="B721" s="40"/>
+      <c r="B721" s="42"/>
     </row>
     <row r="722" ht="15.75" customHeight="1">
-      <c r="B722" s="40"/>
+      <c r="B722" s="42"/>
     </row>
     <row r="723" ht="15.75" customHeight="1">
-      <c r="B723" s="40"/>
+      <c r="B723" s="42"/>
     </row>
     <row r="724" ht="15.75" customHeight="1">
-      <c r="B724" s="40"/>
+      <c r="B724" s="42"/>
     </row>
     <row r="725" ht="15.75" customHeight="1">
-      <c r="B725" s="40"/>
+      <c r="B725" s="42"/>
     </row>
     <row r="726" ht="15.75" customHeight="1">
-      <c r="B726" s="40"/>
+      <c r="B726" s="42"/>
     </row>
     <row r="727" ht="15.75" customHeight="1">
-      <c r="B727" s="40"/>
+      <c r="B727" s="42"/>
     </row>
     <row r="728" ht="15.75" customHeight="1">
-      <c r="B728" s="40"/>
+      <c r="B728" s="42"/>
     </row>
     <row r="729" ht="15.75" customHeight="1">
-      <c r="B729" s="40"/>
+      <c r="B729" s="42"/>
     </row>
     <row r="730" ht="15.75" customHeight="1">
-      <c r="B730" s="40"/>
+      <c r="B730" s="42"/>
     </row>
     <row r="731" ht="15.75" customHeight="1">
-      <c r="B731" s="40"/>
+      <c r="B731" s="42"/>
     </row>
     <row r="732" ht="15.75" customHeight="1">
-      <c r="B732" s="40"/>
+      <c r="B732" s="42"/>
     </row>
     <row r="733" ht="15.75" customHeight="1">
-      <c r="B733" s="40"/>
+      <c r="B733" s="42"/>
     </row>
     <row r="734" ht="15.75" customHeight="1">
-      <c r="B734" s="40"/>
+      <c r="B734" s="42"/>
     </row>
     <row r="735" ht="15.75" customHeight="1">
-      <c r="B735" s="40"/>
+      <c r="B735" s="42"/>
     </row>
     <row r="736" ht="15.75" customHeight="1">
-      <c r="B736" s="40"/>
+      <c r="B736" s="42"/>
     </row>
     <row r="737" ht="15.75" customHeight="1">
-      <c r="B737" s="40"/>
+      <c r="B737" s="42"/>
     </row>
     <row r="738" ht="15.75" customHeight="1">
-      <c r="B738" s="40"/>
+      <c r="B738" s="42"/>
     </row>
     <row r="739" ht="15.75" customHeight="1">
-      <c r="B739" s="40"/>
+      <c r="B739" s="42"/>
     </row>
     <row r="740" ht="15.75" customHeight="1">
-      <c r="B740" s="40"/>
+      <c r="B740" s="42"/>
     </row>
     <row r="741" ht="15.75" customHeight="1">
-      <c r="B741" s="40"/>
+      <c r="B741" s="42"/>
     </row>
     <row r="742" ht="15.75" customHeight="1">
-      <c r="B742" s="40"/>
+      <c r="B742" s="42"/>
     </row>
     <row r="743" ht="15.75" customHeight="1">
-      <c r="B743" s="40"/>
+      <c r="B743" s="42"/>
     </row>
     <row r="744" ht="15.75" customHeight="1">
-      <c r="B744" s="40"/>
+      <c r="B744" s="42"/>
     </row>
     <row r="745" ht="15.75" customHeight="1">
-      <c r="B745" s="40"/>
+      <c r="B745" s="42"/>
     </row>
     <row r="746" ht="15.75" customHeight="1">
-      <c r="B746" s="40"/>
+      <c r="B746" s="42"/>
     </row>
     <row r="747" ht="15.75" customHeight="1">
-      <c r="B747" s="40"/>
+      <c r="B747" s="42"/>
     </row>
     <row r="748" ht="15.75" customHeight="1">
-      <c r="B748" s="40"/>
+      <c r="B748" s="42"/>
     </row>
     <row r="749" ht="15.75" customHeight="1">
-      <c r="B749" s="40"/>
+      <c r="B749" s="42"/>
     </row>
     <row r="750" ht="15.75" customHeight="1">
-      <c r="B750" s="40"/>
+      <c r="B750" s="42"/>
     </row>
     <row r="751" ht="15.75" customHeight="1">
-      <c r="B751" s="40"/>
+      <c r="B751" s="42"/>
     </row>
     <row r="752" ht="15.75" customHeight="1">
-      <c r="B752" s="40"/>
+      <c r="B752" s="42"/>
     </row>
     <row r="753" ht="15.75" customHeight="1">
-      <c r="B753" s="40"/>
+      <c r="B753" s="42"/>
     </row>
     <row r="754" ht="15.75" customHeight="1">
-      <c r="B754" s="40"/>
+      <c r="B754" s="42"/>
     </row>
     <row r="755" ht="15.75" customHeight="1">
-      <c r="B755" s="40"/>
+      <c r="B755" s="42"/>
     </row>
     <row r="756" ht="15.75" customHeight="1">
-      <c r="B756" s="40"/>
+      <c r="B756" s="42"/>
     </row>
     <row r="757" ht="15.75" customHeight="1">
-      <c r="B757" s="40"/>
+      <c r="B757" s="42"/>
     </row>
     <row r="758" ht="15.75" customHeight="1">
-      <c r="B758" s="40"/>
+      <c r="B758" s="42"/>
     </row>
     <row r="759" ht="15.75" customHeight="1">
-      <c r="B759" s="40"/>
+      <c r="B759" s="42"/>
     </row>
     <row r="760" ht="15.75" customHeight="1">
-      <c r="B760" s="40"/>
+      <c r="B760" s="42"/>
     </row>
     <row r="761" ht="15.75" customHeight="1">
-      <c r="B761" s="40"/>
+      <c r="B761" s="42"/>
     </row>
     <row r="762" ht="15.75" customHeight="1">
-      <c r="B762" s="40"/>
+      <c r="B762" s="42"/>
     </row>
     <row r="763" ht="15.75" customHeight="1">
-      <c r="B763" s="40"/>
+      <c r="B763" s="42"/>
     </row>
     <row r="764" ht="15.75" customHeight="1">
-      <c r="B764" s="40"/>
+      <c r="B764" s="42"/>
     </row>
     <row r="765" ht="15.75" customHeight="1">
-      <c r="B765" s="40"/>
+      <c r="B765" s="42"/>
     </row>
     <row r="766" ht="15.75" customHeight="1">
-      <c r="B766" s="40"/>
+      <c r="B766" s="42"/>
     </row>
     <row r="767" ht="15.75" customHeight="1">
-      <c r="B767" s="40"/>
+      <c r="B767" s="42"/>
     </row>
     <row r="768" ht="15.75" customHeight="1">
-      <c r="B768" s="40"/>
+      <c r="B768" s="42"/>
     </row>
     <row r="769" ht="15.75" customHeight="1">
-      <c r="B769" s="40"/>
+      <c r="B769" s="42"/>
     </row>
     <row r="770" ht="15.75" customHeight="1">
-      <c r="B770" s="40"/>
+      <c r="B770" s="42"/>
     </row>
     <row r="771" ht="15.75" customHeight="1">
-      <c r="B771" s="40"/>
+      <c r="B771" s="42"/>
     </row>
     <row r="772" ht="15.75" customHeight="1">
-      <c r="B772" s="40"/>
+      <c r="B772" s="42"/>
     </row>
     <row r="773" ht="15.75" customHeight="1">
-      <c r="B773" s="40"/>
+      <c r="B773" s="42"/>
     </row>
     <row r="774" ht="15.75" customHeight="1">
-      <c r="B774" s="40"/>
+      <c r="B774" s="42"/>
     </row>
     <row r="775" ht="15.75" customHeight="1">
-      <c r="B775" s="40"/>
+      <c r="B775" s="42"/>
     </row>
     <row r="776" ht="15.75" customHeight="1">
-      <c r="B776" s="40"/>
+      <c r="B776" s="42"/>
     </row>
     <row r="777" ht="15.75" customHeight="1">
-      <c r="B777" s="40"/>
+      <c r="B777" s="42"/>
     </row>
     <row r="778" ht="15.75" customHeight="1">
-      <c r="B778" s="40"/>
+      <c r="B778" s="42"/>
     </row>
     <row r="779" ht="15.75" customHeight="1">
-      <c r="B779" s="40"/>
+      <c r="B779" s="42"/>
     </row>
     <row r="780" ht="15.75" customHeight="1">
-      <c r="B780" s="40"/>
+      <c r="B780" s="42"/>
     </row>
     <row r="781" ht="15.75" customHeight="1">
-      <c r="B781" s="40"/>
+      <c r="B781" s="42"/>
     </row>
     <row r="782" ht="15.75" customHeight="1">
-      <c r="B782" s="40"/>
+      <c r="B782" s="42"/>
     </row>
     <row r="783" ht="15.75" customHeight="1">
-      <c r="B783" s="40"/>
+      <c r="B783" s="42"/>
     </row>
     <row r="784" ht="15.75" customHeight="1">
-      <c r="B784" s="40"/>
+      <c r="B784" s="42"/>
     </row>
     <row r="785" ht="15.75" customHeight="1">
-      <c r="B785" s="40"/>
+      <c r="B785" s="42"/>
     </row>
     <row r="786" ht="15.75" customHeight="1">
-      <c r="B786" s="40"/>
+      <c r="B786" s="42"/>
     </row>
     <row r="787" ht="15.75" customHeight="1">
-      <c r="B787" s="40"/>
+      <c r="B787" s="42"/>
     </row>
     <row r="788" ht="15.75" customHeight="1">
-      <c r="B788" s="40"/>
+      <c r="B788" s="42"/>
     </row>
     <row r="789" ht="15.75" customHeight="1">
-      <c r="B789" s="40"/>
+      <c r="B789" s="42"/>
     </row>
     <row r="790" ht="15.75" customHeight="1">
-      <c r="B790" s="40"/>
+      <c r="B790" s="42"/>
     </row>
     <row r="791" ht="15.75" customHeight="1">
-      <c r="B791" s="40"/>
+      <c r="B791" s="42"/>
     </row>
     <row r="792" ht="15.75" customHeight="1">
-      <c r="B792" s="40"/>
+      <c r="B792" s="42"/>
     </row>
     <row r="793" ht="15.75" customHeight="1">
-      <c r="B793" s="40"/>
+      <c r="B793" s="42"/>
     </row>
     <row r="794" ht="15.75" customHeight="1">
-      <c r="B794" s="40"/>
+      <c r="B794" s="42"/>
     </row>
     <row r="795" ht="15.75" customHeight="1">
-      <c r="B795" s="40"/>
+      <c r="B795" s="42"/>
     </row>
     <row r="796" ht="15.75" customHeight="1">
-      <c r="B796" s="40"/>
+      <c r="B796" s="42"/>
     </row>
     <row r="797" ht="15.75" customHeight="1">
-      <c r="B797" s="40"/>
+      <c r="B797" s="42"/>
     </row>
     <row r="798" ht="15.75" customHeight="1">
-      <c r="B798" s="40"/>
+      <c r="B798" s="42"/>
     </row>
     <row r="799" ht="15.75" customHeight="1">
-      <c r="B799" s="40"/>
+      <c r="B799" s="42"/>
     </row>
     <row r="800" ht="15.75" customHeight="1">
-      <c r="B800" s="40"/>
+      <c r="B800" s="42"/>
     </row>
     <row r="801" ht="15.75" customHeight="1">
-      <c r="B801" s="40"/>
+      <c r="B801" s="42"/>
     </row>
     <row r="802" ht="15.75" customHeight="1">
-      <c r="B802" s="40"/>
+      <c r="B802" s="42"/>
     </row>
     <row r="803" ht="15.75" customHeight="1">
-      <c r="B803" s="40"/>
+      <c r="B803" s="42"/>
     </row>
     <row r="804" ht="15.75" customHeight="1">
-      <c r="B804" s="40"/>
+      <c r="B804" s="42"/>
     </row>
     <row r="805" ht="15.75" customHeight="1">
-      <c r="B805" s="40"/>
+      <c r="B805" s="42"/>
     </row>
     <row r="806" ht="15.75" customHeight="1">
-      <c r="B806" s="40"/>
+      <c r="B806" s="42"/>
     </row>
     <row r="807" ht="15.75" customHeight="1">
-      <c r="B807" s="40"/>
+      <c r="B807" s="42"/>
     </row>
     <row r="808" ht="15.75" customHeight="1">
-      <c r="B808" s="40"/>
+      <c r="B808" s="42"/>
     </row>
     <row r="809" ht="15.75" customHeight="1">
-      <c r="B809" s="40"/>
+      <c r="B809" s="42"/>
     </row>
     <row r="810" ht="15.75" customHeight="1">
-      <c r="B810" s="40"/>
+      <c r="B810" s="42"/>
     </row>
     <row r="811" ht="15.75" customHeight="1">
-      <c r="B811" s="40"/>
+      <c r="B811" s="42"/>
     </row>
     <row r="812" ht="15.75" customHeight="1">
-      <c r="B812" s="40"/>
+      <c r="B812" s="42"/>
     </row>
     <row r="813" ht="15.75" customHeight="1">
-      <c r="B813" s="40"/>
+      <c r="B813" s="42"/>
     </row>
     <row r="814" ht="15.75" customHeight="1">
-      <c r="B814" s="40"/>
+      <c r="B814" s="42"/>
     </row>
     <row r="815" ht="15.75" customHeight="1">
-      <c r="B815" s="40"/>
+      <c r="B815" s="42"/>
     </row>
     <row r="816" ht="15.75" customHeight="1">
-      <c r="B816" s="40"/>
+      <c r="B816" s="42"/>
     </row>
     <row r="817" ht="15.75" customHeight="1">
-      <c r="B817" s="40"/>
+      <c r="B817" s="42"/>
     </row>
     <row r="818" ht="15.75" customHeight="1">
-      <c r="B818" s="40"/>
+      <c r="B818" s="42"/>
     </row>
     <row r="819" ht="15.75" customHeight="1">
-      <c r="B819" s="40"/>
+      <c r="B819" s="42"/>
     </row>
     <row r="820" ht="15.75" customHeight="1">
-      <c r="B820" s="40"/>
+      <c r="B820" s="42"/>
     </row>
     <row r="821" ht="15.75" customHeight="1">
-      <c r="B821" s="40"/>
+      <c r="B821" s="42"/>
     </row>
     <row r="822" ht="15.75" customHeight="1">
-      <c r="B822" s="40"/>
+      <c r="B822" s="42"/>
     </row>
     <row r="823" ht="15.75" customHeight="1">
-      <c r="B823" s="40"/>
+      <c r="B823" s="42"/>
     </row>
     <row r="824" ht="15.75" customHeight="1">
-      <c r="B824" s="40"/>
+      <c r="B824" s="42"/>
     </row>
     <row r="825" ht="15.75" customHeight="1">
-      <c r="B825" s="40"/>
+      <c r="B825" s="42"/>
     </row>
     <row r="826" ht="15.75" customHeight="1">
-      <c r="B826" s="40"/>
+      <c r="B826" s="42"/>
     </row>
     <row r="827" ht="15.75" customHeight="1">
-      <c r="B827" s="40"/>
+      <c r="B827" s="42"/>
     </row>
     <row r="828" ht="15.75" customHeight="1">
-      <c r="B828" s="40"/>
+      <c r="B828" s="42"/>
     </row>
     <row r="829" ht="15.75" customHeight="1">
-      <c r="B829" s="40"/>
+      <c r="B829" s="42"/>
     </row>
     <row r="830" ht="15.75" customHeight="1">
-      <c r="B830" s="40"/>
+      <c r="B830" s="42"/>
     </row>
     <row r="831" ht="15.75" customHeight="1">
-      <c r="B831" s="40"/>
+      <c r="B831" s="42"/>
     </row>
     <row r="832" ht="15.75" customHeight="1">
-      <c r="B832" s="40"/>
+      <c r="B832" s="42"/>
     </row>
     <row r="833" ht="15.75" customHeight="1">
-      <c r="B833" s="40"/>
+      <c r="B833" s="42"/>
     </row>
     <row r="834" ht="15.75" customHeight="1">
-      <c r="B834" s="40"/>
+      <c r="B834" s="42"/>
     </row>
     <row r="835" ht="15.75" customHeight="1">
-      <c r="B835" s="40"/>
+      <c r="B835" s="42"/>
     </row>
     <row r="836" ht="15.75" customHeight="1">
-      <c r="B836" s="40"/>
+      <c r="B836" s="42"/>
     </row>
     <row r="837" ht="15.75" customHeight="1">
-      <c r="B837" s="40"/>
+      <c r="B837" s="42"/>
     </row>
     <row r="838" ht="15.75" customHeight="1">
-      <c r="B838" s="40"/>
+      <c r="B838" s="42"/>
     </row>
     <row r="839" ht="15.75" customHeight="1">
-      <c r="B839" s="40"/>
+      <c r="B839" s="42"/>
     </row>
     <row r="840" ht="15.75" customHeight="1">
-      <c r="B840" s="40"/>
+      <c r="B840" s="42"/>
     </row>
     <row r="841" ht="15.75" customHeight="1">
-      <c r="B841" s="40"/>
+      <c r="B841" s="42"/>
     </row>
     <row r="842" ht="15.75" customHeight="1">
-      <c r="B842" s="40"/>
+      <c r="B842" s="42"/>
     </row>
     <row r="843" ht="15.75" customHeight="1">
-      <c r="B843" s="40"/>
+      <c r="B843" s="42"/>
     </row>
     <row r="844" ht="15.75" customHeight="1">
-      <c r="B844" s="40"/>
+      <c r="B844" s="42"/>
     </row>
     <row r="845" ht="15.75" customHeight="1">
-      <c r="B845" s="40"/>
+      <c r="B845" s="42"/>
     </row>
     <row r="846" ht="15.75" customHeight="1">
-      <c r="B846" s="40"/>
+      <c r="B846" s="42"/>
     </row>
     <row r="847" ht="15.75" customHeight="1">
-      <c r="B847" s="40"/>
+      <c r="B847" s="42"/>
     </row>
     <row r="848" ht="15.75" customHeight="1">
-      <c r="B848" s="40"/>
+      <c r="B848" s="42"/>
     </row>
     <row r="849" ht="15.75" customHeight="1">
-      <c r="B849" s="40"/>
+      <c r="B849" s="42"/>
     </row>
     <row r="850" ht="15.75" customHeight="1">
-      <c r="B850" s="40"/>
+      <c r="B850" s="42"/>
     </row>
     <row r="851" ht="15.75" customHeight="1">
-      <c r="B851" s="40"/>
+      <c r="B851" s="42"/>
     </row>
     <row r="852" ht="15.75" customHeight="1">
-      <c r="B852" s="40"/>
+      <c r="B852" s="42"/>
     </row>
     <row r="853" ht="15.75" customHeight="1">
-      <c r="B853" s="40"/>
+      <c r="B853" s="42"/>
     </row>
     <row r="854" ht="15.75" customHeight="1">
-      <c r="B854" s="40"/>
+      <c r="B854" s="42"/>
     </row>
     <row r="855" ht="15.75" customHeight="1">
-      <c r="B855" s="40"/>
+      <c r="B855" s="42"/>
     </row>
     <row r="856" ht="15.75" customHeight="1">
-      <c r="B856" s="40"/>
+      <c r="B856" s="42"/>
     </row>
     <row r="857" ht="15.75" customHeight="1">
-      <c r="B857" s="40"/>
+      <c r="B857" s="42"/>
     </row>
     <row r="858" ht="15.75" customHeight="1">
-      <c r="B858" s="40"/>
+      <c r="B858" s="42"/>
     </row>
     <row r="859" ht="15.75" customHeight="1">
-      <c r="B859" s="40"/>
+      <c r="B859" s="42"/>
     </row>
     <row r="860" ht="15.75" customHeight="1">
-      <c r="B860" s="40"/>
+      <c r="B860" s="42"/>
     </row>
     <row r="861" ht="15.75" customHeight="1">
-      <c r="B861" s="40"/>
+      <c r="B861" s="42"/>
     </row>
     <row r="862" ht="15.75" customHeight="1">
-      <c r="B862" s="40"/>
+      <c r="B862" s="42"/>
     </row>
     <row r="863" ht="15.75" customHeight="1">
-      <c r="B863" s="40"/>
+      <c r="B863" s="42"/>
     </row>
     <row r="864" ht="15.75" customHeight="1">
-      <c r="B864" s="40"/>
+      <c r="B864" s="42"/>
     </row>
     <row r="865" ht="15.75" customHeight="1">
-      <c r="B865" s="40"/>
+      <c r="B865" s="42"/>
     </row>
     <row r="866" ht="15.75" customHeight="1">
-      <c r="B866" s="40"/>
+      <c r="B866" s="42"/>
     </row>
     <row r="867" ht="15.75" customHeight="1">
-      <c r="B867" s="40"/>
+      <c r="B867" s="42"/>
     </row>
     <row r="868" ht="15.75" customHeight="1">
-      <c r="B868" s="40"/>
+      <c r="B868" s="42"/>
     </row>
     <row r="869" ht="15.75" customHeight="1">
-      <c r="B869" s="40"/>
+      <c r="B869" s="42"/>
     </row>
     <row r="870" ht="15.75" customHeight="1">
-      <c r="B870" s="40"/>
+      <c r="B870" s="42"/>
     </row>
     <row r="871" ht="15.75" customHeight="1">
-      <c r="B871" s="40"/>
+      <c r="B871" s="42"/>
     </row>
     <row r="872" ht="15.75" customHeight="1">
-      <c r="B872" s="40"/>
+      <c r="B872" s="42"/>
     </row>
     <row r="873" ht="15.75" customHeight="1">
-      <c r="B873" s="40"/>
+      <c r="B873" s="42"/>
     </row>
     <row r="874" ht="15.75" customHeight="1">
-      <c r="B874" s="40"/>
+      <c r="B874" s="42"/>
     </row>
     <row r="875" ht="15.75" customHeight="1">
-      <c r="B875" s="40"/>
+      <c r="B875" s="42"/>
     </row>
     <row r="876" ht="15.75" customHeight="1">
-      <c r="B876" s="40"/>
+      <c r="B876" s="42"/>
     </row>
     <row r="877" ht="15.75" customHeight="1">
-      <c r="B877" s="40"/>
+      <c r="B877" s="42"/>
     </row>
     <row r="878" ht="15.75" customHeight="1">
-      <c r="B878" s="40"/>
+      <c r="B878" s="42"/>
     </row>
     <row r="879" ht="15.75" customHeight="1">
-      <c r="B879" s="40"/>
+      <c r="B879" s="42"/>
     </row>
     <row r="880" ht="15.75" customHeight="1">
-      <c r="B880" s="40"/>
+      <c r="B880" s="42"/>
     </row>
     <row r="881" ht="15.75" customHeight="1">
-      <c r="B881" s="40"/>
+      <c r="B881" s="42"/>
     </row>
     <row r="882" ht="15.75" customHeight="1">
-      <c r="B882" s="40"/>
+      <c r="B882" s="42"/>
     </row>
     <row r="883" ht="15.75" customHeight="1">
-      <c r="B883" s="40"/>
+      <c r="B883" s="42"/>
     </row>
     <row r="884" ht="15.75" customHeight="1">
-      <c r="B884" s="40"/>
+      <c r="B884" s="42"/>
     </row>
     <row r="885" ht="15.75" customHeight="1">
-      <c r="B885" s="40"/>
+      <c r="B885" s="42"/>
     </row>
     <row r="886" ht="15.75" customHeight="1">
-      <c r="B886" s="40"/>
+      <c r="B886" s="42"/>
     </row>
     <row r="887" ht="15.75" customHeight="1">
-      <c r="B887" s="40"/>
+      <c r="B887" s="42"/>
     </row>
     <row r="888" ht="15.75" customHeight="1">
-      <c r="B888" s="40"/>
+      <c r="B888" s="42"/>
     </row>
     <row r="889" ht="15.75" customHeight="1">
-      <c r="B889" s="40"/>
+      <c r="B889" s="42"/>
     </row>
     <row r="890" ht="15.75" customHeight="1">
-      <c r="B890" s="40"/>
+      <c r="B890" s="42"/>
     </row>
     <row r="891" ht="15.75" customHeight="1">
-      <c r="B891" s="40"/>
+      <c r="B891" s="42"/>
     </row>
     <row r="892" ht="15.75" customHeight="1">
-      <c r="B892" s="40"/>
+      <c r="B892" s="42"/>
     </row>
     <row r="893" ht="15.75" customHeight="1">
-      <c r="B893" s="40"/>
+      <c r="B893" s="42"/>
     </row>
     <row r="894" ht="15.75" customHeight="1">
-      <c r="B894" s="40"/>
+      <c r="B894" s="42"/>
     </row>
     <row r="895" ht="15.75" customHeight="1">
-      <c r="B895" s="40"/>
+      <c r="B895" s="42"/>
     </row>
     <row r="896" ht="15.75" customHeight="1">
-      <c r="B896" s="40"/>
+      <c r="B896" s="42"/>
     </row>
     <row r="897" ht="15.75" customHeight="1">
-      <c r="B897" s="40"/>
+      <c r="B897" s="42"/>
     </row>
     <row r="898" ht="15.75" customHeight="1">
-      <c r="B898" s="40"/>
+      <c r="B898" s="42"/>
     </row>
     <row r="899" ht="15.75" customHeight="1">
-      <c r="B899" s="40"/>
+      <c r="B899" s="42"/>
     </row>
     <row r="900" ht="15.75" customHeight="1">
-      <c r="B900" s="40"/>
+      <c r="B900" s="42"/>
     </row>
     <row r="901" ht="15.75" customHeight="1">
-      <c r="B901" s="40"/>
+      <c r="B901" s="42"/>
     </row>
     <row r="902" ht="15.75" customHeight="1">
-      <c r="B902" s="40"/>
+      <c r="B902" s="42"/>
     </row>
     <row r="903" ht="15.75" customHeight="1">
-      <c r="B903" s="40"/>
+      <c r="B903" s="42"/>
     </row>
     <row r="904" ht="15.75" customHeight="1">
-      <c r="B904" s="40"/>
+      <c r="B904" s="42"/>
     </row>
     <row r="905" ht="15.75" customHeight="1">
-      <c r="B905" s="40"/>
+      <c r="B905" s="42"/>
     </row>
     <row r="906" ht="15.75" customHeight="1">
-      <c r="B906" s="40"/>
+      <c r="B906" s="42"/>
     </row>
     <row r="907" ht="15.75" customHeight="1">
-      <c r="B907" s="40"/>
+      <c r="B907" s="42"/>
     </row>
     <row r="908" ht="15.75" customHeight="1">
-      <c r="B908" s="40"/>
+      <c r="B908" s="42"/>
     </row>
     <row r="909" ht="15.75" customHeight="1">
-      <c r="B909" s="40"/>
+      <c r="B909" s="42"/>
     </row>
     <row r="910" ht="15.75" customHeight="1">
-      <c r="B910" s="40"/>
+      <c r="B910" s="42"/>
     </row>
     <row r="911" ht="15.75" customHeight="1">
-      <c r="B911" s="40"/>
+      <c r="B911" s="42"/>
     </row>
     <row r="912" ht="15.75" customHeight="1">
-      <c r="B912" s="40"/>
+      <c r="B912" s="42"/>
     </row>
     <row r="913" ht="15.75" customHeight="1">
-      <c r="B913" s="40"/>
+      <c r="B913" s="42"/>
     </row>
     <row r="914" ht="15.75" customHeight="1">
-      <c r="B914" s="40"/>
+      <c r="B914" s="42"/>
     </row>
     <row r="915" ht="15.75" customHeight="1">
-      <c r="B915" s="40"/>
+      <c r="B915" s="42"/>
     </row>
     <row r="916" ht="15.75" customHeight="1">
-      <c r="B916" s="40"/>
+      <c r="B916" s="42"/>
     </row>
     <row r="917" ht="15.75" customHeight="1">
-      <c r="B917" s="40"/>
+      <c r="B917" s="42"/>
     </row>
     <row r="918" ht="15.75" customHeight="1">
-      <c r="B918" s="40"/>
+      <c r="B918" s="42"/>
     </row>
     <row r="919" ht="15.75" customHeight="1">
-      <c r="B919" s="40"/>
+      <c r="B919" s="42"/>
     </row>
     <row r="920" ht="15.75" customHeight="1">
-      <c r="B920" s="40"/>
+      <c r="B920" s="42"/>
     </row>
     <row r="921" ht="15.75" customHeight="1">
-      <c r="B921" s="40"/>
+      <c r="B921" s="42"/>
     </row>
     <row r="922" ht="15.75" customHeight="1">
-      <c r="B922" s="40"/>
+      <c r="B922" s="42"/>
     </row>
     <row r="923" ht="15.75" customHeight="1">
-      <c r="B923" s="40"/>
+      <c r="B923" s="42"/>
     </row>
     <row r="924" ht="15.75" customHeight="1">
-      <c r="B924" s="40"/>
+      <c r="B924" s="42"/>
     </row>
     <row r="925" ht="15.75" customHeight="1">
-      <c r="B925" s="40"/>
+      <c r="B925" s="42"/>
     </row>
     <row r="926" ht="15.75" customHeight="1">
-      <c r="B926" s="40"/>
+      <c r="B926" s="42"/>
     </row>
     <row r="927" ht="15.75" customHeight="1">
-      <c r="B927" s="40"/>
+      <c r="B927" s="42"/>
     </row>
     <row r="928" ht="15.75" customHeight="1">
-      <c r="B928" s="40"/>
+      <c r="B928" s="42"/>
     </row>
     <row r="929" ht="15.75" customHeight="1">
-      <c r="B929" s="40"/>
+      <c r="B929" s="42"/>
     </row>
     <row r="930" ht="15.75" customHeight="1">
-      <c r="B930" s="40"/>
+      <c r="B930" s="42"/>
     </row>
     <row r="931" ht="15.75" customHeight="1">
-      <c r="B931" s="40"/>
+      <c r="B931" s="42"/>
     </row>
     <row r="932" ht="15.75" customHeight="1">
-      <c r="B932" s="40"/>
+      <c r="B932" s="42"/>
     </row>
     <row r="933" ht="15.75" customHeight="1">
-      <c r="B933" s="40"/>
+      <c r="B933" s="42"/>
     </row>
     <row r="934" ht="15.75" customHeight="1">
-      <c r="B934" s="40"/>
+      <c r="B934" s="42"/>
     </row>
     <row r="935" ht="15.75" customHeight="1">
-      <c r="B935" s="40"/>
+      <c r="B935" s="42"/>
     </row>
     <row r="936" ht="15.75" customHeight="1">
-      <c r="B936" s="40"/>
+      <c r="B936" s="42"/>
     </row>
     <row r="937" ht="15.75" customHeight="1">
-      <c r="B937" s="40"/>
+      <c r="B937" s="42"/>
     </row>
     <row r="938" ht="15.75" customHeight="1">
-      <c r="B938" s="40"/>
+      <c r="B938" s="42"/>
     </row>
     <row r="939" ht="15.75" customHeight="1">
-      <c r="B939" s="40"/>
+      <c r="B939" s="42"/>
     </row>
     <row r="940" ht="15.75" customHeight="1">
-      <c r="B940" s="40"/>
+      <c r="B940" s="42"/>
     </row>
     <row r="941" ht="15.75" customHeight="1">
-      <c r="B941" s="40"/>
+      <c r="B941" s="42"/>
     </row>
     <row r="942" ht="15.75" customHeight="1">
-      <c r="B942" s="40"/>
+      <c r="B942" s="42"/>
     </row>
     <row r="943" ht="15.75" customHeight="1">
-      <c r="B943" s="40"/>
+      <c r="B943" s="42"/>
     </row>
     <row r="944" ht="15.75" customHeight="1">
-      <c r="B944" s="40"/>
+      <c r="B944" s="42"/>
     </row>
     <row r="945" ht="15.75" customHeight="1">
-      <c r="B945" s="40"/>
+      <c r="B945" s="42"/>
     </row>
     <row r="946" ht="15.75" customHeight="1">
-      <c r="B946" s="40"/>
+      <c r="B946" s="42"/>
     </row>
     <row r="947" ht="15.75" customHeight="1">
-      <c r="B947" s="40"/>
+      <c r="B947" s="42"/>
     </row>
     <row r="948" ht="15.75" customHeight="1">
-      <c r="B948" s="40"/>
+      <c r="B948" s="42"/>
     </row>
     <row r="949" ht="15.75" customHeight="1">
-      <c r="B949" s="40"/>
+      <c r="B949" s="42"/>
     </row>
     <row r="950" ht="15.75" customHeight="1">
-      <c r="B950" s="40"/>
+      <c r="B950" s="42"/>
     </row>
     <row r="951" ht="15.75" customHeight="1">
-      <c r="B951" s="40"/>
+      <c r="B951" s="42"/>
     </row>
     <row r="952" ht="15.75" customHeight="1">
-      <c r="B952" s="40"/>
+      <c r="B952" s="42"/>
     </row>
     <row r="953" ht="15.75" customHeight="1">
-      <c r="B953" s="40"/>
+      <c r="B953" s="42"/>
     </row>
     <row r="954" ht="15.75" customHeight="1">
-      <c r="B954" s="40"/>
+      <c r="B954" s="42"/>
     </row>
     <row r="955" ht="15.75" customHeight="1">
-      <c r="B955" s="40"/>
+      <c r="B955" s="42"/>
     </row>
     <row r="956" ht="15.75" customHeight="1">
-      <c r="B956" s="40"/>
+      <c r="B956" s="42"/>
     </row>
     <row r="957" ht="15.75" customHeight="1">
-      <c r="B957" s="40"/>
+      <c r="B957" s="42"/>
     </row>
     <row r="958" ht="15.75" customHeight="1">
-      <c r="B958" s="40"/>
+      <c r="B958" s="42"/>
     </row>
     <row r="959" ht="15.75" customHeight="1">
-      <c r="B959" s="40"/>
+      <c r="B959" s="42"/>
     </row>
     <row r="960" ht="15.75" customHeight="1">
-      <c r="B960" s="40"/>
+      <c r="B960" s="42"/>
     </row>
     <row r="961" ht="15.75" customHeight="1">
-      <c r="B961" s="40"/>
+      <c r="B961" s="42"/>
     </row>
     <row r="962" ht="15.75" customHeight="1">
-      <c r="B962" s="40"/>
+      <c r="B962" s="42"/>
     </row>
     <row r="963" ht="15.75" customHeight="1">
-      <c r="B963" s="40"/>
+      <c r="B963" s="42"/>
     </row>
     <row r="964" ht="15.75" customHeight="1">
-      <c r="B964" s="40"/>
+      <c r="B964" s="42"/>
     </row>
     <row r="965" ht="15.75" customHeight="1">
-      <c r="B965" s="40"/>
+      <c r="B965" s="42"/>
     </row>
     <row r="966" ht="15.75" customHeight="1">
-      <c r="B966" s="40"/>
+      <c r="B966" s="42"/>
     </row>
     <row r="967" ht="15.75" customHeight="1">
-      <c r="B967" s="40"/>
+      <c r="B967" s="42"/>
     </row>
     <row r="968" ht="15.75" customHeight="1">
-      <c r="B968" s="40"/>
+      <c r="B968" s="42"/>
     </row>
     <row r="969" ht="15.75" customHeight="1">
-      <c r="B969" s="40"/>
+      <c r="B969" s="42"/>
     </row>
     <row r="970" ht="15.75" customHeight="1">
-      <c r="B970" s="40"/>
+      <c r="B970" s="42"/>
     </row>
     <row r="971" ht="15.75" customHeight="1">
-      <c r="B971" s="40"/>
+      <c r="B971" s="42"/>
     </row>
     <row r="972" ht="15.75" customHeight="1">
-      <c r="B972" s="40"/>
+      <c r="B972" s="42"/>
     </row>
     <row r="973" ht="15.75" customHeight="1">
-      <c r="B973" s="40"/>
+      <c r="B973" s="42"/>
     </row>
     <row r="974" ht="15.75" customHeight="1">
-      <c r="B974" s="40"/>
+      <c r="B974" s="42"/>
     </row>
     <row r="975" ht="15.75" customHeight="1">
-      <c r="B975" s="40"/>
+      <c r="B975" s="42"/>
     </row>
     <row r="976" ht="15.75" customHeight="1">
-      <c r="B976" s="40"/>
+      <c r="B976" s="42"/>
     </row>
     <row r="977" ht="15.75" customHeight="1">
-      <c r="B977" s="40"/>
+      <c r="B977" s="42"/>
     </row>
     <row r="978" ht="15.75" customHeight="1">
-      <c r="B978" s="40"/>
+      <c r="B978" s="42"/>
     </row>
     <row r="979" ht="15.75" customHeight="1">
-      <c r="B979" s="40"/>
+      <c r="B979" s="42"/>
     </row>
     <row r="980" ht="15.75" customHeight="1">
-      <c r="B980" s="40"/>
+      <c r="B980" s="42"/>
     </row>
     <row r="981" ht="15.75" customHeight="1">
-      <c r="B981" s="40"/>
+      <c r="B981" s="42"/>
     </row>
     <row r="982" ht="15.75" customHeight="1">
-      <c r="B982" s="40"/>
+      <c r="B982" s="42"/>
     </row>
     <row r="983" ht="15.75" customHeight="1">
-      <c r="B983" s="40"/>
+      <c r="B983" s="42"/>
     </row>
     <row r="984" ht="15.75" customHeight="1">
-      <c r="B984" s="40"/>
+      <c r="B984" s="42"/>
     </row>
     <row r="985" ht="15.75" customHeight="1">
-      <c r="B985" s="40"/>
+      <c r="B985" s="42"/>
     </row>
     <row r="986" ht="15.75" customHeight="1">
-      <c r="B986" s="40"/>
+      <c r="B986" s="42"/>
     </row>
     <row r="987" ht="15.75" customHeight="1">
-      <c r="B987" s="40"/>
+      <c r="B987" s="42"/>
     </row>
     <row r="988" ht="15.75" customHeight="1">
-      <c r="B988" s="40"/>
+      <c r="B988" s="42"/>
     </row>
     <row r="989" ht="15.75" customHeight="1">
-      <c r="B989" s="40"/>
+      <c r="B989" s="42"/>
     </row>
     <row r="990" ht="15.75" customHeight="1">
-      <c r="B990" s="40"/>
+      <c r="B990" s="42"/>
     </row>
     <row r="991" ht="15.75" customHeight="1">
-      <c r="B991" s="40"/>
+      <c r="B991" s="42"/>
     </row>
     <row r="992" ht="15.75" customHeight="1">
-      <c r="B992" s="40"/>
+      <c r="B992" s="42"/>
     </row>
     <row r="993" ht="15.75" customHeight="1">
-      <c r="B993" s="40"/>
+      <c r="B993" s="42"/>
     </row>
     <row r="994" ht="15.75" customHeight="1">
-      <c r="B994" s="40"/>
+      <c r="B994" s="42"/>
     </row>
     <row r="995" ht="15.75" customHeight="1">
-      <c r="B995" s="40"/>
+      <c r="B995" s="42"/>
     </row>
     <row r="996" ht="15.75" customHeight="1">
-      <c r="B996" s="40"/>
+      <c r="B996" s="42"/>
     </row>
     <row r="997" ht="15.75" customHeight="1">
-      <c r="B997" s="40"/>
+      <c r="B997" s="42"/>
     </row>
     <row r="998" ht="15.75" customHeight="1">
-      <c r="B998" s="40"/>
+      <c r="B998" s="42"/>
     </row>
     <row r="999" ht="15.75" customHeight="1">
-      <c r="B999" s="40"/>
+      <c r="B999" s="42"/>
     </row>
     <row r="1000" ht="15.75" customHeight="1">
-      <c r="B1000" s="40"/>
+      <c r="B1000" s="42"/>
     </row>
     <row r="1001" ht="15.75" customHeight="1">
-      <c r="B1001" s="40"/>
+      <c r="B1001" s="42"/>
     </row>
     <row r="1002" ht="15.75" customHeight="1">
-      <c r="B1002" s="40"/>
+      <c r="B1002" s="42"/>
     </row>
     <row r="1003" ht="15.75" customHeight="1">
-      <c r="B1003" s="40"/>
+      <c r="B1003" s="42"/>
     </row>
     <row r="1004" ht="15.75" customHeight="1">
-      <c r="B1004" s="40"/>
+      <c r="B1004" s="42"/>
     </row>
     <row r="1005" ht="15.75" customHeight="1">
-      <c r="B1005" s="40"/>
+      <c r="B1005" s="42"/>
     </row>
     <row r="1006" ht="15.75" customHeight="1">
-      <c r="B1006" s="40"/>
+      <c r="B1006" s="42"/>
     </row>
     <row r="1007" ht="15.75" customHeight="1">
-      <c r="B1007" s="40"/>
+      <c r="B1007" s="42"/>
     </row>
     <row r="1008" ht="15.75" customHeight="1">
-      <c r="B1008" s="40"/>
+      <c r="B1008" s="42"/>
     </row>
     <row r="1009" ht="15.75" customHeight="1">
-      <c r="B1009" s="40"/>
+      <c r="B1009" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="32">

--- a/tools/game_levels.xlsx
+++ b/tools/game_levels.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="197">
   <si>
     <t>Feature</t>
   </si>
@@ -580,12 +580,6 @@
   </si>
   <si>
     <t>Willkommen in der Stadt Mikhausen auf dem Planeten Mikana! Das bist du: Ein Mika, wie die auf Mikana lebenden Wesen genannt werden. Du lebst zusammen mit anderen Mikas hier in Mikhausen.</t>
-  </si>
-  <si>
-    <t>10:00, 14:00</t>
-  </si>
-  <si>
-    <t>01:00, 11:00</t>
   </si>
   <si>
     <t xml:space="preserve">No </t>
@@ -7954,13 +7948,13 @@
         <v>120</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>189</v>
+        <v>121</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>190</v>
+        <v>122</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>190</v>
+        <v>122</v>
       </c>
       <c r="F39" s="9" t="s">
         <v>122</v>
@@ -8054,7 +8048,7 @@
         <v>133</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D44" s="16"/>
       <c r="E44" s="16"/>
@@ -8070,7 +8064,7 @@
         <v>135</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D45" s="12"/>
       <c r="E45" s="12"/>
@@ -8086,7 +8080,7 @@
         <v>138</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D46" s="18"/>
       <c r="E46" s="12"/>
@@ -8102,7 +8096,7 @@
         <v>141</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D47" s="18"/>
       <c r="E47" s="12"/>
@@ -8112,13 +8106,13 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="26" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B48" s="28" t="s">
         <v>144</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D48" s="18"/>
       <c r="E48" s="12"/>
@@ -8134,7 +8128,7 @@
         <v>147</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D49" s="18"/>
       <c r="E49" s="12"/>
@@ -8252,7 +8246,7 @@
       <c r="C57" s="12"/>
       <c r="D57" s="12"/>
       <c r="E57" s="9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F57" s="12"/>
       <c r="G57" s="12"/>

--- a/tools/game_levels.xlsx
+++ b/tools/game_levels.xlsx
@@ -423,7 +423,7 @@
     <t>ingroup_introduction_text</t>
   </si>
   <si>
-    <t>Das ist dein Familienclan: Ihr seid die Rothüte.</t>
+    <t>Das ist dein Familienclan: Ihr seid die Rothüte. Du lebst mit deiner ganzen Verwandtschaft zusammen auf der Rothüte-Farm.</t>
   </si>
   <si>
     <t>Textbox and scripted sequence: Hat and necklace</t>
@@ -561,7 +561,7 @@
     <t>outgroup_npcs_identical_appearance</t>
   </si>
   <si>
-    <t>Das ist deine Freundesfarm: Ihr seid die Rothüte.</t>
+    <t>Du hast dich mit den Rothüten angefreundet. Gemeinsam lebt ihr auf der Rothüte-Freundesfarm.</t>
   </si>
   <si>
     <t>Deine Freundesfarm braucht dringend Geld: unweit tobt ein Vulkan und ihr müsst umziehen. Das ist teuer. Daher: je mehr Geld ihr verdient, desto sicherer seid ihr! Verkauft Ernte, Holz und Früchte, verdient Münzen beim Wettstreit 'Kuh-in-den-Stall' gegen die Hornlinge.</t>
